--- a/ch1_evidence_causes/data/samples_4.2_narrowed_tca.xlsx
+++ b/ch1_evidence_causes/data/samples_4.2_narrowed_tca.xlsx
@@ -387,135 +387,135 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283826111</t>
+          <t>https://openalex.org/W2130079398</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jacs.2c04571</t>
+          <t>https://doi.org/10.2737/pnw-gtr-422</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Wallin et al. (1998)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Degradable ZnS-Supported Bioorthogonal Nanozymes with Enhanced Catalytic Activity for Intracellular Activation of Therapeutics</t>
+          <t>A landscape plan based on historical fire regimes for a managed forest ecosystem: the Augusta Creek study.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bioorthogonal catalysis using transition-metal catalysts (TMCs) provides a toolkit for the in situ generation of imaging and therapeutic agents in biological environments. Integrating TMCs with nanomaterials mimics key properties of natural enzymes, providing bioorthogonal “nanozymes”. ZnS nanoparticles provide a platform for bioorthogonal nanozymes using ruthenium catalysts embedded in self-assembled monolayers on the particle surface. These nanozymes uncage allylated profluorophores and prodrugs. The ZnS core combines the non-toxicity and degradability with the enhancement of Ru catalysis through the release of thiolate surface ligands that accelerate the rate-determining step in the Ru-mediated deallylation catalytic cycle. The maximum rate of reaction (Vmax) increases ∼2.5-fold as compared to the non-degradable gold nanoparticle analogue. The therapeutic potential of these bioorthogonal nanozymes is demonstrated by activating a chemotherapy drug from an inactive prodrug with efficient killing of cancer cells.</t>
+          <t>The Augusta Creek project was initiated to establish and integrate landscape and watershed objectives into a landscape plan to guide management activities within a 7600-hectare (19,000-acre) planning area in western Oregon. Primary objectives included the maintenance of native species, ecosystem processes and structures, and long-term ecosystem productivity in a federally managed landscape where substantial acreage was allocated to timber harvest. Landscape and watershed management objectives and prescriptions were based on an interpreted range of natural variability of landscape conditions and disturbance processes. A dendrochronological study characterized fire patterns and regimes over the last 500 years. Changes in landscape conditions throughout the larger surrounding watershed due to human uses (e.g., roads in riparian areas, widespread clearcutting, a major dam, and portions of a designated wilderness and an unroaded area) also were factored into the landscape plan. Landscape prescriptions include an aquatic reserve system comprised of small watersheds distributed throughout the planning area and major valley-bottom corridor reserves that connect the small-watershed reserves. Where timber harvest was allocated, prescriptions derived from interpretations of fire regimes differ in rotation ages (100 to 300 years), green-tree retention levels (15- to 50- percent canopy cover), and spatial patterns of residual trees. General prescriptions for fire management also were based on interpretations of past fire regimes. All these prescriptions were linked to specific blocks of land to provide an efficient transition to site-level planning and project implementation. Landscape and watershed conditions were projected 200 years into the future and compared with conditions that would result from application of standards, guidelines, and assumptions in the Northwest Forest Plan prior to adjustments resulting from watershed analyses. The contrasting prescriptions for aquatic reserves and timber harvest (rotation lengths, green-tree retention levels, and spatial patterns) in these two approaches resulted in strikingly different potential future landscapes. These differences have significant implications for some ecosystem processes and habitats. We view this management approach as a potential postwatershed analysis implementation of the Northwest Forest Plan and offer it as an example of how ecosystem management could be applied in a particular landscape by using the results of watershed analysis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2980837808</t>
+          <t>https://openalex.org/W3212355133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2478/ethemes-2018-0028</t>
+          <t>https://doi.org/10.1080/10383441.2021.1996890</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kostić et al. (2018)</t>
+          <t>Mitchell (2021)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Development Performance of the Textile Industry of Serbia</t>
+          <t>&lt;i&gt;Munday v Gill&lt;/i&gt; revisited: rethinking the summary jurisdiction</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abstract The textile industry is still significantly involved in production and employment in developed countries and is a major source of growth in many developing countries. As a business with a long history, the textile industry undergoes radical transformations at a global level. With the emergence of new competitors, global business conditions have changed significantly. Nevertheless, European manufacturers have remained world leaders in the production of industrial textiles and fashion clothing. Many European manufacturers resort to subcontracting or relocating capacity for labour-intensive activities in countries with lower labour costs, such as Serbia, in order to maintain competitiveness. The greatest success of the domestic textile industry was recorded in the late 1980s when it was a significant source of employment, the creation of added value and more balanced regional development. Although it is still not at the level of the 1980s, positive developments in the domestic textile industry appeared in 2016 in the direction of growth in production, employment and exports. The state seeks to accelerate the development of the textile industry through the subsidisation of foreign and domestic investors. However, growth that is primarily based on foreign direct investment is a long-term unsustainable concept. In order for growth to be sustainable, it is necessary to encourage the development of activities that produce greater added value and increase competitiveness. That is the reason why it is necessary to support the development of domestic enterprises, as well as the arrival of those foreign investments that generate multiple levels of added value.</t>
+          <t>Even though approximately 97% of criminal offences are finalised in the summary jurisdiction, the High Court has only considered the nature of summary jurisdiction once: in 1930 in Munday v Gill. In that case, Isaacs CJ and Dixon J provided different characterisations of the summary jurisdiction. According to Dixon J, in the majority, in the summary jurisdiction efficiency may be prioritised over strict adherence to common law protections of the accused because it deals with minor criminal matters that are between subject and subject. In dissent, Isaacs CJ characterised summary criminal matters as between the Crown and subject, arguing that common law protections are as important in the summary jurisdiction as in the higher courts. Dixon J’s judgment is still cited as an accurate characterisation of the summary jurisdiction today, and yet the summary jurisdiction has transformed in the nine decades that have elapsed since the case was decided. This is reason to think Munday v Gill should be revisited. This article offers a critical analysis of the case by placing it in its social and historical context, showing that Isaacs CJ’s characterisation is more relevant today than that of Dixon J. It makes the case that because of this transformation, it is necessary to re-think the nature of a fair trial in the summary jurisdiction.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3212355133</t>
+          <t>https://openalex.org/W3186302548</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10383441.2021.1996890</t>
+          <t>https://doi.org/10.1086/716515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mitchell (2021)</t>
+          <t>Dilek (2021)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Munday v Gill&lt;/i&gt; revisited: rethinking the summary jurisdiction</t>
+          <t>Some New Concepts in the Plate Tectonics Paradigm Fifty Years after Its Inception</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Even though approximately 97% of criminal offences are finalised in the summary jurisdiction, the High Court has only considered the nature of summary jurisdiction once: in 1930 in Munday v Gill. In that case, Isaacs CJ and Dixon J provided different characterisations of the summary jurisdiction. According to Dixon J, in the majority, in the summary jurisdiction efficiency may be prioritised over strict adherence to common law protections of the accused because it deals with minor criminal matters that are between subject and subject. In dissent, Isaacs CJ characterised summary criminal matters as between the Crown and subject, arguing that common law protections are as important in the summary jurisdiction as in the higher courts. Dixon J’s judgment is still cited as an accurate characterisation of the summary jurisdiction today, and yet the summary jurisdiction has transformed in the nine decades that have elapsed since the case was decided. This is reason to think Munday v Gill should be revisited. This article offers a critical analysis of the case by placing it in its social and historical context, showing that Isaacs CJ’s characterisation is more relevant today than that of Dixon J. It makes the case that because of this transformation, it is necessary to re-think the nature of a fair trial in the summary jurisdiction.</t>
+          <t>We have gained significant insights into the dynamic evolution of the earth, causes of geohazards, processes of continental growth, feedback mechanisms between tectonics, topography and climate, and rates of deformation and uplift in collision zones since the initial formulation of the plate tectonics theory 50 years ago. The articles in this special issue present some new concepts, data, and interpretations on various aspects of the plate tectonics paradigm. The onset of plate tectonics may have occurred in a major transition period (2.5–2.0 Ga) in Earth history during which short-lived, geographically limited subduction events resulted in a regime switch from stagnant-lid to plate tectonics. The 1.90–1.87 Ga granulites in the continental lower crust of the Siberian craton contain significant amount of water in the form of structural OH in nominally anhydrous minerals, indicating that the water content of the Precambrian granulites might have been considerably higher than that of the Phanerozoic granulites and the lower crust. The major mountain-building episode (vertical thickening, topographic buildup, and normal faulting) in the evolution of the continental collision zone of the Alps was driven by buoyant, solid-state emplacement of subducted oceanic and crustal material in a subduction return flow from depths more than 100 km. Chaotic rock deposits and mass transport deposits in the sedimentary covers of some ophiolites may represent synextensional and syncontractional submarine slides during the opening and closure stages of ancient ocean basins, respectively. The Lower Jurassic (201–190 Ma) mafic rock assemblages in the Rif orogenic belt of NW Morocco are part of the Central Atlantic Magmatic Province (CAMP), a major Phanerozoic large igneous province (LIP). The mantle melt source of the CAMP was a subduction-metasomatized mantle lithosphere of supercontinent Pangea and was not associated with mantle-plume activities, as was the case for the development of many other LIPs in Earth history. The Pleistocene seismicity and earthquake event (i.e., August 2011 Mineral earthquake in Virginia, Mw=5.7) in the eastern North American intraplate setting resulted from the release of accumulated strain associated with the state of regional compression. Based on the combined river terrace paleogeodetic data and modeled coseismic deformation of the 2011 Mineral earthquake, the estimated recurrence interval for similar-sized earthquakes in the region is 5.5 ky, significant information regarding the potential seismic hazard for an intraplate tectonic setting, where there is no historical record of seismic activity.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186302548</t>
+          <t>https://openalex.org/W4362014887</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/716515</t>
+          <t>https://doi.org/10.31219/osf.io/m27rh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dilek (2021)</t>
+          <t>Kamran (2023)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Some New Concepts in the Plate Tectonics Paradigm Fifty Years after Its Inception</t>
+          <t>Organizational Knowledge Transformation and Selforganizing Knowledge Representation Model</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>We have gained significant insights into the dynamic evolution of the earth, causes of geohazards, processes of continental growth, feedback mechanisms between tectonics, topography and climate, and rates of deformation and uplift in collision zones since the initial formulation of the plate tectonics theory 50 years ago. The articles in this special issue present some new concepts, data, and interpretations on various aspects of the plate tectonics paradigm. The onset of plate tectonics may have occurred in a major transition period (2.5–2.0 Ga) in Earth history during which short-lived, geographically limited subduction events resulted in a regime switch from stagnant-lid to plate tectonics. The 1.90–1.87 Ga granulites in the continental lower crust of the Siberian craton contain significant amount of water in the form of structural OH in nominally anhydrous minerals, indicating that the water content of the Precambrian granulites might have been considerably higher than that of the Phanerozoic granulites and the lower crust. The major mountain-building episode (vertical thickening, topographic buildup, and normal faulting) in the evolution of the continental collision zone of the Alps was driven by buoyant, solid-state emplacement of subducted oceanic and crustal material in a subduction return flow from depths more than 100 km. Chaotic rock deposits and mass transport deposits in the sedimentary covers of some ophiolites may represent synextensional and syncontractional submarine slides during the opening and closure stages of ancient ocean basins, respectively. The Lower Jurassic (201–190 Ma) mafic rock assemblages in the Rif orogenic belt of NW Morocco are part of the Central Atlantic Magmatic Province (CAMP), a major Phanerozoic large igneous province (LIP). The mantle melt source of the CAMP was a subduction-metasomatized mantle lithosphere of supercontinent Pangea and was not associated with mantle-plume activities, as was the case for the development of many other LIPs in Earth history. The Pleistocene seismicity and earthquake event (i.e., August 2011 Mineral earthquake in Virginia, Mw=5.7) in the eastern North American intraplate setting resulted from the release of accumulated strain associated with the state of regional compression. Based on the combined river terrace paleogeodetic data and modeled coseismic deformation of the 2011 Mineral earthquake, the estimated recurrence interval for similar-sized earthquakes in the region is 5.5 ky, significant information regarding the potential seismic hazard for an intraplate tectonic setting, where there is no historical record of seismic activity.</t>
+          <t>: The purpose of the paper is development of a conceptual model for the representation of knowledge as an active intellectualsubstance and, on this basis, study of metaphysics of knowledge transformation process being produced both individually andcollectively in the practice of organizations. The first principle of knowledge engineering, as Edward Albert Feigenbaum noted, saysthat the power in solving problems that an intellectual subject (person or machine) manifests in the process of activity depends primarilyon its knowledge base, and only secondly on the methods of inference used. Strength is hidden in knowledge. The process of producingknowledge is permanent and does not depend on whether an individual is going to use this knowledge or not.Knowledge constantly produces new knowledge regardless of the owner's desire. Besides that, knowledge can’t arise from nothing, butalways – from some knowledge obtained earlier. As well as the intelligence, knowledge is an emergent instance arising from thecollective interaction of a lot of intellectual atomic elements of knowledge (knowledge quanta). Idiosyncrasy of this interaction isexpressed precisely in the creation of new knowledge. Due to postulating the knowledge self-organizing, the hierarchical knowledgestructures in memory and the process of thinking as a kind of syntax for the procedure of new knowledge generation are described. Thisis an effort towards understanding the memory mechanisms, the process of thinking, the sources of heuristic knowledge just throughthe inner nature of knowledge. Also, based on the knowledge self-organization principle, an archetype of the appropriate knowledgebased system architecture is presented too. As an implementation of the concept, the perceptual act model is described, and on its base,a possible scenario for the behavior of a robot meeting an obstacle in its path is considered. As the mutual transformation of tacit andexplicit knowledge makes new knowledge, the impact of the self-organization of knowledge on the transformation process as well asconditions of self-organization of both individual knowledge and organizational knowledge are analyzed in detail. Finally, modificationof the known model of knowledge dimensions by Nonaka and Takeuchi is proposed. Because of the native activity of knowledge, it isimpossible to build a knowledge management system without considering the internal structure of knowledge and its emergent abilityto self-organize. Ensuring the natural process of knowledge development at all ontological levels in an organization is an essentialprerequisite for the evolution of values in this organization.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000680335</t>
+          <t>https://openalex.org/W4393049949</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/1471-2229-12-47</t>
+          <t>https://doi.org/10.1093/oso/9780192866264.003.0016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fabbrini et al. (2012)</t>
+          <t>Motoyama (2024)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Phenotypic plasticity, QTL mapping and genomic characterization of bud set in black poplar</t>
+          <t>The Evolution of an Entrepreneurial Ecosystem in St. Louis, United States</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The genetic control of important adaptive traits, such as bud set, is still poorly understood in most forest trees species. Poplar is an ideal model tree to study bud set because of its indeterminate shoot growth. Thus, a full-sib family derived from an intraspecific cross of P. nigra with 162 clonally replicated progeny was used to assess the phenotypic plasticity and genetic variation of bud set in two sites of contrasting environmental conditions.Six crucial phenological stages of bud set were scored. Night length appeared to be the most important signal triggering the onset of growth cessation. Nevertheless, the effect of other environmental factors, such as temperature, increased during the process. Moreover, a considerable role of genotype × environment (G × E) interaction was found in all phenological stages with the lowest temperature appearing to influence the sensitivity of the most plastic genotypes.Descriptors of growth cessation and bud onset explained the largest part of phenotypic variation of the entire process. Quantitative trait loci (QTL) for these traits were detected. For the four selected traits (the onset of growth cessation (date2.5), the transition from shoot to bud (date1.5), the duration of bud formation (subproc1) and bud maturation (subproc2)) eight and sixteen QTL were mapped on the maternal and paternal map, respectively. The identified QTL, each one characterized by small or modest effect, highlighted the complex nature of traits involved in bud set process. Comparison between map location of QTL and P. trichocarpa genome sequence allowed the identification of 13 gene models, 67 bud set-related expressional and six functional candidate genes (CGs). These CGs are functionally related to relevant biological processes, environmental sensing, signaling, and cell growth and development. Some strong QTL had no obvious CGs, and hold great promise to identify unknown genes that affect bud set.This study provides a better understanding of the physiological and genetic dissection of bud set in poplar. The putative QTL identified will be tested for associations in P. nigra natural populations. The identified QTL and CGs will also serve as useful targets for poplar breeding.</t>
+          <t>Abstract While studies of entrepreneurship and local systems—so-called entrepreneurship ecosystems—have grown exponentially in the past decade, most have been cross-sectional, and we still have limited understanding about the evolution of the ecosystem. Building upon the author’s earlier work, this chapter conducts an exploratory analysis of St. Louis, Missouri, over about fifteen years, during which the stakeholders in the region gained confidence as an upcoming entrepreneurial hub with increased venture capital investment and successful exits. The region has also experienced substantial transformation with privatization of support services and major reorientations by non-profit organizations, partially induced by a radical reduction in government funding. As a result, many organizations have pursued niche strategies with sectors and between districts inside the city. Given that the new entrepreneurial community emerged around Caucasian male entrepreneurs, the inclusion of women and minorities has become a pressing regional issue. Overall, the highly complex evolution, with many actors within the ecosystem, suggests that ecosystems do not follow linear patterns of nascence, growth, and maturity, but rather develop in a unique, highly complex way.</t>
         </is>
       </c>
     </row>
@@ -571,54 +571,54 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2025804591</t>
+          <t>https://openalex.org/W2789490141</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.4743811</t>
+          <t>https://doi.org/10.2991/icsps-17.2018.59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Suzuki &amp; Buck (2000)</t>
+          <t>Kenawas (2018)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Extraction and tracking of bottlenose dolphin whistle contours</t>
+          <t>The Institutional Foundation of the Emergence of Subnational Political Dynasties in Indonesia</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The time-frequency contours of bottlenose dolphin (Tursiops truncatus) whistles are commonly extracted as features for the classification and comparison of these signals. This research presents a new method to extract and track the whistles’ fundamental frequency contours. This method takes a spectrogram as an input and uses a Bayesian inference approach with a random walk model for the frequency transitions. The output of the method is the maximum a posteriori probability estimate of the frequency contour. This technique is similar to the Kalman filter except that the states are probability densities, and it uses a probabilistic state transition model. For each time segment, the method combines the prior estimate of the probability distribution with the current observation to obtain the current estimate of the probability distribution. Experimental evaluation indicates that this method greatly improves the reliability of contour extraction from noisy signals when compared to the ad hoc contour extractor proposed by Buck and Tyack [J. Acoust. Soc. Am. 94 (1993)]. This technique has previously applied to target tracking in radar [Bethel and Rahikka, IEEE Trans. Aerosp. 23(6) (1987)]. [Work supported by NSF Ocean Sciences.]</t>
+          <t>Decentralization and democratization at the subnational level are two main policies to avoid another centralization of power in the hands of a small number of elites in Jakarta.Instead of solving the problem of concentration of power, the introduction of decentralization and democratization at the subnational level allows some local strongmen to monopolize power at the subnational level through the formation of political dynasties.Why has this contradictory result occurred?The paper argues that the interaction between macrolevel institutional stability and micro-level continuous institutional transformations creates an avenue for power monopolization by a small number of elites at the subnational level.By applying Taylor C. Boas' composite-standard model of path dependence, the paper aims to show that the institutional development not only precedes the rise of subnational political dynasties but also enables such political force to be an enduring feature of Indonesia's political landscape for years to come.Additionally, by using the composite-standard model, the paper aims to capture the complexity and the dynamics of the power struggle between the competing political actors-both at the national and subnational levels-to change or to maintain the existing institutions.This paper supplements some previous studies on the emergence of political dynasties in Indonesia with a more detailed discussion on the institutional aspects that allows such dynasties to exist and to persist.This paper employs secondary data from various sources, including news archives and the Constitutional Court's proceedings to support its claim.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2789490141</t>
+          <t>https://openalex.org/W2139267785</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/icsps-17.2018.59</t>
+          <t>https://doi.org/10.1108/09555340610663728</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kenawas (2018)</t>
+          <t>Freeman &amp; Reid (2006)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The Institutional Foundation of the Emergence of Subnational Political Dynasties in Indonesia</t>
+          <t>Constraints facing small western firms in transitional markets</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Decentralization and democratization at the subnational level are two main policies to avoid another centralization of power in the hands of a small number of elites in Jakarta.Instead of solving the problem of concentration of power, the introduction of decentralization and democratization at the subnational level allows some local strongmen to monopolize power at the subnational level through the formation of political dynasties.Why has this contradictory result occurred?The paper argues that the interaction between macrolevel institutional stability and micro-level continuous institutional transformations creates an avenue for power monopolization by a small number of elites at the subnational level.By applying Taylor C. Boas' composite-standard model of path dependence, the paper aims to show that the institutional development not only precedes the rise of subnational political dynasties but also enables such political force to be an enduring feature of Indonesia's political landscape for years to come.Additionally, by using the composite-standard model, the paper aims to capture the complexity and the dynamics of the power struggle between the competing political actors-both at the national and subnational levels-to change or to maintain the existing institutions.This paper supplements some previous studies on the emergence of political dynasties in Indonesia with a more detailed discussion on the institutional aspects that allows such dynasties to exist and to persist.This paper employs secondary data from various sources, including news archives and the Constitutional Court's proceedings to support its claim.</t>
+          <t>Purpose To provide an Asia‐Pacific viewpoint of the key constraints associated with large geographic distances for smaller westerns firms entering central and eastern Europe (CEE), described as a turbulent transitional environment. Design/methodology/approach An exploratory study was used within a qualitative methodology, using eight case studies across multiple industries. Semi‐structured interviews were the main method of data collection conducted in 2003/2004. Open, axial and selective coding was used for the analysis to identifying issues. Findings Key internal constraints for smaller western firms (mindset of western management and middle management in CEE; and lack of management in CEE with decision‐making authority) related to managements' inability to recognize geographic and psychic distance as major external constraints. Largely overcome by enhancing communication between various functional groups; adapting organizational structure; maintaining frequent communicational; developing partnerships in international joint ventures; finding reliable distributors and commitment from re‐sellers and working with government. While no single international business theory adequately explains this process, there is overwhelming support for the network perspective and international entrepreneurship. Research limitations/implications The study is limited by small sample size. The explanatory phase is proposed with further western companies, such as the UK, operating in CEE to identify geographic distance, and additional CEE markets to verify dimensions in this environment. Practical implications The paper provides a checklist of strategies for overcoming constraints facing managers of smaller firms, entering emerging markets with geographic distance. Originality/value Previous studies, using a European or Nordic viewpoint, fail to identify the constraints associated with large geographic distances. This paper provides practical assistance to managers starting out in CEE from the Asia‐Pacific.</t>
         </is>
       </c>
     </row>
@@ -701,1136 +701,1021 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2902956400</t>
+          <t>https://openalex.org/W4318499542</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25159/2309-5792/4006</t>
+          <t>https://doi.org/10.3390/challe14010009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Boomershine (2018)</t>
+          <t>Soleri et al. (2023)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>“Can These Bones Live?” A Performance Criticism Study of Ezekiel 37:1-14</t>
+          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>We live in a time when a paradigm shift is occurring from the study of the Bible as a series of texts read in silence by readers, to the study of the Bible as a set of compositions performed for audiences. Biblical performance criticism is the emerging paradigm. It begins by recognising the essential nature of the biblical tradition as oral events, where transformative meaning is created in the interplay of story, storyteller, telling, and audience. Experiential exegesis is a proposed new methodology for the study of particular compositions as performance literature. This approach to biblical study enables the re-creation of a meaningful resemblance of the original performance experience for a contemporary audience. In this article, the processes of experiential exegesis are applied to the story of the Dry Bones, recorded in Ezekiel 37:1-14. The study of the Dry Bones as a story performed for audiences reveals that the interaction between the storyteller and the audience occasions a transformation of despair into hope. Experiences of telling the story to a church congregation and to incarcerated women confirm the viability of performance criticism study to interpret biblical tradition such that, in the words of Walter Wink: "the past becomes alive and illumines our present with new possibilities for personal and social transformation."</t>
+          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W2902956400</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.25159/2309-5792/4006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Boomershine (2018)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>“Can These Bones Live?” A Performance Criticism Study of Ezekiel 37:1-14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>We live in a time when a paradigm shift is occurring from the study of the Bible as a series of texts read in silence by readers, to the study of the Bible as a set of compositions performed for audiences. Biblical performance criticism is the emerging paradigm. It begins by recognising the essential nature of the biblical tradition as oral events, where transformative meaning is created in the interplay of story, storyteller, telling, and audience. Experiential exegesis is a proposed new methodology for the study of particular compositions as performance literature. This approach to biblical study enables the re-creation of a meaningful resemblance of the original performance experience for a contemporary audience. In this article, the processes of experiential exegesis are applied to the story of the Dry Bones, recorded in Ezekiel 37:1-14. The study of the Dry Bones as a story performed for audiences reveals that the interaction between the storyteller and the audience occasions a transformation of despair into hope. Experiences of telling the story to a church congregation and to incarcerated women confirm the viability of performance criticism study to interpret biblical tradition such that, in the words of Walter Wink: "the past becomes alive and illumines our present with new possibilities for personal and social transformation."</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W4283807879</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2022680058</t>
+          <t>https://openalex.org/W2059476578</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/ar900273t</t>
+          <t>https://doi.org/10.1016/j.dci.2011.03.031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Salgado et al. (2010)</t>
+          <t>Wiens &amp; Glenney (2011)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Metal-Directed Protein Self-Assembly</t>
+          <t>Origin and evolution of TNF and TNF receptor superfamilies</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Proteins are nature's premier building blocks for constructing sophisticated nanoscale architectures that carry out complex tasks and chemical transformations. Some 70%-80% of all proteins are thought to be permanently oligomeric; that is, they are composed of multiple proteins that are held together in precise spatial organization through noncovalent interactions. Although it is of great fundamental interest to understand the physicochemical basis of protein self-assembly, the mastery of protein-protein interactions (PPIs) would also allow access to novel biomaterials with nature's favorite and most versatile building block. In this Account, we describe a new approach we have developed with this possibility in mind, metal-directed protein self-assembly (MDPSA), which utilizes the strength, directionality, and selectivity of metal-ligand interactions to control PPIs. At its core, MDPSA is inspired by supramolecular coordination chemistry, which exploits metal coordination for the self-assembly of small molecules into discrete, more-or-less predictable higher order structures. Proteins, however, are not exactly small molecules or simple metal ligands: they feature extensive, heterogeneous surfaces that can interact with each other and with metal ions in unpredictable ways. We begin by first describing the challenges of using entire proteins as molecular building blocks. We follow with an examination of our work on a model protein (cytochrome cb(562)), highlighting challenges toward establishing ground rules for MDPSA as well as progress in overcoming these challenges. Proteins are also nature's metal ligands of choice. In MDPSA, once metal ions guide proteins into forming large assemblies, they are by definition embedded within extensive interfaces formed between protein surfaces. These complex surfaces make an inorganic chemist's life somewhat difficult, yet they also provide a wide platform to modulate the metal coordination environment through distant, noncovalent interactions, exactly as natural metalloproteins and enzymes do. We describe our computational and experimental efforts toward restructuring the noncovalent interaction network formed between proteins surrounding the interfacial metal centers. This approach, of metal templating followed by the redesign of protein interfaces (metal-templated interface redesign, MeTIR), not only provides a route to engineer de novo PPIs and novel metal coordination environments but also suggests possible parallels with the evolution of metalloproteins.</t>
+          <t>The tumor necrosis factor superfamily (TNFSF) and the TNF receptor superfamily (TNFRSF) have an ancient evolutionary origin that can be traced back to single copy genes within Arthropods. In humans, 18 TNFSF and 29 TNFRSF genes have been identified. Evolutionary models account for the increase in gene number primarily through multiple whole genome duplication events as well as by lineage and/or species-specific tandem duplication and translocation. The identification and functional analyses of teleost ligands and receptors provide insight into the critical transition between invertebrates and higher vertebrates. Bioinformatic analyses of fish genomes and EST datasets identify 14 distinct ligand groups, some of which are novel to teleosts, while to date, only limited numbers of receptors have been characterized in fish. The most studied ligand is TNF of which teleost species possess between 1 and 3 copies as well as a receptor similar to TNFR1. Functional studies using zebrafish indicate a conserved role of this ligand–receptor system in the regulation of cell survival and resistance to infectious disease. The increasing interest and use of TNFSF and TNFRSF modulators in human and animal medicine underscores the need to understand the evolutionary origins as well as conserved and novel functions of these biologically important molecules.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321375980</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fmicb.2023.1102547</t>
+          <t>https://openalex.org/W1496992349</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wang et al. (2023)</t>
+          <t>Bercaw (2013)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Comparative metagenomic analysis reveals rhizosphere microbial community composition and functions help protect grapevines against salt stress</t>
+          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Soil salinization is a serious abiotic stress for grapevines. The rhizosphere microbiota of plants can help counter the negative effects caused by salt stress, but the distinction between rhizosphere microbes of salt-tolerant and salt-sensitive varieties remains unclear.This study employed metagenomic sequencing to explore the rhizosphere microbial community of grapevine rootstocks 101-14 (salt tolerant) and 5BB (salt sensitive) with or without salt stress.Compared to the control (treated with ddH2O), salt stress induced greater changes in the rhizosphere microbiota of 101-14 than in that of 5BB. The relative abundances of more plant growth-promoting bacteria, including Planctomycetes, Bacteroidetes, Verrucomicrobia, Cyanobacteria, Gemmatimonadetes, Chloroflexi, and Firmicutes, were increased in 101-14 under salt stress, whereas only the relative abundances of four phyla (Actinobacteria, Gemmatimonadetes, Chloroflexi, and Cyanobacteria) were increased in 5BB under salt stress while those of three phyla (Acidobacteria, Verrucomicrobia, and Firmicutes) were depleted. The differentially enriched functions (KEGG level 2) in 101-14 were mainly associated with pathways related to cell motility; folding, sorting, and degradation functions; glycan biosynthesis and metabolism; xenobiotics biodegradation and metabolism; and metabolism of cofactors and vitamins, whereas only the translation function was differentially enriched in 5BB. Under salt stress, the rhizosphere microbiota functions of 101-14 and 5BB differed greatly, especially pathways related to metabolism. Further analysis revealed that pathways associated with sulfur and glutathione metabolism as well as bacterial chemotaxis were uniquely enriched in 101-14 under salt stress and therefore might play vital roles in the mitigation of salt stress on grapevines. In addition, the abundance of various sulfur cycle-related genes, including genes involved in assimilatory sulfate reduction (cysNC, cysQ, sat, and sir), sulfur reduction (fsr), SOX systems (soxB), sulfur oxidation (sqr), organic sulfur transformation (tpa, mdh, gdh, and betC), increased significantly in 101-14 after treatment with NaCl; these genes might mitigate the harmful effects of salt on grapevine. In short, the study findings indicate that both the composition and functions of the rhizosphere microbial community contribute to the enhanced tolerance of some grapevines to salt stress.</t>
+          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2053971370</t>
+          <t>https://openalex.org/W2072186132</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bmj.315.7105.383</t>
+          <t>https://doi.org/10.1109/stsm.1994.835453</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bower (1997)</t>
+          <t>Nakayama et al. (1994)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sequencing of Helicobacter pylori will radically alter research</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Publication of the complete genome sequence of the gut pathogen Helicobacter pylori will radically change research approaches and pave the way for completely new methods of treatment, say molecular experts.
-Scientists from the Institute for Genome Research in Rockville, Maryland, United States, have described how H pylori has a circular genome consisting of 1667867 base pairs ( Nature 1997;388:539-47). The sequencing offers important clues about how the bacterium, which is the main non-pharmaceutical cause of ulcers, manages to survive and thrive in the hostile acidic environment of the human stomach.
-H pylori is only the seventh bacterium to be completely sequenced. Publication of the sequence places the information in the public domain and ends the simmering …</t>
+          <t>Anomalous nature of neutral-ionic phase transition in tetrathiafulvalne chloranil thin films with strained lattice</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2921611086</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/en12050924</t>
+          <t>https://openalex.org/W2368076451</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bento et al. (2019)</t>
+          <t>Weisen (2007)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Daily Operation Optimization of a Hybrid Energy System Considering a Short-Term Electricity Price Forecast Scheme</t>
+          <t>The Nature of Economics in a Perspective of Philosophy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>The scenario where the renewable generation penetration is steadily on the rise in an increasingly atomized system, with much of the installed capacity “sitting” on a distribution level, is in clear contrast with the “old paradigm” of a natural oligopoly formed by vertical structures. Thereby, the fading of the classical producer–consumer division to a broader prosumer “concept” is fostered. This crucial transition will tackle environmental harms associated with conventional energy sources, especially in this age where a greater concern regarding sustainability and environmental protection exists. The “smoothness” of this transition from a reliable conventional generation mix to a more volatile and “parti-colored" one will be particularly challenging, given escalating electricity demands arising from transportation electrification and proliferation of demand-response mechanisms. In this foreseeable framework, proper Hybrid Energy Systems sizing, and operation strategies will be crucial to dictate the electric power system’s contribution to the “green” agenda. This paper presents an optimal power dispatch strategy for grid-connected/off-grid hybrid energy systems with storage capabilities. The Short-Term Price Forecast information as an important decision-making tool for market players will guide the cost side dispatch strategy, alongside with the storage availability. Different scenarios were examined to highlight the effectiveness of the proposed approach.</t>
+          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3024343821</t>
+          <t>https://openalex.org/W2524136868</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12594-020-1472-6</t>
+          <t>https://doi.org/10.1002/cctc.201601070</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kar et al. (2020)</t>
+          <t>Gao et al. (2016)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Petrological and Geochronological Constraints on the Evolution of Charnockitic Rocks in the Massifs of Cauvery Shear Zone, Southern Granulite Terrain, India</t>
+          <t>Promotional Role of Surface Defects on Carbon‐Supported Ruthenium‐Based Catalysts in the Transfer Hydrogenation of Furfural</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cauvery shear zone of the southern granulite terrane, India, is sandwiched between the amphibolite to granulite transition zone in the north and the Neoproterozoic granulite belt in the south. Two massifs of this shear zone consist of charnockitic rocks of tonalitic to granodioritic composition and include hornblende-mafic granulite enclaves. Petrology and geochemistry clearly indicate dehydration partial melting of mafic rocks as the mode of origin of the charnockitic rocks. However, high MgO, Ni and Cr contents and negative Nb anomalies suggest some interaction with the mantle in a subduction zone environment. U-Pb and Lu-Hf isotopic data of zircons in mafic granulite enclave and charnockite-enderbite host rocks indicate ca. 2.5 Ga granulite-cum-anatectic event. Juvenile mafic magmatism at ca. 2.7 Ga could represent the precursor of the mafic granulites. With the chemical and isotopic evidence of subduction zone environment, the Cauvery shear zone could be appropriately described as a suture along which Archaean-Paleoproterozoic granulite terrain and Neoproterozoic granulite terrain had collided.</t>
+          <t>Abstract The synthesis of highly efficient supported metal catalysts is of vital importance for the modern development of the production of chemicals. In this regard, biomass‐based chemical transformation holds potential promise through many heterogeneous catalytic processes. Herein, we report surface defect engineering on a carbon‐supported, Ru‐based catalyst by a two‐step hybridization–self‐reduction route, which involves the assembly of a hybrid composite of ternary Co‐Al‐Ru layered double hydroxide (CoAlRu‐LDH) and amorphous carbon through the carbonization of glucose and a subsequent in situ self‐reduction process. The results revealed that Ru 3+ species in the resulting CoAlRu‐LDH‐C composite could be reduced in situ to Ru 0 species by the carbon component in the hybrid composite, and Co‐containing spinels with a large quantity of surface oxygen vacancies could be formed simultaneously on the surface. The as‐fabricated Ru‐based catalyst showed a superior catalytic performance in the liquid‐phase transfer hydrogenation of furfural to furfuryl alcohol using benzyl alcohol as hydrogen donator to other Ru‐based catalysts derived from LDH‐C composite precursors. It was proven that surface defects (i.e., oxygen vacancies, Co 2+ species) could enable the chemisorption of furfural spatially and ensure the activation of its carbonyl groups, which promoted the transfer hydrogenation greatly.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057723312</t>
+          <t>https://openalex.org/W3024343821</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/scu.2000.0043</t>
+          <t>https://doi.org/10.1007/s12594-020-1472-6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Williams (2000)</t>
+          <t>Kar et al. (2020)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Images of Scottsboro</t>
+          <t>Petrological and Geochronological Constraints on the Evolution of Charnockitic Rocks in the Massifs of Cauvery Shear Zone, Southern Granulite Terrain, India</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
+          <t>Cauvery shear zone of the southern granulite terrane, India, is sandwiched between the amphibolite to granulite transition zone in the north and the Neoproterozoic granulite belt in the south. Two massifs of this shear zone consist of charnockitic rocks of tonalitic to granodioritic composition and include hornblende-mafic granulite enclaves. Petrology and geochemistry clearly indicate dehydration partial melting of mafic rocks as the mode of origin of the charnockitic rocks. However, high MgO, Ni and Cr contents and negative Nb anomalies suggest some interaction with the mantle in a subduction zone environment. U-Pb and Lu-Hf isotopic data of zircons in mafic granulite enclave and charnockite-enderbite host rocks indicate ca. 2.5 Ga granulite-cum-anatectic event. Juvenile mafic magmatism at ca. 2.7 Ga could represent the precursor of the mafic granulites. With the chemical and isotopic evidence of subduction zone environment, the Cauvery shear zone could be appropriately described as a suture along which Archaean-Paleoproterozoic granulite terrain and Neoproterozoic granulite terrain had collided.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390214325</t>
+          <t>https://openalex.org/W2057723312</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2312.14365</t>
+          <t>https://doi.org/10.1353/scu.2000.0043</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Michael et al. (2023)</t>
+          <t>Williams (2000)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>An ab-initio derivation to discuss the heterodyne versus direct detection decision problem for astronomical infrared interferometry</t>
+          <t>Images of Scottsboro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A consistent and explicit spectral comparison between heterodyne (HD) and direct detection (DD) derived from first principles including the atmospheric transmission and low beam-filling factors could not be found yet in literature but is needed for decisions in technology planification for future infrared interferometry facilities which are e.g. focused on planet formation. This task requires both, high sensitivity continuum and Doppler-resolved emission and absorption line detection in the mid-IR range (N- and Q-bands) at lower source temperatures (300-1000 K). The signal-to-noise ratios (SNRs) are derived for both schemes within the same semi-classical theory, which consists of classical mode theory for coupling to an antenna and occupation of these modes by quanta of three radiation fields, the thermal signal, the thermal background, and for HD also the coherent local oscillator (LO). The effects of very small beam filling factors (interferometry) and atmospheric absorption/emission could be consistently incorporated this way, as well as quantum-noise propagation which allows in HD the consideration of balanced mixers with cross-correlation (CC). Especially, the transition from pre- to post-detection SNRs was considered meticulously. We do this all because the usually cited SNR-expressions were derived for a too simple and unrealistic case, and moreover contain some wrong assumptions. We introduce a novel HD scheme for astronomical interferometry gaining an order of magnitude in sensitivity against conventional HD and calculate that it should trespass the sensitivity of DD interferometry in the N- and Q-bands for a spectral resolution of R=10000, and should do also for R=300 with doable technical improvements. This result encourages to develop broad-band heterodyne technologies for future mid-infrared interferometry facilities and for new instruments at existing facilities.</t>
+          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390346666</t>
+          <t>https://openalex.org/W2133891932</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3897/asp.81.e98166</t>
+          <t>https://doi.org/10.1002/chem.201405896</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Luo et al. (2023)</t>
+          <t>Cortese et al. (2015)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>New insights into the evolution of the surface antennal sensory equipment in free-living and cave-dwelling beetles (Leiodidae: Leptodirini)</t>
+          <t>N‐Doped Carbon Networks: Alternative Materials Tracing New Routes for Activating Molecular Hydrogen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The stable environment of subterranean realms is characterized by constant darkness, temperature and humidity, and scarcity of resources. This led to similar adaptations in different lineages of animals, such as the reduction of eyes and pigmentation. It is common textbook knowledge that blindness in cave insects is compensated for by transformations of other sensorial structures, especially the antennae with their rich array of sensilla. We tested this hypothesis with 33 species of Leiodidae of the tribe Leptodirini (Coleoptera) with and without eyes and from hypogean and epigean environments. We documented and compared the number, types, arrangement and density of smooth and furrowed antennal sensilla on certain flagellomeres. Our statistical analysis that took effects of body size and phylogeny into consideration showed that (1) the number of these sensilla does not differ between hypogean or epigean beetles; (2) the same applies to length and diameter of the antennal sensilla; (3) there is a difference in density, but unexpectedly it is lower in hypogean species. Our finding thus contrasts with widely accepted earlier interpretations for those external antennal sensilla in the studied Leptodirini, showing that sensillar patterns are scarcely affected in these subterranean beetles if at all, and even less dense in blind and cave-living species. Our results thus add a new facet to the evolution of cave animals.</t>
+          <t>Abstract The fragmentation of molecular hydrogen on N‐doped carbon networks was investigated by using molecular (polyaromatic macrocycles) as well as truncated and periodic (carbon nanotubes) models. The computational study was focused on the ergonicity analysis of the reaction and on the properties of the transition states involved when constellations of three or four pyridinic nitrogen atom defects are present in the carbon network. Calculations show that whenever N‐defects are embedded in species characterized by large conjugated π‐systems, either in polyaromatic macrocycles or carbon nanotubes, the corresponding H 2 bond cleavage is largely exergonic. The fragmentation Gibbs free energy is affected by the final arrangement of the hydrogen atoms on the defect and by the extension of the π‐electron cloud, but it is not influenced by the curvature of the system.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2886054271</t>
+          <t>https://openalex.org/W4312220199</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.98.054106</t>
+          <t>https://doi.org/10.1021/acsaem.2c03107</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ohwada et al. (2018)</t>
+          <t>Periyasamy et al. (2022)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Effect of &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt;&lt;mml:mi&gt;B&lt;/mml:mi&gt;&lt;/mml:math&gt; -site randomness on the antiferroelectric/relaxor nature of the ground state: Diffuse and inelastic x-ray scattering study of &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt;&lt;mml:mi&gt;Pb&lt;/mml:mi&gt;&lt;mml:mo&gt;(&lt;/mml:mo&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;In&lt;/mml:mi&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;1&lt;/mml:mn&gt;&lt;mml:mo&gt;/&lt;/mml:mo&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:mrow&gt;&lt;/mml:msub&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;Nb&lt;/mml:mi&gt;&lt;mml:mrow&gt;&lt;mml:mn&gt;1&lt;/mml:mn&gt;&lt;mml:mo…</t>
+          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>We have investigated the effect of $B$-site randomness on the antiferroelectric/relaxor nature of the ground state by studying diffuse and inelastic x-ray scattering from ordered and disordered $\mathrm{Pb}({\mathrm{In}}_{1/2}{\mathrm{Nb}}_{1/2}){\mathrm{O}}_{3}$ (O- and D-PIN) single crystals. The diffuse scattering measurement of O-PIN, which is antiferroelectric at low temperatures, shows that the ferroelectrically interactive local polarization exists in the cubic phase, above the transition temperature ${T}_{\mathrm{N}}$. Inelastic x-ray scattering analysis of the diffuse scattering shows that the transverse-acoustic (TA) and transverse-optic (TO) modes are dominant at high temperatures ($\ensuremath{\sim}800$ K), while the central peak (CP) and TA modes, which are coupled, contribute majorly to diffuse scattering near ${T}_{{}_{\mathrm{N}}}$ and show critical behavior at temperature close to ${T}_{{}_{\mathrm{N}}}$. The TO mode shows no anomaly at temperature close to ${T}_{{}_{\mathrm{N}}}$. Furthermore, the phonon spectra are broad, indicating that a strong damping mechanism exists even in the sample with weak chemical disordering, O-PIN. No clear difference between O- and D-PIN is observed at temperatures above $\ensuremath{\sim}500$ K. Here, the major difference between them is the property of the CP mode, which shows no drop and increases rapidly with decreasing temperatures in D-PIN. The CP mode is thought to be directly related to the local polarization and to originate in a combination of Pb flipping and the TO mode. The $B$ site is considered to control the antiferroelectric/ferroelectric instability of lead-based perovskite materials. Finally, the $B$-site randomness is discussed in terms of suppressing the antiferroelectric instability and enhancing the polarization fluctuation.</t>
+          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133891932</t>
+          <t>https://openalex.org/W3174702919</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/chem.201405896</t>
+          <t>https://doi.org/10.31806/2542-1158-2021-5-2-88-102</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cortese et al. (2015)</t>
+          <t>Komleva (2021)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N‐Doped Carbon Networks: Alternative Materials Tracing New Routes for Activating Molecular Hydrogen</t>
+          <t>“THE RIGHT TO DEMAND ALL THE BENEFITS OF HUMAN CULTURE”: THE REPORT OF THE MEMBER OF THE YENISEISK CITY DUMA, M.P. MINDAROVSKY, ON THE NEED TO BUILD A RAILWAY TO YENISEISK (1916)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Abstract The fragmentation of molecular hydrogen on N‐doped carbon networks was investigated by using molecular (polyaromatic macrocycles) as well as truncated and periodic (carbon nanotubes) models. The computational study was focused on the ergonicity analysis of the reaction and on the properties of the transition states involved when constellations of three or four pyridinic nitrogen atom defects are present in the carbon network. Calculations show that whenever N‐defects are embedded in species characterized by large conjugated π‐systems, either in polyaromatic macrocycles or carbon nanotubes, the corresponding H 2 bond cleavage is largely exergonic. The fragmentation Gibbs free energy is affected by the final arrangement of the hydrogen atoms on the defect and by the extension of the π‐electron cloud, but it is not influenced by the curvature of the system.</t>
+          <t>The article presents the publication of the report of the local City Duma member Mikhail Mindarovsky, which was preserved in the fonds of the Yeniseisk City Archive. The report was read in June 1916 at a meeting of City Duma members in the presence of a representative of the Ministry of Railways, engineer A.M. Vikhman. The text presents the arguments of the supporters of the project of building a railway between the Yeniseisk and Achinsk, which was considered as an integral link necessary for the successful functioning of the Northern Sea Route and ensuring the successful development of the Yenisey Siberia. M.P. Mindarovsky expressed concern about the future fate of Yeniseisk and the adjacent territory, outlined possible prospects for the development of the city, associated with its transformation into a major northern port — a transshipment base for unloading goods from ships arriving through the Arctic Ocean and then transporting them to various regions of Siberia by railway. The author of the report paid special attention to the criticism of the position of some residents of the provincial center, who saw the railway to Yeniseisk as a potential threat to the welfare of Krasnoyarsk. The preserved source expands the existing ideas about the journalistic heritage and social activities of M.P. Mindarovsky, introduces the ideas about the prospects for the development of the northern Siberian regions that are widespread among his contemporaries, and reveals the details of the interaction between the government and society in the development of the Siberian North.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
+          <t>https://openalex.org/W4231232433</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://doi.org/10.7287/peerj.preprints.26578v1/supp-14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>NA (2018)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t>Tomato yellow leaf curl virus (TYLCV) is one of the most devastating viruses of cultivated tomato in both tropical and subtropical regions. Five major genes (Ty-1, Ty-2, Ty-3, Ty-4 and Ty-5) from wild tomato species have been associated with resistance to TYLCV. Researchers have recently attempted to determine the functions of these resistance genes, but molecular mechanisms underlying the observed resistance remain unclear. Here, resistant (cv. CLN3212A-23, carrying Ty-5) and susceptible (cv. Moneymaker) plants were either left untreated (R and S, respectively) or artificially inoculated with TYLCV via Agrobacterium-mediated transformation (RT and ST, respectively). The transcriptomes of the plants in the four groups were then analyzed by RNA-Seq, and the results identified 8,639 differentially expressed genes (DEGs) between the R and RT groups, 2,818 DEGs between the RT and ST groups, 8,899 DEGs between the S and ST groups, and 707 DEGs between the R and S groups. The gene expression profiles in both the resistant and susceptible tomato cultivars appeared to undergo notable changes after viral inoculation, and functional classification revealed that most DEGs were associated with 18 GO terms. Moreover, the functional classification of the response of Ty-5-carrying tomato plants to TYLCV infection identified the importance of the GO term “response to stimulus” in the BP category, which is related to disease resistance. In addition, 28 genes were significantly enriched in the “Plant hormone signal transduction”, “Carbon metabolism”, “ Carbon fixation in photosynthetic organisms ” and “ Glutathione metabolism ” pathways. The differential expression levels of 12 select genes were confirmed by quantitative real-time PCR. The present study indicates that the Ty-5 gene activates the expression of multiple genes involved in the resistance process and will aid a more in-depth understanding of the effects of the Ty-5 gene on resistance based on its molecular mechanism with the aim of improving TYLCV disease management in tomato.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395456786</t>
+          <t>https://openalex.org/W2981541718</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fnins.2024.1181670</t>
+          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fu et al. (2024)</t>
+          <t>Kоshkalda et al. (2019)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mobilizing endogenous neuroprotection: the mechanism of the protective effect of acupuncture on the brain after stroke</t>
+          <t>Innovative development of agricultural enterprises as an economic system</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Given its high morbidity, disability, and mortality rates, ischemic stroke (IS) is a severe disease posing a substantial public health threat. Although early thrombolytic therapy is effective in IS treatment, the limited time frame for its administration presents a formidable challenge. Upon occurrence, IS triggers an ischemic cascade response, inducing the brain to generate endogenous protective mechanisms against excitotoxicity and inflammation, among other pathological processes. Stroke patients often experience limited recovery stages. As a result, activating their innate self-protective capacity [endogenous brain protection (EBP)] is essential for neurological function recovery. Acupuncture has exhibited clinical efficacy in cerebral ischemic stroke (CIS) treatment by promoting the human body's self-preservation and “Zheng Qi” (a term in traditional Chinese medicine (TCM) describing positive capabilities such as self-immunity, self-recovery, and disease prevention). According to research, acupuncture can modulate astrocyte activity, decrease oxidative stress (OS), and protect neurons by inhibiting excitotoxicity, inflammation, and apoptosis via activating endogenous protective mechanisms within the brain. Furthermore, acupuncture was found to modulate microglia transformation, thereby reducing inflammation and autoimmune responses, as well as promoting blood flow restoration by regulating the vasculature or the blood–brain barrier (BBB). However, the precise mechanism underlying these processes remains unclear. Consequently, this review aims to shed light on the potential acupuncture-induced endogenous neuroprotective mechanisms by critically examining experimental evidence on the preventive and therapeutic effects exerted by acupuncture on CIS. This review offers a theoretical foundation for acupuncture-based stroke treatment.</t>
+          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3136000895</t>
+          <t>https://openalex.org/W2203581624</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.mtphys.2021.100373</t>
+          <t>https://doi.org/10.1016/j.scitotenv.2015.12.122</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Su et al. (2021)</t>
+          <t>Niu et al. (2016)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Lithiation and delithiation induced magnetic switching and electrochemical studies in α-LiFeO2 based Li ion battery</t>
+          <t>Stomatal uptake of O 3 in a Schima superba plantation in subtropical China derived from sap flow measurements</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>In this work, lithium ferrite synthesized by designed solid-state method was presented, and physical chemistry and battery performance as anode were also studied. Rietveld refinement of the XRD pattern, shows that the diffraction peaks of lithium ferrite can be indexed to the cubic α-phase (Space group Fm-3m). Bond valence energy landscape mapping confirms two dimensional migration pathway of lithium. Effective magnetic moment of 0.55 μB as calculated by Curie-Weiss law justifies the antiferromagnetic ordering for LiFeO2 after charge-discharge reaction. In addition, both the ex-situ XRD and SQUID magnetometry studies reveal a phase (morphology) transition upon the charge-discharge reaction for LiFeO2. The distribution function of relaxation times (DFRTs) analysis confirms that two types of Li ion migrations as originated due to the phase transition in the LiFeO2/lithium coin cell after charge-discharge reaction. Moreover, 4 cycles are needed for attaining capacity ∼600 mAh/g at 0.1C rate. Our work clearly observed the phase (morphology) transition induced magnetic switching in α-LiFeO2 that provides insights into better understanding of the capacity change of electrode materials for the development of high-performance Li-ion battery.</t>
+          <t>Canopy stomatal ozone (O3) flux (Fst,O3) in a plantation of Schima superba, an ecologically and economically important evergreen pioneer tree species in subtropical China, was quantified based on sap flow measurements during a 2-year period. Mean Fst,O3 and accumulated Fst,O3 (AFst0) were significantly higher in wet seasons from April to September (4.62 nmol m(-2) s(-1) and 35.37 mmol m(-2), respectively) than in dry seasons from October to March (3.90 nmol m(-2) s(-1) and 24.15 mmol m(-1), respectively), yet comparable between the 2 years of the experiment, being 4.23 nmol m(-2) s(-1) and 58.23 mmol m(-2) in April 2013-March 2014 and 4.29 nmol m(-2) s(-1) and 60.80 mmol m(-2) in April 2014-March 2015, respectively. At the diurnal scale, Fst,O3 generally peaked in the early to middle afternoon hours (13:00-15:00), while the maximum stomatal conductance (Gst,O3) typically occurred in the middle to late morning hours (09:00-11:00). Monthly integrated AFst0 reached the maximum in July, although accumulated O3 exposure (SUM0) was highest in October. Seasonally or yearly, the accumulated O3 doses, either exposure-based or flux-based, notably exceeded the currently adopted critical thresholds for the protection of forest trees. These results, on the one hand, demonstrated the decoupling between the stomatal uptake of O3 and its environmental exposure level; on the other hand, indicated the potential O3 risk for S. superba in the experimental site. Therefore, the present study endorses the use of sap flow measurements as a feasible tool for estimating Fst,O3, and the transition from the exposure-based toward flux-based metrics for assessing O3 risk for forest trees. Further studies are urgently needed to relate stomatal O3 uptake doses with tree growth reductions for an improved understanding of O3 effects on trees under natural conditions.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2067044867</t>
+          <t>https://openalex.org/W4386435998</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3402/tellusb.v47i1-2.16042</t>
+          <t>https://doi.org/10.3390/magnetism3030020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kohlmaier et al. (1995)</t>
+          <t>Мушенок et al. (2023)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Effects of the age class distributions of the temperate and boreal forests on the global CO&amp;lt;sub&amp;gt;2&amp;lt;/sub&amp;gt; source-sink function</t>
+          <t>Two-Step Magnetic Ordering in Intercalated Niobium Dichalcogenide MnXNbS2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The rôle of the temperate and boreal forests as a global CO2 source or sink is examined, both for the present time and for the next hundred years. The results of the Forest Resource Assessment for 1990 of the Economic Comission for Europe and the Food and Agricultural Organisation of the United Nations (1992) serve as the main database in this study. Out of the estimated total area of approximately 20 · 106 km2 of forests and wooded lands in the temperate and boreal zone only approximately fifty percent is documented within the category of exploitable forests, which are examined in detail here. In this study, a general formalism of the time evolution of an ensemble of forests within an ecological province is developed using the formalism of the Leslie matrix. This matrix can be formulated if the age class dependent mortalities which arise from the disturbances are known. A distinction is made between the natural disturbances by fire, wind throw and insect infestations and disturbances introduced through harvesting of timber. Through the use of Richards growth function each age class of a given biome is related to the corresponding biomass and annual increment. The data reported on the mean net annual increment and on the mean biomass serve to calibrate the model. The difference of the reported net annual increment and annual fellings of approximately 550 · 106 m3 roundwood correspond to a sink of 210-330 Mt of carbon per year excluding any changes in the soil balance. It could be shown that the present distribution of forest age classes for the United States, Canada, Europe, or the former Soviet Union does not correspond to a quasi-stationary state, in which biomass is accumulated only due to a stimulated growth under enhanced atmospheric CO2 levels. The present CO2 sink function will not persist in the next century, if harvesting rates increase with 0.5% annually or even less. The future state will also be influenced by the effect of the greenhouse climate, the impact of which may range from a stimulating effect on growth, which is calculated by the Frankfurt biosphere model, up to a transitional negative effect through a shift in vegetation zones.</t>
+          <t>Transition metal dichalcogenides are studied due to the possibility of creating nanoscale semiconductor devices, as well as fundamental issues of magnetic ordering. We researched the crystal structure and magnetic properties of niobium dichalcogenide Mn0.30NbS2. The results of the X-ray study showed the possible existence of an intermediate 23a0·23a0 structure between the “basic” superstructures. Also, two local maximums were found in the temperature dependence of the dynamic magnetic susceptibility. These features can indirectly confirm the presence of a transition superstructure and reflect the two-step nature of the magnetic ordering.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231232433</t>
+          <t>https://openalex.org/W3117802593</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7287/peerj.preprints.26578v1/supp-14</t>
+          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA (2018)</t>
+          <t>Abysova &amp; Шоріна (2020)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tomato yellow leaf curl virus (TYLCV) is one of the most devastating viruses of cultivated tomato in both tropical and subtropical regions. Five major genes (Ty-1, Ty-2, Ty-3, Ty-4 and Ty-5) from wild tomato species have been associated with resistance to TYLCV. Researchers have recently attempted to determine the functions of these resistance genes, but molecular mechanisms underlying the observed resistance remain unclear. Here, resistant (cv. CLN3212A-23, carrying Ty-5) and susceptible (cv. Moneymaker) plants were either left untreated (R and S, respectively) or artificially inoculated with TYLCV via Agrobacterium-mediated transformation (RT and ST, respectively). The transcriptomes of the plants in the four groups were then analyzed by RNA-Seq, and the results identified 8,639 differentially expressed genes (DEGs) between the R and RT groups, 2,818 DEGs between the RT and ST groups, 8,899 DEGs between the S and ST groups, and 707 DEGs between the R and S groups. The gene expression profiles in both the resistant and susceptible tomato cultivars appeared to undergo notable changes after viral inoculation, and functional classification revealed that most DEGs were associated with 18 GO terms. Moreover, the functional classification of the response of Ty-5-carrying tomato plants to TYLCV infection identified the importance of the GO term “response to stimulus” in the BP category, which is related to disease resistance. In addition, 28 genes were significantly enriched in the “Plant hormone signal transduction”, “Carbon metabolism”, “ Carbon fixation in photosynthetic organisms ” and “ Glutathione metabolism ” pathways. The differential expression levels of 12 select genes were confirmed by quantitative real-time PCR. The present study indicates that the Ty-5 gene activates the expression of multiple genes involved in the resistance process and will aid a more in-depth understanding of the effects of the Ty-5 gene on resistance based on its molecular mechanism with the aim of improving TYLCV disease management in tomato.</t>
+          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981541718</t>
+          <t>https://openalex.org/W3089575826</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
+          <t>https://doi.org/10.1115/1.4048243</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kоshkalda et al. (2019)</t>
+          <t>Feser &amp; Gupta (2020)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Innovative development of agricultural enterprises as an economic system</t>
+          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
+          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386435998</t>
+          <t>https://openalex.org/W2335346337</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/magnetism3030020</t>
+          <t>https://doi.org/10.2307/2654525</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Мушенок et al. (2023)</t>
+          <t>Brown et al. (1998)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Two-Step Magnetic Ordering in Intercalated Niobium Dichalcogenide MnXNbS2</t>
+          <t>Recent Social Trends in Russia: 1960-1995</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transition metal dichalcogenides are studied due to the possibility of creating nanoscale semiconductor devices, as well as fundamental issues of magnetic ordering. We researched the crystal structure and magnetic properties of niobium dichalcogenide Mn0.30NbS2. The results of the X-ray study showed the possible existence of an intermediate 23a0·23a0 structure between the “basic” superstructures. Also, two local maximums were found in the temperature dependence of the dynamic magnetic susceptibility. These features can indirectly confirm the presence of a transition superstructure and reflect the two-step nature of the magnetic ordering.</t>
+          <t>The newest volume in the Comparative Charting of Social Change Series, which documents patterns of social change in modernized societies, Recent Social Trends in Russia is a collection of statistical and sociological data on trends in Russian society that have never before been assembled in a comprehensive and systematic manner. It presents an extensive analysis of the major social transformations that took place in Russia both before and after the fall of the Communist system and dispels many illusions about Russian society in the twentieth century. Recent Social Trends in Russia reveals remarkable similarities between emerging trends in Russia and in Western countries during the last thirty-five years. Russian society shows a strong tendency toward modernization, although the speed of change is sometimes slower than in Western industrialized countries. Similar to Western societies, Russia's population is aging, unemployment prevails among the young, and a new class of young professionals is emerging. The institution of marriage is losing its significance, emotional disorders and consumption of mood-altering substances are increasing, and religious beliefs and habits are becoming more diversified. Political upheavals over the last ten or twelve years and the collapse of Communism have not had much effect on the social landscape in Russia. There has, however, been an increase in the influence of Western culture and a violent backlash in fields that underwent forceful modernization. The findings suggest that Russian and Western societies are more similar than one would imagine and contradict the popular conception that Communist Russia fell out of world history for seventy years.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3117802593</t>
+          <t>https://openalex.org/W2766556291</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
+          <t>https://doi.org/10.48550/arxiv.1710.08724</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Abysova &amp; Шоріна (2020)</t>
+          <t>Hong et al. (2017)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
+          <t>Limit theorems for supercritical MBPRE with linear fractional offspring distributions</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
+          <t>We investigate the limit behavior of supercritical multitype branching processes in random environments with linear fractional offspring distributions and show that there exists a phase transition in the behavior of local probabilites of the process affected by strongly and intermediately supercritical regimes. Some conditional limit theorems can also be obtained from the representation of generating functions.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2335346337</t>
+          <t>https://openalex.org/W4200213484</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/2654525</t>
+          <t>https://doi.org/10.1039/d1cp05353a</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brown et al. (1998)</t>
+          <t>Huang et al. (2022)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Recent Social Trends in Russia: 1960-1995</t>
+          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>The newest volume in the Comparative Charting of Social Change Series, which documents patterns of social change in modernized societies, Recent Social Trends in Russia is a collection of statistical and sociological data on trends in Russian society that have never before been assembled in a comprehensive and systematic manner. It presents an extensive analysis of the major social transformations that took place in Russia both before and after the fall of the Communist system and dispels many illusions about Russian society in the twentieth century. Recent Social Trends in Russia reveals remarkable similarities between emerging trends in Russia and in Western countries during the last thirty-five years. Russian society shows a strong tendency toward modernization, although the speed of change is sometimes slower than in Western industrialized countries. Similar to Western societies, Russia's population is aging, unemployment prevails among the young, and a new class of young professionals is emerging. The institution of marriage is losing its significance, emotional disorders and consumption of mood-altering substances are increasing, and religious beliefs and habits are becoming more diversified. Political upheavals over the last ten or twelve years and the collapse of Communism have not had much effect on the social landscape in Russia. There has, however, been an increase in the influence of Western culture and a violent backlash in fields that underwent forceful modernization. The findings suggest that Russian and Western societies are more similar than one would imagine and contradict the popular conception that Communist Russia fell out of world history for seventy years.</t>
+          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387048290</t>
+          <t>https://openalex.org/W4380877901</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/tox.23974</t>
+          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Li et al. (2023)</t>
+          <t>Rani et al. (2023)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pathogenomics model for personalized medicine in cervical cancer: Cross‐talk of gene expressions and pathological images related to oxidative stress</t>
+          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Abstract An increasing number of studies have shown that oxidative stress plays an important role in the development and progression of cancer. Cervical cancer (CC) is a disease of unique complexity that tends to exhibit high heterogeneity in molecular phenotypes. We aim here to characterize molecular features of cervical cancer by developing a classification system based on oxidative stress‐related gene expression profiles. In this study, we obtained gene expression profiling data for cervical cancer from the TCGA (The Cancer Genome Atlas) and GEO (Gene Expression Omnibus) (GSE44001) databases. Oxidative stress‐related genes used for clustering were obtained from GeneCards. Patients with cervical cancer were divided into two subtypes (C1 and C2) by non‐negative matrix factorization (NMF) classification. By performing Kaplan–Meier survival analysis, differential expression analysis, and gene set enrichment analysis (GSEA) between the two subtypes, we found that subtype C2 had a worse prognosis and was highly enriched for immune‐related pathways as well as epithelial‐mesenchymal transition (EMT) pathways. Subsequently, we performed metabolic pathway analysis, gene mutation landscape analysis, immune microenvironment analysis, immunotherapy response analysis, and drug sensitivity analysis of the two isoforms. The results showed that the isoforms were significantly different between metabolic pathway enrichment and the immune microenvironment, and the chromosomes of subtype C1 were more unstable. In addition, we found that subtype C2 tends to respond to treatment with anti‐CTLA4 agents, a conclusion that coincides with high chromosomal variation in C1, as well as C2 enrichment of immune‐related pathways. Then, we screened 10 agents that were significantly susceptible to C2 subtype. Finally, we constructed pathogenomics models based on pathological features and linked them to molecular subtypes. This study establishes a novel CC classification based on gene expression profiles of oxidative stress‐related genes and elucidates differences between immune microenvironments between CC subtypes, contributing to subtype‐specific immunotherapy and drug therapy.</t>
+          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200213484</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1039/d1cp05353a</t>
+          <t>https://openalex.org/W194969759</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Huang et al. (2022)</t>
+          <t>Martins &amp; Costa (2014)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
+          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
+          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2892052254</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/admi.201800736</t>
+          <t>https://openalex.org/W2994567979</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Leeuwenburgh et al. (2018)</t>
+          <t>IuV et al. (2013)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Self-Healing Materials are Coming of Age</t>
+          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>While natural materials such as bone or skin are able to heal themselves in an autonomous manner after mechanical damage, traditional man-made materials generally lack this intrinsic capacity for self-healing. In 1969, self-healing properties were for the first time built-in inside polymeric materials1 and in the following decades publications about self-healing in thermoplastic and cross-linked systems and concrete appeared.2 Although, it was only in 2001, through an article about self-healing in polymer based materials published in Nature, that research in the field of self-healing materials research was really triggered.3 By restoring their functional properties autonomously after damage, self-healing materials would offer tremendous advantages over traditional materials in application areas such as civil, chemical, electrical, aerospace, automotive, and biomedical engineering. Autonomous self-healing does not require an external trigger (like heat or irradiation), whereas non-autonomous self-healing only occurs in response to such external triggers.4 Another classification of self-healing materials is based on the incorporation of separate healing agents (extrinsic self-healing) as opposed to intrinsic self-healing which proceeds without the need to include separate healing agents.4 Irrespective of their classification, self-healing of materials requires the creation of a local mobile phase which can close and repair cracks by physical flow into the crack and subsequent reformation of chemically stable interfaces. During the first decade of self-healing materials research, numerous novel concepts for self-healing of man-made polymeric, ceramic, metallic and composite materials have been developed. These concepts were mainly based on trial-and-error and not yet based on thorough understanding of the thermodynamics and kinetics of the process of self-healing. During the past decade, however, the field of self-healing materials research has witnessed a gradual trend towards the development of intrinsic and autonomous vs. extrinsic and non-autonomous self-healing materials. This transition has provided the self-healing materials community with a deeper understanding of the key processes which control self-healing in man-made materials. Ideally, this fundamental understanding will pave the way for a priori definition of design criteria to render traditional materials self-healing without the need for extensive and iterative experimental optimization cycles. The current Special Issue consisting of 10 progress reports and/or reviews provides an overview of the state-of-the-art in the field of self-healing materials research (Figure 1). The first five manuscripts are dedicated to self-healing of polymer-based materials, whereas the five other manuscripts describe self-healing of hard materials including metals and concrete. Self-healing of polymer-based materials generally relies on dynamic bonds in the polymeric phase which allow for reformation of bonds after cleavage. Two types of dynamic bonds have attracted most interest during the past decade, reversible covalent bonds and supramolecular chemistry. Article 1800051 defines general design criteria for the synthesis of self-healing polymers based on dynamic covalent bonds, while article 1800384 shows that supramolecular chemistry offers a versatile toolbox of chemical interactions to render polymeric materials self-healing. Local temporary mobility is the key concept responsible for all classes of self-healing materials, but this mobility is restricted to the outermost layer in case of functional polymeric surfaces. The progress report 1800293 focuses on a specific type of self-healing low-adherence polymeric surfaces. The first decade of self-healing materials research focused mainly on traditional engineering materials, but research interest on self-healing biomaterials has increased considerably during the past decade. Self-healing can be advantageous for polymeric biomaterials in view of their processing, clinical handling and biological performance, as shown in article 1800118. Nevertheless, inorganic phases are needed to combine self-healing with mechanical robustness, which is also emphasized in article 1800177 on self-healing fiber-reinforced polymer composites. While the combination of a hard civil engineering material and soft biological ‘actors’ in order to reach self-healing behaviour does not seem intuitively very logical, article 1800074, demonstrates a surprisingly effective method of using spore-forming alkaliphilic bacteria in combination with special bacterial food to make microcracks in concrete heal themselves autonomously in the presence of moisture. But this is only one of the discussed methods next to autogenous healing, use of mineral additions, crystalline admixtures or (superabsorbent) polymers, and micro-, macro- or vascular encapsulated polymers and minerals. The contribution in article 1701378 discusses models for mechanical self</t>
+          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2950541532</t>
+          <t>https://openalex.org/W4303985003</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1932296819854062</t>
+          <t>https://doi.org/10.1175/mwr-d-22-0037.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Doremalen et al. (2019)</t>
+          <t>Fischer et al. (2023)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Infrared 3D Thermography for Inflammation Detection in Diabetic Foot Disease: A Proof of Concept</t>
+          <t>A Tale of Two Vortex Evolutions: Using a High-Resolution Ensemble to Assess the Impacts of Ventilation on a Tropical Cyclone Rapid Intensification Event</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Background: Thermal assessment of the plantar surface of the foot using spot thermometers and thermal imaging has been proven effective in diabetic foot ulcer prevention. However, with traditional cameras this is limited to single spots or a two-dimensional (2D) view of the plantar side of foot, where only 50% of the ulcers occur. To improve ulcer detection, the view has to be extended beyond 2D. Our aim is to explore for proof of concept the combination of three-dimensional (3D) models with thermal imaging for inflammation detection in diabetic foot disease. Method: From eight participants with a current diabetic foot ulcer we simultaneously acquired a 3D foot model and three thermal infrared images using a high-resolution medical 3D imaging system aligned with three smartphone-based thermal infrared cameras. Using spatial transformations, we aimed to map thermal images onto the 3D model, to create the 3D visualizations. Expert clinicians assessed these for quality and face validity as +, +/-, -. Results: We could replace the texture maps (color definitions) of the 3D model with the thermal infrared images and created the first-ever 3D thermographs of the diabetic foot. We then converted these models to 3D PDF-files compatible with the hospital IT environment. Face validity was assessed as + in six and +/- in two cases. Conclusions: We have provided a proof of concept for the creation of clinically useful 3D thermal foot images to assess the diabetic foot skin temperature in 3D in a hospital IT environment. Future developments are expected to improve the image-processing techniques to result in easier, handheld applications and driving further research.</t>
+          <t>Abstract The multiscale nature of tropical cyclone (TC) intensity change under moderate vertical wind shear was explored through an ensemble of high-resolution simulations of Hurricane Gonzalo (2014). Ensemble intensity forecasts were characterized by large short-term (36-h) uncertainty, with a forecast intensity spread of over 20 m s −1 , due to differences in the timing of rapid intensification (RI) onset. Two subsets of ensemble members were examined, referred to as early-RI and late-RI members. The two ensemble groups displayed significantly different vortex evolutions under the influence of a nearby upper-tropospheric trough and an associated dry-air intrusion. Mid-to-upper-tropospheric ventilation in late-RI members was linked to a disruption of inner-core diabatic heating, a more tilted vortex, and vortex breakdown, as the simulated TCs transitioned from a vorticity annulus toward a monopole structure. A column-integrated moist static energy (MSE) budget revealed the important role of horizontal advection in depleting MSE from the TC core, while mesoscale subsidence beneath the dry-air intrusion acted to dry a deep layer of the troposphere. Eventually, the dry-air intrusion retreated from late-RI members as vertical wind shear weakened, the magnitude of vortex tilt decreased, and late-RI members began to rapidly intensify, ultimately reaching a similar intensity as early-RI members. Conversely, the vortex structures of early-RI members were shown to exhibit greater intrinsic resilience to tilting from vertical wind shear, and early-RI members were able to fend off the dry-air intrusion relatively unscathed. The different TC intensity evolutions can be traced back to differences in the initial TC vortex structure and intensity. Significance Statement Despite recent advances, tropical cyclone intensity forecasts struggle to accurately predict episodes of rapid intensification. Such forecasts become increasingly challenging when a storm is embedded within an environment of moderate vertical wind shear. This study uses an ensemble of high-resolution simulations to examine how environmental influences can affect the tropical cyclone vortex and precipitation structure, which, in turn, modulate the intensity of the storm and the onset of rapid intensification. We propose a feedback that exists where slightly weaker and less resilient vortices are more susceptible to ventilation from dry, environmental air, aided in part by differential advection from the tilted circulation, resulting in a degradation of vortex organization and a delayed onset of rapid intensification.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W194969759</t>
+          <t>https://openalex.org/W2116178833</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/forestry/cpp023</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Martins &amp; Costa (2014)</t>
+          <t>Macdonald et al. (2009)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
+          <t>The effects of transformation of even-aged stands to continuous cover forestry on conifer log quality and wood properties in the UK</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
+          <t>There is an increasing move in the UK to transform even-aged, single-species conifer plantations to continuous cover forest, i.e. more diverse and irregular stand structures. However, experience of doing this is limited and research to date has not addressed the consequences of this change on timber quality. This paper reviews the impact of transformation on timber quality and wood properties and uses coupled growth and timber property model simulations to examine the effects of different transformation scenarios on Sitka spruce (Picea sitchensis (Bong.) Carr.). The results of the modelling broadly confirmed the conclusions from the literature review. Five key aspects of transformation are considered. Retaining trees to older ages can produce higher quality timber with improved mechanical properties. Regular selective thinning and increased use of crown thinning will improve timber quality, but timing is critical to avoid producing highly tapered trees with heavy branches. Creating gaps in a uniform canopy will generally have a negative impact on the timber quality of the trees around the gap edges. Increased variation in tree age, size, spacing and species will result in greater variation in log quality and wood properties. Using natural regeneration reduces the opportunities for improved growth and timber quality offered by selectively bred planting stock but can deliver good-quality timber if the characteristics of the original stand are suitable and adequate stocking is achieved. The main conclusion of this review is that transformation to continuous cover forestry will not lead to a significant reduction or improvement in the quality of timber being produced in forests in the UK. The main effect will probably be to increase the variation of log sizes and wood properties that are available in the market.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2994567979</t>
+          <t>https://openalex.org/W3116970065</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IuV et al. (2013)</t>
+          <t>Лиханова et al. (2020)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
+          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
+          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129977543</t>
+          <t>https://openalex.org/W2020196749</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1194/jlr.m200135-jlr200</t>
+          <t>https://doi.org/10.1016/j.precamres.2009.03.015</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Guérin et al. (2002)</t>
+          <t>Heaman et al. (2009)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cholesteryl ester flux from HDL to VLDL-1 is preferentially enhanced in type IIB hyperlipidemia in the postprandial state</t>
+          <t>Timing and geochemistry of 1.88Ga Molson Igneous Events, Manitoba: Insights into the formation of a craton-scale magmatic and metallogenic province</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas.In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas. In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. In order to maintain cholesterol homeostasis in peripheral tissues, excess cellular cholesterol is returned to the liver for excretion via a multistep process termed “reverse cholesterol transport” (RCT) (1Tall A. Plasma lipid transfer proteins.Annu. Rev. Biochem. 1995; 64: 235-257Google Scholar). A key component of this process involves the transfer of a significant portion of the cholesteryl ester (CE) pool in HDL to apoB-containing lipoproteins (VLDL, IDL, and LDL) via the action of the cholesteryl ester transfer protein (CETP) (2Goldberg D.I. Beltz W.F. Pittman R.C. Evaluation of pathways for the cellular uptake of high density lipoprotein cholesterol esters in rabbits.J Clin Invest. 1991; 87: 331-346Google Scholar).Hyperlipidemia of phenotype IIB is associated with an increased risk of premature coronary artery disease and is characterized by concomitant elevation of circulating levels of atherogenic apoB-containing, triglyceride-rich (VLDL) and cholesterol-rich lipoproteins (VLDL remnants, IDL, and LDL</t>
+          <t>The timing and origin of Paleoproterozoic mafic and ultramafic magmatism in the NW Superior craton is important for constraining the tectonic evolution of this margin during formation and closure of the 2.1–1.8 Ga Manikewan Ocean. An important component of this magmatism is the 1.88 Ga Molson Igneous Events, which comprise the Molson dyke swarm, various ultramafic sills and mafic volcanic rocks located in both the Fox River and Thompson Nickel belts, northern Manitoba. Many Molson dykes have relatively flat primitive mantle-normalized patterns, overlapping the compositions of coeval mafic/ultramafic volcanic rocks and sills in northern Manitoba, supporting a common origin. Six new U–Pb zircon ages were obtained for mafic and ultramafic units and one monzogranite from both within and external to the TNB. Within the TNB the 1876.7 ± 5.1 Ma Paint Lake pyroxenite sill provides further evidence that at least some ultramafic magmatism associated with nickel mineralization is linked to Molson Igneous Events. A deformed monzogranite unit encountered in a drill hole located at Mystery Lake East has a U–Pb zircon age of 1874.6 ± 3.4 Ma and provides further evidence for the generation of contemporaneous felsic and ultramafic magmas along the Superior margin. External to the TNB, magmatism linked to Molson Igneous Events has been confirmed within the TNB transition zone (1885.2 ± 2.1 Ma Bear Island dyke, Sipiwesk Lake) and up to 100 km east of the TNB, for example the 1900.0 ± 5.8 Ma Wakehao Lake and 1884.5 ± 3.8 Ma Molson Lake dykes. Molson Igneous Events span a period of approximately 25 m.y. but the majority of magmatism is short-lived; emplaced within the narrow time span of about 8 m.y. between 1885 and 1877 Ma. The tectonic setting of Molson Igneous Events is intriguing as it occurs at a convergent margin during initiation of oceanic arc formation and closure of the Manikewan Ocean. This magmatism is relatively short-lived (&lt;20 m.y.), has a dominantly MORB-like chemical and neodymium isotopic composition, and can be traced into the highly deformed Thompson Nickel Belt where it forms sediment–sill complexes associated with Ni–Cu mineralization. The majority of the northern Superior craton margin, including the Thompson Nickel Belt, Fox River Belt, Cape Smith Belt and the New Québec Orogen, share a strikingly similar Paleoproterozoic evolution with two periods of mafic/ultramafic magmatism at ∼2.2–2.1 and 1.90–1.87 Ga, similarity in basalt geochemistry, and the development of ∼1.88 Ga fine-grained sediment–sill complexes that are host to significant nickel mineralization. The similarity in the timing and geochemistry of the 1.88 Ga mafic/ultramafic magmatism and its location along the western, northern and eastern Superior Province margin, extending for more than 3000 km, is interpreted to indicate Molson Igneous Events are linked to a unique and widespread Paleoproterozoic depleted mantle melting phenomena. Possible tectonic settings include development of a series of contemporaneous continental back-arcs during convergence and subduction of Manikewan oceanic crust or more likely passive upwelling of asthenosphere focused along the thinned margin of the Superior craton.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2989934957</t>
+          <t>https://openalex.org/W2113935898</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/1386/1/012135</t>
+          <t>https://doi.org/10.1111/j.1744-697x.2009.00174.x</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Salazar et al. (2019)</t>
+          <t>Satô (2010)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Semi-automatic detection of the evolutionary forms of visceral leishmaniasis in microscopic blood smears</t>
+          <t>Fecal acetone and isopropanol levels of wild sika deer (&lt;i&gt;Cervus nippon yesoensis&lt;/i&gt;) in spring and winter</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abstract Leishmaniasis is a complex group of diseases caused by obligate unicellular and intracellular eukaryotic protozoa of the leishmania genus. Leishmania species generate diverse syndromes ranging from skin ulcers of spontaneous resolution to fatal visceral disease. These syndromes belong to three categories: visceral leishmaniasis, cutaneous leishmaniasis and mucosal leishmaniasis. The visceral leishmaniasis is based on the reticuloendothelial system producing hepatomegaly, splenomegaly and lymphadenopathy. In the present article, a semiautomatic segmentation strategy is proposed to obtain the segmentations of the evolutionary shapes of visceral leishmaniasis called parasites, specifically of the type amastigote and promastigote. For this purpose, the optical microscopy images containing said evolutionary shapes, which are generated from a blood smear, are subjected to a process of transformation of the color intensity space into a space of intensity in gray levels that facilitate their subsequent preprocessing and adaptation. In the preprocessing stage, smoothing filters and edge detectors are used to enhance the optical microscopy images. In a complementary way, a segmentation technique that groups the pixels corresponding to each one of the parasites, presents in the considered images, is applied. The results reveal a high correspondence between the available manual segmentations and the semi-automatic segmentations which are useful for the characterization of the parasites. The obtained segmentations let us to calculate areas and perimeters associated with the parasites segmented. These results are very important in clinical context where both the area and perimeter calculated are vital for monitoring the development of visceral leishmaniasis.</t>
+          <t>Abstract Recently, the population of Cervus nippon yesoensis , a subspecies of sika deer, has been increasing in Hokkaido, Japan. The food habits and alimentary fermentation of sika deer change dramatically with season, with food primarily composed of bark in winter, and grasses and woody leaves for the remainder of the year. To investigate the relationship of colonic fermentation in the deer with food changes, fresh fecal samples were collected in March with lingering snow, and during a verdurous period in June. Fecal alcohol, acetone, ammonia and volatile fatty acids (VFAs) were analyzed after extracting the samples with water. With the change in food from winter to spring, ethanol level decreased while acetone and isopropanol levels increased in the majority of fecal samples. In June, higher n‐butyrate levels and a lower proportion of minor VFAs containing branched acids were found, with an accompanying tendency toward higher total VFA level. Thus, alterations of colonic fermentation occurred in conjunction with the transition from winter to spring food in wild sika deer.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3116970065</t>
+          <t>https://openalex.org/W2749959281</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
+          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Лиханова et al. (2020)</t>
+          <t>Mohan et al. (2017)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
+          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
+          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2529533124</t>
+          <t>https://openalex.org/W2135444824</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.4973978</t>
+          <t>https://doi.org/10.1109/intmag.1992.696377</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tucholska et al. (2017)</t>
+          <t>Tang et al. (1992)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Transition moments between excited electronic states from the Hermitian formulation of the coupled cluster quadratic response function</t>
+          <t>Rare-earth transition metal carbides</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>We introduce a new method for the computation of the transition moments between the excited electronic states based on the expectation value formalism of the coupled cluster theory [B. Jeziorski and R. Moszynski, Int. J. Quantum Chem. 48, 161 (1993)]. The working expressions of the new method solely employ the coupled cluster operator T and an auxiliary operator S that is expressed as a finite commutator expansion in terms of T and T†. In the approximation adopted in the present paper, the cluster expansion is limited to single, double, and linear triple excitations. The computed dipole transition probabilities for the singlet-singlet and triplet-triplet transitions in alkali earth atoms agree well with the available theoretical and experimental data. In contrast to the existing coupled cluster response theory, the matrix elements obtained by using our approach satisfy the Hermitian symmetry even if the excitations in the cluster operator are truncated, but the operator S is exact. The Hermitian symmetry is slightly broken if the commutator series for the operator S are truncated. As a part of the numerical evidence for the new method, we report calculations of the transition moments between the excited triplet states which have not yet been reported in the literature within the coupled cluster theory. Slater-type basis sets constructed according to the correlation-consistency principle are used in our calculations.</t>
+          <t>The intrinsic magnetic properties of rare-earth transition-metal compounds have been found to improve dramatically with nitrogen and carbon additions which are made through the gas-phase interstitial modification proceess. In this work, we have obtained rare-earth transition metal carbides with the 2:17 and 1:12 structures using methane and ethane. They intrinsic magnetic properties of these compounds have been studied and the results will be reported.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020196749</t>
+          <t>https://openalex.org/W2911952093</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.precamres.2009.03.015</t>
+          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Heaman et al. (2009)</t>
+          <t>Shevchenko (2013)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Timing and geochemistry of 1.88Ga Molson Igneous Events, Manitoba: Insights into the formation of a craton-scale magmatic and metallogenic province</t>
+          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The timing and origin of Paleoproterozoic mafic and ultramafic magmatism in the NW Superior craton is important for constraining the tectonic evolution of this margin during formation and closure of the 2.1–1.8 Ga Manikewan Ocean. An important component of this magmatism is the 1.88 Ga Molson Igneous Events, which comprise the Molson dyke swarm, various ultramafic sills and mafic volcanic rocks located in both the Fox River and Thompson Nickel belts, northern Manitoba. Many Molson dykes have relatively flat primitive mantle-normalized patterns, overlapping the compositions of coeval mafic/ultramafic volcanic rocks and sills in northern Manitoba, supporting a common origin. Six new U–Pb zircon ages were obtained for mafic and ultramafic units and one monzogranite from both within and external to the TNB. Within the TNB the 1876.7 ± 5.1 Ma Paint Lake pyroxenite sill provides further evidence that at least some ultramafic magmatism associated with nickel mineralization is linked to Molson Igneous Events. A deformed monzogranite unit encountered in a drill hole located at Mystery Lake East has a U–Pb zircon age of 1874.6 ± 3.4 Ma and provides further evidence for the generation of contemporaneous felsic and ultramafic magmas along the Superior margin. External to the TNB, magmatism linked to Molson Igneous Events has been confirmed within the TNB transition zone (1885.2 ± 2.1 Ma Bear Island dyke, Sipiwesk Lake) and up to 100 km east of the TNB, for example the 1900.0 ± 5.8 Ma Wakehao Lake and 1884.5 ± 3.8 Ma Molson Lake dykes. Molson Igneous Events span a period of approximately 25 m.y. but the majority of magmatism is short-lived; emplaced within the narrow time span of about 8 m.y. between 1885 and 1877 Ma. The tectonic setting of Molson Igneous Events is intriguing as it occurs at a convergent margin during initiation of oceanic arc formation and closure of the Manikewan Ocean. This magmatism is relatively short-lived (&lt;20 m.y.), has a dominantly MORB-like chemical and neodymium isotopic composition, and can be traced into the highly deformed Thompson Nickel Belt where it forms sediment–sill complexes associated with Ni–Cu mineralization. The majority of the northern Superior craton margin, including the Thompson Nickel Belt, Fox River Belt, Cape Smith Belt and the New Québec Orogen, share a strikingly similar Paleoproterozoic evolution with two periods of mafic/ultramafic magmatism at ∼2.2–2.1 and 1.90–1.87 Ga, similarity in basalt geochemistry, and the development of ∼1.88 Ga fine-grained sediment–sill complexes that are host to significant nickel mineralization. The similarity in the timing and geochemistry of the 1.88 Ga mafic/ultramafic magmatism and its location along the western, northern and eastern Superior Province margin, extending for more than 3000 km, is interpreted to indicate Molson Igneous Events are linked to a unique and widespread Paleoproterozoic depleted mantle melting phenomena. Possible tectonic settings include development of a series of contemporaneous continental back-arcs during convergence and subduction of Manikewan oceanic crust or more likely passive upwelling of asthenosphere focused along the thinned margin of the Superior craton.</t>
+          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3087208638</t>
+          <t>https://openalex.org/W2490211392</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adsc.202000896</t>
+          <t>https://doi.org/10.1017/chol9780521816052</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Kumar et al. (2020)</t>
+          <t>Brown &amp; Tackett (2006)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Propargylic Alcohols as Coupling Partners in Transition‐Metal‐Catalyzed Arene C−H Activation</t>
+          <t>The Cambridge History of Christianity</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Abstract Transition‐metal‐catalyzed site selective arene C−H bond activation concomitant functionalization with various coupling partners gain magnificent attraction in synthetic organic chemistry as complementary to traditional transformations. Mechanistically, these C−H functionalization approaches involve directing group assisted concerted metalation‐deprotonation (CMD), migratory insertion, and reductive elimination sequences. In this realm, diverse categories of coupling partners were employed as C−H functionalization buddies. Particularly alkynes gain enormous attention as annulating agents. These units coordinates with metalcycle through π‐interaction produce annulation outcomes in a straightforward manner. Very recently, propargylic alcohols were appointed as valuable archetypes in arene C−H activation armoury, as they have shown regio‐ and chemoselective migratory insertion into primary metalcycle species via hydroxy chelation. The influential regioselectivity was drawn by dual coordination of metal complexes with the pendent directing group and a propargylic hydroxyl group. In this review, we focused on annulations and functionalization of arenes and propargylic alcohols, which afford intricate cycles as well as complex acyclic motifs in a trouble‐free manner. We categorized these transformations based on number of atoms of propargylic alcohols involved in annulation along with some addition reactions. We anticipate to pave a way towards enhanced endeavours for discovering novel reaction avenues. magnified image</t>
+          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135444824</t>
+          <t>https://openalex.org/W3037811040</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/intmag.1992.696377</t>
+          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tang et al. (1992)</t>
+          <t>Ibáñez et al. (2020)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rare-earth transition metal carbides</t>
+          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>The intrinsic magnetic properties of rare-earth transition-metal compounds have been found to improve dramatically with nitrogen and carbon additions which are made through the gas-phase interstitial modification proceess. In this work, we have obtained rare-earth transition metal carbides with the 2:17 and 1:12 structures using methane and ethane. They intrinsic magnetic properties of these compounds have been studied and the results will be reported.</t>
+          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W4318253710</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1029/2022av000735</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Hassenruck‐Gudipati et al. (2023)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>Moisture Sources and Pathways Determine Stable Isotope Signature of Himalayan Waters in Nepal</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>Abstract The Himalayan mountain range produces one of the steepest and largest rainfall gradients on Earth, with &amp;gt;3 m/yr rainfall difference over a ∼100 km distance. The Indian Summer Monsoon (ISM) contributes more than 80% to the annual precipitation budget of the central Himalayas. The remaining 20% falls mainly during pre‐ISM season. Understanding the seasonal cycle and the transfer pathways of moisture from precipitation to the rivers is crucial for constraining water availability in a warming climate. However, the partitioning of moisture into the different storage systems such as snow, glacier, and groundwater and their relative contribution to river discharge throughout the year remains under‐constrained. Here, we present novel field data from the Kali Gandaki, a trans‐Himalayan river, and use 4‐year time series of river and rain water stable isotope composition (δ 18 O and δ 2 H values) as well as river discharge, satellite Global Precipitation Measurement amounts, and moisture source trajectories to constrain hydrological variability. We find that rainfall before the onset of the ISM is isotopically distinct and that ISM rain and groundwater have similar isotopic values. Our study lays the groundwork for using isotopic measurements to track changes in precipitation sources during the pre‐ISM to ISM transition in this key region of orographic precipitation. Specifically, we highlight the role of pre‐ISM precipitation, derived from the Gangetic plain, to define the seasonal river isotopic variability across the central Himalayas. Lastly, isotopic values across the catchment document the importance of a large well‐mixed groundwater reservoir supplying river discharge, especially during the non‐ISM season.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2490211392</t>
+          <t>https://openalex.org/W2212573107</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/chol9780521816052</t>
+          <t>https://doi.org/10.1646/0006-3606(2001)033[0048:satvic]2.0.co;2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brown &amp; Tackett (2006)</t>
+          <t>Villegas (2001)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The Cambridge History of Christianity</t>
+          <t>Spatial and Temporal Variability in Clonal Reproduction of Aechmea magdalenae, a Tropical Understory Herb1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
+          <t>Clonal reproduction is a common feature in tropical herbaceous plants and has been shown to be important for recruitment and population maintenance. Although numerous phenological responses (i.e., leaf flushing, flowering, and fruit maturation) have been shown to be associated with seasonality in the tropics, little is known about the relationship between seasonality and levels of clonal reproduction. I examined the temporal and spatial variation in clonal reproduction and its potential trade-off with growth and survival for a tropical understory herb, Aechmea magdalenae (André) André ex Baker, Handb. Bromel (Bromeliaceae). I addressed the following questions: (1) how do vegetative growth, survival, and clonal reproduction (i.e., rhizome and ramet production) vary between seasons and between years?; (2) how do these factors differ among populations?; and (3) do simulated dry and wet season light levels cause similar variation in rosette survival and vegetative and clonal reproduction, as found in natural populations? Rhizome and ramet production in A. magdalenae was found to be highly influenced by seasonality. During the transition from dry to wet season, there was a significant decrease in survival and a significant increase in clonal reproduction, and rosettes tended to grow at a slower rate. Rosettes in the location with the longest dry season had significantly lower survival, higher clonal reproduction, and a slower growth rate. Clonal reproduction also started at smaller rosette sizes in the most seasonal forest. When light levels were manipulated, rhizome and ramet production were significantly greater under the high light conditions, and rosette growth (change in longest leaf length) was significantly lower. Results from this study suggest that A. magdalenae responds to higher light levels by shifting investment from vegetative growth to clonal reproduction. Possible implications of this response to light for population demography are discussed.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244815077</t>
+          <t>https://openalex.org/W2556968239</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/ange.201907752</t>
+          <t>https://doi.org/10.5751/es-01595-110118</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wang et al. (2019)</t>
+          <t>Olsson et al. (2006)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Atomically Dispersed Semimetallic Selenium on Porous Carbon Membrane as an Electrode for Hydrazine Fuel Cells</t>
+          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Abstract Electrochemically functional porous membranes of low cost are appealing in various electrochemical devices used in modern environmental and energy technologies. Herein we describe a scalable strategy to construct electrochemically active, hierarchically porous carbon membranes containing atomically dispersed semi‐metallic Se, denoted SeNCM. The isolated Se atoms were stabilized by carbon atoms in the form of a hexatomic ring structure, in which the Se atoms were located at the edges of graphitic domains in SeNCM. This configuration is different from that of previously reported transition/noble metal single atom catalysts. The positively charged Se, enlarged graphitic layers, robust electrochemical nature of SeNCM endow them with excellent catalytic activity that is superior to state‐of‐the‐art commercial Pt/C catalyst. It also has long‐term operational stability for hydrazine oxidation reaction in practical hydrazine fuel cell.</t>
+          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4378417325</t>
+          <t>https://openalex.org/W2026250138</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.22620/sciworks.2022.02.010</t>
+          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dyankov &amp; Yancheva (2023)</t>
+          <t>Callahan (2015)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wine and christianity – a model for sustainable tourism</t>
+          <t>Opening the Door to Transgender Care</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
-        <is>
-          <t>The main challenges to the transformation of Bulgarian tourism stem from the specifics of post-Covid realities, characterized by a highly conjunctural nature for the country and the region. The significant volatilities that have occurred in the last few years raise the need for a new marketing positioning of Bulgaria on the domestic and international tourism markets. Rediscovering the link between wine and Christianity would have an innovative impact on the development of destination Bulgaria through the application of a conceptual model for sustainable tourism. In this direction, the main goal of this publication is set in a way to provoke the scientific and business communities towards a new strategic vision.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2212573107</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1646/0006-3606(2001)033[0048:satvic]2.0.co;2</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Villegas (2001)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Spatial and Temporal Variability in Clonal Reproduction of Aechmea magdalenae, a Tropical Understory Herb1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Clonal reproduction is a common feature in tropical herbaceous plants and has been shown to be important for recruitment and population maintenance. Although numerous phenological responses (i.e., leaf flushing, flowering, and fruit maturation) have been shown to be associated with seasonality in the tropics, little is known about the relationship between seasonality and levels of clonal reproduction. I examined the temporal and spatial variation in clonal reproduction and its potential trade-off with growth and survival for a tropical understory herb, Aechmea magdalenae (André) André ex Baker, Handb. Bromel (Bromeliaceae). I addressed the following questions: (1) how do vegetative growth, survival, and clonal reproduction (i.e., rhizome and ramet production) vary between seasons and between years?; (2) how do these factors differ among populations?; and (3) do simulated dry and wet season light levels cause similar variation in rosette survival and vegetative and clonal reproduction, as found in natural populations? Rhizome and ramet production in A. magdalenae was found to be highly influenced by seasonality. During the transition from dry to wet season, there was a significant decrease in survival and a significant increase in clonal reproduction, and rosettes tended to grow at a slower rate. Rosettes in the location with the longest dry season had significantly lower survival, higher clonal reproduction, and a slower growth rate. Clonal reproduction also started at smaller rosette sizes in the most seasonal forest. When light levels were manipulated, rhizome and ramet production were significantly greater under the high light conditions, and rosette growth (change in longest leaf length) was significantly lower. Results from this study suggest that A. magdalenae responds to higher light levels by shifting investment from vegetative growth to clonal reproduction. Possible implications of this response to light for population demography are discussed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4394552840</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6084/m9.figshare.c.3803629_d6</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Robertson et al. (2017)</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Additional file 6: of Lineage-specific rediploidization is a mechanism to explain time-lags between genome duplication and evolutionary diversification</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Detailed RNAseq information. Full data associated with transcriptomic analysis of ohnologue expression responses accompanying the freshwater to saltwater transition in Atlantic salmon, including: (i) sample metadata, (ii) read and mapping statistics, (iii) gene/feature count statistics, and (iv) NCBI SRA accession numbers. (XLSX 18 kb)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1975763821</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijnurstu.2010.03.019</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Gibson et al. (2010)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Children and young people's experiences of cancer care: A qualitative research study using participatory methods</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Little is known about whether children's cancer services actually meet children's needs, as the majority of previous research has sought the views of parents as proxies.To explore children's and young peoples' views of cancer care and to present a conceptual model of communication and information sharing.Three Principal Cancer Treatment centres in the United Kingdom.Thirty-eight participants at different stages of the cancer journey (e.g. on treatment, near end of treatment, up to 18 months following treatment) were grouped for data collection by age: young children (4-5 years), older children (6-12 years) and young people (13-19 years).Data were collected concurrently over 6 months using age-appropriate, participatory-based techniques. Techniques included play and puppets, the draw and write method, interviews and an activities day.Some findings confirmed previously reported issues, such as, young children's inabilities to voice their preferences, and the importance of familiar environments and parental support for all ages. New findings suggested children worry about the permanence of symptoms, and older children are unhappy about their parents leading communications with health professionals. As communication and information sharing featured as an area in which children's and young people's preferences changed most dramatically, we propose a conceptual model of communication roles of patients, their parents, and health professionals to illuminate communication patterns. The model suggests children (aged 4-12 years) reside in the background of information sharing with health professionals until they gain autonomy as young people (around age 13). They then move into the foreground, and their parents transition into a supportive background role. Reviewing this model may help younger children realise their abilities to voice their preferences and older children to move into the foreground. Parents and professionals, in turn, can learn to develop in their supportive background roles. We encourage further testing of the model to define roles within relevant contexts.Overall, this study offers a perspective on the needs and preferences of children and young people receiving cancer care. Differences across ages were more striking with reference to preferences for communication. These differences are highly relevant to the way we communicate information to children and young people.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2026250138</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Callahan (2015)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Opening the Door to Transgender Care</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
 _x000D_
@@ -1846,376 +1731,479 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2966245669</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Laurent et al. (2019)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SURFER - What is the burden of raw materials requirements to achieve the French energy transition?</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>In a time of climate emergency, European and worldwide agreements have recently set ambitious targets for reducing our greenhouse gases emissions (GHG), leading the states to engage in an energy transition, that is to say the shift from an energy mix relying on fossil and nuclear fuels to a mix mostly relying on renewables. Such shift requires to massively and quickly build a large number of renewable energy production facilities (e.g. wind turbines, solar panels…), but also to adapt the existing energy distribution system (e.g. with energy storage options) and to modify the final use equipment (e.g. building heating systems, electric vehicles…). Th is shift's consequences on raw demand will not be neutral regarding base materials such as steel, concrete, copper or aluminium, and minor metals (lithium, cobalt, rare earth elements…), raising a polemic question: will the energy transition replace the reliance on fossil fuels by a reliance on metals? The SURFER project aims to evaluate the burden of raw materials requirements to achieve the French energy transition over the period 2015-2050. First, a database gathering the requirements of the different energy technologies has been developed and analysed in order to establish a relevant material intensity for each technology and each metal. The annual materials requirements are then calculated based on national energy transition scenarios (50, 80 and 90% of renewable energy plus a status quo scenario). As well, the annual waste from end-of-life technologies is calculated. Among the challenges that this evaluation raises, one is: how to take into account the dynamic aspects of raw consumption and due to the dismantling of energetic infrastructures? It is here proposed to describe the material-specific model used in SURFER, that both accounts for the content of input materials and for the recycling rate of output materials. The goal is to compare, over time, the demand of the energy transition scenarios to the recycled materials available when to old energetic facilities reach end-of-life. In the next task of the project, the burden borne by the energy transition will be weighed against the French consumption regarding all manufactured goods ; finally, the last task will discuss the criticity of these materials and metals. Theme : Climate Change, Energy transition and Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2659153566</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1299/jsmekanto.2005.11.163</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Nomura et al. (2005)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20610 Development of a joint test robot system</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>The objective of the present study was to develop a novel 6 degree of freedom (DOF) robotic system for knee joint biomechanics. A manipulator driven with 6 AC servo-motors originally developed by Sekito and Fujie et al. was utilized. Homogeneous transformation matrices as well as Jacobian transformation matrices were determined to describe the kinematic and kinetic relationship between the knee joint and manipulator. A hybrid position/force control was possible on a personal computer in the C-language programming environment with a new operating system (KNOPPIX+RTAI). In addition, a laser digitizer has been developed for the digitization of the 3-dimensional position of bony landmarks. This allowed for a precise fixation of the femoral and tibial coordinate systems to the femur and tibia. A passive flexion test preliminarily performed for a porcine knee joint indicated that the knee was successfully flexed while allowing natural joint motion. It is suggested that the developed robotic system is useful for the knee joint biomechanical tests.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1978443926</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.273.38.24693</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Takatsu et al. (1998)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Identification and Characterization of Novel Clathrin Adaptor-related Proteins</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. endoplasmic reticulum trans-Golgi network polymerase chain reaction expressed sequence tag hemagglutinin normal rat kidney brefeldin A ADP-ribosylation factor polyacrylamide gel electrophoresis guanosine 5′-O-(thiotriphosphate) base pair(s). In eukaryotic cells, transport of proteins between membrane-bound compartments along the exocytic and endocytic pathways involves coated carrier vesicles that bud from a donor compartment and fuse with a target acceptor compartment(s) (for review, see Refs. 1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar). The vesicle budding process is initiated by recruitment of coat proteins from the cytosol onto the donor membranes. To date, three classes of coated transport vesicles have been unequivocally characterized (1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar): COP II-coated vesicles bud from the endoplasmic reticulum (ER)1; COP I-coated vesicle coats assemble onto cisternae of the Golgi apparatus and onto the intermediate compartment between the ER and the Golgi; and clathrin-coated vesicles containing the AP-1 and AP-2 adaptor complexes bud from the trans-Golgi network (TGN) and the plasma membrane, respectively. Both the clathrin adaptor complexes are composed of two large subunits, a medium chain, and a small subunit: β1(β′)-adaptin, γ-adaptin, μ1 (AP47), and ς1 (AP19) in AP-1; and β2 (β)-adaptin, α-adaptin, μ2 (AP50), and ς2 (AP17) in AP-2 (for review, see Refs. 6Keen J.H. Annu. Rev. Biochem. 1990; 59: 415-438Crossref PubMed Scopus (170) Google Scholar and 7Pearse B</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4252736260</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4337/9781788972727.00005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NA (2020)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Foreword</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Natural resources have fuelled the great economic growth stories of the last century (UNEP 2016).This growth, in turn, has improved living standards around the world and enabled many of the most successful industries.But this model has reached its limits.To further increase prosperity in Europe and beyond, we need to create a new kind of economy according to the principles of a 'decoupling' paradigm that delinks development from resource use and impacts.One of the most powerful instruments in moving towards decoupling prosperity from material resource dependence is the circular economy.And the rationale is there: the transition to a circular economy carries enormous, underdeveloped, possibilities.It can significantly reduce environmental and health impacts while boosting economic development in industrialized and developing countries.Estimates by the International Resource Panel show that concerted resource management and efficiency measures can boost economic growth by 8 per cent globally by 2060 over a business-as-usual scenario.The potential is much larger if we fully embrace the decoupling transition by employing it as the general innovation principle across sectors and ministries.The transition is really without an alternative.Continuing with the historical model of consumption and production we currently live in would far overshoot the planet's capability to host humanity.The Global Resource Outlook 2019, published by the UN International Resource Panel, reveals that the extraction and processing of natural resources causes 90 per cent of global land use-related biodiversity loss and water stress, and more than 50 per cent of global climate change impacts.About 20 per cent of greenhouse gas (GHG) emissions are caused by the extraction and processing of metals and non-metallic minerals alone.This trend became particularly pronounced as, somewhat counterintuitively, global average resource productivity started to decline around 2000 and has stagnated in recent years due to a structural production shift from more to less resource-efficient countries.At the same time, high-income countries are becoming more and more dependent on resource imports: in 2017 the average person in high-income countries used 9.8 tons of primary materials mostly produced and processed elsewhere in the world.This reliance has been increasing at a rate of 1.6 per cent per year since 2000 (IRP 2019).Shifting production and consumption into a circular model is still an underrated instrument for managing the most urgent challenges of humanity.This is apparent when one examines the challenge to limit global heating to well under 2°C (Paris Agreement) with intent to not surpass 1.5°C.Material production -specifically of steel, non-ferrous metals, chemicals, non-metallic minerals -plays a central role in this challenge.These processes are particularly energy-and emissions-intensive and tricky to decarbonize through pure production and energy focused solutions.Decarbonizing material production would become an even bigger challenge in the future, as without urgent action the world is expected to consume up to 190 billion tonnes of materials (including biomass) by 2060.In</t>
+        </is>
+      </c>
+    </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2659153566</t>
+          <t>https://openalex.org/W4231951704</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1299/jsmekanto.2005.11.163</t>
+          <t>https://doi.org/10.1038/158800a0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nomura et al. (2005)</t>
+          <t>NA (1946)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>20610 Development of a joint test robot system</t>
+          <t>Ontario Research Foundation</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The objective of the present study was to develop a novel 6 degree of freedom (DOF) robotic system for knee joint biomechanics. A manipulator driven with 6 AC servo-motors originally developed by Sekito and Fujie et al. was utilized. Homogeneous transformation matrices as well as Jacobian transformation matrices were determined to describe the kinematic and kinetic relationship between the knee joint and manipulator. A hybrid position/force control was possible on a personal computer in the C-language programming environment with a new operating system (KNOPPIX+RTAI). In addition, a laser digitizer has been developed for the digitization of the 3-dimensional position of bony landmarks. This allowed for a precise fixation of the femoral and tibial coordinate systems to the femur and tibia. A passive flexion test preliminarily performed for a porcine knee joint indicated that the knee was successfully flexed while allowing natural joint motion. It is suggested that the developed robotic system is useful for the knee joint biomechanical tests.</t>
+          <t>Annual Report For 1945 THE annual report for 1945 of the director of research of the Ontario Research Foundation at Toronto, Dr. H. B. Speakrman, refers to the transition through which the Foundation passed during that year. Steps taken soon after the hostilities to restore to normal the available space enabled the Foundation to respond to the increased demand for fellowship facilities, and before the close of the year the available laboratory space was fully occupied. Available statistics show that there are about eleven thousand industrial units in Ontario, of which only three hundred are large enough to justify the maintenance either of a research laboratory or a fellowship unit at the Foundation, and some of these consist of branch companies looking to a parent company in the United States for research and technical direction. Besides the twenty fellowships which tax the Foundation's present facilities, many firms use the Foundation for short-term investigations; but the director, in noting that the external income of the Foundation is now about 57 per cent of the total revenue, while investment income has decreased by 18 per cent since 1938 and costs have almost doubled, points out that in consequence the Foundation's ability to initiate and sustain investigation in fields of provincial importance, rather than of immediate concern to an industry or a firm, is diminishing. He expresses his firm conviction that societies will prosper in the future in so far as they are willing to authorize research expenditure on a reasonably liberal and long-term basis.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3038121166</t>
+          <t>https://openalex.org/W4320516614</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/iet-pel.2020.0404</t>
+          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Zhang et al. (2020)</t>
+          <t>Lehr &amp; Vaughan (2023)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids</t>
+          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>IET Power ElectronicsVolume 13, Issue 14 p. 3171-3179 Research Article Free Access Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author First published: 01 November 2020 https://doi.org/10.1049/iet-pel.2020.0404Citations: 2 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat Abstract In this study, a novel energy management strategy (EMS) with two degrees of freedom is proposed for hybrid energy storage systems consisting of supercapacitor (SC) and battery in islanded microgrids. The proposal introduces two degrees of freedom including an adaptive high-pass filter cut-off frequency f c and a charge/discharge coefficient k b, according to the SC and battery state of charge (SOC), respectively. The f c regulates SC current in the transient process and the k b controls battery current in the steady-state. Therefore, appropriate power distribution that the SC suppresses the transient power fluctuations while the battery supports average power demand is realised, over-charging, and over-discharging are avoided and the current stress of the battery during the shut-down process is reduced. Moreover, three operation modes for isolated DC microgrids, comprising power-sharing mode, battery-only mode, and extreme mode are demonstrated. Hence, the DC microgrid can remain stable for the whole time, achieve seamless transitions from the power-sharing mode to the two others, and provide faster SOC recovery of the SC. The effectiveness of the proposed EMS is validated by experimental studies with a prototype of the simplified DC microgrid. Nomenclature f c adaptive high-pass filter cut-off frequency k b charge/discharge coefficient SOCSC, DODSC SC state of charge and depth of discharge tk −1, tk, tk +1 (k − 1)th, k th, and (k + 1)th time instance SOCb battery state of charge SOCSC_min, SOCSC_max SC SOC minimum and maximum limits SOCb_min, SOCb_low, SOCb_high, SOCb_max battery SOC minimum, low, high, and maximum limits V dc, V dc _ ref, V err DC bus actual voltage, voltage reference, and voltage deviation i SC_s, i b_s SC and battery current settings 1 Introduction Owing to the energy shortage and environmental pollution caused by the massive use of fossil fuel, people have realised the importance of renewable energy sources (RESs), such as solar photovoltaic (PV) and wind [1]. To utilise these RESs more efficiently and economically, microgrids have been implemented [2]. However, the volatility and intermittent of RESs result in power mismatch, voltage fluctuations, and system instability in DC microgrids. Therefore, the energy storage systems (ESSs) are deployed in DC microgrids to address the aforementioned issues [3]. Ideal energy storage is required to have high energy and power density, long cycle life, fast dynamic response etc. However, no existing energy storage can meet all requirements simultaneously [4, 5]. Fig. 1 presents the Ragone chart describing the power and energy density of different energy storage [6]. Therefore, various energy storages with different characteristics are combined to form the hybrid ESS (HESS). Among different configurations of HESS, the combination of the supercapacitor (SC) and the battery is the most mainstream [7]. In Fig. 1, the SC has high-power density and short charge/discharge time, while the battery has a relatively high-energy density with a slow dynamic response. Thus, the SC is utilised to suppress the transient power fluctuations and the batter</t>
+          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252736260</t>
+          <t>https://openalex.org/W4313445266</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4337/9781788972727.00005</t>
+          <t>https://doi.org/10.1007/978-3-031-20620-7_25</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NA (2020)</t>
+          <t>Kozina &amp; Bogdanova (2023)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Foreword</t>
+          <t>Sustainability and Digitalization as the Basic Principles of the German Environmental Agenda</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Natural resources have fuelled the great economic growth stories of the last century (UNEP 2016).This growth, in turn, has improved living standards around the world and enabled many of the most successful industries.But this model has reached its limits.To further increase prosperity in Europe and beyond, we need to create a new kind of economy according to the principles of a 'decoupling' paradigm that delinks development from resource use and impacts.One of the most powerful instruments in moving towards decoupling prosperity from material resource dependence is the circular economy.And the rationale is there: the transition to a circular economy carries enormous, underdeveloped, possibilities.It can significantly reduce environmental and health impacts while boosting economic development in industrialized and developing countries.Estimates by the International Resource Panel show that concerted resource management and efficiency measures can boost economic growth by 8 per cent globally by 2060 over a business-as-usual scenario.The potential is much larger if we fully embrace the decoupling transition by employing it as the general innovation principle across sectors and ministries.The transition is really without an alternative.Continuing with the historical model of consumption and production we currently live in would far overshoot the planet's capability to host humanity.The Global Resource Outlook 2019, published by the UN International Resource Panel, reveals that the extraction and processing of natural resources causes 90 per cent of global land use-related biodiversity loss and water stress, and more than 50 per cent of global climate change impacts.About 20 per cent of greenhouse gas (GHG) emissions are caused by the extraction and processing of metals and non-metallic minerals alone.This trend became particularly pronounced as, somewhat counterintuitively, global average resource productivity started to decline around 2000 and has stagnated in recent years due to a structural production shift from more to less resource-efficient countries.At the same time, high-income countries are becoming more and more dependent on resource imports: in 2017 the average person in high-income countries used 9.8 tons of primary materials mostly produced and processed elsewhere in the world.This reliance has been increasing at a rate of 1.6 per cent per year since 2000 (IRP 2019).Shifting production and consumption into a circular model is still an underrated instrument for managing the most urgent challenges of humanity.This is apparent when one examines the challenge to limit global heating to well under 2°C (Paris Agreement) with intent to not surpass 1.5°C.Material production -specifically of steel, non-ferrous metals, chemicals, non-metallic minerals -plays a central role in this challenge.These processes are particularly energy-and emissions-intensive and tricky to decarbonize through pure production and energy focused solutions.Decarbonizing material production would become an even bigger challenge in the future, as without urgent action the world is expected to consume up to 190 billion tonnes of materials (including biomass) by 2060.In</t>
+          <t>Digital ecology has recently become a conceptually new branch of knowledge and research. The development of digital ecology as a separate direction is explained due to the rapid transformation of the technosphere in the twenty-first century. This article examines the development of the digital ecology concept and introduced two theoretical approaches to the concept’s understanding resulting in separation digital ecology associated with mobile technologies, IT technologies and services from digital ecology as a product of the information systems functioning. The article investigates the synthesis of sustainable development and digitalization as the key features of the modern states’ environmental agenda. This paper analyzes the measures that are already undertaken in this field on the example of the Federal Republic of Germany and contains the study of such German projects within the digital agenda as ProgRess and Digital Product Passport. The central pillars for the implementation of the planned programs are outlined and the general recommendations for promoting digital ecology are developed.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231951704</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/158800a0</t>
+          <t>https://openalex.org/W2371798101</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NA (1946)</t>
+          <t>Zhuang-ru (2015)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ontario Research Foundation</t>
+          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Annual Report For 1945 THE annual report for 1945 of the director of research of the Ontario Research Foundation at Toronto, Dr. H. B. Speakrman, refers to the transition through which the Foundation passed during that year. Steps taken soon after the hostilities to restore to normal the available space enabled the Foundation to respond to the increased demand for fellowship facilities, and before the close of the year the available laboratory space was fully occupied. Available statistics show that there are about eleven thousand industrial units in Ontario, of which only three hundred are large enough to justify the maintenance either of a research laboratory or a fellowship unit at the Foundation, and some of these consist of branch companies looking to a parent company in the United States for research and technical direction. Besides the twenty fellowships which tax the Foundation's present facilities, many firms use the Foundation for short-term investigations; but the director, in noting that the external income of the Foundation is now about 57 per cent of the total revenue, while investment income has decreased by 18 per cent since 1938 and costs have almost doubled, points out that in consequence the Foundation's ability to initiate and sustain investigation in fields of provincial importance, rather than of immediate concern to an industry or a firm, is diminishing. He expresses his firm conviction that societies will prosper in the future in so far as they are willing to authorize research expenditure on a reasonably liberal and long-term basis.</t>
+          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320516614</t>
+          <t>https://openalex.org/W4391539865</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
+          <t>https://doi.org/10.1016/j.palaeo.2024.112065</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
+          <t>Lu et al. (2024)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
+          <t>Marine nitrogen cycling in the aftermath of the Marinoan Snowball Earth</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
+          <t>The termination of the Marinoan Snowball Earth (ca. 635 Ma) was marked by the global precipitation of cap carbonate, which might have coincided with global environmental and evolutionary changes, particularly the evolution of early animals in the ocean and a significant rise in atmospheric oxygen concentrations. High nitrogen isotopic compositions (δ15N) of the Ediacaran marine sediments indicate that the seawater was oxygen-rich and maintained a substantial nitrate reservoir following the Marinoan Snowball Earth. However, the lack of nitrogen isotope records in the wake of the Marinoan Snowball Earth became a stumbling block in understanding the relationships between marine nitrogen cycling and biological evolution during the deglaciation. This study reported the δ15N of the cap carbonate in the basal Doushantuo Formation from two sections spanning from shelf margin to basin in the Yangtze Block, South China. Our results show a descending pattern in δ15N values at the lower part of the sections, reaching a nadir of ∼ − 4‰. This trend suggests that upwelling brought an abundance of NH4+ during the mixing process of glacial meltwater and seawater, resulting in incomplete assimilation of NH4+. The relatively heavier δ15N values (∼0‰) in the upper part observed in cap carbonate provide evidence of the onset of nitrogen fixation after the physical stratification of seawater. This process can be attributed to restoring the thermohaline circulation in the ocean. However, the occurrence of nitrogen fixation and δ15N values greater than +2‰ had not been observed, indicating a stable reservoir of nitrate had not yet been established. Overall, our data indicate a gradual oxidation of the ocean and the recovery of aerobic nitrogen cycling during the Marinoan deglaciation, which probably influenced ocean primary productivity. A stable nutrient reservoir built after this transitional period might provide a nutrient basis for the early animal evolution in the early Ediacaran.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313445266</t>
+          <t>https://openalex.org/W3119439580</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-20620-7_25</t>
+          <t>https://doi.org/10.1016/j.jpurol.2020.12.020</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kozina &amp; Bogdanova (2023)</t>
+          <t>Claeys et al. (2021)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sustainability and Digitalization as the Basic Principles of the German Environmental Agenda</t>
+          <t>Barriers in transitioning urologic patients from pediatric to adult care</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Digital ecology has recently become a conceptually new branch of knowledge and research. The development of digital ecology as a separate direction is explained due to the rapid transformation of the technosphere in the twenty-first century. This article examines the development of the digital ecology concept and introduced two theoretical approaches to the concept’s understanding resulting in separation digital ecology associated with mobile technologies, IT technologies and services from digital ecology as a product of the information systems functioning. The article investigates the synthesis of sustainable development and digitalization as the key features of the modern states’ environmental agenda. This paper analyzes the measures that are already undertaken in this field on the example of the Federal Republic of Germany and contains the study of such German projects within the digital agenda as ProgRess and Digital Product Passport. The central pillars for the implementation of the planned programs are outlined and the general recommendations for promoting digital ecology are developed.</t>
+          <t>&lt;h2&gt;Summary&lt;/h2&gt; As the advances in medicine continue to emerge, more children with congenital or pediatric-onset chronic urologic conditions are surviving well into adulthood. This imposes an ever rising there is a need for adequate transition of these patients from pediatric to adult care. Despite position statements from multiple heath care organizations and several models proposed in literature, different issues and gaps in urologic transition continue to exist. Major barriers in this transition are adolescence, a challenging time that is characterized by impulsive behavior and risk taking, and the longstanding relation between both patients and paediatric providers. Both pediatric and adult care providers need to be aware of the special needs of maturing youth with chronic care problems related to education, self-management, legal issues and psychological support during care transition. Furthermore, they need to understand and address the currently existing obstacles for adequate transition. There is need for active communication with each other and the patient to develop sustainable relationships that can support the transitioning process. It is therefore in the greatest interest of the care provider to make this transition as smooth as possible. This paper aims to point out the currently perceived barriers in care transition within the urological context, reflect on previous implemented models for care transition and present proposals for improvement.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2371798101</t>
+          <t>https://openalex.org/W1544381219</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.1503984</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Zhuang-ru (2015)</t>
+          <t>Owolabi &amp; Pal (2009)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
+          <t>The Value of Business Networks: An Analysis of Firm Financing in Transition Economies</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
+          <t>The paper argues that the networked firms have an advantage in securing bank finance in countries with weak legal and judicial institutions. An analysis of recent BEEPS data from sixteen CEE transition countries lends some support to this hypothesis. Firms affiliated to business associations are more likely to have bank finance while small and medium firms are less likely to secure it. Importance of being associated with business networks is particularly evident among firms who borrow from foreign banks, as the latter attempt to hedge risk in an uncertain environment. Significance of business networking however vanishes if institutional quality improves.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4306359286</t>
+          <t>https://openalex.org/W4392680595</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10841-022-00436-w</t>
+          <t>https://doi.org/10.5219/1962</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Toikkanen et al. (2022)</t>
+          <t>Akimova et al. (2024)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Effects of landscape composition on hoverflies (Diptera: Syrphidae) in mass-flowering crop fields within forest-dominated landscapes</t>
+          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Abstract Agricultural intensification has led to structurally simplified landscapes with reduced and fragmented resources for farmland insects. However, studies on the effects of landscape composition on farmland insects have mainly been performed in areas dominated by open arable land and semi-natural grasslands, while studies from forest-dominated landscapes are scarce. This research examined the effects of landscape composition on hoverfly species richness and abundance in arable land in boreal forest-dominated landscapes. Hoverflies were sampled in 22 mass-flowering caraway ( Carum carvi ) fields in Central Finland using pan traps. The effects of landscape composition on species richness and abundance were examined for all hoverflies, and for species groups with different adult habitat preferences. Landscape composition was measured as proportions of land cover classes within two different radii. Species richness and abundances of all hoverflies, forest species and open-habitat species increased with decreasing arable land cover and/or increasing forest cover within a 500 m radius (the two land cover classes strongly negatively correlated). Wetland species were most abundant in landscapes with an intermediate cover of arable land and forest, and most species-rich in landscapes with intermediate (10%) water cover. The species richness and abundance of mixed-habitat species increased with increasing cover of transitional woodland. Implications for insect conservation Our results show that most hoverfies in arable land benefit from increasing surrounding forest cover even in relatively heterogeneous, forest-dominated landscapes. Preserving or increasing the area of forests and other non-arable habitats is needed to safeguard a diversity of resources for hoverflies, and associated ecosystem services in farmland.</t>
+          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1544381219</t>
+          <t>https://openalex.org/W2019589893</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1503984</t>
+          <t>https://doi.org/10.1080/02643294.2010.503478</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Owolabi &amp; Pal (2009)</t>
+          <t>Palermo et al. (2010)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>The Value of Business Networks: An Analysis of Firm Financing in Transition Economies</t>
+          <t>Does hemineglect affect visual mental imagery? Imagery deficits in representational and perceptual neglect</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The paper argues that the networked firms have an advantage in securing bank finance in countries with weak legal and judicial institutions. An analysis of recent BEEPS data from sixteen CEE transition countries lends some support to this hypothesis. Firms affiliated to business associations are more likely to have bank finance while small and medium firms are less likely to secure it. Importance of being associated with business networks is particularly evident among firms who borrow from foreign banks, as the latter attempt to hedge risk in an uncertain environment. Significance of business networking however vanishes if institutional quality improves.</t>
+          <t>To give new insight about the relationship between imagery processes and different types of hemispatial neglect, we assessed different mental imagery abilities in a sample of right- and left-brain-damaged patients. Furthermore, because of reports of a mental representation disorder for environments in patients affected by representational neglect we also tested their navigational imagery ability. We found that patients with no signs of perceptual or representational neglect performed flawlessly on our imagery tasks regardless of whether they had left- or right-sided lesions. By contrast, patients affected by neglect failed most of the tests; in particular, representational neglect patients failed one test of mental transformation and tests requiring the manipulation of cognitive maps. These results suggest there is a specific relationship between hemispatial neglect and deficits in visual mental imagery and demonstrate that the right hemisphere plays a specific role in visual mental imagery.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019589893</t>
+          <t>https://openalex.org/W4385839247</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02643294.2010.503478</t>
+          <t>https://doi.org/10.5194/egusphere-2023-1730</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Palermo et al. (2010)</t>
+          <t>Ekberzade et al. (2023)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Does hemineglect affect visual mental imagery? Imagery deficits in representational and perceptual neglect</t>
+          <t>GC Insights: Fostering transformative change for biodiversity restoration through transdisciplinary research</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>To give new insight about the relationship between imagery processes and different types of hemispatial neglect, we assessed different mental imagery abilities in a sample of right- and left-brain-damaged patients. Furthermore, because of reports of a mental representation disorder for environments in patients affected by representational neglect we also tested their navigational imagery ability. We found that patients with no signs of perceptual or representational neglect performed flawlessly on our imagery tasks regardless of whether they had left- or right-sided lesions. By contrast, patients affected by neglect failed most of the tests; in particular, representational neglect patients failed one test of mental transformation and tests requiring the manipulation of cognitive maps. These results suggest there is a specific relationship between hemispatial neglect and deficits in visual mental imagery and demonstrate that the right hemisphere plays a specific role in visual mental imagery.</t>
+          <t>Abstract. Despite being considered one of the most pressing global issues, biodiversity loss and the degradation of ecosystems is continuing at an alarming rate. In December 2022, COP15 saw the adoption of the Kunming-Montreal Global Biodiversity Framework, where four overarching international goals for biodiversity and 23 targets. While these targets are a positive step to address the drivers of biodiversity loss, we will not only need public and political will to reach the goals and targets outlined but also more effective methods to integrate and use scientific information. To facilitate this, scientists and research institutions need to establish new and innovative approaches to transform the way science is conducted, communicated, and integrated into the policymaking process. This will require the scientific community to become proficient at working in inter and transdisciplinary teams, establishing connectivity, and engaging in the policymaking process to ensure that the best available scientific evidence is not only comprehensible to decision makers, but also timely and relevant. Here, we detail how scientists can embrace transformative change within and outside of their own communities to increase the impact of their research and help reach global targets that benefit society.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4304084165</t>
+          <t>https://openalex.org/W2069889664</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.106.165109</t>
+          <t>https://doi.org/10.1046/j.1523-1747.2002.19634.x</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Eckert et al. (2002)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Direct observation of the hybridization gap in both the hidden order and large moment antiferromagnetic phases in &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML"&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mi mathvariant="normal"&gt;URu&lt;/mml:mi&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;Si&lt;/mml:mi&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;</t>
+          <t>Keratinocyte Survival, Differentiation, and Death: Many Roads Lead to Mitogen-Activated Protein Kinase</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Despite extensive research on the heavy fermion superconductor $\mathrm{U}{\mathrm{Ru}}_{2}{\mathrm{Si}}_{2}$ in the past three decades, the nature of the hidden order (HO) phase transition occurring at 17.5 K remains ambiguous. Here we report a comparative scanning tunneling microscopy/spectroscopy (STM/STS) study on different terminations of the parent $\mathrm{U}{\mathrm{Ru}}_{2}{\mathrm{Si}}_{2}$ and Fe-doped samples. A small gap, which was ascribed to the HO parameter by previous STM/STS studies, emerges in both the HO and large moment antiferromagnetic phases on the U terminations, indicating it is not the unique hallmark of the HO parameter. Moreover, a peak-gap-peak structure is observed on the Si terminations. Variations of the two spectral features with Fe concentration and temperature show that they stem from the alteration of $f\text{\ensuremath{-}}c$ hybridization. The higher vanishing temperatures and larger sizes of the gap in the Fe-substituted samples indicate stronger $f\text{\ensuremath{-}}c$ hybridization strength compared to $\mathrm{U}{\mathrm{Ru}}_{2}{\mathrm{Si}}_{2}$. Our studies demonstrate hybridization is not the driving force for the HO phase transition.</t>
+          <t>The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. In recent decades study of keratinocyte differentiation has yielded substantial new insights. Early efforts identified and cataloged many of the morphologic properties of keratinocytes. Progress was limited, however, by the lack of a suitable in vitro system for the study of keratinocyte differentiation. The 1970s heralded the arrival of various cell culture models that permitted keratinocytes to be grown in mass culture (Rheinwald and Green, 1975Rheinwald J.G. Green H. Serial cultivation of strains of human epidermal keratinocytes: the formation of keratinizing colonies from single cells.Cell. 1975; 6: 331-343Abstract Full Text PDF PubMed Scopus (3902) Google Scholar;Elgjo et al., 1976Elgjo K. Hennings H. Michael D. Yuspa S.H. Natural synchrony of newborn mouse epidermal cells in vitro.J Invest Dermatol. 1976; 66: 292-296Crossref PubMed Scopus (26) Google Scholar;Bettger et al., 1981Bettger W.J. Boyce S.T. Walthall B.J. Ham R.G. Rapid clonal growth and serial passage of human diploid fibroblasts in a lipid-enriched synthetic medium supplemented with epidermal growth factor, insulin, and dexamethasone.Proc Natl Acad Sci USA. 1981; 78: 5588-5592Crossref PubMed Scopus (105) Google Scholar;Boyce and Ham, 1983Boyce S.T. Ham R.G. Calcium-regulated differentiation of normal human epidermal keratinocytes in chemically defined clonal culture and serum-free serial culture.J Invest Dermatol. 1983; 81: 33s-40sCrossref PubMed Scopus (958) Google Scholar). This, in turn, accelerated progress in identifying major structural proteins that participate in formation of differentiated structures. The evolution of culture technology coupled with the revolution in gene analysis technologies led to the identification of a host of proteins that form differentiated structures in keratinocytes (Green, 1980Green H. The keratinocyte as differentiated cell type.The Harvey Lectures. 1980; 74: 101-139PubMed Google Scholar;Fuchs and Byrne, 1994Fuchs E. Byrne C. The epidermis: rising to the surface.Curr Opin Genet Dev. 1994; 4: 725-736Crossref PubMed Scopus (222) Google Scholar;Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Google Scholar). The ability to isolate the genes encoding these proteins subsequently identified DNA sequences that regulate gene expression. In recent years, the knowledge built during the 1970s and 1980s has led to a substantial interest in understanding how keratinocyte differentiation is regulated and in elucidating the signaling mechanisms that control gene expression. Keratinocytes begin as proliferation-competent basal layer cells that are characterized by expression of specific basal-cell-associated marker proteins. These cells, in turn, give rise to daughter cells that terminally differentiate. Cell differentiation results in the stacking of multiple keratinocyte layers above the basal zone, forming the spinous, granular, and cornified layers (Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Goo</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2811050054</t>
+          <t>https://openalex.org/W1976195634</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.compenvurbsys.2018.06.007</t>
+          <t>https://doi.org/10.1088/0953-8984/19/6/065150</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Yang et al. (2018)</t>
+          <t>Togashi &amp; Kaneko (2007)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>A network-based approach to model the development of city branding in China</t>
+          <t>Switching dynamics in reaction networks induced by molecular discreteness</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Against the background of globalization, city branding has become a useful strategy utilized by decision-makers in cities to promote their cities in the race for limited resources. Urban transformation factors, i.e., economic development stage and geographic position play an important role in city branding choices. We argue that city branding choices of a city can be affected by other cities through city interactions and networking. The effects of city interactions can spread across cities either through spatial proximity-referring physical or geographic connections, or logical proximity-representing city interconnectivity caused by collaboration activities. To test our argument, we develop a two-layer network model using the generalized modeling framework (GEMF) to model city branding choices, based on empirical data of sustainable brand developmental pathways from the three economic regions in China. We examine the general evolution pattern of city branding practices and construct different scenarios to analyze the impact of city interactions. The results indicate that taking city interactions as an additional factor to urban transformation allows for a better prediction on city branding choices. Policy-makers and urban planners need to consider infrastructure and economic development policies in designing city branding strategies.</t>
+          <t>To study the fluctuations and dynamics in chemical reaction processes, stochastic differential equations based on the rate equation involving chemical concentrations are often adopted. When the number of molecules is very small, however, the discreteness in the number of molecules cannot be neglected since the number of molecules must be an integer. This discreteness can be important in biochemical reactions, where the total number of molecules is not significantly larger than the number of chemical species. To elucidate the effects of such discreteness, we study autocatalytic reaction systems comprising several chemical species through stochastic particle simulations. The generation of novel states is observed; it is caused by the extinction of some molecular species due to the discreteness in their number. We demonstrate that the reaction dynamics are switched by a single molecule, which leads to the reconstruction of the acting network structure. We also show the strong dependence of the chemical concentrations on the system size, which is caused by transitions to discreteness-induced novel states.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2115573123</t>
+          <t>https://openalex.org/W2045183475</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/cssc.201100581</t>
+          <t>https://doi.org/10.2307/3527655</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>He et al. (2012)</t>
+          <t>Bulger &amp; Barbato (2000)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Highly Efficient Heterogeneous Gold‐catalyzed Direct Synthesis of Tertiary and Secondary Amines from Alcohols and Urea</t>
+          <t>On the Hippocratic Sources of Western Medical Practice</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ChemSusChemVolume 5, Issue 4 p. 621-624 Communication Highly Efficient Heterogeneous Gold-catalyzed Direct Synthesis of Tertiary and Secondary Amines from Alcohols and Urea Lin He, Lin He Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorYue Qian, Yue Qian Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorRan-Sheng Ding, Ran-Sheng Ding Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorDr. Yong-Mei Liu, Dr. Yong-Mei Liu Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Dr. He-Yong He, Prof. Dr. He-Yong He Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Kang-Nian Fan, Prof. Kang-Nian Fan Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Dr. Yong Cao, Corresponding Author Prof. Dr. Yong Cao [email protected] Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this author Lin He, Lin He Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorYue Qian, Yue Qian Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorRan-Sheng Ding, Ran-Sheng Ding Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorDr. Yong-Mei Liu, Dr. Yong-Mei Liu Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Dr. He-Yong He, Prof. Dr. He-Yong He Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Kang-Nian Fan, Prof. Kang-Nian Fan Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this authorProf. Dr. Yong Cao, Corresponding Author Prof. Dr. Yong Cao [email protected] Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Department of Chemistry, Shanghai Key Laboratory of Molecular Catalysis and Innovative Materials, Fudan University, Handan Road 220, Shanghai 200433 (PR China), Fax: (+86) 21-65643774Search for more papers by this author First published: 13 March 2012 https://doi.org/10.1002/cssc.201100581Citations: 48Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Graphical Abstract Urea, the white gold: The efficient synthesis of tertiary and secondary amines is achieved by heterogeneous gold-catalyzed direct amination of stoichiometric alcohols with urea in good to excellent yields. Via a hydrogen</t>
+          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045183475</t>
+          <t>https://openalex.org/W2031283355</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3527655</t>
+          <t>https://doi.org/10.5752/p.2318-2962.2014v24nespp13</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bulger &amp; Barbato (2000)</t>
+          <t>Pedrosa &amp; Souza (2014)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>On the Hippocratic Sources of Western Medical Practice</t>
+          <t>As unidades de paisagem no Triângulo Mineiro: “Desaparecimento” da paisagem Cerrado / Landscape units in the Triângulo Mineiro: “Disappearing” of the Cerrado Landscape - DOI 10.5752/P.2318-2962.2014v24nespp13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
+          <t>As paisagens apresentam-se dinâmicas e resultam de uma interação permanente entre os elementos naturais e a ação do homem. Elas constroem-se ao longo dos tempos históricos assumindo os valores culturais que cada cultura ou civilização lhe vai incutindo. Significa, então, que a análise da sua evolução terá de ter em conta a sua constante dialética no sentido de nos apercebermos as transformações que sofrem. Atendendo ao nível tecnológico em que a sociedade atual se encontra conjugadas com as forças econômicas capitalistas que procuram o lucro desenfreado, as alterações na paisagem são cada vez mais rápidas e, por vezes, implicam rupturas com a sua sustentabilidade. No Triangulo Mineiro, as mudanças paisagísticas foram de tal forma rápidas e profundas que a paisagem do cerrado, vigente até á década de sessenta do século passado, foi substituído por outras unidades de paisagem onde este bioma deixou de existir nas condições originais.Palavras-chave: Paisagem, cerrado, transformação, ação antrópica, Triângulo Mineiro Abstract The landscapes are dynamic and result in a permanent interaction between the natural elements and the action of man. They are constructed along historic times, assuming the cultural values that each culture or civilization will imbue her. Then means that the analysis of its evolution must have regard, to its constant dialectic in order to understanding the transformations who suffer. In view of the level of technology in that current society is in, conjugated with the capitalist economic forces that seek to unbridled profit the amendments in the landscape are becoming faster and sometimes imply ruptures to their sustainability. In Triângulo Mineiro, the landscape changes have been so rapid and profound, that the landscape of the savannah, prevailing until the sixties of the last century, was replaced by other units of landscape where this biome ceased to exist in original condition. Keywords: landscape, savannah, transformation, human action, Triângulo Mineiro</t>
         </is>
       </c>
     </row>
@@ -2276,764 +2264,731 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3080795078</t>
+          <t>https://openalex.org/W4392406417</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevc.102.045807</t>
+          <t>https://doi.org/10.37394/232015.2023.19.130</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Li &amp; Magno (2020)</t>
+          <t>Karapidakis et al. (2023)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Curvature-slope correlation of nuclear symmetry energy and its imprints on the crust-core transition, radius, and tidal deformability of canonical neutron stars</t>
+          <t>Sustainable Energy Transition in Island Systems with substantial RES and Electricity Storage</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Background: The nuclear symmetry energy ${E}_{\mathrm{sym}}(\ensuremath{\rho})$ encodes information about the energy necessary to make nuclear systems more neutron rich. It is currently poorly known especially at suprasaturation densities but has broad impacts on properties of neutron stars and on nuclear structure and reactions. While its slope parameter $L$ at the saturation density ${\ensuremath{\rho}}_{0}$ of nuclear matter has been relatively well constrained by recent astrophysical observations and terrestrial nuclear experiments, its curvature ${K}_{\mathrm{sym}}$ characterizing the ${E}_{\mathrm{sym}}(\ensuremath{\rho})$ around $2{\ensuremath{\rho}}_{0}$ remains largely unconstrained. Over 520 calculations for ${E}_{\mathrm{sym}}(\ensuremath{\rho})$ using various nuclear theories and interactions in the literature have predicted several significantly different ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlations.Purpose: If a unique ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlation of ${E}_{\mathrm{sym}}(\ensuremath{\rho})$ can be firmly established, it will enable us to progressively constrain the high-density behavior of ${E}_{\mathrm{sym}}(\ensuremath{\rho})$ using the available and better constrained slope parameter $L$. We investigate if and by how much the different ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlations may affect neutron star observables. We also examine if LIGO/VIRGO's observation of tidal deformability using gravitational waves from GW170817 and NICER's recent extraction of neutron star radius using high-precision x-rays can distinguish the different ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlations predicted.Methods: A metamodel of nuclear equations of state (EOSs) with three representative ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlation functions is used to generate multiple EOSs for neutron stars. We then examine effects of the ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlation on the crust-core transition density and pressure as well as the radius and tidal deformation of canonical neutron stars.Results: We found that the ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlation affects significantly both the crust-core transition density and pressure. It also has strong imprints on the radius and tidal deformability of canonical neutron stars, especially at small $L$ values. The available data from LIGO/VIRGO and NICER set some useful limits for the slope $L$ but cannot distinguish the three representative ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlations considered.Conclusions: The ${K}_{\mathrm{sym}}\text{\ensuremath{-}}L$ correlation is important for understanding properties of neutron stars. More precise and preferably independent measurements of the radius and tidal deformability from multiple observables of neutron stars have the strong potential to help pin down the curvature-slope correlation and thus the high-density behavior of nuclear symmetry energy.</t>
+          <t>A sustainable power system will require an extensive reliance on renewable energy sources (RES). Taking into account the fact that a significant share of RES has already been deployed, either on large or a small scale, today’s most crucial issue is their further participation in an extensive and secure power generation expansion to cover the large future energy demand. Although there is the needed capacity of RES that could cover the corresponding demand, the current power system structure and operation emerge limitations, which hold back their further exploitation. The introduction of energy storage systems, such as pump storage and batteries can help the further exploitation of the needed RES by balancing the current load demand and the intermittent power flow of photovoltaics and wind turbines. This paper analyses a recently interconnected island power system operation, as a representative case study, and demonstrates benefits, such as CO2 emissions reduction, and obstacles emerged by ultra-high penetration of RES. This ultra-high share of RES is technically feasible, through strong interconnections and electricity storage systems.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2089779806</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.cattod.2010.09.008</t>
+          <t>https://openalex.org/W2769120358</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sazama et al. (2011)</t>
+          <t>Cox (2017)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Geopolymer based catalysts—New group of catalytic materials</t>
+          <t>Essays in Household Finance</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>New type of redox heterogeneous catalysts based on geopolymer aluminosilicate materials was developed and their catalytic properties have been demonstrated on industrially important reactions. Geopolymers can be regarded as amorphous analogues of zeolitic materials (three dimensional network of SiO4 and AlO4 tetrahedra with negative charge of the network balanced by extra-framework cations, variability in chemical composition, ion exchange properties, presence of rings forming cationic sites for bare cations), but possessing some advantages as network formation at ambient or low temperatures, mesoporosity and low cost preparation. It is shown that the geopolymer network enables incorporation of transition metal ions as active centres for catalytic reactions. The catalytic activity of geopolymer-based catalysts with Fe, Co and Cu metal ions in extra-network sites and Pt species is demonstrated on the selective catalytic reduction of nitrogen oxides by ammonia and the total oxidation of volatile hydrocarbons. These findings open a potential for synthesis of new types of robust catalysts for heterogeneously catalysed reactions.</t>
+          <t>Author(s): Cox, Natalie Cox | Advisor(s): Handel, Benjamin | Abstract: The use of technology by firms is changing the way insurance and lending markets function. I study the financial technology, or fin-tech'', industry, which is characterized by a growing number of online lenders who use data on educational, employment, and financial outcomes to quickly assess the risk of prospective borrowers and offer individualized loan terms. In many ways, their financial innovations'' can be thought of as movements towards more personalized products: interest rates that better reflect individuals' risk, payment plans that are tailored to individuals' monthly income and expenditures, and user-friendly interfaces that make financial decisions more intuitive and uncomplicated. On an individual level, as firms expand and customize product offerings, there is the potential for large efficiency gains. These innovations could also have wider implications for market structure; for example, if more accurate risk-based pricing creates clear winners and losers, it will change the distribution of consumer surplus.Advances in data-driven underwriting have both efficiency and equity implications for consumer lending markets where private and public credit options coexist. In the $1 trillion student loan market, private lenders now offer a growing distribution of risk-based interest rates, while the federally-run loan program sets a break-even, uniform interest rate. In my first chapter, I measure the overall gains in consumer surplus from such risk-based pricing and quantify the redistributional consequences of low-risk types refinancing out of the government pool into the private market. The empirical analysis is based on a unique applicant-level dataset from an online refinancing firm that contains information on loan terms, household balance sheets, and risk-based interest rates. I first leverage a series of firm-conducted interest rate experiments to estimate the sensitivity of borrowers' maturity and refinancing choices to interest rates. Using the maturity response, I then estimate a structural model of borrowers' repayment preferences. Using the estimated model, I show that comprehensive risk-based pricing generates large absolute gains in welfare of $480 per borrower relative to a break-even uniform price, and $400 relative to a coarser method of FICO-based pricing. If the federal pool conducts breakeven pricing, these efficiency gains come at a direct equity cost -- low risk surplus will increase on average by $2,300, while high risk surplus will fall by $2,100. In order to maintain access to the current uniform rate, the government would have to transition from break-even pricing to an average net subsidy of $2,080 per borrower.In the second chapter, I empirically analyze the fixed and variable rate decisions of borrowers who are financing large personal loans, and are given the option to switch rate types at any point. Many online lending firms now offer financial products that are more flexible and personalized than traditional loans; however, little is known about how consumers will interact with these more complete, but also more complex, contracts. Over my sample time period, the market index interest rate for the fixed and variable rate loans changed considerably. I first present reduced form evidence on the determinants of borrowers' initial rate decisions and the presence of switching costs, and then estimate a structural model that maps these findings to the coefficient of absolute risk aversion and a switching cost parameter. I compare the active and inactive rate choices of borrowers in different interest rate environments to separately identify switching costs from risk preferences.I show that while initial rate choices are very responsive to the prevailing interest rate environment, very few borrowers ever take advantage of the option to switch rate types even when interest rates increase. Specifically, I estimate a risk aversion parameter of .0564, which implies that borrowers are very risk averse, and lower and upper bounds on switching costs from $166 to $1,185. I also show that both the initial probability of choosing a variable rate loan and the probability of never switching are positively correlated with borrower liquidity constraints, which suggests that these borrowers are more focused on current monthly payments than future interest rate risk.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W2144424972</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.1002/chem.200701223</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Hartmann et al. (2008)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Tailor‐Made Poly(amidoamine)s for Controlled Complexation and Condensation of DNA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>Abstract A set of polymer carriers for DNA delivery was synthesized by combining monodisperse, sequence‐defined poly(amidoamine) (PAA) segments with poly(ethylene oxide) (PEO) blocks. The precise definition of the PAA segments provides the possibility of correlating the chemical structure (monomer sequence) with the resulting biological properties. Three different PAA–PEO conjugates were synthesized by solid‐phase supported synthesis, and the cationic nature of the PAA segments was systematically varied. This allows for the tailoring of interactions with double‐stranded plasmid DNA (dsDNA). The potential of the PAA–PEO conjugates as non‐viral vectors for gene delivery is demonstrated by investigating the dsDNA complexation and condensation properties. Depending on the applied carrier, a transition in polyplex (polymer–DNA ion complex) structures is observed. This reaches from extended ring‐like structures to highly compact toroidal structures, where supercoiling of the DNA is induced. An aggregation model is proposed that is based on structural investigations of the polyplexes with atomic force microscopy (AFM) and dynamic light scattering (DLS). While the cationic PAA segment mediates primarily the contact of the carrier to the dsDNA, the PEO block stabilizes the polyplex and generates a “stealth” aggregate, as was suggested by Zeta potentials that were close to zero. The controlled aggregation leads to stable, single‐plasmid complexes, and stabilizes the DNA structure itself. This is shown by ethidium bromide intercalation assays and DNase digestion assays. The presented PAA–PEO systems allow for the formation of well‐defined single‐plasmid polyplexes, preventing hard DNA compression and strongly polydisperse polyplexes. Moreover carrier polymers and the resulting polyplexes exhibit no cytotoxicity, as was shown by viability tests; this makes the carriers potentially suitable for in vivo delivery applications.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2926759248</t>
+          <t>https://openalex.org/W3018179668</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17705/1pais.10204</t>
+          <t>https://doi.org/10.1029/2020tc006260</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Kumar et al. (2018)</t>
+          <t>Huang et al. (2021)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Explaining customer’s continuance intention to use mobile banking apps with an integrative perspective of ECT and Self-determination theory</t>
+          <t>Seismic Imaging of an Intracrustal Deformation in the Northwestern Margin of the South China Sea: The Role of a Ductile Layer in the Crust</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Digital payments evolve as the next generation system to take over the global commerce landscape in the same manner in which internet and mobile telephony had dominated the traditional communication domains. The use of mobile banking apps has spurred the digital medium across the globe and resulted in a fundamental shift in retailing practices. The purpose of this paper is to comprehend various factors influencing the customer’s continuance intention-behavior to use mobile banking apps. In this study, we developed a research model that encompasses the attributes of Expectation confirmation theory (ECT) and Self-determination theory (SDT). The research model was tested using survey data collected from 744 respondents across various demographics and analyzed using structural equation modeling (SEM) to understand the usage behavior of mobile banking apps in a multi-faceted business environment. The various hypothesis of the research model indicate that mobile banking apps continuance intention usage behavior is strongly influenced by the satisfaction, intrinsic and identified regulations, whereas satisfaction is influenced by the expectation-confirmation, trust, and quality. The research findings reveal that, “An enormous potential are available for marketing managers and researchers to tape these opportunities and plan for continual and sustainable growth of mobile banking apps. “</t>
+          <t>Abstract The continental margins of the South China Sea (SCS) have undergone episodic rifting since the Cenozoic, and there are ongoing debates surrounding the processes of crustal deformation and seafloor opening. In this work, we present a P ‐wave velocity model extending from the north of Xisha Trough to the Zhongshanan Basin in the northwestern SCS margin, using ocean bottom seismometer data of the wide‐angle seismic profile OBS2013‐1. The results show that the crust thins symmetrically across the western Xisha Trough, from more than ∼20 km at the flanks to ∼10 km in the central valley where the sedimentary layers thicken to over 6 km. In the Zhongsha Trough, closer to the deep basin, the upper crust is detached in a ∼20 km wide region and the lower crust has seismic velocities increased by more than ∼0.3 km/s. The top boundary of the lower crust is located at a depth of ∼13 km across the Zhongsha Trough, and a ∼5 km thick midcrustal ductile layer is imaged. A ∼50 km wide ocean‐continent transition region beneath the Zhongshanan Basin characterizes a ∼6 km thick continental crust underlain by serpentinized and magnetized upper mantle. These observations, together with plate reconstructions based on gravity and magnetic analysis, suggest that deformation of the continental margin was controlled by a ductile crustal layer. Magmatism, associated with the early stage oceanic accretion, has mixed with the highly extended continental crust. Developments of the failed rifted basins were controlled by the westward propagation of the continental breakup.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2023834430</t>
+          <t>https://openalex.org/W3206144518</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s1386-1425(00)00443-1</t>
+          <t>https://doi.org/10.1007/s12571-021-01219-y</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Szczepański et al. (2001)</t>
+          <t>Alho et al. (2021)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Electronic absorption and resonance Raman spectra of large linear carbon clusters isolated in solid argon</t>
+          <t>Analysis of banana and cocoa export commodities in food system transformation, with special reference to certification schemes as drivers of change</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Neutral and anionic carbon clusters have been generated via a laser-induced graphite-based plasma and deposited in a solid argon matrix. Anionic clusters were formed from neutral clusters by using crossed electron/carbon cluster beams. Thermal annealing (to 36 K) resulted in the aggregation of the smaller carbon species, leading to the formation of long chain neutral and anionic clusters. Spectroscopic measurements in the ultraviolet, visible, near-infrared and infrared regions revealed a series of bands attributable to a homologous set of odd-numbered C5-C29 neutral clusters and even-numbered C6(-)-C36- anionic clusters. Good agreement is found for the band positions of carbon chains containing odd C15-C21 neutrals and even C6(-)-C22- anions, with species previously identified by Maier and coworkers using mass selection or laser vaporization, followed by neon matrix isolation. Resonance Raman frequencies for the neutral C17, C21 and C23 species are shown to be consistent with the above attributions. Density functional theory calculations agree well with the observed bands. It is found that certain low frequency Raman stretching frequencies decrease in a predictable way with increasing chain length. Comparison of the 0(0)0 absorption transitions of the even C18(-)-C36- anionic clusters with the 'unidentified' infrared (UIR) interstellar emission bands suggests that the electronic emission from specific long chain carbon anions may contribute to the some of the UIR bands.</t>
+          <t>Abstract Food systems analysis is increasingly being applied to understand relations between production, distribution, and consumption of food products, the drivers that influence the system, and the outcomes that show how well the food system performs on health and nutrition, on environmental sustainability, and on income and inclusiveness. Little attention has gone to the position of global export commodities, where production and consumption are far apart. Banana in Costa Rica and cocoa in Cote d’Ivoire were the subject of this study to find out what major drivers determine the functioning of these systems. Next to identifying drivers such as population growth and increased plant disease pressure, it was found that the typical far-away setting and different living conditions between producer and consumer countries required a special eye on governance as a tripartite arena (government, private sector, civil society) with their power relations, and on certification schemes as a driver that follows from corporate social responsibility. The certification schemes addressed cover all food system outcomes, although health and nutrition in a less conspicuous way. The descriptions of the functioning of the schemes were also linked to living wages and incomes for banana plantation workers in Costa Rica and cocoa smallholder farmers in Côte d’Ivoire. Although very meaningful, certification schemes so far do not prove to be a silver bullet, but they do have the potential, in combination with other measures, to help positive food system transformations.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2913801034</t>
+          <t>https://openalex.org/W2066296828</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15802/ampr.v0i14.141907</t>
+          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lazareva (2019)</t>
+          <t>Kalantzis (2006)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ON THE THRESHOLD OF TECHNOLOGICAL SINGULARITY: HUMAN READINESS TO THE NEW STAGE OF EVOLUTION</t>
+          <t>Changing Subjectivities, New Learning</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Purpose. The study is aimed at a philosophical analysis of the state of humanity’s readiness for technological singularity, the definition of the concept of postbiology and the investigation of ways to bring the population (in particular, the Ukrainian one) to a new, qualitatively higher level of existence. Theoretical basis. The author analyzes the level of public consciousness and the features of its cooperation with technological world. Due to the inability of most modern people to cope with changes effectively, the author questions humanity’s readiness for the postbiological stage of evolution of our species. Based on the analysis of the ideas of authoritative futurists of our time, the author explores the prospects of Ukrainian society in the postbiological future. Originality. The author not only analyzes the challenges that humanity faces during its transition to a new type of civilization, but also explores the obstacles that hinder this process directly in the Ukrainian society. The author proves that the ideas of transhumanism and going beyond the human biology should not be postulated without a moral context. In addition, the scientific study proposes a number of projects designed to improve the educational institutions that are responsible for the intellectual and spiritual development of the individual. Conclusions. Postbiology can become both, a new qualitatively higher stage of the human species evolution and the collapse of humaneness. Along with overcoming human biology, there will be the destruction of moral guidelines, social and legal systems. In order to prevent total chaos and catastrophe, technological development must be complemented by appropriate developments of new norms that can balance society.</t>
+          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3040125632</t>
+          <t>https://openalex.org/W2926759248</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17759/chp.2020160210</t>
+          <t>https://doi.org/10.17705/1pais.10204</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Тхостов (2020)</t>
+          <t>Kumar et al. (2018)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>L.S. Vygotsky’s Ideas in the Clinical Psychology</t>
+          <t>Explaining customer’s continuance intention to use mobile banking apps with an integrative perspective of ECT and Self-determination theory</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The present article discusses possible perspective trends of the development of the cultural-historical approach in the context of clinical psychology. This puts forward the thesis about the development of man in ontogeny as a result of his interaction with cultural environment which causes the transformation of natural mental functions into higher mental ones and the formation of the whole range of psychopathological abnormalities. It also discusses the voluntary regulation of higher mental functions, the determination of involuntariness and postvoluntariness of functions, the internalization of actions, the differentiation of affect and emotion (incl. as a higher mental function), the “cultural” socialization of non-mental functions (sexual, sleep, excretion) and the inconsistency of natural and “cultural” entity in a human. This paper confirms the statement that the basis of the development of man in ontogenesis is the emergence of subjectness like all the forms of higher activity through the encounter with cultural restrictions and requirements. It suggests extending the concept of “higher” functions by means of including physiological and bodily functions. The latter acquire the characteristics of higher mental functions during the socialization: the voluntary regulation, hierarchical structure and control. This considers the phenomena of alienation, conversion and dissociative disorders and voluntariness as a result of the complication and restructuring of natural functions. It also suggest trends for further investigations.</t>
+          <t>Digital payments evolve as the next generation system to take over the global commerce landscape in the same manner in which internet and mobile telephony had dominated the traditional communication domains. The use of mobile banking apps has spurred the digital medium across the globe and resulted in a fundamental shift in retailing practices. The purpose of this paper is to comprehend various factors influencing the customer’s continuance intention-behavior to use mobile banking apps. In this study, we developed a research model that encompasses the attributes of Expectation confirmation theory (ECT) and Self-determination theory (SDT). The research model was tested using survey data collected from 744 respondents across various demographics and analyzed using structural equation modeling (SEM) to understand the usage behavior of mobile banking apps in a multi-faceted business environment. The various hypothesis of the research model indicate that mobile banking apps continuance intention usage behavior is strongly influenced by the satisfaction, intrinsic and identified regulations, whereas satisfaction is influenced by the expectation-confirmation, trust, and quality. The research findings reveal that, “An enormous potential are available for marketing managers and researchers to tape these opportunities and plan for continual and sustainable growth of mobile banking apps. “</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3150735384</t>
+          <t>https://openalex.org/W2163654497</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1139/v10-116</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Zhu (2014)</t>
+          <t>Li et al. (2010)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mineral weathering and element cycling in soil-microorganism-plant system</t>
+          <t>Theoretical study of the microwave spectrum of isotopologues of OCS–(He)&lt;sub&gt;2&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Soil is an essential part of the critical zone, and soil-microbe-plant system serves as a key link among lithosphere, biosphere, atmosphere and hydrosphere. As one of the habitats with the richest biodiversity, soil plays a critical role in element biogeochemistry on the earth surface(weathered crust). Here we review the soil biological processes that are relevant to mineral weathering, element cycling, and transformation, with an emphasis on rock weathering mediated by soil microbes, plant root and the rhizosphere.</t>
+          <t>The rovibrational energy levels (J = 0–3) and rotational spectra of seven isotopologues of the OCS–(He) 2 complex have been determined by numerically exact basis set calculations. The interaction energy is represented as a sum of two-body terms consisting of the OCS–He potential, which Howson and Hutson (J. Chem. Phys. 2001, 115, 5059) obtained at the CCSD(T)/aug-cc-pVTZ level of theory, and the He–He potential that Jeziorska et al. (J. Chem. Phys. 2007, 127,124303) obtained with SAPT theory. Three-body effects and the quality of the potential are discussed. Comparison with experiment shows that microwave transitions can be predicted by this additive approach with an accuracy equal or better than 0.7% for all the observed spectral lines. A method for the three-dimensional representation of the helium density in the body-fixed frame is presented that highlights the highly delocalized nature of the helium subsystem.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978163760</t>
+          <t>https://openalex.org/W2913801034</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.physb.2008.03.028</t>
+          <t>https://doi.org/10.15802/ampr.v0i14.141907</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Shalabi et al. (2008)</t>
+          <t>Lazareva (2019)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Optical properties of charged : Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of MgO: Theoretical study</t>
+          <t>ON THE THRESHOLD OF TECHNOLOGICAL SINGULARITY: HUMAN READINESS TO THE NEW STAGE OF EVOLUTION</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>The optical properties of FA1+: Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of the alkaline earth monooxide (MgO) are investigated by using the configuration interaction singles (CIS), and the density functional theory (DFT) methods of molecular electronic structure calculations. Quantum clusters were embedded in the simulated Coulomb fields that closely approximate the Madelung fields of the host crystal, and ions that were the nearest neighbors to the defect site were allowed to relax to equilibrium. The sensitivity of the examined optical properties, namely, transition energies (Stokes shifts), optical–optical conversion efficiency, relaxed excited states of the defect-containing surface, orientational destruction of the color center, recording sensitivity, exciton (energy) transfer, and the Glasner–Tompkins empirical rule to each of the bulk and surface ion coordination number are demonstrated.</t>
+          <t>Purpose. The study is aimed at a philosophical analysis of the state of humanity’s readiness for technological singularity, the definition of the concept of postbiology and the investigation of ways to bring the population (in particular, the Ukrainian one) to a new, qualitatively higher level of existence. Theoretical basis. The author analyzes the level of public consciousness and the features of its cooperation with technological world. Due to the inability of most modern people to cope with changes effectively, the author questions humanity’s readiness for the postbiological stage of evolution of our species. Based on the analysis of the ideas of authoritative futurists of our time, the author explores the prospects of Ukrainian society in the postbiological future. Originality. The author not only analyzes the challenges that humanity faces during its transition to a new type of civilization, but also explores the obstacles that hinder this process directly in the Ukrainian society. The author proves that the ideas of transhumanism and going beyond the human biology should not be postulated without a moral context. In addition, the scientific study proposes a number of projects designed to improve the educational institutions that are responsible for the intellectual and spiritual development of the individual. Conclusions. Postbiology can become both, a new qualitatively higher stage of the human species evolution and the collapse of humaneness. Along with overcoming human biology, there will be the destruction of moral guidelines, social and legal systems. In order to prevent total chaos and catastrophe, technological development must be complemented by appropriate developments of new norms that can balance society.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3145136976</t>
+          <t>https://openalex.org/W2756150191</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.13110/criticism.62.2.0307</t>
+          <t>https://doi.org/10.55596/001c.115413</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Behluli (2020)</t>
+          <t>Widdowson (2016)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Constellating a Work of Abundance</t>
+          <t>Managing the Border: A Transformational Shift to Pre-Export Screening</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Reviewed by: Constellating a Work of Abundance by Ronald Schleifer Sofie Behluli (bio) A Political Economy of Modernism: Literature, Post-Classical Economics, and the Lower Middle-Class by Ronald Schleifer. Cambridge: Cambridge University Press, 2018. 339 pp. Hardcover £75.00. In his seminal essay on "The Work of Art in the Age of Mechanical Reproduction" (1935), Walter Benjamin argues that the late nineteenth- and early twentieth-century changes in the artistic process of production and re-production have not only altered the ontological basis of art—by threatening its so-called "aura" in particular—but also the aesthetic experience of art itself. Processes of modernization around the turn of the twentieth century, in other words, have permanently changed the way humans produce, distribute, and consume art. In the two sections that bracket this essay, Benjamin politicizes his argument by embedding it in the context of fascism and presents the larger socio-political implications of modernization.1 More than 80 years later, Ronald Schleifer follows in Benjamin's footsteps by articulating an equally ambitious constellation of the institutional history of modernism, the changing sensual and aesthetic experience, and the social organization of the time in his latest book, A Political Economy of Modernism (2018). This comparison to Walter Benjamin seems appropriate as the author begins his impressive study with a methodological chapter in which he elaborates on Benjamin's claim that "[i]deas are to objects as constellations are to stars" (qtd. in Schleifer, 7). The methodology derived from this notion of homologically constellated ideas, [End Page 307] in which the individual parts arrange themselves into a centerless whole, is mirrored by the structure of Schleifer's monograph. The complexity that results from such a nonlinear approach that puts phenomena of various sizes and from various disciplines side by side, rather than in a causal chain or hierarchy, is what makes A Political Economy of Modernism a challenging but ultimately satisfying analysis. One of the harder aspects to parse is Schleifer's use of the notion of "political economy," by which he means the modernist institution and its constellation of "experience, wealth and, social life" (5). Schleifer's dense analysis of this triad encompasses more specifically the scrutiny of modernist literature and the arts and how they are connected to the Second Industrial Revolution, the transition from entrepreneurial to corporate capitalism and from the dominance of life-enhancing commodities to life-sustaining commodities, which goes hand in hand with the replacement of necessity by desire, the emergence of the lower middle class, and the resulting shift in aesthetic experience. Schleifer's interdisciplinary analysis, which aims at further defining the "culture of modernism" (ix) that he also discusses in his two previous monographs Modernism and Time (2000)2 and Modernism and Popular Music (2011),3 builds on Benjamin's notion of "constellation" and William Brian Arthur's notion of "complexity" and boils down to the book's global argument that the complex unity of the phenomenon of cultural modernism is best understood as relational, historical, and real in its feedback effects on other institutions at a particular moment in cultural history. These other institutions include institutions of experience, knowledge, and social relationships: the literary aesthetics, the intellectual analyses of post-classical economics, and the lower middle class of [the] title. (39) By focusing on interrelationships rather than hierarchies, horizontally established (economic, semiotic, and cultural) value rather than vertically defined conditions, and social "habits of thought"4 rather than individual events, Schleifer's monograph offers a refined contribution to modernist studies at large. In his endeavor to prove "that such complexity of arrangements also governs, in the time of modernism, that larger phenomenon, the political economy of culture" (7), Schleifer subdivides his study into seven chapters, an interlude on the relationship between semiotics and economics, and a conclusion on cosmopolitan modernism, which are [End Page 308] distributed into three main parts: Part I, Economics in the Context of Cultural Modernism; Part II, Intangible Assets: Modernist Economics; and Part III, Intangible Liabilities: Class and Value in the Time of Modernism. This structural trajectory from cultural modernism to modernist economics and finally to social class shows how fluidly Schleifer moves between disciplinary spheres and institutions...</t>
+          <t>Until fairly recently, it has been the practice of customs authorities to screen international cargo upon its arrival in the country, that is, ‘at the border’, as opposed to pre-screening prior to its departure from the country of export. The concept of what constitutes the border has changed significantly, with an expanded view now encompassing the entire international supply chain. This paper examines catalysts for the pronounced change in practice and identifies the emergence of national security imperatives as the primary reason for the transformational shift to pre-export screening and targeting. The research examines the manner in which the policy has been adopted and applied by individual economies, and the proportion of containerised sea cargo impacted by its adoption. In doing so, related security initiatives and their impact on cross-border trade are addressed.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117401019</t>
+          <t>https://openalex.org/W1978163760</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1068/c10222</t>
+          <t>https://doi.org/10.1016/j.physb.2008.03.028</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Seyfang &amp; Haxeltine (2012)</t>
+          <t>Shalabi et al. (2008)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
+          <t>Optical properties of charged : Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of MgO: Theoretical study</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
+          <t>The optical properties of FA1+: Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of the alkaline earth monooxide (MgO) are investigated by using the configuration interaction singles (CIS), and the density functional theory (DFT) methods of molecular electronic structure calculations. Quantum clusters were embedded in the simulated Coulomb fields that closely approximate the Madelung fields of the host crystal, and ions that were the nearest neighbors to the defect site were allowed to relax to equilibrium. The sensitivity of the examined optical properties, namely, transition energies (Stokes shifts), optical–optical conversion efficiency, relaxed excited states of the defect-containing surface, orientational destruction of the color center, recording sensitivity, exciton (energy) transfer, and the Glasner–Tompkins empirical rule to each of the bulk and surface ion coordination number are demonstrated.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2156230727</t>
+          <t>https://openalex.org/W1536435271</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/mmi.12495</t>
+          <t>https://doi.org/10.2172/6501445</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Zhitnitsky &amp; Lewinson (2014)</t>
+          <t>Belford &amp; Clarkson (1989)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Identification of functionally important conserved trans‐membrane residues of bacterial &lt;scp&gt;P&lt;sub&gt;IB&lt;/sub&gt;&lt;/scp&gt;‐type &lt;scp&gt;ATPases&lt;/scp&gt;</t>
+          <t>Spin-mapping of coal structures with ESE and ENDOR (Electron-Nuclear Double Resonance)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Summary Powered by ATP hydrolysis, P IB ‐ ATPases drive the energetically uphill transport of transition metals. These high affinity pumps are essential for heavy metal detoxification and delivery of metal cofactors to specific cellular compartments. Amino acid sequence alignment of the trans‐membrane ( TM ) helices of P IB ‐ ATPases reveals a high degree of conservation, with ∼60–70 fully conserved positions. Of these conserved positions, 6–7 were previously identified to be important for transport. However, the functional importance of the majority of the conserved TM residues remains unclear. To investigate the role of conserved TM residues of P IB ‐ ATPases we conducted an extensive mutagenesis study of a Zn 2+ / Cd 2+ P IB ‐ ATPase from R hizobium radiobacter ( rrZntA ) and seven other P IB ‐ ATPases . Of the 38 conserved positions tested, 24 had small effects on metal tolerance. Fourteen mutations compromised in vivo metal tolerance and in vitro metal‐stimulated ATPase activity. Based on structural modelling, the functionally important residues line a constricted ‘channel’, tightly surrounded by the residues that were found to be inconsequential for function. We tentatively propose that the distribution of the mutable and immutable residues marks a possible trans‐membrane metal translocation pathway. In addition, by substituting six trans‐membrane amino acids of rrZntA we changed the in vivo metal specificity of this pump from Zn 2+ / Cd 2+ to Ag + .</t>
+          <t>Our Laboratory is presently engaged in developing a method to model sulfur-containing compounds in whole coal. It has been established that most of the organic sulfur in coal exists in the form of aromatic groups known as thiophenes. Sulfur-containing aromatic compounds such as thiophene, tetraphenylthiophene and thianthrene were adsorbed onto silica-alumina catalyst surfaces were used as models to emulate coal's anisotropic nature and abundance of unpaired electron spin density. The spectroscopic techniques used were Electron Paramagnetic Resonance (EPR), Electron-Nuclear Double Resonance (ENDOR). EPR spectroscopy is a well established method to characterize g-matrix anisotropy in transition metal compounds. With increased resolution, EPR has become very useful for characterizing the small but still detectable g-matrix anisotropy in organic systems such as coal and the model systems for coal. ENDOR spectroscopy involves the inducement of NMR transitions of the nearby protons while detecting them with an EPR detection scheme which is several orders of magnitude more sensitive than using a NMR detection scheme. Analysis of the ENDOR spectra produced hyperfine information which is characteristic of these sulfur-containing systems. This information will be needed to resolve anisotropic hyperfine spectral features attributable to sulfur content in the analysis of coal macerals. 2 refs., 3 figs.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2784193465</t>
+          <t>https://openalex.org/W2319697210</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/rs10010087</t>
+          <t>https://doi.org/10.1021/jp402027x</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Myoung et al. (2018)</t>
+          <t>Łapiński et al. (2013)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
+          <t>Spectroscopic Studies of the Phase Transition from the Mott Insulator State to the Charge-Ordering State of κ-(ET)&lt;sub&gt;4&lt;/sub&gt;[M(CN)&lt;sub&gt;6&lt;/sub&gt;][N(C&lt;sub&gt;2&lt;/sub&gt;H&lt;sub&gt;5&lt;/sub&gt;)&lt;sub&gt;4&lt;/sub&gt;]·2H&lt;sub&gt;2&lt;/sub&gt;O (M = Co&lt;sup&gt;III&lt;/sup&gt; and Fe&lt;sup&gt;III&lt;/sup&gt;) Salts</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
+          <t>Polarized reflectivity spectra versus temperature of two isostructural charge-transfer salts κ-(ET)4[M(CN)6][N(C2H5)4]·2H2O (M = Co(III) and Fe(III)) (ET = bis(ethylenedithio)tetrathiafulvalene) were studied. The electronic and vibrational spectra exhibit a drastic change at around 150 K. On the basis of the spectral analysis, we deduced the nature of the phase transition. The phase transition at 150 K is due to a charge ordering; above this temperature, strong charge fluctuations are observed.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2082932042</t>
+          <t>https://openalex.org/W2888512405</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-7037(90)90048-p</t>
+          <t>https://doi.org/10.1088/1748-9326/aadbf8</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Berndt &amp; Seyfried (1990)</t>
+          <t>Fan et al. (2018)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Boron, bromine, and other trace elements as clues to the fate of chlorine in mid-ocean ridge vent fluids</t>
+          <t>Urbanization and sustainability under transitional economies: a synthesis for Asian Russia</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Fluids from mid-ocean ridge hot springs typically have Cl concentrations which depart significantly from seawater values. These variations may be due in part to phase separation processes and/ or precipitation and dissolution of chloride-bearing minerals. Both of these processes likely produce systematic and recognizable variations in the distributions of trace elements which should be evident in vent fluid chemistries. To better understand how supercritical phase separation can affect trace element distributions, we conducted an experiment involving a Na-Ca-K-Cl fluid containing trace quantities of Sr, Ba, B, Li, and Br, which was allowed to separate into vapor and brine phases at 425, 440, and 450°C by systematically adjusting pressure. All of the measured trace elements were concentrated into the brine phase relative to the vapor phase. The relative order of partitioning into the brine was Ba &gt; Sr &gt; Ca &gt; K &gt; Na,Cl &gt; Li &gt; Br &gt; B. Comparing the experimentally determined distribution of trace elements, especially B and Br, and Cl, with analogous data for vent fluids leads to the interpretation that both phase separation and mineral precipitation processes occur in ridge crest hot spring systems. Fluids with Cl greatly different from seawater may require a phase separation process at temperatures greater than 450°C to explain the BSW (boron from a seawater source) and Br data. Furthermore, there is evidence that nearly all of the fluids venting from ridge crest systems, whether phase separation is indicated or not, appear to have experienced some degree of precipitation of a Cl mineral which may be similar to that formed in hydrothermal experiments. Relative concentrations of trace alkali and Brock (boron derived from rock) in vent fluids suggest that fluids interact directly with recently cooled magma prior to phase separation but close to or within a cracking front region located slightly above the brittle/ductile transition zone surrounding the magma chamber. Vent fluids in such systems represent the combined chemistries of mixed brine, vapor, and hydrothermal fluid which has reequilibrated with the host rock at temperatures much less than those required for phase separation.</t>
+          <t>Spanning a vast territory of approximately 13 million km2, Asian Russia was home to 38 million people in 2016. In an effort to synthesize data and knowledge regarding urbanization and sustainable development in Asian Russia in the context of socioeconomic transformation following the breakup of the Soviet Union in 1990, we quantified the spatiotemporal changes of urban dynamics using satellite imagery and explored the interrelationships between urbanization and sustainability. We then developed a sustainability index, complemented with structural equation modeling, for a comprehensive analysis of their dynamics. We chose six case cities, i.e., Yekaterinburg, Novosibirsk, Krasnoyarsk, Omsk, Irkutsk, and Khabarovsk, as representatives of large cities to investigate whether large cities are in sync with the region in terms of population dynamics, urbanization, and sustainability. Our major findings include the following. First, Asian Russia experienced enhanced economic growth despite the declining population. Furthermore, our case cities showed a general positive trend for population dynamics and urbanization as all except Irkutsk experienced population increases and all expanded their urban built-up areas, ranging from 13% to 16% from 1990 to 2014. Second, Asian Russia and its three federal districts have improved their sustainability and levels of economic development, environmental conditions, and social development. Although both regional sustainability and economic development experienced a serious dip in the 1990s, environmental conditions and social development continuously improved from 1990 to 2014, with social development particularly improving after 1995. Third, in terms of the relationships between urbanization and sustainability, economic development appeared as an important driver of urbanization, social development, and environmental degradation in Asian Russia, with economic development having a stronger influence on urbanization than on social development or environmental degradation.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1499530127</t>
+          <t>https://openalex.org/W4323043702</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/su15054496</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Steidle &amp; Wallace (2007)</t>
+          <t>Suman &amp; Alblas (2023)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
+          <t>Exploring Citizen Science over Time: Sensing, Technology and the Law</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
+          <t>People over the course of history have survived by developing their ability to ‘sense’ their environment as an embryonic form of citizen science. With the emergence of modern states, governments have assumed responsibility for monitoring the quality of the environment, and progressively the practice and role of citizen science has changed. This review explores the different manifestations of citizen science over time, with a focus on its law and governance dimensions, reading this evolution as a critical analysis of the current discourses around citizen science. The evolution of citizen science throughout history and its transformation shows certain patterns that are highlighted in this article as ‘constant’ features, whereas other features are instead interrupted and reversed, and new ones emerge. We thus examined citizen science over time by asking what is really new about this phenomenon, focusing on constants—permanent features—and turning points—changes in direction. We argue that these dynamics are central to understanding the promises and perils of the practice, to fully grasping the forms of uninvited, reactive environmental citizen science and to scoping foreseeable future scenarios.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057655650</t>
+          <t>https://openalex.org/W2117401019</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.143035</t>
+          <t>https://doi.org/10.1068/c10222</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Scott &amp; Kevin (1993)</t>
+          <t>Seyfang &amp; Haxeltine (2012)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>&amp;lt;title&amp;gt;Excimer laser processing of aerospace alloys&amp;lt;/title&amp;gt;</t>
+          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The affect of varying a wide range of excimer laser parameters on the average etch rate per shot of aerospace alloys (Al, Ti and Ni) has been investigated. The parameters found to most profoundly influence the etch rate were, the laser fluence (up to 70 J/cm&lt;SUP&gt;2&lt;/SUP&gt;), pulse length (20 - 160 nsec FWHM), gas environment, beam spot size (35 - 300 micrometers ) and material thickness (0.4 - 1.8 mm). Optimization of these parameters has produced an increase in average etch rate per shot from 0.05 to 1.5 micrometers with Ti alloy (2 TA - 10). Such increases in etch rate are seen to occur above a relatively well defined 'critical' fluence for thick samples which it is postulated corresponds to the transition from a largely vaporization dominated to a vaporization/melt expulsion regime. Information is also included on the quality of the processing and on the extent of the laser affected zone around the processed area. Potential aerospace application areas identified and discussed include drilling multiple hole arrays for producing porous surfaces for drag reduction on aircraft and the cutting and profiling of alloy/glass fiber composites (GLARE).</t>
+          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2091109905</t>
+          <t>https://openalex.org/W2156230727</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0040-1951(94)90019-1</t>
+          <t>https://doi.org/10.1111/mmi.12495</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Xia et al. (1994)</t>
+          <t>Zhitnitsky &amp; Lewinson (2014)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Comparison of the tectonics and geophysics of the major structural belts between the northern and southern continental margins of the South China Sea</t>
+          <t>Identification of functionally important conserved trans‐membrane residues of bacterial &lt;scp&gt;P&lt;sub&gt;IB&lt;/sub&gt;&lt;/scp&gt;‐type &lt;scp&gt;ATPases&lt;/scp&gt;</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A comparison of the tectonics and geophysics of the major structural belts of the northern and the southern continental margins of South China Sea has been made, on the basis of measured geophysical data obtained by ourselves over a period of 8 years (1984–1991). This confirmed that the northern margin is a divergent one and the southern margin is characterized by clearly convergent features. The main extensional structures of the northern margin are, from north to south: (1) The Littoral Fault Belt, a tectonic boundary between the continental crust and a transitional zone, along the coast of the provinces of Guangdong and Fujian in South China. It is characterised by earthquake activities, high magnetic anomalies and a rapid change in crustal thickness. (2) The Northern and Southern Depression zones (i.e., the Pearl River Mouth Basin), this strikes NE-ENE and is a very large Cenozoic depression which extends from offshore Shantou westwards to Hainan Island. (3) The Central Uplift Zone. This includes the Dongsha Uplift, Shenhu Uplift and may be linked with the Penghu uplift and Taiwan shoals to the east, forming a large NE-striking uplift zone along the northern continental slope. It is characterized by high magnetic anomalies. (4) Southern Boundary Fault Belt of the transitional crust. This has positive gravity anomalies on the land side and negative ones on the sea side. (5) The Magnetic Quiet Zone. This is located south of the southern Boundary Fault Belt and between the continental margin and the Central Basin of the South China Sea. Magnetic anomalies in this belt are of small amplitude and low gradient. We consider the Magnetic Quiet Zone to be a very important tectonic zone. The major structures of southern continental margin southwards are: (1) The Northern Fault Belt of the Nansha Block. This extends along the continental slope north of the Liyue shoal (Reed Bank) and Zhongye reef, and is a tectonic boundary between oceanic crust and the Nansha Block continental crust. (2) The Nansha Block Uplift Zone. Due to the development of reefs and shoals, there are many channels and valleys. Our long-distance multichannel seismic profiles indicated that there are thick Paleogene sediments and thin Neogene sediments all over the central part of the block. (3) The Nansha Trough, a nappe structure formed by the southeastward drifting of Nansha Block and northwestward overthrusting of Palawan-northwest Borneo. (4) Zengmu Shoal Basin, southwest of the Nansha Block; the maximum thickness of Cenozoic strata is over 9 km in this important petroliferous basin.</t>
+          <t>Summary Powered by ATP hydrolysis, P IB ‐ ATPases drive the energetically uphill transport of transition metals. These high affinity pumps are essential for heavy metal detoxification and delivery of metal cofactors to specific cellular compartments. Amino acid sequence alignment of the trans‐membrane ( TM ) helices of P IB ‐ ATPases reveals a high degree of conservation, with ∼60–70 fully conserved positions. Of these conserved positions, 6–7 were previously identified to be important for transport. However, the functional importance of the majority of the conserved TM residues remains unclear. To investigate the role of conserved TM residues of P IB ‐ ATPases we conducted an extensive mutagenesis study of a Zn 2+ / Cd 2+ P IB ‐ ATPase from R hizobium radiobacter ( rrZntA ) and seven other P IB ‐ ATPases . Of the 38 conserved positions tested, 24 had small effects on metal tolerance. Fourteen mutations compromised in vivo metal tolerance and in vitro metal‐stimulated ATPase activity. Based on structural modelling, the functionally important residues line a constricted ‘channel’, tightly surrounded by the residues that were found to be inconsequential for function. We tentatively propose that the distribution of the mutable and immutable residues marks a possible trans‐membrane metal translocation pathway. In addition, by substituting six trans‐membrane amino acids of rrZntA we changed the in vivo metal specificity of this pump from Zn 2+ / Cd 2+ to Ag + .</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2909078374</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/1361-6463/aaf8d5</t>
+          <t>https://openalex.org/W58297358</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>George et al. (2019)</t>
+          <t>Chodzko et al. (1976)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Thermal hysteresis and vibrational excitations in NiO containing NaNbO&lt;sub&gt;3&lt;/sub&gt;</t>
+          <t>Zero-power-gain measurements in cw HF(DF) laser by means of fast-scan technique. Interim report</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A systematic study of the dielectric hysteresis and temperature-dependent vibrational excitations of NiO containing antiferroelectric (AFE) NaNbO3 composites is reported. The Mott insulator NiO plays a significant role in the crystal structure of NaNbO3. In particular, for low and moderate substitutions of NiO, a transition from orthorhombic to monoclinic symmetry is evident at room temperature. The temperature dependence of the relative dielectric permittivity, , exhibits an anomalous change in its magnitude across three distinct phase transitions of NaNbO3 at 449 K, 665 K and 751 K. These are, respectively, associated with a second-order phase transition occurring due to incommensurate phase between two orthorhombic AFE orderings, change from the orthorhombic P- to R-phase () without altering the AFE structure and an orthorhombic R- to S-phase transition accompanied by an AFE to paraelectric transition. A large thermal hysteresis ( K) was evident in and ac resistivity () between the temperatures 473 K and 673 K signifying the first-order nature of the transition. At room temperature, for higher NiO content, a new mode centred at 838 cm−1 was observed in the Raman spectra along with a two-magnon mode at 1496 cm−1, a broad longitudinal optical mode (2LO) at 1096 cm−1 and a weak translational optical mode (2TO) at 726 cm−1. At low temperatures, down to 80 K, several peculiar features are evident in the Raman spectra of NbO6 octahedra which are associated with the structural and antiferromagnetic transition of NaNbO3 and NiO, respectively.</t>
+          <t>An improved technique for measuring zero-power gain in a cw HF-DF chemical laser has been developed in which a cw HF(DF) single-line, frequency-stabilized TEM00 mode probe laser is used. Through use of a flat rotating mirror and focusing elements, the streamwise distribution of zero-power gain was scanned at a rate of approximately 1 mm/..mu..s with a spatial resolution of approximately 1 mm. The method, therefore, permits real-time observations of the streamwise gain profile. The zero-power-gain profile was observed for two-arc-driven chemical-laser nozzles with both HF and DF active species. The nozzles consisted of a 36-slit array with perforated tube H/sup 2/ injectors and a 55-slit array with uniform H/sup 2/ injection. The F/sup 2/ nozzle exit widths were 3.8 and 3.0 mm, respectively, and operated at an exit pressure of approximately 3 to 6 torr. For the 36-slit nozzle, a peak line-center gain of 10%/cm was measured at x = 6 mm on the maximum-gain P2(4) HF transition. A peak gain of approximately 10%/cm was also measured on the P1(4) HF transition at x = 1 cm. For DF, a peak gain of 4.7%/cm was measured on the maximum gain P2(6) transition at x = 6 mm with the samemore » molar flow rates as the HF measurements.« less</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281858276</t>
+          <t>https://openalex.org/W2784193465</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.quaint.2022.05.015</t>
+          <t>https://doi.org/10.3390/rs10010087</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Repkina et al. (2023)</t>
+          <t>Myoung et al. (2018)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>From the sea strait to the meromictic lake: Evolution and ecosystem of a water body at the Fiard Coast (Lake Kislo-Sladkoe at the Karelian Coast of the Kandalaksha Bay, the White Sea, Russia)</t>
+          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Fiard coasts are common on the periphery of the areas previously covered by ice sheets. The conditions in such areas are favorable for separation of bays and straits from the sea. As a result of the glacial isostatic adjustment of the area the fiards would be transformed into coastal lakes. To discover the regularities of evolution of such water bodies, we studied topography, sea and lake sediments, hydrology and diatom associations of meromictic Lake Kislo-Sladkoe at the Karelian Coast of the Kandalaksha Bay, the White Sea, Russia (66°32′54″N, 33°08′05″E). Detailed geomorphological, geodetic, bathymetric, and aerial imagery field works have been completed on the coastal area. We built a Digital Elevation Model (DEM) of the coast and seabed. Radioisotope dating (210Pb, 14С), grain size distribution, loss on ignition, Corg/Norg ratio and diatom analysis have been completed for the entire 1.5-m sequence of the Lake's sediments. Currently, the Lake Kislo-Sladkoe communicates with the sea through a rising sill. We have established that the water body is meromictic due to its upper water layer being of variable salinity, middle layer comprising of aerated salty water, and the near-bottom water layer being anaerobic. However, several-year-long periods of water stratification alternate there with occasional late-autumn or early-winter flushes. The water body evolution falls into four stages: (1) a strait with an active hydrodynamic environment (prior to 1500–1560s), (2) a strait with a variable hydrodynamic environment (1500–1560s to 1850–1890s), (3) a semi-isolated lagoon with a quiet hydrodynamic environment (1850–1890s to early 1950s), and (4) a meromictic lake at an early stage of separation from the sea (early 1950s to present). We show how coastal processes on fiard coasts change the mode and duration of isolation of coastal water bodies from the sea. Based on the assessment of the rate of the post-glacial rebound and hydrological conditions of the coastal area we propose an approach to estimating the duration of transitional phase between a marine bay or strait and freshwater lake, including its meromictic stage. We predict that the meromictic stage of the lake will be completed no earlier than c. 100–200 years after the sill rises above the tidal zone.</t>
+          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2899831773</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3233/jad-180805</t>
+          <t>https://openalex.org/W1499530127</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lu et al. (2018)</t>
+          <t>Steidle &amp; Wallace (2007)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Patterns of Physical Activity and Sedentary Behavior for Older Adults with Alzheimer’s Disease, Mild Cognitive Impairment, and Cognitively Normal in Hong Kong</t>
+          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Background:Alzheimer’s disease (AD) is the most common form of dementia, and mild cognitive impairment (MCI) is a transitional phase between healthy cognition and dementia. Physical activity (PA) has protective effects on cognitive decline. However, few studies have examined how PA and sedentary be havior is structured throughout the day in older adults across varied cognitive status in Hong Kong. Objective:This study aimed to compare patterns of PA and sedentary behavior among individuals with AD, MCI, or normal cognition living in Hong Kong. Methods:Participants in the MrOs and MsOs Hong Kong cohort study and the Hong Kong AD biomarker study (n = 810) wore a wrist-worn accelerometer for 7 days in free-living environment. Patterns of PA in wake time and in-bed time, and detailed analysis of sedentary bouts were compared between groups using analysis of covariance adjusting for covariates. Results:Participants with MCI and low MoCA only did not differ from their cognitively normal peers in PA and sedentary behavior. Nevertheless, when comparing to the others, participants with AD exhibited significantly lower average daily counts per minute during the day (p &lt; 0.05), and tended to start their activity later in the morning. AD participants spent a larger proportion of time in sedentary behavior (p &lt; 0.05) and had more sedentary bouts≥30 minutes (p &lt; 0.05). Conclusions:The pattern of PA and sedentary behavior was different between individuals with AD and the others. Cognitive status may alter the purpose and type of PA intervention for AD individuals.</t>
+          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2319810371</t>
+          <t>https://openalex.org/W2909078374</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/conf.fnbeh.2012.27.00131</t>
+          <t>https://doi.org/10.1088/1361-6463/aaf8d5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Esther (2012)</t>
+          <t>George et al. (2019)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta</t>
+          <t>Thermal hysteresis and vibrational excitations in NiO containing NaNbO&lt;sub&gt;3&lt;/sub&gt;</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Event Abstract Back to Event Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta Dhani Biscocho1 and Esther M. Leise1* 1 University of North Carolina Greensboro, Biology, United States The marine mud snail, Ilyanassa obsoleta, displays a biphasic life cycle. The initial phase consists of a larval stage in which the animals have ciliated feeding structures on the head (velar lobes) that allow them to swim weakly in the water column. The second phase consists of an adult stage during which the animals reside on intertidal mudflats as obligate omnivores. The event that links these life history stages is metamorphosis. Our interest lies in this transition from larva to non-reproductive adult, the neural circuit that controls metamorphosis, and the cues which are responsible for initiating this process. Molluscan metamorphosis requires multiple changes in cellular action, morphology, physiology and behavioral interactions. I. obsoleta undergoes transformations that include loss of one brain ganglion (the apical ganglion), reorganization of other brain regions, and disappearance of the velar lobes. The neurotransmitter γ-aminobutyric acid (GABA) can induce metamorphosis in a related mollusc, the abalone Haliotis rufescens (Morse, et al. 1979, Science 204, 407-410), but results of our experiments with I. obsoleta have revealed an inhibitory action for GABA. Bath application of GABA to metamorphically competent larvae of I. obsoleta does not elicit metamorphosis. However, exposure of larvae to seawater with reduced chloride concentrations induced metamorphosis in a dose-dependent fashion. Earlier work on I. obsoleta has demonstrated that the neurotransmitters serotonin (5-HT) and nitric oxide function as a promoter and repressor of metamorphosis, respectively. GABA can inhibit serotonergically induced metamorphosis, suggesting that GABA acts either downstream of, or directly on serotonergic neurons. We are currently exploiting reagents that modify the function of GABA transport, synthesis and metabolism to verify that GABA has a role in this system. In bath application, muscimol, a GABA-A agonist, inhibits spontaneous larval metamorphosis for 48 hours. Bath application of isoguvacine, another GABA-A agonist or aminooxyacetic acid (AOA), a major inhibitor of GABA-Transaminase can also repress metamorphosis in 5-HT-induced larvae. In current experiments, we are injecting reagents into competent larvae to decrease chances of interactions between neuroactive compounds and epidermal sensory receptors. These experiments should further support the idea that GABAergic activity occurs internally within the larval central nervous system, perhaps in the apical ganglion. Together, our data will help to elucidate the role of GABA in this molluscan metamorphic pathway. Acknowledgements Funded in part by UNCG Department of Biology Keywords: GABA, gastropod, Larva, metamorphosis, mollusc, Nitric Oxide, Serotonin, Snail Conference: Tenth International Congress of Neuroethology, College Park. Maryland USA, United States, 5 Aug - 10 Aug, 2012. Presentation Type: Poster Presentation (see alternatives below as well) Topic: Development Citation: Biscocho D and Leise EM (2012). Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta. Conference Abstract: Tenth International Congress of Neuroethology. doi: 10.3389/conf.fnbeh.2012.27.00131 Copyright: The abstracts in this collection have not been subject to any Frontiers peer review or checks, and are not endorsed by Frontiers. They are made available through the Frontiers publishing platform as a service to conference organizers and presenters. The copyright in the individual abstracts is owned by the author of each abstract or his/her employer unless otherwise stated. Each abstract, as well as the collection of abstracts, are published under a Creative Commons CC-BY 4.0 (attribution) licence (https://creativecommons.org/licenses/by/4.0/) and may thus be reproduced, translated, adapted and be the subject of derivative works provided the authors and Frontiers are attributed. For Frontiers’ terms and conditions please see https://www.frontiersin.org/legal/terms-and-conditions. Received: 26 Apr 2012; Published Online: 07 Jul 2012. * Correspondence: Dr. Esther M Leise, University of North Carolina Greensboro, Biology, Greensboro, NC, 27412, United States, esther_leise@uncg.edu Login Required This action requires you to be registered with Frontiers and logged in. To register or login click here. Abstract Info Abstract The Authors in Frontiers Dhani Biscocho Esther M Leise Google Dhani Biscocho Esther M Leise Google Scholar Dhani Biscocho Esther M Leise PubMed Dhani Biscocho Esther M Leise Related Article in Frontiers Google Scholar PubMed Abstract Close Back to top Javascript is disabled. Please enable Javascript in your bro</t>
+          <t>A systematic study of the dielectric hysteresis and temperature-dependent vibrational excitations of NiO containing antiferroelectric (AFE) NaNbO3 composites is reported. The Mott insulator NiO plays a significant role in the crystal structure of NaNbO3. In particular, for low and moderate substitutions of NiO, a transition from orthorhombic to monoclinic symmetry is evident at room temperature. The temperature dependence of the relative dielectric permittivity, , exhibits an anomalous change in its magnitude across three distinct phase transitions of NaNbO3 at 449 K, 665 K and 751 K. These are, respectively, associated with a second-order phase transition occurring due to incommensurate phase between two orthorhombic AFE orderings, change from the orthorhombic P- to R-phase () without altering the AFE structure and an orthorhombic R- to S-phase transition accompanied by an AFE to paraelectric transition. A large thermal hysteresis ( K) was evident in and ac resistivity () between the temperatures 473 K and 673 K signifying the first-order nature of the transition. At room temperature, for higher NiO content, a new mode centred at 838 cm−1 was observed in the Raman spectra along with a two-magnon mode at 1496 cm−1, a broad longitudinal optical mode (2LO) at 1096 cm−1 and a weak translational optical mode (2TO) at 726 cm−1. At low temperatures, down to 80 K, several peculiar features are evident in the Raman spectra of NbO6 octahedra which are associated with the structural and antiferromagnetic transition of NaNbO3 and NiO, respectively.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1702942123</t>
+          <t>https://openalex.org/W2097983154</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26608/from_koine_to_romanitas</t>
+          <t>https://doi.org/10.1002/anie.200462327</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Paunov (2017)</t>
+          <t>Zhao et al. (2005)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>From Koine to Romanitas: The numismatic evidence for Roman expansion and settlement in Bulgaria in antiquity (Moesia and Thrace, ca. 146 BC–AD 98/117)</t>
+          <t>Consecutive Vinylic to Aryl to Allylic Palladium Migration and Multiple CH Activation Processes</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>The primary goal of this thesis is to collect, record and interpret the available coin_x000D_
-evidence from the territory of modern Bulgaria during the late Hellenistic and early_x000D_
-Roman Imperial period, from an archaeological, historical and numismatic_x000D_
-perspective. In so doing the work documents the transition and integration of the_x000D_
-monetary system of ancient Thrace to that of the Roman world. The evidence_x000D_
-examined covers over 250 years, from the establishment of the province of_x000D_
-Macedonia in 146 BC down to the reign of Trajan (AD 98-117)._x000D_
-Of foremost importance in this process are the introduction, distribution and use_x000D_
-of the denarius in the local coin market._x000D_
-The evidence under study was collected from the area of ancient Moesia and_x000D_
-Thrace, an area recognized as a frontier zone in the early Roman Empire. Previously_x000D_
-Thrace was never the subject of a comprehensive numismatic study that integrated_x000D_
-the existing archeological and historical record for such a critical period of time. The_x000D_
-purposely studied coin finds (both hoards and single coins, over 48,000 pieces)_x000D_
-allowed for the application of statistical analysis to the coin data, revealing important_x000D_
-military, economic and fiscal tendencies. The results document a culture well_x000D_
-accustomed to the use of coins as means of payment long before the arrival of the_x000D_
-Roman currency. Given these circumstances, it is no surprise that as denarii were_x000D_
-introduced during the 1st century BC, the market quickly adjusted to new economic_x000D_
-relations. Tracing the regional use and distribution of coins, the study bears witness_x000D_
-to how local communities benefited from their strategic location and native resources._x000D_
-The main contribution of this work lies in the systematic comparison between_x000D_
-the Late Hellenistic, Thracian, Celtic and Roman coinages that circulated together in_x000D_
-a region that was of great strategic importance to the Roman Empire. Mechanisms of_x000D_
-introduction and acceptance of Roman coins as financial tools have been_x000D_
-documented and interpreted both from a chronological and geographical standpoint._x000D_
-Based on comprehensive analyses, this thesis concludes that the nature of the_x000D_
-Thracian and Moesian society and economy, as well as the supply of coins, followed_x000D_
-the Imperial and interregional trends as an integral part of the Roman Empire.</t>
+          <t>“Through-space” migration of palladium between remote carbon atoms appears to take place in the generation of π-allyl–palladium complexes, which are useful intermediates in organic synthesis. The reaction of halogenated arenes with alkynes under Pd-migration conditions provides the mixture of allylic esters A–C (see reaction shown; X=Br, I; R1=H, OMe, CO2Et, Cl; R2=Ph, tBu). The rearrangement of a Pd moiety along a saturated hydrocarbon chain by a sequence involving PdH elimination and subsequent readdition has been extensively explored and developed into a very useful synthetic process.1 On the other hand, there are few reports of the “through-space” migration of Pd between remote carbon atoms. The facile 1,4-migration of Pd between a vinylic position and an arene2 and between the ortho positions of biaryl compounds3 have recently been reported. Aryl to benzylic4 and alkyl to aryl Pd migrations5 are also known. Herein we report a novel, consecutive vinylic to aryl to allylic Pd migration that involves multiple CH bond activations, which provides a new route to π-allyl palladium intermediates of great interest in organic synthesis.6 The reaction of p-iodoanisole and 1-phenyl-1-propyne with CsO2CCMe3 as the base provides a 1:1 mixture of (E)- and (Z)-2-(4-methoxyphenyl)-3-phenyl-2-propenyl pivalate in 20 % yield (1 A/B; Table 1, entry 1). Different aryl halides and alkynes were then used in this reaction, and most combinations give allylic esters in respectable yields. Three isomers are usually obtained when R2=tBu, and only two isomers are generated when R2=Ph. The ratio of the various isomers is dependent on the reaction time and temperature. It appears that longer reaction times and higher temperatures generally favor the formation of isomer C. Entry X R1 R2 Products Yield [%] (A:B:C) 1 I OMe Ph 1 A/B 20 (1:1:0)[b] 2 Br H tBu 2 A/B, 2C 35 (1:2:7)[c] 3 I H tBu 2 A/B, 2C 44 (1:2:12)[c] 4 Br CO2Et tBu 3 A/B, 3C 50 (1:2:18)[c] 5 Br Cl tBu 4 A/B, 4C 42 (1:2:20)[c] Although these reactions proceed in relatively low yields, the mechanism of this unique transformation is quite interesting. This process appears to involve Pd migration from a vinylic to an aryl to an allylic position and subsequent displacement by a pivalate anion (Scheme 1). Intermediate 5, generated by oxidative addition of the aryl halide to Pd0, adds to the alkyne to produce the vinylic Pd intermediate 6. Insertion of Pd into the neighboring CH bond forms palladacycle 7, and subsequent reductive elimination affords 8. This results in Pd migration from a vinylic to an aryl position by CH bond activation, a process we have reported earlier.2 Proposed mechanism of the Pd migration. To initiate a second CH bond activation, the Pd moiety apparently rotates into the vicinity of the methyl group. Insertion of Pd into the neighboring CH bond affords palladacycle 9, which undergoes reductive elimination with transfer of the Pd moiety to the allylic position. This unprecedented migration generates Pd intermediate 10, which rapidly isomerizes to the corresponding π-allyl palladium species 11. This unusual process provides a new route for preparing π-allyl palladium compounds, which have proven very versatile as intermediates in organic synthesis.6 The three isomeric ester products are presumed to arise by attack of the pivalate anion on the Pd intermediate 11. This proposed mechanism indicates that the migration of Pd is always accompanied by a simultaneous migration of hydrogen in the opposite direction. Thus, the observation of a hydrogen or deuterium shift should provide convincing evidence for the Pd migration. [D5]Bromobenzene (99 % deuterium) and 4,4-dimethyl-2-pentyne were allowed to react with Pd(OAc)2 (10 mol %), dppm (1,2-bis(diphenylphosphino)methane; 10 mol %), and CsO2CCMe3 (2 equiv) in DMA at 125 °C (Scheme 2). The E and Z isomers of 4,4-dimethyl-2-phenylpent-2-enyl pivalate and 1-tert-butyl-2-phenyl-2-propenyl pivalate (18) were obtained in a ratio of 1:2:7. Ester 18 was isolated in 20 % yield and found to contain 40 % deuterium in the allylic position and 95 % hydrogen in one of the two ortho positions of the phenyl moiety (GC–MS data indicate that hydrogen is only incorporated at one of the two ortho positions). This result, except for the relatively low allylic deuterium content, is consistent with the proposed mechanism. However, the deuterium content can be increased by adding 10 equivalents of D2O to the reaction mixture. The three products were again obtained in a similar ratio, and the resulting ester 18 contained 55 % hydrogen in one ortho position of the arene and 75 % deuterium in the allylic position. Proposed formation of the deuterium-labeled product. The loss of deuterium in the allylic position probably arises by deuterium/hydrogen exchange through an equilibrium between organopalladium(IV) intermediate 12 and palladacycle 13 or direct exchange of the metal hydride/deuteride in intermediate 12. Incorporation of deuteri</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4237896723</t>
+          <t>https://openalex.org/W4296948064</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/se-2020-74</t>
+          <t>https://doi.org/10.1201/9780367811907-2</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bellò et al. (2020)</t>
+          <t>Caron (2022)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Crustal structure of southeast Australia from teleseismic receiver functions</t>
+          <t>Basic Physical Concepts of Organic Conductors</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Abstract. In an effort to improve our understanding of southeast Australia’s enigmatic tectonic evolution, we analyse teleseismic earthquakes recorded by 24 temporary and 8 permanent broadband stations using the receiver function method. Crustal thickness, bulk seismic velocity and internal crustal structure of the southern Tasmanides – an assemblage of Palaeozoic accretionary orogens that occupy eastern Australia – are constrained by our new results which point to: (1) a 39.0 ± 0.5 km thick crust, a relatively high Poisson’s ratio (0.262 ± 0.014) and a broad (&amp;gt; 10 km) crust-mantle transition beneath the Lachlan Fold Belt. This is interpreted to represent magmatic underplating of mafic materials at the base of the crust; (2) a complex crustal structure beneath VanDieland, a postulated Precambrian continental fragment embedded in the southernmost Tasmanides, where the crust thickens (37.5 ± 1.2 km) towards the northern tip of the microcontinent as it enters south central Victoria but thins south into Bass Strait (30.5 ± 2.1 km), before once again becoming thicker beneath western Tasmania (33.5 ± 1.9 km). The thinner crust beneath Bass Strait can be attributed to lithospheric stretching that resulted from the break-up of Antarctica and Australia and the opening of the Tasman Sea; (3) stations located in the East Tasmania Terrane and eastern Bass Strait (ETT+EB) collectively indicate crust of uniform thickness (∼ 33 km) and a slightly broad Moho transition that reflect a possible underplating event associated with a Palaeozoic subduction system. The relative uniformity of Vp/Vs and Poisson’s ratio in VanDieland – suggesting uniformity in composition – could be used in support of the VanDieland microcontinental model that explains the tectonic evolution of southeast Australia.</t>
+          <t>The nature of the fundamental interactions is common to all types of lowdimensional solids. They differ mostly because of the constraints imposed by the molecular arrangements. The charge-transfer salts are constructed with either (1) two species of relatively flat molecules with tt orbitals perpendicular to the planes, or (2) one molecular species with a counterion. There are also renormalization group (RG) treatments of the Coulomb interactions. The reason is that the electrons cannot possibly avoid defects or impurities in one dimension and that the backscattering part easily leads to localized states at low enough temperature. Rigorous one-dimensionality is of course a myth in organic conductors. The Coulomb interaction is inherently long range. The Peierls transition knows no boundary and can be observed in all types of organic conductors, even the ET salts, which are presumably more isotropic.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382358299</t>
+          <t>https://openalex.org/W2899831773</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.scenv.2023.100020</t>
+          <t>https://doi.org/10.3233/jad-180805</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Alencar et al. (2023)</t>
+          <t>Lu et al. (2018)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Feasibility study of incorporation of bamboo plant fibers in cement matrices</t>
+          <t>Patterns of Physical Activity and Sedentary Behavior for Older Adults with Alzheimer’s Disease, Mild Cognitive Impairment, and Cognitively Normal in Hong Kong</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>This article describes the study and development of ecological composites of bamboo (Bambusoideae) and cementitious matrix for possible applications in the construction industries. Previously, the bamboo fibers were prepared in two different granulometries (fine and thick), treated and separated into three different categories: in natura, biomass treatment at 90ºC and biomass treatment in 1% NaOH solution. Evidence of changes in the structure of the plant fiber as a function of the chemical treatment of biomass were observed both in the analysis of chemical compositions and in the spectra obtained in the infrared region. It was observed that these structural changes have a direct effect on the mechanical strength of the composites produced. Another determining factor in the improvement of mechanical performance is the curing process of the composites produced, in this case, immersion in water for 7 days presented results superior to curing only by sprinkling for the same period of time. The mechanical resistance of the specimens was analyzed according to the simple compressive strength in accordance with the methodology established by the Brazilian normative from ABNT NBR 15310:2005 for ceramic tiles. The XRD analyses indicated that the addition of bamboo vegetable fibers did not inhibit the hydration reaction in the CCBA-1-GA composite, ensuring mechanical strength, and the photomicrographs obtained from the composite showed a uniform and compact structure, without large irregularities, fractures, or pores. This structure uniformity, good hydration of the cement, associated with mechanical performance superior to that established by the ABNT NBR 15310:2005 regulation for ceramic tiles, suggests that the composites studied here are good candidates for the development of ceramic devices for different purposes in civil construction.</t>
+          <t>Background:Alzheimer’s disease (AD) is the most common form of dementia, and mild cognitive impairment (MCI) is a transitional phase between healthy cognition and dementia. Physical activity (PA) has protective effects on cognitive decline. However, few studies have examined how PA and sedentary be havior is structured throughout the day in older adults across varied cognitive status in Hong Kong. Objective:This study aimed to compare patterns of PA and sedentary behavior among individuals with AD, MCI, or normal cognition living in Hong Kong. Methods:Participants in the MrOs and MsOs Hong Kong cohort study and the Hong Kong AD biomarker study (n = 810) wore a wrist-worn accelerometer for 7 days in free-living environment. Patterns of PA in wake time and in-bed time, and detailed analysis of sedentary bouts were compared between groups using analysis of covariance adjusting for covariates. Results:Participants with MCI and low MoCA only did not differ from their cognitively normal peers in PA and sedentary behavior. Nevertheless, when comparing to the others, participants with AD exhibited significantly lower average daily counts per minute during the day (p &lt; 0.05), and tended to start their activity later in the morning. AD participants spent a larger proportion of time in sedentary behavior (p &lt; 0.05) and had more sedentary bouts≥30 minutes (p &lt; 0.05). Conclusions:The pattern of PA and sedentary behavior was different between individuals with AD and the others. Cognitive status may alter the purpose and type of PA intervention for AD individuals.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509260842</t>
+          <t>https://openalex.org/W2389529622</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lorenzetti &amp; Schumacher (2005)</t>
+          <t>Li (2008)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
+          <t>Theoretical Reflection on the Recalling Nature of 30-Year-Reform</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
+          <t>The nature of historical reflection lies in the need of the history,specific reality-based society and consciousness-based society.30-year reform and development has brought fundamental change of economic system,great development of social economy and history conversion of reform stage,and has made our society appear evident features of structurization,complexity and risk.Our country has been in certain turning point.Meanwhile,the reform also has formed mainstream consciousness system based on our Party and country's relevant theory and strategic decision and non-mainstream consciousness system on every benefit community.The contradictory and contest between the two kinds of consciousness system form negative effect on deepening reform in some degree.However,scientifically managing the theory nature of reform history reflect is correctly dealing with this reflection and solving our present contradictory,and is the key to positively push on reform and development.At present,the nature of our society reflect on reform determines multiple provision of reflection meanings,the final essence of reflection lying in establishing a positive,general and constructive theory explanation system about Chinese society evolution and development,maximally promoting the stability,development and progress of the whole society.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2204723521</t>
+          <t>https://openalex.org/W2163046816</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Morris et al. (2003)</t>
+          <t>Lee et al. (2008)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>The Paleocene/Eocene Colton Formation—Green River Formation Transition: Sedimentology and Reservoir Characterization</t>
+          <t>Adaptive output tracking control of a surface vessel</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Abstract On the south flank of the Uinta Basin, Utah, the clastic lacustrine deltaic rocks of the Paleocene/Eocene Colton Formation are transitional with the relatively clastic-rich lower portion of the lacustrine Paleocene/Eocene Green River Formation. Together, this interval of Tertiary strata contains a large volume of high quality reservoir rocks in outcrop which form part of the subsurface of the oil productive Uinta Basin. The Paleocene/Eocene Colton Formation was deposited by a siliciclastic delta into the freshwater of Lake Uinta. The sediment source for this delta was from the south and southeast. Reservoir quality rocks of the formation include a variety of fluvial sandstones and distributary mouth bar sandstones. The Colton serves as an informative outcrop analogue to fluvial-dominated delta systems because it contains multistory, low sinuosity fluvial channels in the alluvial plain and upper delta plain (bedload/anastomosing to braid-like), large laterally accreting channels in the lower portion of the upper delta plain (mixed-load/anastomosing to meandering), and small, mud-rich laterally accreting channels in the lower delta plain (suspended-load/meandering). The delta front contains high quality reservoir rock created by distributary mouth bars. It is important to recognize facies belts and the reservoir characteristics of sandstones within each facies belt if economically viable hydrocarbon accumulations are to be located in the subsurface of the Uinta Basin or in analogous depositional settings. The overlying Green River Formation was also measured from the Colton Formation contact through approximately 100 m above the Mahogany oil-shale bed. Feldspathic arenites and wackes appear to have the best ambient (non-fractured) reservoir properties. The best reservoir quality rocks appear to be concentrated in the lower 580 m of the Green River Formation because: (1) there are more arenites; (2) the arenites are thicker and have higher porosity and permeability; and (3) they contain less swelling clay. Further, limited core data from the subsurface of the Uinta Basin suggests that sandstones contain open and vertically continuous fractures relative to other lithology.</t>
+          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247776806</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5194/tc-2018-115</t>
+          <t>https://openalex.org/W1509260842</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Letterly et al. (2018)</t>
+          <t>Lorenzetti &amp; Schumacher (2005)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Arctic Climate: Changes in Sea Ice Extent Outweigh Changes in Snow Cover</t>
+          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Abstract. Recent declines in Arctic sea ice and snow extent have led to an increase in the absorption of solar energy at the surface, resulting in additional surface heating and a further decline in snow and ice. Using 34 years of satellite data, 1982–2015, we found that the trend of solar absorption over the Arctic Ocean is more than double that over Arctic land, and the magnitude of the ice-albedo feedback is four times that of the snow-albedo feedback in summer. The time of the high-to-low albedo transition each year is moving toward the high sun of the summer solstice over ocean but moving away from the summer solstice over land. Therefore, decreasing sea ice cover, not changes in terrestrial snow cover, have been the dominant radiative feedback mechanism over the last few decades and may play an even bigger role in future Arctic climate change.</t>
+          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W580254955</t>
+          <t>https://openalex.org/W2063126359</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.30-3205</t>
+          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yarrow (1993)</t>
+          <t>Warren (1984)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>European theatre 1960-1990: cross-cultural perspectives</t>
+          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>theatre has been the site of enormous change and struggle since 1960. There have been radical shifts in the nature and understanding of performance, fuelled by increasing cross-cultural and international influence. Theatre has had to fight for its very existence, adapting its methods of operation to survive. European Theatre 1960-1990 tells that story. The contributors - who in many cases have been theatre practitioners as well as critics - provide a wealth of fascinating information, much of it previously unavailable in English, covering Germany, France, Poland, Italy, Spain and Sweden, as well as Britain. The book offers an historical and descriptive overview of developments across national boundaries, enabling the reader to compare and contrast acting and directing styles, administrative strategies and the relationship between ideology and achievement. Chapters trace the evolution of theatre in all its aspects, including such elements as the end of censorship in many countries, the upsurge in political and personal awareness of the 1960s, shifting patterns of state artistic policy, and the effects on companies, directors, performers and audiences. This book should be of interest to undergraduates, postgraduates and academics of theatre studies.</t>
+          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
         </is>
       </c>
     </row>
@@ -3067,54 +3022,49 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391789038</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/awf.2024.2</t>
+          <t>https://openalex.org/W3173494788</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Keyserlingk et al. (2024)</t>
+          <t>Albert et al. (2016)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Swine industry perspectives on the future of pig farming</t>
+          <t>Sedimentos continentales del tránsito Aptiense – Albiense intercalados en carbonatos de plataforma somera (Prebético de Jaén, S de España)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
+          <t>espanolDurante el Cretacico Inferior, la Sierra de Bedmar-Jodar (Prebetico de Jaen, Cordillera Betica) constituyo un bloque basculado hacia el NE, parcialmente aislado del resto de la plataforma prebetica. En el Aptiense, se desarrollo una plataforma carbonatada muy somera, extremadamente sensible a la tectonica regional y a los cambios relativos del nivel del mar. Coincidiendo con una fase de expansion del Atlantico Central, en el transito Aptiense-Albiense, en esta plataforma se genero un pequeno graben coetaneo con un descenso relativo del nivel del mar. En este contexto se depositaron margas y margocalizas, con facies brechificadas con abundantes rizolitos que evidencian la presencia de raices de plantas y cierta edafizacion con el crecimiento de nodulos. Ademas, se formaron charcas donde se generaron facies ricas en materia organica. Dada la proximidad de estos medios palustres a la linea de costas, como consecuencia de la inestabilidad tectonica, fue posible la inundacion marina esporadica de estos ambientes y el desarrollo de una delgada capa rica en orbitolinas, que posteriormente seria cubierta por nuevos materiales palustres. Los datos sedimentologicos y la presencia de determinadas especies de carofitas (Atopochara trivolvis trivolvis, Clavator grovesii lusitanicus, Munieria grambastii) indican que en estos medios hubo amplias oscilaciones en la salinidad de las aguas. EnglishDuring the Early Cretaceous, the Sierra of Bedmar-Jodar (Prebetic of Jaen, Betic Cordillera) made up a dipping NE tilted block, partially isolated from the prebetic platform. During the Aptian, in this block a shallow carbonate platform was developed, very sensitive to regional tectonic and to the relative sea level changes. During the Aptian-Albian transition, an extensional stage of the Central Atlantic occurred; then, in the platform a graben morphology developed, together with relative low sea level conditions. As a consequence, palustrine facies begun to develop, characterized by rhizholites and some ponds filled by black marls. As the palustrine environments were close to the coast and according to the tectonic unstability, a thin bed of orbitolines was deposited. This level was covered by new palustrine sediments. The sedimentary data and the presence of some kinds of charophytes such as Atopochara trivolvis trivolvis, Clavator grovesii lusitanicus and Munieria grambastii, show that these environments had wide water salinity changes. Over these palustrine sediments a second shallow carbonate platform was built during the Early Albian. The presence of these continental sediments between two episodes of shallow carbonate platform is described firstly in the Prebetic.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1986137495</t>
+          <t>https://openalex.org/W4391789038</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m112399200</t>
+          <t>https://doi.org/10.1017/awf.2024.2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Xie et al. (2002)</t>
+          <t>Keyserlingk et al. (2024)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Role of Tyrosine Kinase Jak2 in Prolactin-induced Differentiation and Growth of Mammary Epithelial Cells</t>
+          <t>Swine industry perspectives on the future of pig farming</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Genetic studies in mice have established a critical role for prolactin receptors and transcription factor Stat5 in mammary gland differentiation. However, the enzymatic coupling between prolactin receptors and Stat5 in this process has not been established. In addition to Jak2, several other tyrosine kinases reportedly also are associated with prolactin receptors and may phosphorylate Stat5. Because Jak2 null mice die in utero, we targeted Jak2 in an ex vivo model of prolactin-induced mammary epithelial cell differentiation to determine the role of Jak2 in regulation of cell differentiation and growth. Two independent targeting strategies were used to suppress Jak2 in immortalized HC11 mouse mammary epithelial cells: 1) stable expression of a specific Jak2 antisense construct and 2) adenoviral delivery of a dominant-negative Jak2 gene. We now demonstrate that Jak2 is essential for prolactin-induced differentiation and activation of Stat5 in normal mouse mammary epithelial cells. Furthermore, suppression of Jak2 in HC11 cells was associated with constitutive activation of oncoprotein Stat3 and a hyperproliferative phenotype characterized by increased mitotic rate, reduced apoptosis, and reduced contact inhibition. Collectively, our data suggest that Jak2 is differentiation-inducing and growth-inhibitory in normal mammary epithelial cells, observations that may shed new light on the role of the Jak2-Stat5 pathway in breast cancer. Genetic studies in mice have established a critical role for prolactin receptors and transcription factor Stat5 in mammary gland differentiation. However, the enzymatic coupling between prolactin receptors and Stat5 in this process has not been established. In addition to Jak2, several other tyrosine kinases reportedly also are associated with prolactin receptors and may phosphorylate Stat5. Because Jak2 null mice die in utero, we targeted Jak2 in an ex vivo model of prolactin-induced mammary epithelial cell differentiation to determine the role of Jak2 in regulation of cell differentiation and growth. Two independent targeting strategies were used to suppress Jak2 in immortalized HC11 mouse mammary epithelial cells: 1) stable expression of a specific Jak2 antisense construct and 2) adenoviral delivery of a dominant-negative Jak2 gene. We now demonstrate that Jak2 is essential for prolactin-induced differentiation and activation of Stat5 in normal mouse mammary epithelial cells. Furthermore, suppression of Jak2 in HC11 cells was associated with constitutive activation of oncoprotein Stat3 and a hyperproliferative phenotype characterized by increased mitotic rate, reduced apoptosis, and reduced contact inhibition. Collectively, our data suggest that Jak2 is differentiation-inducing and growth-inhibitory in normal mammary epithelial cells, observations that may shed new light on the role of the Jak2-Stat5 pathway in breast cancer. Prolactin is a principal differentiation factor for human and mouse mammary epithelial cells and is required for milk production (1.Horseman N.D. Zhao W. Montecino-Rodriguez E. Tanaka M. Nakashima K. Engle S.J. Smith F. Markoff E. Dorshkind K. EMBO J. 1997; 16: 6926-6935Crossref PubMed Scopus (489) Google Scholar). However, prolactin may also stimulate mammary epithelial cell growth and act as a mammary tumor promoter (1.Horseman N.D. Zhao W. Montecino-Rodriguez E. Tanaka M. Nakashima K. Engle S.J. Smith F. Markoff E. Dorshkind K. EMBO J. 1997; 16: 6926-6935Crossref PubMed Scopus (489) Google Scholar, 2.Wennbo H. Gebre-Medhin M. Gritli-Linde A. Ohlsson C. Isaksson O.G. Tornell J. J. Clin. Invest. 1997; 100: 2744-2751Crossref PubMed Scopus (178) Google Scholar). Identifying the roles of individual signaling molecules and pathways activated by prolactin in normal mammary epithelial cells is therefore needed to better understand the role of prolactin in breast cancer.Prolactin activates tyrosine kinase Jak2 1The abbreviations used are: JakJanus kinaseStatsignal transducer and activator of transcriptionPrlprolactinPrlRprolactin receptorAdvadenovirusm.o.i.: multiplicity of infectionWt, wild typeDndominant-negativeEGFepidermal growth factormAbmonoclonal antibodypAbpolyclonal antibodyDAPI4′,6-diamidino-2-phenyl-indoleTUNELterminal deoxynucleotidyl transferase-mediated dUTP nick end labelingPBSphosphate-buffered saline1The abbreviations used are: JakJanus kinaseStatsignal transducer and activator of transcriptionPrlprolactinPrlRprolactin receptorAdvadenovirusm.o.i.: multiplicity of infectionWt, wild typeDndominant-negativeEGFepidermal growth factormAbmonoclonal antibodypAbpolyclonal antibodyDAPI4′,6-diamidino-2-phenyl-indoleTUNELterminal deoxynucleotidyl transferase-mediated dUTP nick end labelingPBSphosphate-buffered saline(3.Rui H. Kirken R.A. Farrar W.L. J. Biol. Chem. 1994; 269: 5364-5368Abstract Full Text PDF PubMed Google Scholar) and transcription factor Stat5 (4.Wakao H. Gouilleux F. Groner B. EMBO J. 1994; 13: 2182-2191Crossref PubMed Scopus (712) Google Sc</t>
+          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
         </is>
       </c>
     </row>
@@ -3143,3788 +3093,3472 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280554633</t>
+          <t>https://openalex.org/W3048264654</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/5.0094890</t>
+          <t>https://doi.org/10.1016/j.epsl.2020.116491</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chen &amp; Wang (2022)</t>
+          <t>Knudsen et al. (2020)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Plasmon-driven oxidative coupling of aniline-derivative adsorbates: A comparative study of &lt;i&gt;para&lt;/i&gt;-ethynylaniline and &lt;i&gt;para&lt;/i&gt;-mercaptoaniline</t>
+          <t>New cosmogenic nuclide burial-dating model indicates onset of major glaciations in the Alps during Middle Pleistocene Transition</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Plasmon-driven photocatalysis has emerged as a paradigm-shifting approach, based on which the energy of photons can be judiciously harnessed to trigger interfacial molecular transformations on metallic nanostructure surfaces in a regioselective manner with nanoscale precision. Over the past decade, the formation of aromatic azo compounds through plasmon-driven oxidative coupling of thiolated aniline-derivative adsorbates has become a testbed for developing detailed mechanistic understanding of plasmon-mediated photochemistry. Such photocatalytic bimolecular coupling reactions may occur not only between thiolated aniline-derivative adsorbates but also between their nonthiolated analogs. How the nonthiolated adsorbates behave differently from their thiolated counterparts during the plasmon-driven coupling reactions, however, remains largely unexplored. Here, we systematically compare an alkynylated aniline-derivative, para-ethynylaniline, to its thiolated counterpart, para-mercaptoaniline, in terms of their adsorption conformations, structural flexibility, photochemical reactivity, and transforming kinetics on Ag nanophotocatalyst surfaces. We employ surface-enhanced Raman scattering as an in situ spectroscopic tool to track the detailed structural evolution of the transforming molecular adsorbates in real time during the plasmon-driven coupling reactions. Rigorous analysis of the spectroscopic results, further aided by density functional theory calculations, lays an insightful knowledge foundation that enables us to elucidate how the alteration of the chemical nature of metal-adsorbate interactions profoundly influences the transforming behaviors of the molecular adsorbates during plasmon-driven photocatalytic reactions.</t>
+          <t>A set of four outwash terraces in the northern Alpine Foreland motivated Penck and Brückner's classical scheme of four great Alpine ice ages: Günz, Mindel, Riss, and Würm. While it is now established that the Würm corresponds to marine isotope stages (MIS) 5d–2 (∼117–14 ka) and the Riss type locality to MIS 6 (∼191–130 ka), there is no consensus regarding the age of the older glaciations. The two oldest terraces, known as Höhere Deckenschotter (HDS) and Tiefere Deckenschotter (TDS) in Switzerland and neighbouring Germany, contain interbedded tills that directly indicate the first arrival of glaciers into the northern Alpine Foreland. Here, we set out to constrain the timing of the HDS, which signal the first major glaciations in the Alps. To achieve this goal, we devised a new burial-dating model tailored to glaciogenic sediments: P-PINI (Particle Pathway Inversion of Nuclide Inventories). The method applies a source-to-sink framework to a cosmogenic 10Be-26Al inversion model accounting for variable cosmic-ray exposure and non-steady erosion. Taking published 10Be-26Al data from five HDS sites (Feusi, Tromsberg, Siglistorf, Irchel Steig, and Irchel Hütz) and one TDS site (Iberig), we obtain age distributions (±1σ) that are especially well constrained for Feusi (0.93 ± 0.13 Ma), Iberig (0.93 ± 0.17 Ma), and Tromsberg (0.88 ± 0.14 Ma), less well-constrained for Irchel Steig (0.69 ± 0.25 Ma) and Siglistorf (0.94 ± 0.27 Ma), and very poorly constrained for Irchel Hütz (1.39 ± 0.56 Ma). Consistent with the morphostratigraphy, which dictates that the TDS postdates the HDS, we implemented a Bayesian modelling framework, yielding an age of 0.69 ± 0.12 Ma for Iberig (TDS) and a combined age of 0.95 ± 0.07 Ma for the HDS sites. Based on the P-PINI burial ages as well as the combined, Bayesian burial age, we propose an age around 1.0–0.9 Ma for the onset of the large Alpine glaciations that triggered the accumulation of the HDS outwash sediments. This roughly accords with the first long glaciation of the Pleistocene (MIS 24–22), identified as a step-change to colder climate and larger glaciations towards the end of the Middle Pleistocene Transition. While our results challenge previously reported ages of ∼2 Ma or more for the HDS in Switzerland, they corroborate evidence from the southern Alpine retroforeland and provide quantitative support for the early hypothesis by G.J. Kukla, who ascribed the oldest glacial deposits in the northern Alpine Foreland to around MIS 22. Finally, we suggest that the source-to-sink approach of P-PINI offers a viable alternative to the established isochron burial-dating method in cases involving non-steady exposure and erosion.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307446190</t>
+          <t>https://openalex.org/W4280554633</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fimmu.2022.1013049</t>
+          <t>https://doi.org/10.1063/5.0094890</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Xiang et al. (2022)</t>
+          <t>Chen &amp; Wang (2022)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CAPN8 involves with exhausted, inflamed, and desert immune microenvironment to influence the metastasis of thyroid cancer</t>
+          <t>Plasmon-driven oxidative coupling of aniline-derivative adsorbates: A comparative study of &lt;i&gt;para&lt;/i&gt;-ethynylaniline and &lt;i&gt;para&lt;/i&gt;-mercaptoaniline</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Thyroid cancer (THCA) is the most prevalent malignant disease of the endocrine system, in which 5-year survival can attain about 95%, but patients with metastasis have a poor prognosis. Very little is known about the role of CAPN8 in the metastasis of THCA. In particular, the effect of CAPN8 on the tumor immune microenvironment (TIME) and immunotherapy response is unclear.Multiome datasets and multiple cohorts were acquired for analysis. Firstly, the expression and the prognostic value of CAPN8 were explored in public datasets and in vitro tumor tissues. Then, hierarchical clustering analysis was performed to identify the immune subtypes of THCA according to the expression of CAPN8 and the activities of related pathways. Subsequent analyses explored the different patterns of TIME, genetic alteration, DNA replication stress, drug sensitivity, and immunotherapy response among the three immune phenotypes. Finally, five individual cohorts of thyroid cancer were utilized to test the robustness and extrapolation of the three immune clusters.CAPN8 was found to be a significant risk factor for THCA with a markedly elevated level of mRNA and protein in tumor tissues. This potential oncogene could induce the activation of epithelial-mesenchymal transition and E2F-targeted pathways. Three subtypes were identified for THCA, including immune exhausted, inflamed, and immune desert phenotypes. The exhausted type was characterized by a markedly increased expression of inhibitory receptors and infiltration of immune cells but was much more likely to respond to immunotherapy. The immune desert type was resistant to common chemotherapeutics with extensive genomic mutation and copy number variance.The present study firstly explored the role of CAPN8 in the metastasis of THCA from the aspects of TIME. Three immune subtypes were identified with quite different patterns of prognosis, immunotherapy response, and drug sensitivity, providing novel insights for the treatment of THCA and helping understand the cross-talk between CAPN8 and tumor immune microenvironment.</t>
+          <t>Plasmon-driven photocatalysis has emerged as a paradigm-shifting approach, based on which the energy of photons can be judiciously harnessed to trigger interfacial molecular transformations on metallic nanostructure surfaces in a regioselective manner with nanoscale precision. Over the past decade, the formation of aromatic azo compounds through plasmon-driven oxidative coupling of thiolated aniline-derivative adsorbates has become a testbed for developing detailed mechanistic understanding of plasmon-mediated photochemistry. Such photocatalytic bimolecular coupling reactions may occur not only between thiolated aniline-derivative adsorbates but also between their nonthiolated analogs. How the nonthiolated adsorbates behave differently from their thiolated counterparts during the plasmon-driven coupling reactions, however, remains largely unexplored. Here, we systematically compare an alkynylated aniline-derivative, para-ethynylaniline, to its thiolated counterpart, para-mercaptoaniline, in terms of their adsorption conformations, structural flexibility, photochemical reactivity, and transforming kinetics on Ag nanophotocatalyst surfaces. We employ surface-enhanced Raman scattering as an in situ spectroscopic tool to track the detailed structural evolution of the transforming molecular adsorbates in real time during the plasmon-driven coupling reactions. Rigorous analysis of the spectroscopic results, further aided by density functional theory calculations, lays an insightful knowledge foundation that enables us to elucidate how the alteration of the chemical nature of metal-adsorbate interactions profoundly influences the transforming behaviors of the molecular adsorbates during plasmon-driven photocatalytic reactions.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2316350957</t>
+          <t>https://openalex.org/W2052755330</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jp201042t</t>
+          <t>https://doi.org/10.1097/00001648-199709000-00015</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Ye et al. (2011)</t>
+          <t>Forastiére et al. (1997)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Modulating ZnO Nanostructure Arrays on Any Substrates by Nanolevel Structure Control</t>
+          <t>Socioeconomic Status, Number of Siblings, and Respiratory Infections in Early Life as Determinants of Atopy in Children</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A uniform high-aspect-ratio nanotextured surface with a very dense forest of vertically aligned nanowires that was produced by surface chemical postfabrication of ZnO was induced by a structural transformation at the nanolevel. X-ray photoelectron spectroscopy verified the formation of the heterogeneous surface structures (GaOx on GaN and AuOx on Au) at the nanolevel as well as the modification of surface stoichiometry by UV/ozone treatment. The structural transformation contributes to generating a surface charge, acting as nucleation sites for nanotip growth. This led to a significant increase in density and improvement in diameter of the nanotips for various substrates, such as ZnO, Au, GaN, and graphene. However, the surface oxygen by O2 plasma treatment reduced the activity as activation sites of the exposed surface, resulting in the decrease of the density of the nanotips. This rational engineering of substrates by a structural transformation at the nanolevel may provide a promising method for producing highly dense one-dimensional nanomaterials.</t>
+          <t>The associations between arsenic ingestion and cancers of the bladder and kidney have been documented in Taiwan. To evaluate further such associations for urinary cancers of various cell types, we conducted an ecologic study encompassing 243 townships using cancer registry data of patients diagnosed between 1980 and 1987. We used the proportions of wells with various specified arsenic levels in each township as indicators of exposure and evaluated the effects of urbanization and smoking by an urbanization index and the number of cigarettes sold per capita. In both genders, we observed associations of high arsenic levels in drinking water with transitional cell carcinomas of the bladder, kidney, and ureter and all urethral cancers combined. We also observed such associations in adenocarcinomas of the bladder in males, but not in squamous cell carcinomas of the bladder or renal cell carcinomas or nephroblastomas of the kidney. There was also a positive association between the urbanization index and transitional cell carcinomas of the ureter in males. The number of cigarettes sold per capita was not a good predictor for urinary cancers. The results indicate that the carcinogenicity of arsenic may be cell type specific.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2220286890</t>
+          <t>https://openalex.org/W2315843221</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4236/jmp.2015.615235</t>
+          <t>https://doi.org/10.1021/jp400554h</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Fung &amp; Wong (2015)</t>
+          <t>Saed &amp; Omidyan (2013)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>On the Origin of Mass and Angular Momentum of Stellar Objects</t>
+          <t>Electronically Excited States of Protonated Aromatic Hydrocarbons: Phenanthrene and Pyrene</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The consequence of the 5D projection theory [1] is extended beyond the Gell-Mann Standard Model for hadrons to cover astronomical objects and galaxies.The proof of Poincare conjecture by Perelman's differential geometrical techniques led us to the consequence that charged massless spinors reside in a 5D void of a galactic core, represented by either an open 5D core or a closed, time frozen, 3D × 1D space structure, embedded in massive structural stellar objects such as stars and planets.The open galactic core is obtained from Ricci Flow mapping.There exist in phase, in plane rotating massless spinors within these void cores, and are responsible for 1) the outward spiral motion of stars in the galaxy in the open core, and 2) self rotations of the massive stellar objects.It is noted that another set of eigen states pertaining to the massless charged spinor pairs rotating out of phase in 1D (out of the 5D manifold) also exist and will generate a relatively weak magnetic field out of the void core.For stars and planets, it forms the intrinsic dipole field.Due to the existence of a homogeneous 5D manifold from which we believe the universe evolves, the angular momentum arising from the rotation of the in-phase spinor pairs is proposed to be counter-balanced by the rotation of the matter in the surrounding Lorentz domain, so as to conserve net zero angular momentum.Explicit expression for this total angular momentum in terms of a number of convergent series is derived for the totally enclosed void case/core, forming in general the structure of a star or a planet.It is shown that the variables/parameters in the Lorentz spacetime domain for these stellar objects involve the object's mass M, the object's Radius R, period of rotation P, and the 5D void radius Ro, together with the Fermi energy E f and temperature T of the massless charged spinors residing in the void.We discovered three laws governing the relationships between R o /R, T, E f and the angular momentum Iω of such astronomical object of interest, from which we established two distinct regions, which we define as the First and Second Laws for the evolution of the stellar object.The Fermi energy E f was found to be that of the electron mass, as it is the lightest massive elementary particle that could be created from pure energy in the core.In fact the mid-temperature of the transition region between the First and Second Law regions for this E f value is 5.3 × 10 9 K, just about that of the Bethe fusion temperature.We then apply our</t>
+          <t>The first and second electronic excited states (S1 and S2) of protonated phenanthrene and protonated pyrene, having the ππ* nature, are strongly red-shifted compared to corresponding electronic transitions in neutral homologues. The CC2 calculations identify an out-of-plane deformation as the most important photochemical reaction coordinate in protonated phenanthrene as well as protonated benzene. It was shown that the excited S1 states of protonated phenanthrene and protonated benzene are unstable via a torsional motion, which provides a fast access to a S1-S0 conical intersection. From the conical intersection, a barrier-less reaction path directs the system back to the minimum of the S0 potential-energy surface. In contrast to the most stable isomer of protonated phenanthrene, the most stable structure of protonated pyrene shows planar structure in both the S1 and S2 excited states, without considerable geometry deformations.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2362830977</t>
+          <t>https://openalex.org/W4361005872</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/land12040747</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Zuo (2011)</t>
+          <t>Peña-Rodríguez et al. (2023)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Rapid Improvement of Saline Soil in Greenhouse Cultivation of Technical Measures</t>
+          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>The agricultural transformation across the development,located in Datong City,alpine region stepped forward agricultural facilities.Agriculture to the current facilities as the main greenhouse and shed mode,has formed specialized,industry business structure.The rapid expansion of the scale,the limitations on land use,greenhouse construction has been part of the ground in saline wasteland,resolved to not compete with the grain,but also accelerated the development and utilization of saline land.But how quickly improve the salinization of soil in greenhouse,by adjusting the analysis of farming techniques proposed measures.</t>
+          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315843221</t>
+          <t>https://openalex.org/W3194478052</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jp400554h</t>
+          <t>https://doi.org/10.1016/j.commatsci.2021.110810</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Saed &amp; Omidyan (2013)</t>
+          <t>Hu et al. (2021)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Electronically Excited States of Protonated Aromatic Hydrocarbons: Phenanthrene and Pyrene</t>
+          <t>Unraveling surface functionalization of Cr2B2T2 (T = OH, O, Cl, H) MBene by first-principles calculations</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>The first and second electronic excited states (S1 and S2) of protonated phenanthrene and protonated pyrene, having the ππ* nature, are strongly red-shifted compared to corresponding electronic transitions in neutral homologues. The CC2 calculations identify an out-of-plane deformation as the most important photochemical reaction coordinate in protonated phenanthrene as well as protonated benzene. It was shown that the excited S1 states of protonated phenanthrene and protonated benzene are unstable via a torsional motion, which provides a fast access to a S1-S0 conical intersection. From the conical intersection, a barrier-less reaction path directs the system back to the minimum of the S0 potential-energy surface. In contrast to the most stable isomer of protonated phenanthrene, the most stable structure of protonated pyrene shows planar structure in both the S1 and S2 excited states, without considerable geometry deformations.</t>
+          <t>Synthesis of two-dimensional (2D) materials by wet-chemical methods is usually accompanied by surface functionalization, which plays critical roles in stabilizing and functionalizing the targeted materials. These termination reactions can bring thermodynamically stable products and versatile applications, however, leaving experimental characterization of surface structures challenging as well. In this work, newly emerging 2D conductive transition metal borides, Cr2B2 MBene is selected as a prototype to investigate the surface functionalization phenomenon. By first-principles calculation plus efficient structural exploration, we provide an atomistic understanding of the chemical origin and kinetics of surface functionalization occurred in aqueous environment, and screen the surface structure of Cr2B2T2 (T = OH, O, Cl, and H) MBenes. Results clearly unravel the functionalization process of MBenes and the stable surface structures of functionalized MBenes. It is found that both H2O and HCl molecules can split on the bare Cr2B2 in a nearly spontaneous manner, enabling functionalization of Cr2B2T2. Binding energy of termination groups on Cr2B2 quantifies the relative stability of functionalized Cr2B2T2 in the order: Cr2B2O2 &gt; Cr2B2Cl2 &gt; Cr2B2(OH)2 &gt; Cr2B2H2. Furthermore, we demonstrate that both Cr2B2 and functionalized Cr2B2T2 MBenes are electronically conductive 2D materials with zero band gap, which is beneficial for electrochemical applications.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911707311</t>
+          <t>https://openalex.org/W2020137585</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.29244/jitkt.v10i3.21182</t>
+          <t>https://doi.org/10.1097/01.asn.0000112912.40303.81</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tambun et al. (2018)</t>
+          <t>Brunskill (2004)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ZONA POTENSIAL PENANGKAPAN IKAN BERDASARKAN MUSIM DI WPPNRI 718</t>
+          <t>Albumin Signals the Coming of Age of Proteinuric Nephropathy</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ABSTRAKPenelitian ini dipresentasikan sebagai langkah awal (pilot project) dalam pengelolaan daerah penangkapan ikan berbasis spasial untuk Zona Potensial Penangkapan Ikan (ZPPI) di laut Aru, Laut Arafuru dan laut Timor bagian timur (WPPNRI 718). Lokasi pada 128°-141° BT (Bujur Timur) dan 4° -11° LS (Lintang Selatan). Tujuan dari penelitian ini adalah membuat peta tematik ZPPI yang lebih komperehensif dan mengidentifikasi ZPPI berdasarkan musim pada wilayah perairan yang lebih spesifik. Penelitian ini dilakukan pada bulan Januari sampai dengan November 2016. Lokasi pengolahan data dilakukan di Laboratorium Komputer Departemen PSP FPIK-IPB. Data primer yang digunakan yakni informasi daerah penangkapan ikan yang berasal dari PPDPI (KKP) pada periode tahun 2013-2016, data sekunder dari Peta Laut digitizer Hidros no. 151 Papua dan Pulau-Pulau sekitarnya. Analisis dan pembuatan peta tematik menggunakan software MapInfo Pro 15. Hasil total ZPPI untuk musim pancaroba 1 (297 ZPPI), musim barat (264 ZPPI), musim timur (166 ZPPI), dan musim pancaroba 2 (86 ZPPI). Total ZPPI berdasarkan wilayah perairan pada Laut Aru (507 ZPPI), Laut Arafuru (261 ZPPI), dan Laut Timor (45 ZPPI), laut Aru dan laut Arafuru merupakan daerah penangkapan ikan yang potensial karena kesuburan perairan (kandungan klorofil-a yang tinggi), kedalaman perairan yang relatif dangkal dan munculnya fenomena upwelling. ABSTRACTThis study was presented as a pilot project in the management of spatially based fishing grounds for the Fish Catching Potential Zone (FCPZ) in the Aru Sea, Arafuru Sea and East Timor Sea (WPPNRI 718). Located at 128°-141° East (East Longitude) and 4°-11° South (South Latitude). The purpose of this study is to make a more comprehensive FCPZ thematic map and identify FCPZ based on the seasons in more specific waters. This research was conducted from January to November 2016. The location of data processing was carried out at the Computer Laboratory of the Department of PSP FPIK-IPB. The primary data used are information on fishing grounds originating from PPDPI (KKP) in the 2013-2016 period, secondary data from the Sea Map of the Hidros digitizer no.151 Papua and the surrounding Islands. Analysis and thematic map creation using MapInfo Pro 15 software. Total ZPPI results for transition season 1 (297 FCPZ), west season (264 FCPZ), east season (166 FCPZ), and transition 2 (86 FCPZ). Total FCPZ based on the territorial waters of the Aru Sea (507 FCPZ), Arafuru Sea (261 FCPZ), and the Timor Sea (45 FCPZ), Aru sea and Arafuru sea are potential fishing grounds due to aquatic fertility (high chlorophyll-a content), relatively shallow water depths and the emergence of upweling phenomena.</t>
+          <t>The great majority of progressive renal diseases are associated with the development of a common renal histological lesion known as the end-stage kidney, characterized by prominent interstitial inflammation and scarring, together with fibrosis and gross tubular atrophy. Declining renal function correlates extremely closely with these developing changes in the renal tubulointerstitium (1), and these observations have led to a hypothesis that suggests that, whatever the initiating renal insult, a common pathophysiological process is precipitated, which culminates in the development of the end-stage kidney. Investigators have therefore sought to identify factors common to the majority of renal diseases that may be responsible for the development of this pathological lesion. Proteinuria, manifest predominantly as albuminuria, is a poor prognostic sign and an almost universal finding in patients with progressive renal diseases. It has been postulated therefore that excess protein exerts a toxic effect on the proximal tubular epithelial cell, damaging the cells and thus initiating interstitial inflammation and scarring (2). Protein-mediated, particularly albumin-mediated, effects on proximal tubular cells have been subject to intense study. As well as illuminating our understanding of renal disease mechanisms, the results of these studies have changed our perception of albumin from that of an intrinsically uninteresting molecule, at least in a pathophysiological sense, to that of a key mediator of signaling and phenotype in the proximal tubule. In this issue of JASN, Nakajima et al (3) challenge our preconceptions by demonstrating activation of the signal transducer and activator of transcription (STAT) proteins by albumin in proximal tubular cells. The study also reveals how information derived from genomic studies may be interpreted and rationally translated into significant functional information of direct relevance to cell biology. These observations are important because STAT protein activation is involved in a wide array of signaling pathways and provides a universal paradigm for signaling from cytokine receptors as well as being a module used by many growth factor receptors (4). The data from Nakajima et al (3) therefore suggest that albumin may stimulate proximal tubular cells in the manner of a cytokine. Understanding the mechanism of protein, especially albumin, interactions with the proximal tubular cells is clearly key to understanding how cell activation may occur. Appreciable quantities of albumin enter the proximal tubule in normal individuals. After filtration, albumin binds to the giant receptors megalin and cubilin in proximal tubular cells (5), although the relative paucity of urinary albumin in kidney-specific megalin knockout mice (6) suggests other receptors may be involved. Binding is followed by endocytosis, and these processes are accompanied by activation of numerous enzymes, particularly kinases, involved in intracellular signaling such as extracellular signal-regulated mitogen-activated protein kinase, phosphatidylinositol 3-kinase, p70S6 kinase, c-jun terminal kinase (JNK), and protein kinase C (7–10). How albumin, sometimes at very low concentrations, transduces these signals is not well understood. Some may be mediated via megalin (11), and others may require internalization and degradation of albumin with the generation of other intermediates such as reactive oxygen species. Stimulation of extracellular signaling pathways by albumin results in transcription factor activation. These include the STAT proteins as currently described by Nakajima et al(3) and NF-κB as previously demonstrated by several authors (12,13). The net result of proximal tubular cell exposure to albumin is the production of a cocktail of chemoattractants, pro-fibrotic agents, matrix proteins, and vasoconstrictive agents by PTEC. Specific examples include MCP-1, RANTES, IL-8, platelet-derived growth factor, TGF-β, endothelin, fibronectin, and collagen (10,12–19). This complex mixture of pro-inflammatory substances and growth factors attracts macrophages into the tubulointerstitium and may induce changes in proximal tubular cell growth characteristics and/or precipitate epithelial-mesenchymal transition with transdifferentiation of proximal tubular cells into myofibroblasts (20,21). The data from Nakajima et al (3) therefore adds to a growing body of in vitro and in vivo evidence that strongly implicates proteinuria as a crucial factor in the pathogenesis of chronic renal injury. Furthermore exciting new data contribute a fresh dimension to the story by incriminating albumin as a central mediator of fluid retention in nephrosis. Both in nephrotic rats and in cultured proximal tubular cells, albumin per se is able to positively regulate activity of the Na+/H+ exchanger 3 (NHE-3) through effects on NHE-3 protein abundance and trafficking (22). One potential consequence of these changes is enhancement of Na+ reabsorp</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361005872</t>
+          <t>https://openalex.org/W4231360178</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/land12040747</t>
+          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Peña-Rodríguez et al. (2023)</t>
+          <t>Burton (2021)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
+          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313515625</t>
+          <t>https://openalex.org/W2803057429</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/ijerph20010861</t>
+          <t>https://doi.org/10.1093/oso/9780199393671.003.0005</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>King et al. (2023)</t>
+          <t>Songster (2018)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>An Urgent Call to Integrate the Health Sector into the Post-2020 Global Biodiversity Framework</t>
+          <t>Pandas Are Red</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>There is a rapidly closing window of opportunity to stop biodiversity loss and secure the resilience of all life on Earth. In December 2022, Parties to the United Nations (UN) Convention on Biological Diversity (CBD) will meet in Montreal, Canada, to finalize the language and terms of the Post-2020 Global Biodiversity Framework (Post-2020 GBF). The Post-2020 GBF aims to address the shortcomings of the previous Strategic Plan on Biodiversity 2011-2020, by introducing a Theory of Change, that states that biodiversity protection will only be successful if unprecedented, transformative changes are implemented effectively by Parties to the CBD. In this policy perspective, we explore the implications of the Theory of Change chosen to underpin the Post-2020 GBF, specifically that broad social transformation is an outcome that requires actors to be specified. We detail how the health sector is uniquely positioned to be an effective actor and ally in support of the implementation of the Post-2020 GBF. Specifically, we highlight how the core competencies and financial and human resources available in the health sector (including unique knowledge, skill sets, experiences, and established trust) provide a compelling, yet mostly untapped opportunity to help create and sustain the enabling conditions necessary to achieve the goals and targets of the framework. While by no means a panacea for the world's biodiversity problems, we posit that explicitly omitting the health sector from the Post-2020 GBF substantially weakens the global, collective effort to catalyze the transformative changes required to safeguard biodiversity.</t>
+          <t>Many advances gained in nature protection efforts during the early 1960s were brought to a screeching halt with the onset of China’s Cultural Revolution (1966-1976). The Wanglang Nature Reserve, however, hosted representatives from China’s top scientific institutes on the first species-specific giant panda survey in 1967. This event brings to light a narrative parallel to the well-known “decade of chaos”. During this era the government endorsed many scientific endeavors designed to highlight the glory of China’s nature and advertise its scientific prowess. In addition to being a scientific subject, the giant panda also became a popular expression of nationalism during this era. The giant panda was repeatedly reproduced as a politically safe image and demonstrated surprising durability against the ever-changing political winds of this decade.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4363625421</t>
+          <t>https://openalex.org/W3082871417</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.energy.2023.127482</t>
+          <t>https://doi.org/10.1016/j.ijintrel.2020.08.008</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Wang et al. (2023)</t>
+          <t>Gebregergis et al. (2020)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Gas recovery from marine hydrate reservoir: Experimental investigation on gas flow patterns considering pressure effect</t>
+          <t>The impact of emotional intelligence on depression among international students studying in China: The mediating effect of acculturative stress</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Accurate acquisition of fluid flow patterns is crucial for economic exploitation and production prediction of hydrate-bearing sediments (HBSs). In this study, the clayey-silt marine sediments obtained from the South China Sea are used to remold core to investigate the effects of hydrate saturation, effective stress, pore pressure and osmotic pressure on the gas flow patterns. The results indicate that when the hydrate saturation is increased from 24.73% to 48.34%, the gas flow transitions from viscous flow to slip flow, and the gas slippage effect gets more and more pronounced with increasing hydrate saturation. The increase in effective stress leads to an increased sensitivity of gas permeability to changes in osmotic pressure, and it is more obvious at lower hydrate saturation. Elevated pore pressure leads to a small decrease in gas permeability but does not alter the flow pattern of fluid flow in the marine sediment. In addition, reducing the osmotic pressure can effectively weaken the slippage effect. Viscous flow and slip flow control the type of gas flow in HBSs, but slip flow dominates. Finally, a semi-empirical permeability model that considers the effect of hydrate saturation and effective stress on gas permeability is fitted with experimental data.</t>
+          <t>Psychological resources such as emotional intelligence are claimed to act as protective factors against negative psychological adjustment outcomes of acculturative stress and depression for international students in their intercultural transition in the host country despite the dearth of substantial empirical evidence. With this in mind, the study was conducted to investigate the relationships between emotional intelligence, acculturative stress and depression. The study recruited international university students (N = 506) who were purposefully drawn from seven Chinese universities located in Wuhan. Participants completed three self-report questionnaires: Emotional Intelligence Scale, Acculturative Stress for International Students scale and Center for Epidemiological Studies Depression Scale. The result of the study revealed that students with a higher level of acculturative stress were found to have greater depressive symptoms. The study also indicated that emotionally intelligent students were likely to experience a lower level of acculturative stress and fewer depressive symptoms. The finding of the study further suggested that students with a higher level of emotional intelligence were likely to experience a lower level of acculturative stress and consequently appeared less depressed. Findings of the present study may assist university communities to have an insight into the nature of emotional intelligence and its impact on acculturative stress and depression, and then make the best use of this insight to work on facilitating the psychological adaptation of international students in the new environment. Implications, limitations, and future research directions for the study are discussed.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020137585</t>
+          <t>https://openalex.org/W2031176627</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.asn.0000112912.40303.81</t>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brunskill (2004)</t>
+          <t>Bongiovanni et al. (2014)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Albumin Signals the Coming of Age of Proteinuric Nephropathy</t>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The great majority of progressive renal diseases are associated with the development of a common renal histological lesion known as the end-stage kidney, characterized by prominent interstitial inflammation and scarring, together with fibrosis and gross tubular atrophy. Declining renal function correlates extremely closely with these developing changes in the renal tubulointerstitium (1), and these observations have led to a hypothesis that suggests that, whatever the initiating renal insult, a common pathophysiological process is precipitated, which culminates in the development of the end-stage kidney. Investigators have therefore sought to identify factors common to the majority of renal diseases that may be responsible for the development of this pathological lesion. Proteinuria, manifest predominantly as albuminuria, is a poor prognostic sign and an almost universal finding in patients with progressive renal diseases. It has been postulated therefore that excess protein exerts a toxic effect on the proximal tubular epithelial cell, damaging the cells and thus initiating interstitial inflammation and scarring (2). Protein-mediated, particularly albumin-mediated, effects on proximal tubular cells have been subject to intense study. As well as illuminating our understanding of renal disease mechanisms, the results of these studies have changed our perception of albumin from that of an intrinsically uninteresting molecule, at least in a pathophysiological sense, to that of a key mediator of signaling and phenotype in the proximal tubule. In this issue of JASN, Nakajima et al (3) challenge our preconceptions by demonstrating activation of the signal transducer and activator of transcription (STAT) proteins by albumin in proximal tubular cells. The study also reveals how information derived from genomic studies may be interpreted and rationally translated into significant functional information of direct relevance to cell biology. These observations are important because STAT protein activation is involved in a wide array of signaling pathways and provides a universal paradigm for signaling from cytokine receptors as well as being a module used by many growth factor receptors (4). The data from Nakajima et al (3) therefore suggest that albumin may stimulate proximal tubular cells in the manner of a cytokine. Understanding the mechanism of protein, especially albumin, interactions with the proximal tubular cells is clearly key to understanding how cell activation may occur. Appreciable quantities of albumin enter the proximal tubule in normal individuals. After filtration, albumin binds to the giant receptors megalin and cubilin in proximal tubular cells (5), although the relative paucity of urinary albumin in kidney-specific megalin knockout mice (6) suggests other receptors may be involved. Binding is followed by endocytosis, and these processes are accompanied by activation of numerous enzymes, particularly kinases, involved in intracellular signaling such as extracellular signal-regulated mitogen-activated protein kinase, phosphatidylinositol 3-kinase, p70S6 kinase, c-jun terminal kinase (JNK), and protein kinase C (7–10). How albumin, sometimes at very low concentrations, transduces these signals is not well understood. Some may be mediated via megalin (11), and others may require internalization and degradation of albumin with the generation of other intermediates such as reactive oxygen species. Stimulation of extracellular signaling pathways by albumin results in transcription factor activation. These include the STAT proteins as currently described by Nakajima et al(3) and NF-κB as previously demonstrated by several authors (12,13). The net result of proximal tubular cell exposure to albumin is the production of a cocktail of chemoattractants, pro-fibrotic agents, matrix proteins, and vasoconstrictive agents by PTEC. Specific examples include MCP-1, RANTES, IL-8, platelet-derived growth factor, TGF-β, endothelin, fibronectin, and collagen (10,12–19). This complex mixture of pro-inflammatory substances and growth factors attracts macrophages into the tubulointerstitium and may induce changes in proximal tubular cell growth characteristics and/or precipitate epithelial-mesenchymal transition with transdifferentiation of proximal tubular cells into myofibroblasts (20,21). The data from Nakajima et al (3) therefore adds to a growing body of in vitro and in vivo evidence that strongly implicates proteinuria as a crucial factor in the pathogenesis of chronic renal injury. Furthermore exciting new data contribute a fresh dimension to the story by incriminating albumin as a central mediator of fluid retention in nephrosis. Both in nephrotic rats and in cultured proximal tubular cells, albumin per se is able to positively regulate activity of the Na+/H+ exchanger 3 (NHE-3) through effects on NHE-3 protein abundance and trafficking (22). One potential consequence of these changes is enhancement of Na+ reabsorp</t>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3082871417</t>
+          <t>https://openalex.org/W1976717535</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijintrel.2020.08.008</t>
+          <t>https://doi.org/10.1093/mnras/262.2.359</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Gebregergis et al. (2020)</t>
+          <t>Crosas &amp; Weisheit (1993)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The impact of emotional intelligence on depression among international students studying in China: The mediating effect of acculturative stress</t>
+          <t>Hydrogen molecules in quasar broad-line regions</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Psychological resources such as emotional intelligence are claimed to act as protective factors against negative psychological adjustment outcomes of acculturative stress and depression for international students in their intercultural transition in the host country despite the dearth of substantial empirical evidence. With this in mind, the study was conducted to investigate the relationships between emotional intelligence, acculturative stress and depression. The study recruited international university students (N = 506) who were purposefully drawn from seven Chinese universities located in Wuhan. Participants completed three self-report questionnaires: Emotional Intelligence Scale, Acculturative Stress for International Students scale and Center for Epidemiological Studies Depression Scale. The result of the study revealed that students with a higher level of acculturative stress were found to have greater depressive symptoms. The study also indicated that emotionally intelligent students were likely to experience a lower level of acculturative stress and fewer depressive symptoms. The finding of the study further suggested that students with a higher level of emotional intelligence were likely to experience a lower level of acculturative stress and consequently appeared less depressed. Findings of the present study may assist university communities to have an insight into the nature of emotional intelligence and its impact on acculturative stress and depression, and then make the best use of this insight to work on facilitating the psychological adaptation of international students in the new environment. Implications, limitations, and future research directions for the study are discussed.</t>
+          <t>We reconsider the question of molecule formation deep within quasar broad-lineregion (BLR) clouds. Previous studies have shown that the transition from H to H2 is essentially complete at column densities Ngas~1023 cm-2, a result that is consistent with numerous analyses of BLR atomic line spectra. However, earlier work ignored the rapid photodetachment of H-by the intense radiation flux between 0.75 and 13.6 eV. The negative hydrogen ion participates in the H2 formation pathway that is most important in the BLR environment, and our calculations reveal an order-of-magnitude decrease in the H2 abundance at large optical depths when the photodetachment process is considered. We first explore the contribution of collisions between excited and ground-state atomic hydrogen to molecule formation, because Lyman-line trapping greatly enhances the excited-state populations. Neither the radiative association of H(n = 1) and H*(n = 2),nor the associative ionization of H(n = 1) and H*(n = 2) or H*(n = 3), yields a significant enhancement of the total H2 abundance in the neutral zone. We then explore the likely importance of small amounts of dust (which is efficient in shielding the H-) in BLR clouds. The H-to-H2 conversion again can be essentially completed at gas column densities ~1023 cm-2 if a dust-to-gas abundance only 1/10 of that characteristic of our Galaxy's interstellar matter exists in BLR clouds.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020479112</t>
+          <t>https://openalex.org/W2087969499</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0044-328x(79)80126-9</t>
+          <t>https://doi.org/10.1080/15226519908500016</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Melkonian (1979)</t>
+          <t>Nzengung et al. (1999)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Release of Dissolved Organic Substances by the Green Alga Fritschiella tuberosaIyeng. (Chaetophorineae) During Different Growth Phases</t>
+          <t>Use of Aquatic Plants and Algae for Decontamination of Waters Polluted with Chlorinated Alkanes</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Summary Release of dissolved organic substances (dissolved organic carbon = DOC, proteins, carbohydrates, phenolic substances, organic acids, amino acids) in static liquid cultures of Fritschiella tuberosa with respect to different growth phases has been studied. During lag and stationary growth phase release of DOC was higher (10–20 % of dry weight) than during log phase growth (1 % of dry weight). The concentration of DOC dropped by 50 % during transition from lag to log phase of growth. Free amino acids were present during all growth stages, relative proportions of individual amino acids were different according to the growth phase. Proteins and carbohydrates started to accumulate at the transition from log to linear phase of growth, while organic acids and phenolic substances were only recorded during the stationary growth phase. It is suggested that the observed differences in amount and nature of dissolved organic substances were related to different metabolic pathways which were involved in the transition of several cell types during growth of this highly differentiated alga.</t>
+          <t>ABSTRACT The transformation of carbon tetrachloride (CT) and hexachloroethane (HCA) by aquatic plants and freshwater algae was investigated. Stressed, axenic, and physiologically healthy freshwater plants all transformed the two chlorinated alkanes, yielding similar breakdown products. Experiments conducted with dead plants were used to indirectly test the hypothesis that dead aquatic plants maintain and possibly contribute to the dehalogenase activity observed in organic-rich sediments. After exposure of the aquatic plants and algae to HCA- and CT-dosed solutions, a rapid sorption (or sequestration) step followed by a slow transformation lasting several hours thereafter was observed. The kinetics data were adequately described by two first-order rate equations; pseudo-first-order sorption rate coefficients were calculated for the initial rapid adsorption and transformation steps. The identified metabolites extracted from plants indicated that more than one pathway, possibly requiring different reactants, mediated the phytotransformation reactions. Mass balance estimations confirmed that &gt;80% of the parent chemical was sequestered, transformed, and/or assimilated by the biomass. The metabolic activity observed with dead plants and algae suggests that photoautotrophs maintain this activity at death, and the active agents could become bound to the sediment-organic matrix as plants die, decay, and are buried in sediment. The results of this study suggest the potential usefulness of aquatic plants and freshwater algae in the removal of chlorinated alkanes from water and remediation of aquatic environments.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087969499</t>
+          <t>https://openalex.org/W4206524644</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15226519908500016</t>
+          <t>https://doi.org/10.1086/669055</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Nzengung et al. (1999)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Use of Aquatic Plants and Algae for Decontamination of Waters Polluted with Chlorinated Alkanes</t>
+          <t>Notes on Contributors</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ABSTRACT The transformation of carbon tetrachloride (CT) and hexachloroethane (HCA) by aquatic plants and freshwater algae was investigated. Stressed, axenic, and physiologically healthy freshwater plants all transformed the two chlorinated alkanes, yielding similar breakdown products. Experiments conducted with dead plants were used to indirectly test the hypothesis that dead aquatic plants maintain and possibly contribute to the dehalogenase activity observed in organic-rich sediments. After exposure of the aquatic plants and algae to HCA- and CT-dosed solutions, a rapid sorption (or sequestration) step followed by a slow transformation lasting several hours thereafter was observed. The kinetics data were adequately described by two first-order rate equations; pseudo-first-order sorption rate coefficients were calculated for the initial rapid adsorption and transformation steps. The identified metabolites extracted from plants indicated that more than one pathway, possibly requiring different reactants, mediated the phytotransformation reactions. Mass balance estimations confirmed that &gt;80% of the parent chemical was sequestered, transformed, and/or assimilated by the biomass. The metabolic activity observed with dead plants and algae suggests that photoautotrophs maintain this activity at death, and the active agents could become bound to the sediment-organic matrix as plants die, decay, and are buried in sediment. The results of this study suggest the potential usefulness of aquatic plants and freshwater algae in the removal of chlorinated alkanes from water and remediation of aquatic environments.</t>
+          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524644</t>
+          <t>https://openalex.org/W4395600964</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/669055</t>
+          <t>https://doi.org/10.15468/dl.5zj7jg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Notes on Contributors</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
+          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
+          <t>https://openalex.org/W2015917311</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://doi.org/10.1016/j.jmmm.2009.10.025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Jacob &amp; Khadar (2010)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>VSM and Mössbauer study of nanostructured hematite</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>In the present work, we have synthesized nanostructured hematite samples using chemical precipitation method. The crystal structure and the grain size of the samples were studied using XRD. The zero field cooled and field cooled magnetization curves of the samples were recorded in the temperature range from 300 to 10 K. The variations of Morin transition temperature and blocking temperature with the grain size of the samples were investigated. The hysterics curves of the samples were recorded and the samples showed a superparamagnetic nature at room temperature whereas, at 10 K the samples showed open hysteresis curves. The sample with smaller grain size showed higher value of coercivity compared to samples with larger grain size. Mössbauer spectra of the samples were recorded and the grain size dependence on Mössbauer parameters was investigated.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4308735464</t>
+          <t>https://openalex.org/W4310613103</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s43017-022-00349-x</t>
+          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Wang et al. (2022)</t>
+          <t>Bazyar (2023)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Accumulation, transformation and transport of microplastics in estuarine fronts</t>
+          <t>Impacts of progressive biofuels on environmental sustainability</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Millions of tons of riverine plastic waste enter the ocean via estuaries annually. The plastics accumulate, fragment, mix and interact with organisms in these dynamic systems, but such processes have received limited attention relative to open-ocean sites. In this Perspective, we discuss the occurrence and convergence of microplastics at estuarine fronts, focusing on their interactions with physical, geochemical and biological processes. Microplastic transformation can be enhanced within frontal systems owing to strong turbulence and interactions with sediment and biological particles, exacerbating the potential ecosystem impacts. The formation of microplastic hotspots at estuarine fronts could be a target for future plastic pollution mitigation efforts. Knowledge of the mechanics of plastic dispersal, accumulation and fate in frontal zones will, in turn, improve our understanding of plastic waste along the land–sea aquatic continuum. Large quantities of plastics flow from rivers to estuaries, where they potentially converge in frontal zones. This Perspective describes the occurrence, transformation and impact of these processes, highlighting their importance in mitigating plastic pollution.</t>
+          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057610770</t>
+          <t>https://openalex.org/W4322737768</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/tea.20314</t>
+          <t>https://doi.org/10.1111/2041-210x.14070</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mohan et al. (2009)</t>
+          <t>Record et al. (2023)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Developing a multi‐year learning progression for carbon cycling in socio‐ecological systems</t>
+          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Abstract This study reports on our steps toward achieving a conceptually coherent and empirically validated learning progression for carbon cycling in socio‐ecological systems. It describes an iterative process of designing and analyzing assessment and interview data from students in upper elementary through high school. The product of our development process—the learning progression itself—is a story about how learners from upper elementary grades through high school develop understanding in an important and complex domain: biogeochemical processes that transform carbon in socio‐ecological systems at multiple scales. These processes: (a) generate organic carbon (photosynthesis), (b) transform organic carbon (biosynthesis, digestion, food webs, carbon sequestration), and (c) oxidize organic carbon (cellular respiration, combustion). The primary cause of global climate change is the current worldwide imbalance among these processes. We identified Levels of Achievement, which described patterns in the way students made progress toward more sophisticated reasoning about these processes. Younger learners perceived a world where events occurred at a macroscopic scale and carbon sources, such as foods and fuels, were treated as enablers of life processes and combustion rather than sources of matter transformed by those processes. Students at the transitional levels—levels 2 and 3—traced matter in terms of materials changed by hidden mechanisms (level 2) or changed by chemical processes (level 3). More advanced students (level 4) used chemical models to trace matter through hierarchically organized systems that connected organisms and inanimate matter. Although level 4 reasoning is consistent with current national standards, few high school students reasoned this way consistently. We discuss further plans for conceptual and empirical validation of the learning progression. © 2009 Wiley Periodicals, Inc. J Res Sci Teach 46: 675–698, 2009</t>
+          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310613103</t>
+          <t>https://openalex.org/W2515330132</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
+          <t>https://doi.org/10.1002/9781119009115.ch21</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Bazyar (2023)</t>
+          <t>Rankin &amp; Haque (2016)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Impacts of progressive biofuels on environmental sustainability</t>
+          <t>Closing the Loop</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
+          <t>The implications of sustainability for the minerals and metal production industry are explored from the perspective of wastes produced during mining and processing. The industry has moved from complying with regulations to being more aware of corporate social responsibility and in in the next decades will need to move towards closing the loop to reduce the quantities of wastes and maximise resource utilisation. The drivers for change have moved from being almost exclusively profit to include regulations, stakeholders and increasingly to changing social values. Technology has an important role to play in the transition to sustainability, as do principles of industrial ecology. However, many barriers need to be overcome.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W2499440252</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.2326/osj.15.213</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Ochi et al. (2016)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>Dual Foraging Strategy and Chick Growth of Streaked Shearwater&lt;i&gt;Calonectris leucomelas&lt;/i&gt;at Two Colonies in Different Oceanographic Environments</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Parent Procellariiformes alternate between long-range foraging trips to feed in distant productive marine areas and short-range trips to feed in less productive areas around their breeding colony. Foraging trip duration, diet, energy expenditure, and chick growth of Streaked Shearwaters Calonectris leucomelas were compared between two colonies, one on Mikura Island located in the warm and less productive waters of the Kuroshio current, and the other on Sangan Island located in the cold and more productive waters of the Kuroshio/Oyashio transition zone. Parent shearwaters breeding on Mikura alternated between short (≤3 days) trips to Kuroshio waters in order to provision their chicks and long (&gt;3 days) trips to the cold Oyashio region in order to accumulate energy reserves for themselves. Shearwaters breeding on Sangan mainly took short trips (≤2 days) to the nearby Kuroshio/Oyashio transition zone, but also took longer trips (&gt;2 days) to the cold Oyashio region. Parent shearwaters breeding on Mikura, however, made more frequent long trips (24%) than those breeding on Sangan (9%). Parents at both colonies commonly brought Japanese Anchovy Engraulis japonica and Darkedged-wing Flyingfish Cypselurus hiraii for their young, while parents on Mikura also brought Pacific Saury Cololabis saira and stomach oil after long trips. Parents on Mikura delivered energy at a lower rate, resulting in lower chick growth rates and smaller fledging masses than on Sangan. Unlike other Procellariiformes seabirds, shearwater parents on Sangan accumulate their own body reserves even during the chick rearing period because of better foraging efficiency than on Mikura. This may indicate that chicks were satiated by the meals delivered to them allowing parents to utilize the remaining provisions for their own body reserves.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2515330132</t>
+          <t>https://openalex.org/W2766972839</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119009115.ch21</t>
+          <t>https://doi.org/10.1016/j.tetlet.2017.10.036</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Rankin &amp; Haque (2016)</t>
+          <t>Fang et al. (2017)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Closing the Loop</t>
+          <t>Transition metal-free protodecarboxylation of electron rich aromatic acids under mild conditions</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>The implications of sustainability for the minerals and metal production industry are explored from the perspective of wastes produced during mining and processing. The industry has moved from complying with regulations to being more aware of corporate social responsibility and in in the next decades will need to move towards closing the loop to reduce the quantities of wastes and maximise resource utilisation. The drivers for change have moved from being almost exclusively profit to include regulations, stakeholders and increasingly to changing social values. Technology has an important role to play in the transition to sustainability, as do principles of industrial ecology. However, many barriers need to be overcome.</t>
+          <t>A mild and practical method for the transition metal-free protodecarboxylation of aromatic acids using readily available and safe sodium persulfate as initiator was described. This environment-friendly decarboxylation approach was performed at 60 °C in ethanol and could easily scale up to the gram level with a good yield. In Particular, the tandem reactions of decarboxylation and halogenation were achieved by the addition of the corresponding halogenating reagents to the reaction system.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2298211834</t>
+          <t>https://openalex.org/W2343941565</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bpj.2015.11.2737</t>
+          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Srivastava et al. (2016)</t>
+          <t>Kandpal &amp; Patra (2013)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Cell Migration in Mechanically Resistive Environment</t>
+          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The mechanical environment of a cell influences its migration. It has been observed that certain cell types such as Dictyostelium and cancer cells tend to migrate by forming blebs rather than pseudopodia in mechanically resistive environment. However, very little is known about the mechanisms governing this transition between different modes of migration. In this work, we disentangle the contributions of two key mechanical factors that might trigger this switch, the environment's stiffness (the extent of local deformation of extra-cellular matrix) and its state of stress (amount of pre-existing tension or compression). A custom built device, “cell squasher”, is used to apply dynamically controlled and uniform force on cells chemotaxing under an agaorse layer. Our results show that switch to bleb mode of migration can be triggered by an increase in either the external load imposed by the device or gel stiffness. This transition is also associated with a decrease in cell speed. Increasing the load even further triggers the rounding up of the cells and dramatically slows down the retraction of blebs; migration ceased in most of the cases. These results show quantitatively that a lower threshold of load is required for switching as gel stiffness increases which implies a collaborative effect of both the physical parameters. Surprisingly, the cells also undergo a significant reduction in their volume within few minutes of the imposition of the load. We also show that cells become highly contractile under load and myosin recruitment to cortex takes place leading to some loss of polarity. The cells also migrate in less adhesive manner under load condition. The involvement of Pip3, Rac, Ras and SCAR signaling in protrusion switching is also seen. This work is of significant importance in quantitatively understanding the effect of physical changes in migration of cells.</t>
+          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2174575716</t>
+          <t>https://openalex.org/W2563164174</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/jpojpo-2654.1</t>
+          <t>https://doi.org/10.1371/journal.pone.0168107</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Min &amp; Noh (2004)</t>
+          <t>Chen et al. (2016)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Influence of the Surface Heating on Langmuir Circulation</t>
+          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Abstract Large-eddy simulation of the oceanic mixed layer showed that Langmuir circulation (LC) is weakened under the surface heating and is ultimately broken down if the intensity of the surface heating becomes sufficiently strong. The critical condition for the breakdown of LC was mainly determined by the Hoenikker number Ho, and the transition occurs in the range Ho ∼ 1–2. The breakdown of LC leads to a drastic change in the characteristics of the oceanic mixed layer, such as the variation of the rms horizontal velocities with time, the ratio of the horizontal spectra of vertical velocity field, and the pitch. The stability condition for LC suggested by Leibovich was still observed in this simulation. Furthermore, it was found that LC is largely responsible for the formation of a thermocline and the maintenance of a well-mixed layer above it, and the depth of a thermocline was estimated in that case.</t>
+          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2766972839</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.tetlet.2017.10.036</t>
+          <t>https://openalex.org/W2382980109</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Fang et al. (2017)</t>
+          <t>Wu (2013)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Transition metal-free protodecarboxylation of electron rich aromatic acids under mild conditions</t>
+          <t>Rural VET Policy in the Processes of its Transformation and Differentiation: An International Policy Comparison</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A mild and practical method for the transition metal-free protodecarboxylation of aromatic acids using readily available and safe sodium persulfate as initiator was described. This environment-friendly decarboxylation approach was performed at 60 °C in ethanol and could easily scale up to the gram level with a good yield. In Particular, the tandem reactions of decarboxylation and halogenation were achieved by the addition of the corresponding halogenating reagents to the reaction system.</t>
+          <t>The progress of industrialization,urbanization and agricultural modernization is bound to lead to rural transformation and differentiation.Vocational Education and Training(VET) for rural areas is an important issue for the governments.The rural VET policy experience in both UK and US shows that legislation and financial support of training promoted the rural employment.The diversified goals of rural VET policy in the South Korea and China Taiwan show that the government-supported organization of peasants and training policies not only improved employment but also trained the future peasants in both vocational skills and spirits.Nevertheless,Brazilian rural VET policy experience emphasizes social comprehensive governance and policy coordination.According to the classic Dye Model which describes the relationships between public policy,policy environment and policy system,the rural VET policy will not work until its subjects match and coordinate with its goals and audience.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2808807064</t>
+          <t>https://openalex.org/W3013722721</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Wieczorek &amp; Romijn (2015)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Studying sustainability transitions in developing contexts: critical review of the transition literature through development studies lens</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2343941565</t>
+          <t>https://openalex.org/W2903193854</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
+          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Kandpal &amp; Patra (2013)</t>
+          <t>Hein et al. (2018)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
+          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
+          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W1987466031</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.1023/b:gpac.0000016391.83527.44</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Виноградова et al. (2004)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>Glass Transition and Crystallization of Glasses Based on Rare-Earth Borates</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2382980109</t>
+          <t>https://openalex.org/W3087636632</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Wu (2013)</t>
+          <t>Maunders et al. (2020)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Rural VET Policy in the Processes of its Transformation and Differentiation: An International Policy Comparison</t>
+          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>The progress of industrialization,urbanization and agricultural modernization is bound to lead to rural transformation and differentiation.Vocational Education and Training(VET) for rural areas is an important issue for the governments.The rural VET policy experience in both UK and US shows that legislation and financial support of training promoted the rural employment.The diversified goals of rural VET policy in the South Korea and China Taiwan show that the government-supported organization of peasants and training policies not only improved employment but also trained the future peasants in both vocational skills and spirits.Nevertheless,Brazilian rural VET policy experience emphasizes social comprehensive governance and policy coordination.According to the classic Dye Model which describes the relationships between public policy,policy environment and policy system,the rural VET policy will not work until its subjects match and coordinate with its goals and audience.</t>
+          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2261738878</t>
+          <t>https://openalex.org/W2152755913</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3233/jvr-150781</t>
+          <t>https://doi.org/10.1596/0-8213-3485-9</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brown et al. (2016)</t>
+          <t>Harrold (1996)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>An integrated work skill analysis strategy for workers with significant intellectual disabilities</t>
+          <t>The Impact of the Uruguay Round on Africa</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>BACKGROUND: As the number of individuals with significant disabilities transitioning into competitive, integrated employment increases, so must the knowledge, experience, and expectations of vocational rehabilitation personnel. Evolving responsibilities require that employment specialists acquire the information, skills, attitudes and values necessary to realize integrated outcomes. OBJECTIVE: This is a follow-up to Brown &amp; Kessler’s 2014 JVR article on generating integrated worksites for individuals with significant disabilities. This article outlines an integrated work skill analysis strategy for individuals with significant disabilities. It is intended that the information presented here can be used to increase the number of individuals with significant intellectual disabilities who function effectively in integrated employment. CONCLUSION: It is important that individuals with significant disabilities are given the opportunities to succeed in employment. Following strategies to ensure the particular work environment will be safe and appropriate for a particular worker is just one step towards the chance to thrive in the workplace.</t>
+          <t>This paper aims to review the impact of the Uruguay Round on the countries of sub-Saharan Africa. The Uruguay Round is the most comprehensive multilateral trade arrangement ever negotiated, and yet is not clear ex ante that this would be beneficial for the poorer African countries. The paper finds that the impacts that can be expected from the Uruguay Round for Africa are rather muted, and considerably less important than for other parts of the world, such as East Asia. The average tariffs that African countries would be facing after the Round would be very small indeed, and essentially duty free, especially for the least developed. Of more significance would be the reduced coverage of nontariff barriers. In terms of their own commitments, the demands that have been placed on African countries are very modest indeed, and should not pose any serious transitional difficulties, although some technical assistance may be required. African countries have chosen to bind their tariffs at very high levels, well in excess of actual tariffs, with many above 100%. It is considered that sub-Saharan African countries have not taken advantage of the opportunity offered by the Uruguay Round to bind their domestic reforms to an international anchor to improve their credibility. While the Uruguay Round has brought no major short-term costs or benefits to most African countries, it does create future opportunities for those countries able to create an environment suitable for exploiting these opportunities. In particular, since countries have chosen not to link trade reforms to the Round itself, this will require continued attention to domestic trade reforms.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2034004974</t>
+          <t>https://openalex.org/W1518823402</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.gca.2008.10.017</t>
+          <t>https://doi.org/10.1016/0926-860x(92)80076-o</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Welch et al. (2009)</t>
+          <t>Schuurman et al. (1992)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Mineralogical control of rare earth elements in acid sulfate soils</t>
+          <t>Selective oxidation of methyl α-D-glucoside on carbon supported platinum</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Major, trace and rare earth element concentrations were measured in porewater, surface water and sediments at an acid sulfate soil site. The concentrations of La and Ce in porewater are up to 1–3 ppm. There is a strong correlation between REE concentration and acidity, except that the maximum concentrations were consistently found below the horizon of maximum acidity, associated with an increase in pH (to ca. 4) and change in mineralogy from jarosite-dominated to goethite-dominated mottles. Jarosite replacement by goethite is as expected with the rise in pH, which in turn is due to the occurrence of a fossil shell bed just below. The rare earth element patterns in the porewaters are enriched in the MREE with respect to Post-Archaean Australian Shale (PAAS). Measurements and calculations show that this is in accord with experiments on low-degree partial dissolution of jarosite, even when the jarosite itself is highly enriched in LREE. There is a clear fractionation in the patterns between the clay-rich soil matrix, which is slightly depleted in the LREE when normalized to PAAS (La/YbPAAS ∼0.5), and the secondary mineral phase jarosite, which is enriched in the LREE (La/YbPAAS = 15–50). The REE pattern in the porewater changes with the transition from jarosite- to goethite-rich mottles, becoming relatively more enriched in the LREE compared to the HREE, which is consistent with the incongruent dissolution of jarosite to form goethite and the release of greater amounts of jarosite REE to solution, including proportionately more of the jarosite-compatible LREE. Maximum surface water REE concentrations in acidic water were 100–200 ppb La and Ce. REE patterns in surface water were very similar to the porewater transition zone, enriched in the MREE, but asymmetric, relatively enriched in the LREE compared to the HREE.</t>
+          <t>In order to estimate the Arrhenius and Langmuir parameters of the selective oxidation of methyl α-D-glucoside on a platinum catalyst, the temperature was varied from 293 to 333 K. The initial reaction kinetics can be described adequately over this temperature range by a Langmuir-Hinshelwood rate equation which is based on two parallel reaction paths: one involving adsorbed methyl α-D-glucoside and dominating at low pH, the other involving the adsorbed methyl α-D-glucoside anion and dominating at high pH. Both reaction paths contain a rate-determining step consisting of a surface reaction involving the corresponding methyl α-D-glucoside species and chemisorbed oxygen. The apparent activation energies amount to 50.5±6.4 kJ mol−1 and 110.5± 10.6 kJ mol−1. The assessment of the Arrhenius parameter estimates within the framework of the transition state theory showed that these rate-determining steps lead to physically meaningful estimates. Langmuir adsorption coefficients account for the reversible dissociative chemisorption of oxygen and for the reversible associative adsorption of methyl α-D-glucoside and methyl α-D-glucoside anion. A standard adsorption enthalpy for oxygen of −60.0 ± 10.5 kJ mol−1, for methyl α-D-glucoside of −17.6±8.3 kJ mol−1 and for the methyl α-D-glucoside anion of − 61± 54 kJ mol−1 were estimated. During the oxidation at a pH of eight oxygen adatoms are the most abundant surface species, followed by adsorbed methyl α-D-glucoside. With increasing temperature the degree of oxygen coverage decreases from 0.8 to 0.6, while the degree of coverage with methyl α-D-glucoside increases from 0.08 to 0.13. At a pH of 10 the surface coverage with oxygen decreases from 0.6 at 293 K to 0.5 at 333 K and the surface coverage with methyl α-D-glucoside anion from 0.5 to 0.3.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1518823402</t>
+          <t>https://openalex.org/W2274151390</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0926-860x(92)80076-o</t>
+          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Schuurman et al. (1992)</t>
+          <t>Голубев &amp; Testov (2015)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Selective oxidation of methyl α-D-glucoside on carbon supported platinum</t>
+          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>In order to estimate the Arrhenius and Langmuir parameters of the selective oxidation of methyl α-D-glucoside on a platinum catalyst, the temperature was varied from 293 to 333 K. The initial reaction kinetics can be described adequately over this temperature range by a Langmuir-Hinshelwood rate equation which is based on two parallel reaction paths: one involving adsorbed methyl α-D-glucoside and dominating at low pH, the other involving the adsorbed methyl α-D-glucoside anion and dominating at high pH. Both reaction paths contain a rate-determining step consisting of a surface reaction involving the corresponding methyl α-D-glucoside species and chemisorbed oxygen. The apparent activation energies amount to 50.5±6.4 kJ mol−1 and 110.5± 10.6 kJ mol−1. The assessment of the Arrhenius parameter estimates within the framework of the transition state theory showed that these rate-determining steps lead to physically meaningful estimates. Langmuir adsorption coefficients account for the reversible dissociative chemisorption of oxygen and for the reversible associative adsorption of methyl α-D-glucoside and methyl α-D-glucoside anion. A standard adsorption enthalpy for oxygen of −60.0 ± 10.5 kJ mol−1, for methyl α-D-glucoside of −17.6±8.3 kJ mol−1 and for the methyl α-D-glucoside anion of − 61± 54 kJ mol−1 were estimated. During the oxidation at a pH of eight oxygen adatoms are the most abundant surface species, followed by adsorbed methyl α-D-glucoside. With increasing temperature the degree of oxygen coverage decreases from 0.8 to 0.6, while the degree of coverage with methyl α-D-glucoside increases from 0.08 to 0.13. At a pH of 10 the surface coverage with oxygen decreases from 0.6 at 293 K to 0.5 at 333 K and the surface coverage with methyl α-D-glucoside anion from 0.5 to 0.3.</t>
+          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2101093571</t>
+          <t>https://openalex.org/W2610255345</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1292199</t>
+          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wilmarth et al. (2000)</t>
+          <t>Tran &amp; James (2017)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Transuranium removal from Hanford high level waste simulants using sodium permanganate and calcium</t>
+          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Plutonium and americium are present in the Hanford high level liquid waste complexant concentrate (CC) due to the presence of complexing agents including di-(2-ethylhexyl) phosphoric acid (D2EHPA), tributylphosphate (TBP), hydroxyethylene diamine triacetic acid (HEDTA), ethylene diamine tetraacetic acid (EDTA), citric acid, glycolic acid, and sodium gluconate. The transuranic concentrations approach 600 nCi/g and require processing prior to encapsulation into low activity glass. BNFL’s (British Nuclear Fuels Limited’s) original process was a ferric co-precipitation method based on earlier investigations by Herting and Orth, et al. Furthermore, flocculation and precipitation are widely used for clarification in municipal water treatment. Co-precipitation of Np, Am, and Pu with ferric hydroxide is also used within an analytical method for the sum of those analytes. Tests to evaluate BNFL’s original precipitation process indicated the measured decontamination factors (DFs) and filter fluxes were too low. Therefore, an evaluation of alternative precipitation agents to replace ferric ion was undertaken. Agents tested included various transition metals, lanthanide elements, uranium species, calcium, strontium, and permanganate.</t>
+          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
+          <t>https://openalex.org/W1692359881</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://doi.org/10.48550/arxiv.quant-ph/0607196</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Conte et al. (2006)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>The transition from ontic potentiality to actualization of states in quantum mechanical approach to reality: The Proof of a Mathematical Theorem to Support It</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>It is given a preliminary discussion on the ontic nature of quantum states to be intended as potentialities and on the central role of spin to be considered as the basic essence of quantum mechanical reality. The possible fundamental role of potentialities and of spin is evidenced in the framework of physical as well as of biological reality. After such preliminary deepening, using a quantum like scheme delineated on the basis of an algebraic structure, it is given for the first time mathematical demonstration of the transition from potentiality of states to their actualization as basic mechanism of our reality.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383649839</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-031-36004-6_37</t>
+          <t>https://openalex.org/W2953473000</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Oliveira et al. (2023)</t>
+          <t>Angelova et al. (2019)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Study of Different Methods to Design and Animate Realistic Objects for Virtual Environments on Modern HMDs</t>
+          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Head-mounted displays (HMDs) are making virtual environments increasingly viable and real. As of the year 2021, some of the latest HMDs manufactured have incorporated cameras and/or sensors for the recognition and tracking of hands and facial expressions. These new devices include HTC-Vive-Focus-3 manufactured by HTC, HP-Reverb-G2-Omnicept-Edition manufactured by HP, Meta-Quest-Pro, manufactured by Meta, and Pico-4-Pro manufactured by Pico. A human's facial expressions convey emotional and non-verbal information. Transferring these expressions to build more realistic designs is a long-standing problem in computer animation. Recently, the development of facial reconstructions (2D and 3D) has achieved high performance, adjusting to being treatable in real time. There are different types of models for design and animation, more human and realistic models, unrealistic cartoon character models, and non-human models with different facial structures. Regardless of the design, there must be guarantees of a smooth transition between expressions so that the facial animation does not look choppy. This work aims to carry out a study of the main models for the design and animation of objects, which can reflect and support various types of human facial expressions obtained from the complete facial data provided by HMDs that incorporate cameras and/or sensors for face recognition and tracking.</t>
+          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2953473000</t>
+          <t>https://openalex.org/W2120493161</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1542/peds.2012-3786f</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Angelova et al. (2019)</t>
+          <t>Billett et al. (2013)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
+          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
+          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2386187391</t>
+          <t>https://openalex.org/W3126388929</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/exd.12949</t>
+          <t>https://doi.org/10.1002/agj2.20631</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Fujimura et al. (2016)</t>
+          <t>Govindasamy et al. (2021)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Receptor activator of nuclear factor kappa‐B ligand (&lt;scp&gt;RANKL&lt;/scp&gt;)/&lt;scp&gt;RANK&lt;/scp&gt; signaling promotes cancer‐related inflammation through M2 macrophages</t>
+          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Experimental DermatologyVolume 25, Issue 5 p. 397-399 Letter to the EditorFree Access Receptor activator of nuclear factor kappa-B ligand (RANKL)/RANK signaling promotes cancer-related inflammation through M2 macrophages Taku Fujimura, Corresponding Author Taku Fujimura Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanCorrespondence: Taku Fujimura, Department of Dermatology, Tohoku University Graduate School of Medicine, Seiryo-machi 1-1, Aoba-ku, Sendai 980-8574, Japan, Tel.: 81-(22)-717-7271, Fax: 81-(22)-717-7361, e-mail: tfujimura1@mac.comSearch for more papers by this authorYumi Kambayashi, Yumi Kambayashi Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorSadanori Furudate, Sadanori Furudate Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorAya Kakizaki, Aya Kakizaki Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorTakanori Hidaka, Takanori Hidaka Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorMasayuki Asano, Masayuki Asano Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorSetsuya Aiba, Setsuya Aiba Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this author Taku Fujimura, Corresponding Author Taku Fujimura Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanCorrespondence: Taku Fujimura, Department of Dermatology, Tohoku University Graduate School of Medicine, Seiryo-machi 1-1, Aoba-ku, Sendai 980-8574, Japan, Tel.: 81-(22)-717-7271, Fax: 81-(22)-717-7361, e-mail: tfujimura1@mac.comSearch for more papers by this authorYumi Kambayashi, Yumi Kambayashi Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorSadanori Furudate, Sadanori Furudate Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorAya Kakizaki, Aya Kakizaki Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorTakanori Hidaka, Takanori Hidaka Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorMasayuki Asano, Masayuki Asano Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this authorSetsuya Aiba, Setsuya Aiba Department of Dermatology, Tohoku University Graduate School of Medicine, Sendai, JapanSearch for more papers by this author First published: 19 January 2016 https://doi.org/10.1111/exd.12949Citations: 9AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abbreviations CXCR chemokine (C-X-C motif) receptor CXCL chemokine (C-X-C motif) ligand CCR chemokine (C-C motif) receptor CCL chemokine (C-C motif) ligand Treg regulatory T cells MACS magnetic-activated cell sorting TNF tumor necrosis factor IL- interleukin Background The interaction between receptor of activated nuclear factor kappa (RANK) and its ligand, RANKL, is the main mediator of progesterone-induced proliferation of mammary epithelial cells, and the activation of this pathway promotes mammary tumorigenesis 1. Breast cancer, prostate cancer and extramammary Paget's disease (EMPD), all of which are well known to metastasize to bone, are RANKL+ human tumors (S1, 2). As we previously reported, sRANKL released from Paget cells stimulates RANK+ M2 macrophages to recruit Tregs in the tumor microenvironment in EMPD 2, 3. Questions addressed What are the immunomodulatory effects of sRANKL on monocyte-derived CD163+ CD206+ Arg1+ RANK+ M2 macrophages, and what are the roles of RANK+ M2 macrophages in RANKL-bearing tumors? Experimental design See supporting information (Data S1). Results As we previously reported, we induced CD163+ CD206+ Arg1+ RANK+ macrophages from CD14+ monocytes 3. We then stimulated these macrophages with or without 100 ng/ml of sRANKL for 6 h and examined gene expression using a cDNA microarray 4. Based on gene set enrichment analysis of the microarray results, we focused on chemokine genes and cytokine genes that were modified by sRANKL treatment. As shown in Table</t>
+          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319861856</t>
+          <t>https://openalex.org/W3164395695</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/20530196221149111</t>
+          <t>https://doi.org/10.31124/advance.14471751.v1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Kazak et al. (2023)</t>
+          <t>Solis-Mullen (2021)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Renewable energy creditors versus renewable energy debtors: Seeking a pattern in a sustainable energy transition during the climate crisis</t>
+          <t>Strategies of Brazilian Elite Domination</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Considering unpredictable and hastily evolving tipping points (like the impacts of the COVID-19 pandemic, ongoing climate crisis and the war in Ukraine), it is clear that sustainable energy transition and utilization of locally sourced renewable energies must be in the heart of both national, regional, and local energy systems. However, if we take a closer look at the actions undertaken at the local (communal) level, we see enormous diversity of patterns, prerequisites, and implications that drive and affect spatial deployment of renewable energies. Therefore, our research targets to better comprehend the question if individual communities are comparatively involved in the energy transition. We also ask whether the demand and supply of renewable energy is territorially balanced and how these differences (if any) can be justified. We are framing our research by the concepts of energy justice and ecological debt. We thoroughly explore and asses the renewable energy balance on the level of individual communities which is based on data on the installed power capacity potentials and energy consumption in local administration units in Poland (380). Spatial distribution and discrepancies in the deployment of the renewable energy creditors and the renewable energy debtors are detected. Noticeable disproportions were identified among communities where improved utilization of local potential of renewable energy could exceed energy demand (29% of communities). This result is contrasting with communities (71% of communities) that can be, on the other hand, classified as renewable energy debtors. We claim that insufficient support (institution, regulatory, and financial) for expanding local renewable energy systems is a clear barrier when adapting to the climate crisis by balancing the energy demand and supply at the local level.</t>
+          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
+          <t>https://openalex.org/W2336619940</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://doi.org/10.3389/conf.fbioe.2016.01.00262</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Hima et al. (2016)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>Event Abstract Back to Event Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer Hima Puthussery1, Ipsita Roy1, Anatoily Markiv1, Eugen Stulz2, Pooja Basnett1 and Peter Thomas1 1 University Of Westminster, Faculty of science and technology, United Kingdom 2 University of Southampton, Department of Chemistry, United Kingdom Introduction: Photodynamic therapy (PDT) is an emerging alternative treatment modality to conventional cancer therapies. This involves the application of photosensitive drugs, systemically or tropically, followed by illumination with light of a suitable wavelength and dosage. A drug delivery system that is biodegradable, biocompatible, non-immunogenic and capable of encapsulation without altering the properties of the photosensitizer is desired. Biosynthetic polyhydroxyalkanoates (PHAs) have been extensively researched within the context of drug delivery [1]. This research investigates Poly(3-hydroxybutyrate) (P(3-HB)) microspheres as suitable target specific drug delivery systems of Porphyrin derivatives (protoporphyrin IX, tetraphenylporphyrin and hematoporphyrin ether) on mammary cancer cells. The microspheres have been coupled with anti-HER2 to enable target specificity for better incorporation by SK-BR-3 cells that overexpress HER-2 marker. Materials and Methods: Production of photosensitizer encapsulated microsphere using P(3HB): P(3HB) synthesised using Kannan- Rehaceck media [2] was used for producing microspheres by solid-in-oil-in-water emulsion method. Varying process parameters were tested based on experiment design generated by design expert software; 2.5%w, 5%w and 10%w of drugs were then encapsulated in the P(3HB) microspheres. Surface adsorption of the anti HER-2 antibody on microspheres: RFP coupled anti HER-2 antibody was expressed in Rosetta gami B(DE3) E. coli. These His-tagged proteins were purified using immobilised metal affinity chromatography and linked to the photosensitizer-encapsulated microspheres using surface adsorption. Protein adsorbed was quantified using Bradford’s assay. Photoexcitaion and cytotoxicity tests: SK-BR-3 was cultured as specified by ATCC and incubated with the microspheres for 48 hours and subjected to white light exposure for 30 minutes. MTT assay was performed to assess cytotoxicity and live/dead staining was performed for confocal imaging. Results and Discussion: Without photoexcitation, microspheres loaded and not loaded with porphyrin derivatives have similar cytotoxicity. Cytotoxic effect increased with increasing drug loading in each case and was found to be the highest in case of tetraphenylporphyrin (Figure 1). anti HER-2 conjugation seemed to cause a further increase in cytotoxity in the case of hematoporphyrin ether and tetraphenylporphyrin, which was statistically significant (p&lt;0.05). The absence of increased cytotoxicity in the case of protoporphyrin IX is attributed to loss of activity presented by processing conditions and is to be further investigated. The life span of singlet oxygen species generated is only ~3.5micro seconds and apoptotic factors generated by these have diffusion range of only 0.01-0.02micro meters [3]. Hence, successful localisation of the photosensitizer in the target is a key factor in determining the extent of photodynamic reaction caused. A further addition of a target specific antibody such as anti- HER2 recognizing the antigens presented by neoplastic transformation will result in a more efficient Photoimmunotargeting (PIT) [3]. The cells treated with these microspheres seemed to have much become enlarged (~60mm) as opposed to the others, suggesting a possible phagocytic mechanism (Figure 2). Conclusion: Biosynthetic P(3-HB) is an excellent choice for synthesizing porous microspheres for photosensitizer delivery. Of the three porphyrin derivatives compared, tetraphenylporphyrin was found to be the most cytotoxic. As anti- HER2 conjugated microspheres were found to exhibit increased cytotoxicity, it can be concluded that these are promising candidates in Photoimmunotargeting. I would like to thank Cavendish scholarship, University of Westminster.References:[1] Francis, Lydia and Meng, Decheng and Knowles, Jonathan C. and Keshavarz, Tajalli and Boccaccini, Aldo R. and Roy, Ipsita (2011) Controlled delivery of gentamicin using poly(3-hydroxybutyrate) microspheres. International Journal of Molecular Sciences, 12 (7). pp. 4294-4314. ISSN 1422-0067[2] Valappil, Sabeel P. and Rai, R. and Bucke, Christopher and Roy, Ipsita (2008) Polyhydroxyalkanoate biosynthesis in Bacillus cereus SPV under varied limiting conditions and an insight into the biosynthetic genes involved. Journal of Applied Microbiology, 104 (6). pp. 1624-1635. ISSN 1364-5072[3] • Solban, N., Rizvi, I., Hasan, T. (2006). Targeted photodynamic therapy. Lasers in Surgery and Medicine. 38 (5), 522-531. Keywords: Drug delivery, biomedical application, targeting delivery, Nano/micro part</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164395695</t>
+          <t>https://openalex.org/W2903786861</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31124/advance.14471751.v1</t>
+          <t>https://doi.org/10.7922/g2028pqq</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Solis-Mullen (2021)</t>
+          <t>O’Brien &amp; Jaishankar (2019)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Strategies of Brazilian Elite Domination</t>
+          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
+          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2898606819</t>
+          <t>https://openalex.org/W4233827115</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jtho.2018.08.450</t>
+          <t>https://doi.org/10.5194/cp-2017-161</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Offin et al. (2018)</t>
+          <t>Hutchinson et al. (2018)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>MA16.04 Clinical and Molecular Characteristics of EGFR Mutant Lung Cancers with Concurrent TP53 and RB1 Mutations</t>
+          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>20% of patients with metastatic lung adenocarcinoma have activating EGFR-mutations. EGFR-mutant lung cancers can undergo histologic transformation to small cell lung cancer (SCLC) as a response to the selective pressure of EGFR-TKIs in &lt;5% of patients after earlier-generation EGFR-TKIs and have been reported after osimertinib. SCLC nearly universally harbor TP53/RB1-alterations which are rarely seen in EGFR-mutant lung adenocarcinomas. We sought to identify this subset of patients, describe their clinical course and likelihood of SCLC transformation. Retrospective review of targeted next generation sequencing (NGS, MSK-IMACT) at Memorial Sloan Kettering (MSK) was performed to identify patients with concurrent EGFR-activating mutations and TP53/RB1-mutations within the same tumor sample from NGS between April 2014 to February 2018 with a data cutoff of March 2018. For comparison, consecutive patients with lung cancers harboring EGFR-mutations who were EGFR-TKI naïve and TP53/RB1-wildtype were also collected during that time-period. Of the 21% of lung cancer patients with activating EGFR-mutations (759/3662), 5% (40/759) had concurrent TP53/RB1-mutations. 43% (17/40) were female, 58% former-smokers (23/40, median pack-years: 8), and median age of 68 (range 25-86 years). 88% (35/40) were adenocarcinoma at diagnosis, of which 11% (4/35) transformed to SCLC during treatment; 10% (4/40) were de-novo SCLC at diagnosis, and 1 was large cell neuroendocrine. The transformation rate was significantly higher compared to previous work from MSK evaluating EGFR-mutant patients showing 4% (4/155) transformation (p=0.04). Concurrent PIK3CA mutations were more frequently seen in the EGFR/TP53/RB1 mutant group compared to the TP53/RB1-wildtype group (17% (n=6/35) vs 7% (n=4/60), p=0.11). 20 patients were EGFR TKI-naïve at the time of NGS; the median time on EGFR-TKI (ToT) was 7.6 months versus 14.2 months in the TP53/RB1-wildtype group (HR 4.48, p=0.0003). The overall survival (OS) of this cohort versus TP53/RB1-wildtype was not different (4.3 vs 4.1 years, HR 1.35, p=0.51). In the 4 patients with SCLC transformation, the median time to transformation was 2.4 years after a median of 1.5 EGFR-TKI therapies (range 1-5 lines). Median OS from time of transformation was 7 months. 63% (25/40) of the EGFR/TP53/RB1-mutant cohort had brain metastases during their disease course as compared to 50% (n=30) in the TP53/RB1-wildtype group (p=0.30). SCLC transformation is enriched in EGFR/TP53/RB1-mutant lung cancers, occurring in 11% of patients. Once SCLC transformation occurs, overall survival is short. Patients with EGFR/TP53/RB1 have a shorter time on EGFR-TKI. Further investigation into optimal treatment for this subset of EGFR/TP53/RB1 mutant lung cancers is critical.</t>
+          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233827115</t>
+          <t>https://openalex.org/W3091866356</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/cp-2017-161</t>
+          <t>https://doi.org/10.7202/1071486ar</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hutchinson et al. (2018)</t>
+          <t>Basey &amp; Dieu (2020)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
+          <t>Le miroir de la raison : déconstruction des mythes, assomption de l’humain, nouvel imaginaire du corps et du social dans le théâtre de Michel de Ghelderode</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
+          <t>Cette relecture de Michel de Ghelderode s’attache à montrer qu’au-delà des motifs de la crise identitaire et du masque, comme à travers les figures de l’angoisse et du tragique, son théâtre porte un projet éthique : servir d’antidote à la déliquescence sociale. Le miroir de la raison que le dramaturge guerrier de l’imaginaire a installé au coeur de son oeuvre lui permet d’analyser les passions profondes de l’humain et les coulisses du social. Ghelderode crée des situations critiques à la faveur desquelles les figures archétypiques mobilisées déconstruisent les représentations socioculturelles et cherchent les possibilités de transformation du réel – social et historique. Les stratégies (mises en abyme, jeux des doubles et contrepoints) exploitées par cette dramaturgie révèlent la vraie nature des mythes, construits sociaux à valeur d’usage, et l’imposture consistant à les ériger en instances de vérité. Les pièces soulignent la nécessité de replacer l’humain au centre de la vie, de lui restituer les rênes de son destin. Ghelderode a produit donc un théâtre de la responsabilité qui vise l’assomption de l’humain, la libération de l’imaginaire du corps et une nouvelle économie du social.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3091866356</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7202/1071486ar</t>
+          <t>https://openalex.org/W143764854</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Basey &amp; Dieu (2020)</t>
+          <t>Monastiriotis &amp; Petrakos (2009)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Le miroir de la raison : déconstruction des mythes, assomption de l’humain, nouvel imaginaire du corps et du social dans le théâtre de Michel de Ghelderode</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Cette relecture de Michel de Ghelderode s’attache à montrer qu’au-delà des motifs de la crise identitaire et du masque, comme à travers les figures de l’angoisse et du tragique, son théâtre porte un projet éthique : servir d’antidote à la déliquescence sociale. Le miroir de la raison que le dramaturge guerrier de l’imaginaire a installé au coeur de son oeuvre lui permet d’analyser les passions profondes de l’humain et les coulisses du social. Ghelderode crée des situations critiques à la faveur desquelles les figures archétypiques mobilisées déconstruisent les représentations socioculturelles et cherchent les possibilités de transformation du réel – social et historique. Les stratégies (mises en abyme, jeux des doubles et contrepoints) exploitées par cette dramaturgie révèlent la vraie nature des mythes, construits sociaux à valeur d’usage, et l’imposture consistant à les ériger en instances de vérité. Les pièces soulignent la nécessité de replacer l’humain au centre de la vie, de lui restituer les rênes de son destin. Ghelderode a produit donc un théâtre de la responsabilité qui vise l’assomption de l’humain, la libération de l’imaginaire du corps et une nouvelle économie du social.</t>
+          <t>Local sustainable development and spatial cohesion in the post-transition Balkans: policy issues and some theory</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W143764854</t>
+          <t>https://openalex.org/W4390233265</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.28925/2311-259x.2023.4.3</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Monastiriotis &amp; Petrakos (2009)</t>
+          <t>Vaskiv (2023)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Local sustainable development and spatial cohesion in the post-transition Balkans: policy issues and some theory</t>
+          <t>Spontaneous materialism, information (memory) and man in the poetry of Pavlo Movchan Part two</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>The relevance of the article is due to the need to determine the philosophical basis of the worldview and poetic world of the Ukrainian literature classic of the XX–XXI centuries Pavlo Movchan (born in 1939) — ancient Greek spontaneous materialism — as the basis of universal and national memory, the continuity of history. The peculiarities of Movchan’s spontaneous materialism are the subject of research. The main problem of the article is the connection of each specific existence with the million-year history of the material world, humanity and a specific — Ukrainian — nation, reproduced in P. Movchan’s poetry, the role of this existence as a connecting link in the transfer of information (memory) from the past to the future. Cultural-historical, biographical, hermeneutic and formal (philological) research methods were used to solve this problem. As a result of the study, the images of the four elements were traced in the poet’s lyrical works. Different forms (water — snow, rain, well, spring, reservoirs, blood, etc.; earth — soil, clay, sand, stone, salt, etc.; fire — sun, light, ray, etc.; air — wind, whirlwind, etc.) of these elements become the most important in the life of the Ukrainian peasant-farmer, and therefore also of the ethnos. The primary elements are in constant motion, creating new things, objects, and phenomena as a synthesis of elements and their inevitable destruction. Only latent small imprints of the existence and transformations of matter in the form of energy (information) remain while reading. The preservation and the transmission of this energy to the next generations is the vocation, the purpose of a man in the world. The poetic world and the poet’s ideological concept syncretically combine knowledge of the global and Ukrainian national origins of existence, which determine the essence of our present and future life. Man as a combination of four elements, as a part of the primordial movement of the elements, is inextricably linked with his destined space, environment. Universal and ethnic memory as another name for energy-information unites a person with time and space, makes it possible to find and realize one’s own purpose on earth.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2352526623</t>
+          <t>https://openalex.org/W4394959852</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Liu (2006)</t>
+          <t>Sydorenko et al. (2024)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Soil Caloric Value Structure of Annular Wetlands in the Sanjiang Plain</t>
+          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The caloric value structure of ecosystem was one of dynamic balance states that formed by solar energy flowing in the ecosystem in a period of time.We chose the typical annular wetlands of Sanjiang Plain as research sits,which was Sanjiang Plain Marsh Ecological Experiment Station,and analysed the soil caloric value of different community for research the character of soil caloric value of annular wetlands.The results showed that the caloric value of aboveground of Ass.Carex casiocaepa-Carex meyeriana and Ass.Carex casiocaepa-Carex meyeriana was higher,and the caloric value of aboveground of Ass.Carex casiocarpa-Cxyceria spiculosa-Carex seudocurqica and Ass.Salix brachypada-Myrtilloides-Deyeuxia angustifola was lower.The caloric value of underground up the peat horizon gradually raised from center to edge of annular wetlands.The caloric value of underground down the peat horizon gradually lowered from center to edge of annular wetlands.The caloric value of Ass.Carex casiocaepa-Carex meyeriana was highest in all the soil layers except peat horizon.The fibre layer was highest in four community soil layers.The caloric value structure of wetlands was the results of long-term interaction between biology and environment,especially the transition sit which caloric value was always higher.The studies on the caloric value structure of wetlands would contribute to wetlands protection and utilization in reason.</t>
+          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390233265</t>
+          <t>https://openalex.org/W3162495630</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.28925/2311-259x.2023.4.3</t>
+          <t>https://doi.org/10.3390/su13105354</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vaskiv (2023)</t>
+          <t>Pichlak (2021)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Spontaneous materialism, information (memory) and man in the poetry of Pavlo Movchan Part two</t>
+          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>The relevance of the article is due to the need to determine the philosophical basis of the worldview and poetic world of the Ukrainian literature classic of the XX–XXI centuries Pavlo Movchan (born in 1939) — ancient Greek spontaneous materialism — as the basis of universal and national memory, the continuity of history. The peculiarities of Movchan’s spontaneous materialism are the subject of research. The main problem of the article is the connection of each specific existence with the million-year history of the material world, humanity and a specific — Ukrainian — nation, reproduced in P. Movchan’s poetry, the role of this existence as a connecting link in the transfer of information (memory) from the past to the future. Cultural-historical, biographical, hermeneutic and formal (philological) research methods were used to solve this problem. As a result of the study, the images of the four elements were traced in the poet’s lyrical works. Different forms (water — snow, rain, well, spring, reservoirs, blood, etc.; earth — soil, clay, sand, stone, salt, etc.; fire — sun, light, ray, etc.; air — wind, whirlwind, etc.) of these elements become the most important in the life of the Ukrainian peasant-farmer, and therefore also of the ethnos. The primary elements are in constant motion, creating new things, objects, and phenomena as a synthesis of elements and their inevitable destruction. Only latent small imprints of the existence and transformations of matter in the form of energy (information) remain while reading. The preservation and the transmission of this energy to the next generations is the vocation, the purpose of a man in the world. The poetic world and the poet’s ideological concept syncretically combine knowledge of the global and Ukrainian national origins of existence, which determine the essence of our present and future life. Man as a combination of four elements, as a part of the primordial movement of the elements, is inextricably linked with his destined space, environment. Universal and ethnic memory as another name for energy-information unites a person with time and space, makes it possible to find and realize one’s own purpose on earth.</t>
+          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://openalex.org/W2443231201</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>Afshar (2015)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>Systematic Risk Management: Providing a Patient the Smile She Long Desired.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>The patient described in this case had medical issues that increased her risk for restoration failure. She also had long been disappointed with her smile and the overall appearance of her teeth. The goal of managing risks and achieving improved quality of life with an esthetic and functional restoration involved preventive strategies, use of a transitional immediate denture, maxillary arch implants, and, finally, a fixed, detachable, implant-supported final restoration. The keys to restoring to the patient a satisfying, beautiful smile were systematically managing the risks and improving the prognoses in each of the four dental categories--periodontal, biomechanical, functional, and dentofacial.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3162495630</t>
+          <t>https://openalex.org/W2024074390</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su13105354</t>
+          <t>https://doi.org/10.1080/17449626.2011.556659</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pichlak (2021)</t>
+          <t>Bellaby et al. (2011)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
+          <t>Substituting ‘H&lt;sub&gt;2&lt;/sub&gt;for C’ and reducing global inequalities in health</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
+          <t>Life expectancy and health differ greatly between emerging and developed countries and within countries. Global dependence on fossil fuels contributes to health inequalities through air pollution, the geopolitics of scarce resources and probable climate change arising from global warming. Substituting for fossil fuels (C), hydrogen (H2), as vector and store of energy produced from low-carbon and/or renewable sources could reduce health inequalities by improving the environment. It is unlikely that the global market would initiate such a change. Nation-states would not act alone and would need to cooperate in leading it. Global recession might be the incentive that is needed to restructure a C-economy into an H2-economy. Yet, the transition would carry high costs, which would have to be borne by the developed countries in order to achieve a new treaty that included emerging countries. H2 for C is thus not only a technical fix, but also a global-ethical choice.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2443231201</t>
+          <t>https://openalex.org/W4322501042</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/biom13030432</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Afshar (2015)</t>
+          <t>Saxena et al. (2023)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Systematic Risk Management: Providing a Patient the Smile She Long Desired.</t>
+          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The patient described in this case had medical issues that increased her risk for restoration failure. She also had long been disappointed with her smile and the overall appearance of her teeth. The goal of managing risks and achieving improved quality of life with an esthetic and functional restoration involved preventive strategies, use of a transitional immediate denture, maxillary arch implants, and, finally, a fixed, detachable, implant-supported final restoration. The keys to restoring to the patient a satisfying, beautiful smile were systematically managing the risks and improving the prognoses in each of the four dental categories--periodontal, biomechanical, functional, and dentofacial.</t>
+          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1590765017</t>
+          <t>https://openalex.org/W2133358483</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5120/17130-7712</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Astrov &amp; Havlík (2008)</t>
+          <t>Sarkar &amp; Kar (2014)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Economic Developments in the Wider Black Sea Region</t>
+          <t>Adaptive E-learning using Deterministic Finite Automata</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>The Black Sea region comprises a heterogeneous group of countries Bulgaria, Romania, Ukraine, Russia, Georgia, Armenia, Azerbaijan, and Turkey. Their economies differ in their size, institutional characteristics and integration perspectives, are facing vastly different problems, and find themselves at different levels of development. The economic performance of the region during the 1990s was highly unstable, and even the countries which were spared from internal conflicts did not fare much better than the rest. However, more recently, the region has enjoyed a fairly rapid economic recovery accompanied by welcome structural changes, although the labour market situation and social conditions in general are still very difficult. Both the economic heterogeneity of the Black Sea countries and political issues are crucial factors behind the presently rather low level of their regional integration the latter generally proceeds only to the extent to which it is compatible with the (very unequal) format of these countries' relations with the EU. At the same time, multilateral integration under the auspices of Russia, which, given its economic size, could potentially serve as an alternative 'gravity centre', appears to be for a number of reasons equally problematic. In fact, the geographic trade patterns of the countries involved do not give an impression of the Black Sea region being a distinct trading block per se, and in those cases where important regional trade links do exist (Russia, Ukraine and Turkey), this seems to be explained first of all by these countries' size rather than by the fact that they are part of the Black Sea region. The outlook for the Black Sea countries is largely positive, with annual GDP growth in excess of 5% in the medium and long run being feasible. Apart from sound economic policies, it is especially the fostering of institutional reforms and the related improvements of the investment climate which will be indispensable for a lasting and sustainable economic development. More decisive steps towards regional and EU economic integration would undoubtedly be beneficial; however, such integration would require significant changes in the stance of regional (and EU) policymakers, a higher level of mutual trust, a solution of 'frozen conflicts', and - last but not least - ultimately hinges on cooperation prospects between Russia and the EU.</t>
+          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2030451450</t>
+          <t>https://openalex.org/W2074300212</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.cretres.2012.02.012</t>
+          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Rahimpour–Bonab et al. (2012)</t>
+          <t>Tambour (1997)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Coupled imprints of tropical climate and recurring emergence on reservoir evolution of a mid Cretaceous carbonate ramp, Zagros Basin, southwest Iran</t>
+          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>The Cretaceous Sarvak Formation (and its equivalents on the Arabian platform) is one of the most important carbonate reservoirs to have developed under the warm equable climate. This formation in the Abteymour Oilfield contains a hydrocarbon reservoir in a carbonate ramp formed under a humid tropical oceanic climate during the middle Cretaceous in the far southwest margin of Zagros Basin, in the transition zone of the Mesopotamian Basin and Dezful Embayment. Detailed petrography assisted by image analysis resulted in the recognition of 12 microfacies grouped in six facies associations indicating a homoclinal ramp-type platform. The importance of climatic control over the facies types and patterns and diagenetic history is elaborated in this study. Interactions of sea-level fluctuations, local tectonic activity and climate are reflected by the substantial dissolution and development of reservoir quality in different horizons of this mud-dominated carbonate unit. The history of reservoir formation and its evolution during post-depositional events are revealed by a high-resolution study of primary and secondary textural features and their relationships. Accordingly, the relative timing of these processes and their paragenetic sequences indicate a complex reservoir history. From the Late Albian to the Mid Turonian three phases of emergence originated from eustatic changes and movements of basement blocks (palaeohigh formation), which led to extensive leaching and karstification. The Mid Cenomanian eustatic sea-level fall led to the first disconformity. A second emergent period and disconformity was the result of Late Cenomanian–Early Turonian movement of basement blocks. An Early–Middle Turonian sea-level rise or local subsidence of the palaeohigh led to inundation of this area and deposition of the upper division of the Sarvak Formation. This buried the middle Sarvak Formation to shallow depths and caused some cementation and mechanical compaction. A widespread Mid Turonian fall in sea level and basin-wide exposure lasting several million years led to the formation of an important regional disconformity in the upper Sarvak unit, represented by major diagenetic dissolution and an over-mature karst profile. Concurrently, deep circulation of meteoric waters led to another phase of non-fabric selective leaching beneath the C–T disconformity (telogenetic diagenesis) in the middle Sarvak Formation. These two stages of diagenesis (eo- and telogenetic) resulted in considerable improvement of the reservoir in the middle Sarvak succession. Generally, these diagenetic features show a good correlation with depositional facies and sequence stratigraphic positions (systems tracts). As shown in this study, they are predictable in the sequence stratigraphic framework of the formation. Three third-order sequences in the Mid Cenomanian–Mid Turonian interval are recognized. These are clearly correlated over the Abteymour Oilfield and other areas in the Zagros Basin and Arabian Platform (Oman) and provide a suitable framework for reservoir correlations and further modelling.</t>
+          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2024074390</t>
+          <t>https://openalex.org/W1600043873</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/17449626.2011.556659</t>
+          <t>https://doi.org/10.1063/1.4923084</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bellaby et al. (2011)</t>
+          <t>Zimmerman et al. (2015)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Substituting ‘H&lt;sub&gt;2&lt;/sub&gt;for C’ and reducing global inequalities in health</t>
+          <t>Orbitals with intermediate localization and low coupling: Spanning the gap between canonical and localized orbitals</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Life expectancy and health differ greatly between emerging and developed countries and within countries. Global dependence on fossil fuels contributes to health inequalities through air pollution, the geopolitics of scarce resources and probable climate change arising from global warming. Substituting for fossil fuels (C), hydrogen (H2), as vector and store of energy produced from low-carbon and/or renewable sources could reduce health inequalities by improving the environment. It is unlikely that the global market would initiate such a change. Nation-states would not act alone and would need to cooperate in leading it. Global recession might be the incentive that is needed to restructure a C-economy into an H2-economy. Yet, the transition would carry high costs, which would have to be borne by the developed countries in order to achieve a new treaty that included emerging countries. H2 for C is thus not only a technical fix, but also a global-ethical choice.</t>
+          <t>Localized orbitals are representations of electronic structure, which are easier to interpret than delocalized, canonical orbitals. While unitary transformations from canonical orbitals into localized orbitals have long been known, existing techniques maximize localization without regard to coupling between orbitals. Especially in conjugated π spaces, orbitals are collapsed by unitary localization procedures into nonintuitive, strongly interacting units. Over-localization decreases interpretability, results in large values of interorbital coupling, and gives unmeaningful diagonal Fock energies. Herein, we introduce orbitals of intermediate localization that span between canonical and fully localized orbitals. To within a specified error, these orbitals preserve the diagonal nature of the Fock matrix while still introducing significant locality. In systems composed of molecular fragments, π spaces can be localized into weakly coupled units. Importantly, as the weakly coupled orbitals separate, highly coupled orbitals maintain their expected structure. The resulting orbitals therefore correspond well to chemical intuition and maintain accurate orbital energies, making this procedure unique among existing orbital localization techniques. This article focuses on the formation and physical analysis of orbitals that smoothly connect the known fully delocalized and fully localized limits.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2477913381</t>
+          <t>https://openalex.org/W2130194658</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5962/bhl.title.109939</t>
+          <t>https://doi.org/10.1007/11758532_76</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Koebele (1890)</t>
+          <t>Rahmani et al. (2006)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Report of a trip to Australia made under the direction of the Entomologist to investigate the natural enemies of the fluted scale /</t>
+          <t>An MDA-Based Modeling and Design of Service Oriented Architecture</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>How successful it has proved late reports already published in Insect Life, and elsewhere, have abundantly testified.They have more than justified the anticipations expressed in my last annual report:We fully expect to learn of the increase and rapid spread of this new introduction as well as some of the other predaceous species which have been introduced, and to find that in a comparatively few years the orange groves of southern California will he kept measurably freed of the pernicious Fluted Scale without so great an effort on the part of the growers or so great expense in destroying it.That nature will, with the new conditions induced by these importations, come to the relief of the fruit- grower, and that this interesting experiment will result in the ultimate saving of untold millions to the people of the Pacific Coast is our sincere belief which we hope to see verified.Not that we expect the Icerya to be ever entirely exterminated ; but it will be kept under subjection so as to be comparatively harmless, as it is in its native country.One of the insects imported, viz, the Cardinal Yedalia ( Vedalia cardi- nalis Mulsant), has multiplied and increased to such an extent as to rid many of the orange groves from Icerya and to promise immunity in the near future for the entire State of California.In fact, the rapid multi- plication and the effective work of this little beetle are almost incom- prehensible until we come to consider its power of increase in a climate like that of southern California, where there is scarcely any cessation in its activities.A careful account of the transformations of the Yedalia has been pre- pared by Mr. Coquillett and was published in Insect Life for Sep- tember, 1889, pages 70 to 74.I reproduce the figures in connection with Where possible I have endeavored by foot-notes to add to the specific accuracy of the insects referred to.C.</t>
+          <t>Traditional approaches to software systems development such as using tools and modeling frameworks are appropriate for building individual object oriented or component based software. However they are not suitable for designing of flexible distributed enterprise systems and open environments. In recent years, service-oriented architecture (SOA) has been proposed as a suitable architecture for development of such systems. Most current approaches in employing SOA are tailored to specific domains and hence are not general purpose. Therefore, in order to gain the full benefits of such technology, a more effective general approach to modeling and designing these complex distributed systems is required. In this paper, we present a model-driven approach to SOA modeling and designing complex distributed systems. In this approach, first the PIM of the business system is derived and expressed in standard UML modeling constructs and then this PIM is transformed to the SOA-based PIM by some transforming tool. After the SOA-based PIM is obtained, it can be used to generate PSM for a specific platform such as Web Services, Jini or other platforms. To make it clear how this PSM could be generated we will use Web Services as a target platform and the steps of this transformation will be shown.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322501042</t>
+          <t>https://openalex.org/W2958430348</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/biom13030432</t>
+          <t>https://doi.org/10.1111/1468-0424.12437</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Saxena et al. (2023)</t>
+          <t>Fisher &amp; Funke (2019)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
+          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
+          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285553183</t>
+          <t>https://openalex.org/W3165612848</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.3985235</t>
+          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sun et al. (2021)</t>
+          <t>Бутенко (2021)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Unraveling the Modified Regulation of Ternary Substitution on Na &amp;lt;sub&amp;gt;3&amp;lt;/sub&amp;gt;V &amp;lt;sub&amp;gt;2&amp;lt;/sub&amp;gt;(PO &amp;lt;sub&amp;gt;4&amp;lt;/sub&amp;gt;) &amp;lt;sub&amp;gt;3&amp;lt;/sub&amp;gt; for Sodium Ion Battery</t>
+          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>The opening three-dimensional Na3V2(PO4)3 (NVP) brings much attention for its high reversible capacity and long voltage platform. Unfortunately, its popularization and application are limited by the poor instinct conductivity property. Herein, a convenient sol-gel method is proposed to synthesize the potassium, lanthanum and silicon co-substituted NVP. The potassium ions are responsible for the extending along c axis while other two ions with larger ionic radius facilitate the extension of crystal structure along other directions. Accordingly, it can reduce the resistance existing in the neighboring coordination environment and improve the stability of crystal framework by enlarging the migration channels for sodium ions. Significantly, with the simultaneous function of ternary substitutions, slight lattice distortions occur in the crystal bulk and more active sites for reversible de-intercalation of sodium ions emerge for the first time, favorably supplementing the discharge capacity during the period of structural phase transition. Moreover, first-principle calculations demonstrate the introduction of three heteroatoms could decline the gap between conductive band and valence band and reduce the energy barrier of sodium migration. The optimized KLS0.07 (Na3.03V1.93La0.07(PO4)2.9(SiO4)0.1) cathode possesses superior sodium storage property in both half cell and full cell. This work reveals the distinctive advantages of ternary substitution on NVP system through the theoretical and experimental methods, contributing to the further exploration in other cathode materials in sodium ion battery.</t>
+          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3191909653</t>
+          <t>https://openalex.org/W4221017288</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2021.07.30.454390</t>
+          <t>https://doi.org/10.1007/s11442-022-1965-x</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Lovelace et al. (2021)</t>
+          <t>Zhang et al. (2022)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>An age-depth model and revised stratigraphy of vertebrate-bearing units in Natural Trap Cave, Wyoming</t>
+          <t>Distribution patterns of SOC/TN content and their relationship with topography, vegetation and climatic factors in China’s north-south transitional zone</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ABSTRACT Almost a half-century ago excavations at Natural Trap Cave (NTC) began to yield evidence of the steppe paleoecology along the western slope of the Bighorn Mountains in north central Wyoming. The first decade of fieldwork led to the discovery of a diverse fauna that existed at the end of the Last Glacial Maximum. Stratigraphic deposits below the entrance of the cave were studied soon after excavations began, but never formally published. Although stratigraphy, taphonomy, and depositional circumstances were briefly discussed over the following years, little has been done to correlate the numerous stratigraphic schemes used by various authors. In this study, four stratigraphic sections were measured and analysed to establish an easily modifiable lithostratigraphic system of nomenclature. We provide the first correlations of all stratigraphic nomenclature used throughout excavations at NTC to facilitate comparisons with current and previous collections and publications. By leveraging more than 100 radioisotopic dates we developed an age-depth model and chronostratigraphic framework to further interrogate spatiotemporal relationships between strata, paleoenvironmental proxies, and fossil assemblages. Deposition is shown to be discontinuous; sediment accumulation in the study area is restricted to the buildup through peak penultimate and Last Glacial maxima. More recent (&amp;lt;10 ka) Holocene deposits unconformably cover the eroded surface of underlying Pleistocene strata. There is active reworking of sediments with transport and deposition of reactivated sediments within the Lower Chamber. We note that the two hiatuses coincide with interglacial periods and may reflect changing depositional circumstances within the cave such as extended periods of non-deposition, erosion, or bypass (possibly leading to deposition in the Lower Chamber). Contrary to previous reports, we demonstrate that it is unlikely a prominent snow cone existed or contributed to the pattern of sediment and fossil distribution within the study area, furthermore, we do not observe a continuous Pleistocene-Holocene transition in the study area. Further stratigraphic work will be needed to better understand the interrelationship between Main and Lower chamber deposits and the evolution of sediment accumulation in NTC.</t>
+          <t>The spatial distributions and variation mechanism of key soil indices in the Qinling-Daba Mountains are important indicators for the identification of the transitional effect and regional characteristics of the north—south transitional zone in China. This manuscript analyzes the spatial variations in soil organic carbon (SOC) and total nitrogen (TN) and corresponding relationships with major geographical factors based on spatial analysis and geostatistics considering data obtained from the Second National Soil Survey. The results indicate that the spatial distributions of the SOC and TN contents are consistent, and three high-content areas, one secondary high-content area and one low-content area are observed. High content values are located in the high-altitude regions of the Qinling-Daba Mountains and mountainous areas to the west of the Jialing River, the low-content area occurs on the north slope of the Qinling Mountains, and the secondary high-content area mainly encompasses both sides of the Hanjiang River and regions in the Qinling-Daba Mountains at altitudes below 1000 m. The SOC and TN contents vary between the above two ranges, with the gradual increase in content revealing a horn-shaped pattern. Considering the spatial variations and functions of vegetation, topography and climate factors, it is found that the SOC/TN range in the secondary high-content area remains consistent along the 1000 m contour line, the upper limit of the transitional mountain altitudinal belt, the 0°C isotherm line in January and the 24°C isotherm line in July. This region constitutes the main body of the transitional zone between the subtropical and warm temperate zones, and the northern boundary is roughly distributed along the Dujiangyan-Maoxian-Pingwu-Wenxian line to the west of the Jialing River and the 1000 m contour line on the southern slope of the Qinling Mountains, while the southern boundary occurs along the Dujiangyan-Beichuan-Qingchuan line to the west of the Jialing River and the 1000 m contour line on the northern slope of the Daba Mountains. SOC/TN spatial variation provides a reference for the demarcation of the subtropical and warm temperate zones, and further identification of the soil processes and ecological effects in typical regions can help reveal multidimensional transitional characteristics and variation mechanisms.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2017235857</t>
+          <t>https://openalex.org/W2002131502</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.47.2661</t>
+          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Heinonen (1993)</t>
+          <t>Burns (1975)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Crystal-field symmetry and ordered phases in arrays of helical&lt;i&gt;XY&lt;/i&gt;spin chains</t>
+          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The effect of crystal-field symmetry and strength on the nature of ordered phases in three-dimensional systems consisting of arrays of helical XY spin chains is investigated. The phase diagrams of chiral chains in arrays with twofold symmetry always exhibit a Lifshitz point, where paramagnetic, ferromagnetic, and incommensurate phases meet. In contrast, the phase diagrams of chains in arrays in which the crystal field has higher symmetry than twofold have no Lifshitz point, whether the chains are chiral or not. In these arrays, the initial phase transition is always paramagnetic to incommensurate. The existence of a Lifshitz point in the phase diagram of nonchiral chains in arrays with twofold symmetry depends sensitively on the interchain coupling.</t>
+          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133358483</t>
+          <t>https://openalex.org/W2767463142</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5120/17130-7712</t>
+          <t>https://doi.org/10.3892/mmr.2017.7979</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sarkar &amp; Kar (2014)</t>
+          <t>Shi et al. (2017)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Adaptive E-learning using Deterministic Finite Automata</t>
+          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
+          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2074300212</t>
+          <t>https://openalex.org/W4317941081</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
+          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Tambour (1997)</t>
+          <t>Melnyk &amp; Zhukevych (2023)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
+          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
+          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071131254</t>
+          <t>https://openalex.org/W2008941290</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/jcli4289.1</t>
+          <t>https://doi.org/10.1016/s0883-2927(97)00093-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Li et al. (2007)</t>
+          <t>Åström (1998)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>The ENSO–Asian Monsoon Interaction in a Coupled Ocean–Atmosphere GCM</t>
+          <t>Partitioning of transition metals in oxidised and reduced zones of sulphide-bearing fine-grained sediments</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Abstract In this study, the authors evaluate the (El Niño–Southern Oscillation) ENSO–Asian monsoon interaction in a version of the Hadley Centre coupled ocean–atmosphere general circulation model (CGCM) known as HadCM3. The main focus is on two evolving anomalous anticyclones: one located over the south Indian Ocean (SIO) and the other over the western North Pacific (WNP). These two anomalous anticyclones are closely related to the developing and decaying phases of the ENSO and play a crucial role in linking the Asian monsoon to ENSO. It is found that the HadCM3 can well simulate the main features of the evolution of both anomalous anticyclones and the related SST dipoles, in association with the different phases of the ENSO cycle. By using the simulated results, the authors examine the relationship between the WNP/SIO anomalous anticyclones and the ENSO cycle, in particular the biennial component of the relationship. It is found that a strong El Niño event tends to be followed by a more rapid decay and is much more likely to become a La Niña event in the subsequent winter. The twin anomalous anticyclones in the western Pacific in the summer of a decaying El Niño are crucial for the transition from an El Niño into a La Niña. The El Niño (La Niña) events, especially the strong ones, strengthen significantly the correspondence between the SIO anticyclonic (cyclonic) anomaly in the preceding autumn and WNP anticyclonic (cyclonic) anomaly in the subsequent spring, and favor the persistence of the WNP anomaly from spring to summer. The present results suggest that both El Niño (La Niña) and the SIO/WNP anticyclonic (cyclonic) anomalies are closely tied with the tropospheric biennial oscillation (TBO). In addition, variability in the East Asian summer monsoon, which is dominated by the internal atmospheric variability, seems to be responsible for the appearance of the WNP anticyclonic anomaly through an upper-tropospheric meridional teleconnection pattern over the western and central Pacific.</t>
+          <t>Distribution and forms of transition metals (Ti, Zn, Ni, Co, Mn, Fe, Cu, V and Cr) were investigated in oxidised, partly oxidised and reduced zones of sulphide-bearing fine-grained sediments located in the coastal areas of western Finland. Samples for the analysis and study of vertical distribution of elements were taken from each vertical 10 cm section in pits ranging in depth between 2 and 3 metres, while bulk samples for characterisation of species and forms of metals were taken from 3 zones in each pit: the acid sulphate soil (characterised by acid and oxidising conditions), transition zone (characterised by a steep pH gradient and partly oxidising conditions) and the reduced zone (pH &gt;6). The former samples were digested in aqua regia (3:1:2 HCl:HNO3:H2O), while the latter were digested in aqua regia and hot concentrated acids (HClO4–HNO3–HCl–HF) and were subjected to extractions with acid ammonium acetate, H2O2 and acid ammonium oxalate. Each leachate was analysed for metals with ICP–AES. The vertical variation in the concentrations of Ti were small at all the studied sites indicating that the sediments are homogeneous and that the total losses of other elements from the soil profiles (acid sulphate soil+transition zone) are not extensive. Field observations, extractions with ammonium oxalate, and concentration–variation patterns indicated that Fe-oxide is largely precipitated and retained also in these acid soils. There are, however, indications of redistribution of Fe within the soil profiles. The results also demonstrated that Mn, Ni, Zn, Co and Cu have been lost in considerable amounts from the acid sulphate soils. However, whereas Mn in general has been lost throughout the soil profile, part of the Zn, Ni and Co released in the acid sulphate soils have migrated downward and been reimmobilised in the transition zone immediately above the reduced zone. Also Cu has been lost from the acid sulphate soil, but generally in smaller proportions than Mn, Zn, Ni and Co. Dissolved metal sulphides seem to be major sources of the mobilised metal fractions. A main part of the V and Cr in the sediments are associated with weathering-resistant minerals. These metals are therefore, like Ti, only to a limited extent mobilised by the oxidation of the sulphide-bearing sediments.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1600043873</t>
+          <t>https://openalex.org/W2058706419</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.4923084</t>
+          <t>https://doi.org/10.1117/12.2018530</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Zimmerman et al. (2015)</t>
+          <t>Toth et al. (2013)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Orbitals with intermediate localization and low coupling: Spanning the gap between canonical and localized orbitals</t>
+          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Localized orbitals are representations of electronic structure, which are easier to interpret than delocalized, canonical orbitals. While unitary transformations from canonical orbitals into localized orbitals have long been known, existing techniques maximize localization without regard to coupling between orbitals. Especially in conjugated π spaces, orbitals are collapsed by unitary localization procedures into nonintuitive, strongly interacting units. Over-localization decreases interpretability, results in large values of interorbital coupling, and gives unmeaningful diagonal Fock energies. Herein, we introduce orbitals of intermediate localization that span between canonical and fully localized orbitals. To within a specified error, these orbitals preserve the diagonal nature of the Fock matrix while still introducing significant locality. In systems composed of molecular fragments, π spaces can be localized into weakly coupled units. Importantly, as the weakly coupled orbitals separate, highly coupled orbitals maintain their expected structure. The resulting orbitals therefore correspond well to chemical intuition and maintain accurate orbital energies, making this procedure unique among existing orbital localization techniques. This article focuses on the formation and physical analysis of orbitals that smoothly connect the known fully delocalized and fully localized limits.</t>
+          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130194658</t>
+          <t>https://openalex.org/W2732408955</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/11758532_76</t>
+          <t>https://doi.org/10.2495/cc170061</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rahmani et al. (2006)</t>
+          <t>Loeper &amp; Ott (2017)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>An MDA-Based Modeling and Design of Service Oriented Architecture</t>
+          <t>WATER CITY ROTTERDAM 2035</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Traditional approaches to software systems development such as using tools and modeling frameworks are appropriate for building individual object oriented or component based software. However they are not suitable for designing of flexible distributed enterprise systems and open environments. In recent years, service-oriented architecture (SOA) has been proposed as a suitable architecture for development of such systems. Most current approaches in employing SOA are tailored to specific domains and hence are not general purpose. Therefore, in order to gain the full benefits of such technology, a more effective general approach to modeling and designing these complex distributed systems is required. In this paper, we present a model-driven approach to SOA modeling and designing complex distributed systems. In this approach, first the PIM of the business system is derived and expressed in standard UML modeling constructs and then this PIM is transformed to the SOA-based PIM by some transforming tool. After the SOA-based PIM is obtained, it can be used to generate PSM for a specific platform such as Web Services, Jini or other platforms. To make it clear how this PSM could be generated we will use Web Services as a target platform and the steps of this transformation will be shown.</t>
+          <t>New land was constructed in the North Sea to modernize and extend the Port of Rotterdam: Maasvlakte 2. This new artificial island of 1000 hectares shifts the harbor activities of one of the biggest harbors worldwide further to the west, and enables the reconstruction of the former harbor and the development of new urban areas of the city of Rotterdam.The strategic focus of the urban development plan is to use the transformation to develop a "Clean Tech City" on the water: Water City Rotterdam 2035.This case study analyses the historical transformation processes of the city of Rotterdam to give insight into the relation of the harbor with the landscape and the city.A comparative study analyses the newly developed strategic design instruments of the four different areas (Merwe-Vier harbors, Rijn-Maas harbors, Waal-Eem harbors and RDM-Heijplaat) to conclude whether or not these tools are adequate to transform the areas sustainable.The developed design instruments are tested in three different designs to critically reflect on the conclusion.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W4285412215</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.1016/j.rechem.2022.100440</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Delhomme et al. (2022)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Effect of hemp on cement hydration: Experimental characterization of the interfacial transition zone</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>Hempcrete is low carbon footprint building material, which consists in a mix of a cement and/or lime binder and vegetal particles (shiv). Its high porosity and low density give it good insulation, hygrothermal and acoustic properties. On the other hand, the mechanical strength of hempcrete is very poor, which limited its used like a filling material in a load bearing structure. Its limits mechanical properties are due, among other things, to an Interfacial Transition Zone (ITZ) around the shiv, which is not hydrated like the rest of the matrix. The identification of the size and the characteristics of this ITZ is a key parameter to improve the mechanical properties of these kind of bio-based material. A new experimental test protocol, based on image analysis, was developed to achieve repetitive and robust visual observations of the formation of the ITZ. The high-water absorption and the leaching of shiv are the main parameters, which drive the shape and strength of the ITZ. A microstructural characterization was also conducted to understand the nature and origin of this less hydrated zone around the hemp. This experimental protocol will allow to determine the mix parameters that impact ITZ development and select the most appropriate binder/vegetal fiber couple to use.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2775019552</t>
+          <t>https://openalex.org/W1878173133</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adma.201703458</t>
+          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Chen et al. (2017)</t>
+          <t>De et al. (2008)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Black Phosphorus Nanosheets as a Neuroprotective Nanomedicine for Neurodegenerative Disorder Therapy</t>
+          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Abstract Transition‐metal dyshomeostasis is recognized as a critical pathogenic factor at the onset and progression of neurodegenerative disorder (ND). Excess transition‐metal ions such as Cu 2+ can catalyze the generation of cytotoxic reactive oxygen species and thereafter induce neuronal cell apoptosis. Exploring new chelating agents, which are not only capable of capturing excess redox‐active metal, but can also cross the blood–brain barrier (BBB), are highly desired for ND therapy. Herein, it is demonstrated that 2D black phosphorus (BP) nanosheets can capture Cu 2+ efficiently and selectively to protect neuronal cells from Cu 2+ ‐induced neurotoxicity. Moreover, both in vitro and in vivo studies show that the BBB permeability of BP nanosheets is significantly improved under near‐infrared laser irradiation due to their strong photothermal effect, which overcomes the drawback of conventional chelating agents. Furthermore, the excellent biocompatibility and stability guarantee the biosafety of BP in future clinical applications. Therefore, these features make BP nanosheets have the great potential to work as an efficient neuroprotective nanodrug for ND therapy.</t>
+          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3165612848</t>
+          <t>https://openalex.org/W4200409676</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
+          <t>https://doi.org/10.20535/2218-930032021247159</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Бутенко (2021)</t>
+          <t>Litynska et al. (2021)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
+          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
+          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4221017288</t>
+          <t>https://openalex.org/W3196265168</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11442-022-1965-x</t>
+          <t>https://doi.org/10.1007/978-3-030-85616-8_2</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Singh &amp; Eden (2021)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Distribution patterns of SOC/TN content and their relationship with topography, vegetation and climatic factors in China’s north-south transitional zone</t>
+          <t>Hanging Out Online: Social Life During the Pandemic</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>The spatial distributions and variation mechanism of key soil indices in the Qinling-Daba Mountains are important indicators for the identification of the transitional effect and regional characteristics of the north—south transitional zone in China. This manuscript analyzes the spatial variations in soil organic carbon (SOC) and total nitrogen (TN) and corresponding relationships with major geographical factors based on spatial analysis and geostatistics considering data obtained from the Second National Soil Survey. The results indicate that the spatial distributions of the SOC and TN contents are consistent, and three high-content areas, one secondary high-content area and one low-content area are observed. High content values are located in the high-altitude regions of the Qinling-Daba Mountains and mountainous areas to the west of the Jialing River, the low-content area occurs on the north slope of the Qinling Mountains, and the secondary high-content area mainly encompasses both sides of the Hanjiang River and regions in the Qinling-Daba Mountains at altitudes below 1000 m. The SOC and TN contents vary between the above two ranges, with the gradual increase in content revealing a horn-shaped pattern. Considering the spatial variations and functions of vegetation, topography and climate factors, it is found that the SOC/TN range in the secondary high-content area remains consistent along the 1000 m contour line, the upper limit of the transitional mountain altitudinal belt, the 0°C isotherm line in January and the 24°C isotherm line in July. This region constitutes the main body of the transitional zone between the subtropical and warm temperate zones, and the northern boundary is roughly distributed along the Dujiangyan-Maoxian-Pingwu-Wenxian line to the west of the Jialing River and the 1000 m contour line on the southern slope of the Qinling Mountains, while the southern boundary occurs along the Dujiangyan-Beichuan-Qingchuan line to the west of the Jialing River and the 1000 m contour line on the northern slope of the Daba Mountains. SOC/TN spatial variation provides a reference for the demarcation of the subtropical and warm temperate zones, and further identification of the soil processes and ecological effects in typical regions can help reveal multidimensional transitional characteristics and variation mechanisms.</t>
+          <t>In March 2020, the government of India ordered a nationwide lockdown to prevent the spread of Covid-19. This led to the shutdown of educational institutes throughout the country, restricting all activities to online mediums. The shift has affected how students engage with each other, where rather than in-person interaction, they meet through a variety of online tools. In this paper, we discuss how the normal everyday routine of 'hanging out' with friends has been transformed during a prolonged lockdown of over ten months and counting. We investigate the opportunities and challenges students encounter when socializing online through various online modes including video calls, communal movie watching and social media. We discuss how social interaction; in particular, hanging out with friends has been transformed through these technologies and its implications for facilitating spontaneous interaction, negotiating intimacy, mutual understanding, and accessibility to different social groups. Finally, we conclude with a discussion of how these factors impact the transition from in-person to online modes of casual social interaction.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002131502</t>
+          <t>https://openalex.org/W1969258591</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
+          <t>https://doi.org/10.2307/1379513</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Burns (1975)</t>
+          <t>Beatley (1976)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
+          <t>Environments of Kangaroo Rats (Dipodomys) and Effects of Environmental Change on Populations in Southern Nevada</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
+          <t>Climates and plant components of environments of the heteromyid rodents Dipodomys merriami, D. microps, and D. deserti are characterized and compared on sites over 2600 square kilometers in central-southern Nevada. Sites compared are those with the 20 highest-density populations each of D. merriami and D. microps, and all sites with D. deserti, from among 58 undisturbed communities where rodent numbers were established by five consecutive years of censusing. The study areas were in eight drainage basins of the Nevada Test Site, at elevations of 915 to 1850 meters (m), and included Mojave, Great Basin, and transition desert systems. Other parameters measured on each site, and compared for the site groups, are rainfall, maximum and minimum air temperatures, and various parameters for all plant components of the systems. Plant data were collected seasonally with the rodent data, whereas the climatic data were for 10 years. Distributions of D. merriami and D. deserti were correlated with the low shrub cover and low mean precipitation/mean temperature (P/T) ratios of the Mojave Desert Larrea communities. Distributions and higher densities of D. microps were closely correlated with the high shrub cover and high P /T ratios of the Coleogyne and Grayia-Lycium communities of the transition, and Artemisia of the Great Basin Desert. On the compared sites either D. merriami or D. microps usually occurred to the near exclusion of the other, and none of the plant parameters other than percentage shrub cover distinguished the two rodent environments. Restriction of D. microps to environments with high mean rainfall supports recent physiological evidence by others that this species may have the highest bodywater turnover rate and lowest urine-concentrating ability in the genus. On nine other sites shrub cover had been destroyed (and surface soils modified) by nuclear detonations, fire, or blading prior to the measurements period. Three of the sites were in declining ionizing-radiation fields. Regardless of nature of origin of the disturbance, there was a rapid and usually nearly complete replacement of D. microps by large D. merriami populations following the disturbance. The only change in plant parameters consistent among the sites was the large reduction in shrub cover. Occupancy of these sites by D. merriami was in accord with its ability to live with low shrub cover. Disappearance of D. microps was evidently related to its corresponding requirement of high shrub cover, suggesting a vulnerability to elimination by predators where there are few or no shrubs in the environment.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2147234190</t>
+          <t>https://openalex.org/W2972553640</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/03684921211275324</t>
+          <t>https://doi.org/10.1371/journal.pone.0222161</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Wu &amp; Zhao (2012)</t>
+          <t>Kang et al. (2019)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Organizational learning and the complexity of strategic human resource management</t>
+          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Purpose The purpose of this paper is to describe the complicated characteristics of the environment, the relationship between complicated organization and organizational transformation, and the coupling domino effect between the complication of external environment and organizational complexity by making conceptual systematic analysis. Design/methodology/approach The relative stability and certainty of the organizational structure are being replaced by uncertainty and complexity. Organizational learning and its reform are becoming all the more important to gain organizational competitive advantage. This paper designs the system analysis method to discuss the complexity of organizational environment, the relationship between organizational complexity and organizational structure reform, and also the coupling effect of the complexity of external environment and that of the organization. Findings It is found that organizational learning, the ways of strategic reform, and the focal point must remain consistent under the complicated environment. Research limitations/implications The main limitation is how to construct the mathematical models describing complicated characteristics of the environment. Practical implications The paper contains very useful advice for human resource managers. Originality/value The paper focuses on the selection of learning patterns and strategic management of different organizational learning and the reform of organizational structure.</t>
+          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387576927</t>
+          <t>https://openalex.org/W2009334730</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://doi.org/10.19195/1643-0328.31.7</t>
+          <t>https://doi.org/10.1353/gyr.2013.0009</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Jacuński (2023)</t>
+          <t>Lande (2013)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Proces digitalizacji partii politycznych — w kierunku interdyscyplinarności badań</t>
+          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The aim of the article is to address the issue of digitalization of political parties. The transformations in the nature of political parties related to the development of digital technologies require a reconstruction of the way scholars used to study party organizations based on well-established party models. The author points to several research areas and challenges related to the digitalization of parties and proposes to go beyond the narrow single-discipline perspective towards an interdisciplinary perspective.</t>
+          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2314838741</t>
+          <t>https://openalex.org/W4387567255</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5940/jcrsj.41.146</t>
+          <t>https://doi.org/10.4324/9781003288343-6</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Adachi et al. (1999)</t>
+          <t>Hampel et al. (2023)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Structural Phase Transitions of Rare Earth Monophosphides with NaCl-Type Structure under High Pressures.</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Rare earth monophosphides REP (RE=La, Ce, Pr, Nd, Sm, Gd, Tb, Tm and Yb) crystallize in a NaCl-type structure at ambient pressure. Using synchrotron radiation X-ray diffractions of REP have been studied up to about 60 GPa at room temperature. All phosphides are found to undergo structural phase transitions at high pressures. The high pressure phases of LaP, PrP and NdP can be assigned to be a tetragonal structure, which can be seen as the distorted CsCl-type structure. The pressure-induced phase transitions of SmP, GdP, TbP, TmP and YbP occur at around 35, 40, 38, 53 and 51 GPa, respectively. The structure of the high pressure phases is unknown. X-ray diffraction patterns of the compounds with many f-elecrons become more complex at high pressure. It is expected that 4f-electrons in rare earth atoms influence the structure of the high pressure phases.</t>
+          <t>Sustainable Development of Solar Power for the European Transition to Renewable Energy</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388916053</t>
+          <t>https://openalex.org/W4292304407</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2478/agr-2023-0011</t>
+          <t>https://doi.org/10.2139/ssrn.4191227</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Șonea et al. (2023)</t>
+          <t>Mikayilov et al. (2022)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Optimizing Animal Nutrition and Sustainability Through Precision Feeding: A Mini Review of Emerging Strategies and Technologies</t>
+          <t>Energy Price Reform to Mitigate Transportation Carbon Emissions in Oil-Rich Economies</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Abstract Precision feeding, a practice involving customized diets tailored to individual nutritional requirements, has emerged as a promising paradigm within animal production, underpinned by advanced technologies and data analytics. This mini review embarks on an exploration of the evolutionary trajectory of precision feeding and its profound ramifications on animal nutrition, environmental sustainability, and animal welfare. Prominent technological advancements, exemplified by sensors and automation, have wrought transformative change across various sectors, spanning from dairy farming to poultry production. These technological innovations facilitate real-time monitoring and data accrual, thereby augmenting feed efficiency and fostering animal well-being. Environmental sustainability assumes an integral role in the precision feeding paradigm. Through the reduction of feed wastage and the minimization of nutrient excretion, it serves as a potent mitigating solution against the environmental footprint synonymous with livestock production. This entails a noteworthy reduction in greenhouse gas emissions and the prevention of water pollution. The interplay between precision feeding and animal welfare is intricate and multifaceted. On one hand, it furnishes farmers with the capability to expeditiously monitor and address animal health issues. On the other hand, it poses challenges associated with social interactions and the fulfilment of individualized nutritional needs. The future trajectory of precision feeding is inherently tied to the resolution of imminent challenges, including the imperative for real-time monitoring, the development of cost-effective large-scale implementation, and comprehensive elucidation of long-term effects on animal health and welfare. The ensuing panorama portends promising prospects, encompassing the optimization of resource efficiency, diminution of environmental impacts, and the formulation of personalized nutritional strategies. In summation, precision feeding stands as a domain teeming with potential, poised to optimize both animal nutrition and the sustainability quotient within animal production. Realizing this potential hinge on the adept addressing of forthcoming challenges, coupled with the astute harnessing of emergent technologies, in our collective pursuit of a more sustainable and ethically principled agricultural landscape.</t>
+          <t>We investigate the impact of domestic fuel prices, and other drivers, including population and economic activity on transport CO2 emissions using Saudi Arabia as a case study. We find statistically significant long-run relationships between the studied variables. Despite the low responsiveness of transport CO2 emissions to fuel price, with estimated elasticity values ranging from -0.1 to -0.15, the study concluded that the Saudi government’s current strategy to reduce fuel incentives is relevant and timely. Forecast findings for a 2030 scenario with greater economic activity ambitions and a further increase in domestic fuel prices to match real market costs resulted in a 1.8 percent reduction in annual transport CO2 emissions from 2021 to 2030 compared to a constant fuel price scenario. The findings hold significance not only for Saudi Arabia but also for other oil-rich economies attempting to facilitate the transition to a more sustainable transportation future.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://openalex.org/W2474609532</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>Azizi et al. (2013)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>Natural course of thyroid disease profile in a population in nutrition transition: Tehran Thyroid Study.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>There is a lack of data regarding the incidence rate, etiology, risk factors, and natural course of thyroid disorders and their relationship with cardiovascular disease and mortality in populations undergoing nutrition transition. Therefore, we aimed to assess the natural course of thyroid disease in Tehranians, a population in nutrition transition.Between March 1997 and December 2004, 5769 individuals, aged ≥ 20 years, were selected from district No.13 of Tehran and followed up every three years. Data on risk factors for cardiovascular disease such as diabetes, hyperlipidemia, smoking, obesity, hypertension, low levels of physical activity, and dietary habits were obtained at baseline and again every three years. Cardiovascular and mortality outcomes were assessed in detail.The results of this study will provide a better recognition regarding the incidence and risk factors of thyroid disorders and their relationship with cardiovascular outcomes and mortality in a community in nutrition transition.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3202064113</t>
+          <t>https://openalex.org/W2040919102</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2021.09.28.462102</t>
+          <t>https://doi.org/10.1074/jbc.m403212200</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Kobayashi et al. (2021)</t>
+          <t>Pangas et al. (2004)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tumor-Cell Invasion Initiates at Invasion Hotspots, an Epithelial Tissue-Intrinsic Microenvironment</t>
+          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Summary Malignant cancers emerge in epithelial tissues through a progressive process in which a single transformed mutant cell becomes tumorigenic and invasive. Although numerous genes involved in the malignant transformation of cancer cells have been described, how tumor cells launch an invasion into the basal side of epithelial tissues remains elusive. Here, using a Drosophila wing imaginal disc epithelia, we show that genetically mosaic clones of cells mutant for a neoplastic-tumor-suppressor gene ( nTSG ) in combination with the oncogenic Ras ( Ras V12 ) expression initiate invasion into the basal side of the epithelial layer at specific spots in the epithelial tissue. In this “invasion hotspot”, the oncogenic double-mutant cells activate c-Jun N-terminal kinase (JNK) signaling, which causes basal extrusion of the double-mutant cells and destruction of basement membrane through upregulation of a matrix metalloprotease, MMP1. Conversely, in other regions of the epithelial tissue, the double-mutant cells do not strongly activate JNK, deviate from the apical side of the epithelial layer, and show benign tumor growth in the lumen. These data indicate that the onset of tumor-cell invasion is highly dependent on the tissue-intrinsic local microenvironment. Given the conservation of genetic signaling pathways involved in this process, initiation of tumor-cell invasion from invasion hotspots in Drosophila wing imaginal epithelia could help us to understand the developmental mechanisms of invasive cancers.</t>
+          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2786347880</t>
+          <t>https://openalex.org/W4392589608</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-981-10-8393-8_2</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-5280</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Safari et al. (2018)</t>
+          <t>Snoll et al. (2024)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Role of Gas-Fuelled Solutions in Support of Future Sustainable Energy World: Part II: Case Studies</t>
+          <t>Sensitivity of millennial-scale climate oscillations to boundary conditions in HadCM3 glacial simulations</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Following Part I of this study, this chapter highlights each region in the world as having its own solution and approach to considering natural gas as a fuel of choice for smooth transition towards a sustainable energy world. Although energy sustainability is recognised as a global challenge, many of the issues inherent in this domain are site-specific. Therefore, it is necessary to identify suitable local solutions whilst taking into account resources, infrastructure, economic aspects, as well as the local/national energy policies. This means that there is not one solution that fits all cases; therefore, tailor-made solutions devised in mind of different circumstances need to be considered. The case study presented in this chapter compares different countries, i.e. industrial vs developing and those with national resources vs import dependent countries, with the aim of illuminating the fact that final choices and approaches that are seen to have a major impact on global warming due to CO2 emissions from fossil fuels might look very different. In this part of the study, focus is centred on the utilisation of natural gas as the ideal partner complementary to renewables in a future sustainable energy mix, in support of different regions’ policies. In this way, security of supply as a foundation for industrial development and the continued functioning of a modern society have to be maintained independent of the energy mix applied in each country. Different scenarios are presented and analysed in the case study, with attention paid towards discussing and illuminating the possible ways in which natural gas may be seen as a transition fuel from a global perspective so as to pave the way for the realisation of carbon-neutral or carbon-free energy solutions for the future. Since the examples presented cover four different categories of country (India, Iran, Norway and UK), combined characteristics may be recognised as representative for a large number of countries, thus making the generality of the conclusions rather strong.</t>
+          <t>Rom&amp;amp;#233; et al. (2022) present a new set of long-run Last Glacial Maximum experiments with millennial-scale climate oscillations between cold and warm modes. These oscillations are triggered by different snapshots of ice-sheet meltwater derived from the early stages of the last deglaciation. The overall characteristics of the oscillating events share similarities with &amp;amp;#948;18O records of the last glacial period. We test the robustness of these oscillations under different climate conditions, i.e., changes in atmospheric carbon dioxide concentration and orbital configuration. These experiments were run with intentions to better understand the range of conditions the oscillations can be sustained within the model and provide additional insight into the triggering mechanisms that control abrupt climate changes. The results of our sensitivity analysis show that small changes in carbon dioxide concentrations can impact the periodicity and existence of oscillations. A decrease in carbon dioxide concentration decreases periodicity, and an increase in carbon dioxide concentration increases periodicity, leading to an end of the oscillations. Our results also show that for changes in orbital configuration, an increase in Northern Hemisphere summer insolation decreases periodicity and potentially also amplitude. The results show that small changes in climate conditions can impact the shape and existence of oscillations and how this could relate to the changing periodicity and amplitude of observed Dansgaard-Oeschger events as well as transitions from glacial to interglacial states.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2054004857</t>
+          <t>https://openalex.org/W1827101252</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/nas.2005.0016</t>
+          <t>https://doi.org/10.1093/genetics/151.2.667</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Alemayehu (2001)</t>
+          <t>Parsch et al. (1999)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Macroeconomic Performance in Post-Derg Ethiopia</t>
+          <t>A Highly Conserved Sequence in the 3′-Untranslated Region of the Drosophila Adh Gene Plays a Functional Role in Adh Expression</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>This paper appraises macroeconomic performance in post-Derg Ethiopia, organizing its analysis along four thematic categories important in explaining growth and macrodevelopment: (1) the political framework underpinning the macroeconomic performance, (2) the macrogrowth framework, (3) the market structures under which economic agents function, and (4) constraints to economic agents. The method employed is the before-after approach. The study revealed that although performance is very good when judged in the context of the structural problems of the post-Derg period, sustainability of the results is highly questionable. The latter is the result of the dependence of major macro variables on vagaries of nature, especially a good rainy season, and external shocks that are accentuated by lack of structural transformation in the economy over the last three decades.</t>
+          <t>Abstract Phylogenetic analysis identified a highly conserved eight-base sequence (AAGGCTGA) within the 3′-untranslated region (UTR) of the Drosophila alcohol dehydrogenase gene, Adh. To examine the functional significance of this conserved motif, we performed in vitro deletion mutagenesis on the D. melanogaster Adh gene followed by P-element-mediated germline transformation. Deletion of all or part of the eight-base sequence leads to a twofold increase in in vivo ADH enzymatic activity. The increase in activity is temporally and spatially general and is the result of an underlying increase in Adh transcript. These results indicate that the conserved 3′-UTR motif plays a functional role in the negative regulation of Adh gene expression. The evolutionary significance of our results may be understood in the context of the amino acid change that produces the ADH-F allele and also leads to a twofold increase in ADH activity. While there is compelling evidence that the amino acid replacement has been a target of positive selection, the conservation of the 3′-UTR sequence suggests that it is under strong purifying selection. The selective difference between these two sequence changes, which have similar effects on ADH activity, may be explained by different metabolic costs associated with the increase in activity.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2755302560</t>
+          <t>https://openalex.org/W3210758691</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.egypro.2017.07.434</t>
+          <t>https://doi.org/10.5281/zenodo.3770921</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Nik et al. (2017)</t>
+          <t>Roarty (2020)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Investigating the importance of future climate typology on estimating the energy performance of buildings in the EPFL campus</t>
+          <t>2007-2016 Surface Circulation over the Mid Atlantic Bight Continental Shelf derived from a Decade of High Frequency Radar Observations</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Climate changes induce warmer climate with stronger and more frequent extreme events. Due to the uncertain nature of climate, accurate simulation of future conditions is impossible and a major challenge is the selection of climate data in the impact assessment. This work compares application of three climate data sets in an energy simulation of the EPFL campus: i) Regional Climate Models (RCM data), ii) statically representative RCM data, and iii) morphed data. The energy behavior of the campus is analyzed, including its future thermal behavior, as well as its dynamic hourly variation due to the climatic data. The objective of this paper is to understand and quantify the energy transition, from 2010 to 2100, by focusing on the thermal behavior of buildings, as well as their energy demand for heating and cooling. Results explain the difference between three cases, underling the important impact related to a sound selection of the weather data.</t>
+          <t>A decade (2007-2016) of hourly 6 km resolution maps of the surface currents across the Mid Atlantic Bight (MAB) generated by a regional-scale High Frequency Radar network are used to reveal new insights into the spatial patterns of the long term annual and seasonal mean surface flows. Across the 10 year time series, temporal means, inter- and intra-annual variability are used to quantify the variability of spatial surface current patterns from season to season and year to year. The 10-year annual mean surface flows are weaker and mostly cross shelf near the coast, increasing in speed and rotating to more alongshore directions near the shelf break, and increasing in speed and rotating to flow off-shelf in the southern MAB. The annual mean surface current pattern is relatively stable year to year compared to the hourly variations within a year. The ten-year seasonal means exhibit similar current patterns, with winter and summer more cross-shore while spring and fall transitions are more alongshore. Fall and winter mean current speeds are larger and correspond to a time when the mean winds are stronger and cross-shore. Summer mean currents are weakest and correspond to a time when the mean wind opposes the alongshore flow. Again, intra-annual variability is much greater than interannual, with the fall season exhibiting the most interannual variability in the surface current patterns. The extreme fall seasons of 2009 and 2011 are related to extremes in the wind and river discharge events caused by different persistent synoptic meteorological conditions, resulting in more or less rapid fall transitions from stratified summer to well-mixed winter conditions.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285412215</t>
+          <t>https://openalex.org/W2046124304</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rechem.2022.100440</t>
+          <t>https://doi.org/10.1306/5d25c35d-16c1-11d7-8645000102c1865d</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Delhomme et al. (2022)</t>
+          <t>Kahle (1968)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Effect of hemp on cement hydration: Experimental characterization of the interfacial transition zone</t>
+          <t>Petrology and Structure of a Salina (Silurian) Dolomitized Algal Stromatolite Complex, Northwestern Ohio: ABSTRACT</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Hempcrete is low carbon footprint building material, which consists in a mix of a cement and/or lime binder and vegetal particles (shiv). Its high porosity and low density give it good insulation, hygrothermal and acoustic properties. On the other hand, the mechanical strength of hempcrete is very poor, which limited its used like a filling material in a load bearing structure. Its limits mechanical properties are due, among other things, to an Interfacial Transition Zone (ITZ) around the shiv, which is not hydrated like the rest of the matrix. The identification of the size and the characteristics of this ITZ is a key parameter to improve the mechanical properties of these kind of bio-based material. A new experimental test protocol, based on image analysis, was developed to achieve repetitive and robust visual observations of the formation of the ITZ. The high-water absorption and the leaching of shiv are the main parameters, which drive the shape and strength of the ITZ. A microstructural characterization was also conducted to understand the nature and origin of this less hydrated zone around the hemp. This experimental protocol will allow to determine the mix parameters that impact ITZ development and select the most appropriate binder/vegetal fiber couple to use.</t>
+          <t>A unique algal stromatolite complex is located southwest of Maumee, Ohio, on the Niagaran reef-bank system that contributed to the isolation of the Michigan basin during the Cayugan Epoch. Overlying strata have been eroded so that the individual features of the complex may be studied in essentially their original paleogeographic setting. Major features in the study area include tidal channels, natural carbonate levees, algal mounds, scour channels, laminations, ripple marks, desiccation cracks, and gypsum and anhydrite molds. The dolomite rocks in the area may be subdivided into eight microfacies as follows: (1) mound; (2) End_Page 534------------------------------ mound scour channel; (3) mound transition; (4) intermound; (5) blanket; (6) laterally linked hemispheroid; (7) mud flat; and (8) tidal channel. Each of these microfacies is characterized by a particular algal mat frequency, the degree of development and the nature of laminations, and by the amount of mechanically deposited sediment. Major rock types are stromatolite-constructed dolomite mudstone, wackestone, and packstone. Nearly all samples are characterized by the partial or pervasive development of a filamentous (and presumably algal) microstructure. Burrows and pellets are uncommon in all of the microfacies. Ostracods are common. Laminations are well developed in all of the microfacies except the mound microfacies. Breccias are common especially in algal mounds and are due to mineralization by sulfate minerals, and dedolomitization, desiccation, and solution collapse. The general sequence of mineralization was: (1) formation of microcrystalline xenotopic dolomite, probably by replacement of an initial CaCO3 mud, accompanied by the formation of gypsum and anhydrite; (2) dedolomitization, primarily in the mound microfacies; (3) partial replacement of calcite and dolomite by celestite; (4) replacement of some calcite, dolomite, and celestite by fluorite; and (5) limited formation of medium crystalline, idiotopic, and hypidiotopic dolomite by a process of local source dolomite crystallization and recrystallization. Comparison with several Recent carbonate analogs in the Persian Gulf and Bahamas suggests that most of the eight microfacies were formed in a supratidal environment. End_of_Article - Last_Page 535------------</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1982134058</t>
+          <t>https://openalex.org/W12687961</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0026-0495(76)90114-1</t>
+          <t>https://doi.org/10.1007/978-3-642-16985-4_17</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DeRubertis &amp; Craven (1976)</t>
+          <t>Braatz &amp; Brandt (2010)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Sequential alterations in the hepatic content and metabolism of cyclic AMP and cyclic GMP induced by DL-ethionine: Evidence for malignant transformation of liver with a sustained increase in cyclic AMP</t>
+          <t>How to Modify on the Semantic Web?</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>There is evidence than adenosine 3',5'-monophosphate (cAMP) and guanosine 3',5'-monophosphate (cGMP) may have antagonistic actions on cell growth, with cAMP inhibiting and cGMP stimulating this process. However, reductions in cAMP and increases in cGMP are not charactersitic of all neoplastic tissues. Thus, benign and malignant tissues from hepatoma-bearing rats exposed to the hepatic carcinogen DL-ethionine have elevated rather than depressed cAMP, compared to control liver, and parenteral administration of this drug increases hepatic cAMP within hours. In the present study, the effects of ethionine ingestion on the hepatic content and metabolism of both cAMP and cGMP were examined sequentially in rats at 2 and then 6 wk intervals, from the initiation of drug administration until the development of hepatomas. After 2 wk, cAMP content of quick-frozen liver from rats receiving ethionine (E) was significantly increased (826 +/- 91 pmole/g wet weight) above that of liver from pair-fed controls (C, 415 +/- 44), whether calculated by tissue wet weight, protein, or DNA content. In benign tissue from E, higher cAMP was still evident after in vitro incubations of slices with 2 mM 1-methyl-3-iso-butylxanthine (MIX) and was associated with enhanced adenylate cyclase and unchanged high or low Km cAMP-phosphodiesterase activities. These findings are compatible with accelerated cAMP generation in liver from E. Protein kinase activity ratios were significantly increased in frozen liver from E (0.52 +/- 0.04 versus 0.36 +/- 0.03 in C), and the percent glycogen synthetase in the I form was clearly reduced (19% +/- 2% in E versus 47% +/- 5% in c). incubation of hepatic slices from E or C with MIX and/or 10 muM glucagon further increased cAMP and protein kinase activity ratios, data which imply higher effective, as well as total, cellular cAMP in E. Changes in cAMP metabolism and action observed at 2 wk persisted throughout the 38-wk period of drug ingestion. Adenylate cyclase activity, cAMP content, and protein kinase activity ratios of ethionine-induced hepatomas exceeded those of both the surrounding liver from tumor-bearing rats and that of control liver, but alterations in these parameters were qualitatively similar in both tissues from E. By contrast, while cGMP in quick-frozen surrounding liver from tumor-bearing rats (36 +/- 4 pmole/g wet weight) did not differ from that of control liver (30 +/- 3), cGMP in the hepatomas was increased. This change was evident in both frozen tumor (89 +/- 10) and in tumor slices incubated in vitro with MIX (C, 90 +/- 11; surrounding liver, 85 +/- 10; hepatoma 231 +/- 29). These results indicate that malignant conversion can occur in liver with a sustained elevation of both total and effective cAMP during the premalignant phase. The increase in cGMP detected in ethionine-induced hepatomas could also be a key determinant of malignant transformation in the model, although premalignant changes in cGMP were not apparent.</t>
+          <t>In this paper, we show how formal methods of algebraic graph transformation can be made available in the technological environment of the Semantic Web. This new and promising approach allows to model and formulate transformation operations on a high level of abstraction. To demonstrate its feasibility, we develop a small book shop case study. We show how some of the necessary modification operations in this settings can be realised by the proposed SPARQL/Update language and by our rule-based graph transformation approach. In a comparison, we highlight the main differences between these two approaches. The most important benefit of our rule-based transformation approach is that it facilitates to move from application engineering to rule engineering and thereby support generic solutions, which lower the maintenance efforts by supporting the declarative specification of modification operations.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2078953740</t>
+          <t>https://openalex.org/W1994009899</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5465/ambpp.2008.33650020</t>
+          <t>https://doi.org/10.1080/03067319.2014.983494</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Melian &amp; Mähring (2008)</t>
+          <t>Camilleri et al. (2014)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>LOST IN TRANSLATION? APPROPRIATION OF OPEN SOURCE SOFTWARE DEVELOPMENT AT HEWLETT-PACKARD.</t>
+          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Academy of Management Annual Meeting Proceedings includes abstracts of all papers and symposia presented at the annual conference, plus 6-page abridged versions of the “Best Papers” accepted for inclusion in the program (approximately 10%). Papers published in the Proceedings are abridged because presenting papers at their full length could preclude subsequent journal publication. Please contact the author(s) directly for the full papers. ArticlesLOST IN TRANSLATION? APPROPRIATION OF OPEN SOURCE SOFTWARE DEVELOPMENT AT HEWLETT-PACKARD.CATHARINA MELIAN and MAGNUS MÄHRINGCATHARINA MELIAN and MAGNUS MÄHRINGPublished Online:30 Nov 2017https://doi.org/10.5465/ambpp.2008.33650020AboutSectionsPDF/EPUB ToolsDownload CitationsAdd to favoritesTrack Citations ShareShare onFacebookTwitterLinkedInRedditEmail AbstractThe article presents a study of how Hewlett-Packard (HP) created their proprietary "Progressive Open Source" (POS) process using the open source software development approach as a template. The longitudinal case study method is used to investigate the transformations involved in making the open source approach compatible with the corporate environment of HP. Actor-network theory is cited and the construction of POS through interactions and translation is analyzed in terms of meanings assigned to the work.FiguresReferencesRelatedDetails Vol. 2008, No. 1 Permissions Metrics in the past 12 months History Published online 30 November 2017 Published in print 1 August 2008 InformationCopyright of Academy of Management Journal is the property of Academy of Management and its content may not be copied or emailed to multiple sites or posted to a listserv without the copyright holder’s express written permission. However, users may print, download, or email articles for individual use.KeywordsOPEN source softwareCOMPUTER softwareINTELLECTUAL cooperationCORPORATIONS -- Sociological aspectsMANAGEMENTDownload PDF</t>
+          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200409676</t>
+          <t>https://openalex.org/W3016878001</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20535/2218-930032021247159</t>
+          <t>https://doi.org/10.1002/cctc.202000245</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Litynska et al. (2021)</t>
+          <t>Souza et al. (2020)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
+          <t>Artificial Metalloenzymes based on TetR Proteins and Cu(II) for Enantioselective Friedel‐Crafts Alkylation Reactions</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
+          <t>The supramolecular approach is among the most convenient methodologies for creating artificial metalloenzymes (ArMs). Usually this approach involves the binding of a transition metal ion complex to a biomolecular scaffold via its ligand, which also modulates the catalytic properties of the metal ion. Herein, we report ArMs based on the proteins CgmR, RamR and QacR from the TetR family of multidrug resistance regulators (MDRs) and Cu2+ ions, assembled without the need of a ligand. These ArMs catalyze the enantioselective vinylogous Friedel-Crafts alkylation reaction with up to 75 % ee. Competition experiments with ethidium and rhodamine 6G confirm that the reactions occur in the chiral environment of the hydrophobic pocket. It is proposed that the Cu2+-substrate complex is bound via a combination of electrostatic and π-stacking interactions provided by the second coordination sphere. This approach constitutes a fast and straightforward way to assemble metalloenzymes and may facilitate future optimization of the protein scaffolds via mutagenesis or directed evolution approaches.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3196265168</t>
+          <t>https://openalex.org/W4387302972</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-030-85616-8_2</t>
+          <t>https://doi.org/10.24833/2541-8831-2023-3-27-104-123</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Singh &amp; Eden (2021)</t>
+          <t>Romanin (2023)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Hanging Out Online: Social Life During the Pandemic</t>
+          <t>Hic Sunt Dracones: Foreign Space in the English and Russian Worldview as Reflected by the Pejorative Toponymy of the English and Russian Languages</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>In March 2020, the government of India ordered a nationwide lockdown to prevent the spread of Covid-19. This led to the shutdown of educational institutes throughout the country, restricting all activities to online mediums. The shift has affected how students engage with each other, where rather than in-person interaction, they meet through a variety of online tools. In this paper, we discuss how the normal everyday routine of 'hanging out' with friends has been transformed during a prolonged lockdown of over ten months and counting. We investigate the opportunities and challenges students encounter when socializing online through various online modes including video calls, communal movie watching and social media. We discuss how social interaction; in particular, hanging out with friends has been transformed through these technologies and its implications for facilitating spontaneous interaction, negotiating intimacy, mutual understanding, and accessibility to different social groups. Finally, we conclude with a discussion of how these factors impact the transition from in-person to online modes of casual social interaction.</t>
+          <t>The article examines the perception of the foreign space in the English and Russian native speakers’ worldviews based on the pejorative names of foreign countries and cities. Englishlanguage and Russian-language Internet sites were used as the source of data for the research, since this environment is especially favorable for the existence and collection of language material of this kind due to the online disinhibition effect. Based on the analysis of the inner form of the word and the stadial model of the Us—Them dichotomy with a gradual transition from the biological to the cultural, proposed by V. G. Lysenko, an attempt is made to derive the main patterns of making derogatory toponyms, and then to compare the characteristics that foreign lands receive within the English and Russian xenophobic discourse, and, as far as possible, to build a holistic image of the concept of foreign space in the English and Russian collective worldview. As a result of the study, a large number of negatively marked toponyms were found in the English and Russian languages. They show clearly similar features both in the formal peculiarities of word formation and in semantics, however, some specificities are also found, which makes it possible to deduce similarities and differences in the English and Russian perception of the concept of foreign space. In general, a significant similarity between English and Russian pejorative names of places is revealed: in both worldviews, different topoi appear as an ugly, unpleasant place inhabited by people (and sometimes not quite people) demonstrating weird, abnormal eating habits and perverted sexual preferences, where the space itself is distorted and defective.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3015445124</t>
+          <t>https://openalex.org/W2016254158</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Domenech &amp; Garcı́a (2018)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Autolysin-Independent DNA Release in Streptococcus pneumoniae Invitro Biofilms</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Microbial biofilms provide an appropriate environment for increased genetic exchange. Extracellular DNA (eDNA) is an essential component of the extracellular matrix of microbial biofilms, but the pathway(s) responsible for DNA release are largely unknown. Autolysis (either spontaneous or phage-induced) has been proposed the major event leading to the appearance of eDNA. The ‘suicidal tendency’ of Streptococcus pneumoniae is well-known, with lysis mainly caused by the triggering of LytA, the major autolytic amidase. However, the LytC lysozyme and CbpD (a possible murein hydrolase) have also been shown involved. The present work examines the relationship between eDNA, autolysins, and the formation and maintenance of in vitro pneumococcal biofilms, via fluorescent labeling combined with confocal laser scanning microscopy, plus genetic transformation experiments. Bacterial DNA release mechanisms other than those entailing lytic enzymes were shown to be involved by demonstrating that horizontal gene transfer in biofilms takes place even in the absence of detectable autolytic activity. Evidence that the release of DNA is somehow linked to the production of extracellular vesicles by S. pneumoniae is provided.</t>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969258591</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/1379513</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Beatley (1976)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Environments of Kangaroo Rats (Dipodomys) and Effects of Environmental Change on Populations in Southern Nevada</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Climates and plant components of environments of the heteromyid rodents Dipodomys merriami, D. microps, and D. deserti are characterized and compared on sites over 2600 square kilometers in central-southern Nevada. Sites compared are those with the 20 highest-density populations each of D. merriami and D. microps, and all sites with D. deserti, from among 58 undisturbed communities where rodent numbers were established by five consecutive years of censusing. The study areas were in eight drainage basins of the Nevada Test Site, at elevations of 915 to 1850 meters (m), and included Mojave, Great Basin, and transition desert systems. Other parameters measured on each site, and compared for the site groups, are rainfall, maximum and minimum air temperatures, and various parameters for all plant components of the systems. Plant data were collected seasonally with the rodent data, whereas the climatic data were for 10 years. Distributions of D. merriami and D. deserti were correlated with the low shrub cover and low mean precipitation/mean temperature (P/T) ratios of the Mojave Desert Larrea communities. Distributions and higher densities of D. microps were closely correlated with the high shrub cover and high P /T ratios of the Coleogyne and Grayia-Lycium communities of the transition, and Artemisia of the Great Basin Desert. On the compared sites either D. merriami or D. microps usually occurred to the near exclusion of the other, and none of the plant parameters other than percentage shrub cover distinguished the two rodent environments. Restriction of D. microps to environments with high mean rainfall supports recent physiological evidence by others that this species may have the highest bodywater turnover rate and lowest urine-concentrating ability in the genus. On nine other sites shrub cover had been destroyed (and surface soils modified) by nuclear detonations, fire, or blading prior to the measurements period. Three of the sites were in declining ionizing-radiation fields. Regardless of nature of origin of the disturbance, there was a rapid and usually nearly complete replacement of D. microps by large D. merriami populations following the disturbance. The only change in plant parameters consistent among the sites was the large reduction in shrub cover. Occupancy of these sites by D. merriami was in accord with its ability to live with low shrub cover. Disappearance of D. microps was evidently related to its corresponding requirement of high shrub cover, suggesting a vulnerability to elimination by predators where there are few or no shrubs in the environment.</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009334730</t>
+          <t>https://openalex.org/W4392617314</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/gyr.2013.0009</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-2122</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Lande (2013)</t>
+          <t>Gyomlai &amp; Prigent (2024)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
+          <t>Oxide gabbro: from detachment/transform faults to subduction.</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
+          <t>Along slow and ultra-slow spreading detachment and transform faults, a large abundance of oxide gabbro is documented and thought to represent the injection of a differentiated Fe-Ti-(V)-(P) saturated nelsonitic melt in gabbroic mushes. The oxide-rich gabbro carapace observed on detachment faults is interpreted as a deformation-assisted melt migration playing a critical role in rock weakening, strain localization, exhumation and evolution of core complexes. Fe-Ti-rich metagabbros are also often found in exhumed high-pressure low-temperature oceanic metamorphic units which allow to understand how they transform during subduction. The aim of this study is to constrain the composition and deformation of oxide gabbros from transform faults and to compare it to (1) oxide gabbros and processes at detachment faults and (2) subducted and exhumed oxide gabbros to characterize their variability and infer their chemical and rheological impacts on the subduction system. This study focuses on samples collected in the Atlantic Ocean with the submersible Nautile along the northern and southern Vema transform valley walls during the Vemanaute campaign. The nelsonitic melt led to the crystallization of large amount (~10-60%) of V-rich ilmenite and titanomagnetite, F-rich amphibole, olivine and variable amount of apatite, which pervasively intrude the primary gabbro. Thermometric estimates on amphiboles suggest a crystallization at around 800-900&amp;amp;#176;C. Some samples are mylonitic and textures suggest that deformation was coeval with melt infiltration and crystallization. Fe-Ti oxides do not show any internal deformation suggesting rock hardening following melt-rock reaction. Vema oxide gabbros are nonetheless impacted by subsequent hydrothermal alteration with the pseudomorphic replacement of pyroxene into Cl-rich amphibole (~500-700&amp;amp;#176;C) and late alteration phases (e.g., clay). &amp;amp;#160; Oxide gabbros therefore play a similar role in weakening the oceanic lithosphere on both transform and detachment faults. However, apatite-rich oxide gabbros (with apatite content up to 50% of the melt products) found at the Vema transform fault are not described in detachment faults. Furthermore, melt-rock interactions produce amphibole and olivine in transform faults whereas pyroxene is formed at detachment faults. This indicates important differences on the composition of the nelsonitic melt, with potential differences on the melt source or degree of differentiation. In the case of transform faults, the presence of hydrated phases indicates a hydrated source. In both cases, the nelsonitic melt intrusion induces a localized drastic change in the rheology and bulk composition of gabbros which will likely hold significant chemical and rheological implications during subduction, particularly along the subduction interface. This phenomenon can be further explored in exhumed ophiolite, such as in Syros, Greece, interpreted as a preserved coherent fragment of a discontinuous, slow-spreading oceanic domain. There, Fe-Ti-rich gabbros consist of blocks distributed in a serpentinite matrix. They play a major role as a calcium source and as a lithological discontinuity localizing fluid pathways which allow to pervasively metasomatize the serpentinite matrix (half of it) into a tremolite-chlorite-talc schist. Such diffuse transformation of a serpentinite unit is bond to impact the chemical and rheological behavior of the subduction interface.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2474609532</t>
+          <t>https://openalex.org/W3103345192</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/oso/9780195377170.003.0014</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Azizi et al. (2013)</t>
+          <t>Santen et al. (2010)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Natural course of thyroid disease profile in a population in nutrition transition: Tehran Thyroid Study.</t>
+          <t>Searching for New Energy</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>There is a lack of data regarding the incidence rate, etiology, risk factors, and natural course of thyroid disorders and their relationship with cardiovascular disease and mortality in populations undergoing nutrition transition. Therefore, we aimed to assess the natural course of thyroid disease in Tehranians, a population in nutrition transition.Between March 1997 and December 2004, 5769 individuals, aged ≥ 20 years, were selected from district No.13 of Tehran and followed up every three years. Data on risk factors for cardiovascular disease such as diabetes, hyperlipidemia, smoking, obesity, hypertension, low levels of physical activity, and dietary habits were obtained at baseline and again every three years. Cardiovascular and mortality outcomes were assessed in detail.The results of this study will provide a better recognition regarding the incidence and risk factors of thyroid disorders and their relationship with cardiovascular outcomes and mortality in a community in nutrition transition.</t>
+          <t>We looked in the previous chapter at the prospects for our current energy infrastructure and asked how we can make it more flexible and sustainable. In this chapter, we fast-forward to the new energy economy after the oil era. The quantity of available energy is not the main worry in the postcarbon era. We’re surrounded by tremendous amounts of energy. The power of the sun’s rays was there long before we started to discover fossil energy sources, and on Earth’s surface, we can harness wind and water. Another vast amount of energy is encapsulated in our planet in the form of heat. As yet, we only tap small fractions of these natural energy supplies. Evaluating our long-term options, we have to ask ourselves: How can we harness these energy sources in such a way that they may serve us without a serious regress in our human civilization? Only then may we hope for a gradual transition to a new energy era. In the course of our history, we have used ever more concentrated forms of energy. In the era when we warmed ourselves by a wood fire and ate the grains of the field, we needed about 1 square meter of land for each watt of energy that came available. When we tamed wind and water power, the energy yield of a square meter of land rose by a factor of ten. The advent of coal, oil, and gas accounted for another factor of hundred improvement. This is calculated by summing up the amount of land you need for excavating the energy carriers and converting them to a useful form of energy. A similar calculus can be made using the energy content of the energy carriers themselves. Society has evolved with each subsequent energy innovation. More concentrated forms of energy allowed for a more concentrated community with a more complex division of labor. Now we don’t have to search large areas of land for some useful calories for ourselves; we can devote our time to comfort and complicated products.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040919102</t>
+          <t>https://openalex.org/W3197529144</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
+          <t>https://doi.org/10.1080/00049158.2021.1962628</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Pangas et al. (2004)</t>
+          <t>Japarudin et al. (2021)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
+          <t>Compression and flexural properties of plantation-grown &lt;i&gt;Eucalyptus pellita&lt;/i&gt; in Borneo, Malaysia. Potential for structural timber end use</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
+          <t>Plantation-grown Eucalyptus pellita in Sabah, Malaysia, was analysed for compression and flexural properties to assess the potential for solid-timber and engineered wood product end uses. It is necessary to consider not only the volume of wood produced in a plantation but also the wood quality, particularly those aspects important for end-product performance. Tree volume is readily measured from height and diameter at breast height using appropriate form factors. This paper discusses the compression, strength and stiffness of E. pellita compared with tropical hardwood species, and variation within trees and at different ages (7–23 years). Small clearwood test samples obtained from radial positions within log heights were subjected to analysis of compression parallel to grain and three-point bending according to ISO 13061-4, 2014. Results indicate that plantation-grown E. pellita in the tropics has potential for structural-use applications. The average basic density across the trials was 658 kg m−3, while the bending strength for all trials was in the range of 11.7–15.5 GPa for modulus of elasticity and 96.3−120.1 MPa for modulus of rupture, and the compression strength parallel to grain ranged from 52.3 to 67.8 MPa. Mean mechanical strength increased from pith to bark and from the butt log to the top log. Because the wood-processing sector in Malaysia is transitioning from reliance on a harvest of mixed tropical hardwood towards plantation-grown species, these results indicate that plantation-grown E. pellita meets the structural requirements of strength and stiffness.</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1827101252</t>
+          <t>https://openalex.org/W2117264800</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/genetics/151.2.667</t>
+          <t>https://doi.org/10.1080/00032719408006370</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Parsch et al. (1999)</t>
+          <t>Iskander et al. (1994)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A Highly Conserved Sequence in the 3′-Untranslated Region of the Drosophila Adh Gene Plays a Functional Role in Adh Expression</t>
+          <t>Kinetics and Determination of Some Transition Metals with Peri-Dihydroxynaphthindenone</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Abstract Phylogenetic analysis identified a highly conserved eight-base sequence (AAGGCTGA) within the 3′-untranslated region (UTR) of the Drosophila alcohol dehydrogenase gene, Adh. To examine the functional significance of this conserved motif, we performed in vitro deletion mutagenesis on the D. melanogaster Adh gene followed by P-element-mediated germline transformation. Deletion of all or part of the eight-base sequence leads to a twofold increase in in vivo ADH enzymatic activity. The increase in activity is temporally and spatially general and is the result of an underlying increase in Adh transcript. These results indicate that the conserved 3′-UTR motif plays a functional role in the negative regulation of Adh gene expression. The evolutionary significance of our results may be understood in the context of the amino acid change that produces the ADH-F allele and also leads to a twofold increase in ADH activity. While there is compelling evidence that the amino acid replacement has been a target of positive selection, the conservation of the 3′-UTR sequence suggests that it is under strong purifying selection. The selective difference between these two sequence changes, which have similar effects on ADH activity, may be explained by different metabolic costs associated with the increase in activity.</t>
+          <t>Abstract A simple sensitive and selective spectrophotometric method has been developed for determination of some transition metal ions. It is based on the reaction of the metal ions with excess peri-dihydroxynaphthindenone in 80% v/v ethyl alcohol-water mixture at 30°C. The colored products obtained display maximum absorption band at 560–590 nm depending upon the type of transition metal ion used, and E1 cm 1% in the range 70–480. Under the optimum conditions results with an average recovery of 96%, (mean standard deviation ±3% are obtained for 6 different transition metal ions without any significant interference from Li+, Na+, K+, Cs+, Rb+, Ba2+, Sr2+, Ni2+, Bi3+, Co2+, Mn+2, Cd+2 and Al+3. Kinetic data reveal that the reaction proceeds via a second order route (first order with respect to either the metal cation or ligand). The activation parameters and a suggested mechanism have been presented, and the nature of bonding in the solid chelate products has been verified.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3210758691</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5281/zenodo.3770921</t>
+          <t>https://openalex.org/W3006443783</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Roarty (2020)</t>
+          <t>McGurren et al. (2019)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2007-2016 Surface Circulation over the Mid Atlantic Bight Continental Shelf derived from a Decade of High Frequency Radar Observations</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>A decade (2007-2016) of hourly 6 km resolution maps of the surface currents across the Mid Atlantic Bight (MAB) generated by a regional-scale High Frequency Radar network are used to reveal new insights into the spatial patterns of the long term annual and seasonal mean surface flows. Across the 10 year time series, temporal means, inter- and intra-annual variability are used to quantify the variability of spatial surface current patterns from season to season and year to year. The 10-year annual mean surface flows are weaker and mostly cross shelf near the coast, increasing in speed and rotating to more alongshore directions near the shelf break, and increasing in speed and rotating to flow off-shelf in the southern MAB. The annual mean surface current pattern is relatively stable year to year compared to the hourly variations within a year. The ten-year seasonal means exhibit similar current patterns, with winter and summer more cross-shore while spring and fall transitions are more alongshore. Fall and winter mean current speeds are larger and correspond to a time when the mean winds are stronger and cross-shore. Summer mean currents are weakest and correspond to a time when the mean wind opposes the alongshore flow. Again, intra-annual variability is much greater than interannual, with the fall season exhibiting the most interannual variability in the surface current patterns. The extreme fall seasons of 2009 and 2011 are related to extremes in the wind and river discharge events caused by different persistent synoptic meteorological conditions, resulting in more or less rapid fall transitions from stratified summer to well-mixed winter conditions.</t>
+          <t>RIPARIAN TRANSITIONS IN THE SAVANNA VEGETATION OF NORTH QUEENSLAND, AUSTRALIA</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2964901327</t>
+          <t>https://openalex.org/W4390739890</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chemphyslip.2019.104807</t>
+          <t>https://doi.org/10.1101/2024.01.08.574719</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Prislan et al. (2019)</t>
+          <t>Sepúlveda et al. (2024)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Contribution of headgroup and chain length of glycerophospholipids to thermal stability and permeability of liposomes loaded with calcein</t>
+          <t>Phenotypic characterization of cryptic species in the fungal pathogen&lt;i&gt;Histoplasma&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Biological membranes are complex systems that are composed of lipids, proteins and carbohydrates. They are difficult to study, so it is established practice to use lipid vesicles that consist of closed ‘shells’ of phospholipid bilayers as model systems to study various functional and structural aspects of lipid organisation. To define the effects of the structural properties of lipid vesicles on their phase behaviour, we investigated their headgroup and chain length, and the chemical bonds by which their acyl chains are attached to the glycerol moiety of glycerophospholipid species, in terms of phase transition temperature, enthalpy change and calcein permeability. We used differential scanning calorimetry to measure the temperature and enthalpy changes of phase transition, and fluorescence to follow calcein release through the bilayer structure. Our data show that longer acyl chains increase the stability of the lipid bilayers, whereas higher salt concentrations decrease the thermal stability and widen the phase transitions of these lipid bilayers. We discuss the possible reasons for the observed phase transition behaviour.</t>
+          <t>Histoplasmosis is an endemic mycosis that often presents as a respiratory infection in immunocompromised patients. Hundreds of thousands of new infections are reported annually around the world. The etiological agent of the disease, Histoplasma, is a dimorphic fungus commonly found in the soil where it grows as mycelia. Humans can become infected by Histoplasma through inhalation of its spores (conidia) or mycelial particles. The fungi transitions into the yeast phase in the lungs at 37°C. Once in the lungs, yeast cells reside and proliferate inside alveolar macrophages. We have previously described that Histoplasma is composed of at least five cryptic species that differ genetically, and assigned new names to the lineages. Here we evaluated multiple phenotypic characteristics of 12 strains from five phylogenetic species of Histoplasma to identify phenotypic traits that differentiate between these species: H. capsulatum sensu stricto, H. ohiense, H. mississippiense, H. suramericanum, and an African lineage. We report diagnostic traits for two species. The other three species can be identified by a combination of traits. Our results suggest that 1) there are significant phenotypic differences among the cryptic species of Histoplasma, and 2) that those differences can be used to positively distinguish those species in a clinical setting and for further study of the evolution of this fungal pathogen.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2046124304</t>
+          <t>https://openalex.org/W2529032511</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/5d25c35d-16c1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1016/j.jcat.2016.09.026</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Kahle (1968)</t>
+          <t>Bailón‐García et al. (2016)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Petrology and Structure of a Salina (Silurian) Dolomitized Algal Stromatolite Complex, Northwestern Ohio: ABSTRACT</t>
+          <t>Chemoselective Pt-catalysts supported on carbon-TiO2 composites for the direct hydrogenation of citral to unsaturated alcohols</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A unique algal stromatolite complex is located southwest of Maumee, Ohio, on the Niagaran reef-bank system that contributed to the isolation of the Michigan basin during the Cayugan Epoch. Overlying strata have been eroded so that the individual features of the complex may be studied in essentially their original paleogeographic setting. Major features in the study area include tidal channels, natural carbonate levees, algal mounds, scour channels, laminations, ripple marks, desiccation cracks, and gypsum and anhydrite molds. The dolomite rocks in the area may be subdivided into eight microfacies as follows: (1) mound; (2) End_Page 534------------------------------ mound scour channel; (3) mound transition; (4) intermound; (5) blanket; (6) laterally linked hemispheroid; (7) mud flat; and (8) tidal channel. Each of these microfacies is characterized by a particular algal mat frequency, the degree of development and the nature of laminations, and by the amount of mechanically deposited sediment. Major rock types are stromatolite-constructed dolomite mudstone, wackestone, and packstone. Nearly all samples are characterized by the partial or pervasive development of a filamentous (and presumably algal) microstructure. Burrows and pellets are uncommon in all of the microfacies. Ostracods are common. Laminations are well developed in all of the microfacies except the mound microfacies. Breccias are common especially in algal mounds and are due to mineralization by sulfate minerals, and dedolomitization, desiccation, and solution collapse. The general sequence of mineralization was: (1) formation of microcrystalline xenotopic dolomite, probably by replacement of an initial CaCO3 mud, accompanied by the formation of gypsum and anhydrite; (2) dedolomitization, primarily in the mound microfacies; (3) partial replacement of calcite and dolomite by celestite; (4) replacement of some calcite, dolomite, and celestite by fluorite; and (5) limited formation of medium crystalline, idiotopic, and hypidiotopic dolomite by a process of local source dolomite crystallization and recrystallization. Comparison with several Recent carbonate analogs in the Persian Gulf and Bahamas suggests that most of the eight microfacies were formed in a supratidal environment. End_of_Article - Last_Page 535------------</t>
+          <t>A series of carbon xerogels-TiO2 composites with different TiO2 contents were prepared, exhaustively characterized and used as a Pt-support to develop selective hydrogenation catalysts. The carbon phase in the composite hinders the TiO2 crystal growth and the transformation to rutile during thermal treatments. Textural, chemical and catalytic properties are determined by the TiO2 content, with an optimum around 40 wt.% of TiO2 content. The mesoporosity of the supports, the Pt-dispersion and Pt-support interactions are favoured in this sense. During the H2-pretreatment, the Pt and TiO2 phases were simultaneously reduced and the formation of oxygen vacancies leads to the mobility of Pt-species inside the TiO2 structure, avoiding sintering in surface and strongly improving both catalytic activity and selectivity. The catalytic performance was discussed on the basis of the sample characteristics. Unsaturated alcohols were obtained as main reaction products in all cases, being the only product in the case of the optimized catalyst.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W12687961</t>
+          <t>https://openalex.org/W4235671025</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-16985-4_17</t>
+          <t>https://doi.org/10.1149/ma2016-01/37/1874</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Braatz &amp; Brandt (2010)</t>
+          <t>Liu &amp; Paddison (2016)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>How to Modify on the Semantic Web?</t>
+          <t>Quantitative Comparison of Atomistic Molecular Dynamics Simulations and X-Ray Scattering of Polymerized Ionic Liquids</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>In this paper, we show how formal methods of algebraic graph transformation can be made available in the technological environment of the Semantic Web. This new and promising approach allows to model and formulate transformation operations on a high level of abstraction. To demonstrate its feasibility, we develop a small book shop case study. We show how some of the necessary modification operations in this settings can be realised by the proposed SPARQL/Update language and by our rule-based graph transformation approach. In a comparison, we highlight the main differences between these two approaches. The most important benefit of our rule-based transformation approach is that it facilitates to move from application engineering to rule engineering and thereby support generic solutions, which lower the maintenance efforts by supporting the declarative specification of modification operations.</t>
+          <t>Polymerized ionic liquids (polyILs) are touted as the ideal solid-state electrolyte materials for electrochemical devices due to enhanced mechanical characteristics of polymer nature and unique physico-chemical properties inherent from ionic liquids. PolyILs offer great flexibility in designing the task specific media through judicious choosing component cations, anions and polymer structures for a wide range of energy conversion and storage applications, such as dye-sensitized solar cells, lithium ion rechargeable batteries, and alkaline fuel cells. While polyILs enjoy many favorable properties such as low flammability, high thermal/chemical/electrochemical stability, and mechanical strength, they inevitably suffer from the retarded ionic conductivity, one of the detrimental shortcomings in electrochemical applications. PolyILs usually have elevated glass transition temperature Tg and subsequently several orders of magnitude decrease in ionic conductivity with respect to their molecular IL counterparts. Most of previous research involve in finding the optimal polyILs to achieve the maximum accessible ionic conductivity. It is generally accepted that ionic conductivity of polyILs depends on the complex correlations between chemical nature of polymer backbone and counter-ions, glass transition temperature, mesophase morphology, temperature and pressure. Therefore, a molecular-level understanding of the relationship between chemical structure, morphology and ion transport will promote the rational design of polyILs for electrochemical applications. In present work, we use atomistic molecular dynamics simulations to investigate structural properties of model system poly(1-n-alkyl-3vinylimidzolium bistrifluoromethylsulfonylimide) poly(nVim Tf2N) . X-ray scattering measurement on structural properties of polyILs is elusive. The detailed simulations provide a direct quantitative picture for understanding the structure/morphology of polyILs on the atomic scale. In particular, we present the first direct comparison of structure factors obtained from X-ray scattering and simulations for various alkyl chain length of poly(nVim Tf2N). Excellent agreement is found between the experimental and simulated scattering profiles in terms of peak position and shape, which provides proper validation of our simulation methods. All characteristic distances (backbone-to-backbone, anion-to-anion and pendant-to-pendant) are well reproduced. As the alkyl chain length increases, the backbone-to-backbone peak becomes stronger, moving to larger distance, the anion-to-anion separation slightly increases with vanishing intensity, and the pendant-to-pendant peak hardly changes. This quantitative comparison of X-ray scattering and atomistic simulations is expected to lead to a molecular-level predictive understanding in structure and morphology of polyILs and paves a substantive step towards the rational design of future polyILs for electrochemical devices.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321481590</t>
+          <t>https://openalex.org/W4313215600</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/egusphere-egu23-5704</t>
+          <t>https://doi.org/10.1016/j.hpj.2022.12.009</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Griffin et al. (2023)</t>
+          <t>Qi et al. (2023)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Detecting Shredded Signals in a Physical Avalanching Rice Pile</t>
+          <t>Integration of root architecture, root nitrogen metabolism, and photosynthesis of ‘Hanfu’ apple trees under the cross-talk between glucose and IAA</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Tectonic, climatic, and anthropogenic forcing generate sediment flux signals that propagate across the Earth&amp;amp;#8217;s surface. Some of these signals get stored in strata but autogenic processes present in the Earth surface active layer can shred (i.e. degrade) and obscure many signals of environmental change prior to stratigraphic storage. In a landmark paper, Jerolmack and Paola (2010) use a numerical rice pile to show that autogenic events in the system saturate at a timescale Tx, which is noted to scale as L2/qinand corresponds to a red-to-white noise transition. The conceptual utility of this is that those environmental signals with periods less than Tx will experience shredding (unless signal magnitude overwhelms autogenic processes), while signals with periods greater than Tx would be detectable in the output. However, the relationships between signal shredding, preservation and detection are currently not established using physical experiments. Advancing on this work, we use a physical rice pile and find that power spectra generated from efflux time-series exhibit a tripartite geometry defined by red, white and blue noise. The transition between each regime defines two key autogenic timescales: Trwand Twb. Trw is defined by the red-to-white noise transition, setting upper bounds on signal degradation, and represents Tx on the power spectra of Jerolmack and Paola (2010), but does not scale with qin. Whereas signals greater than Twb, which scales with qin,are unobscured by autogenic noise and show enhanced detectability in the power spectra. We emphasize that while signals greater than Trw do not experience degradation, they can still be obscured by autogenic noise, unless signal period is greater than Twb. This framework can be used to predict the severity of shredding as signals propagate through the Earth surface active layer, and establish robust confidence limits of signal detectability in landscapes and strata.</t>
+          <t>Sugars and auxin have important effects on almost all phases of plant life cycle, which are so fundamental to plants and regulate similar processes. However, little is known about the effect of cross-talk between glucose and indole-3-acetic acid (IAA) on growth and development of apple trees. To examine the potential roles of glucose and IAA in root architecture, root nitrogen (N) metabolism and photosynthetic capacity in ‘Hanfu’ (Malus domestica), a total of five treatments was established: single application of glucose, IAA, and auxin polar transport inhibitor (2, 3, 5-triiodobenzoic acid, TIBA), combined application of glucose with TIBA and that of glucose with IAA. The combined application of glucose with IAA improved root topology system and endogenous IAA content by altering the mRNA levels of several genes involved in root growth, auxin transport and biosynthesis. Moreover, the increased N metabolism enzyme activities and levels of genes expression related to N in roots may suggest higher rates of transformation of nitrate (NO3--N) into amino acids application of glucose and IAA. Contrarily, single application of TIBA decreased the expression levels of auxin transport gene, hindered root growth and decreased endogenous IAA content. Glucose combined with TIBA application effectively attenuated TIBA-induced reductions in root topology structure, photosynthesis and N metabolism activity, and mRNA expression levels involved in auxin biosynthesis and transport. Taken together, glucose application probably changes the expression level of auxin synthesis and transport genes, and induce the allocation of endogenous IAA in root, and thus improves root architecture and N metabolism of root in soil with deficit carbon.</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2325954193</t>
+          <t>https://openalex.org/W2000920990</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/6.iac-03-iaa.5.2.02</t>
+          <t>https://doi.org/10.1016/j.jchb.2010.01.036</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Foster (2003)</t>
+          <t>Sigmon (2010)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>NaK Droplet Source Modeling</t>
+          <t>Domesticating the prehistoric mind</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>As part of the NASA orbital debris modeling effort, a quantitative model is developed for the large population of spherical electrically conducting objects in 65° inclination circular orbits at the disposal altitude of the Russian Radar Ocean Reconnaissance Satellite (RORSAT) spacecraft. These are believed to be droplets of liquid sodium-potassium (NaK) reactor coolant released from the RORSAT satellites. Observations of the droplets from 1990 through 2002 have shown slow orbital decay. Data from the Lincoln Laboratory Haystack and HAX radars have been examined for the time period from 1994 to 2002. Electrically conducting spheres produce a distinctive polarization signature allowing their identification, with high probability, among the other objects detected by the radars. The droplets are comparable in diameter to the radar wavelengths. This produces a size ambiguity for a given radar cross-section because of diffraction effects. Previous work, used the NASA orbital debris size estimation model that is based upon radar measurements of randomly shaped objects with the radar wavelength comparable to the object size. Here, the size distribution is estimated using the radar cross section of a conducting sphere, permitting an accurate population size distribution determination. BACKGROUND Prior to 1990 knowledge of the orbital debris environment came only from United States Department of Defense (DOD) radars and from surfaces returned from space. There was no knowledge of the orbital debris population of objects between 100 μ and 10 cm in size and objects of a few mm in size and larger can destroy a space vehicle. In 1990 an agreement was reached between NASA and the DOD whereby NASA would be provided with significant observation time with the LRIR (Haystack) radar and the under construction HAX radar each year until 2004. NASA provided funding construction of near-by HAX Radar as part of the agreement. The first Haystack debris data showed unexpected ~100% polarized return signals (indicating spherical conductors) from debris band between 800 and 1000 km. These objects were soon identified as NaK coolant from ejected cores of Russian Radar Ocean Reconnaissance Satellites (RORSATs). The primary objective of this work is the modeling of the observed NaK population. This report examines Haystack and HAX data from the 1994 –2002 time period. Haystack data from the time period 1990 to 1993 lacks accurate orbital inclination information and has much higher background contamination. CHARACTERISTIC OF HAYSTACK AND HAX RADARS The Haystack radar is operated in a continuous wave monopulse stare mode for the orbital debris measurements. The monopulse range is determined from 8 to 16 overlapping range 54th International Astronautical Congress of the International Astronautical Federation, the International Academy of Astronautics, and the International Institute of Space Law 29 September 3 October 2003, Bremen, Germany IAC-03-IAA.5.2.02 This material is declared a work of the U.S. Government and is not subject to copyright protection in the United States. 2 windows. The path through the beam is determined from voltage rations between measurements on opposite sides of the return beam axis. The Haystack dish is 36 meters in diameter. It operates at 10 GHz with 400 kW peak power. The Haystack beam is right circularly polarized and is 0.058° in diameter. Range rate, principal and orthogonal polarization are measured. The HAX radar has a 12-meter disk and operates at 16.67 GHz with 60 kW peak power with a beam diameter of 0.1°. It is identical to Haystack in all other aspects when operated in the orbital debris measurement mode. Figure 1 shows the sensitivity of the Haystack and HAX radars as a function of range. Haystack can reliably detect 5 cm objects at 950 km while HAX can reliably detect objects about 2.5 cm in diameter. The knee in the Haystack curve corresponds to the transition from Rayleigh to Mie / optical regions. 200 400 600 80</t>
+          <t>Two events in human history have been accompanied by large increases in economic development as reflected by per capita income and population growth. These are the Neolithic Revolution (i.e., the transition from hunter–gatherer to agricultural societies, initially growing crops followed by domesticated livestock) and the Industrial Revolution (i.e., the era of mechanization of manufacturing). The Neolithic Revolution and the development of agriculture occurred independently in multiple geographical regions including the Middle East (the Fertile Crescent), East Asia (along the Ganges), South Asia (the Indus Valley), Mesoamerica, the Andes, and West Africa; these occurring at different prehistorical and historical times. The Neolithic Revolution first encompassed the domestication of cereals with domestication of animals occurring somewhat later. Corollaries to the Neolithic Revolution were the following: musculoskeletal stress, poorer overall nutrition accompanied by reduced height, the appearance of dental disease, and a huge increase in fertility. The explanation for why the Neolithic Revolution occurred is discussed. The founder crops of the Fertile Crescent were wheat, lentil, pea, chickpeas, bitter vetch, and flax. Among the other major crop domesticated were rice, millet, maize (corn), and potatoes. Crops were usually domesticated in a single location and ancestral wild species are still found. In contrast, there appears to have been one, two, or more domestications (e.g., one for each of sheep and goats and three for pigs and cattle) resulting in livestock animals domesticated independently in different locations. For instance, cattle were domesticated in the Fertile Crescent, South Asia, and Africa while pigs were domesticated in Anatolia, East Asia, and Western Europe with possible additional domestication loci. The wild ancestral species for some livestock species, such as sheep, goats, and cattle, are now extinct. Animal agriculture spread by trading and migrations. One early form of animal agriculture was pastoralism. This subsistence livelihood continues in some regions.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1951646693</t>
+          <t>https://openalex.org/W4283330610</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-16006-1_2</t>
+          <t>https://doi.org/10.1093/oso/9780192866530.003.0003</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Борзенкова et al. (2015)</t>
+          <t>Rouse (2022)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Climate Change During the Holocene (Past 12,000 Years)</t>
+          <t>National Security</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>This chapter summarises the climatic and environmental information that can be inferred from proxy archives over the past 12,000 years. The proxy archives from continental and lake sedimentsSediments include pollen, insect remnants and isotopic data. Over the Holocene, the Baltic Sea area underwent major changes due to two interrelated factors—melting of the Fennoscandian ice sheet (causing interplay between global sea-level rise due to the meltwater and regional isostatic rebound of the earth’s crust causing a drop in relative sea levelSea level ) and changes in the orbital configuration of the Earth (triggering the glacial to interglacial transition and affecting incoming solar radiationRadiation and so controlling the regional energy balance). The Holocene climate history showed three stages of natural climate oscillations in the Baltic Sea region: short-term cold episodes related to deglaciationDeglaciation during a stable positive temperature trend (11,000–8000 cal year BP); a warm and stable climate with air temperature 1.0–3.5 °C above modern levels (8000–4500 cal year BP), a decreasing temperatureTemperature trend; and increased climatic instability (last 5000–4500 years). The climatic variation during the Lateglacial and Holocene is reflected in the changing lake levels and vegetationVegetation , and in the formation of a complex hydrographical network that set the stage for the Medieval Warm Period and the Little Ice Age of the past millennium.</t>
+          <t>This chapter addresses the multi-level structure of the national security ecosystem and its many varied stakeholders. Five historical innovations are briefly summarized. The types of future innovations needed are considered as well as how these innovations might be enabled. The ways in which enterprise transformation might facilitate these changes are considered, including how such investments could be economically justified. Contemporary innovations in national security that are discussed include human effectiveness investments, value-centered organizations, the acquisition of military ships, and technologies for airborne surveillance and reconnaissance. It is shown that new approaches to investment valuation provide substantial increases in management flexibility.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3016878001</t>
+          <t>https://openalex.org/W1587591531</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/cctc.202000245</t>
+          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Souza et al. (2020)</t>
+          <t>Bardis et al. (2011)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Artificial Metalloenzymes based on TetR Proteins and Cu(II) for Enantioselective Friedel‐Crafts Alkylation Reactions</t>
+          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>The supramolecular approach is among the most convenient methodologies for creating artificial metalloenzymes (ArMs). Usually this approach involves the binding of a transition metal ion complex to a biomolecular scaffold via its ligand, which also modulates the catalytic properties of the metal ion. Herein, we report ArMs based on the proteins CgmR, RamR and QacR from the TetR family of multidrug resistance regulators (MDRs) and Cu2+ ions, assembled without the need of a ligand. These ArMs catalyze the enantioselective vinylogous Friedel-Crafts alkylation reaction with up to 75 % ee. Competition experiments with ethidium and rhodamine 6G confirm that the reactions occur in the chiral environment of the hydrophobic pocket. It is proposed that the Cu2+-substrate complex is bound via a combination of electrostatic and π-stacking interactions provided by the second coordination sphere. This approach constitutes a fast and straightforward way to assemble metalloenzymes and may facilitate future optimization of the protein scaffolds via mutagenesis or directed evolution approaches.</t>
+          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387302972</t>
+          <t>https://openalex.org/W4213028338</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24833/2541-8831-2023-3-27-104-123</t>
+          <t>https://doi.org/10.1016/j.gerinurse.2022.01.017</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Romanin (2023)</t>
+          <t>Groenendaal et al. (2022)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Hic Sunt Dracones: Foreign Space in the English and Russian Worldview as Reflected by the Pejorative Toponymy of the English and Russian Languages</t>
+          <t>Maintaining meaningful activities for persons with dementia during transitions of care: A systematic review</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>The article examines the perception of the foreign space in the English and Russian native speakers’ worldviews based on the pejorative names of foreign countries and cities. Englishlanguage and Russian-language Internet sites were used as the source of data for the research, since this environment is especially favorable for the existence and collection of language material of this kind due to the online disinhibition effect. Based on the analysis of the inner form of the word and the stadial model of the Us—Them dichotomy with a gradual transition from the biological to the cultural, proposed by V. G. Lysenko, an attempt is made to derive the main patterns of making derogatory toponyms, and then to compare the characteristics that foreign lands receive within the English and Russian xenophobic discourse, and, as far as possible, to build a holistic image of the concept of foreign space in the English and Russian collective worldview. As a result of the study, a large number of negatively marked toponyms were found in the English and Russian languages. They show clearly similar features both in the formal peculiarities of word formation and in semantics, however, some specificities are also found, which makes it possible to deduce similarities and differences in the English and Russian perception of the concept of foreign space. In general, a significant similarity between English and Russian pejorative names of places is revealed: in both worldviews, different topoi appear as an ugly, unpleasant place inhabited by people (and sometimes not quite people) demonstrating weird, abnormal eating habits and perverted sexual preferences, where the space itself is distorted and defective.</t>
+          <t>This systematic review summarizes the experiences with maintaining meaningful activities for persons with dementia during transitions of care, including related barriers and facilitators, and interventions and strategies. A systematic search was performed in eight databases. The methodological quality was assessed with the Mixed Methods Appraisal Tool. Four articles were included; one describing the transition from home to hospital and vice versa, and three describing the transition from home to nursing home. The narrative synthesis revealed a decrease of meaningful activities after transition. Facilitators of and barriers to maintaining meaningful activities during transitions were related to the person with dementia, informal caregivers, healthcare professionals and organization of care, as well as the environment. Interventions and strategies focused on continuously adjusting meaningful activities to the person. To conclude, maintaining meaningful activities during transitions is an under-researched area. Several recommendations are provided for healthcare professionals and organizations.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1490838767</t>
+          <t>https://openalex.org/W2108558461</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0160-791x(91)90008-k</t>
+          <t>https://doi.org/10.1002/anie.200504555</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Pfister (1991)</t>
+          <t>Sun &amp; DiMagno (2006)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>A garden in the machine</t>
+          <t>Room-Temperature Nucleophilic Aromatic Fluorination: Experimental and Theoretical Studies</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>This essay reads a mid-19th-century, two-cylinder parlor stove as a polyvalent cultural text that expresses American ambivalence about industrialization and technology as powerful forces of social transformation (forces even capable of reorganizing relations within the middle-class home). The first half of the essay offers a close, formal reading of the stove's design, iconography, and probable use. Pastoral ornamentation on the stove, read historically, exhibits concerns about the effects of industrialization on the dream of an agrarian republic. The funeral aspect of the stove also suggests anxiety about a bucolic “world we have lost.” At the same time the stove, whose two cylinders are topped with crowns, seems to celebrate a technological triumph over nature. The latter half of the paper establishes a dialogue between the results of this formal reading and historical research on midcentury parlor stoves, stove advertising, criticisms of coal burning stoves by writers on heat and ventilation, and literary responses to the domestic presence of stoves. Advertisers faced the cultural challenge of portraying the stove as a safe object (rather than a smoldering destroyer), as well as a machine that could fan the flames of romance (as opposed to an unsatisfying industrial substitute for the sentimentalized hearth). Authors lamented that the stove “de-centered” affective relations within the home, but recognized that the midcentury “progress” of deforestation in New England made the “progress” of stove technology a necessity.</t>
+          <t>Taming the reagent: The use of anhydrous tetrabutylammonium fluoride (TBAFanh) in nucleophilic aromatic substitution reactions, including variants of the selective halogen-exchange and fluorodenitration processes (see scheme), was investigated. It was shown that TBAFanh permits these reactions to be performed under surprisingly mild conditions if it is used in relatively nonpolar media. Despite their rarity in nature,1 organofluorine compounds play a leading role in the life sciences.2–11 The high electronegativity and small atomic radius of the fluorine atom mean that its incorporation into biologically active compounds induces a relatively small structural perturbation, whereas drastically altering the electronic properties and bioavailability of the compounds.9, 12 Fluorine substitution is a particularly effective strategy for aromatic groups, as the electron-withdrawing nature of the fluorine atom reduces the susceptibility of an aryl ring to cytochrome P-450 catalyzed hydroxylation, a common step in drug catabolism.8 The CF dipole in fluoroaromatic groups can also lead to an increase in molecular recognition through favorable, though generally weak, electrostatic interactions.3, 6, 10, 11, 13 Because of the medicinal importance of fluorinated aromatic compounds, mild and selective methods for their preparation are desirable. We recently reported the preparation of a soluble, highly nucleophilic fluoride-ion source, anhydrous tetrabutylammonium fluoride (TBAFanh).14 TBAFanh can be dissolved in dimethyl sulfoxide (DMSO) and CH3CN (2 M) and fluorinates primary alkyl halides and tosylates rapidly at low temperature (−35 °C, 5 min, THF). The rapid rate observed for SN2 reactions that feature TBAFanh prompted us to investigate nucleophilic aromatic substitution (SNAr) reactions with this reagent. Below we describe variants of the industrially important selective halogen exchange (Halex) and fluorodenitration processes for aromatic fluorination.15–18 We show that TBAFanh permits these reactions to be performed under surprisingly mild conditions. Electron-withdrawing substituents are typically required to activate chloroaromatic substrates toward Halex chemistry. The usual reagents employed to effect halogen exchange are spray-dried KF; a high-boiling-point polar aprotic solvent, such as sulfolane; and a phase-transfer catalyst to improve the solubility of the fluoride ion (Scheme 1). Prolonged and vigorous heating is often required. Such harsh conditions preclude syntheses in which the late introduction of fluorine substituents is desired. In contrast, many aromatic compounds undergo Halex reactions at room temperature in DMSO, CH3CN, or THF upon exposure to TBAFanh. In a typical preparation, TBAFanh (1.3 equiv) and the chloro- or nitroaromatic compound were simply stirred together in DMSO.19 Representative fluorinations are shown in Table 1. A typical Halex reaction.24 DMI=1,3-dimethyl-2-imidazolidinone. Entries Substrate Conditions[a] Product Yield [%][b] 1 TBAFanh (4 equiv) 14 days no reaction 0 2 TBAFanh (4 equiv) 14 days 80 3 TBAFanh (2.5 equiv) 1 h &gt;95 4 TBAFanh (2.5 equiv) 1.5 h &gt;95 5 TBAFanh (1.3 equiv) 20 min &gt;95 6 TBAFanh (1.3 equiv) 30 min &gt;95 7 TBAFanh (1.3 equiv) 1 h &gt;95 8 TBAFanh (2.5 equiv) 30 min &gt;95 9 TBAFanh (1.3 equiv) 30 min &gt;95 10 TBAFanh (1.4 equiv) ≈30 min &gt;90 11 TBAFanh (1.5 equiv) 2 days 80 12 TBAFanh (1.5 equiv) 5 days 2 13 TBAFanh (1.5 equiv) 18 h &gt;95 14 TBAFanh (2.5 equiv) 20 min &gt;95 15 TBAFanh (1.4 equiv) 20 min &gt;85 16 TBAFanh (2.5 equiv) 1 h &gt;90 17 TBAFanh (2.5 equiv) 1.5 h &gt;90 18 TBAFanh (1.3 equiv) 30 min &gt;95 19 TBAFanh (1.3 equiv) 30 min &gt;95 20 TBAFanh (1.3 equiv) 10 min &gt;95 21 TBAFanh (1.3 equiv) 24 h &gt;95 The scope of the room-temperature reactivity of TBAFanh with chloropyridines in DMSO is apparent from inspection of Table 1. If the pyridine ring has no electron-withdrawing groups, the nucleophilic substitution of chloride is sluggish for the ortho position and does not occur at all with m-chloropyridine. Smooth nucleophilic substitution occurs if mildly activating groups are present. A comparison of the mono- and dichloropyridine examples shows that a second electronegative substituent accelerates substitution: fluorination of 2-chloropyridine requires 14 days, whereas 2,6-dichloropyridine is exhaustively fluorinated in 90 minutes under identical conditions. In comparison, typical Halex fluorinations of 2,6-dichloropyridine require heating at 150 °C for ten hours.20–23 Chloropyridine substrates bearing more strongly electron-withdrawing (trifluoromethyl or carbonyl) substituents are also fluorinated rapidly, as are several other heterocyclic derivatives. It is noteworthy that N-benzyl-6-chloropurine is fluorinated quantitatively within 30 minutes. However, 6-chloropurine is deprotonated by TBAFanh if the amine is left unprotected, thus generating an equivalent of bifluoride ion. Fluorination of the 6-chloropurine anion requires excess TBAFanh (4 equiv) and an extended rea</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3172847412</t>
+          <t>https://openalex.org/W4286945615</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/eet.2021</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Olazabal (2020)</t>
+          <t>Brnkaľáková et al. (2022)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>El reto climático en las ciudades</t>
+          <t>Collective forestry regimes to enhance transition to climate smart forestry</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are resilient to climate change.</t>
+          <t>Abstract As European mountain forests are a significant world carbon stock and sequester, they have a prominent position in climate policies and climate smart forestry (CSF) implementation. However, forest ecosystem services (ES) that are public or common goods (i.e., of carbon sequestration) face a traditional social dilemma of individual versus collective interests, which often generate conflicts, and result in the overuse of ES and resource depletion. In this article, we elaborate a conceptual analytical framework and use it in case studies selected in European mountain areas to analyse the potential of socio‐ecological systems to develop CSF. Collective self‐organized forestry regimes, as a form of social innovation, are the main focus, compared with centrally governed state regimes and forest management practices in municipal forests. A conceptual framework to analyse collective self‐organized regimes and compare these with other CSF‐applicable forestry regimes is elaborated using a mixed‐method approach, centered around the estimation of carbon sequestration potential. The results indicate that collective self‐organized forestry regimes can play a role in fostering the transition of European forestry towards CSF.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392617314</t>
+          <t>https://openalex.org/W4205144654</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/egusphere-egu24-2122</t>
+          <t>https://doi.org/10.1016/j.devcel.2021.12.019</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Gyomlai &amp; Prigent (2024)</t>
+          <t>Wu et al. (2022)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Oxide gabbro: from detachment/transform faults to subduction.</t>
+          <t>Dynamic chromatin state profiling reveals regulatory roles of auxin and cytokinin in shoot regeneration</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Along slow and ultra-slow spreading detachment and transform faults, a large abundance of oxide gabbro is documented and thought to represent the injection of a differentiated Fe-Ti-(V)-(P) saturated nelsonitic melt in gabbroic mushes. The oxide-rich gabbro carapace observed on detachment faults is interpreted as a deformation-assisted melt migration playing a critical role in rock weakening, strain localization, exhumation and evolution of core complexes. Fe-Ti-rich metagabbros are also often found in exhumed high-pressure low-temperature oceanic metamorphic units which allow to understand how they transform during subduction. The aim of this study is to constrain the composition and deformation of oxide gabbros from transform faults and to compare it to (1) oxide gabbros and processes at detachment faults and (2) subducted and exhumed oxide gabbros to characterize their variability and infer their chemical and rheological impacts on the subduction system. This study focuses on samples collected in the Atlantic Ocean with the submersible Nautile along the northern and southern Vema transform valley walls during the Vemanaute campaign. The nelsonitic melt led to the crystallization of large amount (~10-60%) of V-rich ilmenite and titanomagnetite, F-rich amphibole, olivine and variable amount of apatite, which pervasively intrude the primary gabbro. Thermometric estimates on amphiboles suggest a crystallization at around 800-900&amp;amp;#176;C. Some samples are mylonitic and textures suggest that deformation was coeval with melt infiltration and crystallization. Fe-Ti oxides do not show any internal deformation suggesting rock hardening following melt-rock reaction. Vema oxide gabbros are nonetheless impacted by subsequent hydrothermal alteration with the pseudomorphic replacement of pyroxene into Cl-rich amphibole (~500-700&amp;amp;#176;C) and late alteration phases (e.g., clay). &amp;amp;#160; Oxide gabbros therefore play a similar role in weakening the oceanic lithosphere on both transform and detachment faults. However, apatite-rich oxide gabbros (with apatite content up to 50% of the melt products) found at the Vema transform fault are not described in detachment faults. Furthermore, melt-rock interactions produce amphibole and olivine in transform faults whereas pyroxene is formed at detachment faults. This indicates important differences on the composition of the nelsonitic melt, with potential differences on the melt source or degree of differentiation. In the case of transform faults, the presence of hydrated phases indicates a hydrated source. In both cases, the nelsonitic melt intrusion induces a localized drastic change in the rheology and bulk composition of gabbros which will likely hold significant chemical and rheological implications during subduction, particularly along the subduction interface. This phenomenon can be further explored in exhumed ophiolite, such as in Syros, Greece, interpreted as a preserved coherent fragment of a discontinuous, slow-spreading oceanic domain. There, Fe-Ti-rich gabbros consist of blocks distributed in a serpentinite matrix. They play a major role as a calcium source and as a lithological discontinuity localizing fluid pathways which allow to pervasively metasomatize the serpentinite matrix (half of it) into a tremolite-chlorite-talc schist. Such diffuse transformation of a serpentinite unit is bond to impact the chemical and rheological behavior of the subduction interface.</t>
+          <t>Shoot regeneration is mediated by the sequential action of two phytohormones, auxin and cytokinin. However, the chromatin regulatory landscapes underlying this dynamic response have not yet been studied. In this study, we jointly profiled chromatin accessibility, histone modifications, and transcriptomes to demonstrate that a high auxin/cytokinin ratio environment primes Arabidopsis shoot regeneration by increasing the accessibility of the gene loci associated with pluripotency and shoot fate determination. Cytokinin signaling not only triggers the commitment of the shoot progenitor at later stages but also allows chromatin to maintain shoot identity genes at the priming stage. Our analysis of transcriptional regulatory dynamics further identifies a catalog of regeneration cis-elements dedicated to cell fate transitions and uncovers important roles of BES1, MYC, IDD, and PIF transcription factors in shoot regeneration. Our results, thus, provide a comprehensive resource for studying cell reprogramming in plants and provide potential targets for improving future shoot regeneration efficiency.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3103345192</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oso/9780195377170.003.0014</t>
+          <t>https://openalex.org/W139317343</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Santen et al. (2010)</t>
+          <t>Goulven (2000)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Searching for New Energy</t>
+          <t>Dispositifs institutionnels et integration des marches la commercialisation du porc au vietnam</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>We looked in the previous chapter at the prospects for our current energy infrastructure and asked how we can make it more flexible and sustainable. In this chapter, we fast-forward to the new energy economy after the oil era. The quantity of available energy is not the main worry in the postcarbon era. We’re surrounded by tremendous amounts of energy. The power of the sun’s rays was there long before we started to discover fossil energy sources, and on Earth’s surface, we can harness wind and water. Another vast amount of energy is encapsulated in our planet in the form of heat. As yet, we only tap small fractions of these natural energy supplies. Evaluating our long-term options, we have to ask ourselves: How can we harness these energy sources in such a way that they may serve us without a serious regress in our human civilization? Only then may we hope for a gradual transition to a new energy era. In the course of our history, we have used ever more concentrated forms of energy. In the era when we warmed ourselves by a wood fire and ate the grains of the field, we needed about 1 square meter of land for each watt of energy that came available. When we tamed wind and water power, the energy yield of a square meter of land rose by a factor of ten. The advent of coal, oil, and gas accounted for another factor of hundred improvement. This is calculated by summing up the amount of land you need for excavating the energy carriers and converting them to a useful form of energy. A similar calculus can be made using the energy content of the energy carriers themselves. Society has evolved with each subsequent energy innovation. More concentrated forms of energy allowed for a more concentrated community with a more complex division of labor. Now we don’t have to search large areas of land for some useful calories for ourselves; we can devote our time to comfort and complicated products.</t>
+          <t>L'objet de la these est d'analyser le fonctionnement d'un marche agricole -celui du porc- dans un pays en transition -le vietnam. Dans le cadre de la nouvelle economie institutionnelle et en partant de l'hypothese qu'il n'existe pas une forme universelle de marche, nous montrons que la diversite des marches est expliquee par la nature des arrangements institutionnels qui structurent les echanges et par les regles sociales qui supportent la mise en application de ces arrangements. Nous developpons d'abord une grille de lecture des niveaux institutionnels dans lesquels s'inscrivent les transactions. Ensuite nous mettons en evidence l'existence de deux marches dont les logiques de formation et de transmission des prix sont differentes. Finalement nous demontrons que ces differences resultent de structures institutionnelles specifiques. Les travaux conduisent a des resultats parfois paradoxaux. Au nord vietnam, le plus longtemps soumis a la collectivisation, les transactions marchandes sont structurees par des institutions informelles privees. Cette organisation entrainent des phenomenes collusifs et de concentration qui affectent la formation concurrentielle des prix et les incitations a la production. Au sud du pays, les institutions publiques legales ont un role central dans la coordination economique. Les mecanismes de fixation des prix y sont plus concurrentiels et la production mieux stimulee. Nous montrons que ces differences, heritees de l'histoire, correspondent a des ancrages des marches dans des valeurs morales particulieres. L'apport theorique de la these est de proposer le couplage d'outils dont l'un est exhaustif mais descriptif - la modelisation des prix - et l'autre est analytique mais monographique - l'analyse de donnees d'enquetes - dans un meme cadre d'analyse. L'apport empirique consiste en la production de donnees de terrain detaillees, collectees a tous les niveaux de la filiere porc au cours de trois sejours sur le terrain dans neuf provinces du pays.</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117264800</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/00032719408006370</t>
+          <t>https://openalex.org/W2737761252</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Iskander et al. (1994)</t>
+          <t>Silliman (2017)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Kinetics and Determination of Some Transition Metals with Peri-Dihydroxynaphthindenone</t>
+          <t>Comparing Foraging Niches Of Newly Sympatric Bumble Bees In Alpine Habitats Of Colorado</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Abstract A simple sensitive and selective spectrophotometric method has been developed for determination of some transition metal ions. It is based on the reaction of the metal ions with excess peri-dihydroxynaphthindenone in 80% v/v ethyl alcohol-water mixture at 30°C. The colored products obtained display maximum absorption band at 560–590 nm depending upon the type of transition metal ion used, and E1 cm 1% in the range 70–480. Under the optimum conditions results with an average recovery of 96%, (mean standard deviation ±3% are obtained for 6 different transition metal ions without any significant interference from Li+, Na+, K+, Cs+, Rb+, Ba2+, Sr2+, Ni2+, Bi3+, Co2+, Mn+2, Cd+2 and Al+3. Kinetic data reveal that the reaction proceeds via a second order route (first order with respect to either the metal cation or ligand). The activation parameters and a suggested mechanism have been presented, and the nature of bonding in the solid chelate products has been verified.</t>
+          <t>Global climate change has facilitated upward range shifts of bumble bees in mountainous habitats worldwide, increasing species richness and competition for floral resources. Competition for flowers is predicted to occur between bees with similar traits relevant to foraging, especially tongue length. I assessed competition between two newly sympatric short-tongued bees: Bombus sylvicola, a native alpine bee, and B. bifarius, a subalpine species that has become prevalent above treeline. I allowed individuals to forage on inflorescence arrays comprised of seven species of bee-pollinated alpine plants. All measures of preference reflected overlapping diet niches for B. sylvicola and B. bifarius. Mean visitation frequencies to the seven plant species were nearly identical for both bumble bees, as were inflorescence foraging times and floral species fidelity during transitions. Results suggest that the arrival of B. bifarius above treeline has resulted in competition between the morphologically similar bees for available floral resources.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3006443783</t>
+          <t>https://openalex.org/W2121673844</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13563460903586202</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>McGurren et al. (2019)</t>
+          <t>Caney (2010)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>RIPARIAN TRANSITIONS IN THE SAVANNA VEGETATION OF NORTH QUEENSLAND, AUSTRALIA</t>
+          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390739890</t>
+          <t>https://openalex.org/W62592376</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2024.01.08.574719</t>
+          <t>https://doi.org/10.14264/318981</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Sepúlveda et al. (2024)</t>
+          <t>Blythe (2024)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Phenotypic characterization of cryptic species in the fungal pathogen&lt;i&gt;Histoplasma&lt;/i&gt;</t>
+          <t>A retailing history of the Ipswich central business district (CBD) from the mid-1970s to 2003</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Histoplasmosis is an endemic mycosis that often presents as a respiratory infection in immunocompromised patients. Hundreds of thousands of new infections are reported annually around the world. The etiological agent of the disease, Histoplasma, is a dimorphic fungus commonly found in the soil where it grows as mycelia. Humans can become infected by Histoplasma through inhalation of its spores (conidia) or mycelial particles. The fungi transitions into the yeast phase in the lungs at 37°C. Once in the lungs, yeast cells reside and proliferate inside alveolar macrophages. We have previously described that Histoplasma is composed of at least five cryptic species that differ genetically, and assigned new names to the lineages. Here we evaluated multiple phenotypic characteristics of 12 strains from five phylogenetic species of Histoplasma to identify phenotypic traits that differentiate between these species: H. capsulatum sensu stricto, H. ohiense, H. mississippiense, H. suramericanum, and an African lineage. We report diagnostic traits for two species. The other three species can be identified by a combination of traits. Our results suggest that 1) there are significant phenotypic differences among the cryptic species of Histoplasma, and 2) that those differences can be used to positively distinguish those species in a clinical setting and for further study of the evolution of this fungal pathogen.</t>
+          <t>This thesis is a retail history of the Ipswich CBD from the mid- 1970s to 2003. It argues that the Ipswich CBD developed its physical composition through a combination of its belated experience of the national retail innovations, their rapid application once adopted, and the mitigating influence of local business factors. This evolution is explained through a matrix of four interconnected themes : the change in the type of CBD retail businesses; the nature of specific businesses involved in the CBD transformation; the increase in civic participation in CBD retail decision making, and the combined effect of these three factors upon the physical composition of the CBD and its image as a retail destination. These four themes are elaborated through a historical narrative that examines the introduction of the corporate supermarket and shopping centre from the mid- 1970s, the impact of the destruction of Reids (formerly Cribb and Foote) Department Store in 1985, the revitalisation of CBD shopping with the completion of the Ipswich Mall in 1987 and Kern Corporation's Ipswich City Square shopping centre in 1988, the negative effects of the recession in the early 1990s and the subsequent competition from suburban shopping centres, and the more recent debate surrounding the proposed Riverlink development and the adoption of the River Heart vision to plan for future CBD retail development.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2055849994</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevb.90.085113</t>
+          <t>https://openalex.org/W2356042269</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Yanagi &amp; Ueda (2014)</t>
+          <t>Zhou (2012)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Continuous Mott transition in a two-dimensional Hubbard model</t>
+          <t>Topographic variation pattern of natural forest landscape distribution in Changbai mountain</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>We investigate a nonmagnetic metal-insulator transition in the 1/5-depleted square lattice Hubbard model at half filling within the eight-site cellular dynamical mean field theory. We find that a metal-insulator transition without any signatures of a first-order transition, a continuous Mott transition, takes place in a certain range of parameters. The nature of the continuous Mott transition is merely a Lifshitz transition driven by the on-site Coulomb interaction. The renormalized matrix elements of hoppings and the spin-spin correlation functions reveal that the physics of this transition is a strong enhancement of the dimerization due to the nonlocal effects of the electron-electron interaction.</t>
+          <t>With the support of the ArcGIS,by using the stock map of the studying area taken in 2007 and combining the second survey information with IKONOS satellite images,the mapping of landscapes of the area was conducted,then the landscape map and topographic factor maps extracted by DEM were used to make layer overlay analysis.The distribution variation pattern of different landscape types along the topographic gradients and the causes of formation were analyzed in order to provide evidence for the function division and classification management of Changbai mountain's natural forest landscape.The results show that(1) the artificial landscapes were similar in characteristics of altitude,the artificial landscape's peak values appeared in 600～700 meters above sea-level,the natural landscapes appeared between in 700 ~ 800 meters;(2) the artificial landscapes mainly distributed with a slope degree of 0° ~ 5°,the natural landscapes had a higher slope class(more steeply) than the artificial landscapes;(3) the artificial landscapes mainly distributed at the zone of flat slope,while the distribution variation pattern of different landscape types along the slope was not obvious;topographic variation pattern of the landscape distribution was the result of terrain factors and anthropogenic disturbance;the elevation and slope aspect were the main factors in forming the landscape differences,and the slope aspect was the second influencing factors.Since 1960s,the transitions of forestry policies and management were the fundamental reasons in changing topographic variation pattern of landscape distribution,and the natural recovery process has also played a positive role.</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083062673</t>
+          <t>https://openalex.org/W2335315641</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0925-8388(96)02849-6</t>
+          <t>https://doi.org/10.1097/00128360-199710000-00006</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Li et al. (1997)</t>
+          <t>González-Bosquet et al. (1997)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Amorphization of RAl intermetallic compounds by hydrogenation</t>
+          <t>Treatment of Cervical Intraepithelial Neoplasia in a Prospective Study Comparing Large-Loop Excision of the Transformation Zone, Laser Vaporization, and Knife Cone Biopsy</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Structural changes of RAl compounds (RLa, Ce, Pr, Nd, Sm, Gd, Dy, Tb, Ho, Er) induced by hydrogenation were investigated by X-ray diffractometry (XRD), transmission electron microscopy (TEM) and differential scanning calorimetry (DSC). Hydrogen-induced amorphization (HIA) has been observed in R3Al, R2Al and a part of RAl, but not been observed in C15 Laves RAl2 compounds. The HIA behavior of the RAl compounds and the crystallization behavior of the resulting amorphous alloys depend not only on the rare earth metals and their compositions, but also on the hydrogen pressure and the hydrogenation temperature. These behaviors of the RAl compounds are compared with those of the C15 Laves compounds RM2 (MFe, Co, Ni) and liquid quenched amorphous alloys of RAl. In addition, structures of amorphous alloys prepared by HIA and liquid quenching were measured by XRD. The mechanism of HIA was discussed on the basis of the structural data and thermodynamic considerations.</t>
+          <t>Our aim was to compare cervical intraepithelial neoplasia (CIN) treatment results in the use of large-loop excision of the transformation zone (LLETZ), laser vaporization, and cold-knife cone biopsy.We included in the study patients with CIN lesions diagnosed at the Hospital Universitario Materno-Infantil Vall d'Hebron and Hospital Clinic i Provincial de Barcelona, Barcelona, Spain, between March 1991 and March 1994. Patients with unsatisfactory colposcopy were excluded from the study. One hundred twenty-three patients were included in this study: 98 patients were compared for LLETZ treatment versus laser vaporization, and 69 CIN3 patients were compared for three treatments: LLETZ, laser vaporization, and knife cone biopsy. Patients were followed at 3-month intervals for at least 1 year. Follow-up included physical examination, cervical Papanicolaou (Pap) smear, cervical colposcopy, and a colposcopically guided biopsy when required. Treatment failure (persistence or recurrence) was defined by the presence of CIN confirmed histologically by a colposcopically guided biopsy.The mean age of patients was 34.1 years. The agreement between histology from the colposcopically guided biopsy and the surgical specimen was 60%, and the kappa coefficient was 40.7% (moderate agreement). Three cases of microinvasive carcinoma were diagnosed in patients whose initial diagnosis was CIN3 on colpobiopsy (4% of invasion in the initial CIN3 group of patients). In a comparison of LLETZ with laser treatment for all CIN grades, the unique independent prognostic factor for persistence-recurrence of the disease was the colposcopic size of the primary lesion (relative risk, 4.9; Cl, 1.33-18.45).We conclude that the LLETZ procedure for CIN treatment demonstrates an advantage over destructive methods for detection of occult microinvasive and invasive cancer. This process is a simple outpatient technique with the same failure as that of laser vaporization in all CIN grades. In the treatment of CIN3, cold-knife cone biopsy had better cure rates. Close follow-up is required in these patients, because of their risk of developing recurrent CIN or invasive carcinoma.</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4235671025</t>
+          <t>https://openalex.org/W1584776329</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1149/ma2016-01/37/1874</t>
+          <t>https://doi.org/10.2139/ssrn.877036</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Liu &amp; Paddison (2016)</t>
+          <t>Burd &amp; Currie (2004)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Quantitative Comparison of Atomistic Molecular Dynamics Simulations and X-Ray Scattering of Polymerized Ionic Liquids</t>
+          <t>Partnering with the Private Sector to Introduce New Physical, Human and Social Capital - Isolating Criteria for Success</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Polymerized ionic liquids (polyILs) are touted as the ideal solid-state electrolyte materials for electrochemical devices due to enhanced mechanical characteristics of polymer nature and unique physico-chemical properties inherent from ionic liquids. PolyILs offer great flexibility in designing the task specific media through judicious choosing component cations, anions and polymer structures for a wide range of energy conversion and storage applications, such as dye-sensitized solar cells, lithium ion rechargeable batteries, and alkaline fuel cells. While polyILs enjoy many favorable properties such as low flammability, high thermal/chemical/electrochemical stability, and mechanical strength, they inevitably suffer from the retarded ionic conductivity, one of the detrimental shortcomings in electrochemical applications. PolyILs usually have elevated glass transition temperature Tg and subsequently several orders of magnitude decrease in ionic conductivity with respect to their molecular IL counterparts. Most of previous research involve in finding the optimal polyILs to achieve the maximum accessible ionic conductivity. It is generally accepted that ionic conductivity of polyILs depends on the complex correlations between chemical nature of polymer backbone and counter-ions, glass transition temperature, mesophase morphology, temperature and pressure. Therefore, a molecular-level understanding of the relationship between chemical structure, morphology and ion transport will promote the rational design of polyILs for electrochemical applications. In present work, we use atomistic molecular dynamics simulations to investigate structural properties of model system poly(1-n-alkyl-3vinylimidzolium bistrifluoromethylsulfonylimide) poly(nVim Tf2N) . X-ray scattering measurement on structural properties of polyILs is elusive. The detailed simulations provide a direct quantitative picture for understanding the structure/morphology of polyILs on the atomic scale. In particular, we present the first direct comparison of structure factors obtained from X-ray scattering and simulations for various alkyl chain length of poly(nVim Tf2N). Excellent agreement is found between the experimental and simulated scattering profiles in terms of peak position and shape, which provides proper validation of our simulation methods. All characteristic distances (backbone-to-backbone, anion-to-anion and pendant-to-pendant) are well reproduced. As the alkyl chain length increases, the backbone-to-backbone peak becomes stronger, moving to larger distance, the anion-to-anion separation slightly increases with vanishing intensity, and the pendant-to-pendant peak hardly changes. This quantitative comparison of X-ray scattering and atomistic simulations is expected to lead to a molecular-level predictive understanding in structure and morphology of polyILs and paves a substantive step towards the rational design of future polyILs for electrochemical devices.</t>
+          <t>Governments are being pressured to provide better service, which is consistent, faster, and more accurate while effecting cost reductions, increasing employee morale and enhancing the business environment. This has been achieved in two ways - through Electronic Service Delivery (ESD) and through partnering with the private sector, rather than by outsourcing or privatisation. This paper reviews case studies where outcomes of ESD and partnering have been successful in order to highlight preconditions for success and characteristics of beneficial transformations.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000920990</t>
+          <t>https://openalex.org/W2074839063</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jchb.2010.01.036</t>
+          <t>https://doi.org/10.1016/0165-7836(92)90029-s</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Sigmon (2010)</t>
+          <t>Ranta et al. (1992)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Domesticating the prehistoric mind</t>
+          <t>Fish catch and water quality in small lakes</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Two events in human history have been accompanied by large increases in economic development as reflected by per capita income and population growth. These are the Neolithic Revolution (i.e., the transition from hunter–gatherer to agricultural societies, initially growing crops followed by domesticated livestock) and the Industrial Revolution (i.e., the era of mechanization of manufacturing). The Neolithic Revolution and the development of agriculture occurred independently in multiple geographical regions including the Middle East (the Fertile Crescent), East Asia (along the Ganges), South Asia (the Indus Valley), Mesoamerica, the Andes, and West Africa; these occurring at different prehistorical and historical times. The Neolithic Revolution first encompassed the domestication of cereals with domestication of animals occurring somewhat later. Corollaries to the Neolithic Revolution were the following: musculoskeletal stress, poorer overall nutrition accompanied by reduced height, the appearance of dental disease, and a huge increase in fertility. The explanation for why the Neolithic Revolution occurred is discussed. The founder crops of the Fertile Crescent were wheat, lentil, pea, chickpeas, bitter vetch, and flax. Among the other major crop domesticated were rice, millet, maize (corn), and potatoes. Crops were usually domesticated in a single location and ancestral wild species are still found. In contrast, there appears to have been one, two, or more domestications (e.g., one for each of sheep and goats and three for pigs and cattle) resulting in livestock animals domesticated independently in different locations. For instance, cattle were domesticated in the Fertile Crescent, South Asia, and Africa while pigs were domesticated in Anatolia, East Asia, and Western Europe with possible additional domestication loci. The wild ancestral species for some livestock species, such as sheep, goats, and cattle, are now extinct. Animal agriculture spread by trading and migrations. One early form of animal agriculture was pastoralism. This subsistence livelihood continues in some regions.</t>
+          <t>We examined the relationship between water quality and fish catch in 80 small Finnish lakes. Generally, fishing effort and gear may vary considerably among lakes; therefore, the detection of any relationship between water quality and fish catch may be hampered. To avoid this bias, fish in the present study were trapped with a standardised gill net (catch refers to the pooled biomass of trapped fish, catch per unit effort (CPUE). Water quality was assessed by measuring lake-specific values of pH, calcium, dissolved and total aluminium, conductivity, alkalinity and water colour. From these data, we extracted two principal components, together they retained 78% of the variation in the original data. Despite our efforts to minimise noise in the catch data, we could not find any predictive relationship between water quality and total biomass of fish. We conclude that in Finnish lakes it is difficult, if not impossible, to predict the lake-specific fish catch based on water quality. However, even with the present data there were differences in the total catch of fish originating from lakes with diverse values along the first principal component (a gradient composed of pH, calcium, conductivity and alkalinity). Lakes in the low end averaged a catch of 6.4 kg, while those at the high end averaged 9.2 kg. This was due to roach having increasing catches along the gradual transition from acid to neutral lakes.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1587591531</t>
+          <t>https://openalex.org/W1971995030</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-23851-2_36</t>
+          <t>https://doi.org/10.1016/j.pcad.2012.02.004</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Bardis et al. (2011)</t>
+          <t>Yusuf et al. (2012)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A Formal Framework for Declarative Scene Description Transformation into Geometric Constraints</t>
+          <t>Disturbances in Calcium Metabolism and Cardiomyocyte Necrosis: The Role of Calcitropic Hormones</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>The disambiguation of a declarative visual model is a crucial step towards the generation of its geometric equivalents. Any abstract description has to be ultimately translated into a concrete set of values or relevant constraints, solely relying on quantifiable model characteristics. To this day, there is no general consensus with respect to a unified, formally defined model for this disambiguation process or the desired quantified outcome. The current work sets the basis for a uniform transformation process and the corresponding formal constraint model, inclusive of a number of already existing approaches for declarative modelling. The applicability of the proposed framework is exhibited in an existing declarative modelling environment, explicitly demonstrating its implementation in the specific context.</t>
+          <t>A synchronized dyshomeostasis of extra- and intracellular Ca2+, expressed as plasma ionized hypocalcemia and excessive intracellular Ca2+ accumulation, respectively, represents a common pathophysiologic scenario that accompanies several diverse disorders. These include low-renin and salt-sensitive hypertension, primary aldosteronism and hyperparathyroidism, congestive heart failure, acute and chronic hyperadrenergic stressor states, high dietary Na+, and low dietary Ca2+ with hypovitaminosis D. Homeostatic responses are invoked to restore normal extracellular [Ca2+]o, including increased plasma levels of parathyroid hormone and 1,25(OH)2D3. However, in cardiomyocytes these calcitropic hormones concurrently promote cytosolic free [Ca2+]i and mitochondrial [Ca2+]m overloading. The latter sets into motion organellar-based oxidative stress, in which the rate of reactive oxygen species generation overwhelms their detoxification by endogenous antioxidant defenses, including those related to intrinsically coupled increments in intracellular Zn2+. In turn, the opening potential of the mitochondrial permeability transition pore increases, allowing for osmotic swelling and ensuing organellar degeneration. Collectively, these pathophysiologic events represent the major components to a mitochondriocentric signal-transducer-effector pathway to cardiomyocyte necrosis. From necrotic cells, there follows a spillage of intracellular contents, including troponins, and a subsequent wound healing response with reparative fibrosis or scarring. Taken together, the loss of terminally differentiated cardiomyocytes from this postmitotic organ and the ensuing replacement fibrosis each contribute to the adverse structural remodeling of myocardium and progressive nature of heart failure. In conclusion, hormone-induced ionized hypocalcemia and intracellular Ca2+ overloading comprise a pathophysiologic cascade common to diverse disorders and that initiates a mitochondriocentric pathway to nonischemic cardiomyocyte necrosis.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2998109742</t>
+          <t>https://openalex.org/W2316584959</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/536379</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Pietrostefani (2019)</t>
+          <t>Beck (1947)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Essays in planning policy and urban economics</t>
+          <t>Algonquin Folklore from Maniwaki</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>This thesis consists of four independent chapters. Although the chapters are distinct works, they are related by their focus on urban policy and aim to contribute to the understanding of how planning policies and urban development affect specific outcomes in space. The chapters can be divided into two distinct parts. The first part comprises two studies on conservation planning. The first chapter investigates the complexities at play between conservation planning systems, their applications and how these vary between contexts. Based on a survey of conservation planning systems in 5 countries, focusing on 5 city case-studies, it considers how conservation compares between planning systems of the Global North and Global South and what this suggest about heritage value. The second chapter exploits the Italian context to examine to what extent non-compliance undermines conservation effects given that despite stringent planning regulation, the conditions of the urban environment vary widely throughout Italy, including within protected areas. This study is closely linked to the urban economics literature through an explicit consideration of housing markets and spatial issues. The second part of this thesis comprises two further chapters that focus on the effects of two distinctly urban occurrences: economic and morphological density. The third chapter investigates the costs and benefits of a widely supported policy paradigm: ‘compact urban form’. It asks to what extent even higher densities within cities are desirable by assessing the effects of density on a broad range of outcomes ranging from wages, innovation, rents, various amenities, the cost of providing public services, transport- and environment-related outcomes to health and wellbeing. The final chapter focuses on deregulated planning using Beirut, Lebanon as a case-study given the city’s conspicuous transformations which have dramatically altered the city’s landscape, housing stock, and people-space relations. This chapter specifically investigates how morphological densification affects values residents attach to both their physical urban environments and intangible urban amenities such as neighbourhood belonging. The unifying theme of the thesis is to bring fresh evidence to policy-relevant issues in planning and urban economics by the generation of new datasets for all contexts and the application of multi-disciplinary techniques.</t>
+          <t>In the spring of 1943, I accompanied Dr. F. G. Speck to Maniwaki, Quebec to visit the River Desert Band of Algonquin Indians. We made the trip during a transitional period when many of the band were still on the trap lines, and a spring thaw prevented extensive travel. Even though the weather and the season were not propitious for field work, we were able to collect much ethnological data. As far as is known, the folklore, myths, superstitions and beliefs of this particular band have received little attention. The material presented here is by no means complete, but rather only a modest beginning. In view of the paucity of available material on the subject, however, one may hope that this contribution will prove of value. But first, before proceeding to the data at hand, I shall present a general survey of the band, their habitat, occupations and the principal informants. The reservation was begun in i8541 when the Indians were removed from their old reservation near Montreal. At that time, the Maniwaki area was a summer hunting ground for many of these people. All of them, however, did not come from Montreal. Some came from other locations and were allowed</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388653475</t>
+          <t>https://openalex.org/W2075007701</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.87081.3.sa3</t>
+          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Mavrommatis et al. (2023)</t>
+          <t>Hassett (1996)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Author Response: Human skeletal muscle organoids model fetal myogenesis and sustain uncommitted PAX7 myogenic progenitors</t>
+          <t>Do It Right, Do the Right Thing</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Full text Figures and data Side by side Abstract eLife assessment eLife digest Introduction Results Discussion Materials and methods Data availability References Peer review Author response Article and author information Abstract In vitro culture systems that structurally model human myogenesis and promote PAX7+ myogenic progenitor maturation have not been established. Here we report that human skeletal muscle organoids can be differentiated from induced pluripotent stem cell lines to contain paraxial mesoderm and neuromesodermal progenitors and develop into organized structures reassembling neural plate border and dermomyotome. Culture conditions instigate neural lineage arrest and promote fetal hypaxial myogenesis toward limb axial anatomical identity, with generation of sustainable uncommitted PAX7 myogenic progenitors and fibroadipogenic (PDGFRa+) progenitor populations equivalent to those from the second trimester of human gestation. Single-cell comparison to human fetal and adult myogenic progenitor /satellite cells reveals distinct molecular signatures for non-dividing myogenic progenitors in activated (CD44High/CD98+/MYOD1+) and dormant (PAX7High/FBN1High/SPRY1High) states. Our approach provides a robust 3D in vitro developmental system for investigating muscle tissue morphogenesis and homeostasis. eLife assessment The authors develop a cell culture system for studies of muscle tissue development and homeostasis. They convincingly validate a novel 3D cell model. Their thorough molecular and functional characterization will make this useful for future workers in the field. https://doi.org/10.7554/eLife.87081.3.sa0 About eLife assessments eLife digest Humans contains around 650 skeletal muscles which allow the body to move around and maintain its posture. Skeletal muscles are made up of individual cells that bundle together into highly organized structures. If this group of muscles fail to develop correctly in the embryo and/or fetus, this can lead to muscular disorders that can make it painful and difficult to move. One way to better understand how skeletal muscles are formed, and how this process can go wrong, is to grow them in the laboratory. This can be achieved using induced pluripotent stem cells (iPSCs), human adult cells that have been ‘reprogrammed’ to behave like cells in the embryo that can develop in to almost any cell in the body. The iPSCs can then be converted into specific cell types in the laboratory, including the cells that make up skeletal muscle. Here, Mavrommatis et al. created a protocol for developing iPSCs into three-dimensional organoids which resemble how cells of the skeletal muscle look and arrange themselves in the fetus. To form the skeletal muscle organoid, Mavrommatis et al. treated iPSCs that were growing in a three-dimensional environment with various factors that are found early on in development. This caused the iPSCs to organize themselves in to embryonic and fetal structures that will eventually give rise to the parts of the body that contain skeletal muscle, such as the limbs. Within the organoid were cells that produced Pax7, a protein commonly found in myogenic progenitors that specifically mature into skeletal muscle cells in the fetus. Pax 7 is also present in ‘satellite cells’ that help to regrow damaged skeletal muscle in adults. Indeed, Mavrommatis et al. found that the myogenic progenitors produced by the organoid were able to regenerate muscle when transplanted in to adult mice. These findings suggest that this organoid protocol can generate cells that will give rise to skeletal muscle. In the future, these lab-grown progenitors could potentially be created from cells isolated from patients and used to repair muscle injuries. The organoid model could also provide new insights in to how skeletal muscles develop in the fetus, and how genetic mutations linked with muscular disorders disrupt this process. Introduction Novel skeletal muscle model systems are required to further elucidate the process of human myogenesis as well as investigate muscular disorders and potential gene, cell, or drug therapies. Two-dimensional (2D) culture conditions guide pluripotent stem cell (PSC) differentiation toward skeletal muscle lineage using sequential growth factor applications and/or conditional PAX7 expression (Chal et al., 2015; Xi et al., 2017; Shelton et al., 2014; Borchin et al., 2013; Darabi et al., 2012). Further, surface marker expression can be utilized to isolate myogenic progenitors with in vivo repopulation potential (Magli et al., 2017; Hicks et al., 2018; Al Tanoury et al., 2020; Sun et al., 2022). While the few described three-dimensional (3D) differentiation approaches have provided cohorts of terminally differentiated myofibers, focus on potential interactions with the vasculature and nervous system has neglected assessment of the developmental identity or sustainability of myogenic progenitors (Faustino Martins et al., 2020; Maffioletti et al., 2018;</t>
+          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4213028338</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.gerinurse.2022.01.017</t>
+          <t>https://openalex.org/W1513731821</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Groenendaal et al. (2022)</t>
+          <t>Wilson (2009)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Maintaining meaningful activities for persons with dementia during transitions of care: A systematic review</t>
+          <t>Efficient Employment of Imperfect Search Sensors in Complex Environments</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>This systematic review summarizes the experiences with maintaining meaningful activities for persons with dementia during transitions of care, including related barriers and facilitators, and interventions and strategies. A systematic search was performed in eight databases. The methodological quality was assessed with the Mixed Methods Appraisal Tool. Four articles were included; one describing the transition from home to hospital and vice versa, and three describing the transition from home to nursing home. The narrative synthesis revealed a decrease of meaningful activities after transition. Facilitators of and barriers to maintaining meaningful activities during transitions were related to the person with dementia, informal caregivers, healthcare professionals and organization of care, as well as the environment. Interventions and strategies focused on continuously adjusting meaningful activities to the person. To conclude, maintaining meaningful activities during transitions is an under-researched area. Several recommendations are provided for healthcare professionals and organizations.</t>
+          <t>Abstract : Defense planners must strive to develop and incorporate new, efficient procedures to allocate scarce resources in varied complex environments. We consider two discrete-time, discrete-space search effort allocation situations. Both involve the employment of an imperfect sensor, which is subject to both false-positive and false-negative errors. The area of interest, comprised of several disjoint area-cells, contains a single target of interest. In the first situation, the target moves according to a Markovian transition matrix, which is unknown to the sensor operator. The objective is to estimate the target's steady-state distribution, using only the sensor's detection signals and knowledge of its false-positive and false-negative rates. The second situation considers a stationary target, wherein the objective is to determine the area-cell occupied by the target, in the fewest expected number of investigations, to within certain operator-prescribed error tolerances. We develop an adaptive algorithm based on stochastic approximation for the first situation, and show that the resultant rate of error in determining target presence/absence in any area-cell converges to zero at the fastest possible rate. We propose a sequential elimination procedure for the second situation, which provides an efficient determination of target location and guarantees its error rate not to exceed the operator-prescribed tolerance.</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2108558461</t>
+          <t>https://openalex.org/W4380078132</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/anie.200504555</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3033984/v1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Sun &amp; DiMagno (2006)</t>
+          <t>Araya et al. (2023)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Room-Temperature Nucleophilic Aromatic Fluorination: Experimental and Theoretical Studies</t>
+          <t>Promoting climate-smart sustainable agroforestry to tackle social and environmental challenges: The case of Macadamia agroforestry in Malawi</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Taming the reagent: The use of anhydrous tetrabutylammonium fluoride (TBAFanh) in nucleophilic aromatic substitution reactions, including variants of the selective halogen-exchange and fluorodenitration processes (see scheme), was investigated. It was shown that TBAFanh permits these reactions to be performed under surprisingly mild conditions if it is used in relatively nonpolar media. Despite their rarity in nature,1 organofluorine compounds play a leading role in the life sciences.2–11 The high electronegativity and small atomic radius of the fluorine atom mean that its incorporation into biologically active compounds induces a relatively small structural perturbation, whereas drastically altering the electronic properties and bioavailability of the compounds.9, 12 Fluorine substitution is a particularly effective strategy for aromatic groups, as the electron-withdrawing nature of the fluorine atom reduces the susceptibility of an aryl ring to cytochrome P-450 catalyzed hydroxylation, a common step in drug catabolism.8 The CF dipole in fluoroaromatic groups can also lead to an increase in molecular recognition through favorable, though generally weak, electrostatic interactions.3, 6, 10, 11, 13 Because of the medicinal importance of fluorinated aromatic compounds, mild and selective methods for their preparation are desirable. We recently reported the preparation of a soluble, highly nucleophilic fluoride-ion source, anhydrous tetrabutylammonium fluoride (TBAFanh).14 TBAFanh can be dissolved in dimethyl sulfoxide (DMSO) and CH3CN (2 M) and fluorinates primary alkyl halides and tosylates rapidly at low temperature (−35 °C, 5 min, THF). The rapid rate observed for SN2 reactions that feature TBAFanh prompted us to investigate nucleophilic aromatic substitution (SNAr) reactions with this reagent. Below we describe variants of the industrially important selective halogen exchange (Halex) and fluorodenitration processes for aromatic fluorination.15–18 We show that TBAFanh permits these reactions to be performed under surprisingly mild conditions. Electron-withdrawing substituents are typically required to activate chloroaromatic substrates toward Halex chemistry. The usual reagents employed to effect halogen exchange are spray-dried KF; a high-boiling-point polar aprotic solvent, such as sulfolane; and a phase-transfer catalyst to improve the solubility of the fluoride ion (Scheme 1). Prolonged and vigorous heating is often required. Such harsh conditions preclude syntheses in which the late introduction of fluorine substituents is desired. In contrast, many aromatic compounds undergo Halex reactions at room temperature in DMSO, CH3CN, or THF upon exposure to TBAFanh. In a typical preparation, TBAFanh (1.3 equiv) and the chloro- or nitroaromatic compound were simply stirred together in DMSO.19 Representative fluorinations are shown in Table 1. A typical Halex reaction.24 DMI=1,3-dimethyl-2-imidazolidinone. Entries Substrate Conditions[a] Product Yield [%][b] 1 TBAFanh (4 equiv) 14 days no reaction 0 2 TBAFanh (4 equiv) 14 days 80 3 TBAFanh (2.5 equiv) 1 h &gt;95 4 TBAFanh (2.5 equiv) 1.5 h &gt;95 5 TBAFanh (1.3 equiv) 20 min &gt;95 6 TBAFanh (1.3 equiv) 30 min &gt;95 7 TBAFanh (1.3 equiv) 1 h &gt;95 8 TBAFanh (2.5 equiv) 30 min &gt;95 9 TBAFanh (1.3 equiv) 30 min &gt;95 10 TBAFanh (1.4 equiv) ≈30 min &gt;90 11 TBAFanh (1.5 equiv) 2 days 80 12 TBAFanh (1.5 equiv) 5 days 2 13 TBAFanh (1.5 equiv) 18 h &gt;95 14 TBAFanh (2.5 equiv) 20 min &gt;95 15 TBAFanh (1.4 equiv) 20 min &gt;85 16 TBAFanh (2.5 equiv) 1 h &gt;90 17 TBAFanh (2.5 equiv) 1.5 h &gt;90 18 TBAFanh (1.3 equiv) 30 min &gt;95 19 TBAFanh (1.3 equiv) 30 min &gt;95 20 TBAFanh (1.3 equiv) 10 min &gt;95 21 TBAFanh (1.3 equiv) 24 h &gt;95 The scope of the room-temperature reactivity of TBAFanh with chloropyridines in DMSO is apparent from inspection of Table 1. If the pyridine ring has no electron-withdrawing groups, the nucleophilic substitution of chloride is sluggish for the ortho position and does not occur at all with m-chloropyridine. Smooth nucleophilic substitution occurs if mildly activating groups are present. A comparison of the mono- and dichloropyridine examples shows that a second electronegative substituent accelerates substitution: fluorination of 2-chloropyridine requires 14 days, whereas 2,6-dichloropyridine is exhaustively fluorinated in 90 minutes under identical conditions. In comparison, typical Halex fluorinations of 2,6-dichloropyridine require heating at 150 °C for ten hours.20–23 Chloropyridine substrates bearing more strongly electron-withdrawing (trifluoromethyl or carbonyl) substituents are also fluorinated rapidly, as are several other heterocyclic derivatives. It is noteworthy that N-benzyl-6-chloropurine is fluorinated quantitatively within 30 minutes. However, 6-chloropurine is deprotonated by TBAFanh if the amine is left unprotected, thus generating an equivalent of bifluoride ion. Fluorination of the 6-chloropurine anion requires excess TBAFanh (4 equiv) and an extended rea</t>
+          <t>Abstract Our current global food system is understood to require a fundamental transformation based on a holistic approach to maintain long-term fertility, healthy biodiverse agroecosystems, and climate-proof/secure livelihoods. Recently, there has been a growing recognition of smallholder farmers' contributions to addressing key global environmental and social development issues (i.e., SDGs), including poverty, food security, climate change, and sustainable development. One specific approach is agroforestry-based agriculture, in which edible food and commercially important trees are grown on cropland, thereby improving the biodiversity of farming systems, enhancing agricultural productivity, and adding benefits such as nutrition and financial stability, not least climate resilience. In this context, we present lessons learned from an agroforestry system in Malawi that involves smallholder farmer cooperatives interplanting macadamia nut trees with annual crops such as groundnuts, maize, and soybeans. We review holistic advantages such as yield improvement, farmer perceptions, and challenges. We provide insights into what works in designing (NMT, linkage with finance plan) and draw lessons that can be applied to other comparable programmes worldwide.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205144654</t>
+          <t>https://openalex.org/W2274534862</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.devcel.2021.12.019</t>
+          <t>https://doi.org/10.1111/resp.12749</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Wu et al. (2022)</t>
+          <t>Jo et al. (2016)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Dynamic chromatin state profiling reveals regulatory roles of auxin and cytokinin in shoot regeneration</t>
+          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Shoot regeneration is mediated by the sequential action of two phytohormones, auxin and cytokinin. However, the chromatin regulatory landscapes underlying this dynamic response have not yet been studied. In this study, we jointly profiled chromatin accessibility, histone modifications, and transcriptomes to demonstrate that a high auxin/cytokinin ratio environment primes Arabidopsis shoot regeneration by increasing the accessibility of the gene loci associated with pluripotency and shoot fate determination. Cytokinin signaling not only triggers the commitment of the shoot progenitor at later stages but also allows chromatin to maintain shoot identity genes at the priming stage. Our analysis of transcriptional regulatory dynamics further identifies a catalog of regeneration cis-elements dedicated to cell fate transitions and uncovers important roles of BES1, MYC, IDD, and PIF transcription factors in shoot regeneration. Our results, thus, provide a comprehensive resource for studying cell reprogramming in plants and provide potential targets for improving future shoot regeneration efficiency.</t>
+          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W139317343</t>
+          <t>https://openalex.org/W4232836818</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0378-1119(93)90581-m</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Goulven (2000)</t>
+          <t>NA (1993)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Dispositifs institutionnels et integration des marches la commercialisation du porc au vietnam</t>
+          <t>Author index volume 128 (1993)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>L'objet de la these est d'analyser le fonctionnement d'un marche agricole -celui du porc- dans un pays en transition -le vietnam. Dans le cadre de la nouvelle economie institutionnelle et en partant de l'hypothese qu'il n'existe pas une forme universelle de marche, nous montrons que la diversite des marches est expliquee par la nature des arrangements institutionnels qui structurent les echanges et par les regles sociales qui supportent la mise en application de ces arrangements. Nous developpons d'abord une grille de lecture des niveaux institutionnels dans lesquels s'inscrivent les transactions. Ensuite nous mettons en evidence l'existence de deux marches dont les logiques de formation et de transmission des prix sont differentes. Finalement nous demontrons que ces differences resultent de structures institutionnelles specifiques. Les travaux conduisent a des resultats parfois paradoxaux. Au nord vietnam, le plus longtemps soumis a la collectivisation, les transactions marchandes sont structurees par des institutions informelles privees. Cette organisation entrainent des phenomenes collusifs et de concentration qui affectent la formation concurrentielle des prix et les incitations a la production. Au sud du pays, les institutions publiques legales ont un role central dans la coordination economique. Les mecanismes de fixation des prix y sont plus concurrentiels et la production mieux stimulee. Nous montrons que ces differences, heritees de l'histoire, correspondent a des ancrages des marches dans des valeurs morales particulieres. L'apport theorique de la these est de proposer le couplage d'outils dont l'un est exhaustif mais descriptif - la modelisation des prix - et l'autre est analytique mais monographique - l'analyse de donnees d'enquetes - dans un meme cadre d'analyse. L'apport empirique consiste en la production de donnees de terrain detaillees, collectees a tous les niveaux de la filiere porc au cours de trois sejours sur le terrain dans neuf provinces du pays.</t>
+          <t>Homopurine·homopyrimidine (Pu·Py) tracts are likely to play important biological role in eukaryotes. Using circular dichroism, UV-thermal denaturation and gel electrophoresis, we have analyzed the structural polymorphism of a 21-bp Pu·Py DNA segment within human c-jun protooncogene 3′-region, a potential target for triplex formation. Results show that below physiological pH and in the presence of Na+/K+ with Mg2+ the duplex is destabilized/disproportionated, resulting in strand mediated structural transitions to the self-associated structures of G- and C-rich strands separately, identified as G-quadruplex and i-motif species. A significant differential behavior of the monovalent cations was observed, accordingly the presence of Na+ in acidic as well as neutral pH facilitated the duplex formation, while K+ favored the formation of self-associated structures. In Na+ and Mg2+, under acidic and neutral pH conditions, the duplex displayed triphasic and biphasic melting profiles, respectively. This self-association property of oligonucleotides might limit their use as duplex targets in triplex formation. Study is also relevant for understanding structural and biological properties of DNA sequence containing homopurine tracts.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2737761252</t>
+          <t>https://openalex.org/W4385484373</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chemolab.2023.104928</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Silliman (2017)</t>
+          <t>Stocchero (2023)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Comparing Foraging Niches Of Newly Sympatric Bumble Bees In Alpine Habitats Of Colorado</t>
+          <t>PLS for designed experiments</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Global climate change has facilitated upward range shifts of bumble bees in mountainous habitats worldwide, increasing species richness and competition for floral resources. Competition for flowers is predicted to occur between bees with similar traits relevant to foraging, especially tongue length. I assessed competition between two newly sympatric short-tongued bees: Bombus sylvicola, a native alpine bee, and B. bifarius, a subalpine species that has become prevalent above treeline. I allowed individuals to forage on inflorescence arrays comprised of seven species of bee-pollinated alpine plants. All measures of preference reflected overlapping diet niches for B. sylvicola and B. bifarius. Mean visitation frequencies to the seven plant species were nearly identical for both bumble bees, as were inflorescence foraging times and floral species fidelity during transitions. Results suggest that the arrival of B. bifarius above treeline has resulted in competition between the morphologically similar bees for available floral resources.</t>
+          <t>In many emerging new areas of research, for example in -omics sciences, complex data sets are generated implementing well-designed experiments with the aim to study the effects of factors on responses measured by high-through analytical platforms. The data sets are multivariate in their nature and require suitable data analysis techniques to be investigated. Partial Least Squares (PLS) regression has been developed and successfully applied to solve multivariate regression problems where data are correlated, redundant and noisy, but it is not able to take explicitly into account the experimental design used to generate the data. In this study, we adapt PLS to model data generated by crossed factorial designs. A new method based on constrained PLS2 regression and a type III sums of squares-like approach based on PLS2 are developed to treat orthogonal and non-orthogonal designs, respectively. Post-transformation and Procrustes analysis are applied to discover the 'latent' structure useful to investigate the relationships between factors and responses. The mathematical properties of the data decomposition, the inference process to assess the reliability of the model and some basic tools for model interpretation are presented and discussed. One simulated and two experimental data sets, one generated implementing an orthogonal design and one obtained by a non-orthogonal design, are investigated to show how the methodology works in practice.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2554722002</t>
+          <t>https://openalex.org/W4389257179</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1073/pnas.1701409114</t>
+          <t>https://doi.org/10.7146/moggeosci.v8i.139576</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Maltsev et al. (2017)</t>
+          <t>Surlyk (1982)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Clusters of calcium release channels harness the Ising phase transition to confine their elementary intracellular signals</t>
+          <t>Nares Strait and the down-current termination of the Silurian turbidite basin of North Greenland</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Intracellular Ca signals represent a universal mechanism of cell function. Messages carried by Ca are local, rapid, and powerful enough to be delivered over the thermal noise. A higher signal-to-noise ratio is achieved by a cooperative action of Ca release channels such as IP3 receptors or ryanodine receptors arranged in clusters (release units) containing a few to several hundred release channels. The channels synchronize their openings via Ca-induced Ca release, generating high-amplitude local Ca signals known as puffs in neurons and sparks in muscle cells. Despite the positive feedback nature of the activation, Ca signals are strictly confined in time and space by an unexplained termination mechanism. Here we show that the collective transition of release channels from an open to a closed state is identical to the phase transition associated with the reversal of magnetic field in an Ising ferromagnet. Our simple quantitative criterion closely predicts the Ca store depletion level required for spark termination for each cluster size. We further formulate exact requirements that a cluster of release channels should satisfy in any cell type for our mapping to the Ising model and the associated formula to remain valid. Thus, we describe deterministically the behavior of a system on a coarser scale (release unit) that is random on a finer scale (release channels), bridging the gap between scales. Our results provide exact mapping of a nanoscale biological signaling model to an interacting particle system in statistical physics, making the extensive mathematical apparatus available to quantitative biology.</t>
+          <t>Combined palaeoenvironmental and palaeocurrent evidence demonstrates that a significant change took place in large-scale Silurian palaeogeographic configuration along the North Greenland - Canadian continental margin. The source area of the deep-water turbidite basin of North Greenland was the rising Caledonides to the east. The currents flowed towards the west parallel to the southern carbonate platform. There is no evidence of a northern landmass and the abyssal plains off the present-day east coast of the United States are suggested as analogues. The axial flows seem to have continued westwards along the axis of the Ellesmere Island turbidite basin. West of Nares Strait a significant inflow of turbidity currents from a northerly shelf area enters the basin where they were deflected down the axis, and the existence of a northern landmass, possibly of volcanic arc origin, has been demonstrated in Ellesmere Island. The Ellesmere Island turbidite basin thus represents a deeply submerged back-arc rift or perhaps an intracontinental aulacogen. There is no evidence from the Silurian turbidites of any contemporaneous or later wrench faulting along Nares Strait. Rather, Nares Strait represents the transitional area in the Silurian between two different types of continental margins or even greater geotectonic differences. Future studies of this difference may be instrumental in unravelling the later history of this enigmatic segment of the Earth's crust.</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W2557287686</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1071/rdv29n1ab85</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Lee et al. (2017)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>85 REGULATION OF STEAROYL-CoENZYME A DESATURASE BY FATTY ACIDS IS ESSENTIAL TO PORCINE EARLY EMBRYO DEVELOPMENT</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>Various fatty acids are found in large amounts in follicular fluid and the uterus. These fatty acids are known to regulate lipid metabolism in a mammal’s embryo. Lipid metabolism provides a source of energy, and its importance during embryogenesis is being increasingly recognised. Especially, the pig has larger amounts of intercellular lipid bilayers in the embryo than do other species, which indicates the porcine embryo is more dependent on fatty acid on their metabolic pathway. This study investigated the transcriptome analysis data of in vivo embryos and the effect of oleic acid (C18:1n-9) and stearic acid (C18:0) on in vitro-produced porcine embryos. In transcriptome analysis of in vivo embryos, we found several genes were increasing before and after maternal zygotic transition stage, and interactions were mapped and given a significance score. Among these genes, stearoyl-coenzyme A desaturase (SCD) gene was significantly increased during 8-cell to blastocyst stage. Stearoyl-coenzyme A desaturase is responsible for converting saturated fatty acid (stearic acid) to monounsaturated fatty acid (oleic acid). Furthermore, we treated with oleic acid (50, 100, 250, and 500 μM) and stearic acid (50, 75, and 100 μM) on 2 day and 4 day after parthenogenetic embryos. Both oleic acid and stearic acid concentration over 100 μM had a negative effect on blastocyst formation rate and cell numbers because of exogenous fatty acid toxicity. In addition, there was no significant difference among all stearic acid treated groups and total cell number of oleic acid treated blastocyst. However, the 2-day oleic acid treated group (45.92 ± 4.01, n = 8, 2 day, 100 μM) had a significant increase of blastocyst formation rate (P &amp;lt; 0.05) compared with the control group (34.88 ± 2.93, n = 8). These data could support that porcine embryos can use exogenous oleic acid as a metabolic energy source. The data also demonstrate the important role of SCD in porcine early embryo development. To confirm the transcriptome analysis, we are investigating mRNA level of SCD on in vitro-produced embryos at 1-cell to morula and blastocyst stage on the control group, oleic acid treated group, fetal bovine serum treated group, and nontreated group. Furthermore, we are investigating SCD inhibition assay by A939572 (SCD inhibitor) on parthenogenetic embryos in a fetal bovine serum treated group and nontreated group for identifying blastocyst formation rate and total cell numbers. This work was supported by Basic Science Research Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education (2014R1A1A2055199) and Next BioGreen 21 program (PJ0113002016), Rural Development Administration, Republic of Korea.</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W62592376</t>
+          <t>https://openalex.org/W2026539446</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14264/318981</t>
+          <t>https://doi.org/10.1074/jbc.273.21.12732</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Blythe (2024)</t>
+          <t>Capranico et al. (1998)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A retailing history of the Ipswich central business district (CBD) from the mid-1970s to 2003</t>
+          <t>Mapping Drug Interactions at the Covalent Topoisomerase II-DNA Complex by Bisantrene/Amsacrine Congeners</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>This thesis is a retail history of the Ipswich CBD from the mid- 1970s to 2003. It argues that the Ipswich CBD developed its physical composition through a combination of its belated experience of the national retail innovations, their rapid application once adopted, and the mitigating influence of local business factors. This evolution is explained through a matrix of four interconnected themes : the change in the type of CBD retail businesses; the nature of specific businesses involved in the CBD transformation; the increase in civic participation in CBD retail decision making, and the combined effect of these three factors upon the physical composition of the CBD and its image as a retail destination. These four themes are elaborated through a historical narrative that examines the introduction of the corporate supermarket and shopping centre from the mid- 1970s, the impact of the destruction of Reids (formerly Cribb and Foote) Department Store in 1985, the revitalisation of CBD shopping with the completion of the Ipswich Mall in 1987 and Kern Corporation's Ipswich City Square shopping centre in 1988, the negative effects of the recession in the early 1990s and the subsequent competition from suburban shopping centres, and the more recent debate surrounding the proposed Riverlink development and the adoption of the River Heart vision to plan for future CBD retail development.</t>
+          <t xml:space="preserve">To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. To identify structural determinants for the sequence-specific recognition of covalent topoisomerase II-DNA complexes by anti-cancer drugs, we investigated a number of bisantrene congeners, including a 10-azabioisoster, bearing one or two 4,5-dihydro-1H-imidazol-2-yl hydrazone side chains at positions 1, 4, or 9 of the anthracene ring system. The studied bisantrene/amsacrine (m-AMSA) hybrid and bisantrene isomers were able to poison DNA topoisomerase II with an intermediate activity between those of bisantrene and m-AMSA. Moving the side chain from the central to a lateral ring (from C-9 to C-1/C-4) only slightly modified the drug DNA affinity, whereas it dramatically affected local base preferences of poison-stimulated DNA cleavage. In contrast, switching the planar aromatic systems of bisantrene andm-AMSA did not substantially alter the sequence specificity of drug action. A computer-assisted steric and electrostatic alignment analysis of the test compounds was in agreement with the experimental data, since a common pharmacophore was shared by bisantrene,m-AMSA, and 9-substituted analogs, whereas the 1-substituted isomer showed a radically changed pharmacophoric structure. Thus, the relative space occupancy and electron distribution of putative DNA binding (aromatic rings) and enzyme binding (side chains) moieties are fundamental in directing the specific action of topoisomerase II poisons and in determining the poison pharmacophore. The elucidation of structural determinants of the sequence-specific recognition of DNA by small molecules is fundamental for a rational design of gene-specific DNA binders that are effective in the therapy of human diseases. Several DNA-interactive compounds are known that may bind to the double helix in a site-selective manner; however, the degree and mechanisms of the specificity are very different among them (1Palumbo M. Advances in DNA Sequence-specific Agents 3. Jai Press Inc., 1998Google Scholar, 2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 3Baguley B.C. Anti-Cancer Drug Des. 1991; 6: 1-35PubMed Google Scholar, 4Bailly C. Denny W.A. Waring M.J. Anti-Cancer Drug Des. 1996; 11: 611-624PubMed Google Scholar). A wide variety of antitumor drugs, with and without the ability to bind to naked DNA, have been shown to poison DNA topoisomerases with a high sequence selectivity (2Capranico G. Binaschi M. Borgnetto M.E. Zunino F. Palumbo M. Trends Pharmacol. Sci. 1997; 18: 303-346PubMed Google Scholar, 5Pommier Y. Teicher B.A. Cancer Therapeutics: Experimental and Clinical Agents. Humana Press Inc., Totowa, NJ1997: 153-174Crossref Google Scholar, 6Liu L.F. Annu. Rev. Biochem. 1989; 58: 351-375Crossref PubMed Scopus (1913) Google Scholar, 7Froelich-Ammon S.J. Osheroff N. J. Biol. Chem. 1995; 270: 21429-21432Abstract Full Text Full Text PDF PubMed Scopus (504) Google Scholar). DNA topoisomerases are ubiquitous enzymes deputed to resolve topological problems that arise during various nuclear processes including transcription, recombination, and chromosome partitioning at cell division (8Wang J.C. Annu. Rev. Biochem. 1996; 65: 635-692Crossref PubMed Scopus (2060) Google Scholar, 9Watt P.M. Hickson I.D. Biochem. J. 1994; 303: 681-695Crossref PubMed Scopus (385) Google Scholar, 10Osheroff N. Zechiedrich E.L. Gale K.C. BioEssays. 1991; 13: 269-273Crossref PubMed Scopus (235) Google Scholar). Type II enzymes make transient double-stranded breaks into one segment of DNA and pass an </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1584776329</t>
+          <t>https://openalex.org/W4315432957</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.877036</t>
+          <t>https://doi.org/10.3389/fevo.2022.1048752</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Burd &amp; Currie (2004)</t>
+          <t>Xue et al. (2023)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Partnering with the Private Sector to Introduce New Physical, Human and Social Capital - Isolating Criteria for Success</t>
+          <t>Supply-driven evolution: Mutation bias and trait-fitness distributions can drive macro-evolutionary dynamics</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Governments are being pressured to provide better service, which is consistent, faster, and more accurate while effecting cost reductions, increasing employee morale and enhancing the business environment. This has been achieved in two ways - through Electronic Service Delivery (ESD) and through partnering with the private sector, rather than by outsourcing or privatisation. This paper reviews case studies where outcomes of ESD and partnering have been successful in order to highlight preconditions for success and characteristics of beneficial transformations.</t>
+          <t>Many well-documented macro-evolutionary phenomena still challenge current evolutionary theory. Examples include long-term evolutionary trends, major transitions in evolution, conservation of certain biological features such as hox genes, and the episodic creation of new taxa. Here, we present a framework that may explain these phenomena. We do so by introducing a probabilistic relationship between trait value and reproductive fitness. This integration allows mutation bias to become a robust driver of long-term evolutionary trends against environmental bias, in a way that is consistent with all current evolutionary theories. In cases where mutation bias is strong, such as when detrimental mutations are more common than beneficial mutations, a regime called “supply-driven” evolution can arise. This regime can explain the irreversible persistence of higher structural hierarchies, which happens in the major transitions in evolution. We further generalize this result in the long-term dynamics of phenotype spaces. We show how mutations that open new phenotype spaces can become frozen in time. At the same time, new possibilities may be observed as a burst in the creation of new taxa.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2316584959</t>
+          <t>https://openalex.org/W4392907819</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/536379</t>
+          <t>https://doi.org/10.1016/j.scitotenv.2024.171800</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Beck (1947)</t>
+          <t>Han et al. (2024)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Algonquin Folklore from Maniwaki</t>
+          <t>Centurial deposition records of polychlorinated biphenyls and organochlorine pesticides in sediment cores from a plateau deep-water lake of China: Significance of anthropogenic impacts, transformation signals and ecological risks revealed by full congener analysis</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>In the spring of 1943, I accompanied Dr. F. G. Speck to Maniwaki, Quebec to visit the River Desert Band of Algonquin Indians. We made the trip during a transitional period when many of the band were still on the trap lines, and a spring thaw prevented extensive travel. Even though the weather and the season were not propitious for field work, we were able to collect much ethnological data. As far as is known, the folklore, myths, superstitions and beliefs of this particular band have received little attention. The material presented here is by no means complete, but rather only a modest beginning. In view of the paucity of available material on the subject, however, one may hope that this contribution will prove of value. But first, before proceeding to the data at hand, I shall present a general survey of the band, their habitat, occupations and the principal informants. The reservation was begun in i8541 when the Indians were removed from their old reservation near Montreal. At that time, the Maniwaki area was a summer hunting ground for many of these people. All of them, however, did not come from Montreal. Some came from other locations and were allowed</t>
+          <t>Lake Fuxian, the largest deep freshwater lake in China, has been suffering from increasing ecological and environmental issues along with the rapid urbanization and industrialization in the past 40 years. To better understand the historical pollution of persistent organic pollutants (POPs) in Lake Fuxian, comprehensive analyses of 209 polychlorinated biphenyl (PCB) congeners and 20 organochlorine pesticides (OCPs) were conducted in two intact sediment cores (Core V1 and Core V2). The total mass concentrations of PCBs ranged from 7.60 to 31.47 ng/g (dry weight basis) and 5.55 to 28.90 ng/g during the period of 1908–2019 in Core V1 and 1924–2019 in Core V2, respectively. PCBs exhibited a consecutive increasing trend from 1940s to 2019 in Core V1. The temporal trend of PCBs in Core V2 basically matched to the history of PCB usage and prohibition in China (increasing from 1940s to mid-1960s, a remarkable drop in mid-1970s, and then increasing until 2019). Moreover, low-chlorinated PCBs were dominant among PCB homologues. Mono-CBs, di-CBs, tri-CBs and tetra-CBs accounted for 86.71 %–98.57 % in sediment segments. The PCBs sources included unintentional emission and atmospheric deposition, as well as biological transformation. The total mass concentrations of OCPs ranged from 0.74 to 3.82 ng/g in Core V1 and 0.35 to 2.23 ng/g in Core V2, respectively. Similar trend was observed in the two sediment cores with peaks in the early 1990s. The predominant OCPs were γ-hexachlorohexane (γ-HCHs), dieldrin and p,p′-DDD. The ecological risks posed by PCBs and p-p′-DDD in Lake Fuxian were relatively low. In contrast, dieldrin might pose a potential threat to exposed organisms and apparently adverse ecological effects were caused by γ-HCH. This study will provide important baseline information on historical POPs contamination of Lake Fuxian.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
+          <t>https://openalex.org/W3216068185</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://doi.org/10.1155/2021/8388527</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Wang et al. (2021)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>Mechanism of Chronic Stress-Induced Glutamatergic Neuronal Damage in the Basolateral Amygdaloid Nucleus</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>Stress is a ubiquitous part of our life, while appropriate stress levels can help improve the body’s adaptability to the environment. However, sustained and excessive levels of stress can lead to the occurrence of multiple devastating diseases. As an emotional center, the amygdala plays a key role in the regulation of stress-induced psycho-behavioral disorders. The structural changes in the amygdala have been shown to affect its functional characteristics. The amygdala-related neurotransmitter imbalance is closely related to psychobehavioral abnormalities. However, the mechanism of structural and functional changes of glutamatergic neurons in the amygdala induced by stress has not been fully elucidated. Here, we identified that chronic stress could lead to the degeneration and death of glutamatergic neurons in the lateral amygdaloid nucleus, resulting in neuroendocrine and psychobehavioral disorders. Therefore, our studies further suggest that the Protein Kinase R-like ER Kinase (PERK) pathway may be therapeutically targeted as one of the key mechanisms of stress-induced glutamatergic neuronal degeneration and death in the amygdala.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394714692</t>
+          <t>https://openalex.org/W2026644728</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/adma.202403296</t>
+          <t>https://doi.org/10.1523/jneurosci.3467-10.2010</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Wang et al. (2024)</t>
+          <t>Rivera et al. (2010)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Elucidation of Spatial Cooperativity in Chemo‐Immunotherapy by a Sequential Dual‐pH‐Responsive Drug Delivery System</t>
+          <t>Metzincin Proteases and Their Inhibitors: Foes or Friends in Nervous System Physiology?</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Combining immune checkpoint blockade with chemotherapy through nanotechnology is promising in terms of safety and efficacy. However, the distinct subcellular distribution of each ingredient's action site makes it challenging to acquire an optimal synergism. Herein, a dual-pH responsive hybrid polymeric micelle system, HNP(αPDL16.9, Dox5.3), is constructed as a proof-of-concept for the spatial cooperativity in chemo-immunotherapy. HNP retains the inherent pH-transition of each polymer, with stepwise disassembly under discrete pH thresholds. Within weakly acidic extracellular tumor environment, αPDL1 is first released to block the checkpoint on cell membranes. The remaining intact Doxorubicin-loaded micelle NP(Dox)5.3 displays significant tropism toward tumor cells and releases Dox upon lysosomal pH for efficient tumor immunogenic cell death without immune toxicity. This sequential-released pattern boosts DC activation and primes CD8+ T cells, leading to enhanced therapeutic performance than single agent or an inverse-ordered combination in multiple murine tumor models. Using HNP, the indispensable role of conventional type 1 DC (cDC1) is identified in chemo-immunotherapy. A co-signature of cDC1 and CD8 correlates with cancer patient survival after neoadjuvant Pembrolizumab plus chemotherapy in clinic. This study highlights spatial cooperativity of chemo- and immuno-agents in immunoregulation and provides insights into the rational design of drug combination for future nanotherapeutics development.</t>
+          <t>Members of the metzincin family of metalloproteinases have long been considered merely degradative enzymes for extracellular matrix molecules. Recently, however, there has been growing appreciation for these proteinases and their endogenous inhibitors, tissue inhibitors of metalloproteinases (TIMPs), as fine modulators of nervous system physiology and pathology. Present all along the phylogenetic tree, in all neural cell types, from the nucleus to the synapse and in the extracellular space, metalloproteinases exhibit a complex spatiotemporal profile of expression in the nervous parenchyma and at the neurovascular interface. The irreversibility of their proteolytic activity on numerous biofactors (e.g., growth factors, cytokines, receptors, DNA repair enzymes, matrix proteins) is ideally suited to sustain structural changes that are involved in physiological or postlesion remodeling of neural networks, learning consolidation or impairment, neurodegenerative and neuroinflammatory processes, or progression of malignant gliomas. The present review provides a state of the art overview of the involvement of the metzincin/TIMP system in these processes and the prospects of new therapeutic strategies based on the control of metalloproteinase activity.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2761887865</t>
+          <t>https://openalex.org/W4393975183</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-56322-5_20</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Lv et al. (2017)</t>
+          <t>Savković &amp; Lalić (2024)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Correlation Analysis Between the Water Quality and Land Use Composition in Chaobai River Basin</t>
+          <t>Laveraging Machine Learning for Improved Project Inspections and Internal Control Systems</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Under the influence of global climate change and intense human activities, the world is facing water issue and crisis in varying extent. It is considered to be strategically important to study the relation between land-use change and water environment of the only surface water source of Beijing (a city facing severe water shortage). In this article, the quantitative relation between land-use structure and water environment quality of Chaobai River Basin was discussed. GIS spatial analysis function and Markov transition matrix were used to calculate the composition and changes of land use. Meanwhile the correlation between land-use structure and water quality index was analysed by means of correlation analysis, redundancy analysis (RDA) and other mathematical statistics. The land-use impact on water quality was also investigated. The result indicated that the main means of land use in Chaobai River Basin were forest land, farmland, construction land and waters. The major shifted land during 1995 and 2005 was farmland while during 2005 and 2015 was forest land. The indexes of water quality were deeply influenced by the means of land use, of which the deterioration of water quality was significantly affected by construction land. Water quality could be drastically improved by the spatial distribution of forest land, which was especially sensitive to ammonia and potassium permanganate index. The correlation between farmland area variation and water quality was not remarkable. RDA proved the effect of the land-use forms on water environment of Chao River and Bai River in different years. The results could be used to provide a scientific basis for the land optimization and water pollution control of Chaobai River Basin, as well as guide the policy decision of space development and water environment protection of Chaobai River Basin.</t>
+          <t>The field of project auditing and internal control systems is undergoing significant transformations fueled by advances in machine learning. This article delves into how machine learning, with its ability to analyze vast data sets and predict outcomes, can enhance project audits and internal control systems, ensuring robust risk management and effective problem-solving. It examines the application of machine learning in various aspects of internal audits, including problem identification, problem remediation, predictive analytics, and real-time auditing. Furthermore, it highlights the fundamental change in audit competencies required by these technological advancements. The traditional auditor skill set needs to be supplemented with an understanding of machine learning fundamentals, data literacy, technology expertise, AI risk assessment, and effective communication skills. Augmenting human expertise with machine-generated insights can lead to more informed and effective risk management strategies. By embracing the potential of machine learning, auditors can position themselves as strategic partners within organizations. The ability to harness data-driven insights and leverage advanced technologies empowers auditors to provide proactive recommendations and contribute to the achievement of organizational objectives. This transformation from a compliance-focused role to a value-added advisor strengthens the relevance and impact of internal audits in a rapidly evolving business landscape. The article presents practical insights and recommendations for building these competencies and discusses potential challenges and limitations such as data privacy concerns and over-reliance on automation. By addressing these challenges, auditors can navigate the transformative power of machine learning and ensure the responsible and ethical use of data. The findings of this article highlight the promise that machine learning holds for improving project audits and internal audit procedures, shaping a more efficient, proactive, and data-driven audit environment. Embracing machine learning enables auditors to harness its capabilities, enhance risk management practices, solve problems effectively, and foster a transformative shift in the field of auditing.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380078132</t>
+          <t>https://openalex.org/W4393993509</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3033984/v1</t>
+          <t>https://doi.org/10.3390/molecules29071635</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Araya et al. (2023)</t>
+          <t>Naumkin (2024)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Promoting climate-smart sustainable agroforestry to tackle social and environmental challenges: The case of Macadamia agroforestry in Malawi</t>
+          <t>Metalloid–Organic Intermolecular Complexes with Charge State-Controlled Conformations</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Abstract Our current global food system is understood to require a fundamental transformation based on a holistic approach to maintain long-term fertility, healthy biodiverse agroecosystems, and climate-proof/secure livelihoods. Recently, there has been a growing recognition of smallholder farmers' contributions to addressing key global environmental and social development issues (i.e., SDGs), including poverty, food security, climate change, and sustainable development. One specific approach is agroforestry-based agriculture, in which edible food and commercially important trees are grown on cropland, thereby improving the biodiversity of farming systems, enhancing agricultural productivity, and adding benefits such as nutrition and financial stability, not least climate resilience. In this context, we present lessons learned from an agroforestry system in Malawi that involves smallholder farmer cooperatives interplanting macadamia nut trees with annual crops such as groundnuts, maize, and soybeans. We review holistic advantages such as yield improvement, farmer perceptions, and challenges. We provide insights into what works in designing (NMT, linkage with finance plan) and draw lessons that can be applied to other comparable programmes worldwide.</t>
+          <t>Shape alterations of molecular systems, induced by their (electric) charging/discharging, could facilitate useful electronic and/or mechanical functions in molecular-scale devices and machines. The present study reports structures, stabilities, charge distributions, and IR spectra for a group of complexes of a main-group metalloid (boron) atom with hydrocarbon molecules. The considered systems include the smallest species demonstrating the basic principle of operation, as well as their size-extended analogues, generalizing it to larger counterparts based on such units. The system geometries vary considerably between neutral and ionic counterparts and exhibit two–three typical conformations related to twisting by up to about 90 degrees. The predicted structures correlate with specific infrared spectra, which can enable their experimental identification and transformation tracking. The above-mentioned characteristics suggest the potential utility of such systems for intermolecular switches, with the possible spectral monitoring of their functioning.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4232836818</t>
+          <t>https://openalex.org/W3123436791</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0378-1119(93)90581-m</t>
+          <t>https://doi.org/10.1142/s0217751x95002102</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>NA (1993)</t>
+          <t>Hu &amp; Zhang (1995)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Author index volume 128 (1993)</t>
+          <t>UNCERTAINTY RELATION FOR A QUANTUM OPEN SYSTEM</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Homopurine·homopyrimidine (Pu·Py) tracts are likely to play important biological role in eukaryotes. Using circular dichroism, UV-thermal denaturation and gel electrophoresis, we have analyzed the structural polymorphism of a 21-bp Pu·Py DNA segment within human c-jun protooncogene 3′-region, a potential target for triplex formation. Results show that below physiological pH and in the presence of Na+/K+ with Mg2+ the duplex is destabilized/disproportionated, resulting in strand mediated structural transitions to the self-associated structures of G- and C-rich strands separately, identified as G-quadruplex and i-motif species. A significant differential behavior of the monovalent cations was observed, accordingly the presence of Na+ in acidic as well as neutral pH facilitated the duplex formation, while K+ favored the formation of self-associated structures. In Na+ and Mg2+, under acidic and neutral pH conditions, the duplex displayed triphasic and biphasic melting profiles, respectively. This self-association property of oligonucleotides might limit their use as duplex targets in triplex formation. Study is also relevant for understanding structural and biological properties of DNA sequence containing homopurine tracts.</t>
+          <t>We derive the uncertainty relation for a quantum open system comprised of a Brownian particle interacting with a bath of quantum oscillators at finite temperature. We examine how the quantum and thermal fluctuations of the environment contribute to the uncertainty in the canonical variables of the system. We show that upon contact with the bath (assumed ohmic in this paper) the system evolves from a quantum-dominated state to a thermal-dominated state in a time which is the same as the decoherence time in similar models in the discussion of quantum to classical transition. This offers some insight into the physical mechanisms involved in the environment-induced decoherence process. We obtain closed analytic expressions for this generalized uncertainty relation under the conditions of high temperature and weak damping separately. We also consider under these conditions an arbitrarily-squeezed initial state and show how the squeeze parameter enters in the generalized uncertainty relation. Using these results we examine the transition of the system from a quantum pure state to a nonequilibrium quantum statistical state and to an equilibrium quantum statistical state. The three stages are marked by the decoherence time and the relaxation time respectively. With these observations we explicate the physical conditions when the two basic postulates of quantum statistical mechanics become valid. We also comment on the inappropriateness in the usage of the word classicality in many decoherence studies of quantum to classical transition.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385484373</t>
+          <t>https://openalex.org/W4244914765</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chemolab.2023.104928</t>
+          <t>https://doi.org/10.1515/energyo.0011.00001</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Stocchero (2023)</t>
+          <t>Pražáková et al. (2018)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>PLS for designed experiments</t>
+          <t>The long-term succession of cladoceran fauna and palaeoclimate forcing: A 14,600–year record from Plešné Lake, the Bohemian Forest</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>In many emerging new areas of research, for example in -omics sciences, complex data sets are generated implementing well-designed experiments with the aim to study the effects of factors on responses measured by high-through analytical platforms. The data sets are multivariate in their nature and require suitable data analysis techniques to be investigated. Partial Least Squares (PLS) regression has been developed and successfully applied to solve multivariate regression problems where data are correlated, redundant and noisy, but it is not able to take explicitly into account the experimental design used to generate the data. In this study, we adapt PLS to model data generated by crossed factorial designs. A new method based on constrained PLS2 regression and a type III sums of squares-like approach based on PLS2 are developed to treat orthogonal and non-orthogonal designs, respectively. Post-transformation and Procrustes analysis are applied to discover the 'latent' structure useful to investigate the relationships between factors and responses. The mathematical properties of the data decomposition, the inference process to assess the reliability of the model and some basic tools for model interpretation are presented and discussed. One simulated and two experimental data sets, one generated implementing an orthogonal design and one obtained by a non-orthogonal design, are investigated to show how the methodology works in practice.</t>
+          <t>A sediment record of cladoceran remains was analysed in a 543 cm long core from Plešné jezero (Plešné Lake), the Bohemian Forest, Czech Republic. The core covered the time period from the Oldest Dryas to the present. Littoral and benthic Cladocera included 11 species of the family Chydoridae while three species (Bosmina longispina, Daphnia cf. pulicaria and D. cf. longispina) lived in the open water. Remains of Alona quadrangularis and Chydrous sphaericus occurred in the oldest sediment layers from the beginning of the Bølling chronozone. Bosmina longispina and Daphnia cf. pulicaria appeared about 400 years later. Inorganic sediment accumulated at a relatively high rate of ∼ 90 mg cm−2 yr−1 at that time, diluting cladoceran remains and organic matter. Remains of Cladocera accumulated at 0.1 to 0.01 of the Holocene rate, making it difficult to observe effects of climate variation on the species structure of Cladocera in the Late-Glacial. Production of remains increased after warming during the Younger Dryas-Preboreal transition at ∼11.6 kyr BP, and the proportion of littoral species increased. The most important change in cladoceran fauna occurred at ∼10.5 kyr BP and culminated with afforestation of the catchment around 10.3 kyr BP. The domaination of Bosmina longispina lasted for ∼250 years. The afforestation occurred concurrently with a decrease in lake water pH. Bosmina longispina and Daphnia cf. pulicaria disappeared, production of cladoceran remains decreased, but biodiversity increased. Planktonic Cladocera were represented by Daphnia cf. longispina during most of the rest of the Holocene. The production of Cladocera never reached the Preboreal level. Since ∼ 5 cal. kyr BP, the inferred pH continuously decreased. The final decline was likely caused by cooling during the Little Ice Age and by sulphur emissions from ore smelting. The recent acidification of lake water and impoverishment of aquatic fauna was brought about by emissions of sulphur and nitrogen compounds in the 20th century.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389257179</t>
+          <t>https://openalex.org/W4389247145</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7146/moggeosci.v8i.139576</t>
+          <t>https://doi.org/10.1182/blood-2023-188986</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Surlyk (1982)</t>
+          <t>Semba et al. (2023)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Nares Strait and the down-current termination of the Silurian turbidite basin of North Greenland</t>
+          <t>The XPO7/Npat Axis Inactivation Is a Therapeutic Vulnerability for &lt;i&gt;TP53&lt;/i&gt;-Mutated AML</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Combined palaeoenvironmental and palaeocurrent evidence demonstrates that a significant change took place in large-scale Silurian palaeogeographic configuration along the North Greenland - Canadian continental margin. The source area of the deep-water turbidite basin of North Greenland was the rising Caledonides to the east. The currents flowed towards the west parallel to the southern carbonate platform. There is no evidence of a northern landmass and the abyssal plains off the present-day east coast of the United States are suggested as analogues. The axial flows seem to have continued westwards along the axis of the Ellesmere Island turbidite basin. West of Nares Strait a significant inflow of turbidity currents from a northerly shelf area enters the basin where they were deflected down the axis, and the existence of a northern landmass, possibly of volcanic arc origin, has been demonstrated in Ellesmere Island. The Ellesmere Island turbidite basin thus represents a deeply submerged back-arc rift or perhaps an intracontinental aulacogen. There is no evidence from the Silurian turbidites of any contemporaneous or later wrench faulting along Nares Strait. Rather, Nares Strait represents the transitional area in the Silurian between two different types of continental margins or even greater geotectonic differences. Future studies of this difference may be instrumental in unravelling the later history of this enigmatic segment of the Earth's crust.</t>
+          <t>In acute myeloid leukemia (AML), TP53 mutations are the most prognostically unfavorable genetic alterations, as they confer resistance to various therapeutic agents and form relapsing clones, underscoring the critical need to devise a novel therapeutic strategy for TP53-mutated AML. To identify genes or pathways whose loss is vulnerable to TP53 deficiency in AML cells, we performed genome-wide CRISPR-Cas9 screens using Trp53-knockout (KO) and wild-type (WT) mouse AML cells. We employed two distinct KO screen libraries, through which we identified Xpo7, a putative nuclear/cytoplasmic transporter, as a common factor necessary for Trp53-KO AML survival. Interestingly, Trp53-KO cells were vulnerable to Xpo7 depletion, while Xpo7 functioned as a Trp53-dependent tumor suppressor in Trp53-WT AML cells. Further probing this phenomenon, we performed a CRISPR-Cas9 saturation mutagenesis scan on all Xpo7 exons. Strikingly, sgRNAs targeting Xpo7 coding regions were significantly enriched only in the Trp53-WT AMLs. In stark contrast, these same sgRNAs were mostly depleted in Trp53-KO AMLs. To determine the role of Xpo7 depletion on the expansion of Trp53 deficient clones, we prepared AML cells containing a small fraction of Trp53-KO cells both in the Xpo7-WT and KO backgrounds and assessed the proportion over time in vitro or in vivo. Remarkably, the expansion of Trp53-KO clones, noticeable in the Xpo7-WT setting, was significantly reduced under the Xpo7-KO background, prolonging the mice's survival. These data suggest that Xpo7 depletion effectively impedes Trp53-KO clone expansion. Since Xpo7 is presumed to mediate the nuclear import and export of proteins, we hypothesized that Xpo7 contributes to retaining Trp53 protein within the nucleus in Trp53-WT AMLs. As expected, nuclear Trp53 protein and mRNA levels of Trp53-targeting genes decreased significantly upon Xpo7 depletion. These data suggest that Xpo7 retains WT-Trp53 in the nucleus and functions as a Trp53-dependent tumor suppressor in Trp53-WT AMLs. Next, to elucidate the underlying mechanisms causing the toxic effects in Trp53-KO AMLs upon Xpo7 depletion, we set out to identify proteins whose localization was potentially regulated by Xpo7 in the Trp53-KO state. Employing mass spectrometry on an immunoprecipitate using anti-Xpo7 and cytoplasmic/nuclear protein extracts from both Xpo7-WT and KO AML cells, we found that Npat, an activator of histone transcription in the G1/S transition, interacted with Xpo7 and showed a significant shift towards cytoplasmic localization upon Xpo7 depletion in Trp53-KO AMLs. Strikingly, Npat protein levels displayed a notable upregulation by Trp53 depletion in AML cells. To evaluate the relevance of the XPO7/NPAT axis in human TP53-mutated AML cells, we examined the correlation between XPO7 and NPAT expression levels and AML subtypes and genetic background using publicly available datasets. XPO7 and NPAT mRNA levels were significantly upregulated in TP53-mutated AMLs in the TCGA datasets. Moreover, XPO7 and NPAT mRNAs levels were remarkably high in acute erythroid leukemia (AEL) cases, where TP53 mutations are frequently observed (Tyner et al. Nature, 2018; Iacobucci et al. Nat Genet. 2019). The Xpo7 and Npat protein expression evaluation using primary AML samples corroborated these findings, revealing overexpression in TP53-mutated AML cases. Finally, we assessed the therapeutic effect of Npat depletion in Trp53-deficient AML cells, using the dTAG system to induce Npat protein degradation by knock-in FKBP12 F36V into Npat loci. dTAG v-1 treatment immediately degraded endogenous Npat protein and led to delayed G1/S transition progression. Moreover, Npat degradation induced DNA damage, particularly in the presence of a WEE1 inhibitor or etoposide, and subsequent apoptosis. Transplantation of these AML cells into immunocompromised mice followed by dTAGv1 treatment for one week demonstrated suppressing leukemia progression in vivo. Furthermore, shRNA-mediated XPO7 or NPAT knockdown significantly suppressed the proliferation of HEL, a human AEL cell line harboring TP53 mutation, in vitro and in vivo. In summary, we identified a synthetic lethal relationship between TP53 and XPO7. We unveiled the novel regulatory mechanism of protein localization by XPO7, depending on TP53 mutational state. Our data suggest that XPO7/NPAT inactivation is a therapeutic vulnerability for TP53-mutated AML.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996004032</t>
+          <t>https://openalex.org/W2617926439</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/b915506f</t>
+          <t>https://doi.org/10.11606/t.2.2017.tde-31012017-162325</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Huang et al. (2010)</t>
+          <t>Paiva (2018)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>A case study of the ZnII-BDC/bpt mixed-ligand system: positional isomeric effect, structural diversification and luminescent properties</t>
+          <t>Populismo Penal no Brasil: do modernismo ao antimodernismo penal, de 1984 a 1990</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>To systematically investigate the influence of the positional isomeric ligands on the structures and properties of transition metal complexes, we synthesized eight Zn(II) complexes with three positional isomeric carboxylate ligands (p-BDC, m-BDC and o-BDC) and three positional isomeric dipyridyl bridging ligands (4,4′-bpt, 3,4′-bpt and 3,3′-bpt). {[Zn2(p-BDC)2(4,4′-bpt)2]·H2O·(C2H5OH)}n (1), {[Zn(p-BDC)(3,4′-bpt)2(H2O)2]·2H2O}n (2), {[Zn(p-BDC)(3,3′-bpt)2(H2O)2]·3H2O}n (3), {[Zn2(m-BDC)2(4,4′-bpt)(H2O)3]·H2O}n (4), [Zn(m-BDC)(3,4′-bpt)]n (5), {[Zn(m-BDC)(3,3′-bpt)]·H2O}n (6), [Zn(o-BDC)(4,4′-bpt)]n (7) and [Zn2(o-BDC)2(3,4′-bpt)]n (8) (p-BDC = 1,4-benzenedicarboxylate anion, m-BDC =1,3-benzenedicarboxylate anion, o-BDC = 1,2-benzenedicarboxylate anion, 4,4′-bpt = 1H-3,5-bis(4-pyridyl)-1,2,4-triazole, 3,4′-bpt = 1H-3-(3-pyridyl)-5-(4-pyridyl)-1,2,4-triazole and 3,3′-bpt = 1H-3,5-bis(3-pyridyl)-1,2,4-triazole). Structural analysis reveals that the benzenedicarboxylate isomers display versatile coordination modes to manage the Zn(II) ions to form 1D chains (for 2–5, 7 and 8) or 2D layers (for 1 and 6), which are further extended via the isomeric bpt connectors in different directions to give rise to a variety of coordination polymers, such as 1D decorated chain, 1D ladder-like chain, 2D sql layer, 2D bilayer with 82·10 topology, 2D wave-like layer, 3D 2-fold interpenetrating porous pcu net and 3D CsCl net. These results indicate that the nature of isomeric benzenedicarboxylates and bpt ligands has an important effect on the structural topologies of such Zn(II) complexes. Moreover, the luminescent properties of the complexes have been briefly investigated.</t>
+          <t>The thesis presents a discussion about the transformation of criminal policy discourses on imprisonment in Brazil, from the 1984 criminal justice reform laws to the debates on the constitutional framework of the criminal justice system during the National Constituent Assembly, in 1988.Using concepts developed in the Anglo-Saxon criminology and the traditional justifications for criminal sanctions, the work analyses the legislative debates in order to verify if Brazilian overincarceration is part of the punitive turn wave which took place in the Western world in the late 20 th century, or if its peculiarities should rather be explained by endogenous causes.It goes to illustrate how, in few years, Brazilian punitive turn departed from a welfare penal agenda to one essentially based on punitive sanctions.The hypothesis investigated along the work is that this phenomenon has direct links to the democratization process which attributed to the criminal justice system the role of solving complex social problems.Both conservatives, who discovered the electoral potential of penal populism, and new social movements, who relied on the symbolic nature of criminal law to support and organize civil rights' demands, reinvigorated imprisonment.Paradoxically, prison became a synthesis of contradictory political forces and demands raised at the decline of military regime.The work concludes that contemporary practices of Brazilian criminal justice system are determined by the role assigned to imprisonment since democratization.Ever-higher prison sentences, limits on procedural rights for the accused and indifference towards inhumane prisons (now merely defined as a neutralization tool) reflects colonization of the criminal justice system by crime control apparatus, which is a constitutive feature of penal late-modernism in Brazil.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2905399207</t>
+          <t>https://openalex.org/W4391430310</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32651/2070-0288-2016-12-34-41</t>
+          <t>https://doi.org/10.2139/ssrn.4705735</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Nesterenko &amp; Пахомова (2016)</t>
+          <t>Chen et al. (2024)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ORGANIC AGRICULTURE IN RUSSIA: THE CONDITIONS OF TRANSITION TO THE SUSTAINABLE DEVELOPMENT TRAJECTORY</t>
+          <t>Estrogenic Disruption Effects and Formation Mechanisms of Transformation Products During Photolysis of Preservative Parabens</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>The pervasive presence of emerging contaminants (ECs) in environments and their associated adverse effects are underscored. Notably, the increased toxicity observed in the environmental transformation of ECs is often linked to the formation of transformation products (TPs). However, understanding the interaction and formation mechanisms contributing to increased toxicity, particularly concerning estrogenic effects, remains an unresolved challenge. To address this gap, by combining quantum chemical and molecular simulations with photochemical experiments in water, the identification and formation of TPs as well as their molecular interactions of estrogenic effect during the photochemical degradation of preservatives benzylparaben (BZP). Our results revealed the identification of three previously unknown TPs during the transformation of BZP using a non-targeted analysis. Notably, two of these novel TPs, namely oligomers BZP-o-phenol and BZP-m-phenol, exhibited higher estrogenic activities compared to the parent BZP. Their IC50 values of 0.26 and 0.50 μM were found to be lower than that of the parent BZP (6.42 μM). Furthermore, the binding free energies (ΔGbind) of the oligomers BZP-o-phenol and BZP-m-phenol (-29.71 to -23.28 kcal/mol) were lower than the parent BZP (-20.86 kcal/mol), confirming that their stronger binding affinities to the ERα-LBD. Subsequent analysis unveiled those hydrophobic residues made the most favourable contributions to ER binding, with Van der Waals interactions playing a significant role. In-depth examination of the formation mechanisms indicated that these toxic TPs primarily originated from the successive cleavage of ester bonds (O-CH2C6H5 and -COO group), followed by their combination with BZP*. In summary, this study provides valuable insights into the mechanisms underlying the formation of toxic TPs and their binding interactions with endocrine-disrupting effects. It offers a crucial framework for elucidating the toxicological patterns of ECs with similar structures.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2557287686</t>
+          <t>https://openalex.org/W3092774362</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1071/rdv29n1ab85</t>
+          <t>https://doi.org/10.1080/09583157.2020.1830029</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Lee et al. (2017)</t>
+          <t>Berrones-Morales et al. (2020)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>85 REGULATION OF STEAROYL-CoENZYME A DESATURASE BY FATTY ACIDS IS ESSENTIAL TO PORCINE EARLY EMBRYO DEVELOPMENT</t>
+          <t>Natural parasitism on&lt;i&gt;Anastrepha&lt;/i&gt;spp. (Diptera: Tephritidae) over Neotropical region boundaries in northeastern Mexico</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Various fatty acids are found in large amounts in follicular fluid and the uterus. These fatty acids are known to regulate lipid metabolism in a mammal’s embryo. Lipid metabolism provides a source of energy, and its importance during embryogenesis is being increasingly recognised. Especially, the pig has larger amounts of intercellular lipid bilayers in the embryo than do other species, which indicates the porcine embryo is more dependent on fatty acid on their metabolic pathway. This study investigated the transcriptome analysis data of in vivo embryos and the effect of oleic acid (C18:1n-9) and stearic acid (C18:0) on in vitro-produced porcine embryos. In transcriptome analysis of in vivo embryos, we found several genes were increasing before and after maternal zygotic transition stage, and interactions were mapped and given a significance score. Among these genes, stearoyl-coenzyme A desaturase (SCD) gene was significantly increased during 8-cell to blastocyst stage. Stearoyl-coenzyme A desaturase is responsible for converting saturated fatty acid (stearic acid) to monounsaturated fatty acid (oleic acid). Furthermore, we treated with oleic acid (50, 100, 250, and 500 μM) and stearic acid (50, 75, and 100 μM) on 2 day and 4 day after parthenogenetic embryos. Both oleic acid and stearic acid concentration over 100 μM had a negative effect on blastocyst formation rate and cell numbers because of exogenous fatty acid toxicity. In addition, there was no significant difference among all stearic acid treated groups and total cell number of oleic acid treated blastocyst. However, the 2-day oleic acid treated group (45.92 ± 4.01, n = 8, 2 day, 100 μM) had a significant increase of blastocyst formation rate (P &amp;lt; 0.05) compared with the control group (34.88 ± 2.93, n = 8). These data could support that porcine embryos can use exogenous oleic acid as a metabolic energy source. The data also demonstrate the important role of SCD in porcine early embryo development. To confirm the transcriptome analysis, we are investigating mRNA level of SCD on in vitro-produced embryos at 1-cell to morula and blastocyst stage on the control group, oleic acid treated group, fetal bovine serum treated group, and nontreated group. Furthermore, we are investigating SCD inhibition assay by A939572 (SCD inhibitor) on parthenogenetic embryos in a fetal bovine serum treated group and nontreated group for identifying blastocyst formation rate and total cell numbers. This work was supported by Basic Science Research Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education (2014R1A1A2055199) and Next BioGreen 21 program (PJ0113002016), Rural Development Administration, Republic of Korea.</t>
+          <t>Anastrepha is one of the most species rich-genera of fruit flies in the order Diptera involving pest species of quarantine importance to Mexico. This study aimed to explore and analyze the natural parasitism associated with Anastrepha spp. in a Neotropical transition region from Mexico in the biosphere reserve ‘El Cielo,’ Tamaulipas, Mexico. Anastrepha was represented by Anastrepha fraterculus (Wiedemann), A. ludens Loew, A. obliqua Macquart, and A. zuelaniae. Doryctobracon areolatus (Szépligeti) revealed the highest parasitism rate (77.3%), followed by Trichopria sp. Ashmead (63.6%), Odontosema anastrephae (Borgmeier) (29.5%), Utetes anastrephae Viereck (7.95%), Doryctobracon crawfordi (Viereck) (7.69%), Aganaspis sp. Lin (1.2%)., and Trybliographa nordlanderi (Wharton) (0.7%). Prunus persica and Spondias mombin hosted the highest diversity of parasitoids. Natural parasitism of Do. crawfordi on A. ludens in Citrus sinensis is reported. Trichopria sp. was recorded attacking Anastrepha zuelaniae Stone in Passiflora serratifolia and O. anastrephae parasitising A. fraterculus and A. ludens on P. persica. Results highlight the prevalence of native parasitoids, as well as the biosphere reserve ‘El Cielo’ as the most northern natural reservoir of natural enemies of Anastrepha pest species in the neotropical region.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016604287</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0040-1951(82)90262-1</t>
+          <t>https://openalex.org/W1737138289</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Marillier &amp; Mueller (1982)</t>
+          <t>Dao (2013)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Structure of the upper mantle in the Northeastern Atlantic close to the azores-gibraltar ridge from surface-wave and body-wave observations</t>
+          <t>Essays on economic growth and development</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Abstract Phase velocities of teleseismic Rayleigh waves have been measured in the central North Atlantic on both sides of the Azores-Gibraltar Ridge (AGR) by means of a specially designed long-period station network. The dispersion data obtained were regionalized and then subjected to a “hedgehog” inversion, which gives a set of upper mantle models compatible with the observational data within specified error bounds. Reasonable model solutions were selected by using regional body-wave observations, such as P n - and S n -wave velocities determined from earthquakes along the AGR. The S (itn) velocities measured indicate that the shear-wave velocity in the mantle part of the lithosphere is much higher on the northern side of the AGR. Strongly negative P-wave residuals in this area indicate faster seismic propagation than implied by the Jeffreys-Bullen travel-time tables, while propagation is much slower in the Gulf of Cadiz area. Furthermore the residuals show a clear difference for paths through oceanic and continental domains and suggest that the transition between these two domains extends much further into the ocean on the southern side of the AGR than on the northern side. The proposed model for the structure of the upper mantle in that region shows that there exists a pronounced velocity contrast across the AGR. Thickening of the lithospheric plate with increasing plate age is indicated to the south of the ridge. The greatest thickness is reached close to the continental margin within a zone about 500 km wide, whose velocity close to the Canary Islands and Madeira is significantly lower, probably due to the well-known volcanic activity there. These observations together with the travel time residuals reveal that this zone seems to be of a transitional nature somewhere between a continental and oceanic structure.</t>
+          <t>This thesis contributes four essays to the theoretical literature of Economic Growth and Development covering issues of environment, optimal taxation, demography, gender inequality, endogenous technological progress, and comparative development in variations of overlapping generations modelling. The first essay addresses tax and transfer policies to conduct a Diamond (1965) overlapping generations economy with environmental externalities to the social optimum through Pareto-improving path. The second essay studies the role of geographical and environmental conditions as well as a mechanism under which an society can be locked in a stagnation characterized by a small population, zero-education, and low level of technology. The third essay studies the comparative development across societies by considering the differences in geographical advantage for agricultural production between societies. This essay shows that the geographical advantage for agriculture helps a society to be more prosperous in the agricultural regime, but delays its timings of industrialization and demographic transition. The last essay develops a unified growth model and proposes a new mechanism linking technology, gender inequality, and fertility to explain some stylized facts during the development process. It sheds a light that the evolution from Malthusian stagnation, through the demographic transition, to modern sustained growth along with the improvement in gender equality in education (income), and an increasing female labor supply are inevitable outcomes of the development process.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394510049</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6084/m9.figshare.3453254</t>
+          <t>https://openalex.org/W2592029734</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Mayes &amp; Freitas (2004)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Large sulphur isotopic perturbations and oceanic changes during the Frasnian–Famennian transition of the Late Devonian</t>
+          <t>Review of e-learning theories, frameworks and models. JISC e-learning models study report</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The Frasnian–Famennian transition of the Late Devonian was one of the most critical intervals in the Phanerozoic. Sulphur isotopic pairs of carbonate-associated sulphate and pyrite sulphide from coeval sections in South China and Poland reveal frequent perturbations of sulphur cycling during this time interval. These data suggest a sudden oceanic overturn during a rapid sea-level fall probably induced by jerky block tilting in the latest Frasnian. This event was followed by long-lasting photic-zone euxinia during a rapid sea-level rise in the earliest Famennian. Large increases in continental nutrient fluxes, and subsequent primary productivity and organic burial, could have greatly enhanced bacterial sulphate reduction, producing excessive sulphide through the water columns owing to iron depletion. Subsequently, rapid ventilation of oceanic basins occurred, during which direct aerobic oxidation of sulphide into sulphate predominated in bottom waters and even surface sediments with minimal fractionation. This oxygenation was probably induced by intensive climatic cooling and/or large-scale sea-level fall. The temporal coincidence of two extinction phases with the oceanic overturn and succeeding photic-zone euxinia suggests that these extreme oceanic events played an important role in the severe biotic crisis. Furthermore, photic-zone euxinia coupled with subsequent climatic cooling may have delayed post-extinction recovery of some taxa.</t>
+          <t>This review is designed to inform practitioners, policy developers and other stakeholders who want to reflect more deeply upon their practice or gain a greater understanding about how theory and practice can be mapped together. It is argued that reforming practice requires transformations of understanding of principles that are assumed – sometimes implicitly – in the practices. This review offers a framework for understanding where a particular implementation of e-learning is positioned in the complex current landscape of technology-enhanced teaching in UK HE/FE. It does so by attempting to offer a set of questions to be posed of an e-learning development – the answers to which reveal the underlying pedagogic and pragmatic assumptions.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392907819</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.scitotenv.2024.171800</t>
+          <t>https://openalex.org/W2263796496</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Han et al. (2024)</t>
+          <t>Murtough (1998)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Centurial deposition records of polychlorinated biphenyls and organochlorine pesticides in sediment cores from a plateau deep-water lake of China: Significance of anthropogenic impacts, transformation signals and ecological risks revealed by full congener analysis</t>
+          <t>Linking technology and environmental education in the South African outcomes based curriculum, at grade 1</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
-        <is>
-          <t>Lake Fuxian, the largest deep freshwater lake in China, has been suffering from increasing ecological and environmental issues along with the rapid urbanization and industrialization in the past 40 years. To better understand the historical pollution of persistent organic pollutants (POPs) in Lake Fuxian, comprehensive analyses of 209 polychlorinated biphenyl (PCB) congeners and 20 organochlorine pesticides (OCPs) were conducted in two intact sediment cores (Core V1 and Core V2). The total mass concentrations of PCBs ranged from 7.60 to 31.47 ng/g (dry weight basis) and 5.55 to 28.90 ng/g during the period of 1908–2019 in Core V1 and 1924–2019 in Core V2, respectively. PCBs exhibited a consecutive increasing trend from 1940s to 2019 in Core V1. The temporal trend of PCBs in Core V2 basically matched to the history of PCB usage and prohibition in China (increasing from 1940s to mid-1960s, a remarkable drop in mid-1970s, and then increasing until 2019). Moreover, low-chlorinated PCBs were dominant among PCB homologues. Mono-CBs, di-CBs, tri-CBs and tetra-CBs accounted for 86.71 %–98.57 % in sediment segments. The PCBs sources included unintentional emission and atmospheric deposition, as well as biological transformation. The total mass concentrations of OCPs ranged from 0.74 to 3.82 ng/g in Core V1 and 0.35 to 2.23 ng/g in Core V2, respectively. Similar trend was observed in the two sediment cores with peaks in the early 1990s. The predominant OCPs were γ-hexachlorohexane (γ-HCHs), dieldrin and p,p′-DDD. The ecological risks posed by PCBs and p-p′-DDD in Lake Fuxian were relatively low. In contrast, dieldrin might pose a potential threat to exposed organisms and apparently adverse ecological effects were caused by γ-HCH. This study will provide important baseline information on historical POPs contamination of Lake Fuxian.</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2917364210</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Williamson et al. (2008)</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Assessing Agglomeration Impacts in Auckland: Phase 2</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Agglomeration effects, or the productivity benefits that stem from high employment densities, are being achieved in Auckland's central business district (CBD). This provides support for Auckland's economic transformation. However, questions remain as to the nature of these effects, and whether other factors may help to explain the CBD's observed productivity premium. Using 2001 census area unit data, this paper examines to what extent the CBD's productivity advantages can be explained by sectoral composition and educational attainment. The major finding is that while sectoral composition and educational attainment appears to contribute to the CBD's strong productivity performance, employment density still provides the major impetus. However, to more effectively assess the robustness of the relationships presented in this paper, further work is required.</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4308056305</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/acs.jpca.2c05897</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Recio et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Imaging the Photodissociation Dynamics and Fragment Alignment of CH&lt;sub&gt;2&lt;/sub&gt;BrI at 193 nm</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>The photodissociation dynamics and photofragment alignment of bromoiodomethane (CH2BrI) have been studied at 193 nm using a double experimental and theoretical approach. In addition, the ultraviolet (UV)-vacuum ultraviolet (VUV) absorption spectrum of gas phase CH2BrI has been measured in the photon energy range of 5-11 eV using the VUV Fourier transform spectrometer (FTS) at the VUV beamline DESIRS of the synchrotron SOLEIL facility. The slice imaging technique in combination with resonance enhanced multiphoton ionization (REMPI) detection of the Br(2PJ) and I(2PJ) (with J = 3/2 and 1/2 for Br/I and Br*/I*, respectively) atomic photofragments have been used to produce experimental translational energy and angular distributions, which were analyzed to deliver, on one hand, the partitioning of the available energy among the different degrees-of-freedom of the photofragments and, on the other, the photofragment polarization in terms of aqk(p) alignment parameters. The experimental measurements were rationalized in terms of high-level ab initio calculations of vertical excitation energies, transition dipole moments and potential energy curves (PECs) along different reaction coordinates to provide a complete picture of the photodissociation dynamics. The results indicate that for excitation at 193 nm, prompt C-X cleavage (with X being either halogen atom, Br or I) competes with fast internal conversion and consequent stochastic dissociation in lower electronic states. In the case of the CH2Br + I(2P3/2)/I*(2P1/2) channels, the dynamics are greatly biased toward the stochastic dissociation process due to both the particular PECs landscape and the unfavored excitation of the CH2BrI ensemble with respect to the C-I molecular axis at this excitation energy. The ab initio PECs provide a tentative path for the fast dissociation process in either case. For the C-Br bond breakage, excitation to the 13A' electronic state and predissociation through the 11A'/11A″ or 12A'/12A″ states, leading to direct dissociation through the 10A'/9A″ states, appear as the most consistent dynamics. For the C-I channel, predissociation does not become a reliable possibility and a fast internal conversion may precede dissociation through the repulsive 6A'/6A″ and 4A'/4A″ states. The large content of rotational and vibrational excitation of the polyatomic cofragments is justified through the soft impulsive model and the geometrical changes produced along the dissociation pathway. Strikingly, the aqk(p) alignment parameters obtained for the Br(2P3/2) and I(2P3/2) photoproducts indicate that the rotational angular momentum of the CH2X (X = I or Br) cofragment appears highly constrained along the recoil direction. Finally, this work presents a highly plausible explanation for the branching ratio of secondary dissociation processes in the photodynamics of CH2BrI at 193 nm.</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4393993509</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/molecules29071635</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Naumkin (2024)</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Metalloid–Organic Intermolecular Complexes with Charge State-Controlled Conformations</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Shape alterations of molecular systems, induced by their (electric) charging/discharging, could facilitate useful electronic and/or mechanical functions in molecular-scale devices and machines. The present study reports structures, stabilities, charge distributions, and IR spectra for a group of complexes of a main-group metalloid (boron) atom with hydrocarbon molecules. The considered systems include the smallest species demonstrating the basic principle of operation, as well as their size-extended analogues, generalizing it to larger counterparts based on such units. The system geometries vary considerably between neutral and ionic counterparts and exhibit two–three typical conformations related to twisting by up to about 90 degrees. The predicted structures correlate with specific infrared spectra, which can enable their experimental identification and transformation tracking. The above-mentioned characteristics suggest the potential utility of such systems for intermolecular switches, with the possible spectral monitoring of their functioning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3123436791</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1142/s0217751x95002102</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Hu &amp; Zhang (1995)</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>UNCERTAINTY RELATION FOR A QUANTUM OPEN SYSTEM</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>We derive the uncertainty relation for a quantum open system comprised of a Brownian particle interacting with a bath of quantum oscillators at finite temperature. We examine how the quantum and thermal fluctuations of the environment contribute to the uncertainty in the canonical variables of the system. We show that upon contact with the bath (assumed ohmic in this paper) the system evolves from a quantum-dominated state to a thermal-dominated state in a time which is the same as the decoherence time in similar models in the discussion of quantum to classical transition. This offers some insight into the physical mechanisms involved in the environment-induced decoherence process. We obtain closed analytic expressions for this generalized uncertainty relation under the conditions of high temperature and weak damping separately. We also consider under these conditions an arbitrarily-squeezed initial state and show how the squeeze parameter enters in the generalized uncertainty relation. Using these results we examine the transition of the system from a quantum pure state to a nonequilibrium quantum statistical state and to an equilibrium quantum statistical state. The three stages are marked by the decoherence time and the relaxation time respectively. With these observations we explicate the physical conditions when the two basic postulates of quantum statistical mechanics become valid. We also comment on the inappropriateness in the usage of the word classicality in many decoherence studies of quantum to classical transition.</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3137430892</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/er.6628</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Zhang et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t xml:space="preserve">International Journal of Energy ResearchVolume 45, Issue 9 p. 12980-12995 RESEARCH ARTICLEOpen Access Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author First published: 15 March 2021 https://doi.org/10.1002/er.6628Citations: 2 Funding information: Chinese Scholarship Council, Grant/Award Number: 201906070189; Stiftelsen aforsk, Grant/Award Number: 17-331 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Summary Solid oxide fuel cells (SOFCs) produce electricity with high electrical efficiency and fuel flexibility without pollution, for example, CO2, NOx, SOx, and particles. Still, numerous issues hindered the large-scale commercialization of fuel cell at a large scale, such as fuel storage, mechanical failure, catalytic degradation, electrode poisoning from fuel and air, for example, lifetime in relation to cost. Computational fluid dynamics (CFD) couples various physical fields, which is vital to reduce the redundant workload required for SOFC development. Modeling of SOFCs includes the coupling of charge transfer, electrochemical reactions, fluid flow, energy transport, and species transport. The Butler-Volmer equation is frequently used to describe the coupling of electrochemical reactions with current density. The most frequently used is the activation- and diffusion-controlled Butler-Volmer equation. Three different electrode reaction models are examined in the study, which is named case 1, case 2, and case 3, respectively. Case 1 is activation controlled while cases 2 and 3 are diffusion-controlled which take the concentration of redox species into account. It is shown that case 1 gives the highest reaction rate, followed by case 2 and case 3. Case 3 gives the lowest reaction rate and thus has a much lower current density and temperature. The change of activation overpotential does not follow the change of current density and temperature at the interface of the anode and electrolyte and interface of cathode and electrolyte, which demonstrates the non-linearity of the model. </t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2092776772</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s00023-012-0162-3</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Bru et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Characterization of the Quasi-Stationary State of an Impurity Driven by Monochromatic Light I: The Effective Theory</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>We consider an impurity (N-level atom) driven by monochromatic light in a host environment which is a fermionic thermal reservoir. The external light source is a time-periodic perturbation of the atomic Hamiltonian stimulating transitions between two atomic energy levels E 1 and E N and thus acts as an optical pump. The purpose of the present work is the analysis of the effective atomic dynamics resulting from the full microscopic time-evolution of the compound system. We prove, in particular, that the atomic dynamics of population relaxes for large times to a quasi-stationary state, that is, a stationary state up to small oscillations driven by the external light source. This state turns out to be uniquely determined by a balance condition. The latter is related to “generalized Einstein relations” of spontaneous/stimulated emission/absorption rates, which are conceptually similar to the phenomenological relations derived by Einstein in 1916. As an application we show from quantum mechanical first principles how an inversion of population of energy levels of an impurity in a crystal can appear. Our results are based on the spectral analysis of the generator of the evolution semigroup related to a non-autonomous Cauchy problem effectively describing the atomic dynamics.</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W298697366</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Shang et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>[Form tendency and bio-availability dynamics of Cu and Zn in different farm soils after application of organic fertilizer of livestock and poultry manures].</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Soil incubation experiments were conducted with different sources of manures containing heavy metals to evaluate the bioavailability of heavy metals (Cu and Zn) and their form transformation in different soils. This study may assist in developing strategies to ascertain the loads of heavy metals which entered into soils together with manures, and promote policies to evaluate the ecological risk in agriculture soils. The results showed that, during the six months of soil incubation, the pH value of acidic soil increased and the pH value of calcareous soil reduced. After adding chicken manures, the contents of available Cu in both calcareous and acid soils were significant lower than those in the equivalent inorganic salt treatments, but there was no significant difference between the treatments in the contents of available Zn in both calcareous and acid soils. Furthermore, there were also no significant differences between pig matures and the equivalent inorganic salt treatments in the contents of available Cu and Zn in both calcareous and acid soils. The results of form tendency showed that the main forms of Cu and Zn in both calcareous and acid soils, which entered into soils together with manures, were exchangeable, carbonate, Fe-Mn oxides, and organic. And the proportions of different heavy metals species in calcareous and acid soils were different with different manures sources. After six months of incubation, the contents of exchangeable and Fe-Mn oxides Cu, Zn were lower than those in the equivalent inorganic salt treatments, the contents of organics Cu and Zn were higher than those in the equivalent inorganic salt treatments, and other Cu and Zn forms in soils showed no difference with inorganic salt treatments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2044782023</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.mrgentox.2012.10.002</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Khorsandi &amp; Rabbani-Chadegani (2013)</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Studies on the genotoxic effect of chromium oxide (Cr VI): Interaction with deoxyribonucleic acid in solution</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Chromium is a toxic and carcinogenic compound widely distributed in environment. In the present study we have investigated the interaction of chromium oxide with DNA employing UV/vis and fluorescence spectroscopy as well as Circular dichroism, thermal denaturation, retardation polyacrylamide gel electrophoresis and DNA-cellulose affinity techniques. The results showed that the binding of chromium oxide to DNA is concentration dependent; at low concentration shows a little effect but ant higher concentrations (&gt;100 μg/ml) reduced the absorbance at 260 and 210 nm producing hypochromicity. Also λmax of the metal at 210, 260 and 350 nm was reduced. DNA chromophores quenched with the chromium oxide and decreased fluorescence emission intensity. Upon binding of the metal to DNA the elliplicity at positive extreme was decreased (275 nm) and increased the ellipticity of the DNA at negative extreme 245 nm. Thermal denaturation profile of DNA shifted to higher degrees upon chromium oxide binding which accompanied by hypochromicity. Also, affinity of chromium oxide to double stranded DNA was higher than single stranded DNA. From the result it is concluded that chromium oxide interacts with DNA via two modes of interaction inducing structural changes and DNA compaction evidence providing chromium oxide genotoxicity.</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2617926439</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.11606/t.2.2017.tde-31012017-162325</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Paiva (2018)</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Populismo Penal no Brasil: do modernismo ao antimodernismo penal, de 1984 a 1990</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>The thesis presents a discussion about the transformation of criminal policy discourses on imprisonment in Brazil, from the 1984 criminal justice reform laws to the debates on the constitutional framework of the criminal justice system during the National Constituent Assembly, in 1988.Using concepts developed in the Anglo-Saxon criminology and the traditional justifications for criminal sanctions, the work analyses the legislative debates in order to verify if Brazilian overincarceration is part of the punitive turn wave which took place in the Western world in the late 20 th century, or if its peculiarities should rather be explained by endogenous causes.It goes to illustrate how, in few years, Brazilian punitive turn departed from a welfare penal agenda to one essentially based on punitive sanctions.The hypothesis investigated along the work is that this phenomenon has direct links to the democratization process which attributed to the criminal justice system the role of solving complex social problems.Both conservatives, who discovered the electoral potential of penal populism, and new social movements, who relied on the symbolic nature of criminal law to support and organize civil rights' demands, reinvigorated imprisonment.Paradoxically, prison became a synthesis of contradictory political forces and demands raised at the decline of military regime.The work concludes that contemporary practices of Brazilian criminal justice system are determined by the role assigned to imprisonment since democratization.Ever-higher prison sentences, limits on procedural rights for the accused and indifference towards inhumane prisons (now merely defined as a neutralization tool) reflects colonization of the criminal justice system by crime control apparatus, which is a constitutive feature of penal late-modernism in Brazil.</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2765575005</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/fes3.123</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Rose &amp; Bruce (2017)</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Finding the right connection: what makes a successful decision support system?</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Food and Energy SecurityVolume 7, Issue 1 e00123 EDITORIALOpen Access Finding the right connection: what makes a successful decision support system? David C. Rose, David C. Rose School of Environmental Sciences, University of East Anglia, Norwich Research Park, Norwich, UKSearch for more papers by this authorToby J. A. Bruce, Toby J. A. Bruce t.j.a.bruce@keele.ac.uk orcid.org/0000-0002-9912-0605 School of Life Sciences, Keele University, Keele, Staffordshire, UKSearch for more papers by this author David C. Rose, David C. Rose School of Environmental Sciences, University of East Anglia, Norwich Research Park, Norwich, UKSearch for more papers by this authorToby J. A. Bruce, Toby J. A. Bruce t.j.a.bruce@keele.ac.uk orcid.org/0000-0002-9912-0605 School of Life Sciences, Keele University, Keele, Staffordshire, UKSearch for more papers by this author First published: 25 October 2017 https://doi.org/10.1002/fes3.123Citations: 9AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Graphical Abstract Farmers require evidence-based guidance to make optimal decisions, enabling them to reduce costs by increasing the efficiency of input use. We discuss how decision support systems could be improved and made more useful for the farmer. There is growing recognition that the agricultural industry is undergoing a period of transformation to become a more information-intensive enterprise (Bruce, 2016; Wolfert, Ge, Verdouw, &amp; Bogaardt, 2017). There is much talk of how “big data” will help farmers and how an “Internet of things” will allow optimization of inputs such as water, fertilizer, and pesticide through the use of precision sensors (Wolfert et al., 2017). Furthermore, research is considering how decision support systems might be able to present information in a useable format for on-farm decision making (Lindblom, Lundström, Ljung, &amp; Jonsson, 2017; Rose et al., 2016). Such shifts toward an increasingly technical mode of agriculture comes at a time when farmers are facing a number of challenges, such as rising input costs, and stagnating commodity prices. Crop protection in particular is becoming increasingly challenging as pests, weeds, and diseases evolve resistance to pesticides, and legislative restrictions reduce the options available (Bruce, 2016). To address these threats, farmers require evidence-based guidance to make optimal decisions. As we enter an ever-more sophisticated information age, there is a need to bring science and farming communities together to turn information into relevant, actionable farming knowledge (Allen, Cruz, &amp; Warburton, 2017; Bruce, 2016; Oliver, Bartie, Louise Heathwaite, Pschetz, &amp; Quillam, 2017; Rose et al., 2017). As part of an advisory network, which includes trusted advisers and support networks, there is enormous potential for web-based knowledge exchange to facilitate two-way flow of information to and from farms, and to share information about “what works” (Bruce, 2016). To ensure that knowledge is useable and actionable, information should be collated into a userfriendly format, and decision support systems (DSS) are one suggested solution to deliver it to practitioners (Dicks, Walsh, &amp; Sutherland, 2014). These are usually software systems, which are increasingly app-based, and lead users through evidence-based decision stages toward a final decision (Dicks et al., 2014). One benefit of DSS could be to enable smarter use of inputs, thereby having positive implications for finances and the environment. Indeed, this could help to address one of the key global 21st century challenges, which is to maximize agricultural production while minimizing use of resources such as land, water, and energy to meet rising demand for produce (Bruce, 2016). However, if decision support tools are going to be used, and to make a difference in practice, we argue that better-designed DSS are required that are fit for purpose, and are relevant to local needs (Wood et al., 2014). To expedite improvements, a step-change is needed within the design of agricultural DSS. Design teams are based in a variety of places, including universities, commercial software companies, and elsewhere in the agricultural industry. Although there are examples of successful DSS, which are used and well liked in practice, many suffer from similar design flaws, which restrict uptake (Rose et al., 2016). For example, Rose et al. (2017) present the example of “Tool X” (anonymized), a fertilizer application system designed to address flaws in an existing system. These fl</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1737138289</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Dao (2013)</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Essays on economic growth and development</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>This thesis contributes four essays to the theoretical literature of Economic Growth and Development covering issues of environment, optimal taxation, demography, gender inequality, endogenous technological progress, and comparative development in variations of overlapping generations modelling. The first essay addresses tax and transfer policies to conduct a Diamond (1965) overlapping generations economy with environmental externalities to the social optimum through Pareto-improving path. The second essay studies the role of geographical and environmental conditions as well as a mechanism under which an society can be locked in a stagnation characterized by a small population, zero-education, and low level of technology. The third essay studies the comparative development across societies by considering the differences in geographical advantage for agricultural production between societies. This essay shows that the geographical advantage for agriculture helps a society to be more prosperous in the agricultural regime, but delays its timings of industrialization and demographic transition. The last essay develops a unified growth model and proposes a new mechanism linking technology, gender inequality, and fertility to explain some stylized facts during the development process. It sheds a light that the evolution from Malthusian stagnation, through the demographic transition, to modern sustained growth along with the improvement in gender equality in education (income), and an increasing female labor supply are inevitable outcomes of the development process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2592029734</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Mayes &amp; Freitas (2004)</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Review of e-learning theories, frameworks and models. JISC e-learning models study report</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>This review is designed to inform practitioners, policy developers and other stakeholders who want to reflect more deeply upon their practice or gain a greater understanding about how theory and practice can be mapped together. It is argued that reforming practice requires transformations of understanding of principles that are assumed – sometimes implicitly – in the practices. This review offers a framework for understanding where a particular implementation of e-learning is positioned in the complex current landscape of technology-enhanced teaching in UK HE/FE. It does so by attempting to offer a set of questions to be posed of an e-learning development – the answers to which reveal the underlying pedagogic and pragmatic assumptions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2263796496</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Murtough (1998)</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Linking technology and environmental education in the South African outcomes based curriculum, at grade 1</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
         <is>
           <t>This study is contextualised within educational transformation in South Africa, and a 'new paradigm' of Outcomes Based Education (OBE). A starting point is a consideration of 'values' issues in technology education around technicist and human centred definitions of capability. Constraints and opportunities attached to the capacity of South African teachers to work towards outcomes that contextualise technology socially and environmentally are reviewed.
 The history of environmental education in South Africa is summarised to show an evolving human centred perspective, that values learners' life world understandings as a starting point for educational action. It is argued that since technological action is environmental action, environmental pedagogy may be helpful in contextualising and developing human centred approaches.
@@ -6932,57 +6566,388 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2780526957</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1107/s2053273317083048</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Sarkar et al. (2017)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Structural evolution in PdBi&lt;sub&gt;2&lt;/sub&gt; with enhanced activity towards hydrogen evolution</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Development of non-Pt based electrocatalysts for hydrogen evolution reaction is a pre-requisite for generating hydrogen, a feasible and cost-effective source of hydrogen.Structural transitions and generating metal deficiency are the effective ways of manipulating the d-band centre of a metal surface which enhances the catalytic activity of metal nanoparticles towards hydrogen evolution reaction (HER).Charge-transfer from in-situ generated oxide species to the metal centre also leads to enhancement in catalytic activity towards HER.In the present work, we report a facile colloidal synthesis of PdBi2 nanoparticles using sodium borohydride as the reducing agent.Upon annealing the as synthesized nanoparticles, a phase transition from lower symmetry monoclinic phase to higher symmetry tetragonal phase has been observed and hence, a change in morphology from agglomerated to core-shell nanoparticles.Potential cycling of both monoclinic and tetragonal PdBi2 leads to the formation of Pd-rich PdBi2-x alloy with enhanced catalytic activity (onset potential : ~19.7 mV and 29.5 mV20 mAcm-2 current density at ~140mV and ~207 mV and for monoclinic and tetragonal phases respectively).Low coordination number of Pd active sites formed by dissolution of Bi alters the d-band centre and hence, the optimal energy required for hydrogen adsorption leading to enhanced activity.Though the obtained composition after potential cycling is almost similar for the both the phases it is seen that monoclinic phase shows higher activity as compared to the tetragonal phase.Cyclic voltammetry of the monoclinic PdBi2 shows the formation of Bi-O species after potential cycling.Electron transfer from the Bi-O species to the Pd centre enhances the charge-transfer kinetics of the HER and hence an increased catalytic activity of the monoclinic phase as compared to the tetragonal phase.Hence, in-situ generated oxide species facilitates charge-transfer in-turn enhancing catalytic activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2950476954</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.solidstatesciences.2007.07.026</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Lin et al. (2007)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>A simple method to synthesize polyhedral hexagonal boron nitride nanofibers</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Hexagonal boron nitride (h-BN) fibers with polyhedral morphology were synthesized with a simple-operational, large-scale and low-cost method. The sample obtained was studied by X-ray photoelectron spectrometer (XPS), electron energy lose spectroscopy (EELS), X-ray powder diffraction (XRD), Fourier transformation infrared spectroscopy (FT-IR), etc., which matched with h-BN. Environment scanning electron microscopy (ESEM) and transmission electron microscope (TEM) indicated that the BN fibers possess polyhedral morphology. The diameter of the BN fibers is mainly in the range of 100–500 nm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2004832594</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/j.2168-0159.2014.tb00108.x</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Madigan et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>30.2: &lt;i&gt;Invited Paper&lt;/i&gt;: Advancements in Inkjet Printing for OLED Mass Production</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Abstract Continuous improvements in inkjet printing of organic light emitting diode (OLED) displays have resulted in a number of recent demonstrations of uniform, mura‐free TV‐sized panels. These improvements combined with steady progress in solution OLED material performance, have allowed inkjet to become a realistic near term enabler of cost‐effective mass production of large size OLED TVs. However, for inkjet to make the transition from R&amp;amp;D to mass production, a number of equipment challenges must be overcome, including achieving low particle contamination, maintaining the optimal process environment while preserving serviceability, and providing consistent, uniform, mura‐free results with a wide process window. In this paper, the methodology (with respect to algorithms and process control) used in Kateeva's YIELDjet platform are described that lead to the uniform deposition of ink across an OLED display using inkjet printing, resulting in a highly uniform OLED emission with a wide process window.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4293660837</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/rs14174241</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Kanga et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Understanding the Linkage between Urban Growth and Land Surface Temperature—A Case Study of Bangalore City, India</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Planning for a sustainable future involves understanding the past and present problems associated with urban centers. Rapid urbanization has caused significant adverse impacts on the environment and natural resources. In cities, one such impact is the unsettling urban growth, resulting in the urban heat island (UHI) effect, which causes considerable positive feedback in the climate system. It can be assessed by investigating the relationships between urban Land Use/Land Cover (LULC) changes and changes in land surface temperature. This study links the urban transformations in Bangalore, India, between 2001 and 2021, with the city’s changing average land surface temperatures. LULC classification was performed on Landsat satellite images for the years 2001, 2011, and 2021, using the support vector machine (SVM) classification algorithm. LULC change analysis revealed an increase in the built-up area coinciding with a decreasing trend of water bodies, vegetation, and the area under the others (wasteland/open land/barren land) category. The results show that built-up increased from 462.49 km2 to 867.73 km2, vegetation decreased from 799.4 km2 to 485.72 km2, and waterbody declined from 34.28 km2 to 24.69 km2 in 20 years. The impact of urbanization was evident in Bangalore’s land temperature changes between 2001 and 2021, showing the average temperature increased by 0.34 °C per year between the highest UHI events, contrary to 0.14 °C per year in non-urbanized areas. It is hoped that the results of this study can help the urban planners of Bangalore city identify critical areas where improvement in urban dwelling could be planned sustainably according to the global smart cities concept, an offshoot concept of the Sustainable Development Goal (SDG)-11.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3126100174</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Майер (2017)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>ВОПРОСЫ ПОСТРОЕНИЯ ВЕБ-КЛИЕНТОВ ГЕОГРАФИЧЕСКИХ ИНФОРМАЦИОННЫХ СИСТЕМ НА БАЗЕ ОТКРЫТЫХ СТАНДАРТОВ И ТЕХНОЛОГИЙ</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>The article describes web-clients of geographic information systems and their user interface development issues based on modern open web technologies. The idea of general-purpose modular web-client of geographic information system with digital map as central component is proposed for solving problems in various subject domains. Relevant issues and technological possibilities, the advantages and disadvantages of methods and technologies for separate components development of such a system are described. The possibilities of using vector and image graphics technologies in web clients, based on modern technologies of SVG and HTML 5 Canvas, are considered. The current state and capabilities of open source client libraries for web mapping, as well as client libraries suitable for developing web client modules are described. The existing open standards for the development of geographic information systems for the web environment are pointed out and the importance of the application of open standards is underlined. The main advantage of this solution is the potential for the transition from traditional desktop clients of general-purpose geographic information systems to web applications and their preferences, accessible to a wide range of specialists and enterprises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2139478181</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1130/0016-7606(1965)76[133:soteth]2.0.co;2</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Birch (1965)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Speculations on the Earth's Thermal History</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Research Article| February 01, 1965 Speculations on the Earth's Thermal History FRANCIS BIRCH FRANCIS BIRCH Hoffman Laboratory, Harvard University, Cambridge, Mass. Search for other works by this author on: GSW Google Scholar Author and Article Information FRANCIS BIRCH Hoffman Laboratory, Harvard University, Cambridge, Mass. Publisher: Geological Society of America Received: 23 Dec 1964 First Online: 02 Mar 2017 Online ISSN: 1943-2674 Print ISSN: 0016-7606 Copyright © 1965, The Geological Society of America, Inc. Copyright is not claimed on any material prepared by U.S. government employees within the scope of their employment. GSA Bulletin (1965) 76 (2): 133–154. https://doi.org/10.1130/0016-7606(1965)76[133:SOTETH]2.0.CO;2 Article history Received: 23 Dec 1964 First Online: 02 Mar 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn MailTo Tools Icon Tools Get Permissions Search Site Citation FRANCIS BIRCH; Speculations on the Earth's Thermal History. GSA Bulletin 1965;; 76 (2): 133–154. doi: https://doi.org/10.1130/0016-7606(1965)76[133:SOTETH]2.0.CO;2 Download citation file: Ris (Zotero) Refmanager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search Dropdown Menu toolbar search search input Search input auto suggest filter your search All ContentBy SocietyGSA Bulletin Search Advanced Search Abstract The gross structure of the Earth's interior—mantle and core with their subdivisions—affords evidence of the thermal evolution. The principal event was the formation of a liquid iron core from an initially cool unsorted conglomerate after about 500 m.y. of heating by radioactivity and tidal friction. Core formation was accompanied by conversion of gravitational energy to heat, the deep interior reaching temperatures of 4000°–5000°; this process was completed about 4500 m.y. ago. Fractional melting of the mantle concentrated radioactive and “lithophile” elements in the upper mantle and transition zone, leaving the lower mantle devoid of radioactivity. Formation of stable continental crust became possible after this upward concentration and decay of radioactivity, beginning about 3500 m.y. ago. Further concentration of the radioactive elements in the continental crust has left the subcontinental mantle impoverished by comparison with the suboceanic mantle. Present temperatures are consequently higher in the suboceanic mantle than at the same depths beneath continents, approaching or reaching melting temperatures beneath the oceans while cooling continues beneath continents. The required concentrations of radioactive elements appear to be in reasonable agreement with existing measurements if the primitive undifferentiated Earth resembled the meteorite Orgueil in its radioactive content. This content is PDF only. Please click on the PDF icon to access. First Page Preview Close Modal You do not have access to this content, please speak to your institutional administrator if you feel you should have access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4313165221</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-20309-1_35</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Wei et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Tackling Non-stationarity in Decentralized Multi-Agent Reinforcement Learning with Prudent Q-Learning</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Multi-Agent Reinforcement Learning (MARL) is challenging due to the non-stationary issue of an agent’s learning environment caused by multiple co-evolving agents, i.e., the uncertainty rises with multiple agents learning and evolving simultaneously. Though centralized learning can solve the problem to some degree, it is hard to expand into numerous agents or real-world applications. We focus on the native property of the non-stationary environment and use a independent method to alleviate its harmful influence. Here are the two main contributions of this article: 1) We formalize the non-stationary environment by supposing it follows a pessimistic transition, and we explain the existence of a lower bound of accumulated reward expectation that the agent can learn. 2) We devise a scheme called Prudent Q-Learning (PQL) based on independent learning for controlling multi-agent systems in non-stationary environments. We present both tabular and Deep Q-Learning based implementations of the proposed Prudent Q-Learning scheme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2043036309</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/oms.1210121003</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Derocque et al. (1977)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Etude de la Fragmentation en Spectrographie de Masse de Spiropyrannes Benzodithioliques. Influence de la Position et de la Nature des Substituants</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Abstract Nous reportons les spectres de 12 spiropyrannes benzodithioliques. Leurs cartes de fragmentation on été déterminées par étude des transitions métastables et par mesure à haute résolution. La fragmentation on de ces composés dépend de la nature et de la position des substituents et nos résultats sont comparés à ceux observés par action de la lumière et de la chaleur sur ces composés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3155157027</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15239/j.brcacadjb.2021.11.01.ja03</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Friedman et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>The Job Stress Intervention Matrix: A New Conceptual Framework for Higher Education in the Post-COVID World</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Due to the current COVID-19 pandemic, faculty stress in higher education is high as a result of the transition from face-to-face to alternative teaching modalities.Excessive stress significantly decreases employee productivity and costs organizations an annual 58 The BRC Academy Journal of Business Vol.11, No. 1 estimated $300 billion in medical bills and lost productivity.In higher education, research has focused more on student rather than faculty stress, and a comprehensive stress management model for faculty is conspicuously missing from the literature.We propose a new conceptual framework that incorporates two otherwise disparate concepts: Social Ecological Model (SEM) and Feldman's employee socialization stages.At each socialization stage and SEM level, we advocate that higher educational institutions reduce faculty powerlessness that leads to dysfunctional stress.We offer implications for faculty health, productivity and efficacy, as well as higher education organizational effectiveness.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2094660593</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1175/jcli-d-13-00543.1</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Beer et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Harmonized European Long-Term Climate Data for Assessing the Effect of Changing Temporal Variability on Land–Atmosphere CO&lt;sub&gt;2&lt;/sub&gt; Fluxes</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Temporal variability of meteorological variables and extreme weather events is projected to increase in many regions of the world during the next century. Artificial experiments using process-oriented terrestrial ecosystem models make it possible to isolate effects of temporal variability from effects of gradual climate change on terrestrial ecosystem functions and the system state. Such factorial experiments require two long-term climate datasets: 1) a control dataset that represents observed and projected climate and 2) a dataset with the same long-term mean as the control dataset but with altered short-term variability. Using a bias correction method, various climate datasets spanning different periods are harmonized and then combined with the control dataset with consistent time series for Europe during 1901–2100. Then, parameters of a distribution transformation function are estimated for individual meteorological variables to derive the second climate dataset, which has similar long-term means but reduced temporal variability. The transformation conserves the number of rainy days within a month and the shape of the daily meteorological data distributions, which is important to ensure that, for example, drought duration does not modify the suitability of localized vegetation type to precipitation regimes. The median absolute difference between daily data of both datasets is 5% to 20%. On average, decadal extreme values are reduced by 2% to 35%. Driving a terrestrial ecosystem model with both climate datasets shows a general higher gross primary production under reduced temporal climate variability. This effect of climate variability on productivity demonstrates the potential of the climate datasets for studying various effects of temporal variability on ecosystem state and functions over large domains.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2143992276</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circresaha.111.253724</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Priori (2011)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Induced Pluripotent Stem Cell-Derived Cardiomyocytes and Long QT Syndrome: Is Personalized Medicine Ready for Prime Time?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>HomeCirculation ResearchVol. 109, No. 8Induced Pluripotent Stem Cell-Derived Cardiomyocytes and Long QT Syndrome: Is Personalized Medicine Ready for Prime Time? Free AccessEditorialPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessEditorialPDF/EPUBInduced Pluripotent Stem Cell-Derived Cardiomyocytes and Long QT Syndrome: Is Personalized Medicine Ready for Prime Time? Silvia G. Priori Silvia G. PrioriSilvia G. Priori From the Cardiology Division and Molecular Cardiology, IRCCS, Fondazione Salvatore Maugeri, University of Pavia, Pavia, Italy and Cardiovascular Genetic Program, Leon Charney Division of Cardiology, Langone Medical Center, New York University, New York, NY. Search for more papers by this author Originally published30 Sep 2011https://doi.org/10.1161/CIRCRESAHA.111.253724Circulation Research. 2011;109:822–824See related article, pages 841–847The study by Malan et al1 in this issue of the Circulation Research presents elegant data about induced pluripotent stem cell (iPSC)-derived myocytes2 from a mouse model of long QT syndrome (LQTS) type 3.3 The study is an important contribution that adds to a highly innovative field that is trying to define the role of iPSC technology in the understanding of inherited arrhythmias. In this accompanying editorial, I provide an overview of the previous studies in the field, comment on the contribution of Malan et al,1 and conclude by discussing some of the challenges in the field.The Revolution Provided by iPSC TechnologyThe technique to differentiate cardiac myocytes from pluripotent stem cells is quite recent and it was introduced by the seminal article published in 2006 by Takahashi and Yamanaka,2 who used a combination of four retrovirally transduced transcription factors (Oct3/4, Sox2, Klf4, and c-Myc) to generate iPSCs from mouse somatic cells. The importance of this technology was immediately recognized and it was rapidly applied to human cells.4In the past few years, several investigators have refined protocols to optimize differentiation of iPSCs into cardiac myocytes and to characterize their properties. In analogy with myocardial cells derived from human embryonic cells,5 iPSC-derived myocytes differentiate into three cell types: nodal, atrial, and ventricular myocytes and present physiological adaptation of action potential duration to changes in heart rate and normal response to beta adrenergic stimulation.6 Furthermore, the presence of key ion channels7 and regulators of intracellular calcium physiology,8 as well as the preservation of the sarcomeric structure,9 have been confirmed in iPSC-derived myocytes. This comprehensive set of data provided a solid background to test the hypothesis that the differentiation of iPSC-derived cardiac cells from patients with inherited cardiac diseases would allow the characterization of the behavior of mutant myocytes and even test their response to therapy.iPSC-Derived Myocytes for Personalized MedicineThe proof of the concept that iPSC-derived myocytes from patients with inherited cardiac diseases presenting the phenotypic characteristics of the disease was published in 2010 by Carvajal-Vergara.10 The authors differentiated cardiomyocytes from patients affected by Leopard syndrome and carriers of the T468 mol/L mutation in the PTPN11 (protein tyrosine phosphate, nonreceptor type 11) gene. Leopard syndrome patients presenting with cardiac hypertrophy and, in line with expectations, iPSC-derived cardiomyocytes derived from their fibroblasts showed increased surface area and a higher degree of sarcomeric organization as compared to myocytes derived from iPSCs of nonaffected individuals. Soon after the publication of the report by Cavajal-Vergara, the attention of investigators turned to the study of iPSC-derived myocytes from patients affected by LQTS.11–13 Such a strong interest toward LQTS is justified by the major advancements in the understanding of the genetic basis of LQTS14 that occurred in the past 15 years making genetic testing relevant for clinical management of LQTS patients.15,16Despite that genotyping is actively pursued in LQTS patients, several challenges are still present in the interpretation of results of genetic testing, especially when novel mutations are identified and there is not adequate information to define their pathogenic role. In vitro characterization of mutations identified in LQTS genes that encode cardiac ion channels is regarded as a simple and reliable approach to define whether new mutations alter key properties of the ionic currents or impair protein assembly or localization. In addition, computer simulation studies using “in silico” models of action potential are used to investigate whether a mutation modifies the characteristics of the cardiac action potential.17 Despite that this approach is valuable and is currently accepted to define whether a genomi</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2050790752</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jqs.3390070303</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Hooghiemstra et al. (1992)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Upper Quaternary vegetation dynamics and palaeoclimatology of the La Chonta bog area (Cordillera de Talamanca, Costa Rica)</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Abstract Two pollen records from La Chonta bog (2310 m altitude) and one pollen record of a soil profile (2430 m altitude) at a short distance from the bog permit the reconstruction of the vegetational history and climatic sequence of probably the last ca. 80 000 yr of the Cordillera de Talamanca, Costa Rica. The three pollen records can be correlated on the basis of three radiocarbon‐dated horizons (&amp;gt; 39 900 yr BP, 34 850 yr BP and 1390 yr BP) and palynostratigraphy. Pollen concentration data provide indirect time control between radiocarbon‐dated horizons of the La Chonta 2 core. During the Early Glacial successive fluctuations of the upper forest line occurred between ca. 2300 m and 2800 m altitude and the bog is alternately situated close to the subalpine rainforest belt and in the uppermontane rainforest belt. During the Pleniglacial (ca. 50 000‐13 000 yr BP) the forest line fell to ca. 2000 m altitude and paramo vegetation surrounded the La Chonta site. During the Late Glacial the forest line shifted rapidly in ca. 270 yr to 2700–2800 m altitude and the lake became surrounded by Quercus ‐dominated upper montane rainforest during a period of ca. 1655 yr. A distinct climate cooling (by 2–2.5°C) followed during ca. 580 yr and the upper forest line dropped to ca. 2400 m altitude. This temperature rebound is probably equivalent to the Younger Dryas event. In the depression extensive Alnus carr and swamp vegetation developed. Finally, during the Holocene, the forest line shifted to 3300–3500 m elevation and the lower montane rainforest reached close to ca. 2300 m altitude. In the later part of the Holocene subparamo scrub with Hypericum, Puya , Compositae, Escallonia and Ericaceae largely replaced Alnus carr and the regional and local vegetation closely resembles the presentday composition. During the Last Glacial to Holocene transition a shift of the upper forest line of ca. 1400 m is inferred, corresponding to a glacial temperature depression at 2300 m altitude of ca. 8°C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W338658810</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Liganor et al. (2015)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>The Effects of Osteopathic Manipulative Treatment on GI Motility</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>INTRODUCTION RESULTS 1. Giles PD, KL Hensel, CF Pacchia, ML Smith. Suboccipital decompresssion enhances heart rate variability indices of cardiac control in healthy humans. J Comp Altern Med 19: 92-96, 2013. 2. Koch KL, physiological basis and clinical application in diabetic gastropathy Diabetes Technol Ther 3: 51-62, 2001. 3. Stone, Caroline. Visceral and Obstetric Osteopathy. Edinburgh: Churchill Livingston/Elsevier, 2007. 300. 4. Ward, Robert. of the Acutely Ill Hospitalized Patient.” Foundations for Osteopathic Medicine. 2nd ed. Philadelphia: Lippincott Williams &amp; Wilkins, 2003. 1115-1142. 5. Yin, Jieyun, and Jiande D Z Chen. Electrogastrography: Methodology, Validation and Applications. Journal of Neurogastroenterology and Motility 19.1 (2013): 5–17. PMC. Web. 23 Dec. 2014. CONCLUSIONS REFERENCE Figure 5: Rotarod: The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight for a quick jump. Joaquin Phoenix was gazed by MTV for luck. A wizard’s job is to vex chumps quickly in fog. Watch Jeopardy! , Alex Trebek's fun TV quiz game. Woven silk pyjamas exchanged for blue quartz. Brawny gods just flocked up to quiz and vex him. Adjusting quiver and bow, Zompyc[1] killed the fox. My faxed joke won a pager in the cable TV quiz show. Since its inception, osteopathic manipulative treatment (OMT) has been used for a variety of clinical conditions. Studies have shown that OMT can affect the autonomic nervous system as measured by heart rate variability, thereby demonstrating somatovisceral effects, and are theorized to affect gastrointestinal (GI) function by altering autonomic balance and GI motility. We hypothesize that OMT will demonstrably affect GI activity as measured by electrogastrography (EGG), a non-invasive measure of GI motility. This is an IRB-approved randomized controlled trial. EGG was used to measure gastric motility before, during and after either an OMT protocol or a time control (TC). The OMT protocol included specific techniques. 35 subjects were enrolled. Ten subjects’ data were eliminated due to motion artifact; ten were eliminated due to equipment malfunction. The OMT group (n=6) exhibited a 22 ± 4 % change in EGG % 2-4 cycles per minute (CPM), compared with 10 ± 0.40 % change in the TC group (n=9) (p=0.014). The dominant power and the dominant frequency did not change between groups. OMT appears to either (a) increase the power of the EGG spectra within 24 CPM or (b) shift power away from 2-4 CPM to more tachygastric frequencies. This indicates an increase in gastric electrical activity in response to OMT, but more research is needed to determine the significance and relevance of these findings. A.T. Still, MD, DO, the founder of osteopathic medicine, used OMT on all patients that he saw, regardless of their complaint. Recent studies have shown that OMT can affect the autonomic nervous system (ANS) as measured by heart rate (HR) variability 1. Such findings are consistent with the principles of somatovisceral effects of OMT, which are also theorized to affect gastrointestinal (GI) function. The peristaltic activity of the gastrointestinal system is primarily governed through the autonomic nervous system. A complete peristaltic contraction through the GI tract is known as 1 cycle. Normal human gut contractions have been quantified at approximately 2.53.75 cycles per minute (CPM) and this can be measured by electrogastrography (EGG) 2. Specifically, EGG is a non-invasive technique for recording gastric myoelectrical activity, by measuring electrical signals generated from nerve plexi embedded in the walls of the GI tract 5. The EGG measures the surface electrical charge created by the electromechanical effects of peristalsis and thus the EGG signal can assess changes in autonomic control of GI motility. This study was designed to use EGG to evaluate the effects of OMT on GI motility before, during and after an OMT protocol versus a time control period. METHODS Table 1. Summary of Osteopathic Manipulative Treatment Techniques Applied with Subject in Supine Position3,4 Technique Description Application Occipito-atlantal Decompression • Contact is near the occipital condyles with sustained anterior, lateral, and cephalad tension for 2 minutes. • The vagus nerve is related to the occipital-atlantal and suboccipital tissues. Rib Raising • Contact is on the posterior angles of the ribs of the upper thoracic region. Anterior inhibitory pressure is applied to ribs for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds. Contact is repositioned to the lower thoracic region. Anterior inhibitory pressure with rib raising is applied to lower ribs is applied for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds to lower region. • The sympathetic cell bodies are in the interm</t>
+        </is>
+      </c>
+    </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3167497870</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jelechem.2021.115442</t>
+          <t>https://openalex.org/W1501166952</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Montero et al. (2021)</t>
+          <t>Mitrović (2014)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Redox-active coordination polymers as bifunctional electrolytes in slurry-based aqueous batteries at neutral pH</t>
+          <t>The Contingency of the “Enhancement” Arguments: The Possible Transition from Ethical Debate to Social and Political Programs</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Highly water-dispersible, redox-active 1D coordination polymers (CPs) have been synthesized using low-cost precursors. These CPs, containing chloranilic acid as organic ligand and a transition element, such as Fe and Mn as a metal center, form long-term stable slurries containing up to 100 g/L solid particles in aqueous media (0.5 M NaCl, 1 mg carbon nanotubes). Voltammetry studies showed that the iron-based particulate slurries exhibited three different redox stages with no metal plating. However, the suspensions with manganese-based coordination polymers experienced a metal plating process in the same potential window range as for the iron-based CPs. Moreover, the particulate suspension of iron-CPs shown longer-term stability than their isostructural analogs based on manganese. The 1D Fe-CPs were used as catholyte and anolyte in a symmetrical cell with a low-cost size exclusion cellulose membrane acting as a separator. The cell experienced a reversible capacity value of 45 mAh/g (225 mAh/L) at a current density value of 20 mA/g for 50 cycles (~12 days) at neutral pH. This study opens the possibility of using inexpensive coordination polymers as single bifunctional electrolyte material in aqueous batteries and other sustainable energy storage-related systems.</t>
+          <t>Whatever we speak about enhancement as the, just, one array of the wide range of the bioethical fields, or as the kind of ideological and theoretical field, it is necessary to emphasize relevant ideological and theoretical distinctions between different approaches. Trying to give some fundamental shape to debate among them, as well within themselves, I specified three possible streams with more or less arbitrary boundaries. First one is transhumanistic stream , whose representatives openly promote the practice of genetic, prosthetic and cognitive enhancement of human kind - transition from human to a post human society; bioconservative, whose representatives perceive a threat in the violation of human dignity, meddling in “God’s business” ( playing God ), and in changes to the nature of human beings; representatives of the “middle standpoint” consider that danger lies within the dialectic relation of “capitalism and medicine.” I present the tree ideological standpoints trying to building consistency through different ethical arguments. Discussing the relevant theoretical/ideological distinction between standpoints and their claims, I will argue that ideological distinction among standpoints is less relevant than contingency within their arguments. Such mutual contingence creates some similarity regarding epistemological and social issues.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144469520</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/smll.201202322</t>
+          <t>https://openalex.org/W3143651027</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Yu &amp; Stellacci (2012)</t>
+          <t>Hakkarainen (2014)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Response to “Stripy Nanoparticles Revisited”</t>
+          <t>Green Plasticizers from Liquefied Wood</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>SmallVolume 8, Issue 24 p. 3720-3726 CorrespondenceOpen Access Response to "Stripy Nanoparticles Revisited" Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author Miao Yu, Miao Yu Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandSearch for more papers by this authorFrancesco Stellacci, Corresponding Author Francesco Stellacci [email protected] Institute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, SwitzerlandInstitute of Materials, École Polytechnique Fédérale de Lausanne, EPFL-STI-IMX-SuNMIL Station 12, Lausanne, CH-1015, Switzerland.Search for more papers by this author First published: 23 November 2012 https://doi.org/10.1002/smll.201202322Citations: 30 The copyright line for this article was changed on 15 Aug 2017 after original online publication. AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Graphical Abstract In a paper entitled "Stripy Nanoparticles Revisited", Lévy and co-workers contest the interpretation of scanning tunneling microscopy images of monolayer protected gold nanoparticles that our group has presented. We show that the two arguments they use are based on flawed assumptions and contradict each other. We also show new evidence for the existence of stripe-like domains on mixed monolayer-coated gold nanoparticles. This Correspondence is written in response to the paper entitled "Stripy Nanoparticles Revisited", published in this same issue.1 In 2004 we found, using scanning tunneling microscopy (STM), that self-assembled monolayers composed of a binary mixture of immiscible ligand molecules spontaneously develop stripe-like domains when assembled onto nanoparticles.2 The STM evidence produced was backed up by: Trasmission electron microscopy (TEM) and X-ray diffraction (XRD) data2 Fourier transform infrared (FTIR) spectroscopy studies3 Atomic force microscopy (AFM) images in water4 computational studies5, 6 In the latter case, a remarkable agreement both in terms of domain spacing5 and in terms of the existence of a size regime where these stripes occur6 was found. It was also established that these particles have a non-monotonic dependence of their saturation concentration (solubility)7 and their interfacial energy4 on their ligand shell composition, in good agreement with molecular dynamics simulations. They exhibit protein-resistance properties,2, 8 can penetrate cell membranes,8 and posses two polar point defects that can be selectively functionalized with a place-exchange reaction9 that has been modeled so as to calculate the free energy of the reaction.10 In ref. 1, Lévy and co-workers present a series of arguments questioning the interpretation of our data as well as some of our results. It appears that some parts of our work might be misinterpreted and hence we are grateful for this opportunity to clarify these aspects. Our experiments are no doubt challenging. Through the years, we have dedicated a good amount of time to improving our experimental approaches and to derive a more reliable picture of our system, both through experiments and through simulations. We appreciate every effort to stimulate a constructive scientific debate and hope that this exchange will contribute to a better understanding of self-assembled monolayers (SAMs) on nanoparticles as well as their investigation with scanning probe microscopy. The central argument presented in ref. 1 has to do with the interpretation of our STM images of mixed ligand nanoparticles, which Lévy and co-workers claim to be incorrect. We will present here a rebuttal to all of the points raised in ref. 1. In most cases we will start by correcting the selected presentation of our results given in ref. 1, to properly represent our body of work. We will also present new data to testify to our continuing research toward a deeper and more accurate interpretation of our STM data. In ref. 1, there exists the suggestion that our work on cell memb</t>
+          <t>Green plasticizers were designed from liquefied wood flour, a non-edible biobased waste product. Wood flour was liquefied to low molecular weight polyols by acid catalyzed reaction. The resulting polyol mixture, including the remaining liquefaction solvents glycerol and diethylene glycol, was further utilized for the synthesis of low molecular weight ester plasticizers. Monomeric (MLWP) and oligomeric (OLWP) plasticizers were prepared by esterification of the polyols by hexanoic acid or a mixture of hexanoic and adipic acid, respectively. Liquefied wood polyol mixture and the synthesized plasticizers were characterized by size exclusion chromatography, electro- spray ionization-mass spectrometry and fourier transform infrared spectroscopy. MLWP, OLWP and traditional dioctyl phthalate (DIOP) plasticizer were blended with poly(vinyl chloride) (PVC) and tensile testing was per- formed to evaluate the plasticizing efficiency of the new plasticizers. In addition PVC blends containing model disaccharide ester, sucrose octaacetate (SOA), were pre- pared and tested. Highest strain at break was obtained after addition of SOA ester, which clearly shows the potential of sugar esters as PVC plasticizers. Addition of MLWP also resulted in slightly higher strain at break as compared to films plasticized with same amount of phthalate plasticizer, DIOP. Differential scanning calorimetry showed one con- centration dependent glass transition temperature for all the studied blends indicating good miscibility. Our novel plasticizers are attractive environmentally friendly alternatives for phthalate plasticizers and could be prepared from biomass waste from agriculture and forest industry.</t>
         </is>
       </c>
     </row>

--- a/ch1_evidence_causes/data/samples_4.2_narrowed_tca.xlsx
+++ b/ch1_evidence_causes/data/samples_4.2_narrowed_tca.xlsx
@@ -387,959 +387,964 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130079398</t>
+          <t>https://openalex.org/W2963224962</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2737/pnw-gtr-422</t>
+          <t>https://doi.org/10.1038/s41535-018-0096-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Wallin et al. (1998)</t>
+          <t>Warmuth et al. (2018)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A landscape plan based on historical fire regimes for a managed forest ecosystem: the Augusta Creek study.</t>
+          <t>Domain imaging across the magneto-structural phase transitions in Fe1+yTe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The Augusta Creek project was initiated to establish and integrate landscape and watershed objectives into a landscape plan to guide management activities within a 7600-hectare (19,000-acre) planning area in western Oregon. Primary objectives included the maintenance of native species, ecosystem processes and structures, and long-term ecosystem productivity in a federally managed landscape where substantial acreage was allocated to timber harvest. Landscape and watershed management objectives and prescriptions were based on an interpreted range of natural variability of landscape conditions and disturbance processes. A dendrochronological study characterized fire patterns and regimes over the last 500 years. Changes in landscape conditions throughout the larger surrounding watershed due to human uses (e.g., roads in riparian areas, widespread clearcutting, a major dam, and portions of a designated wilderness and an unroaded area) also were factored into the landscape plan. Landscape prescriptions include an aquatic reserve system comprised of small watersheds distributed throughout the planning area and major valley-bottom corridor reserves that connect the small-watershed reserves. Where timber harvest was allocated, prescriptions derived from interpretations of fire regimes differ in rotation ages (100 to 300 years), green-tree retention levels (15- to 50- percent canopy cover), and spatial patterns of residual trees. General prescriptions for fire management also were based on interpretations of past fire regimes. All these prescriptions were linked to specific blocks of land to provide an efficient transition to site-level planning and project implementation. Landscape and watershed conditions were projected 200 years into the future and compared with conditions that would result from application of standards, guidelines, and assumptions in the Northwest Forest Plan prior to adjustments resulting from watershed analyses. The contrasting prescriptions for aquatic reserves and timber harvest (rotation lengths, green-tree retention levels, and spatial patterns) in these two approaches resulted in strikingly different potential future landscapes. These differences have significant implications for some ecosystem processes and habitats. We view this management approach as a potential postwatershed analysis implementation of the Northwest Forest Plan and offer it as an example of how ecosystem management could be applied in a particular landscape by using the results of watershed analysis.</t>
+          <t>Abstract The investigation of the magnetic phase transitions in the parent compounds of Fe-based superconductors is regarded essential for an understanding of the pairing mechanism in the related superconducting compounds. Even though the chemical and electronic properties of these materials are often strongly inhomogeneous on a nanometer length scale, studies of the magnetic phase transitions using spatially resolved experimental techniques are still scarce. Here, we present a real space spin-resolved scanning tunneling microscopy investigation of the surface of Fe 1+ y Te single crystals with different excess Fe content, y , which are continuously driven through the magnetic phase transition. For Fe 1.08 Te, the transition into the low-temperature monoclinic phase is accompanied by the appearance of a chevron-patterned structural ordering due to the four 90° rotational domains of the monoclinic lattice. Each of the structural domains contains locally commensurate nanoscale diagonal double stripe antiferromagnetic spin order domains with π -phase slips accross domain boundaries. In the low-temperature phase of Fe 1.12 Te, on the other hand, the chevron pattern gets rather narrow and less well-defined, and an additional 90° rotated component of the spin-order with local plaquette order emerges. The simultaneous imaging of spin and structural order we show here gives valuable insights into the nature of the magneto-structural domains of Fe 1+ y Te near the tricritical point, which presumably add to the understanding of the mechanism of superconductivity in the related Fe 1+ y Te x Se 1− x material.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3212355133</t>
+          <t>https://openalex.org/W2486909579</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10383441.2021.1996890</t>
+          <t>https://doi.org/10.1108/s1479-3679(2010)0000014015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mitchell (2021)</t>
+          <t>Sanyal (2010)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Munday v Gill&lt;/i&gt; revisited: rethinking the summary jurisdiction</t>
+          <t>Socialist, post-socialist, and post-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Even though approximately 97% of criminal offences are finalised in the summary jurisdiction, the High Court has only considered the nature of summary jurisdiction once: in 1930 in Munday v Gill. In that case, Isaacs CJ and Dixon J provided different characterisations of the summary jurisdiction. According to Dixon J, in the majority, in the summary jurisdiction efficiency may be prioritised over strict adherence to common law protections of the accused because it deals with minor criminal matters that are between subject and subject. In dissent, Isaacs CJ characterised summary criminal matters as between the Crown and subject, arguing that common law protections are as important in the summary jurisdiction as in the higher courts. Dixon J’s judgment is still cited as an accurate characterisation of the summary jurisdiction today, and yet the summary jurisdiction has transformed in the nine decades that have elapsed since the case was decided. This is reason to think Munday v Gill should be revisited. This article offers a critical analysis of the case by placing it in its social and historical context, showing that Isaacs CJ’s characterisation is more relevant today than that of Dixon J. It makes the case that because of this transformation, it is necessary to re-think the nature of a fair trial in the summary jurisdiction.</t>
+          <t>This chapter explores the case of post-socialist education transformations in Nicaragua. While less commonly known to have been a full participant in the Cold War, Nicaragua's conflict with the United States during the 1980s was underlain by a socialist/capitalist struggle. Education reforms in Nicaragua thus present an important example of a complex interplay between socialism and post-socialism in the context of Latin America. The case of Nicaragua is also significant because of its recent reelection of the same government that was in power during the socialist period, thus reflecting a reemerging mix of capitalist and socialist elements in education. The analysis focuses on important political periods in the last 30 years and responds to the following questions: What are the post-socialist education transformations that have occurred in Nicaragua? And, how have the directions of the reforms been shaped by international, national, and local political and economic factors? Drawing on qualitative policy analysis and interviews with various groups of education stakeholders, the findings highlight three specific dynamics of reforms. These dynamics highlight the complex nature of the reform processes, including the Nicaraguan government's relationship with and the role of international donor organizations, differing notions of “local participation” that signify the shifting role of civil society, and continuities and discontinuities in policy processes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186302548</t>
+          <t>https://openalex.org/W1980940660</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/716515</t>
+          <t>https://doi.org/10.3390/nano4010069</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dilek (2021)</t>
+          <t>Stecher et al. (2014)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Some New Concepts in the Plate Tectonics Paradigm Fifty Years after Its Inception</t>
+          <t>One-Pot Solvothermal Synthesis of Highly Emissive, Sodium-Codoped, LaF3 and BaLaF5 Core-Shell Upconverting Nanocrystals</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>We have gained significant insights into the dynamic evolution of the earth, causes of geohazards, processes of continental growth, feedback mechanisms between tectonics, topography and climate, and rates of deformation and uplift in collision zones since the initial formulation of the plate tectonics theory 50 years ago. The articles in this special issue present some new concepts, data, and interpretations on various aspects of the plate tectonics paradigm. The onset of plate tectonics may have occurred in a major transition period (2.5–2.0 Ga) in Earth history during which short-lived, geographically limited subduction events resulted in a regime switch from stagnant-lid to plate tectonics. The 1.90–1.87 Ga granulites in the continental lower crust of the Siberian craton contain significant amount of water in the form of structural OH in nominally anhydrous minerals, indicating that the water content of the Precambrian granulites might have been considerably higher than that of the Phanerozoic granulites and the lower crust. The major mountain-building episode (vertical thickening, topographic buildup, and normal faulting) in the evolution of the continental collision zone of the Alps was driven by buoyant, solid-state emplacement of subducted oceanic and crustal material in a subduction return flow from depths more than 100 km. Chaotic rock deposits and mass transport deposits in the sedimentary covers of some ophiolites may represent synextensional and syncontractional submarine slides during the opening and closure stages of ancient ocean basins, respectively. The Lower Jurassic (201–190 Ma) mafic rock assemblages in the Rif orogenic belt of NW Morocco are part of the Central Atlantic Magmatic Province (CAMP), a major Phanerozoic large igneous province (LIP). The mantle melt source of the CAMP was a subduction-metasomatized mantle lithosphere of supercontinent Pangea and was not associated with mantle-plume activities, as was the case for the development of many other LIPs in Earth history. The Pleistocene seismicity and earthquake event (i.e., August 2011 Mineral earthquake in Virginia, Mw=5.7) in the eastern North American intraplate setting resulted from the release of accumulated strain associated with the state of regional compression. Based on the combined river terrace paleogeodetic data and modeled coseismic deformation of the 2011 Mineral earthquake, the estimated recurrence interval for similar-sized earthquakes in the region is 5.5 ky, significant information regarding the potential seismic hazard for an intraplate tectonic setting, where there is no historical record of seismic activity.</t>
+          <t>We report a one-pot solvothermal synthesis of sub-10 nm, dominant ultraviolet (UV) emissive upconverting nanocrystals (UCNCs), based on sodium-codoped LaF₃ and BaLaF₅ (0.5%Tm; 20%Yb) and their corresponding core@shell derivatives. Elemental analysis shows a Na-codopant in these crystal systems of ~20% the total cation content; X-ray diffraction (XRD) data indicate a shift in unit cell dimensions consistent with these small codopant ions. Similarly, X-ray photoelectron spectroscopic (XPS) analysis reveals primarily substitution of Na⁺ for La3+ ions (97% of total Na⁺ codopant) in the crystal system, and interstitial Na⁺ (3% of detected Na⁺) and La3+ (3% of detected La3+) present in (Na)LaF₃ and only direct substitution of Na⁺ for Ba2+ in Ba(Na)LaF₅. In each case, XPS analysis of La 3d lines show a decrease in binding energy (0.08-0.25 eV) indicating a reduction in local crystal field symmetry surrounding rare earth (R.E.3+) ions, permitting otherwise disallowed R.E. UC transitions to be enhanced. Studies that examine the impact of laser excitation power upon luminescence intensity were conducted over 2.5-100 W/cm² range to elucidate UC mechanisms that populate dominant UV emitting states. Low power saturation of Tm3+ ³F₃ and ³H₄ states was observed and noted as a key initial condition for effective population of the ¹D₂ and ¹I₆ UV emitting states, via Tm-Tm cross-relaxation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362014887</t>
+          <t>https://openalex.org/W2408673697</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31219/osf.io/m27rh</t>
+          <t>https://doi.org/10.1158/1557-3265.pmsclingen15-ia22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kamran (2023)</t>
+          <t>Sawyers (2016)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Organizational Knowledge Transformation and Selforganizing Knowledge Representation Model</t>
+          <t>Abstract IA22: Reflections on precision medicine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>: The purpose of the paper is development of a conceptual model for the representation of knowledge as an active intellectualsubstance and, on this basis, study of metaphysics of knowledge transformation process being produced both individually andcollectively in the practice of organizations. The first principle of knowledge engineering, as Edward Albert Feigenbaum noted, saysthat the power in solving problems that an intellectual subject (person or machine) manifests in the process of activity depends primarilyon its knowledge base, and only secondly on the methods of inference used. Strength is hidden in knowledge. The process of producingknowledge is permanent and does not depend on whether an individual is going to use this knowledge or not.Knowledge constantly produces new knowledge regardless of the owner's desire. Besides that, knowledge can’t arise from nothing, butalways – from some knowledge obtained earlier. As well as the intelligence, knowledge is an emergent instance arising from thecollective interaction of a lot of intellectual atomic elements of knowledge (knowledge quanta). Idiosyncrasy of this interaction isexpressed precisely in the creation of new knowledge. Due to postulating the knowledge self-organizing, the hierarchical knowledgestructures in memory and the process of thinking as a kind of syntax for the procedure of new knowledge generation are described. Thisis an effort towards understanding the memory mechanisms, the process of thinking, the sources of heuristic knowledge just throughthe inner nature of knowledge. Also, based on the knowledge self-organization principle, an archetype of the appropriate knowledgebased system architecture is presented too. As an implementation of the concept, the perceptual act model is described, and on its base,a possible scenario for the behavior of a robot meeting an obstacle in its path is considered. As the mutual transformation of tacit andexplicit knowledge makes new knowledge, the impact of the self-organization of knowledge on the transformation process as well asconditions of self-organization of both individual knowledge and organizational knowledge are analyzed in detail. Finally, modificationof the known model of knowledge dimensions by Nonaka and Takeuchi is proposed. Because of the native activity of knowledge, it isimpossible to build a knowledge management system without considering the internal structure of knowledge and its emergent abilityto self-organize. Ensuring the natural process of knowledge development at all ontological levels in an organization is an essentialprerequisite for the evolution of values in this organization.</t>
+          <t>Abstract The clinical success of molecularly targeted therapies such as imatinib for chronic myeloid leukemia sparked a revolution in cancer drug development as well as global efforts to define the landscape of genomic alterations across all cancers. Today we live in a world with a near complete understanding of all cancer gene mutations, giving us an unprecedented opportunity to leverage this knowledge to improve treatment outcomes, through precision medicine. Despite the many remarkable successes over the past 15 years, the goal of improved therapy for all cancers remains daunting due to the complexity of the genomic landscape and the challenges of overcoming drug resistance. With the rapid spread of next generation sequencing into the clinical arena at various cancer centers and health care institutions throughout the world, we have an opportunity to accelerate our understanding of treatment response and resistance through data sharing across these growing silos of genomic and clinical datasets. In this lecture I will illustrate the power of this approach through specific examples in prostate cancer and discuss interactional efforts to catalyzed data sharing through the Global Alliance for Genomics and Health (GA4GH). Citation Format: Charles L. Sawyers. Reflections on precision medicine. [abstract]. In: Proceedings of the AACR Precision Medicine Series: Integrating Clinical Genomics and Cancer Therapy; Jun 13-16, 2015; Salt Lake City, UT. Philadelphia (PA): AACR; Clin Cancer Res 2016;22(1_Suppl):Abstract nr IA22.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4393049949</t>
+          <t>https://openalex.org/W4384033984</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oso/9780192866264.003.0016</t>
+          <t>https://doi.org/10.1515/zpch-2023-0252</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Motoyama (2024)</t>
+          <t>Nazik et al. (2023)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Evolution of an Entrepreneurial Ecosystem in St. Louis, United States</t>
+          <t>Synthesis of doped metal sulfide nanoparticles and their graphene reinforced nanohybrid for Pb(II) detection</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Abstract While studies of entrepreneurship and local systems—so-called entrepreneurship ecosystems—have grown exponentially in the past decade, most have been cross-sectional, and we still have limited understanding about the evolution of the ecosystem. Building upon the author’s earlier work, this chapter conducts an exploratory analysis of St. Louis, Missouri, over about fifteen years, during which the stakeholders in the region gained confidence as an upcoming entrepreneurial hub with increased venture capital investment and successful exits. The region has also experienced substantial transformation with privatization of support services and major reorientations by non-profit organizations, partially induced by a radical reduction in government funding. As a result, many organizations have pursued niche strategies with sectors and between districts inside the city. Given that the new entrepreneurial community emerged around Caucasian male entrepreneurs, the inclusion of women and minorities has become a pressing regional issue. Overall, the highly complex evolution, with many actors within the ecosystem, suggests that ecosystems do not follow linear patterns of nascence, growth, and maturity, but rather develop in a unique, highly complex way.</t>
+          <t>Abstract This paper explores different techniques to combine and improve the electrochemical sensing activities of the transition metal chalcogenide. The transition metal chalcogenide was doped with a suitable dopant to tune the band structure. Surface-assisted nanotechnology was used to enrich the superficial properties of the doped material. Lastly, the nanostructured doped materials were physically mixed with the graphene nanoplates (GNPs) to improve the flow of charges and the stability of the electrochemistry. The most electrically conductive and common metal sulfides in nature were chosen and prepared using a cheap and easy wet-route method. Crystal structure, chemical functionality, texture, composition, and thermal stability of undoped, doped, and composite materials were determined using physicochemical techniques such as X-ray diffraction, FTIR, SEM, EDX, and TGA. N 2 -adsorption-desorption, current-voltage, and impedance studies show that the composite sample’s surface area, electrical conductivity, and charge transport properties are superior to those of the undoped and doped samples. Regarding electrochemical applications, the composite material supported a glassy carbon electrode (Co–Cu 2 S/Gr@GCE) with excellent Pb(II) ion sensing activity. Moreover, the sensitivity, detection, and quantification limits of the modified electrode for Pb(II) detection were computed to be 88.68 μAμMcm −2 , 0.091 μM, and 0.30 μM, respectively. The key features developed in the metal sulfide for its enhancement of electrochemical sensing activity are a high surface area, good conductivity, and fast electron transport by adopting nanotechnology, metal doping, and composite formation methodologies. Based on the results of the experiments, we can say that using multiple inputs to integrate the feature we want is an excellent way to make electrochemical systems for the next generation.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322209177</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5194/egusphere-egu23-14392</t>
+          <t>https://openalex.org/W3146734363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rey et al. (2023)</t>
+          <t>Wu (2014)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Magma ocean crystallization model coupling fluid mechanics and thermo-chemistry: application to the lunar magma ocean.</t>
+          <t>The Subversion of Enlightenment Rationality: On Two Vision-Blocking Metaphors in J. M. Coetzee's Waiting for the Barbarians</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Understanding the dynamics of magma ocean crystallisation during planetary cooling can elucidate the initial mantle structure and subsequent evolution of early planetary bodies. However, most studies on magma ocean crystallisation focus on either the thermo-chemistry (e.g., Johnson et al. 2021) or the fluid dynamics of a cooling magma ocean (e.g., Maurice et al. 2017). This precludes investigations into coupled thermo-mechanical processes, such as the effect of convection and phase segregation on chemical differentiation. However, coupled models are challenging to implement due to their numerical complexity and limited experimental constraints on magma ocean crystallisation for model calibration.We develop a two-phase, 6-component model in a 2D rectangular domain based on a multi-phase, multi-component reactive transport model framework (Keller &amp;amp; Suckale, 2019). Magma ocean convection is modelled using Stokes equations while crystal settling is calculated using a form of hindered Stokes law. The fluid mechanics model is coupled with a thermo-chemical model of evolving temperature, phase proportions, and phase compositions to form a reactive transport model, following Keller &amp;amp; Katz (2016). We apply this model to the lunar magma ocean (LMO) by describing the melt and crystal compositions with 6 pseudo-components (approximating forsterite-fayalite, orthopyroxene-clinopyroxene and anorthite-albite mineral systems). To calibrate the melting temperature and composition of each component, we fit data from fractional crystallisation experiments for a Taylor Whole Moon composition (Schmidt &amp;amp; Kr&amp;amp;#228;ttli 2022) using a transitional Markov Chain Monte Carlo method.The 6-component melting model calibrated to experimental data is successfully implemented in the reactive transport model. First results indicate the importance of crystal settling speed and magma convection speed on convective mixing, magma ocean stratification, and crystal cumulate formation. The small size of the Moon and its relatively well-constrained magma ocean history, make the LMO an excellent case study to apply the model. However, with the aid of new experimental data for larger and chemically different planets, such as Mars, this model can provide more general insight into the early evolution of terrestrial bodies.REFERENCES: Maurice et al. (2017) doi:10.1002/2016JE005250, Johnson et al. (2021) doi: 10.1016/j.epsl.2020.116721,&amp;amp;#160; Keller &amp;amp; Suckale (2019) doi:10.1093/gji/ggz287, Keller &amp;amp; Katz (2016) &amp;amp;#160;doi: 10.1093/petrology/egw030,&amp;amp;#160; Schmidt &amp;amp; Kr&amp;amp;#228;ttli (2022) doi:10.1029/2022JE007187</t>
+          <t>AbstractThe present paper bases its arguments around two vision-blocking metaphors in Coetzee's novel Waiting for the Barbarians. Revelations of the rich metaphorical meanings of the sunglasses and the blind eyes of the barbarian girl through close readings serve to demonstrate Coetzee's reflections on and criticism of Enlightenment rationality. As a superb narrator well-versed in the antipathy of modern Western culture, Coetzee arranges in dichotomy the two metaphors similar in form but opposing in essence, so as to propel with their tension the narration forward and highlight the gist of the novel. With the operations of various irrational elements in the text, such as the purification rituals, the dreams, and allusions to myth, he manages to subvert Enlightenment rationality for the sake of getting control of the order of nature.Key words: Sunglasses; Blind eyes; Empire; Barbarians; Enlightenment rationality; Dream; RitualINTRODUCTIONJ. M. Coetzee's 1980 novel Waiting for the Barbarians won him international critical acclaim.(2014, pp.326-374) Ever after its publication, it has been thrown under critical inspections from a wide range of perspectives. These critical reactions can be roughly put into two categories. In the first one, the criticism is based around colonial and postcolonial discourses, which comes natural to the study of Coetzee's works because Coetzee's life and career are inseparably intertwined with the colonial and postcolonial legacies of South Africa. His Dusklands juxtaposes 17th century colonial experience and postcolonial practice in the 1960's to illustrate the haunting ghost of Euro- centrism. In the Heart of the Country delineates the schizophrenia of the colonial psyche. Foe is a writing-back text and subversion of the canonical colonial narration Robinson Crusoe. Age of Iron, though pretty much Coetzeeian in its constant self-reflections, is his most explicit anti-apartheid text. In Waiting for the Barbarians, the opposition of Empire and Barbarians, as well as their ironical mutual transition, highlights the vintage critical tradition in the examination of the colonial experience, with Conrad's Heart of Darkness as its precursor. Critics represented by Bill Ashcroft (Ashcroft, 1998, pp.100-116) and Teresa Dovey (Dovey, 1996, pp138-151) take this story as an allegory of the apartheid South Africa. Susan Gallagher (Gallagher, 19688, pp.277-285) and Michael Valdez Moses(Moses, 1993, pp.115-127) approach it from the angle of torture and its traumatic effects. Dominic Head(Head, 2009,) views this book as an illustration of the old magistrate's moral awakening in the context of the Empire and the other.The second category is characterized by the application of a wide range of other contemporary critical discourses, such as postmodernism, post-structuralism, body theories, trauma theories, narrative theories, and etc. These discourses, though some of them are more or less intertwined, respectively claim their distinctive critical rationale and methods, which together broadens the critical space of Coetzeeian studies and engenders more philosophical and cultural relevance and significance for Coetzee's works. Coetzee has been nurtured by the literary modernism and postmodernism, well-versed in various philosophical and cultural movements in the second half of the last century, which, together with his profound understanding of European and American cultures, results in his insights into the essential problematics of the Western colonial institutions. What he really focuses on is the underlying stratum of the colonial discourse, the inveteracy of Euro-centrism. His probe into the nature of history and the deconstruction of it, as well as his linkage to the modernist literary tradition are reflected in his Kafkaian novel Life and Time of Michael K.; his illustration of the contemporary moral predicaments in Elizabeth Costello: Eight Lessons, in the disguise of meta- fictional poststructuralist construct, is indeed infused with moral force typical of the modernist heritage. …</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259869057</t>
+          <t>https://openalex.org/W1975178141</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jbg.12073</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Waters (2007)</t>
+          <t>Hirooka (2014)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
+          <t>Marbled &lt;scp&gt;J&lt;/scp&gt;apanese Black cattle</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
+          <t>Wagyu is a general term used for native Japanese beef breeds (‘wa’ means ‘Japanese’ and ‘gyu’ means ‘cattle’). Wagyu cattle consist of four beef breeds, all of which belong to Bos taurus: the Japanese Black, Japanese Brown, Japanese Shorthorn and Japanese Polled. In 2010, a total of 737 281 breeding cows of all four Japanese beef breeds were counted nationwide; the Japanese Black cattle is the predominant breed and accounted for 97% with nationwide distribution. The other three breeds are minor and regional breeds; the Japanese Brown is mainly distributed in Kumamoto Prefecture in Kyushu island and Kochi Prefecture in Shikoku island, the Japanese Shorthorn in Tohoku region (north-eastern areas in main island) and the Japanese Polled only in Yamaguchi Prefecture (western area in main island). About 510 thousand heads of Japanese beef (Wagyu) feedlot steers and heifers and culled cows are slaughtered annually, and beef supply from Japanese beef cattle was 155 thousand tons (17.8% of total beef supply including imported beef) in 2010. The average retail prices in meat shops for outside-loin and sirloin cuts from Japanese beef cattle are $55 and $113/kg, respectively, whereas those from the USA beef are $21 and $40/kg for the same parts. Historically, over approximately 1200-year span from the year 676 until the Meiji Revolution in 1868, there had been no meat consumption culture in Japan because Buddhism prohibited eating meat. Japanese native cattle were used only as a draft tool for paddy rice cultivation, mining and transportation. During the early 19th century, inbred strains based on dam lines were built up by breeders (wealthy farmers and cattle dealers) in mountain areas in Chugoku districts at the west side of Japan's main island, Honshu. These strains were named ‘Tsuru’, which means ‘vine plants’. Interestingly, the breeding procedure used was similar to the close and continued inbreeding of Hereford and Shorthorn cattle practiced by Robert Bakewell and the Collong brothers in England. It is notable that the same types of inbred strains of cattle were established during the same period in both the Western world and the Far East although there was no academic or cultural exchange between the two worlds in those years. After the Meiji Revolution, the new government discontinued the prohibition on eating meat to introduce Western food habits and other aspects of Western culture. Various British and continental breeds such as Shorthorn, Brown Swiss, Devon, Simmental and Ayrshire were imported into Japan and were crossed with native cattle by local prefectural governments. However, none of these crossing efforts were successful, due to the inferior draft performance of the crossbreds, although crossbred animals were larger and produced more milk. No further crossing with foreign breeds was conducted after 1910. Nevertheless, because of the crossbreeding under local governments, the genetic diversity of the breeds was greatly expanded. In 1919, a registration system was organized in each prefecture according to the decision of the Japanese government, and selection on favourable traits utilizing variation from both native and foreign ancestors was started with the aim to have uniform conformation and quality of the cattle. Consequently, the cattle raised in the prefectures formed the four breeds; the Japanese Black, Japanese Brown and Japanese Polled were established as pure breeds in 1944, followed by the Japanese Shorthorn in 1957. Since the 1960s, with the rapid growth of the Japanese economy and the mechanization of crop production at the time, the use of the breeds has shifted from draft animals to beef production. The official cattle performance and progeny testing programmes for beef production started in 1968, and the testing schemes in central stations were established. In Japan, the carcass value has been determined by meat quality, primarily the degree of marbling. Since the liberalization of beef importations in 1991, marbling has been emphasized more and more as a reason to differentiate domestic beef from imported beef. Clear positive genetic trends for marbling of Japanese beef breeds have been realized by introducing field progeny testing programmes using carcass records collected at slaughter houses and processed by the BLUP method (Sasaki et al. 2006, J. Anim. Sci., 84, 317–323). Marbling is evaluated using the 12-point beef marbling standard (BMS score 1–12) with number 12 being best. The Japanese Black is known to have extremely superior marbled beef-producing ability among the four breeds. There is much genetic variation in the BMS score in the Japanese Black (Oyama 2012, Anim. Sci. J., 82, 367–373), and it is noticeable that there is a low or even negative genetic correlation between the BMS score and the subcutaneous fat thickness for Japanese Black (Oyama 2012) and also Japanese Brown (Hirooka et al. 1996, J. Anim. Sci., 74, 2112–2116). These favoured characteristics of the breeds en</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2789490141</t>
+          <t>https://openalex.org/W4360855985</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/icsps-17.2018.59</t>
+          <t>https://doi.org/10.37394/23202.2023.22.34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kenawas (2018)</t>
+          <t>Eryiğit et al. (2023)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The Institutional Foundation of the Emergence of Subnational Political Dynasties in Indonesia</t>
+          <t>Classification of Trifolium Seeds by Computer Vision Methods</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Decentralization and democratization at the subnational level are two main policies to avoid another centralization of power in the hands of a small number of elites in Jakarta.Instead of solving the problem of concentration of power, the introduction of decentralization and democratization at the subnational level allows some local strongmen to monopolize power at the subnational level through the formation of political dynasties.Why has this contradictory result occurred?The paper argues that the interaction between macrolevel institutional stability and micro-level continuous institutional transformations creates an avenue for power monopolization by a small number of elites at the subnational level.By applying Taylor C. Boas' composite-standard model of path dependence, the paper aims to show that the institutional development not only precedes the rise of subnational political dynasties but also enables such political force to be an enduring feature of Indonesia's political landscape for years to come.Additionally, by using the composite-standard model, the paper aims to capture the complexity and the dynamics of the power struggle between the competing political actors-both at the national and subnational levels-to change or to maintain the existing institutions.This paper supplements some previous studies on the emergence of political dynasties in Indonesia with a more detailed discussion on the institutional aspects that allows such dynasties to exist and to persist.This paper employs secondary data from various sources, including news archives and the Constitutional Court's proceedings to support its claim.</t>
+          <t>Traditional machine learning methods have been extensively used in computer vision applications. However, recent improvements in computer technology have changed this trend. The dominance of deep learning methods in the field is observed when state-of-the-art studies are examined. This study employs traditional computer vision methods and deep learning to classify five different types of Trifolium seeds. Trifolium, the leading food for nutritious dairy products, plays an essential role in livestock in some parts of the world. First, an image data set consisting of 1903 images belonging to five different species of Trifolium was created. Descriptive and quantitative morphological features of each species are extracted using image-processing techniques. Then a feature matrix was created using eight different features. After feature selection and transformation, unnecessary and irrelevant features were removed from the data set to build more accurate and robust classification models. Four common and frequently applied classification algorithms created a prediction model in the seed data set. In addition, the same dataset was trained using VGG19, a convolutional neural network. Finally, the performance metrics of each classifier were computed and evaluated. The decision tree has the worst accuracy among the four traditional methods, 92.07%. On the other hand, Artificial Neural Network has the highest accuracy with 94.59%. As expected, VGG19 outperforms all traditional methods with 96.29% accuracy. However, as the results show, traditional methods can also produce results close to the deep learning methods.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2139267785</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/09555340610663728</t>
+          <t>https://openalex.org/W2165644641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Freeman &amp; Reid (2006)</t>
+          <t>Harris (1993)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Constraints facing small western firms in transitional markets</t>
+          <t>QUATERNARY VERTEBRATES OF NEW MEXICO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Purpose To provide an Asia‐Pacific viewpoint of the key constraints associated with large geographic distances for smaller westerns firms entering central and eastern Europe (CEE), described as a turbulent transitional environment. Design/methodology/approach An exploratory study was used within a qualitative methodology, using eight case studies across multiple industries. Semi‐structured interviews were the main method of data collection conducted in 2003/2004. Open, axial and selective coding was used for the analysis to identifying issues. Findings Key internal constraints for smaller western firms (mindset of western management and middle management in CEE; and lack of management in CEE with decision‐making authority) related to managements' inability to recognize geographic and psychic distance as major external constraints. Largely overcome by enhancing communication between various functional groups; adapting organizational structure; maintaining frequent communicational; developing partnerships in international joint ventures; finding reliable distributors and commitment from re‐sellers and working with government. While no single international business theory adequately explains this process, there is overwhelming support for the network perspective and international entrepreneurship. Research limitations/implications The study is limited by small sample size. The explanatory phase is proposed with further western companies, such as the UK, operating in CEE to identify geographic distance, and additional CEE markets to verify dimensions in this environment. Practical implications The paper provides a checklist of strategies for overcoming constraints facing managers of smaller firms, entering emerging markets with geographic distance. Originality/value Previous studies, using a European or Nordic viewpoint, fail to identify the constraints associated with large geographic distances. This paper provides practical assistance to managers starting out in CEE from the Asia‐Pacific.</t>
+          <t>Approximately 346 species of vertebrates are represented in the Quaternary fossil record of New Mexico. These include 4 fishes, I salamander, 13 anurans, 5 turtles, 19 lizards, 23 snakes, 119 birds, and 162 mammals. Some 22 taxa are from the vicinity of the Blancan/Irvingtonian transition, 12 most likely are Irvingtonian, and 4 are possibly Illinoian in age. Although many sites are undated with precision, most remaining sites probably are Wisconsinan, with well over 300 taxa. 179</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W649986937</t>
+          <t>https://openalex.org/W2033792504</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevb.62.17043</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hall (2010)</t>
+          <t>Roth &amp; Balasubramanya (2000)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A History of Early Southeast Asia: Maritime Trade and Societal Development, 100–1500</t>
+          <t>Predicted properties and melting transition of krypton layers physisorbed onto Lennard-Jones spheres</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chapter 1: Trade and Statecraft in Early Southeast Asia Chapter 2: Early International Maritime Trade and Cultural Networking in the Southeast Asia Region, ca. 100-500 Chapter 3: Competition on the East Coast of the Mainland: Early Champa and Vietnam Political Economies Chapter 4: The Foundations of Indonesian Polity: Srivijaya and Java to the Early Tenth Century Chapter 5: Structural Change in the Javanese Community, ca. 900-1300 Chapter 6: The Temple-Based Mainland Political Economies of Angkor Cambodia and Pagan Burma, ca. 889-1300 Chapter 7: Transitions in the Southeast Asian Mainland Commercial Realm, ca. 900-1500 Chapter 8: Maritime Trade and Community Development in Fourteenth- and Fifteenth-Century Java Chapter 9: Upstream and Downstream Unification and the Changing Sense of Community in Southeast Asia's Fifteenth-Century Maritime Port-Polities Chapter 10: Maritime Trade and State Development, ca. 1250-1500 References</t>
+          <t>We report the results of constant-temperature, constant-density, molecular-dynamics simulations of the melting transition of Kr atoms physisorbed onto small Lennard-Jones spheres. Adlayer depletion takes place when free boundary conditions are used but utilization of a soft reflecting shell results in a broad melting transition at around $T=65\mathrm{K}$ without any appreciable hysteresis. We introduce structural and bond-orientational parameters and utilize thermodynamic parameters to monitor the behavior of the system. The spherical geometry causes compression of the neighbor distances with respect to those for the corresponding planar case, causing enhanced interaction of the neighbor shells via interstitials/vacancies, the nature of which is further elucidated using the bond-orientational information. Quantities related to the radial degree of freedom change slowly during melting, and bond-orientational order of the Kr lattice persists well into the fluid.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4243012788</t>
+          <t>https://openalex.org/W2061007991</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jfluchem.2011.11.008</t>
+          <t>https://doi.org/10.1016/j.ces.2009.03.029</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chen (2012)</t>
+          <t>Patnana et al. (2009)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Two-dimensional unsteady flow of power-law fluids over a cylinder</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Although electrolyte additives have been extensively used in modern Li-ion batteries, the practice remained a “dark-art” with little rationale understanding. In this work, using two representative additives that have been extensively for superior electrochemical performances, i.e., vinylene carbonate (VC) and LiPO2F2 (LPF), we thoroughly investigated the fundamental chemistry and electrochemistry involved in Li-ion battery environment and explored the underneath mechanism. The analyses performed on bulk electrolyte and surfaces of both graphitic anode and transition metal oxide cathode reveal complicated reaction cascades among these additives with electrolyte components as well as electrode materials. It was found that the effectiveness of these additives lies not only in how they participate the interphasial chemistries, but also in how they suppress the major side reactions between the bulk electrolyte solvents, the trans-esterification. The correlation between the additive chemistries and electrochemical performances provide valuable guidelines to rational selection, design and synthesis of future additives of higher effectiveness and for new battery chemistries.</t>
+          <t>The unsteady flow of incompressible power-law fluids over an unconfined circular cylinder in cross-flow arrangement has been studied numerically. The two-dimensional (2-D) field equations have been solved using a finite volume method based solver (FLUENT 6.3). In particular, the effects of the power-law index (0.4⩽n⩽1.8) and Reynolds number (40⩽Re⩽140) on the detailed kinematics of the flow (streamline, surface pressure and vorticity patterns) and on the macroscopic parameters (drag and lift coefficients, Strouhal number) are presented in detail. The periodic vortex shedding and the evolution of detailed kinematics with time are also presented to provide insights into the nature of flow. The two-dimensional flow transits from steady to unsteady behaviour at a critical value of the Reynolds number Re∼(40–50) and the von-Karman vortex street is observed beyond the critical Reynolds number (Re). Obviously, both the lift coefficient and Strouhal number values are zero for the steady flow, but their values increase with the increasing Reynolds number (Re) in the unsteady flow regime. For highly shear-thickening fluids (n=1.8), the flow becomes unsteady at Re=40 and unsteadiness in the flow appears at Re=50 for all values of power-law index (n). As expected, the evolution of the kinematics and vortex shedding show a complex dependence on the flow parameters near the transition in the flow. For a fixed value of the Reynolds number (Re), the drag coefficient increases and lift coefficient decreases with increasing value of the power-law index (n). For a fixed value of the power-law index (n), the drag coefficient gradually increases with the Reynolds number (Re). Similar to the drag coefficient, lift coefficient also shows a complex dependence on the power-law index (n) near the transition zone. The value of the Strouhal number (St) decreases with the increasing value of the power-law index (n) at a fixed value of the Reynolds number (Re).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3198723610</t>
+          <t>https://openalex.org/W3199812164</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/s12913-021-06942-y</t>
+          <t>https://doi.org/10.1007/s11433-021-1830-9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fridberg et al. (2021)</t>
+          <t>Zhang et al. (2022)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The innovation characteristics of person-centred care as perceived by healthcare professionals: an interview study employing a deductive-inductive content analysis guided by the consolidated framework for implementation research</t>
+          <t>Ultrafast optical spectroscopy evidence of pseudogap and electron-phonon coupling in an iron-based superconductor KCa2Fe4As4F2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Abstract Background Person-centred care (PCC) is promoted as an innovation that will improve patients’ rights and increase their participation in healthcare. Experience shows that the implementation of PCC is challenging and often results in varying levels of adoption. How health care professionals (HCPs) perceive an innovation such as PCC is an important factor to consider in implementation. Yet, such studies are scarce. Thus, in a sample of healthcare units in a region in Sweden, involved in a transition to PCC, we aimed to investigate HCPs’ perceptions of PCC. Methods An interview study was conducted in 2018 during the implementation of PCC with HCPs ( n = 97) representing diverse vocational roles in six healthcare contexts. Data were collected via focus groups ( n = 15), dyadic interviews ( n = 5), and individual interviews ( n = 22) and analysed using a deductive–inductive content analysis. The deductive approach was guided by the Consolidated Framework for Implementation Research (CFIR), followed by an inductive analysis to describe HCPs’ in-depth perceptions of PCC in relation to each of the CFIR constructs. Results Eight constructs from two of the CFIR domains, Intervention characteristics and Inner setting, were used to code HCPs’ perceptions of PCC. One construct, Observability, was added to the coding sheet to fully describe all the data. The constructs Relative advantage, Complexity, Compatibility, Observability, and Available resources were discussed in depth by HCPs and resulted in rich and detailed data in the inductive data analysis. This analysis showed large variations in perceptions of PCC among HCPs, based on factors such as the PCCs ethical underpinnings, its operationalisation into concrete working routines, and each HCPs’ unique recognition of PCC and the value they placed on it. Conclusions We identified nine CFIR constructs that seem pertinent to HCPs’ perceptions of PCC. HCPs report an array of mixed perceptions of PCC, underlining its complex nature. The perceptions are shaped by a range of factors, such as their individual understandings of the concept and the operationalisation of PCC in their local context. Stakeholders in charge of implementing PCC might use the results as a guide, delineating factors that may be important to consider in a wide range of healthcare contexts.</t>
+          <t>The newly discovered ternary chalcogenide superconductor Bi$_2$Rh$_3$Se$_2$ has attracted growing attention, which provides an opportunity to explore the interplay between charge density wave (CDW) order and superconductivity. However, whether the phase transition at 240 K can be attributed to CDW formation remains controversial. To help resolve the debate, we study the electronic structure study of Bi2Rh3Se2 by angle-resolved photoemission spectroscopy experiments, with emphasis on the nature of its high-temperature phase transition at 240 K. Our measurements demonstrate that the phase transition at 240 K is a second-order CDW phase transition. Our results reveal (i) a 2 x 2 CDW order in Bi$_2$Rh$_3$Se$_2$, accompanied by the reconstruction of electronic structure, such as band folding, band splitting, and opening of CDW gaps at and away from Fermi level; (ii) the existence of electron-phonon coupling, which is manifested as an obvious kink and peak-dip-hump structure in dispersion; and (iii) the appearance of a flat band. Our observations thus enable us to shed light on the nature of the CDW order and its interplay with superconductivity in Bi$_2$Rh$_3$Se$_2$.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318499542</t>
+          <t>https://openalex.org/W209485214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/challe14010009</t>
+          <t>https://doi.org/10.2172/5263861</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Soleri et al. (2023)</t>
+          <t>Wildung &amp; Garland (1977)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Traditional Foods, Globalization, Migration, and Public and Planetary Health: The Case of Tejate, a Maize and Cacao Beverage in Oaxacalifornia</t>
+          <t>Relationship of microbial processes to the fate and behavior of transuranic elements in soils, plants, and animals</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>We are in the midst of an unprecedented public and planetary health crisis. A major driver of this crisis is the current nutrition transition—a product of globalization and powerful multinational food corporations promoting industrial agriculture and the consumption of environmentally destructive and unhealthy ultra-processed and other foods. This has led to unhealthy food environments and a pandemic of diet-related noncommunicable diseases, as well as negative impacts on the biophysical environment, biodiversity, climate, and economic equity. Among migrants from the global south to the global north, this nutrition transition is often visible as dietary acculturation. Yet some communities are defying the transition through selective resistance to globalization by recreating their traditional foods in their new home, and seeking crop species and varieties customarily used in their preparation. These communities include Zapotec migrants from the Central Valleys of the southern Mexican state of Oaxaca living in greater Los Angeles, California. Focusing on the traditional and culturally emblematic beverage tejate, we review data from our research and the literature to outline key questions about the role of traditional foods in addressing the public and planetary health crisis. We conclude that to answer these questions, a transnational collaborative research partnership between community members and scientists is needed. This could reorient public and planetary health work to be more equitable, participatory, and effective by supporting a positive role for traditional foods and minimizing their harms.</t>
+          <t>This review considers the influence of soil physicochemical and microbial processes on the long-term solubility, form, and bioavailability of plutonium and other transuranic elements important in the nuclear fuel cycle. Emphasis is placed on delineation of the relationships between soil chemical and microbial processes and the role of soil microorganisms in effecting solubilization, transformation and plant/animal uptake of elements considered largely insoluble in soils strictly on the basis of their inorganic chemical characteristics.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2902956400</t>
+          <t>https://openalex.org/W2764413946</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25159/2309-5792/4006</t>
+          <t>https://doi.org/10.1355/ae24-2h</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boomershine (2018)</t>
+          <t>Wicaksono (2007)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>“Can These Bones Live?” A Performance Criticism Study of Ezekiel 37:1-14</t>
+          <t>Think ASEAN! : Rethinking Marketing toward ASEAN Community 2015</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>We live in a time when a paradigm shift is occurring from the study of the Bible as a series of texts read in silence by readers, to the study of the Bible as a set of compositions performed for audiences. Biblical performance criticism is the emerging paradigm. It begins by recognising the essential nature of the biblical tradition as oral events, where transformative meaning is created in the interplay of story, storyteller, telling, and audience. Experiential exegesis is a proposed new methodology for the study of particular compositions as performance literature. This approach to biblical study enables the re-creation of a meaningful resemblance of the original performance experience for a contemporary audience. In this article, the processes of experiential exegesis are applied to the story of the Dry Bones, recorded in Ezekiel 37:1-14. The study of the Dry Bones as a story performed for audiences reveals that the interaction between the storyteller and the audience occasions a transformation of despair into hope. Experiences of telling the story to a church congregation and to incarcerated women confirm the viability of performance criticism study to interpret biblical tradition such that, in the words of Walter Wink: "the past becomes alive and illumines our present with new possibilities for personal and social transformation."</t>
+          <t>DOI: 10.1355/ae24-2h Think ASEAN! Rethinking Marketing toward Community 2015. By Philip Kotler, Hermawan Kartajaya, and Hooi Den Huan. Singapore: McGraw-Hill, 2007. Pp. 192. This book can be considered as the first book that exposes the practical implications of economic integration on businesses, especially in marketing. In a nutshell, this book explores what means for businesses. The importance comes mainly from the fact that there has been much things said about integration, but business communities have complained that there is little that they have seen and experienced arising from the benefits of integration. Think ASEAN! is a counter to those sceptical views. By outlining the success stories of marketing companies in Southeast Asia, the book provides compelling cause for businesses to see as an integrated community offering high potential and lucrative markets. It makes reading the book imperative as a lesson for companies and entrepreneurs with intentions to go global, as it will show them that seizing the potential in this region would be the way to go. For academics and policy-makers, Think ASEAN! is also something they might have needed: a set of evidence showing that the regionalism mantra brings benefit for the people. In their quest for the right formula of integration in ASEAN, critics pointed that they might have forgotten the man in the street in countries. The book shows that regional integration has brought benefits as there are more men on the street who can fly from one country to another with Air Asia, or more men on the streets of Jakarta, Bangkok and Manila who can taste the hot chicken-floss bun of Singapore's BreadTalk, for example. Thus, Think ASEAN! shows that thinking, going to, and doing as a whole brings meaning not only for business, but also for the people of ASEAN. The book consists of three parts, with the first focusing on the theoretical models and the latter two parts elaborating more on the empirical evidence of the marketing practice in by companies, both local companies in as well as multinationals. Part I, entitled ASEAN from the Top, starts with the authors' 4C diamond model to depict the changing business landscape and its driving force. Based on this model, Part I further elaborates the phenomenon of digitization and globalization, and their impacts on as market and its competitive landscape with its four chapters within. Chapter 1 on the digitization of the world argues that the impact of ICT (information and communication technology) on economy has been one of the key drivers in the changing business landscape. However, it was also noted that despite efforts by all countries' governments to develop and launch policies in ICT towards e-ASEAN, the digital divide among countries is widening. Chapter 2, on the impact of globalization on economies, elaborates on the challenges posed by globalization on ASEAN. Political and legal changes as well as economic changes have shifted the agents of change from the hands of the government of countries to multinational companies, and lastly to individuals. Globalization in its current era described by the authors being in its third wave - following overseas venture to seek colonies and industry revolution as the first and second wave - has shifted the focus of mind from globalization itself to regionalization. Thus, China and India have become the main performers in the leading role in this era of globalization, while regionalization has become the new mantra at the time when Asia is the region with the highest growth and most lucrative potential. Regionalization has brought about the consequences elaborated in Chapter 3 on being the future market. Exactly forty years after its formation in 1967, has become not only an organization, but also a community and region, which also means a market. …</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283807879</t>
+          <t>https://openalex.org/W2524136868</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
+          <t>https://doi.org/10.1002/cctc.201601070</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
+          <t>Gao et al. (2016)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
+          <t>Promotional Role of Surface Defects on Carbon‐Supported Ruthenium‐Based Catalysts in the Transfer Hydrogenation of Furfural</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
+          <t>Abstract The synthesis of highly efficient supported metal catalysts is of vital importance for the modern development of the production of chemicals. In this regard, biomass‐based chemical transformation holds potential promise through many heterogeneous catalytic processes. Herein, we report surface defect engineering on a carbon‐supported, Ru‐based catalyst by a two‐step hybridization–self‐reduction route, which involves the assembly of a hybrid composite of ternary Co‐Al‐Ru layered double hydroxide (CoAlRu‐LDH) and amorphous carbon through the carbonization of glucose and a subsequent in situ self‐reduction process. The results revealed that Ru 3+ species in the resulting CoAlRu‐LDH‐C composite could be reduced in situ to Ru 0 species by the carbon component in the hybrid composite, and Co‐containing spinels with a large quantity of surface oxygen vacancies could be formed simultaneously on the surface. The as‐fabricated Ru‐based catalyst showed a superior catalytic performance in the liquid‐phase transfer hydrogenation of furfural to furfuryl alcohol using benzyl alcohol as hydrogen donator to other Ru‐based catalysts derived from LDH‐C composite precursors. It was proven that surface defects (i.e., oxygen vacancies, Co 2+ species) could enable the chemisorption of furfural spatially and ensure the activation of its carbonyl groups, which promoted the transfer hydrogenation greatly.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059476578</t>
+          <t>https://openalex.org/W2898775250</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.dci.2011.03.031</t>
+          <t>https://doi.org/10.1038/s41598-018-34651-w</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Wiens &amp; Glenney (2011)</t>
+          <t>Tommasi et al. (2018)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Origin and evolution of TNF and TNF receptor superfamilies</t>
+          <t>UV-shielding and wavelength conversion by centric diatom nanopatterned frustules</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The tumor necrosis factor superfamily (TNFSF) and the TNF receptor superfamily (TNFRSF) have an ancient evolutionary origin that can be traced back to single copy genes within Arthropods. In humans, 18 TNFSF and 29 TNFRSF genes have been identified. Evolutionary models account for the increase in gene number primarily through multiple whole genome duplication events as well as by lineage and/or species-specific tandem duplication and translocation. The identification and functional analyses of teleost ligands and receptors provide insight into the critical transition between invertebrates and higher vertebrates. Bioinformatic analyses of fish genomes and EST datasets identify 14 distinct ligand groups, some of which are novel to teleosts, while to date, only limited numbers of receptors have been characterized in fish. The most studied ligand is TNF of which teleost species possess between 1 and 3 copies as well as a receptor similar to TNFR1. Functional studies using zebrafish indicate a conserved role of this ligand–receptor system in the regulation of cell survival and resistance to infectious disease. The increasing interest and use of TNFSF and TNFRSF modulators in human and animal medicine underscores the need to understand the evolutionary origins as well as conserved and novel functions of these biologically important molecules.</t>
+          <t>Abstract Diatoms can represent the major component of phytoplankton and contribute massively to global primary production in the oceans. Over tens of millions of years they developed an intricate porous silica shell, the frustule, which ensures mechanical protection, sorting of nutrients from harmful agents, and optimization of light harvesting. Several groups of microalgae evolved different strategies of protection towards ultraviolet radiation (UVR), which is harmful for all living organisms mainly through the formation of dimeric photoproducts between adjacent pyrimidines in DNA. Even in presence of low concentrations of UV-absorbing compounds, several diatoms exhibit significant UVR tolerance. We here investigated the mechanisms involved in UVR screening by diatom silica investments focusing on single frustules of a planktonic centric diatom, Coscinodiscus wailesii , analyzing absorption by the silica matrix, diffraction by frustule ultrastructure and also UV conversion into photosynthetically active radiation exerted by nanostructured silica photoluminescence. We identified the defects and organic residuals incorporated in frustule silica matrix which mainly contribute to absorption; simulated and measured the spatial distribution of UVR transmitted by a single valve, finding that it is confined far away from the diatom valve itself; furthermore, we showed how UV-to-blue radiation conversion (which is particularly significant for photosynthetic productivity) is more efficient than other emission transitions in the visible spectral range.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W4308257300</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/d2ra05537f</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Xiong et al. (2022)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>Directed molecular structure design of coordination polymers with different ligands for regulating output performance of triboelectric nanogenerators</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>A triboelectric nanogenerator (TENG) provides an effective method to harvest mechanical energy from the environment. The morphology and structure of frictional electrode materials of this type of device affect the output performance significantly. Metal-organic coordination polymers (CPs) with special structure advantages offer a vast pool of materials enabling high performances. Two Co-CPs based on terephthalic acid and 2,5-dihydroxyterephthalic acid ligands, respectively, were used to fabricate TENGs. Detailed electrical characterizations of the TENG devices revealed that the introduction of the substituent groups in the organic ligands leads to the structural changes of CPs, which ultimately leads to significant differences in the output performance.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2072186132</t>
+          <t>https://openalex.org/W2468735228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/stsm.1994.835453</t>
+          <t>https://doi.org/10.1111/nph.14092</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nakayama et al. (1994)</t>
+          <t>Lallemand et al. (2016)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Anomalous nature of neutral-ionic phase transition in tetrathiafulvalne chloranil thin films with strained lattice</t>
+          <t>The elusive predisposition to mycoheterotrophy in Ericaceae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">New PhytologistVolume 212, Issue 2 p. 314-319 LettersFree Access The elusive predisposition to mycoheterotrophy in Ericaceae Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author First published: 12 July 2016 https://doi.org/10.1111/nph.14092Citations: 27AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL The rise and diversification of land plants was accompanied by mycorrhizal symbiosis, from their emergence to their adaptation to various biomes and ecological situations (Selosse et al., 2015). In most mycorrhizal associations, fungi provide soil minerals to the plant, in exchange for sugars derived from photosynthesis (Smith &amp; Read, 2008; van der Heijden et al., 2015). However, several plant species adapted to shaded forest conditions by secondarily reversing this exchange of carbohydrates: they became achlorophyllous thanks to carbon provided by the fungus. This so-called mycoheterotrophic nutrition is described in over 400 species and evolved at </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W2811483634</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Fras (2018)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>Primjena zakona očuvanja energije i količine gibanja</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t>The law of conservation of energy and the law of conservation of momentum are two fundamental laws of physics. This study investigates student comprehension of these concepts at the first year of the two technical faculties of the University of Zagreb, the Faculty of Electrical Engineering and Computing and the Faculty of Civil Engineering. The research was conducted on 45 students. The problems used in the study are at high school level and they examine the understanding and application of the energy conservation law and the law of conservation of momentum, the concept of transformation of various forms of mechanical energy and the concept of work. Problems of different difficulties were used, from simple ones that require application of only one physical law, to more complex ones that require the use of more physical principles and more steps in solving. The impact of the figures that the students drew on problem solving was also analyzed. The students have poorly solved the test indicating to the difficulties in understanding and application of the concepts mentioned above, while a detailed analysis of the solutions and figures that the students have drawn has indicated to the problems in comprehension and visualization of various physical situations.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2524136868</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/cctc.201601070</t>
+          <t>https://openalex.org/W3144536648</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gao et al. (2016)</t>
+          <t>Da (2014)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Promotional Role of Surface Defects on Carbon‐Supported Ruthenium‐Based Catalysts in the Transfer Hydrogenation of Furfural</t>
+          <t>A SWOT analysis of Beijing Marathon game operation</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Abstract The synthesis of highly efficient supported metal catalysts is of vital importance for the modern development of the production of chemicals. In this regard, biomass‐based chemical transformation holds potential promise through many heterogeneous catalytic processes. Herein, we report surface defect engineering on a carbon‐supported, Ru‐based catalyst by a two‐step hybridization–self‐reduction route, which involves the assembly of a hybrid composite of ternary Co‐Al‐Ru layered double hydroxide (CoAlRu‐LDH) and amorphous carbon through the carbonization of glucose and a subsequent in situ self‐reduction process. The results revealed that Ru 3+ species in the resulting CoAlRu‐LDH‐C composite could be reduced in situ to Ru 0 species by the carbon component in the hybrid composite, and Co‐containing spinels with a large quantity of surface oxygen vacancies could be formed simultaneously on the surface. The as‐fabricated Ru‐based catalyst showed a superior catalytic performance in the liquid‐phase transfer hydrogenation of furfural to furfuryl alcohol using benzyl alcohol as hydrogen donator to other Ru‐based catalysts derived from LDH‐C composite precursors. It was proven that surface defects (i.e., oxygen vacancies, Co 2+ species) could enable the chemisorption of furfural spatially and ensure the activation of its carbonyl groups, which promoted the transfer hydrogenation greatly.</t>
+          <t>In order to systematically analyze various factors in Beijing Marathon game operation, and to boost its better development, the author analyzed the internal and external environments of Beijing Marathon by means of SWOT analysis. The internal advantages of Beijing Marathon are mainly the organizer's game operating experiences and resources, unique game routes and human landscapes, diversified game activities, market and commonweal combined game operating conception, relatively perfected safety and medical security, its internal disadvantages are mediocre game input and prize money, to be improved game service performance, and inadequate game derivative product development; its external opportunities are the time background of government function transformation, the changing of the game organizer, and gradually expanding mass base; its external threats are incomplete sports legal environment, and the reinforcement of competitive power of similar games at home and abroad. According to the said factors, the author put forward pioneering, striving, contending and conservative types of strategies and specific measures.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3024343821</t>
+          <t>https://openalex.org/W2203581624</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12594-020-1472-6</t>
+          <t>https://doi.org/10.1016/j.scitotenv.2015.12.122</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kar et al. (2020)</t>
+          <t>Niu et al. (2016)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Petrological and Geochronological Constraints on the Evolution of Charnockitic Rocks in the Massifs of Cauvery Shear Zone, Southern Granulite Terrain, India</t>
+          <t>Stomatal uptake of O 3 in a Schima superba plantation in subtropical China derived from sap flow measurements</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cauvery shear zone of the southern granulite terrane, India, is sandwiched between the amphibolite to granulite transition zone in the north and the Neoproterozoic granulite belt in the south. Two massifs of this shear zone consist of charnockitic rocks of tonalitic to granodioritic composition and include hornblende-mafic granulite enclaves. Petrology and geochemistry clearly indicate dehydration partial melting of mafic rocks as the mode of origin of the charnockitic rocks. However, high MgO, Ni and Cr contents and negative Nb anomalies suggest some interaction with the mantle in a subduction zone environment. U-Pb and Lu-Hf isotopic data of zircons in mafic granulite enclave and charnockite-enderbite host rocks indicate ca. 2.5 Ga granulite-cum-anatectic event. Juvenile mafic magmatism at ca. 2.7 Ga could represent the precursor of the mafic granulites. With the chemical and isotopic evidence of subduction zone environment, the Cauvery shear zone could be appropriately described as a suture along which Archaean-Paleoproterozoic granulite terrain and Neoproterozoic granulite terrain had collided.</t>
+          <t>Canopy stomatal ozone (O3) flux (Fst,O3) in a plantation of Schima superba, an ecologically and economically important evergreen pioneer tree species in subtropical China, was quantified based on sap flow measurements during a 2-year period. Mean Fst,O3 and accumulated Fst,O3 (AFst0) were significantly higher in wet seasons from April to September (4.62 nmol m(-2) s(-1) and 35.37 mmol m(-2), respectively) than in dry seasons from October to March (3.90 nmol m(-2) s(-1) and 24.15 mmol m(-1), respectively), yet comparable between the 2 years of the experiment, being 4.23 nmol m(-2) s(-1) and 58.23 mmol m(-2) in April 2013-March 2014 and 4.29 nmol m(-2) s(-1) and 60.80 mmol m(-2) in April 2014-March 2015, respectively. At the diurnal scale, Fst,O3 generally peaked in the early to middle afternoon hours (13:00-15:00), while the maximum stomatal conductance (Gst,O3) typically occurred in the middle to late morning hours (09:00-11:00). Monthly integrated AFst0 reached the maximum in July, although accumulated O3 exposure (SUM0) was highest in October. Seasonally or yearly, the accumulated O3 doses, either exposure-based or flux-based, notably exceeded the currently adopted critical thresholds for the protection of forest trees. These results, on the one hand, demonstrated the decoupling between the stomatal uptake of O3 and its environmental exposure level; on the other hand, indicated the potential O3 risk for S. superba in the experimental site. Therefore, the present study endorses the use of sap flow measurements as a feasible tool for estimating Fst,O3, and the transition from the exposure-based toward flux-based metrics for assessing O3 risk for forest trees. Further studies are urgently needed to relate stomatal O3 uptake doses with tree growth reductions for an improved understanding of O3 effects on trees under natural conditions.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057723312</t>
+          <t>https://openalex.org/W2007813606</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/scu.2000.0043</t>
+          <t>https://doi.org/10.1016/0304-8853(78)90213-5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Williams (2000)</t>
+          <t>Holz et al. (1978)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Images of Scottsboro</t>
+          <t>Theory of discontinuos metal-insulator and spin-dimerization transition in VO2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>In his poem Too Is Worth Its Song, the Harlem Renaissance poet Countee Cullen complains that poets raised no cry against the injustice suffered by the Scottsboro boys in contrast to their sharp and pretty tunes for Sacco and Vanzetti.(1) Granted, no artist memorialized the Scottsboro boys to the degree Ben Shahn did the two anarchists in his painting that repeatedly appears in art history texts to illustrate the American social realist movement; yet, contrary to Cullen's claim it is doubtful that any victims of alleged legal oppression touched as many socially conscious artists as did the nine African Americans accused, while riding a train as hobos, of raping two white women. In March 1931 nine black youths boarded a train in Chattanooga, Tennessee, as did some young white men. When the train stopped in Paint Rock, Alabama, sheriff's deputies arrested the blacks for fighting with the whites, and when two young white women, Ruby Bates and Victoria Price, also left the train, one accused the nine black youths of raping them, a charge the other did not deny. Transported to the Scottsboro jail and held there until their trial, the young blacks narrowly escaped lynching, and with little solid evidence for rape--let alone gang rape--a Scottsboro jury nonetheless convicted all nine of the poor ignorant youths of rape within twelve days. Each of the defendants, except one who was thirteen-years-old, received a death sentence. The case continued throughout the 1930s with numerous retrials and only ended decades later with Governor George Wallace's pardon of the last defendant in 1976.(2) For much of the 1930s, artwork in various media became propaganda clamoring for release of the Scottsboro boys and against the widespread injustice of lynching. Socially engaged northern artists seized specific aspects of this widely publicized case and created imaginative renditions in plays, poetry, song, and graphics that used a variety of persuasive artistic strategies to project themes idealizing the defense and vilifying Alabama and the rest of the white U.S. South. Viewed together these works portray a cruel, fallen South, warped by bigotry, ruled by a powerful white male elite allied with capitalist interests, ready to crucify young black men who await a proletarian redemption. Much in this artistic phenomenon can be attributed to activities of the Communist Party (CP), which made the Scottsboro case an international cause celebre. As two major histories of the case have explained at length, the Party, through its legal arm, the International Labor Defense (ILD) vied successfully with the NAACP to represent the boys in appealing the verdicts. The CP also launched an enormous publicity campaign, urging mass protest and pressure. This publicity probably supplied the major stimulus for artistic expression; such stimuli, however, had to reach sensitive, willing receptors. Some artists were Communist Party members, but in the early 1930s, the nadir of the Great Depression, many more sympathized with some part of the Communist agenda or its critique of an American society that seemed to have failed economically and politically under capitalism. News of Stalin's atrocities had not yet dampened Communist idealism and hope for a just, egalitarian society. Sympathetic artists agreed with the Communists that American society needed radical change and committed their work to increasing awareness of that need. The spirit behind many artistic efforts on behalf of the Scottsboro defendants was predominantly humanitarian rather than political. Along with the misery caused by the Depression, leftists believed that the oppression of blacks, particularly in the southern states, constituted the most flagrant eyesore on the American social landscape. The Scottsboro case seemed to exemplify the most egregious form of racial discrimination prevailing in the South: a black male accused of raping a white woman was presumed guilty and risked lynching if only to serve as an example to other black males. …</t>
+          <t>Abstract The discontinuos nature of the metal-insulator phase transition (PT) in VO 2 is explained by a compressible 2-band Hubbard model. The first order spin-dimer PT of the zig-zag chains in Vo 2 is explained in terms of a-dimensional (2-d) order parameter space.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133891932</t>
+          <t>https://openalex.org/W2420378235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/chem.201405896</t>
+          <t>https://doi.org/10.1002/cssc.201600323</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cortese et al. (2015)</t>
+          <t>Wang et al. (2016)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N‐Doped Carbon Networks: Alternative Materials Tracing New Routes for Activating Molecular Hydrogen</t>
+          <t>Graphitic Mesoporous Carbon Loaded with Iron-Nickel Hydroxide for Superior Oxygen Evolution Reactivity</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Abstract The fragmentation of molecular hydrogen on N‐doped carbon networks was investigated by using molecular (polyaromatic macrocycles) as well as truncated and periodic (carbon nanotubes) models. The computational study was focused on the ergonicity analysis of the reaction and on the properties of the transition states involved when constellations of three or four pyridinic nitrogen atom defects are present in the carbon network. Calculations show that whenever N‐defects are embedded in species characterized by large conjugated π‐systems, either in polyaromatic macrocycles or carbon nanotubes, the corresponding H 2 bond cleavage is largely exergonic. The fragmentation Gibbs free energy is affected by the final arrangement of the hydrogen atoms on the defect and by the extension of the π‐electron cloud, but it is not influenced by the curvature of the system.</t>
+          <t>Abstract Earth‐abundant transition metal oxides and hydroxides have been intensively investigated as promising catalysts for the oxygen evolution reaction (OER). However, the overall OER performance of the transition metal oxides/hydroxides is largely jeopardized by their inherent low electrical conductivity. Mesoporous carbon has been a commonly used as a carrier material for these oxides/hydroxides to promote the electrical conductivity and provide a large specific surface area. However, most of the available mesoporous carbon carriers are amorphous. It has been very challenging to synthesize graphitic mesoporous carbon owing to the extremely high graphitization temperature. In this work, we report a new strategy used to prepare graphitic mesoporous carbon (GMC) by employing Fe metal as the graphitization catalyst. The graphitic carbon was obtained at 1000 °C, at which it retained its mesoporous structure. The conductivity of the obtained GMC was approximately 550 S m −1 , which was almost ten times higher than that of amorphous carbon. The GMC was further loaded with Fe–Ni hydroxide to fabricate the OER catalyst. The obtained catalyst showed good OER activity with an overpotential of 320 mV at a current density of 10 mA cm −2 and a low Tafel slope of 57 mV dec −1 . The synthesized catalyst also possessed excellent stability, with almost no current drop even after 2000 cycles and at a constant voltage for 2 h.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
+          <t>https://openalex.org/W3089575826</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://doi.org/10.1115/1.4048243</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
+          <t>Feser &amp; Gupta (2020)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3174702919</t>
+          <t>https://openalex.org/W4242534389</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31806/2542-1158-2021-5-2-88-102</t>
+          <t>https://doi.org/10.1353/llt.2019.0028</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Komleva (2021)</t>
+          <t>Smith &amp; Sangster (2019)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>“THE RIGHT TO DEMAND ALL THE BENEFITS OF HUMAN CULTURE”: THE REPORT OF THE MEMBER OF THE YENISEISK CITY DUMA, M.P. MINDAROVSKY, ON THE NEED TO BUILD A RAILWAY TO YENISEISK (1916)</t>
+          <t>Editor's Note</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The article presents the publication of the report of the local City Duma member Mikhail Mindarovsky, which was preserved in the fonds of the Yeniseisk City Archive. The report was read in June 1916 at a meeting of City Duma members in the presence of a representative of the Ministry of Railways, engineer A.M. Vikhman. The text presents the arguments of the supporters of the project of building a railway between the Yeniseisk and Achinsk, which was considered as an integral link necessary for the successful functioning of the Northern Sea Route and ensuring the successful development of the Yenisey Siberia. M.P. Mindarovsky expressed concern about the future fate of Yeniseisk and the adjacent territory, outlined possible prospects for the development of the city, associated with its transformation into a major northern port — a transshipment base for unloading goods from ships arriving through the Arctic Ocean and then transporting them to various regions of Siberia by railway. The author of the report paid special attention to the criticism of the position of some residents of the provincial center, who saw the railway to Yeniseisk as a potential threat to the welfare of Krasnoyarsk. The preserved source expands the existing ideas about the journalistic heritage and social activities of M.P. Mindarovsky, introduces the ideas about the prospects for the development of the northern Siberian regions that are widespread among his contemporaries, and reveals the details of the interaction between the government and society in the development of the Siberian North.</t>
+          <t>Editors' Note Charles Smith and Joan Sangster Transitions. If there has been a driving theme in the teaching and researching of labour and working-class history over the past decade it is clearly one of dealing with broad social and political transitions. Growing out of the New Left movements in the 1960s and early 1970s, labour history found a vibrant community of young scholars eager to engage with the theretofore unwritten and largely forgotten history of working people and their struggles. While it would be inaccurate to argue that academia fully embraced these scholars in its history, sociology, and political science departments, there was certainly a space for labour and working-class history in the larger and expanding curriculum. Today, we find ourselves dealing with a radically transformed environment. While there is no less interest in the study of working people and their struggles by a new generation of scholars, there is far less enthusiasm within academia to build and expand the space for studying working-class history. As the founding generation of labour history scholars moves toward retirement, a series of questions remains for our discipline over the next generation: What is the state of working-class history today? What are the issues, themes, and events that need more – and different – research? How do we celebrate the struggles and scholarship of the past, and put this writing in context, yet also reflect critically on the need for new approaches? What is the future for the study of working-class history? These questions were at the centre of a series of conferences in 2018 and 2019. The first conference, organized by the Canadian Committee on Labour History (cclh), occurred in Saskatoon on 13 and 14 October 2018. Entitled Re-Working Class: Setting a New Agenda for Canadian Labour and Working-Class Histor y, the conference brought together scholars, union researchers, and activists to examine the current state of Canadian labour and working-class history while also seeking to chart strategies for moving our research and writing forward. Over the two days, participants examined critical questions about the teaching of labour history, commemorating past struggles, current writing on class and its intersections with gender and race, and how we might ask new questions in our disciplinary and interdisciplinary research. The Labour/Le Travail editors were part of the organizing committee; we believe that, if the field is to be vital and revitalized, we need these important venues for discussion and debate. Some of the questions posed about teaching in one of the conference panels, in which presenters examined some of the contemporary [End Page 9] challenges of teaching labour history, appear in this edition of Labour/Le Travail. Another cclh conference is now in the making. A second conference took place at the University of Winnipeg in May 2019 commemorating the centennial of the Winnipeg General Strike. Entitled Building a Better World: 1919–2019, the exceptionally organized conference brought together academics, activists, labour union members, and the general public both to explore the history of the strike and to ask new questions about what the struggles of the past can teach us about organizing new struggles today. The Winnipeg General Strike remains a foundational event in Canadian working-class history, which is not to say it is simply celebrated unreflectively or that historians' interpretations of 1919 have not shifted over time. One earlier transition was a special issue of Labour/Le Travail in 1984 (vol. 13), which shifted our discussions of the national, transnational, global, and gendered nature of the post–World War I labour revolt. Recognizing the importance of the Winnipeg General Strike, this issue of Labour/Le Travail provides a snapshot of 1919: we are presenting two poems on 1919, written by George Elliot Clarke and Giovanna Riccio; a previously unpublished speech by Bill Pritchard; and, on our cover, the work of artist Robert Kell, from his Winnipeg 1919 series. Finally, between 21 and 23 June 2019, a third conference, entitled Feminism, History, and Theory, a conference to celebrate the work of Joan Sangster, occurred at Trent University. At the centre of this conference was the foundational work of Labour/Le Travail co-editor Joan Sangster, in...</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231232433</t>
+          <t>https://openalex.org/W2766556291</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7287/peerj.preprints.26578v1/supp-14</t>
+          <t>https://doi.org/10.48550/arxiv.1710.08724</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA (2018)</t>
+          <t>Hong et al. (2017)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Limit theorems for supercritical MBPRE with linear fractional offspring distributions</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tomato yellow leaf curl virus (TYLCV) is one of the most devastating viruses of cultivated tomato in both tropical and subtropical regions. Five major genes (Ty-1, Ty-2, Ty-3, Ty-4 and Ty-5) from wild tomato species have been associated with resistance to TYLCV. Researchers have recently attempted to determine the functions of these resistance genes, but molecular mechanisms underlying the observed resistance remain unclear. Here, resistant (cv. CLN3212A-23, carrying Ty-5) and susceptible (cv. Moneymaker) plants were either left untreated (R and S, respectively) or artificially inoculated with TYLCV via Agrobacterium-mediated transformation (RT and ST, respectively). The transcriptomes of the plants in the four groups were then analyzed by RNA-Seq, and the results identified 8,639 differentially expressed genes (DEGs) between the R and RT groups, 2,818 DEGs between the RT and ST groups, 8,899 DEGs between the S and ST groups, and 707 DEGs between the R and S groups. The gene expression profiles in both the resistant and susceptible tomato cultivars appeared to undergo notable changes after viral inoculation, and functional classification revealed that most DEGs were associated with 18 GO terms. Moreover, the functional classification of the response of Ty-5-carrying tomato plants to TYLCV infection identified the importance of the GO term “response to stimulus” in the BP category, which is related to disease resistance. In addition, 28 genes were significantly enriched in the “Plant hormone signal transduction”, “Carbon metabolism”, “ Carbon fixation in photosynthetic organisms ” and “ Glutathione metabolism ” pathways. The differential expression levels of 12 select genes were confirmed by quantitative real-time PCR. The present study indicates that the Ty-5 gene activates the expression of multiple genes involved in the resistance process and will aid a more in-depth understanding of the effects of the Ty-5 gene on resistance based on its molecular mechanism with the aim of improving TYLCV disease management in tomato.</t>
+          <t>We investigate the limit behavior of supercritical multitype branching processes in random environments with linear fractional offspring distributions and show that there exists a phase transition in the behavior of local probabilites of the process affected by strongly and intermediately supercritical regimes. Some conditional limit theorems can also be obtained from the representation of generating functions.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981541718</t>
+          <t>https://openalex.org/W4205978259</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
+          <t>https://doi.org/10.1007/s10668-021-02078-5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kоshkalda et al. (2019)</t>
+          <t>Vaio et al. (2022)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Innovative development of agricultural enterprises as an economic system</t>
+          <t>The transition towards circular economy and waste within accounting and accountability models: a systematic literature review and conceptual framework</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
+          <t>A transition towards a circular economy is a challenge. It is vital to know that circularity and sustainability are two different segments. So, circular economy can only be achieved in the long-term perspective. This study investigates accounting and accountability for circular economy and waste. Considering these principles and based on a critical review of the literature, economic gains from the transition toward a circular economy are measurable; the problems for corporations and governments are diverse; the way to handle the stakeholders who are losing control in the circular economy is considerable. Diffusion of innovation theory is used to conduct this study. It is essential that an organisational design built should help implement the circular model. Targeted questions responded by adopting a systematic literature review approach by applying PRISMA protocol. This study examines 78 publications in English between 2012 and 2021, which present a map of the circular economy-related knowledge published in web of science and Scopus. Besides, this study includes 03 European Commission reports, 01 Ellen Macarthur Foundation report, 01 Council for the Environment and Infrastructure report, 01 report from SUN IZA, 01 UN Global Compact and 01 the Brundtland Commission report. The results highlight how circular economy, waste management, sustainability, accountability, and management accounting practices help to develop an ecosystem and achieve sustainable development goals of the United Nations 2030 Agenda. Theoretical and practical implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2203581624</t>
+          <t>https://openalex.org/W2615325591</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.scitotenv.2015.12.122</t>
+          <t>https://doi.org/10.1016/j.neuron.2017.04.035</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Niu et al. (2016)</t>
+          <t>Kay &amp; Kozma (2017)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Stomatal uptake of O 3 in a Schima superba plantation in subtropical China derived from sap flow measurements</t>
+          <t>Walter J. Freeman: A Tribute</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Canopy stomatal ozone (O3) flux (Fst,O3) in a plantation of Schima superba, an ecologically and economically important evergreen pioneer tree species in subtropical China, was quantified based on sap flow measurements during a 2-year period. Mean Fst,O3 and accumulated Fst,O3 (AFst0) were significantly higher in wet seasons from April to September (4.62 nmol m(-2) s(-1) and 35.37 mmol m(-2), respectively) than in dry seasons from October to March (3.90 nmol m(-2) s(-1) and 24.15 mmol m(-1), respectively), yet comparable between the 2 years of the experiment, being 4.23 nmol m(-2) s(-1) and 58.23 mmol m(-2) in April 2013-March 2014 and 4.29 nmol m(-2) s(-1) and 60.80 mmol m(-2) in April 2014-March 2015, respectively. At the diurnal scale, Fst,O3 generally peaked in the early to middle afternoon hours (13:00-15:00), while the maximum stomatal conductance (Gst,O3) typically occurred in the middle to late morning hours (09:00-11:00). Monthly integrated AFst0 reached the maximum in July, although accumulated O3 exposure (SUM0) was highest in October. Seasonally or yearly, the accumulated O3 doses, either exposure-based or flux-based, notably exceeded the currently adopted critical thresholds for the protection of forest trees. These results, on the one hand, demonstrated the decoupling between the stomatal uptake of O3 and its environmental exposure level; on the other hand, indicated the potential O3 risk for S. superba in the experimental site. Therefore, the present study endorses the use of sap flow measurements as a feasible tool for estimating Fst,O3, and the transition from the exposure-based toward flux-based metrics for assessing O3 risk for forest trees. Further studies are urgently needed to relate stomatal O3 uptake doses with tree growth reductions for an improved understanding of O3 effects on trees under natural conditions.</t>
+          <t>In the early 1960s, few neuroscientists attempted to model brain function using mathematics. Computers were slow and expensive, so numerical approximations of complex phenomena were out of reach in most cases, and scientists resorted primarily to analytical representations of simpler processes. The study of circuits was not new to Walter J. Freeman. He had started his education studying engineering at MIT (transferring later to the University of Chicago to study English) and was a radio operator in WWII. When he returned from his service, he enrolled in medical school at Yale, where he did his dissertation research under John Fulton. While a postdoc at UCLA in neuropsychiatry, Freeman began to study responses of the olfactory system to shock stimuli. His engineering background and persistent nature led him to the first computational analysis of the olfactory system as a young assistant professor at UC Berkeley. This work carried him from characterizing oscillatory impulse responses and dipole fields within olfactory paleocortical areas in 1959 and the early 1960s to large-scale models of perceptual processing up until the time of his death in April of 2016. Along the way, he was a pioneer in neural networks, introduced the use of nonlinear dynamical systems and chaos theory to study and describe neural systems, and mentored countless scientists worldwide. This work, conducted over 55 years at UC Berkeley, engaged physiologists, physicists, physicians, computer scientists, and philosophers. Freeman’s legacy is multifaceted, covering six decades, nine monographs, and more than 400 papers (see http://massaction.berkeley.edu for a full catalog of papers). His persistence, together with the contribution of many of his colleages, has helped the field of neural oscillations to “come of age” (Buzsáki and Freeman, 2015Buzsáki G. Freeman W. Editorial overview: brain rhythms and dynamic coordination.Curr. Opin. Neurobiol. 2015; 31: v-ixCrossref PubMed Scopus (30) Google Scholar). A short chronology of papers reveals one of the first, if not the first, published computational treatments of a cortical oscillation (Freeman, 1962Freeman W.J. Linear approximation of prepyriform evoked potential in cats.Exp. Neurol. 1962; 5: 477-499Crossref PubMed Scopus (5) Google Scholar). Freeman applied control systems theory to model oscillatory responses to shock stimuli in the pyriform (olfactory) cortical circuit. A model of similar olfactory bulb responses was published in 1968 by Rall and Shepherd. During this part of his career and through the 1980s, Freeman was on a mission to tell neuroscientists to “open up their pass bands” in order to see high-frequency oscillations that had been overlooked due to low-frequency responses of polygraph pen-and-ink technology. With the advent of the digital age, neuroscientists were constrained only by the sampling rate, but for many it took decades to look beyond 20 or 30 Hz. Freeman’s models and mathematical descriptions of cortical systems were based on the idea that populations of neurons influence one another and that this influence can be measured, quantified, and represented by differential equations, which form the foundation for the Freeman-Katchalsky (K) model (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). This modeling approach encompasses deeply structured, multilayer neurodynamics, starting from microscopic cellular mechanisms, through mesoscopic population dynamics, to the macroscopic level, corresponding to hemisphere-wide brain functions and processes. Key to these models is the equation representing the transformation of analog input, in the form of inhibitory or excitatory postsynaptic potentials, to spiking output at the population level, the asymmetric sigmoid nonlinearity or K0 set (Freeman, 1975Freeman W.J. Mass Action in the Nervous System. Academic Press, 1975Google Scholar). Cortical states could then be represented by the slope and inflection point of the sigmoid, which varied with different states of consciousness (deep anesthesia, light anesthesia, waking), producing different slopes in the experimental curves (low to high, respectively). When the slope is steep, the gain is high and fewer neurons are needed to produce a state transition, suggesting that the system can have a richer repertoire of states. Stability analysis using systems control theory allowed Freeman to make predictions about the system, many of which have been shown to be correct over the intervening decades. Several predictions regarding the olfactory bulb circuit and its connections with higher-order areas are notable, because they violated then-current assumptions about neural circuits. It had been assumed since the time of Cajal that mutual excitation or mutual inhibition in cortical circuits would make a system unstable, leading to runaway excitation. Freeman found that both mutual excitation and mutual inhibition were necessary in order to ad</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386435998</t>
+          <t>https://openalex.org/W4395413484</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/magnetism3030020</t>
+          <t>https://doi.org/10.15468/dl.2psy87</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Мушенок et al. (2023)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Two-Step Magnetic Ordering in Intercalated Niobium Dichalcogenide MnXNbS2</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transition metal dichalcogenides are studied due to the possibility of creating nanoscale semiconductor devices, as well as fundamental issues of magnetic ordering. We researched the crystal structure and magnetic properties of niobium dichalcogenide Mn0.30NbS2. The results of the X-ray study showed the possible existence of an intermediate 23a0·23a0 structure between the “basic” superstructures. Also, two local maximums were found in the temperature dependence of the dynamic magnetic susceptibility. These features can indirectly confirm the presence of a transition superstructure and reflect the two-step nature of the magnetic ordering.</t>
+          <t xml:space="preserve">A dataset containing 2001508455 species occurrences available in GBIF matching the query: { "BasisOfRecord" : [ "is one of (Human Observation, Observation, Machine Observation)" ] } The dataset includes 2001508455 records from 27193 constituent datasets: 124 records from Assemblage of living benthic foraminifera in sediment core CD146_55921#1, 63-150 µm. 3 records from 16 - Inventaire général de la flore et de la fonge - DREAL AURA - inventaire général de la flore et de la fonge réalisé sur le terrain. 25 records from Content of coarse fraction and G. menardii in sediment corev V25-43. 5 records from ZAC des Goucheronnes - Inventaire chiroptères. 18 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Especies observadas en Mercedes (Unterkofler, octubre 1999). 83298 records from MICA - Muskrat and coypu camera trap observations in Belgium, the Netherlands and Germany. 35 records from Ferme éolienne de ST JEAN DE LIVERSAY - Données biodiversité_Faune_St Jean de Liversay. 11 records from Gulf of Maine Razorbill Tracking (aggregated per 1-degree cell). 4 records from Nannofossil abundance of Hole 6-53A. 12 records from Nannofossil abundance of Hole 29-283A. 108 records from MIRC NAVFAC Incidental Sightings - Aerial 1965-2014. 319 records from projet centrale photovoltaïque de Selongey - Flore - Inventaire non protocolé. 8 records from Projet de construction d'un site logistique - Inventaire insectes. 26 records from Schulteich Heinrich-Mann-Schule. 810 records from Distribution of Cretaceous and early Danian planktonic foraminifera in ODP Hole 119-738C (Table 1). 439 records from Implementación de la bioindicación en el Río Magdalena - 2015. 3310 records from PELD - PNCA | Dados da ocorrência de plantas lenhosas em uma cronossequência em área de Caatinga, Parque Nacional do Catimbau, Buíque, PE, Brasil. 428 records from Range table from benthic foraminifers in ODP Hole 146-889A. 81 records from Frestoy-Vaux, Mortemer, Rollot - 60/80 - Frestoy-Vaux/Mortemer/Rollot - Chiroptères. 71 records from Invasive plants in Luronium natans habitats in Flanders, Belgium. 168 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 371 records from Bannwald Burghauser Forst. 942 records from Bibliographie de la faune, la flore et la fonge de France métropolitaine et outre-mer - Bulletin du Muséum d'Histoire Naturelle [1895- ]. 3 records from Sarcodine counts and carbon biomass at station TT007_8-CTD99. 78 records from Coccolith counts of multinet M32/5_MSN988. 10 records from ACQUISITION_CBNMC - MARANDON_ONCFS_juin2013. 6704 records from Phytoplankton abundance in surface water during Professor Vodyanitskiy cruise PV30_1. 333 records from Données du Comité Départemental de Protection de la Nature et de l'Environnement de Loir-et-Cher (CDPNE) - Données 2016 Pélobate brun Comité Départemental de Protection de la Nature et de l'Environnement. 33743 records from LiquenCAT: Banco de datos de los líquenes de Cataluña. 80 records from (Table 3) Relative abundances of palynoclasts, palynomorphs and microplankton in ODP Leg 112 samples. 2316 records from Monitoreo de la abundancia, riqueza y biodiversidad de aves del Santuario de Flora y Fauna Galeras de 2009 a 2014. 351 records from (Table 4) Abundance of planktonic foraminifera in ODP Hole 113-690C, small size fraction. 65 records from Meiofauna densities from in situ feeding experiments in the Nazare Canyon conducted with sediments from ROV push-core JC10-95-PUC03. 519 records from Parc éolien de Pougny (Ludmila) - Activité Grues cendrées printemps automne 2018 à 2020 (SEPE LUDMILA). 108 records from Plan de gestion 2017 - 2021 de la Réserve Naturelle Régionale d'Errota Handia (64) mené par le CEN Nouvelle-Aquitaine - Observations d'oiseaux réalisées par le CEN Nouvelle-Aquitaine selon le protocole STOC EPS. 609 records from Abundance of empty diatom frustules measured on water bottle samples at station PS58/092-3. 661 records from Benthic foraminifera and algae abundance of Hole 81-552A. 19 records from Chronicle of Nature - Phenology of Insects of National Park Bashkirija. 181 records from Projet de parc éolien de Comiac - avifaune nicheuse du projet de parc éoIien de Comiac (46). 151 records from Monocotiledóneas del cerro Tacarcuna-Chocó, en el marco del proyecto Colombia BIO 2017. 293 records from Planktic foraminifera abundance of Hole 32-310. 19 records from Dinoflagellate abundance of Hole 81-554. 5420 records from Données des membres de l'Association française d'Arachnologie. 87 records from Artenvielfalt des "Grünen Klassenzimmers". 69 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Lista Narosky: familia Vireonidae. 2814 records from Chronicle of Nature - Phenology of Birds of Pinezhsky State Nature Reserve. 240 records </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3117802593</t>
+          <t>https://openalex.org/W3113430073</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31470/10.31470/2706-7904-2020-15-12-15</t>
+          <t>https://doi.org/10.1016/j.jcis.2020.12.090</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Abysova &amp; Шоріна (2020)</t>
+          <t>Anada et al. (2021)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LINGUO-COMMUNICATIVE DIMENSION OF CULTURAL DIVERSITY</t>
+          <t>Temperature- and composition-dependent conformational transitions of amphipathic peptide–phospholipid nanodiscs</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The article deal with the linguo-communicative analysis of the transformation of the national-civil society under the influence of multiculturalism as a comprehensive legitimation of the cultural plurality practice. The study is based on a hypothesis of the complex and ambiguous nature of the language and culture interactions. «Language-culture» relations encompasses all the layers of the language system, all functions of the language, which leads to the heterogeneity of linguistic units marked by a cultural component. In the modern society, in the «language-culture» relations, the the national-civil culture dominated, unambiguously affecting the language system. However, in the conditions of multiculturalism and the rupture of the national-civil system, traditions and norms of civil culture are weakened, the linguo-cultural balance is being violated, which becomes an open problem of the post-modern society.</t>
+          <t>Nanodiscs are discoidal particles in which a lipid bilayer is encircled by amphipathic molecules such as proteins, peptides, or synthetic polymers. The apolipoprotein-A-I-derived peptide 18A is known to form nanodiscs in the presence of phospholipids, but the detailed mechanism of the formation and deformation of these nanodiscs in response to changes in the surrounding environment is not well understood. Here, we investigated the temperature- and composition-dependent structural changes of 18A–phosphatidylcholine complexes using fluorescence spectroscopy, dynamic light scattering, circular dichroism, static 31P NMR, and electron microscopy. We found that the nanodiscs in fast isotropic rotational motion increased in size above the gel-to-liquid-crystalline phase transition temperature of the lipid bilayers, resulting in the formation of enlarged nanodiscs and a lamellar phase. The lamellar phase was found to be oriented along the magnetic field. Further increase in temperature induced the formation of lipid vesicles. These transformations were explained using a transition model based on the migration of the peptide from the rim of the nanodiscs to the liquid-crystalline bilayer phase. The study outcomes provide a basis for understanding the design principles of discoidal nanostructures for structural biology and nanomedicine applications.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3089575826</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1115/1.4048243</t>
+          <t>https://openalex.org/W2995935289</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Feser &amp; Gupta (2020)</t>
+          <t>Sinan (2019)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
+          <t>Computation of Sylvester and Stein matrix equations' solutions by Iterative Decreasing Dimension Method</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
+          <t>Sylvester matrix equation  and the  Stein matrix equation which have very important applications in the stability analysis of continuous-time and discrete-time linear systems, respectively are studied. The solutions of these equations  be possible  demonstrated by  a number of methods. Been one of them transformation  to the  system of linear equation  was examined. Algorithms that provide transformation to $Ax=f$ system of linear equation was introduced. Iterative Decreasing Dimension  Method ($IDDM$) algorithm was applicated for the solution of the obtained system. The $IDDM$ algorithm has been evaluated according to the Gaussian elimination type algorithms. The $IDDM$ algorithm is evade from  divisor of zero based on its algorithmic structure. Depending on the study, codes for calculation were prepared in the MAPLE program code development environment.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2335346337</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/2654525</t>
+          <t>https://openalex.org/W2518149502</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brown et al. (1998)</t>
+          <t>Low &amp; Pärt (2009)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Recent Social Trends in Russia: 1960-1995</t>
+          <t>population of the endangered New Zealand stitchbird</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The newest volume in the Comparative Charting of Social Change Series, which documents patterns of social change in modernized societies, Recent Social Trends in Russia is a collection of statistical and sociological data on trends in Russian society that have never before been assembled in a comprehensive and systematic manner. It presents an extensive analysis of the major social transformations that took place in Russia both before and after the fall of the Communist system and dispels many illusions about Russian society in the twentieth century. Recent Social Trends in Russia reveals remarkable similarities between emerging trends in Russia and in Western countries during the last thirty-five years. Russian society shows a strong tendency toward modernization, although the speed of change is sometimes slower than in Western industrialized countries. Similar to Western societies, Russia's population is aging, unemployment prevails among the young, and a new class of young professionals is emerging. The institution of marriage is losing its significance, emotional disorders and consumption of mood-altering substances are increasing, and religious beliefs and habits are becoming more diversified. Political upheavals over the last ten or twelve years and the collapse of Communism have not had much effect on the social landscape in Russia. There has, however, been an increase in the influence of Western culture and a violent backlash in fields that underwent forceful modernization. The findings suggest that Russian and Western societies are more similar than one would imagine and contradict the popular conception that Communist Russia fell out of world history for seventy years.</t>
+          <t>Summary 1. Using data from 396 breeding attempts over an 8-year period, we investigated age- and stage specific survival rates and their modifying factors in a closed island population of the New Zealand stitchbird (or hihi, Notiomystis cine ta Du Bus). 2. Survival probability generally increased over time; however, at each life-history transition, survival in the new stage started lower than at the end of the previous stage, creating a 'saw-tooth' function of age-related survival. 3. The probability of an egg hatching was low (0-73 ? 0-01): most likely a consequence of genetic bottlenecks previously endured by this population. There was strong support for a positive relationship between hatching rate and the subsequent survival of the female parent, and hatching success declining for females &gt; 4 years old. 4. Nestling survival probability increased as a function of brood size and days since hatching, and decreased relative to daily maximum ambient temperature and hatching date. Support for models including ambient temperature was greater than for other covariates, with the majority of this temperature-mediated survival effect being restricted to the early nestling stage. 5. Fledglings had low survival rates in the first two weeks after leaving the nest, with post-fledging survival related to the fledgling's mass. Two months after fledging, juvenile survival probability plateaued and remained relatively constant for the following autumn, winter and spring/summer breeding season. There was no effect of sex or season on adult survival probability. However, there was strong support for age-specific variation in adult survival, with survival likelihood increasing during the first four years before showing evidence of a senescence decline. 6. Within-stage survival increases were likely related to stage-specific selection pressures initially weeding out individuals of poorer phenotypes for the environment specific to each life-history stage. Such a mechanism explains the initial high mortality at life-history transitions; a well-adapted pheno type for one stage may not necessarily be so well adapted for subsequent stages. These patterns are not only valuable for examining life-history theory, but also for understanding the regulation of vital rates in an endangered species and providing a basis from which better population manage ment models and harvesting regimes can be derived.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2766556291</t>
+          <t>https://openalex.org/W4396177043</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.1710.08724</t>
+          <t>https://doi.org/10.15468/dl.egwpkx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hong et al. (2017)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Limit theorems for supercritical MBPRE with linear fractional offspring distributions</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>We investigate the limit behavior of supercritical multitype branching processes in random environments with linear fractional offspring distributions and show that there exists a phase transition in the behavior of local probabilites of the process affected by strongly and intermediately supercritical regimes. Some conditional limit theorems can also be obtained from the representation of generating functions.</t>
+          <t xml:space="preserve">A dataset containing 33539388 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Quercus rubra L., Quercus rugosa Née, Quercus stellata Wangenh., Quercus suber L., Quercus velutina Lam., Quercus virginiana Mill., Quesnelia liboniana (De Jonghe) Mez, Radermachera sinica (Hance) Hemsl., Rangaeris muscicola (Rchb.f.) Summerh., Raphanus sativus L., Raphia australis Oberm. &amp;amp; Strey, Raphia farinifera (Gaertn.) Hyl., Reevesia thyrsoidea Lindl., Reineckea carnea (Andrews) Kunth, Reutealis trisperma (Blanco) Airy Shaw, Rhamnus alaternus L., Rhamnus cathartica L., Rhaphiolepis indica (L.) Lindl., Rhapis excelsa (Thunb.) A.Henry, Rheum rhabarbarum L., Rhinella marina (Linnaeus, 1758), Rhodobium porosum (Sanderson, 1900), Rhododendron arboreum Sm., Rhododendron grande Wight, Rhododendron indicum (L.) Sweet, Rhododendron ponticum L., Rhododendron ×pulchrum Sweet, Rhodomyrtus tomentosa (Aiton) Hassk., Rhodosphaera rhodanthema (F.Muell.) Engl., Rhopalosiphum padi (Linnaeus, 1758), Rhopalostylis sapida (Sol. ex G.Forst.) H.Wendl. &amp;amp; Drude, Rhyzobius lophanthae (Blaisdell, 1892), Rondeletia odorata Jacq., Rosa canina L., Roseodendron donnell-smithii (Rose) Miranda, Rotala macrandra Koehne, Rotala rotundifolia (Buch.-Ham. ex Roxb.) Koehne, Rotala wallichii (Hook.fil.) Koehne, Rothmannia urcelliformis (Hiern) Bullock ex Robyns, Roystonea borinquena O.F.Cook, Roystonea regia (Kunth) O.F.Cook, Rubus fruticosus L., Rubus idaeus L., Rumex acetosa L., Ruprechtia coriacea (H.Karst.) S.F.Blake, Russelia equisetiformis Schltdl. &amp;amp; Cham., Ruta graveolens L., Ruttya fruticosa Lindau, Sabal mexicana Mart., Sabal minor (Jacq.) Pers., Sabal palmetto (Walter) Lodd. ex Schult. &amp;amp; Schult.f., Saccharum officinarum L., Cylista ornata (Holdsworth, 1855), Saguinus midas (Linnaeus, 1758), Saguinus oedipus (Linnaeus, 1758), Saimiri sciureus (Linnaeus, 1758), Salix acutifolia Willd., Salix babylonica L., Salix bonplandiana Kunth, Salix cinerea L., Salix mucronata Thunb., Salix nigra Marshall, Salix purpurea L., Salix viminalis L., Salmo salar Linnaeus, 1758, Salmo trutta Linnaeus, 1758, Salvelinus fontinalis (Mitchill, 1814), Salvia coccinea Buc'hoz ex Etl., Salvia farinacea Benth., Salvia leucantha Cav., Sambucus racemosa L., Samia cynthia Drury, 1773, Samolus valerandi L., Sannantha pluriflora (F.Muell.) Peter G.Wilson, Sannantha virgata (J.R.Forst. &amp;amp; G.Forst.) Peter G.Wilson, Dracaena trifasciata (Prain) Mabb., Santalum album L., Santolina decumbens Mill., Sapindus emarginatus Vahl, Sapindus saponaria L., Saponaria ocymoides L., Saraca indica L., Sarotherodon galilaeus (Linnaeus, 1758), Schefflera actinophylla (Endl.) Harms, Heptapleurum arboricola Hayata, Schinopsis balansae Engl., Schinus molle L., Schinus terebinthifolia Raddi, Schismus barbatus (L.) Thell., Schizaphis graminum (Rondani, 1852), Secale cereale L., Sedum nussbaumerianum Bitter, Sedum pachyphyllum Rose, Sehima galpinii Stent, Selaginella flabellata (L.) Spring, Selenocosmia aruana Strand, 1911, Selenocosmia crassipes (L.Koch, 1874), Selenocosmia similis Kulczyński, 1911, Semecarpus anacardium L.fil., Semimytilus patagonicus (Hanley, 1843), Semiricinula tissoti (Petit de la Saussaye, 1852), Sempervivum tectorum L., Senecio macroglossus DC., Senegalia montis-usti (Merxm. &amp;amp; A.Schreib.) Kyal. &amp;amp; Boatwr., Senna appendiculata (Vogel) Wiersema, Senna artemisioides (Gaudich. ex DC.) Randell, Senna bacillaris (L.f.) H.S.Irwin &amp;amp; Barneby, Senna macranthera (DC. ex Collad.) H.S.Irwin &amp;amp; Barneby, Senna pendula (Humb. &amp;amp; Bonpl. ex Willd.) H.S.Irwin &amp;amp; Barneby, Senna siamea (Lam.) H.S.Irwin &amp;amp; Barneby, Senna sophera (L.) Roxb., Senna spectabilis (DC.) H.S.Irwin &amp;amp; Barneby, Senna splendida (Vogel) H.S.Irwin &amp;amp; Barneby, Sequoia sempervirens (D.Don) Endl., Sequoiadendron giganteum (Lindl.) J.T.Buchholz, Serenoa repens (W.Bartram) Small, Sericopelma angustum (Valerio, 1980), Sericopelma rubronitens Ausserer, 1875, Serissa japonica (Thunb.) Thunb., Setaria lindenbergiana (Nees) Stapf, Setaria sphacelata (Schumach.) Stapf &amp;amp; C.E.Hubb. ex Moss, Shelfordella lateralis (Walker, 1868), Sideroxylon foetidissimum Jacq., Silene coronaria (L.) Clairv., Simplaria pseudomilitaris (Thiriot-Quievreux, 1965), Sinapis alba L., Sipha maydis Passerini, 1860, Siphoninus phillyreae (Haliday, 1835), Siphonochilus kirkii (Hook.f.) B.L.Burtt, Sistrurus catenatus (Rafinesque, 1818), Smilax anceps Willd., Solanum betaceum Cav., Solanum crinitum Lam., Solanum diphyllum L., Solanum laxum Spreng., Solanum lycopersicum L., Solanum melongena L., Solanum muricatum Aiton, Solanum tuberosum L., Solanum wendlandii Hook.fil., Soleirolia soleirolii (Req.) Dandy, Solidago canadensis L., Sophora tetraptera J.F.Mill., Sophora velutina Lindl., Sorbus aucuparia L., Sparaxis bulbifera (L.) Ker Gawl., Sparaxis elegans (Sweet) Goldblatt, Sparaxis tricolor (Schneev.) Ker Gawl., Spathiphyllum cannifolium (Dryand. ex Sims) Schott, Sphaerobothria hoffmanni </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200213484</t>
+          <t>https://openalex.org/W2596446178</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d1cp05353a</t>
+          <t>https://doi.org/10.1002/2016jc012478</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Huang et al. (2022)</t>
+          <t>Fransson et al. (2017)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
+          <t>Effects of sea‐ice and biogeochemical processes and storms on under‐ice water &lt;i&gt;f&lt;/i&gt;CO&lt;sub&gt;2&lt;/sub&gt; during the winter‐spring transition in the high &lt;scp&gt;A&lt;/scp&gt;rctic &lt;scp&gt;O&lt;/scp&gt;cean: Implications for sea‐air CO&lt;sub&gt;2&lt;/sub&gt; fluxes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
+          <t>Abstract We performed measurements of carbon dioxide fugacity ( f CO 2 ) in the surface water under Arctic sea ice from January to June 2015 during the Norwegian young sea ICE (N‐ICE2015) expedition. Over this period, the ship drifted with four different ice floes and covered the deep Nansen Basin, the slopes north of Svalbard, and the Yermak Plateau. This unique winter‐to‐spring data set includes the first winter‐time under‐ice water f CO 2 observations in this region. The observed under‐ice f CO 2 ranged between 315 µatm in winter and 153 µatm in spring, hence was undersaturated relative to the atmospheric f CO 2 . Although the sea ice partly prevented direct CO 2 exchange between ocean and atmosphere, frequently occurring leads and breakup of the ice sheet promoted sea‐air CO 2 fluxes. The CO 2 sink varied between 0.3 and 86 mmol C m −2 d −1 , depending strongly on the open‐water fractions (OW) and storm events. The maximum sea‐air CO 2 fluxes occurred during storm events in February and June. In winter, the main drivers of the change in under‐ice water f CO 2 were dissolution of CaCO 3 (ikaite) and vertical mixing. In June, in addition to these processes, primary production and sea‐air CO 2 fluxes were important. The cumulative loss due to CaCO 3 dissolution of 0.7 mol C m −2 in the upper 10 m played a major role in sustaining the undersaturation of f CO 2 during the entire study. The relative effects of the total f CO 2 change due to CaCO 3 dissolution was 38%, primary production 26%, vertical mixing 16%, sea‐air CO 2 fluxes 16%, and temperature and salinity insignificant.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380877901</t>
+          <t>https://openalex.org/W2065595477</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
+          <t>https://doi.org/10.1016/j.pmatsci.2004.07.001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rani et al. (2023)</t>
+          <t>Ma (2005)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
+          <t>Alloys created between immiscible elements</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
+          <t>The development and understanding of alloys is one of the most important themes of physical metallurgy. Over the past four decades, the progress in modern processing techniques has enabled researchers to artificially create an increasing number of new alloys in systems that are immiscible in thermodynamic equilibrium. This possibility of alloying elements between which no alloys exist in nature offers exciting opportunities for many physics, chemistry, and materials science endeavors. One of the obvious questions that needs to be answered is exactly what kind of alloys have been, and can be, obtained in these systems with positive heat of mixing, in terms of the uniformity, the presence of short-to-medium range chemical and topological order/clustering, and the energy state of the new alloy phases. This issue was not adequately addressed before because, until recent years, simple diffraction measurements constituted the main method for the characterization of the alloys produced. In this article, we survey the alloys created in binary systems with positive heat of mixing. Our emphasis is on a systematic examination of the atomic-level structure, and calorimetric determination of the positive enthalpy of mixing, of several model binary alloys created between immiscible elements, covering both amorphous and crystalline solid solutions. Vapor-deposited alloys will be our primary focus, but alloys prepared via other processing routes or modeled in computer simulations will also be discussed. The experimental characterization results recently obtained using local environment probes will be reviewed, together with the insight gained through computer atomistic simulations. The local structures uncovered will be correlated directly with the thermodynamic properties. A full account of the thermodynamic and kinetic aspects of the phase selection and the details of the transformation mechanisms involved, on the other hand, is a much broader subject to be dealt with in a separate review.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W194969759</t>
+          <t>https://openalex.org/W2394288604</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Martins &amp; Costa (2014)</t>
+          <t>Zhu (2007)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
+          <t>Developing the Non-official Organizations and constructing the Socialist Harmonious Society</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
+          <t>The development of the non-official organizations which is also called the third system,not only may effectively promote the transformation of the government function and the formation of the autonomy social order,but also can cultivate the people's citizen consciousness and the cooperation spirit,provide the realization condition for the people to fulfill the moral ideally.We must fully know the great significance of developing the non-official organizations,process the relations between the non-official organizations and the government,the enterprise,and the overseas non-official organizations.We must fully pay attention to the non-official organizations' nature of ethics,consummate the organizations' internal management mechanism in order to effectively promote the socialist harmonious society's construction.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2994567979</t>
+          <t>https://openalex.org/W2028358655</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/ctt.0.0035</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IuV et al. (2013)</t>
+          <t>Klingner (2009)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[Reactive oxygen forms and Ca ions as possible intermediaries under the induction of heat resistance of plant cells by jasmonic acid].</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>The participation of reactive oxygen species (ROS) and calcium ions in realization of influence of exogenous jasmonic acid (JA) on the heat resistance of wheat coleoptiles has been investigated. Influence of 1 microM JA caused the transitional intensifying of generation of superoxide anion-radical (O2*-) and hydrogen peroxide in coleoptiles with the maximum within 15-30 minutes after the treatment beginning. Within the first hour after the beginning of coleoptiles treatment with JA the increase of superoxide dismutase (SOD) activity was noted. Later on (within 5-24 hours after the treatment beginning) there was the lowering of ROS generation by coleoptiles of experimental variant, and the SOD activity approached the control value. Intensifying of generation of superoxide radical induced by JA was suppressed by the antioxidant ionol and was partially levelled by imidazole (inhibitor of NADPH-oxidase), EGTA (chelator of extracellular calcium) and lanthanum chloride (calcium channels blocker). Pretreatment of coleoptiles with the ionol, imidazole, EGTA and LaC3l3 also partially removed the effect of increase of their resistance to the damaging heating caused by exogenous JA. It is supposed that the ROS generated with participation NADPH-oxidase, which activity depends on the receipt of calcium ions from extracellular space in the cytosol, are involved in realization of physiological effects of JA.</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer Donald E. Klingner Introduction Technology transfer concerns the exogenous adaptation of innovations from their place of origin to other organizations, countries, or regions. As the articles in this issue of Comparative Technology Transfer and Society illustrate, the sustainability of diffused innovations depends heavily upon local contexts, requires innovative and flexible adaptation strategies, and results in diverse outcomes. Economic pressures and increasingly global research interests prompt universities around the world to focus on the commercial potential of their faculties’ research. One result is academic spin-offs. These have varied widely in effectiveness, leading researchers to investigate why some succeed while others have not. In the first article in this issue (University Spin-Offs as Technology Transfer: A Comparative Study among Norway, the United States, and Sweden), Norwegian scholar Alf Steinar Sætre and his co-authors assess the comparative effect of universities’ efforts capitalize on faculty inventions in these three countries. They identified four key dimensions—university relations, government-support mechanisms, industry relations, and equity funding—as central elements in all cases. Interestingly, they also concur with other researchers’ (Julnes &amp; Holzer, 2001; Landry, Lamari, &amp; Amara, 2003) conclusion that the distinctive and varied faculty-research cultures make it difficult for university technology transfer offices to cooperate effectively and consistently with government agencies and venture capitalists. In fact, they conclude that these offices seem to impede the development of startups and spin-offs as often as they help. The authors certainly suggest that increased competencies and a greater understanding of the innovation process among those who dole out grants might diminish waste and increase the effectiveness of government-support systems designed to advance the commercial prospects of technologies originating in universities. Technology transfer has played a similarly significant yet ambiguous role in national economic development. In the second article (Political Impediments to Technological Diffusion in Northeast Brazil, 1909–1964), historian Eve Buckley uses the case study of water-management projects in northeastern Brazil to study these effects. Beginning in the 1930s, Brazilian reformers sought to replicate the success of the Tennessee Valley [End Page vii] Authority (TVA) in the United States by using similar water-management projects to reduce drought, increase agricultural productivity, and generate electric power in the large northeastern region of their country. While the TVA had achieved tremendous success at using water-management infrastructure improvements not only to achieve economic objectives, but also changes in the political and social culture of Appalachia during the 1930s (Selznick, 1966), the Brazilian projects did not replicate these results. Paradoxically, although the water projects were intended to reduce the imbalance of wealth and power, their actual effect was to increase it. Infrastructure improvements (e.g., dams, roads, and irrigation canals) increased the security of landowners, their crops and their cattle, but did not reduce the poorest inhabitants’ vulnerability to drought or to the exploitative demands of their landowning patrons. In sum, Buckley concludes that underlying political and social factors (e.g., land ownership and class structure) trumped the otherwise admirable agricultural and economic objectives of moderate reformers and strengthened the argument of more radical reformers, who had unsuccessfully pushed for land redistribution in addition to infrastructure improvements. As always, this case demonstrates how local circumstances influence the outcome of international transfer projects designed to promote economic development. Economic-development literature generally supports this conclusion. While problems in one country may seem similar to those in another, most analysts (Borins, 1998; Jones &amp; Kettl, 2003) are well aware that solutions that are effective in one context may not succeed in another. Thus the term “smart practices” (Bardach, 2000) is preferable to the more commonly used “best practices,” because smart practices bring into view the need to adapt in order to sustain exogenous innovations. While we can learn much from comparative studies, applying what we learn must always take account of a number of variables specific to the local receiving context (Jabbra &amp; Dwivedi, 2004). In this case, this awareness helps explain why reform has ascended in the political agendas of some nations but not others (Barzelay, 2001, 2003). Smart-practice policy making emphasizes first elucidating and then reducing the mechanisms and factors that inhibit adaptation to contingency and...</t>
         </is>
       </c>
     </row>
@@ -1373,5581 +1378,5573 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2116178833</t>
+          <t>https://openalex.org/W2006993849</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/forestry/cpp023</t>
+          <t>https://doi.org/10.1016/j.chemphyslip.2014.06.003</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Macdonald et al. (2009)</t>
+          <t>Benesch et al. (2014)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The effects of transformation of even-aged stands to continuous cover forestry on conifer log quality and wood properties in the UK</t>
+          <t>A DSC and FTIR spectroscopic study of the effects of the epimeric 4,6-cholestadien-3-ols and 4,6-cholestadien-3-one on the thermotropic phase behaviour and organization of dipalmitoylphosphatidylcholine bilayer membranes</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>There is an increasing move in the UK to transform even-aged, single-species conifer plantations to continuous cover forest, i.e. more diverse and irregular stand structures. However, experience of doing this is limited and research to date has not addressed the consequences of this change on timber quality. This paper reviews the impact of transformation on timber quality and wood properties and uses coupled growth and timber property model simulations to examine the effects of different transformation scenarios on Sitka spruce (Picea sitchensis (Bong.) Carr.). The results of the modelling broadly confirmed the conclusions from the literature review. Five key aspects of transformation are considered. Retaining trees to older ages can produce higher quality timber with improved mechanical properties. Regular selective thinning and increased use of crown thinning will improve timber quality, but timing is critical to avoid producing highly tapered trees with heavy branches. Creating gaps in a uniform canopy will generally have a negative impact on the timber quality of the trees around the gap edges. Increased variation in tree age, size, spacing and species will result in greater variation in log quality and wood properties. Using natural regeneration reduces the opportunities for improved growth and timber quality offered by selectively bred planting stock but can deliver good-quality timber if the characteristics of the original stand are suitable and adequate stocking is achieved. The main conclusion of this review is that transformation to continuous cover forestry will not lead to a significant reduction or improvement in the quality of timber being produced in forests in the UK. The main effect will probably be to increase the variation of log sizes and wood properties that are available in the market.</t>
+          <t>We present the results of a comparative differential calorimetric and Fourier transform infrared spectroscopic study of the effect of cholesterol and five analogues on the thermotropic phase behaviour and organization of dipalmitoylphosphatidylcholine bilayer membranes. These sterols/steroids differ in both the nature and stereochemistry of the polar head group at C3 (βOH, αOH or C=O) and in the position(s) of the double bond(s). In the Δ(5) sterols/steroid series, the concentration of these compounds required to abolish the DPPC pretransition, inversely related to their relative ability to disorder gel state DPPC bilayers, decreases markedly in the order βOH&gt;αOH&gt;C=O. However, in the Δ(4,6) series, these concentrations are similar, regardless of polar head group chemical structure. Similarly, the residual enthalpy of the DPPC main phase transition at 50mol% sterol/steroid, which is inversely related to the miscibility of these compounds in the DPPC bilayer, also increases in the order βOH&gt;αOH&gt;C=O, but this effect is attenuated in the Δ(4,6) series. In the two pairs of sterol epimers, the Δ(4,6) compounds exhibit a greater decrease in the temperature and enthalpy of both the pretransition and the main phase transition, whereas the opposite result is observed in the ketosteroid pair. Similarly, the ability of these compounds to order the DPPC hydrocarbon chains decreases in the order βOH&gt;αOH&gt;C=O in both series of compounds, but in the two pairs of sterol epimers, hydrocarbon chain ordering is greater for the Δ(5) than the Δ(4,6) sterols, whereas the opposite is the case for the steroid pair. Thus, the characteristic effects of sterols/steroids on fluid lipid bilayers are optimal when an OH group rather than C=O group is present at C3, and when this OH group is in the equatorial orientation. We suggest that the presence of keto-enol tautomerism in the conjugated Δ(4,6) ketosteroid may provide additional H-bonding opportunities to adjacent DPPC molecules in the bilayer, which results in more cholesterol-like effects.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3116970065</t>
+          <t>https://openalex.org/W3197221739</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31111/vegrus/2020.39.3</t>
+          <t>https://doi.org/10.46340/eppd.2021.8.4.15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Лиханова et al. (2020)</t>
+          <t>Prykhozhanov (2021)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Syntaxonomy of plant communitiesat the quarriesafter the cuttingsof lichen and green mosspine forests(middle taiga subzone of the European North-East of Russia)</t>
+          <t>LEGAL AND SOCIAL RESPONSIBILITY OF BUSINESS</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Plant communities of sandy (quarry 3 — 62°05ʹ26ʺ N, 48°43ʹ56ʺ E; 6 — 61°57ʹ35ʺ N, 50°36ʹ22ʺ E) and sandy loam (1 — 62°06ʹ28ʺ N, 48°48ʹ48ʺ E; 2 — 62°06ʹ19ʺ N, 48°48ʹ42ʺ E; 4 — 62°04ʹ36ʺ N, 48°34ʹ55ʺ E; 8d — 61°44ʹ00ʺ N, 50°39ʹ05ʺ E) quarries and the surrounding lichen and green-moss pine forests quarries are charaterized. The research has been performed in the middle taiga subzone of the European North-East of Russia. Floristic classification (Braun-Blanquet, 1964) was made for 91 relevés. The Ellenberg ecological values (Ellenberg, 1974) were used to assess moisture (F), acidity (R) and nitrogen content (N). Ordination was made by NMS approach using ExcelToR software. Plant communities of renewing and young pine stands at the quarries as well as of surrounding middle aged and mature stands are assigned to the alliance Cladonio stellaris–Pinion sylvestris Kielland-Lund ex Ermakov et Morozova 2011 order Pinetalia sylvestris Oberdorfer 1957 class Vaccinio-Piceetea Br.-Bl. in Br.-Bl. et al. 1939 (Ermakov, Morozova, 2011) while communities of meadow succession stage to the union Cynosurion cristati Tx. 1947 order Arrhenatheretalia elatioris class Molinio-Arrhenatheretea Tx. 1937 (Mirkin, Naumova, 2012). Five associations, two subassociations, one variants, two subvarants and one community are established within two classes (among these, two associations. one variants, two subvariants and one community are new). Community Polytrichum piliferum (Table 3, rel. 1–7). DS: Ceratodon purpureus, Cladonia subulata, C. fimbriata, Niphotrichum canescens, Polytrichum piliferum, Salix acutifolia. These are pioneer communities at the second decade stage of succession on sandy substrate. (quarry 3) with recovering Pinus sylvestris tree layer, absence of herb-dwarf shrub layer and. presence of pioneer mosses (Polytrichum piliferum, Ceratodon purpureus), algal crusts, and lichen thalli of Cladonia, Peltigera, and Stereocaulon. Number of species — 32 (13–20). Ass. Polytricho piliferi–Pinetum sylvestris ass. nov. hoc loco (Table 3, rel. 8–30; nomenclature type (holotypus hoc loco) — rel. 18; Fig. 4). DS: Ceratodon purpureus, Cladonia gracilis ssp. turbinata, C. fimbriata, C. subulata, C. verticillata, Niphotrichum canescens, Peltigera malacea, Polytrichum piliferum, Salix acutifolia, Stereocaulon tomentosum. These are renewing pine forests at 3rd and 5th decades of succession with ground cover dominated by pioneer mosses and lichens in sandy quarries 3 and 6, and in the most drained habitats of sandy loam quarries 1, 2, 4 (slopes). Pine canopy density is 0.1–0.3, its height — 3–6 m. Herb-dwarf shrub layer is scarce (1– 10 %), that of moss-lichen is of 20–80 %. Number of species — 111 (27–45). Subass. Deschampsio–Agrostietum tenuis typicum Turubanova 1986. D S : Agrostis tenuis, Deschampsia cespitosa, Galium mollugo, Hieracium umbellatum, Leucanthemum vulgare, Pimpinella saxifraga, Stellaria graminea. These are communities of short meadow succesion stage at the sandy loam quarries 1, 2, 4, 8d. Unlike meadows of abandoned lands and pastures, described by L. P. Turubanova (1986) as subass. Deschampsio–Agrostietum tenuis typicum, the communities on technogenic habitats have lower abundance of meadow species and higher diversity of synanthropic and xerophylous species, as well as tree invasion. This is a reason to establish variant Calamagrostis epigeios (Table 4, Fig. 5) within the subass. typicum. Its DS: Betula pendula/pubescens, Calamagrostis epigeios, Ceratodon purpureus, Chamaenerion angustifolium, Erigeron acris, Pinus sylvestris, Tussilago farfara. Multispecies herb layer is mainly formed by meadow species and weeds (20–80 %). PC of moss layer — 1–50 %. Number of species — 103 (30–41). Duration of meadow stage is responsible for differences between subvariants Amoria hybrida and Trifolium medium. Ass. Polytricho juniperini–Pinetum sylvestris ass. nov. hoc loco (Table 5, nomenclature type (holotypus hoc loco) — rel. 9; Fig. 6). D S : Agrostis tenuis, Amoria repens, Brachythecium salebrosum, Orthilia secunda, Peltigera didactyla, Polytrichum juniperinum, Pyrola media, Trifolium medium, Vicia sepium. These communities are young pine stands at the third decade of succession on sandy loam in quarries 1, 2, 4, 8d. Canopy density of pines — 0.4–0.8, height — 4–8 m. There is a lot of species typical for meadow succession stage in scarce herb layer (5–40 %). as well as an occurrence of forest dwarf shrubs, and few species indicative to ass. Linnaeo borealis–Pinetum sylvestris. Moss-lichen layer (10–60 %) is formed by pioneer species and forest mosses. Number of species — 137 (27–67). NMS-ordination (Fig. 7) and data on substrate preferences of syntaxa as well as information about the duration of recovery process is the reason to built a scheme of vegetation succession in quarries in place of reduced pine trees after the cutting of lichen and green moss pine forests (Fig. 8). Series 1. Community Polytrichum piliferum (F 4.1, N 3.5, R 3.8</t>
+          <t>The problem of offenses and legal liability for them occupies one of the leading places in legal science.Such negative phenomena as embezzlement of the state budget, corruption, withdrawal of funds offshore, the monopoly position of business in the market, etc. require special attention.The reasons for the current situation, if the analysis of the reasons for the existence of the oligarchic mafia is limited to legislation in the field of reform, are their declarativeness, aimed at solving pseudo rather than real problems.Hence the inefficiency of legislative decisions, the transformation of the fight against the above negative phenomena in its simulation.The Draft Law of Ukraine "On Prevention of Threats to National Security Related to Excessive Influence of Persons with Significant Economic or Political Weight in Public Life (Oligarchs)" provides for the establishment of the Register of Persons with Significant Economic or Political Weight in Public Life (Oligarchs) ), determining the procedure for inclusion of persons in the Register and the consequences of such inclusion, introduction of declaring by public servants of contacts with persons included in the specified Register.It is projected that the implementation of the Law will affect those who have significant economic and political weight in public life (oligarchs) and their associates, as well as public servants.We have developed a model of organization of economic activity, in the conditions of which it is impossible to cause harm to the state in all the above areas.The essence of these organizational conditions requires separate consideration.It is clear that such conditions should be enshrined in the bill on de-oligarchization.This is, so to speak, the first block of issues of the bill on de-oligarchization.Such conditions should be enshrined in the bill on de-oligarchization.In addition to the above conditions, the bill on de-oligarchization should contain mechanisms to increase the social responsibility of oligarchs.Keywords: anti-corruption legislation, additional bodies of control over authorities, oligarchic mafia, embezzlement of the state budget, corruption, withdrawal of funds offshore, monopoly position of business.Introduction.The problem of offenses and legal liability for them occupies one of the leading places in legal science.Such negative phenomena as embezzlement of the state budget, corruption, withdrawal of funds offshore, the monopoly position of business in the market, etc. require special attention.But, despite the understanding of these problems by the current authorities, the adoption of anti-corruption legislation, the creation of appropriate structures for governance reform, the establishment of special (additional) bodies to combat these negative phenomena, assistance in reforming our foreign partnerstendencies to overcome the above offensesno observed.On the contrary, corruption in government, embezzlement of the state budget, monopoly in the economy, distortion of competition, and the volume of market monopolization are not decreasing, but, on the contrary, are increasing.Review of works on this issue.In the legal literature, issues related to the fight against the oligarchic mafia, the analysis of legislative acts in the field of reform, the declarative nature of existing acts and bills were practically not considered.Theoretical issues related to economic and legal responsibility of business were considered by well-known experts in business law, namely: O. Vinnyk, D. Zadykhailo, O. Zeldina, J. Petrunenko, O. Podtserkovnyy, V. Ustimenko, O. Shapovalova, S. Shishkin, V. Shcherbini, etc.At the same time, the country now needs to study the problems of responsibility, especially big business in business relations.In our opinion, insufficient attention is paid to the issues of social and legal responsibility of business.The purpose of this article is, first, to analyze and develop proposals to improve the concept of the draft law of Ukraine "On prevention of threats to national security associated with excessive influence of persons who have significant economic or political weight in public life (oligarchs)".Secondly, it is a study of the problems of responsibility, especially big business in business relations.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020196749</t>
+          <t>https://openalex.org/W4254358626</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.precamres.2009.03.015</t>
+          <t>https://doi.org/10.1080/10934529109375627</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Heaman et al. (2009)</t>
+          <t>Brown &amp; Hosseinipour (1991)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Timing and geochemistry of 1.88Ga Molson Igneous Events, Manitoba: Insights into the formation of a craton-scale magmatic and metallogenic province</t>
+          <t>New methods for modeling the transport of metals from mineral processing wastes into surface waters</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>The timing and origin of Paleoproterozoic mafic and ultramafic magmatism in the NW Superior craton is important for constraining the tectonic evolution of this margin during formation and closure of the 2.1–1.8 Ga Manikewan Ocean. An important component of this magmatism is the 1.88 Ga Molson Igneous Events, which comprise the Molson dyke swarm, various ultramafic sills and mafic volcanic rocks located in both the Fox River and Thompson Nickel belts, northern Manitoba. Many Molson dykes have relatively flat primitive mantle-normalized patterns, overlapping the compositions of coeval mafic/ultramafic volcanic rocks and sills in northern Manitoba, supporting a common origin. Six new U–Pb zircon ages were obtained for mafic and ultramafic units and one monzogranite from both within and external to the TNB. Within the TNB the 1876.7 ± 5.1 Ma Paint Lake pyroxenite sill provides further evidence that at least some ultramafic magmatism associated with nickel mineralization is linked to Molson Igneous Events. A deformed monzogranite unit encountered in a drill hole located at Mystery Lake East has a U–Pb zircon age of 1874.6 ± 3.4 Ma and provides further evidence for the generation of contemporaneous felsic and ultramafic magmas along the Superior margin. External to the TNB, magmatism linked to Molson Igneous Events has been confirmed within the TNB transition zone (1885.2 ± 2.1 Ma Bear Island dyke, Sipiwesk Lake) and up to 100 km east of the TNB, for example the 1900.0 ± 5.8 Ma Wakehao Lake and 1884.5 ± 3.8 Ma Molson Lake dykes. Molson Igneous Events span a period of approximately 25 m.y. but the majority of magmatism is short-lived; emplaced within the narrow time span of about 8 m.y. between 1885 and 1877 Ma. The tectonic setting of Molson Igneous Events is intriguing as it occurs at a convergent margin during initiation of oceanic arc formation and closure of the Manikewan Ocean. This magmatism is relatively short-lived (&lt;20 m.y.), has a dominantly MORB-like chemical and neodymium isotopic composition, and can be traced into the highly deformed Thompson Nickel Belt where it forms sediment–sill complexes associated with Ni–Cu mineralization. The majority of the northern Superior craton margin, including the Thompson Nickel Belt, Fox River Belt, Cape Smith Belt and the New Québec Orogen, share a strikingly similar Paleoproterozoic evolution with two periods of mafic/ultramafic magmatism at ∼2.2–2.1 and 1.90–1.87 Ga, similarity in basalt geochemistry, and the development of ∼1.88 Ga fine-grained sediment–sill complexes that are host to significant nickel mineralization. The similarity in the timing and geochemistry of the 1.88 Ga mafic/ultramafic magmatism and its location along the western, northern and eastern Superior Province margin, extending for more than 3000 km, is interpreted to indicate Molson Igneous Events are linked to a unique and widespread Paleoproterozoic depleted mantle melting phenomena. Possible tectonic settings include development of a series of contemporaneous continental back-arcs during convergence and subduction of Manikewan oceanic crust or more likely passive upwelling of asthenosphere focused along the thinned margin of the Superior craton.</t>
+          <t>Abstract The estimation of contaminant fluxes into and within river basins is the aim of this research. These new methods for estimating contaminant loadings and fate on a comprehensive river basin scale based on assembled subsite behaviors have been demonstrated for a collection of Superfund sites in the Upper Clark Fork River basin in Montana. This portion of the demonstration illustrates a new set of techniques for estimating the overland and surface‐water movement of mine waste constituents. A linked assessment system — consisting of contaminant transformation, non‐point source and groundwater mixing and transport, surface hydrology and erosion, and surface‐water quality models — has been developed, written, tested, and applied at the site. Principle portions of this assessment system are described. The object of this project is to show the importance of a comparing phenomenological hypotheses with field observations for large‐scale exposure models. Graphs of the river copper concentration show a good fit between the measured and predicted concentrations at some stations whereas substantial deviations from field measurements are observed at other stations along the course of the river. Key words: mine tailingsoverburdenslag</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2113935898</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1744-697x.2009.00174.x</t>
+          <t>https://openalex.org/W2182504154</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Satô (2010)</t>
+          <t>Ciriaci &amp; Palma (2009)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fecal acetone and isopropanol levels of wild sika deer (&lt;i&gt;Cervus nippon yesoensis&lt;/i&gt;) in spring and winter</t>
+          <t>Geography, environmental efficiency and economic growth: how to uncover localised externalities through spatial econometric modelling</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abstract Recently, the population of Cervus nippon yesoensis , a subspecies of sika deer, has been increasing in Hokkaido, Japan. The food habits and alimentary fermentation of sika deer change dramatically with season, with food primarily composed of bark in winter, and grasses and woody leaves for the remainder of the year. To investigate the relationship of colonic fermentation in the deer with food changes, fresh fecal samples were collected in March with lingering snow, and during a verdurous period in June. Fecal alcohol, acetone, ammonia and volatile fatty acids (VFAs) were analyzed after extracting the samples with water. With the change in food from winter to spring, ethanol level decreased while acetone and isopropanol levels increased in the majority of fecal samples. In June, higher n‐butyrate levels and a lower proportion of minor VFAs containing branched acids were found, with an accompanying tendency toward higher total VFA level. Thus, alterations of colonic fermentation occurred in conjunction with the transition from winter to spring food in wild sika deer.</t>
+          <t>Over the past fifteen years an increasing interest has risen for assessing the extent to which the pursuit of economic growth and a cleaner environment are convergent rather than conflicting objectives. The present paper aims to test the hypothesis that environmental degradation and per capita income follows an inverted-U-shaped relationship (the so-called Environmental Kuznets Curve) at the Italian Nut3 level, a more than intermediate framework between macroeconomic and microeconomic considerations, over the period 1990-2005. We adopt a spatial econometric approach by means of which it is possible to account for the localised nature of environmental and knowledge externalities. In this spatial-adapted EKC, we explicitly introduced the role of structural change. The experiment is expected to highlight major differences between geographical clusters from the point of view of ecological efficiency depending on the strength of the underlying industrial structure (i.e. agglomerated areas of cumulative growth due to dynamic increasing returns) and to enhance further local differences depending on the local character of the different air pollutants considered.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2749959281</t>
+          <t>https://openalex.org/W3122140202</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
+          <t>https://doi.org/10.1111/raju.12116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mohan et al. (2017)</t>
+          <t>Corradetti (2016)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
+          <t>Kant's Legacy and the Idea of a Transitional &lt;i&gt;Jus Cosmopoliticum&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
+          <t>Ratio JurisVolume 29, Issue 1 p. 105-121 Notes • Discussions • Book Reviews Kant's Legacy and the Idea of a Transitional Jus Cosmopoliticum Claudio Corradetti, Claudio Corradetti claudio.corradetti@jus.uio.no University of Oslo, Department of Public and International Law, Karl Johans gt. 47, N-0162 Oslo, Norway Earlier versions were presented at the Prague Conference on Philosophy and Social Science, 22–25 May 2014; at the Nordic Network in Political Theory, Oslo, 2 November 2013; and at the Conference Transitional Cosmopolitanism, Oslo, 3–4 March 2014. For comments and suggestions I would like to thank A. Wood for guidance on crucial paragraphs, as well as F. Zaumseil, S. Baiasu, M. Kumm, A. Ferrara, S. Langvatn, H. Williams, R. Maliks, A. Føllesdal, G. Cesarale, and H. Pedersen. Any remaining errors are mine. This article is prepared under the auspices of MultiRights, European Research Council Advanced Grant #269841 at the University of Oslo, Norway.Search for more papers by this author Claudio Corradetti, Claudio Corradetti claudio.corradetti@jus.uio.no University of Oslo, Department of Public and International Law, Karl Johans gt. 47, N-0162 Oslo, Norway Earlier versions were presented at the Prague Conference on Philosophy and Social Science, 22–25 May 2014; at the Nordic Network in Political Theory, Oslo, 2 November 2013; and at the Conference Transitional Cosmopolitanism, Oslo, 3–4 March 2014. For comments and suggestions I would like to thank A. Wood for guidance on crucial paragraphs, as well as F. Zaumseil, S. Baiasu, M. Kumm, A. Ferrara, S. Langvatn, H. Williams, R. Maliks, A. Føllesdal, G. Cesarale, and H. Pedersen. Any remaining errors are mine. This article is prepared under the auspices of MultiRights, European Research Council Advanced Grant #269841 at the University of Oslo, Norway.Search for more papers by this author First published: 23 February 2016 https://doi.org/10.1111/raju.12116Citations: 3 Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Citing Literature Volume29, Issue1March 2016Pages 105-121 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2135444824</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/intmag.1992.696377</t>
+          <t>https://openalex.org/W3026230934</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tang et al. (1992)</t>
+          <t>Darwin et al. (2020)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rare-earth transition metal carbides</t>
+          <t>Opening Up for Managing Business and Societal Challenges</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The intrinsic magnetic properties of rare-earth transition-metal compounds have been found to improve dramatically with nitrogen and carbon additions which are made through the gas-phase interstitial modification proceess. In this work, we have obtained rare-earth transition metal carbides with the 2:17 and 1:12 structures using methane and ethane. They intrinsic magnetic properties of these compounds have been studied and the results will be reported.</t>
+          <t>Firms submitted corporate challenges relating to digital business models across several industries, and a_x000D_
+community of academic experts and open innovation practitioners solve it. _x000D_
+Challenge #1: SAP (Conducting “Horizon 3” transformational experiments through learning fast/fail fast approaches) _x000D_
+Challenge #2: SALESFORCE (Expanding through the creation of ecosystems in new unchartered markets) _x000D_
+Challenge #3: ERICSSON (Creating new business opportunities leveraging emerging 5G technologies) _x000D_
+Challenge #4: PNO (Overcoming bottlenecks that block the successful use of open innovation within organizations)_x000D_
+_x000D_
+The following report details description of the discussions conducted during each industry session and the specific solutions emerged from the audience brainstorming and already briefly presented to the companies at the end of each session. Moreover, we provide a short presentation of more general recommendations that result from a cross-analysis of all the companies presenting their challenges at WOIC 2019, but go beyond them and can be considered by industry at large, and concern:_x000D_
+a. Innovation Platform and Ecosystem_x000D_
+b. Data and Other Infrastructures_x000D_
+c. Understanding the Problems and Contexts_x000D_
+d. Company Ambassadors</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2911952093</t>
+          <t>https://openalex.org/W2077963920</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.32461/2226-3209.4.2013.138059</t>
+          <t>https://doi.org/10.1016/s0927-6513(96)00052-1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shevchenko (2013)</t>
+          <t>Serrano et al. (1996)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>The Role of the Modern Ukrainian Family in the Formation of Cultural Identity</t>
+          <t>Evidence of solid-solid transformations during the TS-1 crystallization from amorphous wetness impregnated SiO2TiO2 xerogels</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The article deals with the formation of cultural identity in modern Ukrainian family, analyzes the role of family socialization features. Considerable attention is given to cultural and educational potential of the family and its influence on the cultural identity formation. Process of identity formation is always largely determined by the specific socio-cultural factors which were shaped by centuries of historical development. Family as a social institution deserves priority attention among those fundamental factors. Family – first principle of society. It is a certain social group in which most individual characteristics of the parents , their children and other family members showed through their behavior and personality development which are formed with self-knowledge, self-actualization and socialization of its members. Family by its characteristics is a social structure that goes through various stages of growth and development and through improved performance of its functions. It enriches the treasury of material and spiritual values of the people. The material and moral responsibility of family members to each other and to society is the main feature on the basis of these theoretical studies , modern family has to become a key element in the individual`s education and socialization. Proceeding with historical and modern conceptions of identity, a person in the epicenter of culture, is the highest spiritual value which becomes it`s spiritual essence and a part of humanity. The person develops it through culture. The cultural essence of personality is the backbone component of its integrity. Cultural values in the socio-cultural sphere are achieved by the beliefs of humanity that were formed and still continue to grow in the transformation of the socio-historical situation. The succession of generations is a process of mutual transfer, assimilation, storage and use of material and spiritual values, social information and experience of previous generations where the family plays an important role. The family in Ukraine fells under the influence of transformation of socio-cultural and political processes and transformations. They reflect on it and led to significant changes in their functioning. Socio-economic conditions of life appear in the relationship: increasing conflict, collapsing the established ethical principles of operation of the complete family. Dysfunctions increased in economic, legal and moral vulnerability of families, reducing their role in the socialization and education of children. This affects today's youth significantly. This effect is motivated by emotion, culture, internal rules and possibilities of family resources. However, the modern Ukrainian family does not realize it`s great educational potential. It depends on many social factors , especially economic life marked both positive and negative trends. This feature needs detailed analysis of trends, opportunities and constraints for the implementation of the educational potential of Ukrainian families. It ensures the development of the individual in the modern world. Therefore, the study of socio-cultural and psycho-educational situation in the family upbringing of the young generation has to become a basis for further development of public policy in education. The content of individual’s education in modern Ukrainian family should be integrated into national and humanist culture of the people in Intercontinental area. Content of education should reflect and establish the highest national and universal value orientation in the minds of modern and young people: spiritual, cultural, humanistic, ethical, aesthetic, physical, social and labor. It should also reflect the practice of modern Ukrainian family in the independent state. Based on these theoretical studies, the modern family is a major element in the education of contemporary identity and in shaping its culture. In Ukrainian family, it`s ideas were always clearly distinguished and rooted in the depths of people's life, minds, work and creativity. At all times ideals of the family were the highest and most sacred for our people. Family was considered to be a fundamental principle of human life, a kind of fortress, which provided development and protection of personality’s best qualities, including: labor as the most complete form of expression and creativity of human capabilities, sources of wealth and pleasure; spirituality as a synthetic form of understanding the world and ourselves in the same high moral dimension of creative and humane attitude to the environment and people. Ukrainian family has to cultivate such qualities of character and personality characteristics as: respect for parents and family devotion, commitment to mutual support , formation of national consciousness and identity, love for the land and people, formation of high language culture, respect the culture, customs and traditions of the peoples who inhabit the Ukraine, and the peoples of the world. F</t>
+          <t>The crystallization mechanism of TS-1 has been investigated when this Ti-containing material is obtained from amorphous SiO2TiO2 solids impregnated with TPAOH solutions followed by thermal treatment under autogenous pressure. Samples with different degrees of crystallinity have been prepared and characterized by elemental analysis, X-ray diffraction (XRD), infrared (IR) and diffuse reflectance ultraviolet visible (DR UV-Vis) spectroscopies, scanning and transmission electron microscopy (SEM and TEM), n-hexane adsorption and catalytic tests of n-hexane oxyfunctionalization. In contrast to the classical mechanism proposed to describe the zeolite synthesis through a mediated solution process, in the system studied here the TS-1 crystallization is mainly governed by solid-solid transformations, and a true crystal growth step is not observed. The major role of the solution is to provide the TPA+ species necessary to complete the solid crystallization and to favour the migration of the secondary particles. During the first stages of the synthesis, a small amount of the raw material is dissolved yielding soluble Ti-rich species (SiTi = 5), which are no longer involved in the crystallization. Simultaneously, the starting polymeric SiO2TiO2 cogel is converted into a particulate amorphous material formed by a tight packing of primary particles with sizes around 50 nm. In a subsequent step, the latter are aggregated leading to secondary particles that become independent of the cogel as they reach a critical diameter of 0.5–0.7 μm. Once individualized, the secondary particles undergo a zeolitization process, being gradually transformed into TS-1 crystals of approximately the same size. In addition, the coordination of Ti sites become tetrahedral as the crystallization progresses due to the higher connectivity between Ti and Si atoms existing in the TS-1 network compared to the raw amorphous xerogel.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2490211392</t>
+          <t>https://openalex.org/W2087278084</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/chol9780521816052</t>
+          <t>https://doi.org/10.1115/1.1641778</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brown &amp; Tackett (2006)</t>
+          <t>Cantwell &amp; Moulden (2004)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The Cambridge History of Christianity</t>
+          <t>Introduction to Symmetry Analysis</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>During the tumultuous period of world history from 1660 to 1815, three complex movements combined to bring a fundamental cultural reorientation to Europe and North America, and ultimately to the wider world. The Enlightenment transformed views of nature and of the human capacity to master nature. The religious reawakenings brought a revival of heartfelt, experiential Christianity. Finally revolution, the political and social upheavals of the late eighteenth and early nineteenth centuries, challenged established ideas of divine-right monarchies and divinely ordained social hierarchies, and promoted more democratic government, notions of human rights and religious toleration. A new religious climate emerged, in which people were more likely to look to their own feelings and experiences for the basis of their faith. During this same period, Christianity spread widely around the world as a result of colonialism and missions, and responded in diverse ways to its encounters with other cultures and religious traditions.</t>
+          <t>1R8. Introduction to Symmetry Analysis. - BJ Cantwell (Sch of Eng, Stanford Univ, Stanford CA 94305). Cambridge UP, Cambridge, UK. 2002. 612 pp. Softcover, CD-Rom incl. ISBN 0-521-77740-2. $50.00. Also available in Hardcover ISBN 0-521-77183-8; $130.00.Reviewed by TH Moulden (Dept of Aerospace Eng, Univ of Tennessee Space Inst, BH Goethert Pkwy, Tullahoma TN 37388-8897).The application of Lie group theory is far from ubiquitous in engineering courses. Mathematics has of course, long been familiar with the topic (for example see such standard texts as PJ Oliver (1986), Applications of Lie Groups to Differential Equations, Springer-Verlag or PE Hydon (2000), Symmetry Methods for Differential Equations, Cambridge University Press). As such the text under review is a very welcome addition to the engineering literature and one that should be widely adopted. The book is intended for beginning graduate students in engineering and the applied sciences. The author notes that most problems of interest to those fields are nonlinear problems. The study of nonlinear problems requires all the tools that are available in order to obtain insight into the structure and properties of such physical situations. Closed form solutions are usually not available for such equations. The book under review starts with a short chapter on the history of group theory and its applications to the subject at hand. A more detailed history here is IM Yaglon (1988), Felix Klein and Sophus Lie, Birkhauser, quoted by Cantwell as well as the more recent book T Hawkins (2000), Emergence of the Theory of Lie Groups, Springer-Verlag. The first formal chapter introduces symmetry and the basic symmetry groups of interest in the remainder of the text. Some of these symmetries are continuous (as in the properties of homogeneity and isotropy characterized by translation and orthogonal groups) and some discrete (as associated with specific geometric objects). Since an important physical phenomenon is the breaking of a continuous translational symmetry into a discrete symmetry, both types of symmetry must be discussed. One of the classical tools in any engineering study is dimensional analysis and Chapter 2 is devoted to its application in selected problems. It is here that insight into the physics of the problem under study becomes essential. The text does a good job, throughout, of comparing the group methods with this dimensional analysis (Section 10.3 being an example) and other standard techniques. Chapter 3 moves onto review the classical background from the theory of differential equations (both ordinary and partial) needed for the rest of the text. Of particular importance for certain applications is the study of critical points (Section 3.9) in the phase space of a dynamical system. The application in Section 13.6 to the local flow structures in turbulence being a case in point (ad makes contact with such work as that of AE Perry and MS Chong (1987), A Description of Eddying Motions and Flow Patterns Using Critical Point Concepts, Annual Review Fluid Mechanics, Vol 19, pp 125-155, as well as Cantwell’s own work. Chapter 4 treats classical dynamics mostly from the Hamiltonian viewpoint. This is mostly a review of classical material, along with examples, rather than a text on the subject. The cosmological two-body problem is treated in some detail. One-parameter Lie groups are introduced in Chapter 5 while Chapter 6 applies this theory to first order ordinary differential equations. The Lie algebra of a Lie group (and its importance) is introduced in Chapter 5. Thus, in local kinematics the Lie algebra SO3 associated with the spin tensor maps (via the exponential function) to the Lie group SO3; thus relating vorticity to fluid rotation. The reader may find that more background in Lie theory is required beyond what is provided by the text. Previous familiarity with algebra would be of utility, at this point, to provide background to some of the algebraic structures needed (the classic: IN Herstein (1975), Topic in Algebra, Wiley, would serve here and the recent text: A Baker (2002), Matrix Groups, Springer-Verlag, also provides some mathematical structure for special cases). After an introduction of the notation for differential functions in Chapter 7, Chapter 8 treats ordinary differential equations of higher order from the Lie viewpoint while Chapter 9 extends this to partial differential equations. Higher order differential equations can be treated by means of successive reductions of order. The middle section of the book (Chapters 1-13) applies the techniques developed in the early chapters of the book to problems in fluid mechanics. Chapter 10 addresses the classical boundary layer theory, Chapter 11, incompressible flows in general, Chapter 12 compressible in viscid flows, and Chapter 13 the turbulent shear flow. The boundary layer concept in fluid mechanics is about 100 years old now and Prandtl’s equations have been an essential feature of a</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3037811040</t>
+          <t>https://openalex.org/W2896774911</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
+          <t>https://doi.org/10.1016/j.accinf.2018.09.002</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ibáñez et al. (2020)</t>
+          <t>Troshani et al. (2018)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
+          <t>Digital transformation of business-to-government reporting: An institutional work perspective</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
+          <t>Traditional business-to-government reporting is a core remit of the accounting function but is associated with a significant administrative burden on business. This burden is a major obstacle hindering business efforts to achieve core efficiency and innovation objectives. We use the conceptual lens of institutional work to examine how traditional business-to-government reporting is abolished and how digital reporting is established to replace it in attempts to reduce administrative burden but without compromising regulation effectiveness. We adopt a comparative approach to analyse qualitative evidence from three jurisdictions, namely, Netherlands, United Kingdom, and Australia. Regulators across these jurisdictions have been both pioneers and leaders internationally to transform business-to-government reporting in multi-agency settings. Our analyses illustrate how institutional work to develop digital business-to-government reporting across the jurisdictions was shaped by international influences and local factors. We also illuminate how actor engagement issues and the intertwined and mutually reinforcing nature of a mosaic of forms of institutional work shaped the path of these transformations. The study contributes to existing research by explaining how supportive conditions and structures are brought about and made to coalesce in the regulatory business reporting space for digital reporting to become established and widely adopted by business.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318253710</t>
+          <t>https://openalex.org/W3132688281</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/2022av000735</t>
+          <t>https://doi.org/10.1021/acs.nanolett.0c05080</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hassenruck‐Gudipati et al. (2023)</t>
+          <t>Lv et al. (2021)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Moisture Sources and Pathways Determine Stable Isotope Signature of Himalayan Waters in Nepal</t>
+          <t>High-Throughput Screening of Synergistic Transition Metal Dual-Atom Catalysts for Efficient Nitrogen Fixation</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Abstract The Himalayan mountain range produces one of the steepest and largest rainfall gradients on Earth, with &amp;gt;3 m/yr rainfall difference over a ∼100 km distance. The Indian Summer Monsoon (ISM) contributes more than 80% to the annual precipitation budget of the central Himalayas. The remaining 20% falls mainly during pre‐ISM season. Understanding the seasonal cycle and the transfer pathways of moisture from precipitation to the rivers is crucial for constraining water availability in a warming climate. However, the partitioning of moisture into the different storage systems such as snow, glacier, and groundwater and their relative contribution to river discharge throughout the year remains under‐constrained. Here, we present novel field data from the Kali Gandaki, a trans‐Himalayan river, and use 4‐year time series of river and rain water stable isotope composition (δ 18 O and δ 2 H values) as well as river discharge, satellite Global Precipitation Measurement amounts, and moisture source trajectories to constrain hydrological variability. We find that rainfall before the onset of the ISM is isotopically distinct and that ISM rain and groundwater have similar isotopic values. Our study lays the groundwork for using isotopic measurements to track changes in precipitation sources during the pre‐ISM to ISM transition in this key region of orographic precipitation. Specifically, we highlight the role of pre‐ISM precipitation, derived from the Gangetic plain, to define the seasonal river isotopic variability across the central Himalayas. Lastly, isotopic values across the catchment document the importance of a large well‐mixed groundwater reservoir supplying river discharge, especially during the non‐ISM season.</t>
+          <t>Great enthusiasm in single-atom catalysts (SACs) for the nitrogen reduction reaction (NRR) has been aroused by the discovery of metal–Nx as a promising catalytic center. However, the poor activity and low selectivity of available SACs are far away from the industrial requirement. Through the first-principles high-throughput screening, we find that Fe–Fe distributed on graphite carbon nitride (Fe2/g-CN) can manipulate the binding strength of the target reaction species (compromises the ability to adsorb N2H and NH2), therefore achieving the best NRR performance among 23 transition metal (TM) centers. Our results show that Fe2/g-CN achieves a high theoretical Faradaic efficiency of 100% and, impressively, the lowest limiting potential of −0.13 V. Particularly, multiple-level descriptors shed light on the origin of NRR activity, achieving a fast prescreening among various candidates. Our predictions not only accelerate discovery of catalysts for ammonia synthesis but also contribute to further elucidate the structure–performance correlations.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2212573107</t>
+          <t>https://openalex.org/W4237430678</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1646/0006-3606(2001)033[0048:satvic]2.0.co;2</t>
+          <t>https://doi.org/10.1016/0550-3213(96)00242-8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Villegas (2001)</t>
+          <t>Morrison &amp; Vafa (1996)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Spatial and Temporal Variability in Clonal Reproduction of Aechmea magdalenae, a Tropical Understory Herb1</t>
+          <t>Compactifications of F-theory on Calabi-Yau threefolds. (I)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Clonal reproduction is a common feature in tropical herbaceous plants and has been shown to be important for recruitment and population maintenance. Although numerous phenological responses (i.e., leaf flushing, flowering, and fruit maturation) have been shown to be associated with seasonality in the tropics, little is known about the relationship between seasonality and levels of clonal reproduction. I examined the temporal and spatial variation in clonal reproduction and its potential trade-off with growth and survival for a tropical understory herb, Aechmea magdalenae (André) André ex Baker, Handb. Bromel (Bromeliaceae). I addressed the following questions: (1) how do vegetative growth, survival, and clonal reproduction (i.e., rhizome and ramet production) vary between seasons and between years?; (2) how do these factors differ among populations?; and (3) do simulated dry and wet season light levels cause similar variation in rosette survival and vegetative and clonal reproduction, as found in natural populations? Rhizome and ramet production in A. magdalenae was found to be highly influenced by seasonality. During the transition from dry to wet season, there was a significant decrease in survival and a significant increase in clonal reproduction, and rosettes tended to grow at a slower rate. Rosettes in the location with the longest dry season had significantly lower survival, higher clonal reproduction, and a slower growth rate. Clonal reproduction also started at smaller rosette sizes in the most seasonal forest. When light levels were manipulated, rhizome and ramet production were significantly greater under the high light conditions, and rosette growth (change in longest leaf length) was significantly lower. Results from this study suggest that A. magdalenae responds to higher light levels by shifting investment from vegetative growth to clonal reproduction. Possible implications of this response to light for population demography are discussed.</t>
+          <t>We study compactifications of F-theory on certain Calabi-Yau threefolds. We find that N = 2 dualities of type II/heterotic strings in 4 dimensions get promoted to N = 1 dualities between heterotic string and F-theory in 6 dimensions. The six-dimensional heterotic/heterotic duality becomes a classical geometric symmetry of the Calabi-Yau in the F-theory setup. Moreover the F-theory compactifacation sheds light on the nature of the strong coupling transition and what lies beyond the transition at finite values of heterotic string coupling constant.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556968239</t>
+          <t>https://openalex.org/W2749959281</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5751/es-01595-110118</t>
+          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Olsson et al. (2006)</t>
+          <t>Mohan et al. (2017)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
+          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
+          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2026250138</t>
+          <t>https://openalex.org/W4285597977</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11606-015-3255-0</t>
+          <t>https://doi.org/10.48550/arxiv.2207.06539</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Callahan (2015)</t>
+          <t>Caloz et al. (2022)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Opening the Door to Transgender Care</t>
+          <t>Generalized Space-Time Engineered Modulation (GSTEM) Metamaterials</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>This issue of the Journal of General Internal Medicine showcases an intriguing and uncommon article: “Electronic Health Records and Transgender Patients—Practical Recommendations for the Collection of Gender Identity Data.”1 Readers who currently see no transgender or transsexual (now commonly referred to as trans) patients may wonder why this paper was selected for publication. While the common belief has been that trans patients needed to be referred to endocrinologists or other specialists, there is now increasing recognition that quality primary care can be provided by general internists and others who are willing to expand their practice by engaging in dialogue with the patient and others committed to caring for trans patients. Another common belief in the past was that trans people were universally committed to full medical and surgical transition. The trans patients seeking care now appear to vary widely on how few or how many transition services they seek. Significant expansion and personalization of trans care is critical in efforts to reduce health disparities for these populations._x000D_
-_x000D_
-The pressing need to reduce health disparities for those with marginalized sexual orientation and/or gender identity was brought to public attention with the publication of a committee report from the Institute of Medicine (IOM; 2011).2 That report documented serious health disparities in lesbian, gay, and bisexual (LGB) populations, prompting recognition of the medical profession’s ethical responsibility to reduce those disparities.3 Ironically, almost fully absent from the IOM report was the T in LGBT: trans populations. The near silence on trans health stems from the fact that there were so few data on the health of trans populations. In its report, the IOM committee recommends increased efforts to document the gender identity of patients seen in routine care as well as the gender identity of those responding to surveys. Since less than 0.5 % of the population is reputed to be trans, why is this a critical issue for readers of this journal?_x000D_
-_x000D_
-First, while gender identity disorders have not yet been the focus of formal epidemiologic studies, Atkins et al.4 contend that clinic-referred samples suggest an increasing prevalence. Reviewing ten years of data, Blosnich et al.5 reached the same conclusion: they found that the frequency of gender identity diagnoses in the Veteran’s Administration health care system nearly doubled from 2002 through 2011. That remarkable increase is prompting new VA initiatives to enhance care for trans patients, including new programs to reduce trans suicidality. Existing data cannot clarify whether the overall incidence of gender dysphoria has increased or whether the noticeable difference reflects more people becoming open about their gender identity. In addition to more individuals appearing to accept and acknowledge their gender identities, it is likely that the Affordable Care Act has increased access to primary care for many trans patients who had little or no access to care in the past._x000D_
-_x000D_
-Second, there is a strong cultural stigma against trans people that often negatively impacts their health. There is evidence of bullying and violence against trans people that begins in the early years, sometimes even within the family, and continues throughout life;6 this violence often extends to trans people being the target of sexual violence. Perhaps most importantly, the cultural rejection of children and adults who exhibit cross-gender behavior and/or appearance has permeated the health care environment._x000D_
-_x000D_
-Two recent surveys document common negative experiences of trans people seeking health care. An online survey conducted by Lambda Legal7 found that nearly 27 % of trans people surveyed reported that they had been denied the health care they sought because of their gender identity. Further, while 21 % reported verbal abuse by their provider, almost 8 % reported that they had experienced rough or physically abusive treatment by a health care professional. In that survey, trans patients reported far higher levels of mistreatment than LGB patients, even higher than the rates reported by HIV-positive patients. It is unknown how many trans patients have stopped seeking care because of their experience at the hands of primary care providers, but it is clear that there is a need for quality improvement in care for trans patients._x000D_
-_x000D_
-To better understand the health needs of sexual minority patients in California, the state Department of Public Health developed a collaborative online survey that was completed by over 3,000 lesbian, gay, bisexual, transgender, queer, and questioning (LGBTQ) individuals.8 The survey results revealed that 75 % of respondents agreed with the statement, ”I have experienced emotional difficulties such as stress, anxiety or depression which were directly related to my sexual orientation or gender identity/expression,” sowing the seeds for increased risk for a variety of</t>
+          <t>This article presents a global and generalized perspective of electrodynamic meta-materials formed by space and time engineered modulations, which we name Generalized Space-Time Engineered Modulation (GSTEM) Metamaterials, or GSTEMs. In this perspective, it describes metamaterials from a unified spacetime viewpoint and introduces accelerated metamaterials as an extra type of dynamic metamaterials. First, it positions GSTEMs in the even broader context of electrodynamic systems that include (non-modulated) moving sources in vacuum and moving bodies, explains the difference between the moving-matter nature of the latter and the moving-perturbation nature of GSTEMs, and enumerates the different types of GSTEMs considered, namely Space EMs (SEMs), Time EMs (TEMs), Uniform Space-Time EMs (USTEMs) and Accelerated Space-Time EMs (ASTEMs). Next, it establishes the physics of the related interfaces, which includes direct-spacetime scattering and inverse-spacetime transition transformations. Then, it exposes the physics of the GSTEM metamaterials formed by stacking these interfaces and homogenizing the resulting crystals; this includes an original explanation of light deflection by USTEMs as being a spacetime weighted averaging phenomenon and the demonstration of ASTEM light curving and black-hole light attraction. Finally, it discusses some future prospects. Useful complementary information and animations are provided in the Supplementary Material.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2966245669</t>
+          <t>https://openalex.org/W4398180468</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.55612/s-5002-060-001</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Laurent et al. (2019)</t>
+          <t>Banerjee &amp; Petersen (2024)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SURFER - What is the burden of raw materials requirements to achieve the French energy transition?</t>
+          <t>Key elements, processes and research gaps in city learning as an innovation ecosystem: A scoping review.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>In a time of climate emergency, European and worldwide agreements have recently set ambitious targets for reducing our greenhouse gases emissions (GHG), leading the states to engage in an energy transition, that is to say the shift from an energy mix relying on fossil and nuclear fuels to a mix mostly relying on renewables. Such shift requires to massively and quickly build a large number of renewable energy production facilities (e.g. wind turbines, solar panels…), but also to adapt the existing energy distribution system (e.g. with energy storage options) and to modify the final use equipment (e.g. building heating systems, electric vehicles…). Th is shift's consequences on raw demand will not be neutral regarding base materials such as steel, concrete, copper or aluminium, and minor metals (lithium, cobalt, rare earth elements…), raising a polemic question: will the energy transition replace the reliance on fossil fuels by a reliance on metals? The SURFER project aims to evaluate the burden of raw materials requirements to achieve the French energy transition over the period 2015-2050. First, a database gathering the requirements of the different energy technologies has been developed and analysed in order to establish a relevant material intensity for each technology and each metal. The annual materials requirements are then calculated based on national energy transition scenarios (50, 80 and 90% of renewable energy plus a status quo scenario). As well, the annual waste from end-of-life technologies is calculated. Among the challenges that this evaluation raises, one is: how to take into account the dynamic aspects of raw consumption and due to the dismantling of energetic infrastructures? It is here proposed to describe the material-specific model used in SURFER, that both accounts for the content of input materials and for the recycling rate of output materials. The goal is to compare, over time, the demand of the energy transition scenarios to the recycled materials available when to old energetic facilities reach end-of-life. In the next task of the project, the burden borne by the energy transition will be weighed against the French consumption regarding all manufactured goods ; finally, the last task will discuss the criticity of these materials and metals. Theme : Climate Change, Energy transition and Materials</t>
+          <t>Learning in cities with the support of Information and Communication Technologies has been a point of interest for researchers. The main objective of this study is to understand city learning, or learning in cities, where cities are considered learning and innovation ecosystems. This study explores how learning in cities is supported by existing frameworks for city transformations and identifies the key elements and processes for city learning as an innovation ecosystem. The study defines city learning as a process involving citizens, institutions, and communities and considers the city to be a system that can learn and innovate. The study conducts a scoping review of relevant literature and a qualitative analysis of the key characteristics of the frameworks, such as how they view the city, how they address learning, what interactions they focus on, and how they use Information and Communication Technology. The study identifies the main concepts, the key elements and processes in city learning and the current research gaps. The key elements and interactions are then described with reference to a conceptual model of the city ecosystem, and the elements are mapped with required processes to drive city learning. The findings from this study can help ascertain how a city can learn as an innovation ecosystem and can be beneficial for achieving twin transitions of the city and lifelong learning</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2659153566</t>
+          <t>https://openalex.org/W2067486173</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1299/jsmekanto.2005.11.163</t>
+          <t>https://doi.org/10.2753/pet1061-1991380276</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nomura et al. (2005)</t>
+          <t>Leksin et al. (1995)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20610 Development of a joint test robot system</t>
+          <t>Economic Relations and Government Under Federalism</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>The objective of the present study was to develop a novel 6 degree of freedom (DOF) robotic system for knee joint biomechanics. A manipulator driven with 6 AC servo-motors originally developed by Sekito and Fujie et al. was utilized. Homogeneous transformation matrices as well as Jacobian transformation matrices were determined to describe the kinematic and kinetic relationship between the knee joint and manipulator. A hybrid position/force control was possible on a personal computer in the C-language programming environment with a new operating system (KNOPPIX+RTAI). In addition, a laser digitizer has been developed for the digitization of the 3-dimensional position of bony landmarks. This allowed for a precise fixation of the femoral and tibial coordinate systems to the femur and tibia. A passive flexion test preliminarily performed for a porcine knee joint indicated that the knee was successfully flexed while allowing natural joint motion. It is suggested that the developed robotic system is useful for the knee joint biomechanical tests.</t>
+          <t>Abstract The economic reform and the transformation of regional relations is both a new topic and, at the same time, one that is being actively addressed by Russian specialists.1 After analyzing several publications and comparing researchers' views against the practical regulation of regional economic relations, it is very useful to view the key problem of combining the principles of organization of the market economy with the principles of federalism and local self-government from the position of modern demands. This is an exceptionally complex and internally contradictory problem of a sociopolitical, socioeconomic, and organizational-legal nature. Most of the clashes that accompany it originate and are continuously reproduced only because economic laws subordinate to general market laws must be realized under conditions of the existence of the complex and multitiered structure of regional organization of society (the state)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978443926</t>
+          <t>https://openalex.org/W2520358059</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.273.38.24693</t>
+          <t>https://doi.org/10.1016/j.jinsphys.2016.09.005</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Takatsu et al. (1998)</t>
+          <t>Cheng et al. (2016)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Identification and Characterization of Novel Clathrin Adaptor-related Proteins</t>
+          <t>Cloning of heat shock protein genes (hsp70, hsc70 and hsp90) and their expression in response to larval diapause and thermal stress in the wheat blossom midge, Sitodiplosis mosellana</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. endoplasmic reticulum trans-Golgi network polymerase chain reaction expressed sequence tag hemagglutinin normal rat kidney brefeldin A ADP-ribosylation factor polyacrylamide gel electrophoresis guanosine 5′-O-(thiotriphosphate) base pair(s). In eukaryotic cells, transport of proteins between membrane-bound compartments along the exocytic and endocytic pathways involves coated carrier vesicles that bud from a donor compartment and fuse with a target acceptor compartment(s) (for review, see Refs. 1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar). The vesicle budding process is initiated by recruitment of coat proteins from the cytosol onto the donor membranes. To date, three classes of coated transport vesicles have been unequivocally characterized (1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar): COP II-coated vesicles bud from the endoplasmic reticulum (ER)1; COP I-coated vesicle coats assemble onto cisternae of the Golgi apparatus and onto the intermediate compartment between the ER and the Golgi; and clathrin-coated vesicles containing the AP-1 and AP-2 adaptor complexes bud from the trans-Golgi network (TGN) and the plasma membrane, respectively. Both the clathrin adaptor complexes are composed of two large subunits, a medium chain, and a small subunit: β1(β′)-adaptin, γ-adaptin, μ1 (AP47), and ς1 (AP19) in AP-1; and β2 (β)-adaptin, α-adaptin, μ2 (AP50), and ς2 (AP17) in AP-2 (for review, see Refs. 6Keen J.H. Annu. Rev. Biochem. 1990; 59: 415-438Crossref PubMed Scopus (170) Google Scholar and 7Pearse B</t>
+          <t>Sitodiplosis mosellana Géhin, one of the most important pests of wheat, undergoes obligatory diapause as a larva to survive unfavorable temperature extremes during hot summers and cold winters. To explore the potential roles of heat shock proteins (hsp) in this process, we cloned full-length cDNAs of hsp70, hsc70 and hsp90 from S. mosellana larvae, and examined their expression in response to diapause and short-term temperature stresses. Three hsps included all signature sequences of corresponding protein family and EEVD motifs. They showed high homology to their counterparts in other species, and the phylogenetic analysis of hsp90 was consistent with the known classification of insects. Expression of hsp70 and hsp90 were highly induced by diapause, particularly pronounced during summer and winter. Interestingly, hsp70 was more strongly expressed in summer than in winter whereas hsp90 displayed the opposite pattern. Abundance of hsc70 mRNA was comparable prior to and during diapauses and was highly up-regulated when insects began to enter the stage of post-diapause quiescence. Heat-stressed over-summering larvae (⩾30 °C) or cold-stressed over-wintering larvae (⩽0 °C) could further elevate expression of these three genes, but temperature extremes i.e. as high as 45 °C or as low as −15 °C failed to trigger such expression patterns. Notably, hsp70 was most sensitive to heat stress and hsp90 was most sensitive to cold stress. These results suggested that hsp70 and hsp90 play key roles in diapause maintenance and thermal stress; the former may be more prominent contributor to heat tolerance and the latter for cold tolerance. In contrast, hsc70 most likely is involved in developmental transition from diapause to post-diapause quiescence, and thus may serve as a molecular marker to predict diapause termination.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4252736260</t>
+          <t>https://openalex.org/W4388464346</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4337/9781788972727.00005</t>
+          <t>https://doi.org/10.1029/2023jb027265</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NA (2020)</t>
+          <t>Jiao et al. (2023)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Foreword</t>
+          <t>Global Cooling‐Driven Summer Monsoon Weakening in South China Across the Eocene‐Oligocene Transition</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Natural resources have fuelled the great economic growth stories of the last century (UNEP 2016).This growth, in turn, has improved living standards around the world and enabled many of the most successful industries.But this model has reached its limits.To further increase prosperity in Europe and beyond, we need to create a new kind of economy according to the principles of a 'decoupling' paradigm that delinks development from resource use and impacts.One of the most powerful instruments in moving towards decoupling prosperity from material resource dependence is the circular economy.And the rationale is there: the transition to a circular economy carries enormous, underdeveloped, possibilities.It can significantly reduce environmental and health impacts while boosting economic development in industrialized and developing countries.Estimates by the International Resource Panel show that concerted resource management and efficiency measures can boost economic growth by 8 per cent globally by 2060 over a business-as-usual scenario.The potential is much larger if we fully embrace the decoupling transition by employing it as the general innovation principle across sectors and ministries.The transition is really without an alternative.Continuing with the historical model of consumption and production we currently live in would far overshoot the planet's capability to host humanity.The Global Resource Outlook 2019, published by the UN International Resource Panel, reveals that the extraction and processing of natural resources causes 90 per cent of global land use-related biodiversity loss and water stress, and more than 50 per cent of global climate change impacts.About 20 per cent of greenhouse gas (GHG) emissions are caused by the extraction and processing of metals and non-metallic minerals alone.This trend became particularly pronounced as, somewhat counterintuitively, global average resource productivity started to decline around 2000 and has stagnated in recent years due to a structural production shift from more to less resource-efficient countries.At the same time, high-income countries are becoming more and more dependent on resource imports: in 2017 the average person in high-income countries used 9.8 tons of primary materials mostly produced and processed elsewhere in the world.This reliance has been increasing at a rate of 1.6 per cent per year since 2000 (IRP 2019).Shifting production and consumption into a circular model is still an underrated instrument for managing the most urgent challenges of humanity.This is apparent when one examines the challenge to limit global heating to well under 2°C (Paris Agreement) with intent to not surpass 1.5°C.Material production -specifically of steel, non-ferrous metals, chemicals, non-metallic minerals -plays a central role in this challenge.These processes are particularly energy-and emissions-intensive and tricky to decarbonize through pure production and energy focused solutions.Decarbonizing material production would become an even bigger challenge in the future, as without urgent action the world is expected to consume up to 190 billion tonnes of materials (including biomass) by 2060.In</t>
+          <t>Abstract Recent research has suggested that East Asia has experienced a prevailing monsoon climate since the Eocene. However, there is little knowledge about the development of the East Asian monsoon system before the Miocene, particularly in southern China, due to a lack of well‐dated continuous sediment records. Here, we present new magnetic proxy records from International Ocean Discovery Program Site U1501 in the northern South China Sea. We conducted rock magnetic experiments, made scanning electron microscopy observations and performed diffuse reflectance spectrum analysis on the late Eocene‐early Oligocene core sediments. The magnetic signal of the sediments is dominated by detrital magnetite and titanomagnetite formed during the silicate weathering and erosion processes, which were used to infer the evolution of summer monsoon precipitation in southern China. Our results along with geochemical and clay mineral data from Site U1501 strongly indicate that the East Asian summer monsoon generally weakened across the Eocene‐Oligocene transition. This change was linked to coeval global cooling rather than tectonic processes. Prior to the Eocene‐Oligocene transition, the summer monsoon intensified, likely due to the latest Eocene warming event caused by the enhancement of the Atlantic Meridional Overturning Circulation, which may have preconditioned the Earth system for the greenhouse‐to‐icehouse transition.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231951704</t>
+          <t>https://openalex.org/W4388142124</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/158800a0</t>
+          <t>https://doi.org/10.59117/20.500.11822/43850</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NA (1946)</t>
+          <t>NA (2023)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Ontario Research Foundation</t>
+          <t>How Egypt is Switching to a Circular Economy: Building climate resilience and resource efficiency</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Annual Report For 1945 THE annual report for 1945 of the director of research of the Ontario Research Foundation at Toronto, Dr. H. B. Speakrman, refers to the transition through which the Foundation passed during that year. Steps taken soon after the hostilities to restore to normal the available space enabled the Foundation to respond to the increased demand for fellowship facilities, and before the close of the year the available laboratory space was fully occupied. Available statistics show that there are about eleven thousand industrial units in Ontario, of which only three hundred are large enough to justify the maintenance either of a research laboratory or a fellowship unit at the Foundation, and some of these consist of branch companies looking to a parent company in the United States for research and technical direction. Besides the twenty fellowships which tax the Foundation's present facilities, many firms use the Foundation for short-term investigations; but the director, in noting that the external income of the Foundation is now about 57 per cent of the total revenue, while investment income has decreased by 18 per cent since 1938 and costs have almost doubled, points out that in consequence the Foundation's ability to initiate and sustain investigation in fields of provincial importance, rather than of immediate concern to an industry or a firm, is diminishing. He expresses his firm conviction that societies will prosper in the future in so far as they are willing to authorize research expenditure on a reasonably liberal and long-term basis.</t>
+          <t>Egypt’s NAP was based upon its 2013 Green Economy Scoping Study, which assessed the potential for a transition to a green and more sustainable economy. The NAP is considered a significant milestone on the road to integrating sustainability into key economic sectors. The plan aims to achieve SCP by promoting the efficient allocation and use of water and energy, sustainable agriculture and waste management, with a focus on waste reduction, recover, re-use and recycling.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320516614</t>
+          <t>https://openalex.org/W4385811424</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
+          <t>https://doi.org/10.36227/techrxiv.23899788</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
+          <t>Ogbaga &amp; Christiana (2023)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
+          <t>Contextualizing Climate Change Solutions Through the Deployment of Cooperative Artificial Intelligence (AI) Agents</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
+          <t>&amp;lt;p&amp;gt;Climate change presents one of the most significant challenges facing humanity in the 21st century. Mitigating its impacts and developing sustainable solutions requires a multidisciplinary approach that leverages advanced technologies. This paper proposed the deployment of cooperative Artificial Intelligence (AI) agents as a viable strategy for contextualizing solutions to climate change. Firstly, it explored the use of AI agents in analyzing climate data, predicting future trends, and informing decision-making processes. This data-driven approach can help policymakers, scientists, and stakeholders to better understand the complex dynamics of climate change and design effective mitigation and adaptation strategies. This research also addressed ethical considerations associated with the deployment of AI agents in climate change contexts. It emphasized the importance of transparent and accountable AI systems, ensuring that their decisions align with human values and priorities. Additionally, it discussed the need for interdisciplinary collaboration to guide the development and deployment of AI agents, fostering inclusivity, fairness, and equitable access to AI technologies. Finally, this paper highlighted the potential of cooperative AI agents as a powerful tool for contextualizing solutions to climate change. By harnessing their analytical capabilities, adaptability, and collaboration potential, these agents can facilitate evidence-based decision-making, optimize resource management, and support the transition to a sustainable future. However, it also emphasizes the importance of addressing ethical concerns and fostering responsible AI development to ensure that AI agents serve as enablers rather than substitutes for human judgment and action. &amp;lt;/p&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313445266</t>
+          <t>https://openalex.org/W4317394355</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-031-20620-7_25</t>
+          <t>https://doi.org/10.1098/rsnr.2022.0042</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kozina &amp; Bogdanova (2023)</t>
+          <t>Rabinovitch (2023)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sustainability and Digitalization as the Basic Principles of the German Environmental Agenda</t>
+          <t>The ‘system of the world’ and the scientific culture of early modern France</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Digital ecology has recently become a conceptually new branch of knowledge and research. The development of digital ecology as a separate direction is explained due to the rapid transformation of the technosphere in the twenty-first century. This article examines the development of the digital ecology concept and introduced two theoretical approaches to the concept’s understanding resulting in separation digital ecology associated with mobile technologies, IT technologies and services from digital ecology as a product of the information systems functioning. The article investigates the synthesis of sustainable development and digitalization as the key features of the modern states’ environmental agenda. This paper analyzes the measures that are already undertaken in this field on the example of the Federal Republic of Germany and contains the study of such German projects within the digital agenda as ProgRess and Digital Product Passport. The central pillars for the implementation of the planned programs are outlined and the general recommendations for promoting digital ecology are developed.</t>
+          <t>Historians have long debated the origins of modern science in early modern Europe. Recently, however, scholars pointed to our need to understand how the ‘new philosophy’ became a sustained movement, which did not dissipate over the course of a few generations, as had previous scientific renaissances in other civilizations. This article suggests that the mediations of the printed book allowed a broader public to engage with the astronomical ideas at the core of scientific transformations. This article examines the interactions that the world of the book generated between authors at the ‘core’ of early modern science and ‘amateurs’ who were interested in recent cosmological discussion around the notion of the ‘system of the world’. It argues that this concept served simultaneously to discuss mathematico-physical problems, to make claims for authorship and to provide cultural orientation, which made it amenable to appropriation and dialogue across a range of genres. The new social interactions around the ‘system of the world’ allowed a heavily mathematical science to become a viable and sustainable cultural phenomenon, a veritable building-block of a new scientific culture at the heart of European modernity.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2371798101</t>
+          <t>https://openalex.org/W4281552355</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physreve.105.054410</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Zhuang-ru (2015)</t>
+          <t>Shrestha et al. (2022)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
+          <t>Mechanochemical coupling of lipid organization and protein function through membrane thickness deformations</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
+          <t>Cell membranes are composed of a great variety of protein and lipid species with distinct unperturbed hydrophobic thicknesses. To achieve hydrophobic matching, the lipid bilayer tends to deform around membrane proteins so as to match the protein hydrophobic thickness at bilayer-protein interfaces. Such protein-induced distortions of the lipid bilayer hydrophobic thickness incur a substantial energy cost that depends critically on the bilayer-protein hydrophobic mismatch, while distinct conformational states of membrane proteins often show distinct hydrophobic thicknesses. As a result, hydrophobic interactions between membrane proteins and lipids can yield a rich interplay of lipid-protein organization and transitions in protein conformational state. We combine here the membrane elasticity theory of protein-induced lipid bilayer thickness deformations with the Landau-Ginzburg theory of lipid domain formation to systematically explore the coupling between local lipid organization, lipid and protein hydrophobic thickness, and protein-induced lipid bilayer thickness deformations in membranes with heterogeneous lipid composition. We allow for a purely mechanical coupling of lipid and protein composition through the energetics of protein-induced lipid bilayer thickness deformations as well as a chemical coupling driven by preferential interactions between particular lipid and protein species. We find that the resulting lipid-protein organization can endow membrane proteins with diverse and controlled mechanical environments that, via protein-induced lipid bilayer thickness deformations, can strongly influence protein function. The theoretical approach employed here provides a general framework for the quantitative prediction of how membrane thickness deformations influence the joint organization and function of lipids and proteins in cell membranes.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391539865</t>
+          <t>https://openalex.org/W1978443926</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.palaeo.2024.112065</t>
+          <t>https://doi.org/10.1074/jbc.273.38.24693</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lu et al. (2024)</t>
+          <t>Takatsu et al. (1998)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Marine nitrogen cycling in the aftermath of the Marinoan Snowball Earth</t>
+          <t>Identification and Characterization of Novel Clathrin Adaptor-related Proteins</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>The termination of the Marinoan Snowball Earth (ca. 635 Ma) was marked by the global precipitation of cap carbonate, which might have coincided with global environmental and evolutionary changes, particularly the evolution of early animals in the ocean and a significant rise in atmospheric oxygen concentrations. High nitrogen isotopic compositions (δ15N) of the Ediacaran marine sediments indicate that the seawater was oxygen-rich and maintained a substantial nitrate reservoir following the Marinoan Snowball Earth. However, the lack of nitrogen isotope records in the wake of the Marinoan Snowball Earth became a stumbling block in understanding the relationships between marine nitrogen cycling and biological evolution during the deglaciation. This study reported the δ15N of the cap carbonate in the basal Doushantuo Formation from two sections spanning from shelf margin to basin in the Yangtze Block, South China. Our results show a descending pattern in δ15N values at the lower part of the sections, reaching a nadir of ∼ − 4‰. This trend suggests that upwelling brought an abundance of NH4+ during the mixing process of glacial meltwater and seawater, resulting in incomplete assimilation of NH4+. The relatively heavier δ15N values (∼0‰) in the upper part observed in cap carbonate provide evidence of the onset of nitrogen fixation after the physical stratification of seawater. This process can be attributed to restoring the thermohaline circulation in the ocean. However, the occurrence of nitrogen fixation and δ15N values greater than +2‰ had not been observed, indicating a stable reservoir of nitrate had not yet been established. Overall, our data indicate a gradual oxidation of the ocean and the recovery of aerobic nitrogen cycling during the Marinoan deglaciation, which probably influenced ocean primary productivity. A stable nutrient reservoir built after this transitional period might provide a nutrient basis for the early animal evolution in the early Ediacaran.</t>
+          <t>We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. We have identified a human ∼87-kDa protein, designated as γ2-adaptin, that is similar to γ-adaptin (called γ1-adaptin in this paper), a large chain of the AP-1 clathrin-associated adaptor complex, not only in the primary structure (60% amino acid identity) but also in the domain organization. Northern blot analysis has shown that its mRNA is expressed in a variety of tissues. Analysis using a yeast two-hybrid system has revealed that, similarly to γ1-adaptin, γ2-adaptin is capable of interacting not only with the ς1 chain (called as ς1A in this paper), the small chain of the AP-1 complex, but also with a novel ς1-like protein, designated as ς1B, which shows an 87% amino acid identity to ς1A; and that, unlike γ1-adaptin, it is unable to interact with β1-adaptin, another large chain of the AP-1 complex. Immunofluorescence microscopy analysis has revealed that γ2-adaptin is localized to paranuclear vesicular structures that are not superimposed on structures containing γ1-adaptin. Furthermore, unlike γ1-adaptin, γ2-adaptin is recruited onto membranes in the presence of a fungal antibiotic, brefeldin A. These data suggest that γ2-adaptin constitute a novel adaptor-related complex that participates in a transport step different from that of AP-1. endoplasmic reticulum trans-Golgi network polymerase chain reaction expressed sequence tag hemagglutinin normal rat kidney brefeldin A ADP-ribosylation factor polyacrylamide gel electrophoresis guanosine 5′-O-(thiotriphosphate) base pair(s). In eukaryotic cells, transport of proteins between membrane-bound compartments along the exocytic and endocytic pathways involves coated carrier vesicles that bud from a donor compartment and fuse with a target acceptor compartment(s) (for review, see Refs. 1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar). The vesicle budding process is initiated by recruitment of coat proteins from the cytosol onto the donor membranes. To date, three classes of coated transport vesicles have been unequivocally characterized (1Schmid S.L. Damke H. FASEB J. 1995; 9: 1445-1453Crossref PubMed Scopus (63) Google Scholar, 2Rothman J.E. Protein Sci. 1996; 5: 185-194Crossref PubMed Scopus (145) Google Scholar, 3Harter C. Wieland F. Biochim. Biophys. Acta. 1996; 1286: 75-93Crossref PubMed Scopus (49) Google Scholar, 4Bednarek S.Y. Orci L. Schekman R. Trends Cell Biol. 1996; 6: 468-473Abstract Full Text PDF PubMed Scopus (66) Google Scholar, 5Robinson M.S. Trends Cell Biol. 1997; 7: 99-102Abstract Full Text PDF PubMed Scopus (123) Google Scholar): COP II-coated vesicles bud from the endoplasmic reticulum (ER)1; COP I-coated vesicle coats assemble onto cisternae of the Golgi apparatus and onto the intermediate compartment between the ER and the Golgi; and clathrin-coated vesicles containing the AP-1 and AP-2 adaptor complexes bud from the trans-Golgi network (TGN) and the plasma membrane, respectively. Both the clathrin adaptor complexes are composed of two large subunits, a medium chain, and a small subunit: β1(β′)-adaptin, γ-adaptin, μ1 (AP47), and ς1 (AP19) in AP-1; and β2 (β)-adaptin, α-adaptin, μ2 (AP50), and ς2 (AP17) in AP-2 (for review, see Refs. 6Keen J.H. Annu. Rev. Biochem. 1990; 59: 415-438Crossref PubMed Scopus (170) Google Scholar and 7Pearse B</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3119439580</t>
+          <t>https://openalex.org/W4317802956</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jpurol.2020.12.020</t>
+          <t>https://doi.org/10.1039/d2sm01615j</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Claeys et al. (2021)</t>
+          <t>Wang et al. (2023)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Barriers in transitioning urologic patients from pediatric to adult care</t>
+          <t>Formation kinetics and physicochemical properties of mesoscopic Alpha-Synuclein assemblies modulated by sodium chloride and a distinct pulsed electric field</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;Summary&lt;/h2&gt; As the advances in medicine continue to emerge, more children with congenital or pediatric-onset chronic urologic conditions are surviving well into adulthood. This imposes an ever rising there is a need for adequate transition of these patients from pediatric to adult care. Despite position statements from multiple heath care organizations and several models proposed in literature, different issues and gaps in urologic transition continue to exist. Major barriers in this transition are adolescence, a challenging time that is characterized by impulsive behavior and risk taking, and the longstanding relation between both patients and paediatric providers. Both pediatric and adult care providers need to be aware of the special needs of maturing youth with chronic care problems related to education, self-management, legal issues and psychological support during care transition. Furthermore, they need to understand and address the currently existing obstacles for adequate transition. There is need for active communication with each other and the patient to develop sustainable relationships that can support the transitioning process. It is therefore in the greatest interest of the care provider to make this transition as smooth as possible. This paper aims to point out the currently perceived barriers in care transition within the urological context, reflect on previous implemented models for care transition and present proposals for improvement.</t>
+          <t>Alpha-Synuclein (ASN), a presynaptic protein, has been widely reported to form amyloid-rich hydrogel clusters through liquid-liquid phase separation (LLPS) and liquid-to-solid transition. However, in-depth investigations about the parameters that influence the assembling kinetics, structures, and physicochemical properties of intermediate ASN assemblies are still missing. Therefore, we monitored for the first time the assembling and ordering kinetics of ASN by polarized/depolarized light scattering (DLS/DDLS) under the effect of ionic strength and a pulsed electric field (EF), followed by characterizing the resultant ASN assemblies applying thermostability assays, fluorescence/autofluorescence assays, and TEM. The underlying molecular mechanism was discussed based on experimental evidence. Results showed that in the presence of 150-250 mM NaCl, monomeric ASN is highly soluble in a temperature range of 20-70 °C and could form dissoluble liquid dense clusters via LLPS in crowded environments, while the ionic strength of 50 mM NaCl could trigger conformational changes and attractive diffusion interactions of ASN monomers towards the formation of mesoscopic assemblies with ordered internal structures and high thermostabilities. We discovered that pulsed EFs and ionic strength can modulate effectively the thermostability and autofluorescence effect of mesoscopic ASN assemblies by tuning the molecular interaction and arrangement. Remarkably, a specie of thermostable ASN assemblies showing a maximum autofluorescence emission at approx. 700 nm was synthesized applying 250 mM NaCl and the distinct pulsed EF, which could be attributed to the increase of β-sheet structures and hydrogen-bond networks within ASN assemblies. In summary, the presented data provide novel insights for modulating the growth kinetics, structures, and physicochemical properties of bio-macromolecular mesoscopic assemblies.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1544381219</t>
+          <t>https://openalex.org/W2032093895</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1503984</t>
+          <t>https://doi.org/10.1016/j.earscirev.2006.03.004</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Owolabi &amp; Pal (2009)</t>
+          <t>Roy (2006)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The Value of Business Networks: An Analysis of Firm Financing in Transition Economies</t>
+          <t>Sedimentary manganese metallogenesis in response to the evolution of the Earth system</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>The paper argues that the networked firms have an advantage in securing bank finance in countries with weak legal and judicial institutions. An analysis of recent BEEPS data from sixteen CEE transition countries lends some support to this hypothesis. Firms affiliated to business associations are more likely to have bank finance while small and medium firms are less likely to secure it. Importance of being associated with business networks is particularly evident among firms who borrow from foreign banks, as the latter attempt to hedge risk in an uncertain environment. Significance of business networking however vanishes if institutional quality improves.</t>
+          <t>The concentration of manganese in solution and its precipitation in inorganic systems are primarily redox-controlled, guided by several Earth processes most of which were tectonically induced. The Early Archean atmosphere–hydrosphere system was extremely O2-deficient. Thus, the very high mantle heat flux producing superplumes, severe outgassing and high-temperature hydrothermal activity introduced substantial Mn2+ in anoxic oceans but prevented its precipitation. During the Late Archean, centered at ca. 2.75 Ga, the introduction of Photosystem II and decrease of the oxygen sinks led to a limited buildup of surface O2-content locally, initiating modest deposition of manganese in shallow basin-margin oxygenated niches (e.g., deposits in India and Brazil). Rapid burial of organic matter, decline of reduced gases from a progressively oxygenated mantle and a net increase in photosynthetic oxygen marked the Archean–Proterozoic transition. Concurrently, a massive drawdown of atmospheric CO2 owing to increased weathering rates on the tectonically expanded freeboard of the assembled supercontinents caused Paleoproterozoic glaciations (2.45–2.22 Ga). The spectacular sedimentary manganese deposits (at ca. 2.4 Ga) of Transvaal Supergroup, South Africa, were formed by oxidation of hydrothermally derived Mn2+ transferred from a stratified ocean to the continental shelf by transgression. Episodes of increased burial rate of organic matter during ca. 2.4 and 2.06 Ga are correlatable to ocean stratification and further rise of oxygen in the atmosphere. Black shale-hosted Mn carbonate deposits in the Birimian sequence (ca. 2.3–2.0 Ga), West Africa, its equivalents in South America and those in the Francevillian sequence (ca. 2.2–2.1 Ga), Gabon are correlatable to this period. Tectonically forced doming-up, attenuation and substantial increase in freeboard areas prompted increased silicate weathering and atmospheric CO2 drawdown causing glaciation on the Neoproterozoic Rodinia supercontinent. Tectonic rifting and mantle outgassing led to deglaciation. Dissolved Mn2+ and Fe2+ concentrated earlier in highly saline stagnant seawater below the ice cover were exported to shallow shelves by transgression during deglaciation. During the Sturtian glacial-interglacial event (ca. 750–700 Ma), interstratified Mn oxide and BIF deposits of Damara sequence, Namibia, was formed. The Varangian (≡ Marinoan; ca. 600 Ma) cryogenic event produced Mn oxide and BIF deposits at Urucum, Jacadigo Group, Brazil. The Datangpo interglacial sequence, South China (Liantuo–Nantuo ≡ Varangian event) contains black shale-hosted Mn carbonate deposits. The Early Paleozoic witnessed several glacioeustatic sea level changes producing small Mn carbonate deposits of Tiantaishan (Early Cambrian) and Taojiang (Mid-Ordovician) in black shale sequences, China, and the major Mn oxide–carbonate deposits of Karadzhal-type, Central Kazakhstan (Late Devonian). The Mesozoic period of intense plate movements and volcanism produced greenhouse climate and stratified oceans. During the Early Jurassic OAE, organic–rich sediments host many Mn carbonate deposits in Europe (e.g., Úrkút, Hungary) in black shale sequences. The Late Jurassic giant Mn Carbonate deposit at Molango, Mexico, was also genetically related to sea level change. Mn carbonates were always derived from Mn oxyhydroxides during early diagenesis. Large Mn oxide deposits of Cretaceous age at Groote Eylandt, Australia and Imini-Tasdremt, Morocco, were also formed during transgression–regression in greenhouse climate. The Early Oligocene giant Mn oxide–carbonate deposit of Chiatura (Georgia) and Nikopol (Ukraine) were developed in a similar situation. Thereafter, manganese sedimentation was entirely shifted to the deep seafloor and since ca. 15 Ma B.P. was climatically controlled (glaciation–deglaciation) assisted by oxygenated polar bottom currents (AABW, NADW). The changes in climate and the sea level were mainly tectonically forced.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392680595</t>
+          <t>https://openalex.org/W2782940334</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5219/1962</t>
+          <t>https://doi.org/10.2307/165083</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Akimova et al. (2024)</t>
+          <t>Lieuwen (1961)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
+          <t>The Changing Role of the Military in Latin America</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
+          <t>“A new Latin America is rapidly emerging” — this has been the message of many Hispanic-American social scientists. The traditional order, under which a landed aristocracy, a praetorian military caste, and a Catholic church hierarchy monopolized power, wealth, prestige, and influence, is crumbling. Society is in a state of upheaval; politics is being revolutionized; the economy is undergoing a fundamental transformation; new institutional forms are reshaping the environment. The extent and intensity of change among the various Latin-American countries has been uneven. At one extreme is Mexico whose “new look” strikes nearly all contemporary observers. Meanwhile, neighboring Nicaragua still lives in the nineteenth century. Despite their distinct identities, however, all the Latin-American states have felt the impact of fundamental shifts in the recent world environment.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019589893</t>
+          <t>https://openalex.org/W2968396544</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02643294.2010.503478</t>
+          <t>https://doi.org/10.35120/kij2803761d</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Palermo et al. (2010)</t>
+          <t>Kostadinova &amp; Gruncheva (2018)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Does hemineglect affect visual mental imagery? Imagery deficits in representational and perceptual neglect</t>
+          <t>WHAT DO BEGINNING TEACHERS NEED FOR EFFECTIVE INDUCTION AND RETENTION IN THE TEACHING PROFESSION</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>To give new insight about the relationship between imagery processes and different types of hemispatial neglect, we assessed different mental imagery abilities in a sample of right- and left-brain-damaged patients. Furthermore, because of reports of a mental representation disorder for environments in patients affected by representational neglect we also tested their navigational imagery ability. We found that patients with no signs of perceptual or representational neglect performed flawlessly on our imagery tasks regardless of whether they had left- or right-sided lesions. By contrast, patients affected by neglect failed most of the tests; in particular, representational neglect patients failed one test of mental transformation and tests requiring the manipulation of cognitive maps. These results suggest there is a specific relationship between hemispatial neglect and deficits in visual mental imagery and demonstrate that the right hemisphere plays a specific role in visual mental imagery.</t>
+          <t>This paper contains the results of a study on beginning teachers’ views regarding the successful induction to the teaching profession, retention in it and the role of mentoring in this process. The study was conducted in 2018 within "The Art of Mentoring the Transition from the University to the Educational Institutions" research project of Vratsa Branch of St. Cyril and St. Methodius University of VelikoTarnovo.The first 1-2 years of the beginning teacher’s career are considered to be the most difficult and critical periods of a teacher’s career. It is often described as a time of survival for any neophyte teacher. It takes much determination and perseverance from the new teacher to remain in the teaching profession, shape his/her professional identity and find their place in a community of practice. Those who are not helped to develop staying power, ultimately leave the profession and they constitute quite a high percentage. High attrition rates recognized as a global problem among the teaching community signal a worldwide need of adequate support for new teachers.Effective induction requires high-quality mentoring and a strong supportive school environment. Knowing and understanding the needs, expectations and attitudes of the beginning teacher is the best way to overcome the hardships of the induction period and to ensure his/her successful career start.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385839247</t>
+          <t>https://openalex.org/W1976195634</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/egusphere-2023-1730</t>
+          <t>https://doi.org/10.1088/0953-8984/19/6/065150</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ekberzade et al. (2023)</t>
+          <t>Togashi &amp; Kaneko (2007)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>GC Insights: Fostering transformative change for biodiversity restoration through transdisciplinary research</t>
+          <t>Switching dynamics in reaction networks induced by molecular discreteness</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Abstract. Despite being considered one of the most pressing global issues, biodiversity loss and the degradation of ecosystems is continuing at an alarming rate. In December 2022, COP15 saw the adoption of the Kunming-Montreal Global Biodiversity Framework, where four overarching international goals for biodiversity and 23 targets. While these targets are a positive step to address the drivers of biodiversity loss, we will not only need public and political will to reach the goals and targets outlined but also more effective methods to integrate and use scientific information. To facilitate this, scientists and research institutions need to establish new and innovative approaches to transform the way science is conducted, communicated, and integrated into the policymaking process. This will require the scientific community to become proficient at working in inter and transdisciplinary teams, establishing connectivity, and engaging in the policymaking process to ensure that the best available scientific evidence is not only comprehensible to decision makers, but also timely and relevant. Here, we detail how scientists can embrace transformative change within and outside of their own communities to increase the impact of their research and help reach global targets that benefit society.</t>
+          <t>To study the fluctuations and dynamics in chemical reaction processes, stochastic differential equations based on the rate equation involving chemical concentrations are often adopted. When the number of molecules is very small, however, the discreteness in the number of molecules cannot be neglected since the number of molecules must be an integer. This discreteness can be important in biochemical reactions, where the total number of molecules is not significantly larger than the number of chemical species. To elucidate the effects of such discreteness, we study autocatalytic reaction systems comprising several chemical species through stochastic particle simulations. The generation of novel states is observed; it is caused by the extinction of some molecular species due to the discreteness in their number. We demonstrate that the reaction dynamics are switched by a single molecule, which leads to the reconstruction of the acting network structure. We also show the strong dependence of the chemical concentrations on the system size, which is caused by transitions to discreteness-induced novel states.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069889664</t>
+          <t>https://openalex.org/W4220946121</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1046/j.1523-1747.2002.19634.x</t>
+          <t>https://doi.org/10.1016/j.scriptamat.2022.114699</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Eckert et al. (2002)</t>
+          <t>Zhang et al. (2022)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Keratinocyte Survival, Differentiation, and Death: Many Roads Lead to Mitogen-Activated Protein Kinase</t>
+          <t>Discovery of a reversible redox-induced order-disorder transition in a 10-component compositionally complex ceramic</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. The epidermis is a dynamic and continually renewing surface that provides and maintains a life-sustaining interface with the environment. The epidermal keratinocyte, the major cell type of the epidermis, undergoes a complex and carefully choreographed program of differentiation. This process requires a balance between keratinocyte proliferation, differentiation, and apoptosis. This overview will concentrate on cascades that regulate the balance between keratinocyte cell proliferation and survival, and apoptosis and cell differentiation, with a particular emphasis on the role of the mitogen-activated protein kinase cascades. A summary of the literature suggests that extracellular regulated kinases function to promote keratinocyte proliferation and survival, whereas p38 mitogen-activated protein kinase functions to promote differentiation and apoptosis. In recent decades study of keratinocyte differentiation has yielded substantial new insights. Early efforts identified and cataloged many of the morphologic properties of keratinocytes. Progress was limited, however, by the lack of a suitable in vitro system for the study of keratinocyte differentiation. The 1970s heralded the arrival of various cell culture models that permitted keratinocytes to be grown in mass culture (Rheinwald and Green, 1975Rheinwald J.G. Green H. Serial cultivation of strains of human epidermal keratinocytes: the formation of keratinizing colonies from single cells.Cell. 1975; 6: 331-343Abstract Full Text PDF PubMed Scopus (3902) Google Scholar;Elgjo et al., 1976Elgjo K. Hennings H. Michael D. Yuspa S.H. Natural synchrony of newborn mouse epidermal cells in vitro.J Invest Dermatol. 1976; 66: 292-296Crossref PubMed Scopus (26) Google Scholar;Bettger et al., 1981Bettger W.J. Boyce S.T. Walthall B.J. Ham R.G. Rapid clonal growth and serial passage of human diploid fibroblasts in a lipid-enriched synthetic medium supplemented with epidermal growth factor, insulin, and dexamethasone.Proc Natl Acad Sci USA. 1981; 78: 5588-5592Crossref PubMed Scopus (105) Google Scholar;Boyce and Ham, 1983Boyce S.T. Ham R.G. Calcium-regulated differentiation of normal human epidermal keratinocytes in chemically defined clonal culture and serum-free serial culture.J Invest Dermatol. 1983; 81: 33s-40sCrossref PubMed Scopus (958) Google Scholar). This, in turn, accelerated progress in identifying major structural proteins that participate in formation of differentiated structures. The evolution of culture technology coupled with the revolution in gene analysis technologies led to the identification of a host of proteins that form differentiated structures in keratinocytes (Green, 1980Green H. The keratinocyte as differentiated cell type.The Harvey Lectures. 1980; 74: 101-139PubMed Google Scholar;Fuchs and Byrne, 1994Fuchs E. Byrne C. The epidermis: rising to the surface.Curr Opin Genet Dev. 1994; 4: 725-736Crossref PubMed Scopus (222) Google Scholar;Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Google Scholar). The ability to isolate the genes encoding these proteins subsequently identified DNA sequences that regulate gene expression. In recent years, the knowledge built during the 1970s and 1980s has led to a substantial interest in understanding how keratinocyte differentiation is regulated and in elucidating the signaling mechanisms that control gene expression. Keratinocytes begin as proliferation-competent basal layer cells that are characterized by expression of specific basal-cell-associated marker proteins. These cells, in turn, give rise to daughter cells that terminally differentiate. Cell differentiation results in the stacking of multiple keratinocyte layers above the basal zone, forming the spinous, granular, and cornified layers (Eckert et al., 1997Eckert R.L. Crish J.F. Robinson N.A. The epidermal keratinocyte as a model for the study of gene regulation and cell differentiation.Physiol Rev. 1997; 77: 397-424Crossref PubMed Scopus (343) Goo</t>
+          <t>This study discovers a reversible order-disorder transition (ODT) in a 10-component compositionally complex ceramic, (Nd0.15Pr0.15Dy0.8Ho0.8Er0.8Ti0.2Yb0.1Hf0.1Zr0.1Nb0.8)O7-δ, induced via annealing in oxidized vs. reduced environments at 1600 °C. Notably, the 10-cation oxide remains a homogenous single-phase high-entropy solid solution before and after the ODT in the pyrochlore vs. fluorite structure that can be quenched. In-situ neutron diffraction reveals the oxygen vacancy formation and atomic displacement during this ODT. This study reveals a new pathway to induce ODT via a redox transition to tailor the properties of compositionally complex fluorite-based oxides.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976195634</t>
+          <t>https://openalex.org/W2031283355</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/0953-8984/19/6/065150</t>
+          <t>https://doi.org/10.5752/p.2318-2962.2014v24nespp13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Togashi &amp; Kaneko (2007)</t>
+          <t>Pedrosa &amp; Souza (2014)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Switching dynamics in reaction networks induced by molecular discreteness</t>
+          <t>As unidades de paisagem no Triângulo Mineiro: “Desaparecimento” da paisagem Cerrado / Landscape units in the Triângulo Mineiro: “Disappearing” of the Cerrado Landscape - DOI 10.5752/P.2318-2962.2014v24nespp13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>To study the fluctuations and dynamics in chemical reaction processes, stochastic differential equations based on the rate equation involving chemical concentrations are often adopted. When the number of molecules is very small, however, the discreteness in the number of molecules cannot be neglected since the number of molecules must be an integer. This discreteness can be important in biochemical reactions, where the total number of molecules is not significantly larger than the number of chemical species. To elucidate the effects of such discreteness, we study autocatalytic reaction systems comprising several chemical species through stochastic particle simulations. The generation of novel states is observed; it is caused by the extinction of some molecular species due to the discreteness in their number. We demonstrate that the reaction dynamics are switched by a single molecule, which leads to the reconstruction of the acting network structure. We also show the strong dependence of the chemical concentrations on the system size, which is caused by transitions to discreteness-induced novel states.</t>
+          <t>As paisagens apresentam-se dinâmicas e resultam de uma interação permanente entre os elementos naturais e a ação do homem. Elas constroem-se ao longo dos tempos históricos assumindo os valores culturais que cada cultura ou civilização lhe vai incutindo. Significa, então, que a análise da sua evolução terá de ter em conta a sua constante dialética no sentido de nos apercebermos as transformações que sofrem. Atendendo ao nível tecnológico em que a sociedade atual se encontra conjugadas com as forças econômicas capitalistas que procuram o lucro desenfreado, as alterações na paisagem são cada vez mais rápidas e, por vezes, implicam rupturas com a sua sustentabilidade. No Triangulo Mineiro, as mudanças paisagísticas foram de tal forma rápidas e profundas que a paisagem do cerrado, vigente até á década de sessenta do século passado, foi substituído por outras unidades de paisagem onde este bioma deixou de existir nas condições originais.Palavras-chave: Paisagem, cerrado, transformação, ação antrópica, Triângulo Mineiro Abstract The landscapes are dynamic and result in a permanent interaction between the natural elements and the action of man. They are constructed along historic times, assuming the cultural values that each culture or civilization will imbue her. Then means that the analysis of its evolution must have regard, to its constant dialectic in order to understanding the transformations who suffer. In view of the level of technology in that current society is in, conjugated with the capitalist economic forces that seek to unbridled profit the amendments in the landscape are becoming faster and sometimes imply ruptures to their sustainability. In Triângulo Mineiro, the landscape changes have been so rapid and profound, that the landscape of the savannah, prevailing until the sixties of the last century, was replaced by other units of landscape where this biome ceased to exist in original condition. Keywords: landscape, savannah, transformation, human action, Triângulo Mineiro</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2045183475</t>
+          <t>https://openalex.org/W2237031406</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/3527655</t>
+          <t>https://doi.org/10.1101/087969132.10c.999</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bulger &amp; Barbato (2000)</t>
+          <t>Bishop &amp; Varmus (1982)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>On the Hippocratic Sources of Western Medical Practice</t>
+          <t>9 Functions and Origins of Retroviral Transforming Genes</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>One of the key figures in Western medicine is the fourth century Greek physician, Hippocrates. The Hippocratic Oath binds new physicians to the ethos and profession of medicine, while the Western tradition of scientific medicine traces its roots to the Hippocratic corpus. We will not attempt an exhaustive historical or philosophical analysis of the thinking of Hippocrates and his followers, but rather describe the most important Hippocratic influences still bearing on contemporary medicine in the West. We will highlight some of the major ideas found in notable quotations contained in the Hippocratic corpus, describing their centrality to and continuing life within the foundations of Western scientific medicine, and speculate briefly on other matters of some current importance. Hippocrates and His Time Hippocrates is thought to have lived from 460 to 370 B.C.E., during the great age of Greek cultural dominance. He was a contemporary of Aristotle and Plato, may have been friends with Democritus, and died a decade or so before the birth of Alexander the Great. He taught medicine on the Island of Kos, as had his father and grandfather before him, it is thought. One can postulate that the achievements of his long life were built on foundations laid by a long line of physicians. Indeed, scholars have had much difficulty in identifying with certainty which parts of the large Hippocratic corpus were written by Hippocrates himself and which may have been written by predecessors or by innumerable followers in the centuries after his death. The great anthropologist Margaret Mead points out that prior to the Hippocratic tradition, the physician and the sorcerer tended to be the same person, and she credits the Greeks of the fourth and fifth centuries with forever making clear the distinction between the two.[1] The pre-Hippocratic practitioners of medicine were empiricists who used treatments indiscriminately or mystics who claimed control over nature through magic and ritual. Hippocratic medicine for the first time introduced a new approach based on reason in the natural order of things and a framework of scientific knowledge. As Pedro Lain-Entralgo characterizes it, Hippocratic doctors needed to know the illnesses they were treating, what remedy would cure the illness, and why the remedy worked. Along with this historic transition in the practice of medical skills evolved the concept of medicine as a technical a body of scientific study to be mastered, taught, expanded, and documented.[2] Hippocrates insisted on careful observation and the keeping of notes. He believed that the interaction of nature, the patient, and the physician determined the outcome of the illness. Contrary to what became central Judeo-Christian belief, Hippocrates did not believe that God placed the earth and nature at humanity's disposal or that humans were lords of the earth. Rather, he felt deeply that humanity worked within the confines of nature and must collaborate with it to achieve the best health and to avoid disease. He had in fact a remarkably broad concept of health and disease that is not now widely appreciated.[3] The collected writings of the Hippocratic corpus comprise a kind of running textbook of medicine, carefully describing diseases and known treatments. Hippocrates detailed his treatment failures so that others would not repeat them. He followed his patients until the disease had run its course, even if it took months. He treated all comers, whether free or in bondage, and he describes the need to treat each person with dignity and the diseased body as still sacred. Instead of incantations or prayers, the physician's art, his technique, required careful observation, clear thinking, and useful intervention without doing harm. In fact it is the prohibition against medical harm that particularly sets the Hippocratic tradition apart. Certain injunctions are specifically spelled out in the oath (abortion, euthanasia, use of poisons). …</t>
+          <t>I. INTRODUCTION Retroviruses first attracted the attention of experimentalists because of their ability to produce tumors in animals (Rous 1911; Gross 1970), and they were recognized by the late 1950s as useful reagents for analysis of the oncogenic process because of the efficiency with which transformation could be induced and scored in cell culture (Temin and Rubin 1958). Nevertheless, there was no genetic definition of virus components responsible for such biological effects until 1970 (Martin 1970; Vogt 1971; Bader 1972) and no biochemical or immunological definition of the products of retroviral oncogenes until 1977 (Brugge and Erikson 1977). However, during the past 4 years, there has been an extraordinary proliferation of new information about retroviral transforming genes. Several technical advances have propelled this fruitful activity: improved methods for biochemical analysis of viral genomes and mRNAs (Chapters 4 and 5); successful culturing of a variety of cell types, particularly hematopoietic cells (Chapter 8); cloning of retroviral DNA (Chapters 4 and 5); and the production of effective antisera combined with refined procedures for biochemical analysis of proteins (this chapter and Chapter 6). As tales unfolded about the nature and origins of transforming genes of widely used viruses, such as Rous sarcoma virus (RSV), many investigators turned to viruses that had been less commonly studied or even ignored since their original isolation. A. Viruses with and without onc As one consequence of this catholic approach, it is now possible to perceive a major division between two types of tumor-inducing retroviruses. On the one...</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031283355</t>
+          <t>https://openalex.org/W2057152378</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5752/p.2318-2962.2014v24nespp13</t>
+          <t>https://doi.org/10.1074/jbc.m212057200</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pedrosa &amp; Souza (2014)</t>
+          <t>Tanaka et al. (2003)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>As unidades de paisagem no Triângulo Mineiro: “Desaparecimento” da paisagem Cerrado / Landscape units in the Triângulo Mineiro: “Disappearing” of the Cerrado Landscape - DOI 10.5752/P.2318-2962.2014v24nespp13</t>
+          <t>Regulation of the NEDD8 Conjugation System by a Splicing Variant, NUB1L</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>As paisagens apresentam-se dinâmicas e resultam de uma interação permanente entre os elementos naturais e a ação do homem. Elas constroem-se ao longo dos tempos históricos assumindo os valores culturais que cada cultura ou civilização lhe vai incutindo. Significa, então, que a análise da sua evolução terá de ter em conta a sua constante dialética no sentido de nos apercebermos as transformações que sofrem. Atendendo ao nível tecnológico em que a sociedade atual se encontra conjugadas com as forças econômicas capitalistas que procuram o lucro desenfreado, as alterações na paisagem são cada vez mais rápidas e, por vezes, implicam rupturas com a sua sustentabilidade. No Triangulo Mineiro, as mudanças paisagísticas foram de tal forma rápidas e profundas que a paisagem do cerrado, vigente até á década de sessenta do século passado, foi substituído por outras unidades de paisagem onde este bioma deixou de existir nas condições originais.Palavras-chave: Paisagem, cerrado, transformação, ação antrópica, Triângulo Mineiro Abstract The landscapes are dynamic and result in a permanent interaction between the natural elements and the action of man. They are constructed along historic times, assuming the cultural values that each culture or civilization will imbue her. Then means that the analysis of its evolution must have regard, to its constant dialectic in order to understanding the transformations who suffer. In view of the level of technology in that current society is in, conjugated with the capitalist economic forces that seek to unbridled profit the amendments in the landscape are becoming faster and sometimes imply ruptures to their sustainability. In Triângulo Mineiro, the landscape changes have been so rapid and profound, that the landscape of the savannah, prevailing until the sixties of the last century, was replaced by other units of landscape where this biome ceased to exist in original condition. Keywords: landscape, savannah, transformation, human action, Triângulo Mineiro</t>
+          <t>NEDD8 is a ubiquitin-like protein that controls vital biological events through its conjugation to target proteins. We previously identified a negative regulator of the NEDD8 conjugation system, NUB1, which works by recruiting NEDD8 and its conjugates to the proteasome for degradation. Recently, we found its splicing variant, NUB1L. It possesses an insertion of 14 amino acids that codes for a UBA domain. Structural study revealed that NUB1 has a NEDD8-binding site at the C terminus, whereas NUB1L has an additional site at the newly generated UBA domain. Interestingly, the sequence A(X 4)L(X 10)L(X 3)L was conserved in these NEDD8-binding sites among human and other mammals. Mutational studies revealed that at least three Leu residues in the conserved sequence are required for binding with NEDD8. Functional study suggested that the NEDD8-binding ability at the C terminus of NUB1 and NUB1L is mainly involved in the down-regulation of NEDD8, but the NEDD8-binding ability at the UBA2 domain of NUB1L is minimally or not involved at all. The NEDD8-binding ability at the UBA2 domain might be required for an unknown function of NUB1L. NEDD8 is a ubiquitin-like protein that controls vital biological events through its conjugation to target proteins. We previously identified a negative regulator of the NEDD8 conjugation system, NUB1, which works by recruiting NEDD8 and its conjugates to the proteasome for degradation. Recently, we found its splicing variant, NUB1L. It possesses an insertion of 14 amino acids that codes for a UBA domain. Structural study revealed that NUB1 has a NEDD8-binding site at the C terminus, whereas NUB1L has an additional site at the newly generated UBA domain. Interestingly, the sequence A(X 4)L(X 10)L(X 3)L was conserved in these NEDD8-binding sites among human and other mammals. Mutational studies revealed that at least three Leu residues in the conserved sequence are required for binding with NEDD8. Functional study suggested that the NEDD8-binding ability at the C terminus of NUB1 and NUB1L is mainly involved in the down-regulation of NEDD8, but the NEDD8-binding ability at the UBA2 domain of NUB1L is minimally or not involved at all. The NEDD8-binding ability at the UBA2 domain might be required for an unknown function of NUB1L. NEDD8 is a highly conserved 81-amino acid protein that shares 60% identity and 80% homology with ubiquitin. NEDD8 conjugates to a large number of target proteins (1Kamitani T. Kito K. Nguyen H.P. Yeh E.T.H. J. Biol. Chem. 1997; 272: 28557-28562Abstract Full Text Full Text PDF PubMed Scopus (350) Google Scholar), and this conjugation is thought to be catalyzed by four enzymes, NEDD8-carboxyl-terminal hydrolase (2Wada H. Kito K. Caskey L.S. Yeh E.T.H. Kamitani T. Biochem. Biophys. Res. Commun. 1998; 251: 688-692Crossref PubMed Scopus (126) Google Scholar), NEDD8-activating enzyme, NEDD8-conjugating enzyme, and NEDD8-ligating enzyme, in a manner analogous to ubiquitination and sentrinization (also known as SUMO-conjugation) (3Yeh E.T.H. Gong L. Kamitani T. Gene (Amst.). 2000; 248: 1-14Crossref PubMed Scopus (410) Google Scholar). So far, all of the known NEDD8 targets are cullin family members, and these include Cul-1, -2, -3, -4A, -4B, and -5 (4Osaka F. Kawasaki H. Aida N. Saeki M. Chiba T. Kawashima S. Tanaka K. Kato S. Genes Dev. 1998; 12: 2263-2268Crossref PubMed Scopus (224) Google Scholar, 5Wada H. Yeh E.T.H. Kamitani T. Biochem. Biophys. Res. Commun. 1999; 257: 100-105Crossref PubMed Scopus (75) Google Scholar). 1The abbreviations used are: Cul, human cullin; SCF, Skp1-Cullin-F-box protein; RH, RGS-poly His; GST, glutathione S-transferase; UBL, ubiquitin-like domain; UBA, ubiquitin-associated domain; NLS, nuclear localization signal; LLnL, N-acetyl-l-leucinal-l-leucinal-l-norleucinal; E2, ubiquitin conjugating enzyme; E3, ubiquitin ligase; HRP, horseradish peroxidase; PBS, phosphate-buffered saline.1The abbreviations used are: Cul, human cullin; SCF, Skp1-Cullin-F-box protein; RH, RGS-poly His; GST, glutathione S-transferase; UBL, ubiquitin-like domain; UBA, ubiquitin-associated domain; NLS, nuclear localization signal; LLnL, N-acetyl-l-leucinal-l-leucinal-l-norleucinal; E2, ubiquitin conjugating enzyme; E3, ubiquitin ligase; HRP, horseradish peroxidase; PBS, phosphate-buffered saline. Each cullin family member appears to be a component of the SCF complex, a ubiquitin E3 ligase composed of Skp1, Cullin, F-box protein, and ROC1 (also called RBX1 or HRT1) (3Yeh E.T.H. Gong L. Kamitani T. Gene (Amst.). 2000; 248: 1-14Crossref PubMed Scopus (410) Google Scholar, 6Zheng N. Schulman B.A. Song L. Miller J.J. Jeffrey P.D. Wang P. Chu C. Koepp D.M. Elledge S.J. Pagano M. Conaway R.C. Conaway J.W. Harper J.W. Pavletich N.P. Nature. 2002; 416: 703-709Crossref PubMed Scopus (1140) Google Scholar). For example, Cul-1 is a major component of an SCF complex that catalyzes the ubiquitination of IκBα, β-catenin, and p27 (Kip1) (7Pagano M. FASEB J. 1997; 11: 1067-1075Crossref</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1953666922</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/0957-4484/26/34/345701</t>
+          <t>https://openalex.org/W1812041023</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Boote et al. (2015)</t>
+          <t>Bostrom (2002)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sub-100 nm anisotropic gold nanoparticles as surface-enhanced Raman spectroscopy substrates</t>
+          <t>Existential risks: analyzing human extinction scenarios and related hazards</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>This study describes a reliable preparation of relatively small Ag/Au-based anisotropic nanostructures possessing tunable absorption bands and their use as surface-enhanced Raman spectroscopy (SERS) substrates. These Au nanostructures were prepared via the seed growth process of small Ag-core-Au-shell-type nanoparticles that were obtained by the subsequent reduction of Ag and Au ions by NaBH(4) and L-ascorbic acid at room temperature. The presence of Ag during the transformation process of the Ag-Au core-shell nanoparticles under light irradiation led to the formation of various small anisotropic Au nanoparticles which clearly exhibited different structural and optical properties from those of nanoparticles prepared from typical Ag-Au alloy or bare Ag or Au seeds. As the optimal size of Au-based substrates for SERS applications was reported to be below 100 nm in diameter under a constant concentration, we tested our moderately small anisotropic nanoparticles (∼55 nm in diameter) as a SERS substrate to examine the signal enhancement of 4-nitrobenzenethiol. These nanoparticles exhibited a greatly increased SERS response compared to those of similar sizes of uniform Ag and Au nanoparticles, presumably because of the increased surface area due to the nanoparticles' anisotropic nature (i.e., chemical effect) and partial overlap of their absorption bands with the SERS excitation wavelength (i.e., electromagnetic effect). In addition, these nanoparticles have shown a suitable stability to prevent significant SERS signal fluctuations caused by unpredictable aggregations. Due to our simple synthetic and modification approaches, relatively small Au-based anisotropic nanostructures can be easily designed to serve as attractive SERS templates.</t>
+          <t>Because of accelerating technological progress, humankind may be rapidly approaching a critical phase in its career. In addition to well-known threats such as nuclear holocaust, the propects of radically transforming technologies like nanotech systems and machine intelligence present us with unprecedented opportunities and risks. Our future, and whether we will have a future at all, may well be determined by how we deal with these challenges. In the case of radically transforming technologies, a better understanding of the transition dynamics from a human to a posthuman society is needed. Of particular importance is to know where the pitfalls are: the ways in which things could go terminally wrong. While we have had long exposure to various personal, local, and endurable global hazards, this paper analyzes a recently emerging category: that of existential risks. These are threats that could case our extinction or destroy the potential of Earth - originating intelligent life. Some of these threats are relatively well known while others, including some of the gravest, have gone almost unrecognized. Existential risks have a cluster of features that make ordinary risk management ineffective. A final section of this paper discusses several ethical and policy implications. A clearer understanding of the threat picture will enable us to formulate better strategies.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386713318</t>
+          <t>https://openalex.org/W3136112441</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su151813656</t>
+          <t>https://doi.org/10.1016/j.sesci.2021.02.003</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Shamsi et al. (2023)</t>
+          <t>Han &amp; Clark (2021)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sustainable Transition through Circular Textile Products: An Empirical Study of Consumers’ Acceptance in India</t>
+          <t>Review of calculating the electrical conductivity of mineral aggregates from constituent conductivities</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The robust Indian textile industry results in prodigious consumption followed by equivalent waste, leading to environmental deterioration. The solution is circular textile production/products (CTPs), but their existence is almost absent in the Indian market due to a lack of focus on consumers’ acceptance of CTPs. To bridge the literature gap, the TPB model was extended to explore the antecedents that directly and indirectly influence consumers’ attitudes and purchase intentions towards CTPs. The PLS-SEM (using Smart-PLS) was used to assess the structural model with the 409 samples collected through an online survey from the NCR of India. The findings revealed that personal benefits, environmental consciousness (except risk perception), perceived behavioral control, and subjective norms significantly and directly influence consumers’ attitudes and purchase intentions towards CTPs. In addition, attitude significantly and indirectly mediates the relationship between “environmental consciousness, personal benefits (except risk perception)” and purchase intention towards CTPs. The finding offers pertinent information about the antecedents of CTPs that help the companies, marketers, and government to promote CTP acceptance and attain sustainability in the production and consumption of textile products in the Indian economy. Despite having product-specific and regional limitations, this research contributes significantly to the current literature on CTPs and their acceptance.</t>
+          <t>The electrical conductivity of mineral aggregates depends both on the properties of the constitutive minerals and the ways those minerals are assembled. Mixing, or average models combine the conductivity of single phases to give bulk conductivity of rocks, thereby linking experimental measurements to geophysical observations. In order to compare these mixing models and allow an informed choice, several popular approaches, including bounds and average models, have been used to estimate the conductivity of a typical dry upper mantle and transition zone with a pyrolite composition. All the estimations calculated using the various average models lie between the rigorous constraint that is given by the HS bounds. The average models in this study are found to give similar bulk conductivities with the difference of less than 0.5 orders of magnitude, except the geometric mean, implying that the choice of the average models is insignificant. The effective electrical conductivity of pyrolite mantle has been derived from the conductivity of dry mantle minerals using the effective medium theory, and was found consistent with observed conductivity values for some subsurface regions of the Earth which we expect to be relatively dry. This provides us with baseline conductivity for a dry mantle, which is helpful to understand the water distribution in the deep earth.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392406417</t>
+          <t>https://openalex.org/W2977405255</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.37394/232015.2023.19.130</t>
+          <t>https://doi.org/10.1002/9783527807130.ch19</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Karapidakis et al. (2023)</t>
+          <t>Šurca et al. (2017)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sustainable Energy Transition in Island Systems with substantial RES and Electricity Storage</t>
+          <t>&lt;i&gt;In Situ&lt;/i&gt;and&lt;i&gt;Ex Situ&lt;/i&gt;Electrochemical Measurements: Spectroelectrochemistry and Atomic Force Microscopy</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>A sustainable power system will require an extensive reliance on renewable energy sources (RES). Taking into account the fact that a significant share of RES has already been deployed, either on large or a small scale, today’s most crucial issue is their further participation in an extensive and secure power generation expansion to cover the large future energy demand. Although there is the needed capacity of RES that could cover the corresponding demand, the current power system structure and operation emerge limitations, which hold back their further exploitation. The introduction of energy storage systems, such as pump storage and batteries can help the further exploitation of the needed RES by balancing the current load demand and the intermittent power flow of photovoltaics and wind turbines. This paper analyses a recently interconnected island power system operation, as a representative case study, and demonstrates benefits, such as CO2 emissions reduction, and obstacles emerged by ultra-high penetration of RES. This ultra-high share of RES is technically feasible, through strong interconnections and electricity storage systems.</t>
+          <t>Coupling of electrochemical treatment and different spectroscopic techniques (infrared, Raman, UV–visible absorbance) or surface techniques (atomic force microscopy and structural determination via X-ray diffraction) can provide identification of reaction intermediates or products and give possibility to follow dynamic processes in cells and to define adsorbed species on working electrodes. Moreover, coupled techniques enabled determination of structural changes in films with intercalation properties and degradation of protective coatings against corrosion, the examples of which are depicted in this chapter.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2769120358</t>
+          <t>https://openalex.org/W2885145148</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Cox (2017)</t>
+          <t>WeiguoLi et al. (2015)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Essays in Household Finance</t>
+          <t>Abstract T P229: Deletion of Voltage Gated Proton Channel in Microglial Cells is Neurovascular Protective After Ischemic Brain Injury</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Author(s): Cox, Natalie Cox | Advisor(s): Handel, Benjamin | Abstract: The use of technology by firms is changing the way insurance and lending markets function. I study the financial technology, or fin-tech'', industry, which is characterized by a growing number of online lenders who use data on educational, employment, and financial outcomes to quickly assess the risk of prospective borrowers and offer individualized loan terms. In many ways, their financial innovations'' can be thought of as movements towards more personalized products: interest rates that better reflect individuals' risk, payment plans that are tailored to individuals' monthly income and expenditures, and user-friendly interfaces that make financial decisions more intuitive and uncomplicated. On an individual level, as firms expand and customize product offerings, there is the potential for large efficiency gains. These innovations could also have wider implications for market structure; for example, if more accurate risk-based pricing creates clear winners and losers, it will change the distribution of consumer surplus.Advances in data-driven underwriting have both efficiency and equity implications for consumer lending markets where private and public credit options coexist. In the $1 trillion student loan market, private lenders now offer a growing distribution of risk-based interest rates, while the federally-run loan program sets a break-even, uniform interest rate. In my first chapter, I measure the overall gains in consumer surplus from such risk-based pricing and quantify the redistributional consequences of low-risk types refinancing out of the government pool into the private market. The empirical analysis is based on a unique applicant-level dataset from an online refinancing firm that contains information on loan terms, household balance sheets, and risk-based interest rates. I first leverage a series of firm-conducted interest rate experiments to estimate the sensitivity of borrowers' maturity and refinancing choices to interest rates. Using the maturity response, I then estimate a structural model of borrowers' repayment preferences. Using the estimated model, I show that comprehensive risk-based pricing generates large absolute gains in welfare of $480 per borrower relative to a break-even uniform price, and $400 relative to a coarser method of FICO-based pricing. If the federal pool conducts breakeven pricing, these efficiency gains come at a direct equity cost -- low risk surplus will increase on average by $2,300, while high risk surplus will fall by $2,100. In order to maintain access to the current uniform rate, the government would have to transition from break-even pricing to an average net subsidy of $2,080 per borrower.In the second chapter, I empirically analyze the fixed and variable rate decisions of borrowers who are financing large personal loans, and are given the option to switch rate types at any point. Many online lending firms now offer financial products that are more flexible and personalized than traditional loans; however, little is known about how consumers will interact with these more complete, but also more complex, contracts. Over my sample time period, the market index interest rate for the fixed and variable rate loans changed considerably. I first present reduced form evidence on the determinants of borrowers' initial rate decisions and the presence of switching costs, and then estimate a structural model that maps these findings to the coefficient of absolute risk aversion and a switching cost parameter. I compare the active and inactive rate choices of borrowers in different interest rate environments to separately identify switching costs from risk preferences.I show that while initial rate choices are very responsive to the prevailing interest rate environment, very few borrowers ever take advantage of the option to switch rate types even when interest rates increase. Specifically, I estimate a risk aversion parameter of .0564, which implies that borrowers are very risk averse, and lower and upper bounds on switching costs from $166 to $1,185. I also show that both the initial probability of choosing a variable rate loan and the probability of never switching are positively correlated with borrower liquidity constraints, which suggests that these borrowers are more focused on current monthly payments than future interest rate risk.</t>
+          <t>Despite the failure of antioxidant treatments in clinical trials, the undoubted role of reactive oxygen species (ROS) in neurovascular damage after ischemic stroke calls for a more targeted approach. ROS production by microglia, the primary resident immune cells in the brain, is a key event of this process in ischemic stroke. Voltage gated proton channel, Hv1, is localized primarily to microglia and sustains NADPH oxidase activity. Deletion of Hv1 is neuroprotective after permanent middle cerebral artery occlusion (MCAO). We hypothesized that Hv1-mediated microglial ROS generation is also critical for vascular integrity and contributes to reperfusion injury after transient ischemic stroke. The wildtype (WT) and Hv1 knockout (KO) rats (n=4) were subjected to permanent or 3/24 h transient MCAO. The neurological deficiency, infarct, hemorrhagic transformation, and edema ratio were assessed. We found that in both permanent and transient MCAO model, KO rats develop smaller infarct, less vascular injury, edema,...</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2144424972</t>
+          <t>https://openalex.org/W3164506741</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/chem.200701223</t>
+          <t>https://doi.org/10.1016/j.cesys.2021.100038</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hartmann et al. (2008)</t>
+          <t>Yalçın &amp; Foxon (2021)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tailor‐Made Poly(amidoamine)s for Controlled Complexation and Condensation of DNA</t>
+          <t>A systemic approach to transitions towards circular economy: The case of Brighton and Hove</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Abstract A set of polymer carriers for DNA delivery was synthesized by combining monodisperse, sequence‐defined poly(amidoamine) (PAA) segments with poly(ethylene oxide) (PEO) blocks. The precise definition of the PAA segments provides the possibility of correlating the chemical structure (monomer sequence) with the resulting biological properties. Three different PAA–PEO conjugates were synthesized by solid‐phase supported synthesis, and the cationic nature of the PAA segments was systematically varied. This allows for the tailoring of interactions with double‐stranded plasmid DNA (dsDNA). The potential of the PAA–PEO conjugates as non‐viral vectors for gene delivery is demonstrated by investigating the dsDNA complexation and condensation properties. Depending on the applied carrier, a transition in polyplex (polymer–DNA ion complex) structures is observed. This reaches from extended ring‐like structures to highly compact toroidal structures, where supercoiling of the DNA is induced. An aggregation model is proposed that is based on structural investigations of the polyplexes with atomic force microscopy (AFM) and dynamic light scattering (DLS). While the cationic PAA segment mediates primarily the contact of the carrier to the dsDNA, the PEO block stabilizes the polyplex and generates a “stealth” aggregate, as was suggested by Zeta potentials that were close to zero. The controlled aggregation leads to stable, single‐plasmid complexes, and stabilizes the DNA structure itself. This is shown by ethidium bromide intercalation assays and DNase digestion assays. The presented PAA–PEO systems allow for the formation of well‐defined single‐plasmid polyplexes, preventing hard DNA compression and strongly polydisperse polyplexes. Moreover carrier polymers and the resulting polyplexes exhibit no cytotoxicity, as was shown by viability tests; this makes the carriers potentially suitable for in vivo delivery applications.</t>
+          <t>To date, the literature on the circular economy has been dominated by closed-loop industrial practices, circular products, and business models. Lack of systemic perspective in the circularity debate limited the understanding of multi-actor and multi-pattern transitions. In this paper, we apply a co-evolutionary framework to investigate key dimensions of a socio-technical system -ecosystems, technologies, businesses, institutions, and user practices-in the city of Brighton and Hove (United Kingdom). We present the causal interaction between these systems based on the outcomes of semi-structured interviews with the local actors and documentary analysis of relevant policies and strategies. Exploring how each system evolves under own dynamics and influenced by the dynamics in the others leads us to identify the main drivers and barriers of a circular economy in the city. Our findings underline the necessity of systems-level change with a holistic vision, consideration of place-specific factors and engagement of multiple actors for a successful transition.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3018179668</t>
+          <t>https://openalex.org/W3083706695</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1029/2020tc006260</t>
+          <t>https://doi.org/10.1109/cec48606.2020.9185569</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Huang et al. (2021)</t>
+          <t>Tomassini (2020)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Seismic Imaging of an Intracrustal Deformation in the Northwestern Margin of the South China Sea: The Role of a Ductile Layer in the Crust</t>
+          <t>Random Walks on Local Optima Networks</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Abstract The continental margins of the South China Sea (SCS) have undergone episodic rifting since the Cenozoic, and there are ongoing debates surrounding the processes of crustal deformation and seafloor opening. In this work, we present a P ‐wave velocity model extending from the north of Xisha Trough to the Zhongshanan Basin in the northwestern SCS margin, using ocean bottom seismometer data of the wide‐angle seismic profile OBS2013‐1. The results show that the crust thins symmetrically across the western Xisha Trough, from more than ∼20 km at the flanks to ∼10 km in the central valley where the sedimentary layers thicken to over 6 km. In the Zhongsha Trough, closer to the deep basin, the upper crust is detached in a ∼20 km wide region and the lower crust has seismic velocities increased by more than ∼0.3 km/s. The top boundary of the lower crust is located at a depth of ∼13 km across the Zhongsha Trough, and a ∼5 km thick midcrustal ductile layer is imaged. A ∼50 km wide ocean‐continent transition region beneath the Zhongshanan Basin characterizes a ∼6 km thick continental crust underlain by serpentinized and magnetized upper mantle. These observations, together with plate reconstructions based on gravity and magnetic analysis, suggest that deformation of the continental margin was controlled by a ductile crustal layer. Magmatism, associated with the early stage oceanic accretion, has mixed with the highly extended continental crust. Developments of the failed rifted basins were controlled by the westward propagation of the continental breakup.</t>
+          <t>The Local Optima Networks represent combinatorial landscapes as graphs, where nodes are local optima and edges are transitions between optima. It brings a new set of metrics to characterize them. Here we investigate the behavior of random walks on such oriented and weighted networks using NK landscapes and QAP instances as examples. We show that random walks are useful to characterize the structure of the corresponding LONs and give interesting information about the relationships between search difficulty and LON structure.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3206144518</t>
+          <t>https://openalex.org/W3097947765</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s12571-021-01219-y</t>
+          <t>https://doi.org/10.1016/j.egyai.2020.100036</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Alho et al. (2021)</t>
+          <t>Xin et al. (2020)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Analysis of banana and cocoa export commodities in food system transformation, with special reference to certification schemes as drivers of change</t>
+          <t>The future of sustainable chemistry and process: Convergence of artificial intelligence, data and hardware</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Abstract Food systems analysis is increasingly being applied to understand relations between production, distribution, and consumption of food products, the drivers that influence the system, and the outcomes that show how well the food system performs on health and nutrition, on environmental sustainability, and on income and inclusiveness. Little attention has gone to the position of global export commodities, where production and consumption are far apart. Banana in Costa Rica and cocoa in Cote d’Ivoire were the subject of this study to find out what major drivers determine the functioning of these systems. Next to identifying drivers such as population growth and increased plant disease pressure, it was found that the typical far-away setting and different living conditions between producer and consumer countries required a special eye on governance as a tripartite arena (government, private sector, civil society) with their power relations, and on certification schemes as a driver that follows from corporate social responsibility. The certification schemes addressed cover all food system outcomes, although health and nutrition in a less conspicuous way. The descriptions of the functioning of the schemes were also linked to living wages and incomes for banana plantation workers in Costa Rica and cocoa smallholder farmers in Côte d’Ivoire. Although very meaningful, certification schemes so far do not prove to be a silver bullet, but they do have the potential, in combination with other measures, to help positive food system transformations.</t>
+          <t>Sustainable chemistry for renewable energy generation and green synthesis is a timely research topic with the vision to provide present needs without compromising future generations. In the era of Industry 4.0, sustainable chemistry and process are undergoing a drastic transformation from continuous flow system toward the next level of operations, such as cooperating and coordinating machine, self-decision-making system, autonomous and automatic problem solver by integrating artificial intelligence, data and hardware in the cyber-physical systems. Due to the lack of convergence between the physical and cyber spaces, the open-loop systems are facing challenges such as data isolation, slow cycle time, and insufficient resources management. Emerging researches have been devoted to accelerating these cycles, reducing the time between multistep processes and real-time characterization via additive manufacturing, in-/on-line monitoring, and artificial intelligence. The final goal is to concurrently propose process recipes, flow synthesis, and molecules characterization in sustainable chemical processes, with each step transmitting and receiving data simultaneously. This process is known as 'closing the loop', which will potentially create a future lab with highly integrated systems, and generate a service-orientated platform for end-to-end synchronization and self-evolving, inverse molecular design, and automatic science discovery. This perspective provides a methodical approach for understanding cyber and physical systems individually, enabled by artificial intelligence and additive manufacturing, respectively, in combination with in-/on-line monitoring. Moreover, the future perspective and key challenges for the development of the closed-loop system in sustainable chemistry and process are discussed.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W1967038285</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.2307/3514987</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Curran &amp; White (1991)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Trace Fossils of Shallow Subtidal to Dunal Ichnofacies in Bahamian Quaternary Carbonates</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>Pleistocene and Holocene carbonate grainstones or calcarenites capping the islands of the Bahamas commonly contain distinctive animal and/or plant trace fossils. Three ichnocoenoses within the Skolithos and Psilonichnus ichnofacies are recognized in the transition from sediments deposited in the shallow shelf environment, commonly associated with coral reefs, to sediments of the coastal dune environment. Analog relationships between the trace fossils and modern tracemakers can be established in many cases, and this correspondence strengthens the interpretive model. Ophiomorpha and Skolithos linearis characterize beds deposited in shallow shelf settings. Psilonichnus upsilon, the fossil burrow of the ghost crab Ocypode quadrata, marks beds deposited in the upper foreshorebackshore environment and has particular utility as an indicator of sea-level position. A diverse ichnocoenosis consisting of Skolithos linearis, a large cluster burrow, small, irregular burrows, and plant trace fossils formed along bedding planes characterizes beds of the dunal environment. The ichnologic model developed herein for recognition of depositional zones in the transition from shallow subtidal to dune environments in the tropical, carbonate coastal settings of the Bahamas should be applicable to other geologically similar settings around the world.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2926759248</t>
+          <t>https://openalex.org/W3208775726</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17705/1pais.10204</t>
+          <t>https://doi.org/10.1093/nutrit/nuab084</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Kumar et al. (2018)</t>
+          <t>Poutanen et al. (2022)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Explaining customer’s continuance intention to use mobile banking apps with an integrative perspective of ECT and Self-determination theory</t>
+          <t>Grains – a major source of sustainable protein for health</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Digital payments evolve as the next generation system to take over the global commerce landscape in the same manner in which internet and mobile telephony had dominated the traditional communication domains. The use of mobile banking apps has spurred the digital medium across the globe and resulted in a fundamental shift in retailing practices. The purpose of this paper is to comprehend various factors influencing the customer’s continuance intention-behavior to use mobile banking apps. In this study, we developed a research model that encompasses the attributes of Expectation confirmation theory (ECT) and Self-determination theory (SDT). The research model was tested using survey data collected from 744 respondents across various demographics and analyzed using structural equation modeling (SEM) to understand the usage behavior of mobile banking apps in a multi-faceted business environment. The various hypothesis of the research model indicate that mobile banking apps continuance intention usage behavior is strongly influenced by the satisfaction, intrinsic and identified regulations, whereas satisfaction is influenced by the expectation-confirmation, trust, and quality. The research findings reveal that, “An enormous potential are available for marketing managers and researchers to tape these opportunities and plan for continual and sustainable growth of mobile banking apps. “</t>
+          <t>Cereal grains are the main dietary source of energy, carbohydrates, and plant proteins world-wide. Currently, only 41% of grains are used for human consumption, and up to 35% are used for animal feed. Cereals have been overlooked as a source of environmentally sustainable and healthy plant proteins and could play a major role in transitioning towards a more sustainable food system for healthy diets. Cereal plant proteins are of good nutritional quality, but lysine is often the limiting amino acid. When consumed as whole grains, cereals provide health-protecting components such as dietary fiber and phytochemicals. Shifting grain use from feed to traditional foods and conceptually new foods and ingredients could improve protein security and alleviate climate change. Rapid development of new grain-based food ingredients and use of grains in new food contexts, such as dairy replacements and meat analogues, could accelerate the transition. This review discusses recent developments and outlines future perspectives for cereal grain use.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163654497</t>
+          <t>https://openalex.org/W933973103</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/v10-116</t>
+          <t>https://doi.org/10.1007/978-94-010-1870-8_6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Li et al. (2010)</t>
+          <t>Dunn (1976)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Theoretical study of the microwave spectrum of isotopologues of OCS–(He)&lt;sub&gt;2&lt;/sub&gt;</t>
+          <t>The Catholic Church and the Soviet Government in Soviet Occupied East Europe, 1939–1940</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>The rovibrational energy levels (J = 0–3) and rotational spectra of seven isotopologues of the OCS–(He) 2 complex have been determined by numerically exact basis set calculations. The interaction energy is represented as a sum of two-body terms consisting of the OCS–He potential, which Howson and Hutson (J. Chem. Phys. 2001, 115, 5059) obtained at the CCSD(T)/aug-cc-pVTZ level of theory, and the He–He potential that Jeziorska et al. (J. Chem. Phys. 2007, 127,124303) obtained with SAPT theory. Three-body effects and the quality of the potential are discussed. Comparison with experiment shows that microwave transitions can be predicted by this additive approach with an accuracy equal or better than 0.7% for all the observed spectral lines. A method for the three-dimensional representation of the helium density in the body-fixed frame is presented that highlights the highly delocalized nature of the helium subsystem.</t>
+          <t>The interplay between the Catholic Church and the Soviet authorities in Soviet occupied Poland during 1939–1940 offers a unique prism to understand the religious policy and the decision-making process of the Soviet Government. Before the war the Soviet Government had been quite hostile to the Catholic Church in the U.S.S.R. and had institutionally decimated it, leaving by 1939 only a few scattered churches and clerics and an Apostolic Administrator in Moscow, Leopold Braun, who was tolerated because he was also chaplain to the American embassy.1 The Soviets’ animosity rested upon a series of reasons. (1) The Communists believed, as Marxist-Leninists, that religion’s extirpation would advance the socialist revolution.2 This ideological factor, of course, must always be balanced by the pragmatic nature of Marxism Leninism which would permit tactical changes, including an alliance with religion, if such alterations would serve the interests of the Party. (2) The Bolsheviks inherited from the tsars a legacy which pegged Catholicism (especially in its Uniate form) as an historical foe of the Russian people.3 (3) The Soviets could not abide Catholicism because it preached a world view irreconcilable with their own. (4) Catholicism was an international movement competing with Communist internationalism. (5) It was a religion led by a foreign, independent authority — the Vatican — over which the Communists had no influence. (6) It was a source of nationalism for some major, national minorities in the U.S.S.R., including Poles, Volga Germans, Belorussians, and Ukrainians (after 1940 one would also include Lithuanians and Latvians), and thus it blocked not only these peoples’ ‘Sovietization’ but the totalitarian aspirations of the Soviet Government. Finally, the Church was identified — dating from the time of the revolution, the civil war, and the Russo-Polish war — with the internal and external enemies of the regime.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2913801034</t>
+          <t>https://openalex.org/W4398151194</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15802/ampr.v0i14.141907</t>
+          <t>https://doi.org/10.1007/978-3-031-47312-8_8</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lazareva (2019)</t>
+          <t>Motum (2024)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ON THE THRESHOLD OF TECHNOLOGICAL SINGULARITY: HUMAN READINESS TO THE NEW STAGE OF EVOLUTION</t>
+          <t>Calling from Canada: Exploring the Shift to Telephonic Theatre During COVID-19</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Purpose. The study is aimed at a philosophical analysis of the state of humanity’s readiness for technological singularity, the definition of the concept of postbiology and the investigation of ways to bring the population (in particular, the Ukrainian one) to a new, qualitatively higher level of existence. Theoretical basis. The author analyzes the level of public consciousness and the features of its cooperation with technological world. Due to the inability of most modern people to cope with changes effectively, the author questions humanity’s readiness for the postbiological stage of evolution of our species. Based on the analysis of the ideas of authoritative futurists of our time, the author explores the prospects of Ukrainian society in the postbiological future. Originality. The author not only analyzes the challenges that humanity faces during its transition to a new type of civilization, but also explores the obstacles that hinder this process directly in the Ukrainian society. The author proves that the ideas of transhumanism and going beyond the human biology should not be postulated without a moral context. In addition, the scientific study proposes a number of projects designed to improve the educational institutions that are responsible for the intellectual and spiritual development of the individual. Conclusions. Postbiology can become both, a new qualitatively higher stage of the human species evolution and the collapse of humaneness. Along with overcoming human biology, there will be the destruction of moral guidelines, social and legal systems. In order to prevent total chaos and catastrophe, technological development must be complemented by appropriate developments of new norms that can balance society.</t>
+          <t>At the beginning of the pandemic, when artists and audiences could no longer gather, the first Canadian theatre companies to pivot their programming and launch live theatrical works were those with long histories of challenging what theatre is, where theatre can happen, and how theatre meets its audience. While many artists and companies turned to archival footage from previous productions, online play readings, or other recorded content, companies with backgrounds in site-specific or immersive theatre seemed to transition to the new "normal" quickly and with observable success. By April 2020, Outside the March (OTM), a Toronto-based company known for staging work in places including a kindergarten classroom, video store, and funeral home, launched The Ministry of Mundane Mysteries—a week-long interactive telephone play. The piece has become a successful cultural export during a time when traditional theatre touring is impossible. Alongside OTM, Convergence Theatre also performed for an international audience with their phone-based Corona Variations. Dopolavoro Teatrale (DLT), another Toronto company self-described as "site and audience specific," launched Theatre on-Call, and Vancouver's Boca del Lupo toured yet another phone-based experience, Red Phone. During a time when theatre and society moved into the virtual world, these companies gravitated away from screen-based digital content toward an older, analogue form—the telephone. Together, these "phone plays" represent some of the earliest live Canadian theatrical experiences of the pandemic, and invite reflection on how notions of theatrical space, liveness, and intimacy shifted during COVID-19. Approaching this work in conversation with scholars of site-specific, digital, and disability performance, this chapter suggests that the practicalities of telephonic form offer opportunities for new accessibilities of theatre now and in the future.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2756150191</t>
+          <t>https://openalex.org/W4392598864</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.55596/001c.115413</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-5257</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Widdowson (2016)</t>
+          <t>Johansen et al. (2024)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Managing the Border: A Transformational Shift to Pre-Export Screening</t>
+          <t>A Framework for Monitoring Above Ground Biomass of Hyper-Arid Rangelands in the Middle East</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Until fairly recently, it has been the practice of customs authorities to screen international cargo upon its arrival in the country, that is, ‘at the border’, as opposed to pre-screening prior to its departure from the country of export. The concept of what constitutes the border has changed significantly, with an expanded view now encompassing the entire international supply chain. This paper examines catalysts for the pronounced change in practice and identifies the emergence of national security imperatives as the primary reason for the transformational shift to pre-export screening and targeting. The research examines the manner in which the policy has been adopted and applied by individual economies, and the proportion of containerised sea cargo impacted by its adoption. In doing so, related security initiatives and their impact on cross-border trade are addressed.</t>
+          <t>In line with Saudi Vision 2030 and the ambitions of the Saudi Green Initiative to plant 10 billion trees and protect 30% of Saudi Arabia&amp;amp;#8217;s land and sea areas, large parts of Saudi Arabia are being transitioned into nature reserves and undergoing regreening activities, while also fencing off large areas for vegetation restoration and protection. To effectively manage the regreening and restoration initiatives, it is imperative to frequently monitor biomass changes over time and quantify the accumulation of biomass to determine if the restoration and tree-planting initiatives have the intended outcomes. However, landscape responses to regreening and vegetation restoration are poorly understood in hyper-arid rangelands. Environmental processes within different habitat zones might differ, which further complicates biomass monitoring. Here, we present a framework that is currently being applied across multiple hyper-arid rangelands in Saudi Arabia to estimate biomass within newly established nature reserves. The initial work focused on developing a scaling approach between ground, unmanned aerial vehicle (UAV), and satellite image data, including PlanetScope and Sentinel-2 imagery. Field sites were identified using Google Earth imagery and a number of criteria, including a 5-year Sentinel-2 NDVI time-series to identify greening events, terrain characteristics based on DEM data, and differences in vegetation functional types (annual and perennial grass/herbs/forbs, shrubs and trees), soil types, and habitats. Field-based measurements at selected sites focused on determining biomass of different vegetation functional types, using a double-sampling approach, including a limited number of destructive samples, and a large number of biomass estimates based on the structural and dimensional characteristics of the destructive samples. UAV-based light detection and ranging (LiDAR) and multispectral data were obtained for each site to estimate biomass from the field-based samples using different machine and deep learning approaches (random forest, support vector machines, vision transformer, UNet with attention encoder). It was found that LiDAR data provided useful information on vegetation height and volume, which improved the biomass estimates, whereas the multispectral data enabled discrimination between photosynthetic and non-photosynthetic vegetation components. Based on the UAV-derived estimates of biomass, a scaling approach was applied to estimate biomass from both PlanetScope and Sentinel-2 data, with results demonstrating that the higher spatial resolution of the PlanetScope data improved the accuracy due to the very sparse vegetation in most parts of the hyper-arid rangelands of this study. While hyper-arid rangelands are generally underrepresented in research studies worldwide, this research provide a viable framework for assessing vegetation dynamics of biomass both seasonally and annually.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1978163760</t>
+          <t>https://openalex.org/W1979426959</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.physb.2008.03.028</t>
+          <t>https://doi.org/10.1016/s1386-1425(02)00300-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Shalabi et al. (2008)</t>
+          <t>Banerjee et al. (2003)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Optical properties of charged : Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of MgO: Theoretical study</t>
+          <t>Photophysical studies of oxicam group of NSAIDs: piroxicam, meloxicam and tenoxicam</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>The optical properties of FA1+: Zn2+, Cd2+, Hg2+ centers in the bulk and at the surface of the alkaline earth monooxide (MgO) are investigated by using the configuration interaction singles (CIS), and the density functional theory (DFT) methods of molecular electronic structure calculations. Quantum clusters were embedded in the simulated Coulomb fields that closely approximate the Madelung fields of the host crystal, and ions that were the nearest neighbors to the defect site were allowed to relax to equilibrium. The sensitivity of the examined optical properties, namely, transition energies (Stokes shifts), optical–optical conversion efficiency, relaxed excited states of the defect-containing surface, orientational destruction of the color center, recording sensitivity, exciton (energy) transfer, and the Glasner–Tompkins empirical rule to each of the bulk and surface ion coordination number are demonstrated.</t>
+          <t>Oxicam group of non steroidal anti-inflammatory drugs has been chosen as a prototype molecular group that shows diverse biological functions and dynamic structural features. Photophysical studies of three drugs from this group viz., piroxicam, meloxicam and tenoxicam have been carried out in different solvents with varying polarity, H-bond character and viscosity. The spectral responses of different prototropic forms of these drugs towards varying solvent parameters have been studied, with the aim to characterize their interaction in biomimetic environment non-invasively. The nature of the lowest transition has been identified. The extinction coefficient, quantum yield and viscosity dependence on the nature of the solvents, all indicate the extreme sensitivity of these drugs to their microenvironment.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1536435271</t>
+          <t>https://openalex.org/W2023438753</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2172/6501445</t>
+          <t>https://doi.org/10.1016/j.tust.2009.07.005</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Belford &amp; Clarkson (1989)</t>
+          <t>Hu et al. (2009)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Spin-mapping of coal structures with ESE and ENDOR (Electron-Nuclear Double Resonance)</t>
+          <t>An analytical method for internal forces in DOT shield-driven tunnel</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Our Laboratory is presently engaged in developing a method to model sulfur-containing compounds in whole coal. It has been established that most of the organic sulfur in coal exists in the form of aromatic groups known as thiophenes. Sulfur-containing aromatic compounds such as thiophene, tetraphenylthiophene and thianthrene were adsorbed onto silica-alumina catalyst surfaces were used as models to emulate coal's anisotropic nature and abundance of unpaired electron spin density. The spectroscopic techniques used were Electron Paramagnetic Resonance (EPR), Electron-Nuclear Double Resonance (ENDOR). EPR spectroscopy is a well established method to characterize g-matrix anisotropy in transition metal compounds. With increased resolution, EPR has become very useful for characterizing the small but still detectable g-matrix anisotropy in organic systems such as coal and the model systems for coal. ENDOR spectroscopy involves the inducement of NMR transitions of the nearby protons while detecting them with an EPR detection scheme which is several orders of magnitude more sensitive than using a NMR detection scheme. Analysis of the ENDOR spectra produced hyperfine information which is characteristic of these sulfur-containing systems. This information will be needed to resolve anisotropic hyperfine spectral features attributable to sulfur content in the analysis of coal macerals. 2 refs., 3 figs.</t>
+          <t>This paper presents an analytical solution for the determination of internal forces of a jointed segmental precast DOT (Double-O-tube) lining. The unbalanced force transition method is combined with force method to establish an efficient analytical shortcut that simplifies tests and obtains the solution more effective than the existing methods to determine internal forces in the DOT tunnel lining. The in situ test on a DOT tunnel and a numerical simulation by FEM are conducted to verify the proposed analytical solution. The effects of shoulder ground pressure, soil resistance coefficient and open angle of DOT tunnel on the performance of tunnel lining are discussed as well.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2319697210</t>
+          <t>https://openalex.org/W1963689218</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jp402027x</t>
+          <t>https://doi.org/10.1190/1.1890387</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Łapiński et al. (2013)</t>
+          <t>Hadidi &amp; Smith (1990)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Spectroscopic Studies of the Phase Transition from the Mott Insulator State to the Charge-Ordering State of κ-(ET)&lt;sub&gt;4&lt;/sub&gt;[M(CN)&lt;sub&gt;6&lt;/sub&gt;][N(C&lt;sub&gt;2&lt;/sub&gt;H&lt;sub&gt;5&lt;/sub&gt;)&lt;sub&gt;4&lt;/sub&gt;]·2H&lt;sub&gt;2&lt;/sub&gt;O (M = Co&lt;sup&gt;III&lt;/sup&gt; and Fe&lt;sup&gt;III&lt;/sup&gt;) Salts</t>
+          <t>Transition zone seismic: A method to integrate various source and receiver combinations</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Polarized reflectivity spectra versus temperature of two isostructural charge-transfer salts κ-(ET)4[M(CN)6][N(C2H5)4]·2H2O (M = Co(III) and Fe(III)) (ET = bis(ethylenedithio)tetrathiafulvalene) were studied. The electronic and vibrational spectra exhibit a drastic change at around 150 K. On the basis of the spectral analysis, we deduced the nature of the phase transition. The phase transition at 150 K is due to a charge ordering; above this temperature, strong charge fluctuations are observed.</t>
+          <t>Exploration in transition zones is challenging due to rapidly varying surface conditions, which require the use of creative acquisition and processing techniques. In the case described here, a 3D transition zone seismic survey was acquired with nine different source and receiver combinations, each designed to accommodate a particular environment, ranging from onshore to offshore. Therefore, wavelet processing was a critical stage in processing this survey. Improvements in modeling deterministic wavelet components and in handling noise effects have enhanced the design of appropriate wavelet processing operators. With all data converted to minimum phase, regardless of the energy source and the receiver type, statistical deconvolution more effectively compressed the wavelet. The resulting 3D survey has excellent resolution and continuity, allowing a refined structural interpretation and a detailed stratigraphic analysis to be completed.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2888512405</t>
+          <t>https://openalex.org/W1536435271</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1748-9326/aadbf8</t>
+          <t>https://doi.org/10.2172/6501445</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Fan et al. (2018)</t>
+          <t>Belford &amp; Clarkson (1989)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Urbanization and sustainability under transitional economies: a synthesis for Asian Russia</t>
+          <t>Spin-mapping of coal structures with ESE and ENDOR (Electron-Nuclear Double Resonance)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Spanning a vast territory of approximately 13 million km2, Asian Russia was home to 38 million people in 2016. In an effort to synthesize data and knowledge regarding urbanization and sustainable development in Asian Russia in the context of socioeconomic transformation following the breakup of the Soviet Union in 1990, we quantified the spatiotemporal changes of urban dynamics using satellite imagery and explored the interrelationships between urbanization and sustainability. We then developed a sustainability index, complemented with structural equation modeling, for a comprehensive analysis of their dynamics. We chose six case cities, i.e., Yekaterinburg, Novosibirsk, Krasnoyarsk, Omsk, Irkutsk, and Khabarovsk, as representatives of large cities to investigate whether large cities are in sync with the region in terms of population dynamics, urbanization, and sustainability. Our major findings include the following. First, Asian Russia experienced enhanced economic growth despite the declining population. Furthermore, our case cities showed a general positive trend for population dynamics and urbanization as all except Irkutsk experienced population increases and all expanded their urban built-up areas, ranging from 13% to 16% from 1990 to 2014. Second, Asian Russia and its three federal districts have improved their sustainability and levels of economic development, environmental conditions, and social development. Although both regional sustainability and economic development experienced a serious dip in the 1990s, environmental conditions and social development continuously improved from 1990 to 2014, with social development particularly improving after 1995. Third, in terms of the relationships between urbanization and sustainability, economic development appeared as an important driver of urbanization, social development, and environmental degradation in Asian Russia, with economic development having a stronger influence on urbanization than on social development or environmental degradation.</t>
+          <t>Our Laboratory is presently engaged in developing a method to model sulfur-containing compounds in whole coal. It has been established that most of the organic sulfur in coal exists in the form of aromatic groups known as thiophenes. Sulfur-containing aromatic compounds such as thiophene, tetraphenylthiophene and thianthrene were adsorbed onto silica-alumina catalyst surfaces were used as models to emulate coal's anisotropic nature and abundance of unpaired electron spin density. The spectroscopic techniques used were Electron Paramagnetic Resonance (EPR), Electron-Nuclear Double Resonance (ENDOR). EPR spectroscopy is a well established method to characterize g-matrix anisotropy in transition metal compounds. With increased resolution, EPR has become very useful for characterizing the small but still detectable g-matrix anisotropy in organic systems such as coal and the model systems for coal. ENDOR spectroscopy involves the inducement of NMR transitions of the nearby protons while detecting them with an EPR detection scheme which is several orders of magnitude more sensitive than using a NMR detection scheme. Analysis of the ENDOR spectra produced hyperfine information which is characteristic of these sulfur-containing systems. This information will be needed to resolve anisotropic hyperfine spectral features attributable to sulfur content in the analysis of coal macerals. 2 refs., 3 figs.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323043702</t>
+          <t>https://openalex.org/W3097691847</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su15054496</t>
+          <t>https://doi.org/10.36038/2307-3497-2020-180-140-155</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Suman &amp; Alblas (2023)</t>
+          <t>Krasnoborod’ko et al. (2020)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Exploring Citizen Science over Time: Sensing, Technology and the Law</t>
+          <t>Ecological response to changes in the structure of water masses in the pelagic of the Canary Current Marine Ecosystem</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>People over the course of history have survived by developing their ability to ‘sense’ their environment as an embryonic form of citizen science. With the emergence of modern states, governments have assumed responsibility for monitoring the quality of the environment, and progressively the practice and role of citizen science has changed. This review explores the different manifestations of citizen science over time, with a focus on its law and governance dimensions, reading this evolution as a critical analysis of the current discourses around citizen science. The evolution of citizen science throughout history and its transformation shows certain patterns that are highlighted in this article as ‘constant’ features, whereas other features are instead interrupted and reversed, and new ones emerge. We thus examined citizen science over time by asking what is really new about this phenomenon, focusing on constants—permanent features—and turning points—changes in direction. We argue that these dynamics are central to understanding the promises and perils of the practice, to fully grasping the forms of uninvited, reactive environmental citizen science and to scoping foreseeable future scenarios.</t>
+          <t>Based on the results of sea expeditions, interannual changes in structure of the ichthyocenosis in the pelagic zone of the southern shelf of Morocco in the Atlantic Ocean were studied in connection with changes in the habitat. Mass pelagic fish were selected as reference biological species: European and West African horse mackerel, European sardine, Eastern mackerel, sea bream, sea snipe, myctophids, as well as non-commercial fish species. Field data were obtained during the implementation of complex oceanographic surveys in the fall seasons (October-November) 2015–2018. The results of control trawls were used, in which any species amounted to at least 70 % of the catch. The analysis of the species composition of the control trawls, data of hydroacoustic tracking of trawls, thermohaline water characteristics is carried out. Data pairing was carried out by phased extraction and transformation using standard computer programs for processing various types of data (acoustic, hydrological, ichthyological), as well as specially designed programs that allow you to create a single database. It has been established that recent changes in the number of commercial and by-catch species observed in the ARZ of Morocco in recent years are associated with the presence or absence of so-called “settlement windows”, which appear in the T, S‑diagram field by regions of different configurations, which indicates changes in the ratios of water masses. Based on the identified relationships between changes in the ratio of water masses and changes in the species composition of the control trawls of accounting replenishment surveys, estimates of the expected changes in the biomass of mass pelagic fish in the coming years are made.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2117401019</t>
+          <t>https://openalex.org/W2888512405</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1068/c10222</t>
+          <t>https://doi.org/10.1088/1748-9326/aadbf8</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Seyfang &amp; Haxeltine (2012)</t>
+          <t>Fan et al. (2018)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Growing Grassroots Innovations: Exploring the Role of Community-Based Initiatives in Governing Sustainable Energy Transitions</t>
+          <t>Urbanization and sustainability under transitional economies: a synthesis for Asian Russia</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The challenges of sustainable development (and climate change and peak oil, in particular) demand system-wide transformations in sociotechnical systems of provision. An academic literature around coevolutionary innovation for sustainability has recently emerged as an attempt to understand the dynamics and directions of such sociotechnical transformations, which are termed ‘sustainability transitions’. This literature has previously focused on market-based technological innovations. Here we apply it to a new context of civil-society-based social innovation and examine the role of community-based initiatives in a transition to a low-carbon sustainable economy in the UK. We present new empirical research from a study of the UK's Transition Towns movement (a ‘grassroots innovation’) and assess its attempts to grow and influence wider societal sociotechnical systems. By applying strategic niche management theory to this civil society context, we deliver theoretically informed practical recommendations for this movement to diffuse beyond its niche: to foster deeper engagement with resourceful regime actors; to manage expectations more realistically by delivering tangible opportunities for action and participation; and to embrace a community-based, action-oriented model of social change (in preference to a cognitive theory of behaviour change). Furthermore, our study indicates areas where theory can be refined to better explain the growth and broader impacts of grassroots innovations—namely, through a fuller appreciation of the importance of internal niche processes, by understanding the important role of identity and group formation, and by resolving how social practices change in grassroots innovations.</t>
+          <t>Spanning a vast territory of approximately 13 million km2, Asian Russia was home to 38 million people in 2016. In an effort to synthesize data and knowledge regarding urbanization and sustainable development in Asian Russia in the context of socioeconomic transformation following the breakup of the Soviet Union in 1990, we quantified the spatiotemporal changes of urban dynamics using satellite imagery and explored the interrelationships between urbanization and sustainability. We then developed a sustainability index, complemented with structural equation modeling, for a comprehensive analysis of their dynamics. We chose six case cities, i.e., Yekaterinburg, Novosibirsk, Krasnoyarsk, Omsk, Irkutsk, and Khabarovsk, as representatives of large cities to investigate whether large cities are in sync with the region in terms of population dynamics, urbanization, and sustainability. Our major findings include the following. First, Asian Russia experienced enhanced economic growth despite the declining population. Furthermore, our case cities showed a general positive trend for population dynamics and urbanization as all except Irkutsk experienced population increases and all expanded their urban built-up areas, ranging from 13% to 16% from 1990 to 2014. Second, Asian Russia and its three federal districts have improved their sustainability and levels of economic development, environmental conditions, and social development. Although both regional sustainability and economic development experienced a serious dip in the 1990s, environmental conditions and social development continuously improved from 1990 to 2014, with social development particularly improving after 1995. Third, in terms of the relationships between urbanization and sustainability, economic development appeared as an important driver of urbanization, social development, and environmental degradation in Asian Russia, with economic development having a stronger influence on urbanization than on social development or environmental degradation.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2156230727</t>
+          <t>https://openalex.org/W1597061519</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/mmi.12495</t>
+          <t>https://doi.org/10.1161/01.cir.0000037134.24080.42</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Zhitnitsky &amp; Lewinson (2014)</t>
+          <t>Burch (2002)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Identification of functionally important conserved trans‐membrane residues of bacterial &lt;scp&gt;P&lt;sub&gt;IB&lt;/sub&gt;&lt;/scp&gt;‐type &lt;scp&gt;ATPases&lt;/scp&gt;</t>
+          <t>Passage of Inhaled Particles Into the Blood Circulation in Humans</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Summary Powered by ATP hydrolysis, P IB ‐ ATPases drive the energetically uphill transport of transition metals. These high affinity pumps are essential for heavy metal detoxification and delivery of metal cofactors to specific cellular compartments. Amino acid sequence alignment of the trans‐membrane ( TM ) helices of P IB ‐ ATPases reveals a high degree of conservation, with ∼60–70 fully conserved positions. Of these conserved positions, 6–7 were previously identified to be important for transport. However, the functional importance of the majority of the conserved TM residues remains unclear. To investigate the role of conserved TM residues of P IB ‐ ATPases we conducted an extensive mutagenesis study of a Zn 2+ / Cd 2+ P IB ‐ ATPase from R hizobium radiobacter ( rrZntA ) and seven other P IB ‐ ATPases . Of the 38 conserved positions tested, 24 had small effects on metal tolerance. Fourteen mutations compromised in vivo metal tolerance and in vitro metal‐stimulated ATPase activity. Based on structural modelling, the functionally important residues line a constricted ‘channel’, tightly surrounded by the residues that were found to be inconsequential for function. We tentatively propose that the distribution of the mutable and immutable residues marks a possible trans‐membrane metal translocation pathway. In addition, by substituting six trans‐membrane amino acids of rrZntA we changed the in vivo metal specificity of this pump from Zn 2+ / Cd 2+ to Ag + .</t>
+          <t>HomeCirculationVol. 106, No. 20Passage of Inhaled Particles Into the Blood Circulation in Humans Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBPassage of Inhaled Particles Into the Blood Circulation in Humans William M. Burch William M. BurchWilliam M. Burch Molecular Medicine, The John Curtin School of Medical Research, Canberra, Australia, E-mail Originally published12 Nov 2002https://doi.org/10.1161/01.CIR.0000037134.24080.42Circulation. 2002;106:e141–e142To the Editor:It is clear from Figure 2 in the article by Nemmar et al1 that their aerosol contained a high level of a species somewhere between Technegas and Pertechnegas. Technegas generation demands a 100% inert atmosphere to work properly. Even minute traces of oxygen will begin to create a mixed oxide species. Machines that are not fully serviced at regular intervals can trap sufficient oxygen in the carbon deposited on the chamber walls, for example, to generate Pertechnegas. The immediate clinical sign is thyroid uptake in the images. This alone is often the first reason to call in a service engineer. There should be no visible thyroid on a study done using a properly functioning machine. Even the original discovery of Pertechnegas arose out of a wrongly filled argon cylinder. A curious alumina micro-aerosol within gas cylinders made of aluminum was implicated in a whole series of inadvertent Pertechnegas studies generated from "ultra high purity argon."We did not explore the transitional phase between pure carbon-coated compounds and the Technetium Oxide species named Pertechnegas, but we were aware of a "third species" that we hypothesized to be either an insoluble or poorly soluble oxide of Technetium or an incomplete closure of the carbon "cage." I suspect the machine used by the authors of this article1 is sitting right at the transitional phase and is producing a high level of this "third species."As part of the process of convincing regulatory agencies of the behavior of Technegas in the body, in 1986 I had five volunteers breathe in a small (≈30 MBq) dose, and a posterior view was taken on a gamma camera. Twenty-four hours later, the imaging procedure was repeated, and after correcting for decay, &lt;3% of the material had moved from the lung fields. This also very neatly demonstrated that Technegas had penetrated beyond the 16th division of the bronchial tree, the lower limit of the mucociliary escalator.Much of the background science and procedural help may be found at our University Web site at http://jcsmr.anu.edu.au/ Technegas.1 Nemmar A, Hoet P, Vanquickenborne B, et al. Passage of inhaled particles into the blood circulation in humans. Circulation. 2002; 105: 411–414.CrossrefMedlineGoogle ScholarcirculationahaCirculationCirculationCirculation0009-73221524-4539Lippincott Williams &amp; WilkinsResponseNemmar A., , DVM, PhD, Hoet P.H.M., , PhD, Thomeer M., , MD, Nemery B., , MD, PhD, Vanquickenborne B., , MD, Vanbilloen H., , PhD, Mortelmans L., , MD, PhD, Hoylaerts M.F., , PhD, Verbruggen A., , Pharm, PhD, and Dinsdale D., , PhD12112002We thank Dr Burch for his interest in our article1 and his comments with respect to the characteristics of the aerosol of the Technegas apparatus.The possible presence of a "species somewhere between Technegas and Pertechnegas" in the aerosol is a surprising suggestion. In his letter, Dr Burch does not refer to any published experimental evidence supporting the existence of this so-called "mixed oxide" species. To our knowledge, such species has never been documented in the scientific literature and, moreover, it is not clear what the biological characteristics of this speculative agent might be.Apart from the lack of evidence about the presence of such species in the generated aerosol, its hypothetical presence does not compromise the results and conclusions of our study. Thin layer chromatography (TLC) showed a clear difference between the chromatographic behavior of the radioactivity in the blood of the volunteers after inhalation of the aerosol (most radioactivity staying at the application point of the TLC plate) and in blood spiked with pertechnetate or obtained after the intratracheal instillation of pertechnetate in hamsters (all radioactivity moving with the solvent front). We used ultrapure argon (&gt;99.9997%) for generating Technegas without contaminating oxygen as prescribed by the instructions of the manufacturer of the apparatus.2 The TLC analysis of the collected Technegas aerosol indicated that no pertechnetate was present and thus we can be confident that we have used an aerosol not containing pertechnetate. However, some in vivo reoxidation of technetium to pertechnetate is possible and likely, because we observed a gradual rise in activity migrating with the solvent front on TLC in the blood samples. Nevertheless, shortly after inhalat</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W58297358</t>
+          <t>https://openalex.org/W2893804842</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s41019-018-0072-6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Chodzko et al. (1976)</t>
+          <t>Pan et al. (2018)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Zero-power-gain measurements in cw HF(DF) laser by means of fast-scan technique. Interim report</t>
+          <t>The New Hardware Development Trend and the Challenges in Data Management and Analysis</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>An improved technique for measuring zero-power gain in a cw HF-DF chemical laser has been developed in which a cw HF(DF) single-line, frequency-stabilized TEM00 mode probe laser is used. Through use of a flat rotating mirror and focusing elements, the streamwise distribution of zero-power gain was scanned at a rate of approximately 1 mm/..mu..s with a spatial resolution of approximately 1 mm. The method, therefore, permits real-time observations of the streamwise gain profile. The zero-power-gain profile was observed for two-arc-driven chemical-laser nozzles with both HF and DF active species. The nozzles consisted of a 36-slit array with perforated tube H/sup 2/ injectors and a 55-slit array with uniform H/sup 2/ injection. The F/sup 2/ nozzle exit widths were 3.8 and 3.0 mm, respectively, and operated at an exit pressure of approximately 3 to 6 torr. For the 36-slit nozzle, a peak line-center gain of 10%/cm was measured at x = 6 mm on the maximum-gain P2(4) HF transition. A peak gain of approximately 10%/cm was also measured on the P1(4) HF transition at x = 1 cm. For DF, a peak gain of 4.7%/cm was measured on the maximum gain P2(6) transition at x = 6 mm with the samemore » molar flow rates as the HF measurements.« less</t>
+          <t>Hardware techniques and environments underwent significant transformations in the field of information technology, represented by high-performance processors and hardware accelerators characterized by abundant heterogeneous parallelism, nonvolatile memory with hybrid storage hierarchies, and RDMA-enabled high-speed network. Recent hardware trends in these areas deeply affect data management and analysis applications. In this paper, we first introduce the development trend of the new hardware in computation, storage, and network dimensions. Then, the related research techniques which affect the upper data management system design are reviewed. Finally, challenges and opportunities are addressed for the key technologies of data management and analysis in new hardware environments.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2784193465</t>
+          <t>https://openalex.org/W4391797927</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/rs10010087</t>
+          <t>https://doi.org/10.51952/9781847422064.ch005</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Myoung et al. (2018)</t>
+          <t>Izuhara (2010)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
+          <t>Housing wealth and family reciprocity in East Asia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
+          <t>This chapter examines the changing nature and patterns of East Asian practices on family support and reciprocity. It uses the housing dimension to explore the flow of support, but looks beyond the conventional nuclear family households to include three interrelated generations within families. It identifies changing strategies and practices of family relations to cope with the wider and rapid structural changes taking place in the region. It notes that the analysis of the empirical data is focused on a comparison of two dynamic cities in East Asia — Tokyo and Shanghai.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1499530127</t>
+          <t>https://openalex.org/W2109223668</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1371/journal.pone.0047885</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Steidle &amp; Wallace (2007)</t>
+          <t>Untergasser et al. (2012)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The Devil Came on Horseback: Bearing Witness to the Genocide in Darfur</t>
+          <t>One-Step Agrobacterium Mediated Transformation of Eight Genes Essential for Rhizobium Symbiotic Signaling Using the Novel Binary Vector System pHUGE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Former United States Marine Brian Steidle served for six months in Darfur as an unarmed military observer for the African Union. There he witnessed first-hand the ongoing genocide, and documented every day of his experience using email, audio journals, notebook after notebook and nearly 1,000 photographs. Gretchen Steidle Wallace, his sister, who wrote this book with Brian, corresponded with him throughout his time in Darfur. Fired upon, taken hostage, a witness to villages destroyed and people killed, frustrated by his mission's limitations and the international community's reluctance to intervene, Steidle resigned and has since become an advocate for the world to step in and stop this genocide. The Devil Came on Horseback depicts the tragic impact of an Arab government bent on destroying its black African citizens, the maddening complexity of international inaction in response to blatant genocide, and the awkward, yet heroic transformation of a formerMarine turned humanitarian. It is a gripping and moving memoir that bears witness to atrocities we have too long averted our eyes from, and reveals that the actions of just one committed person have the power to change the world.</t>
+          <t>Advancement in plant research is becoming impaired by the fact that the transfer of multiple genes is difficult to achieve. Here we present a new binary vector for Agrobacterium tumefaciens mediated transformation, pHUGE-Red, in concert with a cloning strategy suited for the transfer of up to nine genes at once. This vector enables modular cloning of large DNA fragments by employing Gateway technology and contains DsRED1 as visual selection marker. Furthermore, an R/Rs inducible recombination system was included allowing subsequent removal of the selection markers in the newly generated transgenic plants. We show the successful use of pHUGE-Red by transferring eight genes essential for Medicago truncatula to establish a symbiosis with rhizobia bacteria as one 74 kb T-DNA into four non-leguminous species; strawberry, poplar, tomato and tobacco. We provide evidence that all transgenes are expressed in the root tissue of the non-legumes. Visual control during the transformation process and subsequent marker gene removal makes the pHUGE-Red vector an excellent tool for the efficient transfer of multiple genes.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2909078374</t>
+          <t>https://openalex.org/W4385743484</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1361-6463/aaf8d5</t>
+          <t>https://doi.org/10.1016/j.procs.2023.08.074</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>George et al. (2019)</t>
+          <t>Dumitrache et al. (2023)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Thermal hysteresis and vibrational excitations in NiO containing NaNbO&lt;sub&gt;3&lt;/sub&gt;</t>
+          <t>Collaborative Decisions in Knowledge Management for Intelligent Cyber-Enterprises</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A systematic study of the dielectric hysteresis and temperature-dependent vibrational excitations of NiO containing antiferroelectric (AFE) NaNbO3 composites is reported. The Mott insulator NiO plays a significant role in the crystal structure of NaNbO3. In particular, for low and moderate substitutions of NiO, a transition from orthorhombic to monoclinic symmetry is evident at room temperature. The temperature dependence of the relative dielectric permittivity, , exhibits an anomalous change in its magnitude across three distinct phase transitions of NaNbO3 at 449 K, 665 K and 751 K. These are, respectively, associated with a second-order phase transition occurring due to incommensurate phase between two orthorhombic AFE orderings, change from the orthorhombic P- to R-phase () without altering the AFE structure and an orthorhombic R- to S-phase transition accompanied by an AFE to paraelectric transition. A large thermal hysteresis ( K) was evident in and ac resistivity () between the temperatures 473 K and 673 K signifying the first-order nature of the transition. At room temperature, for higher NiO content, a new mode centred at 838 cm−1 was observed in the Raman spectra along with a two-magnon mode at 1496 cm−1, a broad longitudinal optical mode (2LO) at 1096 cm−1 and a weak translational optical mode (2TO) at 726 cm−1. At low temperatures, down to 80 K, several peculiar features are evident in the Raman spectra of NbO6 octahedra which are associated with the structural and antiferromagnetic transition of NaNbO3 and NiO, respectively.</t>
+          <t>The faster and faster IT integration of various categories of activities - from production to administration, passing through medicine, transport, education, government, etc. - led to important changes in terms of obtaining, storing and using data. On the other hand, the increasingly rapid accumulation of societal challenges has exerted immense pressure on the relatively nascent discipline of knowledge management, which is expected to help address increasingly complex issues, primarily related to decision-making aspects that necessitate the selection and transformation of data into information and knowledge. This article focuses on establishing a framework for developing a collaborative, dynamic, heterogeneous decision-making system that includes both human and cybernetic agents as well as digital twins. Such a system creates and sustains a knowledge management flow that is essential for making informed decisions, achieved by selectively collecting and appropriately transforming data into information.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2097983154</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/anie.200462327</t>
+          <t>https://openalex.org/W2377983395</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Zhao et al. (2005)</t>
+          <t>Defen (2014)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Consecutive Vinylic to Aryl to Allylic Palladium Migration and Multiple CH Activation Processes</t>
+          <t>Comprehensive assessment of regional PRED system based on new urbanization approach: a case study in Dalian</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>“Through-space” migration of palladium between remote carbon atoms appears to take place in the generation of π-allyl–palladium complexes, which are useful intermediates in organic synthesis. The reaction of halogenated arenes with alkynes under Pd-migration conditions provides the mixture of allylic esters A–C (see reaction shown; X=Br, I; R1=H, OMe, CO2Et, Cl; R2=Ph, tBu). The rearrangement of a Pd moiety along a saturated hydrocarbon chain by a sequence involving PdH elimination and subsequent readdition has been extensively explored and developed into a very useful synthetic process.1 On the other hand, there are few reports of the “through-space” migration of Pd between remote carbon atoms. The facile 1,4-migration of Pd between a vinylic position and an arene2 and between the ortho positions of biaryl compounds3 have recently been reported. Aryl to benzylic4 and alkyl to aryl Pd migrations5 are also known. Herein we report a novel, consecutive vinylic to aryl to allylic Pd migration that involves multiple CH bond activations, which provides a new route to π-allyl palladium intermediates of great interest in organic synthesis.6 The reaction of p-iodoanisole and 1-phenyl-1-propyne with CsO2CCMe3 as the base provides a 1:1 mixture of (E)- and (Z)-2-(4-methoxyphenyl)-3-phenyl-2-propenyl pivalate in 20 % yield (1 A/B; Table 1, entry 1). Different aryl halides and alkynes were then used in this reaction, and most combinations give allylic esters in respectable yields. Three isomers are usually obtained when R2=tBu, and only two isomers are generated when R2=Ph. The ratio of the various isomers is dependent on the reaction time and temperature. It appears that longer reaction times and higher temperatures generally favor the formation of isomer C. Entry X R1 R2 Products Yield [%] (A:B:C) 1 I OMe Ph 1 A/B 20 (1:1:0)[b] 2 Br H tBu 2 A/B, 2C 35 (1:2:7)[c] 3 I H tBu 2 A/B, 2C 44 (1:2:12)[c] 4 Br CO2Et tBu 3 A/B, 3C 50 (1:2:18)[c] 5 Br Cl tBu 4 A/B, 4C 42 (1:2:20)[c] Although these reactions proceed in relatively low yields, the mechanism of this unique transformation is quite interesting. This process appears to involve Pd migration from a vinylic to an aryl to an allylic position and subsequent displacement by a pivalate anion (Scheme 1). Intermediate 5, generated by oxidative addition of the aryl halide to Pd0, adds to the alkyne to produce the vinylic Pd intermediate 6. Insertion of Pd into the neighboring CH bond forms palladacycle 7, and subsequent reductive elimination affords 8. This results in Pd migration from a vinylic to an aryl position by CH bond activation, a process we have reported earlier.2 Proposed mechanism of the Pd migration. To initiate a second CH bond activation, the Pd moiety apparently rotates into the vicinity of the methyl group. Insertion of Pd into the neighboring CH bond affords palladacycle 9, which undergoes reductive elimination with transfer of the Pd moiety to the allylic position. This unprecedented migration generates Pd intermediate 10, which rapidly isomerizes to the corresponding π-allyl palladium species 11. This unusual process provides a new route for preparing π-allyl palladium compounds, which have proven very versatile as intermediates in organic synthesis.6 The three isomeric ester products are presumed to arise by attack of the pivalate anion on the Pd intermediate 11. This proposed mechanism indicates that the migration of Pd is always accompanied by a simultaneous migration of hydrogen in the opposite direction. Thus, the observation of a hydrogen or deuterium shift should provide convincing evidence for the Pd migration. [D5]Bromobenzene (99 % deuterium) and 4,4-dimethyl-2-pentyne were allowed to react with Pd(OAc)2 (10 mol %), dppm (1,2-bis(diphenylphosphino)methane; 10 mol %), and CsO2CCMe3 (2 equiv) in DMA at 125 °C (Scheme 2). The E and Z isomers of 4,4-dimethyl-2-phenylpent-2-enyl pivalate and 1-tert-butyl-2-phenyl-2-propenyl pivalate (18) were obtained in a ratio of 1:2:7. Ester 18 was isolated in 20 % yield and found to contain 40 % deuterium in the allylic position and 95 % hydrogen in one of the two ortho positions of the phenyl moiety (GC–MS data indicate that hydrogen is only incorporated at one of the two ortho positions). This result, except for the relatively low allylic deuterium content, is consistent with the proposed mechanism. However, the deuterium content can be increased by adding 10 equivalents of D2O to the reaction mixture. The three products were again obtained in a similar ratio, and the resulting ester 18 contained 55 % hydrogen in one ortho position of the arene and 75 % deuterium in the allylic position. Proposed formation of the deuterium-labeled product. The loss of deuterium in the allylic position probably arises by deuterium/hydrogen exchange through an equilibrium between organopalladium(IV) intermediate 12 and palladacycle 13 or direct exchange of the metal hydride/deuteride in intermediate 12. Incorporation of deuteri</t>
+          <t>At present,China is in the process of rapid urbanization. The traditional urban development approach urgently needs to be transformed into a new urbanization model that is intelligent,green and low-carbon. Meanwhile,coordinated urban-rural development and regional integrative development have gained greater importance. In order to systematically assess the quality of China's urbanization under the new situation,the comprehensive assessment method of regional PRED system was proposed considering the complicated relationship between population,resources,environment and economic and social development(PRED),which are mutually stimulating but also restricting. This paper proposes the concept and characterization method of regional PRED carrying capacity. By learning from the Pressure-State-Response(PSR) model,the assessment index system of regional PRED on Carrying capacity-Pressure-State-Response was established. A comprehensive responsiveness and emergency response grade categorization method was proposed to assess regional PRED system by multi-objective planning and decision making. Using Dalian city as an example,this study empirically analyzes the above-mentioned concept,model,assessment index system and assessment method. The results show that during 2000-2012,PRED system of Dalian was in a state of overload,that regional population carrying capacity decreased from 3630 thousand to 2910 thousand persons. Compared with nationwide levels,the pressure of Dalian PRED system was relative low with a decreasing trend: the load index of regional PRED system dropped from 0.97 to 0.85. Comprehensive responsiveness of regional PRED in Dalian was above 0.6 and emergency response grade was GradeⅡ(orange) or Grade Ⅲ(yellow). The results indicate that because of resource scarcity and environmental degradation,the population carrying capacity of Dalian was gradually decreasing. Due to the continuous development of economy and social security,the pressure of urbanization in Dalian has been relieved. In the future,relevant government departments should seek to actively solve the problem of resources and environmental constraints of new urbanization,resolve the conflicts that hindered the sustainable development of economy and society,promote regional coordinated development through reasonably managing the urban size and resources allocation and practicing environmental protection,industrial transformation and livelihood security improvement. By comparing with similar studies and further discussion,the results of this paper are considered as reliable and conforming to the reality of Dalian in population,resources,environment and economic and social development. The concept of regional PRED carrying capacity and the assessment index system based on the carrying capacity PSR model and multi-objective decision-making method provide a new thought and method to quantitatively assess the quality of urbanization and regional sustainable development.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4296948064</t>
+          <t>https://openalex.org/W2128727204</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/9780367811907-2</t>
+          <t>https://doi.org/10.1002/anie.201206100</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Caron (2022)</t>
+          <t>Musgrave et al. (2012)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Basic Physical Concepts of Organic Conductors</t>
+          <t>Transition Metal Complexes of Anionic N‐Heterocyclic Dicarbene Ligands</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The nature of the fundamental interactions is common to all types of lowdimensional solids. They differ mostly because of the constraints imposed by the molecular arrangements. The charge-transfer salts are constructed with either (1) two species of relatively flat molecules with tt orbitals perpendicular to the planes, or (2) one molecular species with a counterion. There are also renormalization group (RG) treatments of the Coulomb interactions. The reason is that the electrons cannot possibly avoid defects or impurities in one dimension and that the backscattering part easily leads to localized states at low enough temperature. Rigorous one-dimensionality is of course a myth in organic conductors. The Coulomb interaction is inherently long range. The Peierls transition knows no boundary and can be observed in all types of organic conductors, even the ET salts, which are presumably more isotropic.</t>
+          <t>A tale of two carbenes: Reaction of :C[N(2,6-iPr2C6H3)CH]2 (IPr) with Mn3(mes)6 (mes=2,4,6-trimethylphenyl) yielded the trigonal planar complex [Mn(IPr)(mes)2]. Reduction of this species with potassium/graphite in THF afforded the polymeric dicarbene-bridged species K[{:C[N(2,6-iPr2C6H3)]2(CH)C}2Mn(mes)(thf)]⋅THF (see picture). The anionic moiety in this complex is the first reported example of a transition metal complex containing an N-heterocyclic dicarbene ligand. Gray C, blue N, red Mn.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2899831773</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3233/jad-180805</t>
+          <t>https://openalex.org/W320821543</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lu et al. (2018)</t>
+          <t>Christensen et al. (1993)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Patterns of Physical Activity and Sedentary Behavior for Older Adults with Alzheimer’s Disease, Mild Cognitive Impairment, and Cognitively Normal in Hong Kong</t>
+          <t>Where do we go from here Now that some utilities have won the incentive regulation war, many executives are wondering how they can manage the peace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Background:Alzheimer’s disease (AD) is the most common form of dementia, and mild cognitive impairment (MCI) is a transitional phase between healthy cognition and dementia. Physical activity (PA) has protective effects on cognitive decline. However, few studies have examined how PA and sedentary be havior is structured throughout the day in older adults across varied cognitive status in Hong Kong. Objective:This study aimed to compare patterns of PA and sedentary behavior among individuals with AD, MCI, or normal cognition living in Hong Kong. Methods:Participants in the MrOs and MsOs Hong Kong cohort study and the Hong Kong AD biomarker study (n = 810) wore a wrist-worn accelerometer for 7 days in free-living environment. Patterns of PA in wake time and in-bed time, and detailed analysis of sedentary bouts were compared between groups using analysis of covariance adjusting for covariates. Results:Participants with MCI and low MoCA only did not differ from their cognitively normal peers in PA and sedentary behavior. Nevertheless, when comparing to the others, participants with AD exhibited significantly lower average daily counts per minute during the day (p &lt; 0.05), and tended to start their activity later in the morning. AD participants spent a larger proportion of time in sedentary behavior (p &lt; 0.05) and had more sedentary bouts≥30 minutes (p &lt; 0.05). Conclusions:The pattern of PA and sedentary behavior was different between individuals with AD and the others. Cognitive status may alter the purpose and type of PA intervention for AD individuals.</t>
+          <t>Productivity is a measure of how efficiently a company uses its resources. The productivity budgeting model (PBM) is one tool that can aid management in the transition from cost-plus, rate-of-return regulation to the market-oriented, cost-control environment of incentive regulation. Most, if not all, utilities use some type of budgeting/forecasting process that provides the blueprint for future company activity. The PBM reveals the growth in total factor productivity (TFP) implied by a budget and, thus, provides a forecast of the company's future efficiency. The PBM can be used to guide resource usage, because it analyzes investment, labor force, and operating decisions from an economic efficiency perspective. In general, the model makes the budgeting process more relevant to the kind of decisions utility management must make for long-term success under incentive regulation. Furthermore, under many incentive regulation. Furthermore, under many incentive regulation plans (such as the FCC's price-cap plan), a company must meet or beat the productivity offset to increase its profitability. With PBM, the company can determine whether its proposed budget is on track and devise a plan to meet any offset. The PBM can also be used to track productivity using financial data from the period in question.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2389529622</t>
+          <t>https://openalex.org/W3113002358</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17673/vestnik.2020.03.8</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Li (2008)</t>
+          <t>Danilova (2020)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Theoretical Reflection on the Recalling Nature of 30-Year-Reform</t>
+          <t>ALDO RUSSI THEORY OF URBAN FACTS: ORIGINS AND IDEAS</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>The nature of historical reflection lies in the need of the history,specific reality-based society and consciousness-based society.30-year reform and development has brought fundamental change of economic system,great development of social economy and history conversion of reform stage,and has made our society appear evident features of structurization,complexity and risk.Our country has been in certain turning point.Meanwhile,the reform also has formed mainstream consciousness system based on our Party and country's relevant theory and strategic decision and non-mainstream consciousness system on every benefit community.The contradictory and contest between the two kinds of consciousness system form negative effect on deepening reform in some degree.However,scientifically managing the theory nature of reform history reflect is correctly dealing with this reflection and solving our present contradictory,and is the key to positively push on reform and development.At present,the nature of our society reflect on reform determines multiple provision of reflection meanings,the final essence of reflection lying in establishing a positive,general and constructive theory explanation system about Chinese society evolution and development,maximally promoting the stability,development and progress of the whole society.</t>
+          <t>The article is devoted to the analysis of the architectural and urbanistic theory of Aldo Rossi. The historical context of the development of the theory and urban planning problems of the 1960s, which determined the appearance of the book, are considered. The main directions in the development of urbanistic ideas of modernism are described, in particular, the transition from city to city-region and the idea of the city as an open and dynamic structure. The arguments of Rossi in favor of urban architecture and sustainability are analyzed. Particular att ention is paid to the urban fact - a key concept of Rossi’s theory, thanks to which urban planning returned to the sphere of culture and art. The concept of type proposed by Rossi as an alternative to modernist typology is investigated. The article deals with theoretical sources that the architect uses as the basis for constructing his theory. The contribution of Rossi to the theory of the city and architecture is determined.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163046816</t>
+          <t>https://openalex.org/W2899967149</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
+          <t>https://doi.org/10.1103/physreva.99.032502</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lee et al. (2008)</t>
+          <t>Yang et al. (2019)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Adaptive output tracking control of a surface vessel</t>
+          <t>Laser-cooled HgF as a promising candidate to measure the electric dipole moment of the electron</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
+          <t>In order to realize more sensitive measurement of the electron's electric dipole moment ($e\mathrm{EDM}$), it would be worthwhile to find new laser-cooled molecules with large internal effective electric field (${E}_{\mathrm{eff}}$), high electric polarizability, and long lifetime of the $e\mathrm{EDM}$ measurement state. Here we demonstrate the theoretical feasibility of laser cooling and trapping the mercuric monofluoride ($^{202}\mathrm{Hg}^{19}\mathrm{F}$, ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}$) radicals, as well as their application in the $e\mathrm{EDM}$ measurement. We investigated the electronic, rovibrational, and hyperfine structures and verified the highly diagonal Franck-Condon factors of the main transitions by the Rydberg-Klein-Rees inversion method and the Morse approximation. Hyperfine manifolds of the ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}(\ensuremath{\upsilon}=0)$ rotational states were examined with the effective Hamiltonian approach and a feasible sideband modulation scheme was proposed. In order to enhance optical cycling, the microwave remixing method was employed to address all the necessary levels. The Zeeman effect and the hyperfine structure magnetic $g$ factors of the ${X}^{\phantom{\rule{0.16em}{0ex}}2}{\mathrm{\ensuremath{\Sigma}}}_{1/2}\phantom{\rule{4pt}{0ex}}(\ensuremath{\upsilon}=0,N=1)$ state were studied subsequently. Finally, its statistical sensitivity for the $e\mathrm{EDM}$ measurement was estimated to be about $6\ifmmode\times\else\texttimes\fi{}{10}^{\ensuremath{-}32}e\phantom{\rule{0.16em}{0ex}}\mathrm{cm}$ in the trap, indicating that $^{202}\mathrm{Hg}^{19}\mathrm{F}$ might be a promising laser-cooled $e\mathrm{EDM}$ candidate when compared with the most recent ThO result of ${d}_{e}=(4.3\ifmmode\pm\else\textpm\fi{}{3.1}_{\mathrm{stat}}\ifmmode\pm\else\textpm\fi{}{2.6}_{\mathrm{syst}})\ifmmode\times\else\texttimes\fi{}{10}^{\ensuremath{-}30}e\phantom{\rule{0.16em}{0ex}}\mathrm{cm}$ [V. Andreev et al. (The ACME Collaboration), Nature (London) 562, 355 (2018)].</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509260842</t>
+          <t>https://openalex.org/W2043682358</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/0029-5582(66)90546-3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lorenzetti &amp; Schumacher (2005)</t>
+          <t>Elbek et al. (1966)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>L'endogamie matrimoniale dans les villes suisses, 1880-1930</t>
+          <t>Rotational levels populated by inelastic deuteron scattering</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>L'etude analyse les caracteristiques de l'endogamie matrimoniale dans quatre villes suisses a la fin du xixe siecle et au debut du xxe siecle. En dissociant les contraintes structurelles – definies par les equilibres numeriques sur les marches matrimoniaux – des preferences individuelles – integrant les choix individuels et le respect des normes sociales et communautaires –, l'etude met en evidence notamment les specificites de l'endogamie par rapport au profil socio-economique des villes observees. En outre, elle essaye de verifier dans quelle mesure les transformations du choix du conjoint refletent l'emergence (ou, dans certains cas, la consolidation), apres le premier conflit mondial, d'une nouvelle sociabilite urbaine, basee sur de nouveaux rapports a la ville et a son economie et facilitant les processus d'integration.</t>
+          <t>The cross sections for inelastic deuteron scattering to rotational states of doubly-even nuclei in the rare-earth region have been measured at a deuteron energy of 12 MeV and a scattering angle of 125°. The population of the 4+ states is considerably less regular than expected from the observed population of the 2+ states. This is taken as an indication for a direct E4 transition to these states. The estimated maximum hexadecapole deformation parameter β4 is about 0.09.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2063126359</t>
+          <t>https://openalex.org/W2097983154</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
+          <t>https://doi.org/10.1002/anie.200462327</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Warren (1984)</t>
+          <t>Zhao et al. (2005)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
+          <t>Consecutive Vinylic to Aryl to Allylic Palladium Migration and Multiple CH Activation Processes</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
+          <t>“Through-space” migration of palladium between remote carbon atoms appears to take place in the generation of π-allyl–palladium complexes, which are useful intermediates in organic synthesis. The reaction of halogenated arenes with alkynes under Pd-migration conditions provides the mixture of allylic esters A–C (see reaction shown; X=Br, I; R1=H, OMe, CO2Et, Cl; R2=Ph, tBu). The rearrangement of a Pd moiety along a saturated hydrocarbon chain by a sequence involving PdH elimination and subsequent readdition has been extensively explored and developed into a very useful synthetic process.1 On the other hand, there are few reports of the “through-space” migration of Pd between remote carbon atoms. The facile 1,4-migration of Pd between a vinylic position and an arene2 and between the ortho positions of biaryl compounds3 have recently been reported. Aryl to benzylic4 and alkyl to aryl Pd migrations5 are also known. Herein we report a novel, consecutive vinylic to aryl to allylic Pd migration that involves multiple CH bond activations, which provides a new route to π-allyl palladium intermediates of great interest in organic synthesis.6 The reaction of p-iodoanisole and 1-phenyl-1-propyne with CsO2CCMe3 as the base provides a 1:1 mixture of (E)- and (Z)-2-(4-methoxyphenyl)-3-phenyl-2-propenyl pivalate in 20 % yield (1 A/B; Table 1, entry 1). Different aryl halides and alkynes were then used in this reaction, and most combinations give allylic esters in respectable yields. Three isomers are usually obtained when R2=tBu, and only two isomers are generated when R2=Ph. The ratio of the various isomers is dependent on the reaction time and temperature. It appears that longer reaction times and higher temperatures generally favor the formation of isomer C. Entry X R1 R2 Products Yield [%] (A:B:C) 1 I OMe Ph 1 A/B 20 (1:1:0)[b] 2 Br H tBu 2 A/B, 2C 35 (1:2:7)[c] 3 I H tBu 2 A/B, 2C 44 (1:2:12)[c] 4 Br CO2Et tBu 3 A/B, 3C 50 (1:2:18)[c] 5 Br Cl tBu 4 A/B, 4C 42 (1:2:20)[c] Although these reactions proceed in relatively low yields, the mechanism of this unique transformation is quite interesting. This process appears to involve Pd migration from a vinylic to an aryl to an allylic position and subsequent displacement by a pivalate anion (Scheme 1). Intermediate 5, generated by oxidative addition of the aryl halide to Pd0, adds to the alkyne to produce the vinylic Pd intermediate 6. Insertion of Pd into the neighboring CH bond forms palladacycle 7, and subsequent reductive elimination affords 8. This results in Pd migration from a vinylic to an aryl position by CH bond activation, a process we have reported earlier.2 Proposed mechanism of the Pd migration. To initiate a second CH bond activation, the Pd moiety apparently rotates into the vicinity of the methyl group. Insertion of Pd into the neighboring CH bond affords palladacycle 9, which undergoes reductive elimination with transfer of the Pd moiety to the allylic position. This unprecedented migration generates Pd intermediate 10, which rapidly isomerizes to the corresponding π-allyl palladium species 11. This unusual process provides a new route for preparing π-allyl palladium compounds, which have proven very versatile as intermediates in organic synthesis.6 The three isomeric ester products are presumed to arise by attack of the pivalate anion on the Pd intermediate 11. This proposed mechanism indicates that the migration of Pd is always accompanied by a simultaneous migration of hydrogen in the opposite direction. Thus, the observation of a hydrogen or deuterium shift should provide convincing evidence for the Pd migration. [D5]Bromobenzene (99 % deuterium) and 4,4-dimethyl-2-pentyne were allowed to react with Pd(OAc)2 (10 mol %), dppm (1,2-bis(diphenylphosphino)methane; 10 mol %), and CsO2CCMe3 (2 equiv) in DMA at 125 °C (Scheme 2). The E and Z isomers of 4,4-dimethyl-2-phenylpent-2-enyl pivalate and 1-tert-butyl-2-phenyl-2-propenyl pivalate (18) were obtained in a ratio of 1:2:7. Ester 18 was isolated in 20 % yield and found to contain 40 % deuterium in the allylic position and 95 % hydrogen in one of the two ortho positions of the phenyl moiety (GC–MS data indicate that hydrogen is only incorporated at one of the two ortho positions). This result, except for the relatively low allylic deuterium content, is consistent with the proposed mechanism. However, the deuterium content can be increased by adding 10 equivalents of D2O to the reaction mixture. The three products were again obtained in a similar ratio, and the resulting ester 18 contained 55 % hydrogen in one ortho position of the arene and 75 % deuterium in the allylic position. Proposed formation of the deuterium-labeled product. The loss of deuterium in the allylic position probably arises by deuterium/hydrogen exchange through an equilibrium between organopalladium(IV) intermediate 12 and palladacycle 13 or direct exchange of the metal hydride/deuteride in intermediate 12. Incorporation of deuteri</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2307050698</t>
+          <t>https://openalex.org/W3175092525</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1757975915595341</t>
+          <t>https://doi.org/10.11159/csp21.lx.002</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Patrick et al. (2016)</t>
+          <t>Hardalupas (2021)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Healthy Cities and the Transition movement: converging towards ecological well-being?</t>
+          <t>Decarbonized Combustion: Research Needs for Zero Pollution</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>This commentary identifies similarities, differences and opportunities for synergy and mutual learning between the Healthy Cities and the Transition movements. We outline what we consider to be the 'pressing issues' facing humanity and the planet in the early 21(st) century; consider the extent to which health promotion has engaged with and addressed these issues; compare Healthy Cities and the Transition movement; and conclude by suggesting possibilities for moving forward.</t>
+          <t>Climate change is the biggest challenge that our society faces.In order to deliver the required reduction of carbon emission s, a smooth transition is needed from the existing infrastructure to a new approach that is yet to be agreed at an international level.As a consequence, combustion technologies are expected to remain important during the development of new infrastructure over the n ext 30 years.However, combustion technologies must be in a position to deliver zero pollution, which include carbon, NOx and particulates and other substances, specific to different industrial processes.The talk will identify and review different combustion tech nologies that can deliver net zero carbon emissions and overall zero pollution within short and medium timescales , which include:1. Hydrogen and its vectors (e.g.Ammonia) 2. Supercritical CO2 3. Solar or e-fuels 4. Metal nanoparticle fuelThe relevance of these approaches to aviation, land and marine transport and power generation will be considered.The scientific challenges that future research must address in order to deliver these combustion technologies will be presented.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3173494788</t>
+          <t>https://openalex.org/W1508717656</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Albert et al. (2016)</t>
+          <t>加藤 (1971)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sedimentos continentales del tránsito Aptiense – Albiense intercalados en carbonatos de plataforma somera (Prebético de Jaén, S de España)</t>
+          <t>A study of Shinto : the religion of the Japanese nation</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>espanolDurante el Cretacico Inferior, la Sierra de Bedmar-Jodar (Prebetico de Jaen, Cordillera Betica) constituyo un bloque basculado hacia el NE, parcialmente aislado del resto de la plataforma prebetica. En el Aptiense, se desarrollo una plataforma carbonatada muy somera, extremadamente sensible a la tectonica regional y a los cambios relativos del nivel del mar. Coincidiendo con una fase de expansion del Atlantico Central, en el transito Aptiense-Albiense, en esta plataforma se genero un pequeno graben coetaneo con un descenso relativo del nivel del mar. En este contexto se depositaron margas y margocalizas, con facies brechificadas con abundantes rizolitos que evidencian la presencia de raices de plantas y cierta edafizacion con el crecimiento de nodulos. Ademas, se formaron charcas donde se generaron facies ricas en materia organica. Dada la proximidad de estos medios palustres a la linea de costas, como consecuencia de la inestabilidad tectonica, fue posible la inundacion marina esporadica de estos ambientes y el desarrollo de una delgada capa rica en orbitolinas, que posteriormente seria cubierta por nuevos materiales palustres. Los datos sedimentologicos y la presencia de determinadas especies de carofitas (Atopochara trivolvis trivolvis, Clavator grovesii lusitanicus, Munieria grambastii) indican que en estos medios hubo amplias oscilaciones en la salinidad de las aguas. EnglishDuring the Early Cretaceous, the Sierra of Bedmar-Jodar (Prebetic of Jaen, Betic Cordillera) made up a dipping NE tilted block, partially isolated from the prebetic platform. During the Aptian, in this block a shallow carbonate platform was developed, very sensitive to regional tectonic and to the relative sea level changes. During the Aptian-Albian transition, an extensional stage of the Central Atlantic occurred; then, in the platform a graben morphology developed, together with relative low sea level conditions. As a consequence, palustrine facies begun to develop, characterized by rhizholites and some ponds filled by black marls. As the palustrine environments were close to the coast and according to the tectonic unstability, a thin bed of orbitolines was deposited. This level was covered by new palustrine sediments. The sedimentary data and the presence of some kinds of charophytes such as Atopochara trivolvis trivolvis, Clavator grovesii lusitanicus and Munieria grambastii, show that these environments had wide water salinity changes. Over these palustrine sediments a second shallow carbonate platform was built during the Early Albian. The presence of these continental sediments between two episodes of shallow carbonate platform is described firstly in the Prebetic.</t>
+          <t>Introduction. Genetical or Historical. 1. Some Traces of Animatism or Pre-Animism in Shinto 2. Animistic Phases of Nature Worship Among the Japanese - Complex Nature Worship 3. Fetishism and Phallicism 4. Spiritism 5. Anthropolatry and Ancestor Worship in the Stage of Nature Religion 6. Totemism and Primitive Monotheism in Original Shinto 7. Shinto as a Sheer Polytheism 8. Theanthropic Aspect of Shinto Deities - Shinto as a Theanthropic or Homocentric Religion 9. Shinto is the Japanese National Religion or Natural Growth 10. Ancient Shinto Practices 11. Dawn of Intellectual Awkening 12. Dethronement of Minor Deities and Amalgamation or Unification of Different Deities 13. From Polytheism to Pantheism with Some Phases of Henotheism and Montheism 14. Ancient Myths and the Three Divine Imperial Regalia: An Attempt at Rational Interpretation 15. Germs of Moral Ideas in Shinto and Appearance of a Change in the Idea of Sacrifice 16. Inner Purity Emphasized, and Sincerity or Uperightness as the Fundamental Ethical Principle Becomes Pre-Eminent in Shinto 17. Ethical Transformation of the Naturalistic Phallic Deities From a Higher Religious Point of View and Some Shinto Rites or Ceremonies Moralized 18. Worship of Shinto Deities in Spirit and In Truth - Resulting in Iconoclasm 19. Some Deeper Reflections Upon the Divine Protection of the nation - A Problem Unsolved From the Old Standpoint of Shinto, the National Religion of Japan 20. Unique Position of Shinto Among the World's Religions. Bibliography. Index.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391789038</t>
+          <t>https://openalex.org/W4382516318</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/awf.2024.2</t>
+          <t>https://doi.org/10.4203/ccc.1.1.1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Keyserlingk et al. (2024)</t>
+          <t>Kumar (2023)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Swine industry perspectives on the future of pig farming</t>
+          <t>Transformative Maintenance Technology for Railway Assets: Issues, Challenges and Future Direction</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Understanding the views of those working along the value chain reliant on livestock is an important step in supporting the transition towards more sustainable farming systems. We recruited 31 delegates attending the Pig Welfare Symposium held in the United States to participate in one of six focus group discussions on the future of pig farming. Each of these six group discussions was subjected to a thematic analysis that identified four themes: (1) technical changes on the farm; (2) farm and industry culture; (3) the farm-public interface; and (4) sustainability. The results of this study illustrate the complexity and diversity of views of those working along the associated value chain within the swine industry. Participants spent the majority of their time discussing current challenges, including technical challenges on the farm and public perception of pig farms. Participants were more hesitant to discuss future issues, but did engage on the broader issue of sustainability, focusing upon economic and environmental aspects.</t>
+          <t>A key challenge for the modern-day railway sector is to improve its competitiveness while ensuring reliable and sustainable mode of transportation for passengers and goods on demand.To meet these challenges, the strategic focus of the railway sector has been to find transformative technology and business solutions for the railway assets that will ensure safe and failure free railway asset operation and maintenance at the lowest cost.Accordingly, managers in railway sector have aligned their strategic thinking towards asset wide application of digital technologies for achieving excellence in asset operation and maintenance.However, these digital transformation journey needs to resolve many issues and challenges, namely technological, business and governance related challenges to make railway sustainable and economically viable.The paper presents a short description of such digital and enabling technologies, associated issues and challenges, together with future trends.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3038338028</t>
+          <t>https://openalex.org/W2163046816</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Zipfel (2020)</t>
+          <t>Lee et al. (2008)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Excitons in monolayer semiconductors in complex environments and under external fields</t>
+          <t>Adaptive output tracking control of a surface vessel</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The focus of this piece of work lies on the investigation of fundamental properties of tightly bound electron-hole pairs, so-called excitons, that are readily formed in the studied two dimensional semiconductor systems, upon excitation with light of adequate energy. Hereby the thesis is sectioned into four different projects. Firstly, the spatial extent of the exciton quasi-particles in ground (1s) and first excited (2s) state in monolayers of the transition metal dichalcogenide WS2 are investigated utilizing magneto-optical spectroscopy in fields up to 29 T. From these findings additional confirmation of a Wannier-Mott type nature of the excitons is found and further support for the applicability of an effective mass hydrogen-like model in these systems is given. The second project is concerned with the influence of disorder in the dielectric environment of this ultra-thin material and its impact on its optical response. Moreover, detailed insight is provided into how such disorder can be suppressed in a controlled way over large areas of up to 100’s of µm² by encapsulating samples in atomically-flat layers of insulating hexagonal boron nitride. In the third project, the transport properties of exciton states in such samples with suppressed disorder is studied at ambient conditions as well as at cryogenic temperatures. In the first case a strong increase of the diffusion efficiency is observed as compared to previous studies of disordered structures, whereas at low temperatures a generally high diffusion efficiency is found which shows an intriguing non-trivial decrease with increasing lattice temperature. Finally, the last project focuses on a different thin-film material system, that of layered hybrid perovskites, where a way to preserve the optical properties of these volatile materials by encapsulation with hexagonal boron nitride is discussed. Such stabilized systems then allow the following study of exciton dynamics as well as exciton transport in these materials.</t>
+          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3048264654</t>
+          <t>https://openalex.org/W2794887096</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.epsl.2020.116491</t>
+          <t>https://doi.org/10.1080/2373518x.2018.1436223</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Knudsen et al. (2020)</t>
+          <t>Sandwell (2018)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>New cosmogenic nuclide burial-dating model indicates onset of major glaciations in the Alps during Middle Pleistocene Transition</t>
+          <t>Heating and cooking in rural Canada: home energy in transition, 1850–1940</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A set of four outwash terraces in the northern Alpine Foreland motivated Penck and Brückner's classical scheme of four great Alpine ice ages: Günz, Mindel, Riss, and Würm. While it is now established that the Würm corresponds to marine isotope stages (MIS) 5d–2 (∼117–14 ka) and the Riss type locality to MIS 6 (∼191–130 ka), there is no consensus regarding the age of the older glaciations. The two oldest terraces, known as Höhere Deckenschotter (HDS) and Tiefere Deckenschotter (TDS) in Switzerland and neighbouring Germany, contain interbedded tills that directly indicate the first arrival of glaciers into the northern Alpine Foreland. Here, we set out to constrain the timing of the HDS, which signal the first major glaciations in the Alps. To achieve this goal, we devised a new burial-dating model tailored to glaciogenic sediments: P-PINI (Particle Pathway Inversion of Nuclide Inventories). The method applies a source-to-sink framework to a cosmogenic 10Be-26Al inversion model accounting for variable cosmic-ray exposure and non-steady erosion. Taking published 10Be-26Al data from five HDS sites (Feusi, Tromsberg, Siglistorf, Irchel Steig, and Irchel Hütz) and one TDS site (Iberig), we obtain age distributions (±1σ) that are especially well constrained for Feusi (0.93 ± 0.13 Ma), Iberig (0.93 ± 0.17 Ma), and Tromsberg (0.88 ± 0.14 Ma), less well-constrained for Irchel Steig (0.69 ± 0.25 Ma) and Siglistorf (0.94 ± 0.27 Ma), and very poorly constrained for Irchel Hütz (1.39 ± 0.56 Ma). Consistent with the morphostratigraphy, which dictates that the TDS postdates the HDS, we implemented a Bayesian modelling framework, yielding an age of 0.69 ± 0.12 Ma for Iberig (TDS) and a combined age of 0.95 ± 0.07 Ma for the HDS sites. Based on the P-PINI burial ages as well as the combined, Bayesian burial age, we propose an age around 1.0–0.9 Ma for the onset of the large Alpine glaciations that triggered the accumulation of the HDS outwash sediments. This roughly accords with the first long glaciation of the Pleistocene (MIS 24–22), identified as a step-change to colder climate and larger glaciations towards the end of the Middle Pleistocene Transition. While our results challenge previously reported ages of ∼2 Ma or more for the HDS in Switzerland, they corroborate evidence from the southern Alpine retroforeland and provide quantitative support for the early hypothesis by G.J. Kukla, who ascribed the oldest glacial deposits in the northern Alpine Foreland to around MIS 22. Finally, we suggest that the source-to-sink approach of P-PINI offers a viable alternative to the established isochron burial-dating method in cases involving non-steady exposure and erosion.</t>
+          <t>Contextualized in very recent histories of energy and in the rich scholarly literature focused on the consumption practices within the home, this article examines the ways that rural Canadians experienced the shift from the organic energy regime (characterized by relatively low energy use and reliance on local rural environments) to the mineral energy regime of fossil fuels and electricity (characterized by high energy use, dense population clusters, and complex networks that distribute energy). Modern grid-supplied energy came very late to rural Canada; the great majority of rural Canadians were still relying on kerosene (paraffin) for lighting and wood for heating and cooking as late as 1941. This article focuses on rural Canadians' long reliance on the wood stove to explore the distinctively slow and late transition that characterized the Canadian transition to the modern energy regime. Although the cast iron wood-burning stove eventually became as emblematic of the ‘backwardness’ of rural life as the coal-oil lamp, the author argues that the wood stove, like the coal oil lamp, was in fact a product of the modern energy regime, and was entangled in networks of extraction, processing, and transportation of fossil fuels along modern coal-and steam networks already transforming rural life.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4280554633</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1063/5.0094890</t>
+          <t>https://openalex.org/W1940186159</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Chen &amp; Wang (2022)</t>
+          <t>Bachev (2010)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Plasmon-driven oxidative coupling of aniline-derivative adsorbates: A comparative study of &lt;i&gt;para&lt;/i&gt;-ethynylaniline and &lt;i&gt;para&lt;/i&gt;-mercaptoaniline</t>
+          <t>Study on Agrarian Contracts in Bulgaria</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Plasmon-driven photocatalysis has emerged as a paradigm-shifting approach, based on which the energy of photons can be judiciously harnessed to trigger interfacial molecular transformations on metallic nanostructure surfaces in a regioselective manner with nanoscale precision. Over the past decade, the formation of aromatic azo compounds through plasmon-driven oxidative coupling of thiolated aniline-derivative adsorbates has become a testbed for developing detailed mechanistic understanding of plasmon-mediated photochemistry. Such photocatalytic bimolecular coupling reactions may occur not only between thiolated aniline-derivative adsorbates but also between their nonthiolated analogs. How the nonthiolated adsorbates behave differently from their thiolated counterparts during the plasmon-driven coupling reactions, however, remains largely unexplored. Here, we systematically compare an alkynylated aniline-derivative, para-ethynylaniline, to its thiolated counterpart, para-mercaptoaniline, in terms of their adsorption conformations, structural flexibility, photochemical reactivity, and transforming kinetics on Ag nanophotocatalyst surfaces. We employ surface-enhanced Raman scattering as an in situ spectroscopic tool to track the detailed structural evolution of the transforming molecular adsorbates in real time during the plasmon-driven coupling reactions. Rigorous analysis of the spectroscopic results, further aided by density functional theory calculations, lays an insightful knowledge foundation that enables us to elucidate how the alteration of the chemical nature of metal-adsorbate interactions profoundly influences the transforming behaviors of the molecular adsorbates during plasmon-driven photocatalytic reactions.</t>
+          <t>This paper suggests a holistic framework for analysis of agrarian contracts and investigates the contractual structure in transitional Bulgarian agriculture. Firstly, it incorporates the interdisciplinary New Institutional and Transaction Costs Economics (combining Economics, Organization, Law, Sociology, Behavioral and Political Sciences) and describes major mechanisms of governance of agrarian activity – institutional environment, market competition, private, collective and public order; and defines features of agrarian sale-purchase, lease, employment, service, loan, insurance and coalition contracts; and identifies technological, institutional, behavioral, dimensional, and transaction costs factors for contractual choice and specifies effective modes for contractual arrangements in agriculture; and determines the effective boundaries and sustainability of farm and agrarian organizations. Secondly, it analyzes the post-communist institutional and organizational modernization of Bulgarian agriculture, and assesses the efficiency of various modes for governing of land supply, and labor supply, and service supply, and inputs supply, and finance supply, and insurance supply, and marketing of output in different type of farms.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052755330</t>
+          <t>https://openalex.org/W2097312213</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00001648-199709000-00015</t>
+          <t>https://doi.org/10.1557/proc-508-327</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Forastiére et al. (1997)</t>
+          <t>Takayama (1998)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Socioeconomic Status, Number of Siblings, and Respiratory Infections in Early Life as Determinants of Atopy in Children</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>The associations between arsenic ingestion and cancers of the bladder and kidney have been documented in Taiwan. To evaluate further such associations for urinary cancers of various cell types, we conducted an ecologic study encompassing 243 townships using cancer registry data of patients diagnosed between 1980 and 1987. We used the proportions of wells with various specified arsenic levels in each township as indicators of exposure and evaluated the effects of urbanization and smoking by an urbanization index and the number of cigarettes sold per capita. In both genders, we observed associations of high arsenic levels in drinking water with transitional cell carcinomas of the bladder, kidney, and ureter and all urethral cancers combined. We also observed such associations in adenocarcinomas of the bladder in males, but not in squamous cell carcinomas of the bladder or renal cell carcinomas or nephroblastomas of the kidney. There was also a positive association between the urbanization index and transitional cell carcinomas of the ureter in males. The number of cigarettes sold per capita was not a good predictor for urinary cancers. The results indicate that the carcinogenicity of arsenic may be cell type specific.</t>
+          <t>Al-RE-TM (RE = Rare-Earth Metals, TM = Transition Metals) Ternary Alloy Films for TFT-LCD Electrodes</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2315843221</t>
+          <t>https://openalex.org/W4392687054</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/jp400554h</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6506301.v1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Saed &amp; Omidyan (2013)</t>
+          <t>Čermáková et al. (2023)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Electronically Excited States of Protonated Aromatic Hydrocarbons: Phenanthrene and Pyrene</t>
+          <t>Data from Validation and Structural Characterization of the LEDGF/p75–MLL Interface as a New Target for the Treatment of MLL-Dependent Leukemia</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>The first and second electronic excited states (S1 and S2) of protonated phenanthrene and protonated pyrene, having the ππ* nature, are strongly red-shifted compared to corresponding electronic transitions in neutral homologues. The CC2 calculations identify an out-of-plane deformation as the most important photochemical reaction coordinate in protonated phenanthrene as well as protonated benzene. It was shown that the excited S1 states of protonated phenanthrene and protonated benzene are unstable via a torsional motion, which provides a fast access to a S1-S0 conical intersection. From the conical intersection, a barrier-less reaction path directs the system back to the minimum of the S0 potential-energy surface. In contrast to the most stable isomer of protonated phenanthrene, the most stable structure of protonated pyrene shows planar structure in both the S1 and S2 excited states, without considerable geometry deformations.</t>
+          <t>&amp;lt;div&amp;gt;Abstract&amp;lt;p&amp;gt;Mixed lineage leukemia (MLL) fusion–driven acute leukemias represent a genetically distinct subset of leukemias with poor prognosis. MLL forms a ternary complex with the lens epithelium–derived growth factor (LEDGF/p75) and MENIN. LEDGF/p75, a chromatin reader recognizing H3K36me3 marks, contributes to the association of the MLL multiprotein complex to chromatin. Formation of this complex is critical for the development of MLL leukemia. Available X-ray data represent only a partial structure of the LEDGF/p75–MLL–MENIN complex. Using nuclear magnetic resonance spectroscopy, we identified an additional LEDGF/p75–MLL interface, which overlaps with the binding site of known LEDGF/p75 interactors—HIV-1 integrase, PogZ, and JPO2. Binding of these proteins or MLL to LEDGF/p75 is mutually exclusive. The resolved structure, as well as mutational analysis, shows that the interaction is primarily sustained via two aromatic residues of MLL (F148 and F151). Colony-forming assays in MLL–AF9&amp;lt;sup&amp;gt;+&amp;lt;/sup&amp;gt; leukemic cells expressing MLL interaction-defective LEDGF/p75 mutants revealed that this interaction is essential for transformation. Finally, we show that the clonogenic growth of primary murine MLL-AF9–expressing leukemic blasts is selectively impaired upon overexpression of a LEDGF/p75-binding cyclic peptide CP65, originally developed to inhibit the LEDGF/p75–HIV-1 integrase interaction. The newly defined protein–protein interface therefore represents a new target for the development of therapeutics against LEDGF/p75–dependent MLL fusion–driven leukemic disorders. &amp;lt;i&amp;gt;Cancer Res; 74(18); 5139–51. ©2014 AACR&amp;lt;/i&amp;gt;.&amp;lt;/p&amp;gt;&amp;lt;/div&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361005872</t>
+          <t>https://openalex.org/W3202896606</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/land12040747</t>
+          <t>https://doi.org/10.1016/j.seppur.2021.119886</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Peña-Rodríguez et al. (2023)</t>
+          <t>Li et al. (2022)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Changes in Land Use and Food Security: The Case of the De La Vega Agrarian Shire in the Southern Spanish Province of Granada</t>
+          <t>The roles of oxygen and chloride in the degradation efficiency and mechanism of Basic Violet 16 by liquid glow discharge plasma</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Changes in land use that are taking place in many parts of the world are having varying effects, depending on the case, on food security in diverse environments. This article analyzes how these changes manifest themselves in the De La Vega territory, an agrarian shire located in the center of the southern Spanish province of Granada. Over recent decades, this shire has been confronted with deep socioeconomic, demographic, and urban transformations that have led and are leading to significant changes in the role of agriculture, land use, and the position of farmers. The results reveal that, over the last four decades, the population has increased (44%), the agricultural area has decreased (40%) as has the usable agricultural land (25%), olive groves have grown exponentially (144%), farms have decreased (68%), and levels of livestock have grown and become more concentrated. Finally, the actions and demands raised by the main actors and social organizations involved in the defense of farming in this shire are examined. These demands and actions have ocurred especially in the peri-urban areas close to what is known as the Granada urban agglomeration, precisely where the changes have been most intense, according to the data analyzed.</t>
+          <t>• LGDP combined with O 2 and Cl − system exhibits excellent efficiency in BV16 removal. • O 2 injection and KCl electrolyte enhance the production of ROS and RCS in the system. • Decay of BV16 is a dominated by HO⋅, leading to the formation of organic byproducts. • A pathway for BV16 degradation by LGDP combined with O 2 and Cl − is proposed. The degradation of Basic Violet 16 (BV16) dye in the aqueous solution by a novel Liquid Glow Discharge Plasma (LGDP) combined with KCl (supporting electrolyte) and oxygen (additive) was systematically investigated. Experimental results showed that the LGDP/Cl − /O 2 system significantly facilitated the degradation of BV16 due to the involvement of UV irradiation and reactive species (e.g., HO⋅ and H 2 O 2 ). The decolorization rate of BV16 reached up to 96.2% in 10 min with the TOC removal being 50.6% in 120 min. Meanwhile, reactive oxygen species (ROS) and reactive chlorine species (RCS) generated in the system were detected, and results show that oxygen injection was beneficial to accelerate the production of ROS. The transformation intermediates upon the degradation of BV16 by the LGDP process were monitored. Accordingly, the decay pathway of BV16 in the LGDP system was proposed, i.e., the cleavage of the C=C double bond of BV16 led to the formation of simple aromatic compounds, while further reaction gave rise to the ring opening compounds with the production of some low molecular weight acids (e.g., formic acid, acetic acid, lactate acid, and succinic acid), some of which could eventually be mineralized to CO 2 , H 2 O, and NH 4 + .</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3194478052</t>
+          <t>https://openalex.org/W2062153503</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.commatsci.2021.110810</t>
+          <t>https://doi.org/10.1016/j.quascirev.2009.07.017</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Hu et al. (2021)</t>
+          <t>Almogi‐Labin et al. (2009)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Unraveling surface functionalization of Cr2B2T2 (T = OH, O, Cl, H) MBene by first-principles calculations</t>
+          <t>Climatic variability during the last ∼90ka of the southern and northern Levantine Basin as evident from marine records and speleothems</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Synthesis of two-dimensional (2D) materials by wet-chemical methods is usually accompanied by surface functionalization, which plays critical roles in stabilizing and functionalizing the targeted materials. These termination reactions can bring thermodynamically stable products and versatile applications, however, leaving experimental characterization of surface structures challenging as well. In this work, newly emerging 2D conductive transition metal borides, Cr2B2 MBene is selected as a prototype to investigate the surface functionalization phenomenon. By first-principles calculation plus efficient structural exploration, we provide an atomistic understanding of the chemical origin and kinetics of surface functionalization occurred in aqueous environment, and screen the surface structure of Cr2B2T2 (T = OH, O, Cl, and H) MBenes. Results clearly unravel the functionalization process of MBenes and the stable surface structures of functionalized MBenes. It is found that both H2O and HCl molecules can split on the bare Cr2B2 in a nearly spontaneous manner, enabling functionalization of Cr2B2T2. Binding energy of termination groups on Cr2B2 quantifies the relative stability of functionalized Cr2B2T2 in the order: Cr2B2O2 &gt; Cr2B2Cl2 &gt; Cr2B2(OH)2 &gt; Cr2B2H2. Furthermore, we demonstrate that both Cr2B2 and functionalized Cr2B2T2 MBenes are electronically conductive 2D materials with zero band gap, which is beneficial for electrochemical applications.</t>
+          <t>The influence of the northern Atlantic and tropical monsoonal systems, as recorded by the River Nile, on the climate variability of the southeastern Mediterranean was studied in two cores taken by the R/V Marion Dufresne: one core taken SE of Cyprus representing the northern Levantine Basin (core 9501, 980 m water depth) and the other located ˜380 km further south, represents the southeastern Levantine Basin in an area influenced by the River Nile plume (core 9509, 884 m water depth). The study was performed at relatively high resolution using several proxies: δ18O of Globigerinoides ruber, sediment characteristics and index colour parameters in core sections representing the last 86 ka. A low-resolution alkenone sea surface temperature record was also measured. The time frame in both cores was mostly constrained by ‘wiggle’ matching with the nearby well-dated δ18O and δ13C record of the Soreq Cave, which is mainly influenced by the eastern Mediterranean water vapor. The sedimentary record of the southern core is strongly influenced by the River Nile contribution throughout the last 86 ka, as evidenced by the higher sedimentation rates compared with the northern core (20 cm/ka vs. 5 cm/ka), continuously darker sediment colour, and higher TOC values (0.6–0.9 vs. 0.25 wt% not including sapropels). During sapropels S1 and S3, present in both cores, the influence of the River Nile became more widespread, reaching as far as Cyprus. Yet, the influence of the River Nile remained stronger in the south, as evident by the higher TOC values in the southern core throughout the entire 90 ka period and the longer duration of S1 in the southern core. An anomalous low δ18O interval that is not recorded in western Mediterranean occurred between 58 and 49 ka in the Levantine Basin and is more developed in the northern core. This period correlates with D-O interstadial 14 and maximum northern hemisphere insolation during the lastglacial cycle, suggesting that the warming mainly impacted the northern Levant. The Eastern Mediterranean Sea and land area was considerably warmer than the western Mediterranean throughout the LGM – Holocene transition, and the δ18OG. ruber drop of 4.5‰ is significantly greater than the 3‰ shift found for the western Mediterranean δ18OG. bulloides, both differences reflecting an increased continental effect from the western to eastern Mediterranean. Comparison between the marine and the land δ18O records suggests that the origin of rain over the land is composed of mixed signal from the southern and northern Levantine Basin. The study of Δδ18Osea–land variations demonstrates that various factors have influenced the sea–land relationship during the last 90 ka. The ‘amount effect’ has an important influence on rainfall δ18O during interglacial periods (particularly sapropel periods), whereas during glacial periods, increased land distances and elevation differences arising from decrease in sea level may have brought about decrease in δ18O of rainfall due to Rayleigh distillation processes. These influences were superimposed on those of sea surface water δ18O changes brought about by continental ice melting, and the strong effects felt in the southern Levantine Basin of the high River Nile input during periods of enhanced monsoonal activity.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2020137585</t>
+          <t>https://openalex.org/W2063126359</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/01.asn.0000112912.40303.81</t>
+          <t>https://doi.org/10.1037//0096-1523.10.5.683</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brunskill (2004)</t>
+          <t>Warren (1984)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Albumin Signals the Coming of Age of Proteinuric Nephropathy</t>
+          <t>Perceiving affordances: Visual guidance of stair climbing.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The great majority of progressive renal diseases are associated with the development of a common renal histological lesion known as the end-stage kidney, characterized by prominent interstitial inflammation and scarring, together with fibrosis and gross tubular atrophy. Declining renal function correlates extremely closely with these developing changes in the renal tubulointerstitium (1), and these observations have led to a hypothesis that suggests that, whatever the initiating renal insult, a common pathophysiological process is precipitated, which culminates in the development of the end-stage kidney. Investigators have therefore sought to identify factors common to the majority of renal diseases that may be responsible for the development of this pathological lesion. Proteinuria, manifest predominantly as albuminuria, is a poor prognostic sign and an almost universal finding in patients with progressive renal diseases. It has been postulated therefore that excess protein exerts a toxic effect on the proximal tubular epithelial cell, damaging the cells and thus initiating interstitial inflammation and scarring (2). Protein-mediated, particularly albumin-mediated, effects on proximal tubular cells have been subject to intense study. As well as illuminating our understanding of renal disease mechanisms, the results of these studies have changed our perception of albumin from that of an intrinsically uninteresting molecule, at least in a pathophysiological sense, to that of a key mediator of signaling and phenotype in the proximal tubule. In this issue of JASN, Nakajima et al (3) challenge our preconceptions by demonstrating activation of the signal transducer and activator of transcription (STAT) proteins by albumin in proximal tubular cells. The study also reveals how information derived from genomic studies may be interpreted and rationally translated into significant functional information of direct relevance to cell biology. These observations are important because STAT protein activation is involved in a wide array of signaling pathways and provides a universal paradigm for signaling from cytokine receptors as well as being a module used by many growth factor receptors (4). The data from Nakajima et al (3) therefore suggest that albumin may stimulate proximal tubular cells in the manner of a cytokine. Understanding the mechanism of protein, especially albumin, interactions with the proximal tubular cells is clearly key to understanding how cell activation may occur. Appreciable quantities of albumin enter the proximal tubule in normal individuals. After filtration, albumin binds to the giant receptors megalin and cubilin in proximal tubular cells (5), although the relative paucity of urinary albumin in kidney-specific megalin knockout mice (6) suggests other receptors may be involved. Binding is followed by endocytosis, and these processes are accompanied by activation of numerous enzymes, particularly kinases, involved in intracellular signaling such as extracellular signal-regulated mitogen-activated protein kinase, phosphatidylinositol 3-kinase, p70S6 kinase, c-jun terminal kinase (JNK), and protein kinase C (7–10). How albumin, sometimes at very low concentrations, transduces these signals is not well understood. Some may be mediated via megalin (11), and others may require internalization and degradation of albumin with the generation of other intermediates such as reactive oxygen species. Stimulation of extracellular signaling pathways by albumin results in transcription factor activation. These include the STAT proteins as currently described by Nakajima et al(3) and NF-κB as previously demonstrated by several authors (12,13). The net result of proximal tubular cell exposure to albumin is the production of a cocktail of chemoattractants, pro-fibrotic agents, matrix proteins, and vasoconstrictive agents by PTEC. Specific examples include MCP-1, RANTES, IL-8, platelet-derived growth factor, TGF-β, endothelin, fibronectin, and collagen (10,12–19). This complex mixture of pro-inflammatory substances and growth factors attracts macrophages into the tubulointerstitium and may induce changes in proximal tubular cell growth characteristics and/or precipitate epithelial-mesenchymal transition with transdifferentiation of proximal tubular cells into myofibroblasts (20,21). The data from Nakajima et al (3) therefore adds to a growing body of in vitro and in vivo evidence that strongly implicates proteinuria as a crucial factor in the pathogenesis of chronic renal injury. Furthermore exciting new data contribute a fresh dimension to the story by incriminating albumin as a central mediator of fluid retention in nephrosis. Both in nephrotic rats and in cultured proximal tubular cells, albumin per se is able to positively regulate activity of the Na+/H+ exchanger 3 (NHE-3) through effects on NHE-3 protein abundance and trafficking (22). One potential consequence of these changes is enhancement of Na+ reabsorp</t>
+          <t>How do animals visually guide their activities in a cluttered environment? Gibson (1979) proposed that they perceive what environmental objects offer or afford for action. An analysis of affordances in terms of the dynamics of an animal-environment system is presented. Critical points, corresponding to phase transitions in behavior, and optimal points, corresponding to stable, preferred regions of minimum energy expenditure, emerge from variation in the animal-environment fit. It is hypothesized that these points are constants across physically similar systems and that they provide a natural basis for perceptual categories and preferences. In three experiments these hypotheses are examined for the activity of human stair climbing, by varying riser height with respect to leg length. The perceptual category boundary between "climbable" and "unclimbable" stairs is predicted by a biomechanical model, and visually preferred riser height is predicted from measurements of minimum energy expenditure during climbing. It is concluded that perception for the control of action reflects the underlying dynamics of the animal-environment system.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231360178</t>
+          <t>https://openalex.org/W3093202088</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
+          <t>https://doi.org/10.1002/cne.25055</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Burton (2021)</t>
+          <t>Edwards et al. (2020)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Dynamics of perineuronal nets over amphibian metamorphosis</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
+          <t>Extracellular matrix materials known as perineuronal nets (PNNs) have been shown to have remarkable consequences for the maturation of neural circuits and stabilization of behavior. It has been proposed that, due to the possibly long-lived biochemical nature of their components, PNNs may be an important substrate by which long-term memories are stored in the central nervous system. However, little empirical evidence exists that shows that PNNs are themselves stable once established. Thus, the question of their temporal dynamics remains unresolved. We leverage the dramatic morphological and behavioral transformations that occur during amphibian metamorphosis to show that PNNs can be highly dynamic in nature. We used established lectin histochemistry to show that PNNs undergo drastic reconstruction during the metamorphic transition. Pre-metamorphic tadpoles have abundant lectin-labeled pericellular material, which we interpret to be PNNs, surrounding neurons throughout the central nervous system. During the metamorphic transition, these structures degrade, and begin to reform in the months following metamorphosis. We show that PNN sizes and staining intensity further change over metamorphosis, suggesting compositional rearrangement. We found PNNs in brain regions with putative homology to regions in mammals with known PNN function, and in other shared regions where PNN function is unknown. Our results suggest that PNNs are susceptible to remodeling by endogenous mechanisms during development. Interpreting the roles of PNNs in circuit maturation and stability requires understanding their temporal relationship with the neurons and synapses they surround. Our work provides further impetus to investigate this relationship in tandem with developmental and behavioral studies.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2803057429</t>
+          <t>https://openalex.org/W2282809857</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oso/9780199393671.003.0005</t>
+          <t>https://doi.org/10.1086/203816</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Songster (2018)</t>
+          <t>Solway et al. (1990)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Pandas Are Red</t>
+          <t>Foragers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Many advances gained in nature protection efforts during the early 1960s were brought to a screeching halt with the onset of China’s Cultural Revolution (1966-1976). The Wanglang Nature Reserve, however, hosted representatives from China’s top scientific institutes on the first species-specific giant panda survey in 1967. This event brings to light a narrative parallel to the well-known “decade of chaos”. During this era the government endorsed many scientific endeavors designed to highlight the glory of China’s nature and advertise its scientific prowess. In addition to being a scientific subject, the giant panda also became a popular expression of nationalism during this era. The giant panda was repeatedly reproduced as a politically safe image and demonstrated surprising durability against the ever-changing political winds of this decade.</t>
+          <t>Previous articleNext article No AccessForagers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]Jacqueline S. Solway, Richard B. Lee, Alan Barnard, M. G. Bicchieri, Alec C. Campbell, James Denbow, Robert Gordon, Mathias Guenther, Henry Harpending, Patricia Draper, Robert K. Hitchcock, Tim Ingold, L. Jacobson, Susan Kent, Pnina Motzafi-Haller, Thomas C. Patterson, Carmel Schrire, Bruce G. Trigger, Polly Wiessner, Edwin N. Wilmsen, John E. Yellen, and Aram A. YengoyanJacqueline S. Solway Search for more articles by this author , Richard B. Lee Search for more articles by this author , Alan Barnard Search for more articles by this author , M. G. Bicchieri Search for more articles by this author , Alec C. Campbell Search for more articles by this author , James Denbow Search for more articles by this author , Robert Gordon Search for more articles by this author , Mathias Guenther Search for more articles by this author , Henry Harpending Search for more articles by this author , Patricia Draper Search for more articles by this author , Robert K. Hitchcock Search for more articles by this author , Tim Ingold Search for more articles by this author , L. Jacobson Search for more articles by this author , Susan Kent Search for more articles by this author , Pnina Motzafi-Haller Search for more articles by this author , Thomas C. Patterson Search for more articles by this author , Carmel Schrire Search for more articles by this author , Bruce G. Trigger Search for more articles by this author , Polly Wiessner Search for more articles by this author , Edwin N. Wilmsen Search for more articles by this author , John E. Yellen Search for more articles by this author , and Aram A. Yengoyan Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Current Anthropology Volume 31, Number 2Apr., 1990 Sponsored by the Wenner-Gren Foundation for Anthropological Research Article DOIhttps://doi.org/10.1086/203816 Views: 45Total views on this site Citations: 137Citations are reported from Crossref Copyright 1990 The Wenner-Gren Foundation for Anthropological ResearchPDF download Crossref reports the following articles citing this article:Moren Tibabo Stone, Lesego Senyana Stone Conservation, tourism and indigenous communities’ dynamics: the case of Basarwa in the Central Kalahari Game Reserve (CKGR), Botswana, Transactions of the Royal Society of South Africa 78, no.33 (Sep 2023): 181–195.https://doi.org/10.1080/0035919X.2023.2255846Kathryn D. Croll San elders speak: ancestral knowledge of the Kalahari San San elders speak: ancestral knowledge of the Kalahari San , by Lucinda Backwell and Francesco d’Errico, Johannesburg, Wits University Press, 2021, 304 pp., ZAR 390 (paperback), ISBN 978-1-77614-662-8., Anthropology Southern Africa 46, no.33 (Dec 2023): 245–247.https://doi.org/10.1080/23323256.2023.2253277Bernard Clist, James Denbow, Raymond Lanfranchi Using the radiocarbon dates of Central Africa for studying long-term demographic trends of the last 50,000 years: potential and pitfalls, Azania: Archaeological Research in Africa 58, no.22 (Jun 2023): 235–293.https://doi.org/10.1080/0067270X.2023.2215649Tim Forssman Forager and Farmer Interactions in Late Holocene Southern Africa, (Jan 2023).https://doi.org/10.1016/B978-0-323-90799-6.00084-7Sheila Coulson, Sigrid Staurset, Sarah Mothulatshipi, Sallie L. Burrough, David J. Nash, David S.G. Thomas Thriving in the Thirstland: New Stone Age sites from the Middle Kalahari, Botswana, Quaternary Science Reviews 297 (Dec 2022): 107695.https://doi.org/10.1016/j.quascirev.2022.107695Sam Challis and Brent Sinclair-Thomson The Impact of Contact and Colonization on Indigenous Worldviews, Rock Art, and the History of Southern Africa: “The Disconnect”, Current Anthropology 63, no.S25S25 (Nov 2022): S91–S127.https://doi.org/10.1086/722260Duncan N. E. Stibbard‐Hawkes, Coren L. Apicella Myopia rates among Hadza hunter‐gatherers are low but not exceptional, American Journal of Biological Anthropology 179, no.44 (Sep 2022): 655–667.https://doi.org/10.1002/ajpa.24611Erik Gomez-Baggethun Rethinking work for a just and sustainable future, Ecological Economics 200 (Oct 2022): 107506.https://doi.org/10.1016/j.ecolecon.2022.107506Tim Forssman An Archaeological Contribution to the Kalahari Debate from the Middle Limpopo Valley, Southern Africa, Journal of Archaeological Research 30, no.33 (Jun 2021): 447–495.https://doi.org/10.1007/s10814-021-09166-0Manvir Singh, Luke Glowacki Human social organization during the Late Pleistocene: Beyond the nomadic-egalitarian model, Evolution and Human Behavior 43, no.55 (Sep 2022): 418–431.https://doi.org/10.1016/j.evolhumbehav.2022.07.003Andrew Skinner, Sam Challis Fluidities of personhood in the idioms of the Maloti-Drakensberg, past and present, and their use in incorporating co</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3082871417</t>
+          <t>https://openalex.org/W2061472539</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijintrel.2020.08.008</t>
+          <t>https://doi.org/10.4173/mic.1995.4.2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Gebregergis et al. (2020)</t>
+          <t>Meisingset &amp; Balchen (1995)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The impact of emotional intelligence on depression among international students studying in China: The mediating effect of acculturative stress</t>
+          <t>Mathematical modeling of a rotary hearth coke calciner</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Psychological resources such as emotional intelligence are claimed to act as protective factors against negative psychological adjustment outcomes of acculturative stress and depression for international students in their intercultural transition in the host country despite the dearth of substantial empirical evidence. With this in mind, the study was conducted to investigate the relationships between emotional intelligence, acculturative stress and depression. The study recruited international university students (N = 506) who were purposefully drawn from seven Chinese universities located in Wuhan. Participants completed three self-report questionnaires: Emotional Intelligence Scale, Acculturative Stress for International Students scale and Center for Epidemiological Studies Depression Scale. The result of the study revealed that students with a higher level of acculturative stress were found to have greater depressive symptoms. The study also indicated that emotionally intelligent students were likely to experience a lower level of acculturative stress and fewer depressive symptoms. The finding of the study further suggested that students with a higher level of emotional intelligence were likely to experience a lower level of acculturative stress and consequently appeared less depressed. Findings of the present study may assist university communities to have an insight into the nature of emotional intelligence and its impact on acculturative stress and depression, and then make the best use of this insight to work on facilitating the psychological adaptation of international students in the new environment. Implications, limitations, and future research directions for the study are discussed.</t>
+          <t>Calcination of petroleum coke is a thermal process where green petroleum coke is heat-treated to a pre-determined temperature. During heat treatment the associated moisture is removed and the volatile combustible matter (VCM) is released. The VCM is burned in the gas phase giving the energy to sustain the process. In addition, structural changes take place. The combination of the final calcination temperature and the residence time determine the final real density of the calcined coke. Depending on its further use, different real density requirements may arise. It is important to control the dynamics of the calcination process so that the specified final quality is achieved. A dynamic mathematical model of a Rotary Hearth Calciner is presented. The model is based on physicochemical laws involving the most important phenomena taking place and the relevant calcination parameters. The temperature profile in the coke bed is predicted which in terms is related to the real density of the coke.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031176627</t>
+          <t>https://openalex.org/W2331958816</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15718123-01405002</t>
+          <t>https://doi.org/10.2514/6.2008-1953</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bongiovanni et al. (2014)</t>
+          <t>Bronowicki (2008)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
+          <t>Forensic Investigation of Reaction Wheel Nutation on Isolator</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
+          <t>The Chandra X-ray space telescope employs a passive vibration isolator on each of six reaction wheels to attenuate high frequency disturbances which might excite vibrations of the critical mirror surfaces. Acceptance spin testing of the reaction wheel/isolator assembly revealed a resonance in moment transmitted to the base when the wheel approached 100 revolutions per second spin rate. The investigation that determined the nature of this phenomenon is described. It turned out that a nutation condition is created through the coalescence of the isolator rocking mode, wheel bending mode and wheel spin inertia. This can be described with a simple four degree of freedom system when gyroscopic terms are included. The analysis is described, with results presented in terms of root-locus and transfer function plots. Ways in which the phenomenon can be avoided in future designs are described.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976717535</t>
+          <t>https://openalex.org/W4385818796</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/mnras/262.2.359</t>
+          <t>https://doi.org/10.1590/2179-8087-floram-2022-0076</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Crosas &amp; Weisheit (1993)</t>
+          <t>Feitosa et al. (2023)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hydrogen molecules in quasar broad-line regions</t>
+          <t>Temporal Analysis of Forest Fragmentation in the Amazon Rainforest of Tocantins State, Brazil</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>We reconsider the question of molecule formation deep within quasar broad-lineregion (BLR) clouds. Previous studies have shown that the transition from H to H2 is essentially complete at column densities Ngas~1023 cm-2, a result that is consistent with numerous analyses of BLR atomic line spectra. However, earlier work ignored the rapid photodetachment of H-by the intense radiation flux between 0.75 and 13.6 eV. The negative hydrogen ion participates in the H2 formation pathway that is most important in the BLR environment, and our calculations reveal an order-of-magnitude decrease in the H2 abundance at large optical depths when the photodetachment process is considered. We first explore the contribution of collisions between excited and ground-state atomic hydrogen to molecule formation, because Lyman-line trapping greatly enhances the excited-state populations. Neither the radiative association of H(n = 1) and H*(n = 2),nor the associative ionization of H(n = 1) and H*(n = 2) or H*(n = 3), yields a significant enhancement of the total H2 abundance in the neutral zone. We then explore the likely importance of small amounts of dust (which is efficient in shielding the H-) in BLR clouds. The H-to-H2 conversion again can be essentially completed at gas column densities ~1023 cm-2 if a dust-to-gas abundance only 1/10 of that characteristic of our Galaxy's interstellar matter exists in BLR clouds.</t>
+          <t>The Amazon Rainforest presents intense pressure from agricultural and cattle farming activities on its forest remnants, which promotes forest fragmentation.The present study aimed to quantify structural changes in the Amazon Rainforest landscape in the state of Tocantins, Brazil, that occurred between 1985 and 2020 using Mapbiomas data and landscape metrics.MAPBIOMS images were used to delimit forest fragments and size classes.Landscape metrics were estimated using the Fragstats® software.In the state of Tocantins, the Amazon Rainforest, grassland, and savanna showed a fragmentation process between 1985 and 2020, with a reduction in their total area and the number of fragments, with less rounded shapes and loss of core areas, in need of environmental policies to protect forest remnants and interrupt the process of Forest fragmentation, especially the Amazon Rainforest.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087969499</t>
+          <t>https://openalex.org/W820127183</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/15226519908500016</t>
+          <t>https://doi.org/10.1016/j.dsr2.2015.06.019</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Nzengung et al. (1999)</t>
+          <t>Doyle &amp; Mier (2016)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Use of Aquatic Plants and Algae for Decontamination of Waters Polluted with Chlorinated Alkanes</t>
+          <t>Early life history pelagic exposure profiles of selected commercially important fish species in the Gulf of Alaska</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ABSTRACT The transformation of carbon tetrachloride (CT) and hexachloroethane (HCA) by aquatic plants and freshwater algae was investigated. Stressed, axenic, and physiologically healthy freshwater plants all transformed the two chlorinated alkanes, yielding similar breakdown products. Experiments conducted with dead plants were used to indirectly test the hypothesis that dead aquatic plants maintain and possibly contribute to the dehalogenase activity observed in organic-rich sediments. After exposure of the aquatic plants and algae to HCA- and CT-dosed solutions, a rapid sorption (or sequestration) step followed by a slow transformation lasting several hours thereafter was observed. The kinetics data were adequately described by two first-order rate equations; pseudo-first-order sorption rate coefficients were calculated for the initial rapid adsorption and transformation steps. The identified metabolites extracted from plants indicated that more than one pathway, possibly requiring different reactants, mediated the phytotransformation reactions. Mass balance estimations confirmed that &gt;80% of the parent chemical was sequestered, transformed, and/or assimilated by the biomass. The metabolic activity observed with dead plants and algae suggests that photoautotrophs maintain this activity at death, and the active agents could become bound to the sediment-organic matrix as plants die, decay, and are buried in sediment. The results of this study suggest the potential usefulness of aquatic plants and freshwater algae in the removal of chlorinated alkanes from water and remediation of aquatic environments.</t>
+          <t>A synthesis of nearly four decades of ichthyoplankton survey data from the Gulf of Alaska was undertaken to provide the most comprehensive information available on the early life history ecology of five focal species: Pacific Cod (Gadus macrocephalus), Walleye Pollock (Gadus chalcogrammus), Pacific Ocean Perch (Sebastes alutus), Sablefish (Anoplopoma fimbria), and Arrowtooth Flounder (Atheresthes stomias). This analysis of historical data, along with information from published studies, is presented here in the form of ecological reviews of the species during their planktonic phase. The reviews include descriptions of temporal and spatial patterns of exposure to the environment, and interpretation regarding associated sensitivities to environmental forcing. On a temporal scale, patterns in abundance of eggs and larvae are synthesized that characterize seasonal exposure to the pelagic environment, and interannual variation that is presumed to incorporate responses to long-term environmental forcing. Spatial patterns are synthesized to identify horizontal and vertical extent of egg and larval distributions, delineate areas of primary larval habitat, and illuminate egg and larval drift pathways. The observed patterns are discussed with respect to characterizing species early life history strategies, identifying long-term adaptations to the Gulf of Alaska environment, and associated resilience and vulnerability factors that may modulate early life responses to environmental forcing in this region. For each species, gaps in knowledge are identified and are concerned primarily with the period of transition between the larval and juvenile stage, and feeding habits and ecology across seasons, habitats and sub-intervals of early ontogeny. These early life history reviews advance our ecological understanding of the pelagic phase, and fine-tune our focus for the investigation of potential response mechanisms to environmental forcing at appropriate, species-specific temporal and spatial scales.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206524644</t>
+          <t>https://openalex.org/W1974338888</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/669055</t>
+          <t>https://doi.org/10.1007/s00023-005-0231-y</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Hagedorn &amp; Joye (2005)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Notes on Contributors</t>
+          <t>Determination of Non-adiabatic Scattering Wave Functions in a Born-Oppenheimer Model</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Previous articleNext article FreeNotes on ContributorsPDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinked InRedditEmailQR Code SectionsMoreJonathan Ablard is Associate Professor of History at Ithaca College. He is the author of Madness in Buenos Aires: Patients, Psychiatrists, and the Argentine State, 1880–1983 (Ohio University Press and University of Calgary Press, 2008).Antonio Becchi is a researcher at the Max Planck Institute for the History of Science. In 1999, with other colleagues, he founded the Edoardo Benvenuto Association for Research on the Science and Art of Building. Since 2010 he has been a member of the Editorial Board of the Max Planck Research Library for the History and Development of Knowledge.Barbara J. Becker is the author of Unravelling Starlight: William and Margaret Huggins and the Rise of the New Astronomy (Cambridge University Press, 2011). Until her retirement, she taught history of science at the University of California, Irvine. Her research interests include nineteenth-century amateur astronomy, scientific controversies, and change in disciplinary boundaries.Jordan Bimm is a third-year Ph.D. student in the Graduate Program in Science and Technology Studies at York University. He is working on a dissertation on the history of gender and American space medicine and astronaut selection.Michel Blay is Senior Research Director at the CNRS in France and President of the Comité pour l'Histoire du CNRS. His current research work deals with developments in the fields of optics and mechanics. His interests also span issues regarding the relationships between sciences, technique, and society. He has recently published Penser avec l'infini de Giordano Bruno aux Lumières (Paris: Vuibert, 2011).Kristian Camilleri is Lecturer in the School of Historical and Philosophical Studies at the University of Melbourne. His research focuses on thought experiments in science and the interaction between physics and philosophy in the first half of the twentieth century.Jorge Cañizares-Esguerra is the Alice Drysdale Sheffield Professor of History at the University of Texas at Austin. He is the author, among other books, of Nature, Empire, and Nation (Stanford, 2006).Isabelle Charmantier, having worked on the history of ornithology in the sixteenth and seventeenth centuries, now works with Staffan Müller-Wille at the University of Exeter on the Wellcome Trust–funded project “Rewriting the System of Nature: Linnaeus's Use of Writing Technologies.” Her recent publications include “Natural History and information Overload: The Case of Linnaeus,” Studies in History and Philosophy of Science, Part C: Studies in History and Philosophy of Biological and Biomedical Sciences, 2012, 43:4–15 (with Staffan Müller-Wille), and “Carl Linnaeus and the Visual Representation of Nature,” Historical Studies in the Natural Sciences, 2011, 41:365–404.Eugene Cittadino teaches in New York University's Gallatin School. His research focuses on the history of the life sciences and environmental history; he is now working on a book on the history of ecology and another on a controversial border dispute between states over valuable oil land.Mary Schaeffer Conroy is Emeritus Professor of Russian History at the University of Colorado, Denver. Her works dealing with history of medicine include In Health and in Sickness: Pharmacy, Pharmacists, and the Pharmaceutical Industry in Late Imperial, Early Soviet Russia (East European Monographs, 1994), The Soviet Pharmaceutical Business during Its First Two Decades, 1917–1937 (Peter Lang, 2006), and Medicines for the Soviet Masses during World War II (University Press of America, 2008).Hamilton Cravens is Professor of History, Iowa State University. He edited Great Depression: Peoples and Perspectives (ABC-Clio, 2009), co-edited and contributed to Race and Science: Scientific Challenges to Racism in Modern America (Oregon State University Press, 2009), and is author of the forthcoming scholarly synthesis, Imagining the Good Society: The Social Sciences in the American Past and Present, with Cambridge University Press.Gowan Dawson is Senior Lecturer in Victorian Literature at the University of Leicester. He is the author of Darwin, Literature, and Victorian Respectability (Cambridge University Press, 2007) and coauthor of Science in the Nineteenth-Century Periodical: Reading the Magazine of Nature (Cambridge University Press, 2004).James Delbourgo is Associate Professor of History at Rutgers University and specializes in the history of early modern science and the Atlantic world. He is currently completing a study of early modern global collecting, focused on the career of Hans Sloane, to be published by Allen Lane and Harvard.Matthew Daniel Eddy is Senior Lecturer in the History of Science at Durham University. He has written and edited several books on the cultural history of natural history, chemistry, and the human sciences du</t>
+          <t>We study non-adiabatic transitions in scattering theory for the timedependent molecular Schrödinger equation in the Born-Oppenheimer limit. We assume the electron Hamiltonian has finitely many levels and consider the propagation of coherent states with high enough total energy. When two of the electronic levels are isolated from the rest of the electron Hamiltonian’s spectrum and display an avoided crossing, we compute the component of the nuclear wave function associated with the non-adiabatic transition that is generated by propagation through the avoided crossing. This component is shown to be exponentially small in the square of the Born-Oppenheimer parameter, due to the Landau-Zener mechanism. It propagates asymptotically as a free Gaussian in the nuclear variables, and its momentum is shifted. The total transition probability for this transition and the momentum shift are both larger than what one would expect from a naive approximation and energy conservation. Communicated by Yosi Avron</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
+          <t>https://openalex.org/W2070398608</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://doi.org/10.1016/0014-5793(84)81022-4</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Schindler &amp; Rosenbusch (1984)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>Structural transitions of porin, a transmembrane protein</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>Conformational transitions of porin were monitored using 3 independent criteria: (i) oligomeric state as observed by SDS-polyacrylamide gel electrophoresis; (ii) spectroscopic titrations (ultraviolet and circular dichroism) and (iii) chemical modifications. Four pH-dependent transitions were observed with half-maximal changes occurring at pH values of 1.6, 3.5, 11.2 and 12.4. Two of these pH values differ significantly from intrinsic pK values of the constituent amino acids of this membrane protein. Since porin is very polar despite its location predominantly within the outer membranes, this may be due to ion pair formation in the hydrophobic environment of the membrane.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2015917311</t>
+          <t>https://openalex.org/W2027195522</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jmmm.2009.10.025</t>
+          <t>https://doi.org/10.1074/jbc.m510369200</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Jacob &amp; Khadar (2010)</t>
+          <t>Dash et al. (2006)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VSM and Mössbauer study of nanostructured hematite</t>
+          <t>Examining Ty3 Polypurine Tract Structure and Function by Nucleoside Analog Interference</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>In the present work, we have synthesized nanostructured hematite samples using chemical precipitation method. The crystal structure and the grain size of the samples were studied using XRD. The zero field cooled and field cooled magnetization curves of the samples were recorded in the temperature range from 300 to 10 K. The variations of Morin transition temperature and blocking temperature with the grain size of the samples were investigated. The hysterics curves of the samples were recorded and the samples showed a superparamagnetic nature at room temperature whereas, at 10 K the samples showed open hysteresis curves. The sample with smaller grain size showed higher value of coercivity compared to samples with larger grain size. Mössbauer spectra of the samples were recorded and the grain size dependence on Mössbauer parameters was investigated.</t>
+          <t>We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. Although reverse transcription in long terminal repeat (LTR) 3The abbreviations used are: LTR, long terminal repeat; PPT, polypurine tract; RTs, reverse transcriptases; U3, unique 3′-sequence; HIV-1, human immunodeficiency virus type 1; LNA, locked nucleic acid; H4folate, tetrahydrofuran; RAb, abasic riboside; DAb, abasic deoxyriboside; Tm, melting temperature; DQF, double quantum filtered. -containing retrotransposons of Saccharomyces cerevisiae (Ty1 and Ty3) and Saccharomyces paradoxus (Ty5) can be likened to that in retroviruses, notable differences have recently been documented. These include (a) initiation of (-)-strand DNA synthesis from an internal site of the host-coded tRNA primer as opposed to its 3′ terminus (1Ke N. Gao X. Keeney J.B. Boeke J.D. Voytas D.F. RNA (N. Y.). 1999; 5: 929-938Crossref PubMed Scopus (27) Google Scholar), (b) initiation of (-)-strand DNA synthesis via self-priming (2Levin H.L. Mol. Cell. Biol. 1995; 15: 3310-3317Crossref PubMed Scopus (82) Google Scholar), (c) use of a bipartite primer-binding site derived from each end of the viral RNA genome to initiate (-)-strand DNA synthesis (3Gabus C. Ficheux D. Rau M. Keith G. Sandmeyer S. Darlix J.L. EMBO J. 1998; 17: 4873-4880Crossref PubMed Scopus (60) Google Scholar), and (d) divergence in size and sequence of the (+)-strand polypurine tract (PPT) primers (see Fig. 1) (4Heyman T. Agoutin B. Friant S. Wilhelm F.X. Wilhelm M.L. J. Mol. Biol. 1995; 253: 291-303Crossref PubMed Scopus (48) Google Scholar, 5Wilhelm M. Heyman T. Boutabout M. Wilhelm F.X. Nucleic Acids Res. 1999; 27: 4547-4552Crossref PubMed Scopus (20) Google Scholar). A detailed biochemical study of these processes has been hampered by the lack of purified LTR-containing retrotransposon reverse transcriptases (RTs). However, the availability of active recombinant Ty1 and Ty3 enzymes (6Wilhelm M. Boutabout M. Wilhelm F.X. Biochem. J. 2000; 348: 337-342Crossref PubMed Scopus (39) Google Scholar, 7Rausch J.W. Grice M.K. Henrie</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4310613103</t>
+          <t>https://openalex.org/W2681234995</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-91159-7.00018-7</t>
+          <t>https://doi.org/10.1016/j.ssi.2017.05.015</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bazyar (2023)</t>
+          <t>Geneste &amp; Dezanneau (2017)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Impacts of progressive biofuels on environmental sustainability</t>
+          <t>Competition between elastic and chemical effects in the doping, defect association, and hydration of barium stannate</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Biofuels are one of the most promising approaches for reducing CO2 emissions in the transportation industry. However, due to numerous fundamental restrictions, such as a lack of raw materials, a low CO2 mitigation effect, a blending wall, and poor cost competitiveness, traditional plant-based biofuels (e.g., biodiesel, bioethanol) had a relatively low fraction of total transportation-fuel usage in 2016, under 4%. Advanced biofuels, such as drop-in, microalgal, and electro biofuels, especially those derived from inedible biomass, are seen as a possible answer to the problem of meeting rising biofuel demand. Recent advances in oxy-free hydrocarbon conversion via catalytic deoxygenation processes, oleaginous microalgae selection and lipid content increase, electrochemical biofuel conversion, and the diversification of useful products from biomass and intermediates are discussed in this study. Although the United States and the EU have different financial and approach motivating forces for biofuel production, markers of environmental sustainability have evolved from the updated research across the boundaries of politics. We categorized mentioned markers into six already set up characteristics of natural supportability, advertising depictions for each and connecting them to proposed universal guidelines for progressed biofuels. If ideal feedstock choice, administration, generation, and fuel transformation criteria are particularly sought after, progressed biofuel improvement can be a step toward naturally economic vitality. Even though devices for surveying natural supportability exist, they have not however been connected to progressed biofuels in a standardized way.</t>
+          <t>Density-functional theory calculations are performed to examine how two characteristics of a trivalent dopant (the one, physical – the ionic radius, the other, chemical – the electronegativity) impact the thermodynamics of doping, the defect association energy and the hydration energy in barium stannate, a perovskite oxide candidate as an electrolyte for Solid Oxide or Protonic Ceramic Fuel Cells. The formation energies of several trivalent dopants currently used in experimental works are computed in different external conditions and on the two possible sites (Ba, Sn), in their ionized state. These dopants cover a wide range of ionic radii (from 0.62 to 1.03 Å) and can be divided in two families according to their electronegativity: elements of group IIIA (Ga, In), versus IIIB transitions metals and Rare Earths (Sc, Lu, Y, Gd, Sm, La). The oxygen vacancy and the protonic defect are also studied, either isolated or in the vicinity of the dopant substituted on Sn site (1st &amp; 2nd neighbors). The association energy between the dopant and both the oxygen vacancy and the proton, as well as the formation energy of the dopant on the Ba site, are mainly governed by the ionic radius of the dopant, with the exception that electronegative dopants stabilize more the oxygen vacancy in their vicinity. Therefore, a subtle interplay between elastic effects and chemistry is found to control the hydration energy/enthalpy, the more electronegative dopants – indium particularly – producing, at given radius, a less stable hydrated state. We provide with general trends likely to help experimentalists in the design of new materials, regarding the choice of dopant.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W3111415446</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.1201/9780203755389-18</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Cunningham &amp; Sturman (2017)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>In situ Bioremediation Process Engineering Concepts</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>This chapter provides a framework for understanding factors affecting biotransformation rate and extent with the intent of improving the design of subsurface bioremediation systems. Methods of bacterial enumeration from soil or water systems include heterotrophic plate counts, epifluorescence direct counts, hydrocarbon degrader plate counts, most probable number techniques, DNA probes, lipid assays, metabolic indicators, and radioisotopic methods. Direct counts include both metabolically active and inactive organisms, while heterotrophic plate counts theoretically measure only the fraction capable of growth. Spatial heterogeneity at contaminated field sites can significantly influence contaminant movement and rate of degradation. Subsurface properties that are subject to significant spatial variation include porosity, permeability, degree of microbial colonization, and chemical properties such as nutrient and electron acceptor conditions. Contaminant disappearance from a field site may occur for a variety of reasons, including volatilization, off-site migration, sorption onto soil particles, and abiotic transformation, thereby complicating the measurement of in situ bioremediation rates.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2515330132</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/9781119009115.ch21</t>
+          <t>https://openalex.org/W2756051889</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Rankin &amp; Haque (2016)</t>
+          <t>Zhang (2013)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Closing the Loop</t>
+          <t>Self-repair at transition place as an interactional resource for pursuing response: Observation from Chinese conversation.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>The implications of sustainability for the minerals and metal production industry are explored from the perspective of wastes produced during mining and processing. The industry has moved from complying with regulations to being more aware of corporate social responsibility and in in the next decades will need to move towards closing the loop to reduce the quantities of wastes and maximise resource utilisation. The drivers for change have moved from being almost exclusively profit to include regulations, stakeholders and increasingly to changing social values. Technology has an important role to play in the transition to sustainability, as do principles of industrial ecology. However, many barriers need to be overcome.</t>
+          <t>Repair is an important organization in talk-in-interaction that manages troubles arising from speaking, hearing and understanding the talk (Schegloff, Jefferson and Sacks 1977). In addition, it often serves as a vehicle for other actions in interaction as illustrated in the recent studies led by Lerner and Kitzinger (2012) on reference and repair. For instance, the action of pursuing response can be accomplished by repairing an indexical reference (Bolden and Mandelbaum 2012). Repair also contributes to the sustaining of socially shared cognition (Schegloff 1991). Previous studies have demonstrated that sameturn self-repair, in coordination with body deployment, provides means for speakers to construct and reconstruct turns at talk as display of their orientation to various knowledge state of the participants in a given conversation (Goodwin 1979, 1980, 1981). In line with these inquiries, we conducted a study of self-repair at transition place (TRP repair) in Chinese conversation with an aim to investigate possible actions in interaction accomplished by such repairs. Our analysis draws on video-recorded conversations, and examines TRP repairs in terms of their syntactic format, prosodic characteristics and deployment of body/gaze for potential interactional relevance of the action they accomplish. This presentation focuses on TRP repairs produced after possible completion of first actions such as question and topic initiator, where there is no immediate verbal uptake from the recipient. These repairs perform similar actions as those indexical repairs examined in Bolden and Mandelbaum (2012) in that the apparent repair on troubles of speaking in the prior turn constructional unit (TCU) serves to deal with the lack of immediate verbal response from the recipient. Close examination of the participants’ body deployment reveals that absence of verbal response in not equivalent to no response. Rather, absence of response may be accompanied with a ‘thinking/searching’ gaze on the face of the recipient, or absence of gaze engagement with the speaker which display possible problem or momentary difficulty being experienced by the recipient. TRP repairs are sensitive to such cues from body/gaze by extending and recompleting the prior turn, thus providing the recipient with a new relevant place for the yet-to-be produced verbal response. Our findings from the Chinese data agree with Bolden and Mandelbaum’s (2012) argument that TRP repairs pursue response in an indirect and off-the-record manner, and provide supporting evidence that such actions are not limited to indexical repairs at TRP, but repair at TRP in general. We argue that TRP repairs present an excellent venue for exploring the relation of talk and body as well as the relation between cognition and social interaction across languages in different speech communities.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2499440252</t>
+          <t>https://openalex.org/W4396296768</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2326/osj.15.213</t>
+          <t>https://doi.org/10.15468/dl.hwnx8r</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ochi et al. (2016)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Dual Foraging Strategy and Chick Growth of Streaked Shearwater&lt;i&gt;Calonectris leucomelas&lt;/i&gt;at Two Colonies in Different Oceanographic Environments</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Parent Procellariiformes alternate between long-range foraging trips to feed in distant productive marine areas and short-range trips to feed in less productive areas around their breeding colony. Foraging trip duration, diet, energy expenditure, and chick growth of Streaked Shearwaters Calonectris leucomelas were compared between two colonies, one on Mikura Island located in the warm and less productive waters of the Kuroshio current, and the other on Sangan Island located in the cold and more productive waters of the Kuroshio/Oyashio transition zone. Parent shearwaters breeding on Mikura alternated between short (≤3 days) trips to Kuroshio waters in order to provision their chicks and long (&gt;3 days) trips to the cold Oyashio region in order to accumulate energy reserves for themselves. Shearwaters breeding on Sangan mainly took short trips (≤2 days) to the nearby Kuroshio/Oyashio transition zone, but also took longer trips (&gt;2 days) to the cold Oyashio region. Parent shearwaters breeding on Mikura, however, made more frequent long trips (24%) than those breeding on Sangan (9%). Parents at both colonies commonly brought Japanese Anchovy Engraulis japonica and Darkedged-wing Flyingfish Cypselurus hiraii for their young, while parents on Mikura also brought Pacific Saury Cololabis saira and stomach oil after long trips. Parents on Mikura delivered energy at a lower rate, resulting in lower chick growth rates and smaller fledging masses than on Sangan. Unlike other Procellariiformes seabirds, shearwater parents on Sangan accumulate their own body reserves even during the chick rearing period because of better foraging efficiency than on Mikura. This may indicate that chicks were satiated by the meals delivered to them allowing parents to utilize the remaining provisions for their own body reserves.</t>
+          <t>A dataset containing 1781054 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Valeriana celtica L., Valeriana dioica L., Valeriana elongata Jacq., Valeriana montana L., Valeriana officinalis L., Valeriana saxatilis L., Valeriana supina Ard., Vallisneria spiralis L., Veratrum album L., Veratrum nigrum L., Veronica aphylla L., Veronica bellidioides L., Veronica chamaedrys L., Veronica fruticans Jacq., Veronica fruticulosa L., Veronica officinalis L., Viola alba Besser, Viola biflora L., Viola calcarata L., Viola canina L., Viola collina Besser, Viola elatior Fries, Viola hirta L., Viola mirabilis L., Viola odorata L., Viola palustris L., Viola reichenbachiana Jord. ex Boreau, Viola riviniana Rchb., Viola uliginosa Besser, Vulpia bromoides (L.) Gray, Vulpia ciliata Dumort., Vulpia fasciculata (Forssk.) Samp., Vulpia myuros (L.) C.C.Gmel., Woodsia alpina (Bolton) Gray, Woodsia glabella R.Br. ex Rich., Woodsia ilvensis (L.) R.Br., Zannichellia palustris L., Zostera marina L., Zostera noltii Hornem., Achillea crithmifolia Waldst. &amp;amp; Kit., Achillea macrophylla L., Achillea nana L., Achillea pannonica Scheele, Achillea ptarmica L., Achillea salicifolia Besser, Achillea setacea Waldst. &amp;amp; Kit., Adonis vernalis L., Agave americana L., Agrimonia procera Wallr., Alnus incana (L.) Moench)", "Year is greater than or equal to 2000" ] } The dataset includes 1781054 records from 2560 constituent datasets: 7 records from Herbarium of the Institute of the problems of Northern development (TMN). 1 records from St Andrews BioBlitz 2015. 444 records from Observational database of Icelandic plants. 2 records from Dörnberg. 2 records from ACQUISITION_CBNMC - 2019_08_Barrat_HtAllier. 3 records from Landschaftsschutzgebiet Buchhorst 3. 1 records from Projet photovoltaïque sur ancien CET à RAUZAN - Flore - Inventaire non protocolé. 1 records from Wiese - Schulgelände des Franziskusgymnasiums (Lingen). 22 records from Chronicle of Nature - Phenology of Plants of Pechoro-Ilych State Nature Reserve. 1 records from Programmes sur les EVEE dans les départements de l'ancienne région Languedoc-Roussillon - Divers jeux de données sur les EVEE dans l'ex région LR. 1 records from ACQUISITION_CBNMC - DUPRÉ Rémi. 3 records from Projet de parc photovoltaïque au sol à Vallon-en-Sully (03) au lieu-dit "Les Graves" - 2018 Inventaire faune-flore à Vallon-en-Sully (03). 1 records from Biodiversity of Zmiinyi Island. 2 records from Langenberger Forst am Ochsenweg/ Niebüll-Leck. 453 records from Plant. 56 records from Visiolittoral : conservatoire du littoral - Visiolittoral : surveillance de sites du littoral. 118 records from Etudes scientifiques flore sur le TAG du CBNMed - Divers jeux de données du CBNMED produites dans le cadre de programmes scientifiques. 640 records from Inventaire de la flore de Dordogne 2015-2019 - Inventaire de la flore de Dordogne 2017. 3 records from Centrale éolienne du Moulin de la Houssaye - CEHOU - Prospection faune flore étude d'impact. 47953 records from Observations du Conservatoire botanique national du Bassin parisien.. 16 records from Chronicle of Nature - Phenology of Plants of State Nature Reserve Nurgush. 1 records from Biotope in Rheine - Aktion 350. 11 records from ACQUISITION_CBNMC - 2019_02_01_FR8302035_2018. 1 records from ACT BioBlitz. 3 records from Expertise IQE du Golf &amp;amp; Country club de Bossey en 2020 - Donnees espèces - Expertise IQE Golf &amp;amp; Country club de Bossey 2020. 2 records from Inventaire biodiversité du site Pierre Fabre de Castres / Péraudel. 8 records from Bulau. 1 records from Projet de centrale photovoltaïque au sol de St-Romain-en-Gal - Données biodiversité St-Romain-en-Gal. 3 records from CardObs : Observations naturalistes issues de l'outil de saisie et gestion CardObs mis en place par le Service du Patrimoine Naturel (MNHN) / UMS PatriNat (OFB - CNRS - MNHN) - Données naturalistes de Ségolène FAUSTEN. 2 records from Demande d’autorisation environnementale pour le renouvellement, l’extension et l’approfondissement de la carrière « le Mont Colquin » située sur le territoire de la commune de Doville - Etude écologique - Inventaires faune-flore 2016. 41 records from Faun. 1 records from PACA-AGP - Herbarium Anchieta. 1 records from Projet de renouvellement du Parc éolien des Trois Muids - Inventaires faune-flore. 3 records from ACQUISITION_CBNMC - Ecosphère. 6 records from ACQUISITION_CBNMC - CORNIER. 1 records from Abejas silvestres (Hymenoptera: Apoidea) de la región Praderas de Tokio-El Potosí - Sierra Mazmorras - Cañón de Iturbide, Coahuila y Nuevo León, México. 1 records from Parc éolien de Novion-Corny faune flore. 1 records from Projet éolien des Groies. 20 records from ACQUISITION_CBNMC - FNELoire_floreremarquable_2015. 125611 records from Artportalen (Swedish Species Observation System). 2 records from Projet de parc photovoltaïque au sol à Crotenay (39) au lieu-dit "champs des laves" - Inventaire faune-flore. 2 records from VF</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2766972839</t>
+          <t>https://openalex.org/W2803057429</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.tetlet.2017.10.036</t>
+          <t>https://doi.org/10.1093/oso/9780199393671.003.0005</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fang et al. (2017)</t>
+          <t>Songster (2018)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Transition metal-free protodecarboxylation of electron rich aromatic acids under mild conditions</t>
+          <t>Pandas Are Red</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>A mild and practical method for the transition metal-free protodecarboxylation of aromatic acids using readily available and safe sodium persulfate as initiator was described. This environment-friendly decarboxylation approach was performed at 60 °C in ethanol and could easily scale up to the gram level with a good yield. In Particular, the tandem reactions of decarboxylation and halogenation were achieved by the addition of the corresponding halogenating reagents to the reaction system.</t>
+          <t>Many advances gained in nature protection efforts during the early 1960s were brought to a screeching halt with the onset of China’s Cultural Revolution (1966-1976). The Wanglang Nature Reserve, however, hosted representatives from China’s top scientific institutes on the first species-specific giant panda survey in 1967. This event brings to light a narrative parallel to the well-known “decade of chaos”. During this era the government endorsed many scientific endeavors designed to highlight the glory of China’s nature and advertise its scientific prowess. In addition to being a scientific subject, the giant panda also became a popular expression of nationalism during this era. The giant panda was repeatedly reproduced as a politically safe image and demonstrated surprising durability against the ever-changing political winds of this decade.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2343941565</t>
+          <t>https://openalex.org/W2031176627</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17010/ijom/2013/v43/i11/80505</t>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kandpal &amp; Patra (2013)</t>
+          <t>Bongiovanni et al. (2014)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Brand Building in the Era of Mobility and Emergence of 'New Imagined Communities': A Conceptual Analysis</t>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>This is a conceptual paper and is an attempt to explore the transitional effect of brand building in the new era of mobiles and the Internet. Transition and mobility have been the laws of nature and have been witnessed from time immemorial. However, the current and future generations are going to witness a transformation which redefines the idea of space and geographical territory. The prime mover of this transformation will be new media. To understand this transition well and to be in sync with the nuances of mobility will be crucial to organizational success in the 21st century. In this paper, we have discussed how organizations can form brand communities on the lines of Benedict Anderson's 'Imagined Communities'. The paper also highlights the fact that the phenomenon of mobility seen today is not just a consequence of an information explosion, but is also a result of the nature of new media (the Internet and mobile) and its impact on social constructs.</t>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W2052840705</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.2478/arsa-2013-0001</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Satirapod et al. (2013)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
+          <t>Testing the Number of IGS Stations Required for Accurate Alignment of the Thai GPS Network and ITRF2005 Using the Gipsy Software</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>Since its introduction in 1990s, the GPS Precise Point Positioning (PPP) technique has been widely used for many high precision positioning applications such as the study of tectonic plate motion, establishment of national and regional reference frames and so on. Among the GPS PPP software packages, the GIPSY-OASIS II software package is the one of the most popular software package used by many research institutes worldwide. The processing of GPS data with the GIPSY-OASIS II software requires three main steps. The first step is to compute a daily GPS solution for each station and the second step is to combine daily GPS solutions into a multi-day averaged solution. The final step is to transform these multi-day averaged solutions into the International Terrestrial Reference Frame (ITRF) coordinate solution and this step generally requires the use of available International GNSS service (IGS) stations to compute the required transformation parameters. In order to obtain high precision ITRF coordinate solutions, an investigation on a selection of IGS stations used for aligning the multi-day averaged solution into ITRF is therefore needed. This study aims to investigate the effect of number of IGS stations used for aligning the multi-day averaged solutions into the final ITRF coordinate solution in Thai region. Data from two different GPS campaigns (with epochs before and after the 2004 SumatraAndaman earthquake) measured by the Royal Thai Survey Department (RTSD) were used in this investigation. By varying the number of IGS station used in the alignment step, results indicate that the use of at least 16 IGS stations in the alignment process can produce reliable and accurate ITRF solutions especially those impacted by the large earthquake.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2382980109</t>
+          <t>https://openalex.org/W2380268489</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Wu (2013)</t>
+          <t>Shou-mei (2010)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Rural VET Policy in the Processes of its Transformation and Differentiation: An International Policy Comparison</t>
+          <t>Research Progress on Winter Overseeding and Spring Transition of Bermudagrass Turfgrass</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>The progress of industrialization,urbanization and agricultural modernization is bound to lead to rural transformation and differentiation.Vocational Education and Training(VET) for rural areas is an important issue for the governments.The rural VET policy experience in both UK and US shows that legislation and financial support of training promoted the rural employment.The diversified goals of rural VET policy in the South Korea and China Taiwan show that the government-supported organization of peasants and training policies not only improved employment but also trained the future peasants in both vocational skills and spirits.Nevertheless,Brazilian rural VET policy experience emphasizes social comprehensive governance and policy coordination.According to the classic Dye Model which describes the relationships between public policy,policy environment and policy system,the rural VET policy will not work until its subjects match and coordinate with its goals and audience.</t>
+          <t>Winter seeding on dormant bermudagrass is a routine culture mangement on high maintain turf such as green or tee of golf course.But winter overseeding has resulted in poor greenup and growth on bermudagrass turfgrass in the coming year,which leads to bermudagrass turfgrass wither and misfunction.In this paper,we summarized both the damage of winter overseeding to bermudagrass and the measure which facilitated overseeded cool season turfgrass transition to bermudagrass turfgrass,including overseeding species selection and rate,cultural management within spring transition,bermudagrass spring overseeding and interseeding,the application of PGR and herbicide to control cool-season turfgrass.In the end,an issue about winter overseeding on bermudagrass was arised.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3013722721</t>
+          <t>https://openalex.org/W2142431434</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circresaha.120.316763</t>
+          <t>https://doi.org/10.1080/01440390500176178</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Dikalova &amp; Dikalov (2020)</t>
+          <t>Campbell et al. (2005)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
+          <t>Women in western systems of slavery: Introduction</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
+          <t>Click to increase image sizeClick to decrease image size Notes [1] Studies of non-western systems include: Reid (ed.), Slavery, Bondage and Dependency; Lovejoy, Transformations in Slavery; Kopytoff and Miers (eds.), Slavery in Africa; Meillassoux, The Anthropology of Slavery; see Watson (ed.), Asian and African Systems of Slavery; Klein (ed.), Breaking the Chains; Clarence-Smith (ed.), The Economics of the Indian Ocean Slave Trade; Campbell (ed.), Abolition and its Aftermath; Campbell (ed), The Structure of Slavery in Indian Ocean Africa and Asia – also published as a special edition of Slavery &amp; Abolition 24.2 (2003). [2] See bibliographical appendix. [3] See e.g. Altink, Deviant and Dangerous in this volume, where these images are the centre of her analysis. [4] See bibliographical appendix. [5] See e.g. Gwyn Campbell, An Economic History of Imperial Madagascar, 42; Indian Slaves in South Africa. Available from http://www.anc.org.za/ancdocs/history/solidarity/indiasa3.html (11/03/05). [6] See Campbell, “Slavery and Other Forms of Unfree Labour in the Indian Ocean World”. In Structure of Slavery. [7] Bradlow and Cairns, The Early Cape Muslims, 102; Jordan, Unrelenting Toil, in this volume. [8] Worden, Indian Ocean Slavery; Allen, The Mascarene Slave Trade and Labour Migration. [9] Rama, Breeders or Workers? [10] Fogel and Engerman, Time on the Cross. [11] White, Ar'n't I A Woman. [12] See e.g. Edwards, Enslaved Women and the Law, in this volume. [13] Verenigde Oost-Indische Compagnie – the Dutch ‘United East India Company’. [14] Moree, A Concise History of Dutch Mauritius, 37, 84. [15] Berlin, Many Thousands Gone. [16] Edwards, Enslaved Women. [17] Fall, Malagasy in Antebellum Maryland and Virginia. [18] Allen, Femmes de Couleur Libre, in this volume. [19] Morton, Female Inboekelinge, in this volume. [20] Brown and Inniss, The Slave Family in the Transition to Freedom, in this volume. This was less the case in mines where African slave labour was often skilled. [21] Worden, Indian Ocean Slavery in the Cape Colony. [22] Jordan, Unrelenting Toil. [23] See e.g. paper by Mariza de Carvalho Soares, Can Women Guide or Govern Men?, to be published in Campbell, Miers and Miller (eds.), Women in Slavery. [24] Jordan, Unrelenting Toil. [25] Edwards, Enslaved Women. [26] Morgan, Slave Women and Reproduction in Jamaica. See also Rama, Breeders or Workers? [27] E.g. Bush, Slave Women in Caribbean Society, and Bush, Hard Labor, or Craton, Searching for the Invisible Man; Morrissey, Women's Work. [28] Follett, Lives of Living Death, in this volume; see also Morgan, Slave Women and Reproduction. [29] See e.g. Sharpe, Ghosts of Slavery. [30] Soares, Can Women Guide or Govern Men? [31] Sharpe, Ghosts of Slavery; see also Soares, Can Women Guide or Govern Men? [32] E.g., Gutman, The Black Family. [33] Fall, Malagasy in Antebellum Maryland and Virginia [34] de Oliveira, The Reconstruction of Ethnicity in Bahia, 158–80, and Reis, Ethnic Politics among Africans in Nineteenth-Century Bahia, 240–64, both in Lovejoy and Trotman (eds.), Trans-Atlantic Dimensions of Ethnicity. [35] See e.g. Wilkie, Creating Freedom. [36] Jordan, Unrelenting Toil. [37] Ibid. [38] Soares, Can Women Guide or Govern Men? [39] White, Ar'n't I A Woman?; Brown and Inniss, Slave Family. [40] Landers, African-American Women and Their Pursuit of Rights, 56–76; McKnight, The Diabolical Pacts of Slavery, 509–36. [41] Edwards, Enslaved Women. [42] Bonneville (1900) quoted in Cottias, Gender and Republican Citizenship, in this volume. [43] Altink, Deviant and Dangerous. [44] Freyre, Casa-grande e senzala, translated as The Masters and the Slaves. [45] Rama, Breeders or Workers?. [46] See e.g. Edwards, Enslaved Women. [47] A point emphasized in the paper by Jordan, Unrelenting Toil, with reference to Young (ed.), Engendering African American Archaeology. [48] Jordan, Unrelenting Toil. [49] Sharpe, Ghosts of Slavery. [50] Altink, Deviant and Dangerous. [51] Edwards, Enslaved Women. [52] Allen, Femmes de Couleur Libre. [53] Schafer, Anna Madgigine Jai Kingsley. [54] Edwards, Enslaved Women. [55] Morton, Female Inboekelinge. [56] But not, apparently, in the sugar parishes of Louisiana, where rapid rates of economic growth and the maturing Victorian morality of the nineteenth-century U.S. kept most women slaves in male-like positions as brute labour, with the anti-natal consequences that Follett details; Lives of Living Death. Morgan, Slave Women and Reproduction, implicitly focuses on the field slaves and their strategies of natality rather than the Jezebels and Mammies. [57] Moitt, Freedom from Bondage, in this volume. [58] Soares, Can Women Guide or Govern Men? [59] Jordan, Unrelenting Toil [60] See e.g. Miller, Retention, Re-Invention, and Remembering, 81–121. [61] Brown and Inniss, Slave Family. [62] Barrow, Living in Sin, 249 quoted in Brown and Inniss, Slave Family; see also Cottias, Gender and Republican Citizenship. [63] Cottias, Gender and Republican Citizen</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2903193854</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.outlook.2018.08.006</t>
+          <t>https://openalex.org/W2278658221</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Hein et al. (2018)</t>
+          <t>Kremenjak (2015)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Policy brief: Protecting vulnerable LGBTQ youth and advocating for ethical health care</t>
+          <t>Serbia: : Digital switch over completed</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Lesbian, Gay, Bisexual, Transgender and Queer/Questioning (LGBTQ) youth are at heightened risk for bullying, victimization, homelessness, and being subjected to harmful therapies and associated physical and mental health issues. Health disparities in these populations are strongly associated with increased vulnerability based on stigma and discrimination due to their sexual orientation, gender identity, and gender expression (United Nations 2017United NationsThe Yogyakarta principles plus 10. United Nations, Geneva, Switzerland2017http://yogyakartaprinciples.org/wp-content/uploads/2017/11/A5_yogyakartaWEB-2.pdfGoogle Scholar). Additional threats to the health of LGBTQ youth include: expanded religious freedom exemptions of providers, permitting legal refusal to provide health care or other services to this population; a halt to Title IX enforcement for transgender persons by the Department of Education; and regular threats to repeal Section 1557 of the Affordable Care Act (ACA), thereby excluding coverage for transgender-related care and eliminating coverage for pre-existing conditions (U.S. Department of Health and Human Services). The American Academy of Nursing supports the rights of LGBTQ youth to be safe at school, at home, in places of worship, in the community and while seeking and obtaining access to health care. We oppose discrimination towards young people based on sexual orientation or gender identity and expression. We oppose transgender-specific exclusion from health care coverage or exclusion from sexual orientation and gender-based legal protections, and call for the provision of inclusive, safe, competent health care. LGBTQ youth are at elevated risk for violent victimization (O'Malley Olsen et al., 2014O'Malley Olsen E. Kann L. Vivolo-Kantor A. Kinchen S. McManus T. School violence and bullying among sexual minority high school students, 2009-2011.Journal of Adolescent Health. 2014; 55: 432-438https://doi.org/10.1016/j.jadohealth.2014.03.002Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar), harmful therapies (American Academy of Nursing 2015American Academy of NursingAmerican Academy of Nursing position statement on reparative therapy.Nursing Outlook. 2015; 63: 368-369https://doi.org/10.1016/j.outlook.2015.03.003Abstract Full Text Full Text PDF Google Scholar, SAMHSA 2015SAMHSAEnding conversion therapy: Supporting and affirming LGBTQ youth.2015http://store.samhsa.gov/shin/content//SMA15-4928/SMA15-4928.pdfGoogle Scholar) and related physical and mental health issues (Sedlak and Boyd, 2016Sedlak C.A. Boyd C.J. Health care services for transgender individuals: Position statement.Nursing Outlook. 2016; 64: 510-512http://dx.doi.org/10.1016/j.outlook.2016.07.002Abstract Full Text Full Text PDF Google Scholar). This vulnerability is principally due to exclusion, pathologization, and victimization because of prejudice and discrimination toward sexual orientation, gender identity and gender expression. Approximately 3.4% of youth in the U.S., ages 10-19, identify as LGBTQ, suggesting that potentially over a million youth could be excluded from health care based on misguided interpretations of the conscience clause (Gates and Newport, 2012Gates G. Newport F. Special report: 3.4% of U.S. adults identify as LGBT.http://www.gallup.com/poll/158066/special-report-adults-identify-lgbt.aspx?utm_source=email-a-friend&amp;utm_medium=email&amp;utm_campaign=sharing&amp;utm_content=morelinkDate: 2012Google Scholar). Family support can be protective for these youth but is not always present (Eisenberg et al., 2017Eisenberg M.E. Gower A.L. McMorris B.J. Rider G.N. Shea G. Coleman E. Risk and protective factors in the lives of transgender/gender nonconforming adolescents.Journal of Adolescent Health. 2017; 61: 521-526https://doi.org/10.1016/j.jadohealth.2017.04.014Abstract Full Text Full Text PDF PubMed Scopus (210) Google Scholar; Ryan, 2014Ryan C. Generating a revolution in prevention, wellness and care for LGBT children and youth.Temple Political and Civil Rights Law Review. 2014; 23: 331-344Google Scholar). Unlike other minority groups, LGBTQ youth are not raised within the potential resilience-fostering context of similarly marginalized families. LGBTQ minority status is rarely shared by family members, who therefore may lack experience in navigating LGBTQ marginalization. Parents may feel ill-equipped to supportively respond to an LGBTQ child, and need support themselves (Ryan, 2010Ryan C. Engaging families to support lesbian, gay, bisexual, and transgender youth: The family acceptance project.Prevention Researcher. 2010; 17: 11-13Google Scholar). Health care can be a venue for support and healing but also intolerance and abusive therapies (Hein and Matthews, 2010Hein L.C. Matthews A.K. Reparative therapy: The adolescent, the psych nurse and the issues.Journal of Child and Adolescent Psychiatric Nursing. 2010; 23: 29-35https://doi.org/10.1111/j.1744-6171.2009.00214.xCrossref Scopus (14) Google Scholar,</t>
+          <t>The Republic of Serbia has signed and ratified the Agreement for Digital Broadcasting (GE06) and the Regional Radiocommunication Conference (RRC 06), which prescribed an obligation of digital transition for television for European countries by 17 June 2015. The switch-over from analogue to digital terrestrial television in the country was officially completed on 7 June 2015, just ten days before the deadline</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1987466031</t>
+          <t>https://openalex.org/W4221034193</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1023/b:gpac.0000016391.83527.44</t>
+          <t>https://doi.org/10.1016/j.jallcom.2022.164647</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Виноградова et al. (2004)</t>
+          <t>Su et al. (2022)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Glass Transition and Crystallization of Glasses Based on Rare-Earth Borates</t>
+          <t>Constitutive and microstructural characteristics of Ti-5Al-2.5Sn alloy during isothermal and non-isothermal multi-stage hot deformation across different phase regions</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>The flow behaviors and microstructural evolutions during multi-stage hot deformation are essential aspects in the processing of high performance titanium alloys. In the present work, both isothermal multi-stage deformation (IMD) and non-isothermal multi-stage deformation (NMD) over α + β and single β phase regions were employed to study the constitutive behaviors and microstructural evolutions of a near-α Ti-5Al-2.5Sn alloy. The results showed that the flow stress, restoration fraction in α + β phase region of NMD were lower than that of IMD, because that the predominant lamellar microstructures formed during NMD increased α/β boundaries and thereby promoted grain boundaries gliding. In β phase region, the flow behaviors showed slight differences with temperature and deformation passes during both IMD and NMD processes. Clear transitions were observed from the mean flow stress between different phase regions during NMD. In addition, an obvious α + β→β dynamic phase transformation occurred during deformation at 990 °C, which was identified to be a displacive nucleation and diffusion-controlled growth process. In addition, numerous FCC-Ti precipitations were observed during IMD at 960 °C and strain rate of 1 s−1 with the orientation relationship of (0 0 0 1)HCP matrix //{1 1 1}FCC.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3087636632</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
+          <t>https://openalex.org/W2970606950</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Maunders et al. (2020)</t>
+          <t>Dikranjan &amp; Bruno (2018)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
+          <t>Entropy on normed semigroups (Towards a unifying approach to entropy)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
+          <t>We present a unifying approach to the study of entropies in Mathematics, such as measure entropy, topological entropy, algebraic entropy, set-theoretic entropy. We take into account discrete dynamical systems, that is, pairs $(X,T)$, where $X$ is the underlying space and $T:X\to X$ a transformation. We see entropies as functions $h:\mathfrak X\to \mathbb R_+$, associating to each flow $(X,T)$ of a category $\mathfrak X$ either a non negative real or $\infty$. We introduce the notion of semigroup entropy $h_\mathfrak S:\mathfrak S\to\mathbb R_+$, which is a numerical invariant attached to endomorphisms of the category $\mathfrak S$ of normed semigroups. Then, for a functor $F:\mathfrak X\to\mathfrak S$ from any specific category $\mathfrak X$ to $\mathfrak S$, we define the functorial entropy $h_F:\mathfrak X\to\mathbb R_+$ as the composition $h_{\mathfrak S}\circ F$. Clearly, $h_F$ inherits many of the properties of $h_\mathfrak S$, depending also on the properties of $F$. Such general scheme permits to obtain relevant known entropies as functorial entropies $h_F$, for appropriate categories $\mathfrak X$ and functors $F$, and to establish the properties shared by them. In this way we point out their common nature. Finally, we discuss and deeply analyze through the looking glass of our unifying approach the relations between pairs of entropies. To this end we formalize the notion of Bridge Theorem between two entropies $h_i:\mathfrak X_i\to \mathbb R_+$, $i=1,2$, with respect to a functor $\varepsilon:\mathfrak X_1\to\mathfrak X_2$. Then, for pairs of functorial entropies we use the above scheme to introduce the notion and the related scheme of Strong Bridge Theorem, which allows us to put under the same umbrella various relations between pairs of entropies.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2152755913</t>
+          <t>https://openalex.org/W2015917311</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1596/0-8213-3485-9</t>
+          <t>https://doi.org/10.1016/j.jmmm.2009.10.025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Harrold (1996)</t>
+          <t>Jacob &amp; Khadar (2010)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>The Impact of the Uruguay Round on Africa</t>
+          <t>VSM and Mössbauer study of nanostructured hematite</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>This paper aims to review the impact of the Uruguay Round on the countries of sub-Saharan Africa. The Uruguay Round is the most comprehensive multilateral trade arrangement ever negotiated, and yet is not clear ex ante that this would be beneficial for the poorer African countries. The paper finds that the impacts that can be expected from the Uruguay Round for Africa are rather muted, and considerably less important than for other parts of the world, such as East Asia. The average tariffs that African countries would be facing after the Round would be very small indeed, and essentially duty free, especially for the least developed. Of more significance would be the reduced coverage of nontariff barriers. In terms of their own commitments, the demands that have been placed on African countries are very modest indeed, and should not pose any serious transitional difficulties, although some technical assistance may be required. African countries have chosen to bind their tariffs at very high levels, well in excess of actual tariffs, with many above 100%. It is considered that sub-Saharan African countries have not taken advantage of the opportunity offered by the Uruguay Round to bind their domestic reforms to an international anchor to improve their credibility. While the Uruguay Round has brought no major short-term costs or benefits to most African countries, it does create future opportunities for those countries able to create an environment suitable for exploiting these opportunities. In particular, since countries have chosen not to link trade reforms to the Round itself, this will require continued attention to domestic trade reforms.</t>
+          <t>In the present work, we have synthesized nanostructured hematite samples using chemical precipitation method. The crystal structure and the grain size of the samples were studied using XRD. The zero field cooled and field cooled magnetization curves of the samples were recorded in the temperature range from 300 to 10 K. The variations of Morin transition temperature and blocking temperature with the grain size of the samples were investigated. The hysterics curves of the samples were recorded and the samples showed a superparamagnetic nature at room temperature whereas, at 10 K the samples showed open hysteresis curves. The sample with smaller grain size showed higher value of coercivity compared to samples with larger grain size. Mössbauer spectra of the samples were recorded and the grain size dependence on Mössbauer parameters was investigated.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1518823402</t>
+          <t>https://openalex.org/W2503321288</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0926-860x(92)80076-o</t>
+          <t>https://doi.org/10.1111/anhu.12105</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Schuurman et al. (1992)</t>
+          <t>Hoffman (2016)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Selective oxidation of methyl α-D-glucoside on carbon supported platinum</t>
+          <t>Learning to See: Intuition and Perception in Fieldwork in Haiti</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>In order to estimate the Arrhenius and Langmuir parameters of the selective oxidation of methyl α-D-glucoside on a platinum catalyst, the temperature was varied from 293 to 333 K. The initial reaction kinetics can be described adequately over this temperature range by a Langmuir-Hinshelwood rate equation which is based on two parallel reaction paths: one involving adsorbed methyl α-D-glucoside and dominating at low pH, the other involving the adsorbed methyl α-D-glucoside anion and dominating at high pH. Both reaction paths contain a rate-determining step consisting of a surface reaction involving the corresponding methyl α-D-glucoside species and chemisorbed oxygen. The apparent activation energies amount to 50.5±6.4 kJ mol−1 and 110.5± 10.6 kJ mol−1. The assessment of the Arrhenius parameter estimates within the framework of the transition state theory showed that these rate-determining steps lead to physically meaningful estimates. Langmuir adsorption coefficients account for the reversible dissociative chemisorption of oxygen and for the reversible associative adsorption of methyl α-D-glucoside and methyl α-D-glucoside anion. A standard adsorption enthalpy for oxygen of −60.0 ± 10.5 kJ mol−1, for methyl α-D-glucoside of −17.6±8.3 kJ mol−1 and for the methyl α-D-glucoside anion of − 61± 54 kJ mol−1 were estimated. During the oxidation at a pH of eight oxygen adatoms are the most abundant surface species, followed by adsorbed methyl α-D-glucoside. With increasing temperature the degree of oxygen coverage decreases from 0.8 to 0.6, while the degree of coverage with methyl α-D-glucoside increases from 0.08 to 0.13. At a pH of 10 the surface coverage with oxygen decreases from 0.6 at 293 K to 0.5 at 333 K and the surface coverage with methyl α-D-glucoside anion from 0.5 to 0.3.</t>
+          <t>This article describes subjective transformations in perception that the author has experienced over years of field visits to Haiti. These changes suspend the usual rationalist assumptions about the separation between mind and material environment, animate and inanimate, temporal cause and effect. Instead, the article suggests an attunement between ethnographer and the field, where the field itself speaks and forces different modalities of perception, knowledge, and learning. Intuition and symbolic and spiritual sources of meaning are significant dimensions of a process of “coming into understanding” that is never complete, but always evolving.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://openalex.org/W3043028927</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Ubbelohde (2019)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>New economy, same challenges: Is Circular Economy enabling a sustainable and holistic transition in Europe?</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>Circular economy has emerged as a new economic paradigm to solve problems of natural resource scarcity and environmental pollution by using resources more efficiently and designing products to mini ...</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2610255345</t>
+          <t>https://openalex.org/W3013722721</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
+          <t>https://doi.org/10.1161/circresaha.120.316763</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Tran &amp; James (2017)</t>
+          <t>Dikalova &amp; Dikalov (2020)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
+          <t>Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress”</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
+          <t>HomeCirculation ResearchVol. 126, No. 7Response by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Free AccessLetterPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessLetterPDF/EPUBResponse by Dikalova and Dikalov to Letter Regarding Article, “Mitochondrial Deacetylase Sirt3 Reduces Vascular Dysfunction and Hypertension While Sirt3 Depletion in Essential Hypertension Is Linked to Vascular Inflammation and Oxidative Stress” Anna Dikalova and Sergey Dikalov Anna DikalovaAnna Dikalova From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author and Sergey DikalovSergey Dikalov From the Division of Clinical Pharmacology, Department of Medicine, Vanderbilt University Medical Center, Nashville, TN. Search for more papers by this author Originally published26 Mar 2020https://doi.org/10.1161/CIRCRESAHA.120.316763Circulation Research. 2020;126:e33–e34In Response:We appreciate the comments by Zhou et al on our recent publication.1 They noted that acetylation-deacetylation represents only one of many post-translational regulations, and other modifications including phosphorylation, ubiquitination, oxidation, nitration, and S-glutathionylation also contribute to the regulation of mitochondrial SOD2 (superoxide dismutase) activity.2 Indeed, multiple post-translational modifications of SOD2 can alter the efficiency of superoxide dismutation; however, the abundance of these modifications varies by many fold, and SOD2 acetylation is the predominant and most abundant post-translational modification of mitochondrial SOD2.3 Acetylation of lysine residues K68 at the SOD2 catalytical center had the greatest inhibitory effect on the SOD2 superoxide dismutation activity,4 and supplementation of recombinant deacetylase Sirt3 (Sirtuin 3) to SOD2 isolated from hypertensive mice completely rescued SOD2 activity.5 The specific post-translational modifications of SOD2 will likely vary in different pathological conditions, that is, inflammation-induced nitrosative stress may increase contribution of SOD2 nitration while hyperoxia can promote SOD2 S-glutathionylation. We agree that additional aspects should be taken into consideration; meanwhile, it is clear that reduced Sirt3 deacetylase activity leads to SOD2 hyperacetylation and this contributes to hypertension and vascular dysfunction.1,5One of the novel findings of our study was that Sirt3 impairment in essential hypertension is due to both Sirt3 depletion and Sirt3 inactivation. We observed a 40% decrease in vascular Sirt3 level and 300% increase in SOD2 acetylation in hypertensive subjects, while SOD2 levels were not affected.1 We have shown previously that Ang II (angiotensin II) and inflammatory cytokines reduce Sirt3 expression by 30%.5 Meanwhile, the precise molecular mechanism of Sirt3 inactivation remains elusive.The failure of common antioxidants, such as vitamin E and vitamin C, in clinical trials of cardiovascular events was discouraging and urge a reassessment of the role of oxidative stress in cardiovascular disease.6 We suggest to rescue the Sirt3 activity to reduce the SOD2 acetylation and activate the key intrinsic antioxidant SOD2, which is 1000× more effective in scavenging superoxide radicals than any low molecular weight antioxidant. Therefore, Sirt3 can be the improved antioxidant.6Our data demonstrate that SOD2 lysine residue K68 is hyperacetylated in animal models and human hypertension.1,5 Recent studies show that expression of acetylation mimetic mutant SOD2-K68Q or SOD2-K68-Acetyl is accompanied with a change of SOD2 stoichiometry from homotetramer complex to a monomeric form. Biochemical experiments suggest that these monomers function as a peroxidase (using pyrogallol as the substrate) rather than superoxide dismutase.7 These data suggest a provocative idea that SOD2-K68 acetylation in hypertension is not just a loss-of-function modification but may represent a switch of antioxidant SOD2 to prooxidant peroxidase SOD2. Further studies are needed to define the potential role of peroxidase activity of SOD2-K68-Acetyl in human pathological conditions.It is important to note that Sirt3 is a key node in the regulation of both metabolic and antioxidant pathways.8 It activates mitochondrial metabolism by deacetylation of Krebs cycle,9 complex I,10 and fatty acid β-oxidation enzymes11 and maintains mitochondrial redox status by deacetylation of IDH2 (isocitrate dehydrogenase 2),12 and the effect of Sirt3 inactivation is not limited by SOD2 hyperacetylation. Furthermore, Sirt3 activity can be inhibited in response to metabolic or oxidative stress.5,13 We appreciate</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1692359881</t>
+          <t>https://openalex.org/W2486825922</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.quant-ph/0607196</t>
+          <t>https://doi.org/10.1484/m.tmc-eb.4.1009</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Conte et al. (2006)</t>
+          <t>Tollin (2011)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The transition from ontic potentiality to actualization of states in quantum mechanical approach to reality: The Proof of a Mathematical Theorem to Support It</t>
+          <t>Demesne Farms and Parish Formation in Western Östergötland: A Spatial Study of Church Catchment Areas and Ownership Structures when Alvastra Abbey was Founded</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>It is given a preliminary discussion on the ontic nature of quantum states to be intended as potentialities and on the central role of spin to be considered as the basic essence of quantum mechanical reality. The possible fundamental role of potentialities and of spin is evidenced in the framework of physical as well as of biological reality. After such preliminary deepening, using a quantum like scheme delineated on the basis of an algebraic structure, it is given for the first time mathematical demonstration of the transition from potentiality of states to their actualization as basic mechanism of our reality.</t>
+          <t>This volume aims to define the changing nature of lordship in Viking and early medieval Scandinavia. Advances in settlement archaeology and cultural geography have revealed new aspects of social power in Viking Age and early medieval Scandinavia. The organization of settlement is increasingly well understood and gives evidence of strong social differentiation in rural settlement. Historical research, however, increasingly portrays these societies as characterized by elementary social networks at a personal level rather than at the level of formal institutions. Can these representations be reconciled? When did the possession of land, in the form of manors or large demesne farms, become an important source of power and authority? This question has generated intense debate internationally in recent years, but there is no comprehensive overview for Scandinavia. New sources and approaches allow us to question the traditional view that Scandinavian aristocrats developed from Viking raiders into Christian landlords. Seventeen thematic chapters by leading scholars survey and assess the state of research and provide a new baseline for interdisciplinary discussions. How were social ties structured? How did lordship and dependency materialize in modes of agriculture, settlement, landscape, and monuments? The book traces the power of tributary relations, forged through personal ties, gifts, duties, and feasting in great halls, and their gradual transformation into the feudal bonds of levies and land-rent.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2953473000</t>
+          <t>https://openalex.org/W1987466031</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1023/b:gpac.0000016391.83527.44</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Angelova et al. (2019)</t>
+          <t>Виноградова et al. (2004)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
+          <t>Glass Transition and Crystallization of Glasses Based on Rare-Earth Borates</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120493161</t>
+          <t>https://openalex.org/W3087636632</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1542/peds.2012-3786f</t>
+          <t>https://doi.org/10.1074/jbc.ra119.012102</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Billett et al. (2013)</t>
+          <t>Maunders et al. (2020)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Exemplar Pediatric Collaborative Improvement Networks: Achieving Results</t>
+          <t>Global reprogramming of virulence and antibiotic resistance in Pseudomonas aeruginosa by a single nucleotide polymorphism in elongation factor, fusA1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A number of pediatric collaborative improvement networks have demonstrated improved care and outcomes for children. Regionally, Cincinnati Children's Hospital Medical Center Physician Hospital Organization has sustained key asthma processes, substantially increased the percentage of their asthma population receiving "perfect care," and implemented an innovative pay-for-performance program with a large commercial payor based on asthma performance measures. The California Perinatal Quality Care Collaborative uses its outcomes database to improve care for infants in California NICUs. It has achieved reductions in central line-associated blood stream infections (CLABSI), increased breast-milk feeding rates at hospital discharge, and is now working to improve delivery room management. Solutions for Patient Safety (SPS) has achieved significant improvements in adverse drug events and surgical site infections across all 8 Ohio children's hospitals, with 7700 fewer children harmed and &gt;$11.8 million in avoided costs. SPS is now expanding nationally, aiming to eliminate all events of serious harm at children's hospitals. National collaborative networks include ImproveCareNow, which aims to improve care and outcomes for children with inflammatory bowel disease. Reliable adherence to Model Care Guidelines has produced improved remission rates without using new medications and a significant increase in the proportion of Crohn disease patients not taking prednisone. Data-driven collaboratives of the Children's Hospital Association Quality Transformation Network initially focused on CLABSI in PICUs. By September 2011, they had prevented an estimated 2964 CLABSI, saving 355 lives and $103,722,423. Subsequent improvement efforts include CLABSI reductions in additional settings and populations.</t>
+          <t>Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Clinical isolates of the opportunistic pathogen Pseudomonas aeruginosa from patients with cystic fibrosis (CF) frequently contain mutations in the gene encoding an elongation factor, FusA1. Recent work has shown that fusA1 mutants often display elevated aminoglycoside resistance due to increased expression of the efflux pump, MexXY. However, we wondered whether these mutants might also be affected in other virulence-associated phenotypes. Here, we isolated a spontaneous gentamicin-resistant fusA1 mutant (FusA1P443L) in which mexXY expression was increased. Proteomic and transcriptomic analyses revealed that the fusA1 mutant also exhibited discrete changes in the expression of key pathogenicity-associated genes. Most notably, the fusA1 mutant displayed greatly increased expression of the Type III secretion system (T3SS), widely considered to be the most potent virulence factor in the P. aeruginosa arsenal, and also elevated expression of the Type VI (T6) secretion machinery. This was unexpected because expression of the T3SS is usually reciprocally coordinated with T6 secretion system expression. The fusA1 mutant also displayed elevated exopolysaccharide production, dysregulated siderophore production, elevated ribosome synthesis, and transcriptomic signatures indicative of translational stress. Each of these phenotypes (and almost all of the transcriptomic and proteomic changes associated with the fusA1 mutation) were restored to levels comparable with that in the progenitor strain by expression of the WT fusA1 gene in trans, indicating that the mutant gene is recessive. Our data show that in addition to elevating antibiotic resistance through mexXY expression (and also additional contributory resistance mechanisms), mutations in fusA1 can lead to highly selective dysregulation of virulence gene expression. Due to its high intrinsic resistance to antibiotics and aggressive virulence, Pseudomonas aeruginosa holds the dubious accolade of consistently occupying a “top ten” slot on lists of clinical threats across the globe. Indeed, the World Health Organization recently classified it as a top priority pathogen for which the development of new antimicrobial interventions is critical. This opportunistic, Gram-negative bacterium is ubiquitous and exhibits a particular predilection for the built environment, making encounters with the human populace commonplace. P. aeruginosa is frequently isolated from burn wounds, the respiratory tract, and the urinary tract and is the leading cause of morbidity and mortality in people with cystic fibrosis (CF) (1McCarthy R.R. Mooij M.J. Reen F.J. Lesouhaitier O. O'Gara F. A new regulator of pathogenicity (bvlR) is required for full virulence and tight microcolony formation in Pseudomonas aeruginosa.Microbiology. 2014; 160 (24829363): 1488-150010.1099/mic.0.075291-0Crossref PubMed Scopus (17) Google Scholar, 2Pereira S.G. Rosa A.C. Ferreira A.S. Moreira L.M. Proença D.N. Morais P.V. Cardoso O. Virulence factors and infection ability of Pseudomonas aeruginosa isolates from a hydropathic facility and respiratory infections.J. Appl. Microbiol. 2014; 116 (24484457): 1359-136810.1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3126388929</t>
+          <t>https://openalex.org/W2152755913</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/agj2.20631</t>
+          <t>https://doi.org/10.1596/0-8213-3485-9</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Govindasamy et al. (2021)</t>
+          <t>Harrold (1996)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
+          <t>The Impact of the Uruguay Round on Africa</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
+          <t>This paper aims to review the impact of the Uruguay Round on the countries of sub-Saharan Africa. The Uruguay Round is the most comprehensive multilateral trade arrangement ever negotiated, and yet is not clear ex ante that this would be beneficial for the poorer African countries. The paper finds that the impacts that can be expected from the Uruguay Round for Africa are rather muted, and considerably less important than for other parts of the world, such as East Asia. The average tariffs that African countries would be facing after the Round would be very small indeed, and essentially duty free, especially for the least developed. Of more significance would be the reduced coverage of nontariff barriers. In terms of their own commitments, the demands that have been placed on African countries are very modest indeed, and should not pose any serious transitional difficulties, although some technical assistance may be required. African countries have chosen to bind their tariffs at very high levels, well in excess of actual tariffs, with many above 100%. It is considered that sub-Saharan African countries have not taken advantage of the opportunity offered by the Uruguay Round to bind their domestic reforms to an international anchor to improve their credibility. While the Uruguay Round has brought no major short-term costs or benefits to most African countries, it does create future opportunities for those countries able to create an environment suitable for exploiting these opportunities. In particular, since countries have chosen not to link trade reforms to the Round itself, this will require continued attention to domestic trade reforms.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3164395695</t>
+          <t>https://openalex.org/W4295213499</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31124/advance.14471751.v1</t>
+          <t>https://doi.org/10.1016/j.carbon.2022.09.007</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Solis-Mullen (2021)</t>
+          <t>Su et al. (2023)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Strategies of Brazilian Elite Domination</t>
+          <t>Surface-confined polymerization to construct binary Fe3N/Co–N–C encapsulated MXene composites for high-performance zinc-air battery</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>In order to maintain their dominant socio-economic and political positions, Brazilian elites developed and employed a range of strategies in order to maintain the basic inequality regime established during the colonial period. Still among the most unequal countries in the world by Gini Coefficient, this paper seeks to show how Brazilian elites maintained their position of relative dominance through superstructural and material transformations in Brazilian society in terms of their collectively finding solutions to four problems: the Ideology of Creole Revolution, Unmanaged Elite Competition, Race Relations, and Democracy. As the latter three remain serious problems for Brazilian elites, the way previous elites navigated these threats to their position and maintained the basic nature of the inequality regime through transformations in the material base and superstructure provide insights into how Bolsonaro and contemporary conservative elites may attempt to manage the social democratic forces of the PT.</t>
+          <t>2D MXenes (transition metal carbides, Ti3C2Tx) with large surface area and metallic conductivity are widely used as supporters in catalysts. Unfortunately, the single MXene sheets would deteriorate in the presence of oxygen and water, which is almost the same as the environment of oxygen reduction reaction (ORR). Herein, an “armor” was constructed to encapsulate the oxidizable MXene by a confined in-situ oxidative polymerization strategy, employing the electrostatic interaction between the exfoliated MXene sheets (negatively charged) and oxidant (Fe3+, positively charged). The ultra-dispersed binary Fe3N and Co sits coupled with the large surface area MXene supporter synergy to endow more exposed active sites, meanwhile, the density functional theory (DFT) studies reveal that a moderate binding strength between the intermediates and the binary active sites was effectively modulated to enhance the ORR performance. The synthesized Fe3N/Co–N–[email protected] exhibits an impressive half-wave potential (E1/2, 0.871V) and a lower Tafel slope of 52.56 mV dec−1 than that of Pt–C-20% (74.89 mV dec−1). The Fe3N/Co–N–[email protected] based ZAB exhibits a four times higher peak power density (189.16 mW cm−2) than the Pt–C-20% based ZABs and superior cycle stability within 320 h. Furthermore, the assembled flexible ZABs shows high flexibility and stability in different bending scenarios.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2336619940</t>
+          <t>https://openalex.org/W2610255345</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/conf.fbioe.2016.01.00262</t>
+          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Hima et al. (2016)</t>
+          <t>Tran &amp; James (2017)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer</t>
+          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Event Abstract Back to Event Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer Hima Puthussery1, Ipsita Roy1, Anatoily Markiv1, Eugen Stulz2, Pooja Basnett1 and Peter Thomas1 1 University Of Westminster, Faculty of science and technology, United Kingdom 2 University of Southampton, Department of Chemistry, United Kingdom Introduction: Photodynamic therapy (PDT) is an emerging alternative treatment modality to conventional cancer therapies. This involves the application of photosensitive drugs, systemically or tropically, followed by illumination with light of a suitable wavelength and dosage. A drug delivery system that is biodegradable, biocompatible, non-immunogenic and capable of encapsulation without altering the properties of the photosensitizer is desired. Biosynthetic polyhydroxyalkanoates (PHAs) have been extensively researched within the context of drug delivery [1]. This research investigates Poly(3-hydroxybutyrate) (P(3-HB)) microspheres as suitable target specific drug delivery systems of Porphyrin derivatives (protoporphyrin IX, tetraphenylporphyrin and hematoporphyrin ether) on mammary cancer cells. The microspheres have been coupled with anti-HER2 to enable target specificity for better incorporation by SK-BR-3 cells that overexpress HER-2 marker. Materials and Methods: Production of photosensitizer encapsulated microsphere using P(3HB): P(3HB) synthesised using Kannan- Rehaceck media [2] was used for producing microspheres by solid-in-oil-in-water emulsion method. Varying process parameters were tested based on experiment design generated by design expert software; 2.5%w, 5%w and 10%w of drugs were then encapsulated in the P(3HB) microspheres. Surface adsorption of the anti HER-2 antibody on microspheres: RFP coupled anti HER-2 antibody was expressed in Rosetta gami B(DE3) E. coli. These His-tagged proteins were purified using immobilised metal affinity chromatography and linked to the photosensitizer-encapsulated microspheres using surface adsorption. Protein adsorbed was quantified using Bradford’s assay. Photoexcitaion and cytotoxicity tests: SK-BR-3 was cultured as specified by ATCC and incubated with the microspheres for 48 hours and subjected to white light exposure for 30 minutes. MTT assay was performed to assess cytotoxicity and live/dead staining was performed for confocal imaging. Results and Discussion: Without photoexcitation, microspheres loaded and not loaded with porphyrin derivatives have similar cytotoxicity. Cytotoxic effect increased with increasing drug loading in each case and was found to be the highest in case of tetraphenylporphyrin (Figure 1). anti HER-2 conjugation seemed to cause a further increase in cytotoxity in the case of hematoporphyrin ether and tetraphenylporphyrin, which was statistically significant (p&lt;0.05). The absence of increased cytotoxicity in the case of protoporphyrin IX is attributed to loss of activity presented by processing conditions and is to be further investigated. The life span of singlet oxygen species generated is only ~3.5micro seconds and apoptotic factors generated by these have diffusion range of only 0.01-0.02micro meters [3]. Hence, successful localisation of the photosensitizer in the target is a key factor in determining the extent of photodynamic reaction caused. A further addition of a target specific antibody such as anti- HER2 recognizing the antigens presented by neoplastic transformation will result in a more efficient Photoimmunotargeting (PIT) [3]. The cells treated with these microspheres seemed to have much become enlarged (~60mm) as opposed to the others, suggesting a possible phagocytic mechanism (Figure 2). Conclusion: Biosynthetic P(3-HB) is an excellent choice for synthesizing porous microspheres for photosensitizer delivery. Of the three porphyrin derivatives compared, tetraphenylporphyrin was found to be the most cytotoxic. As anti- HER2 conjugated microspheres were found to exhibit increased cytotoxicity, it can be concluded that these are promising candidates in Photoimmunotargeting. I would like to thank Cavendish scholarship, University of Westminster.References:[1] Francis, Lydia and Meng, Decheng and Knowles, Jonathan C. and Keshavarz, Tajalli and Boccaccini, Aldo R. and Roy, Ipsita (2011) Controlled delivery of gentamicin using poly(3-hydroxybutyrate) microspheres. International Journal of Molecular Sciences, 12 (7). pp. 4294-4314. ISSN 1422-0067[2] Valappil, Sabeel P. and Rai, R. and Bucke, Christopher and Roy, Ipsita (2008) Polyhydroxyalkanoate biosynthesis in Bacillus cereus SPV under varied limiting conditions and an insight into the biosynthetic genes involved. Journal of Applied Microbiology, 104 (6). pp. 1624-1635. ISSN 1364-5072[3] • Solban, N., Rizvi, I., Hasan, T. (2006). Targeted photodynamic therapy. Lasers in Surgery and Medicine. 38 (5), 522-531. Keywords: Drug delivery, biomedical application, targeting delivery, Nano/micro part</t>
+          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2903786861</t>
+          <t>https://openalex.org/W4319833052</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7922/g2028pqq</t>
+          <t>https://doi.org/10.1177/20534345231151209</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>O’Brien &amp; Jaishankar (2019)</t>
+          <t>Kokorelias et al. (2023)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
+          <t>The role of patient navigation in supporting low-income older adults in their housing needs during hospital to home transitions: A qualitative descriptive study from Ontario, Canada</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
+          <t>Introduction Housing is an important determinant of health. Little research has explored hospital and community agency staff perspectives on how to support the housing needs of low-income older adults. Therefore, this paper examines the challenges associated with supporting low-income seniors as they transition from hospital to home and explores what role, if any, patient navigation models of care could have in addressing housing needs. Methods A thematic secondary analysis that triangulated data from two qualitative studies was used. In total, interviews and/or focus groups with 109 hospital and community care workers were re-analyzed, applying a new interpretive lens to the data to reveal new insights. Data were collected in Ontario, Canada. Results Participants described how low-income older adults have increasing complex care needs that influence their housing, but housing supports are limited and difficult to navigate. Participants believed further support was needed and suggested that a housing-specific patient navigation model of care may be beneficial, but difficult to implement due to the limitations of existing services. Discussion Our findings provide a unique perspective on the challenges hospital and community staff face in caring for older adults with housing needs. Patient navigation with a focus on housing may support these older adults. Further work needs to be undertaken to better understand how to best implement sustainable housing patient navigation models of care.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233827115</t>
+          <t>https://openalex.org/W4388292834</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/cp-2017-161</t>
+          <t>https://doi.org/10.1016/b978-0-323-99712-6.00029-5</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Hutchinson et al. (2018)</t>
+          <t>Fletcher et al. (2024)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
+          <t>Greenlandian Stage (Early Holocene, 11.7–8.2 ka)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
+          <t>The Greenlandian Stage (Early Holocene) was a period of substantial climate change in Europe, essentially a transition towards a warmer climate punctuated by recurrent cold anomalies. The Holocene onset is defined in Greenland ice-core proxies, which reveal warming over Greenland of &gt;10°C and accompanying atmospheric circulation changes which occurred within a few decades. Marine records reveal a rapid sea-surface warming of 5°C–10°C, strongest in the high latitudes of the northern North Atlantic and weaker in the Mediterranean Sea. Terrestrial records from northern and central Europe indicate warming on the order of 4°C–6°C at the Holocene onset with the greatest amplitude of temperature change in the mid-latitudes (50–60°N) and along the Atlantic margins of Western Europe. In southern Europe, warming at the Holocene onset was of lower magnitude (&lt;4°C), and a subsequent shift towards a more humid climate was typically delayed by a millennium or longer. Across Europe, rapid warming was generally sustained during the first two millennia of the Holocene. Against this trajectory, several centennial-scale cooling anomalies occurred, which include the 11.4 ka event (Preboreal Oscillation), the 10.3 and 9.3 ka events and finally the 8.2 ka event, which defines the end of the Greenlandian Stage. These events reveal a typical cooling signal over Greenland and the European continent (varying in magnitude from &lt;1°C to as much as −4°C depending on the event and location). They also display spatial contrasts in hydrological impacts, typically with wetter conditions at central European latitudes and drier conditions in northern and southern Europe, reflecting the changes in the strength and position of the atmospheric westerlies. Forcing of these events is attributed to the disruption of North Atlantic deepwater formation by freshwater pulses to the North Atlantic from melting ice sheets, while the role of solar and volcanic forcing remains an open scientific question.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3091866356</t>
+          <t>https://openalex.org/W4321464970</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7202/1071486ar</t>
+          <t>https://doi.org/10.1016/j.trd.2023.103647</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Basey &amp; Dieu (2020)</t>
+          <t>Giliomee &amp; Booysen (2023)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Le miroir de la raison : déconstruction des mythes, assomption de l’humain, nouvel imaginaire du corps et du social dans le théâtre de Michel de Ghelderode</t>
+          <t>Decarbonising South Africa’s long-distance paratransit: Battery swapping with solar-charged minibus trailers</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cette relecture de Michel de Ghelderode s’attache à montrer qu’au-delà des motifs de la crise identitaire et du masque, comme à travers les figures de l’angoisse et du tragique, son théâtre porte un projet éthique : servir d’antidote à la déliquescence sociale. Le miroir de la raison que le dramaturge guerrier de l’imaginaire a installé au coeur de son oeuvre lui permet d’analyser les passions profondes de l’humain et les coulisses du social. Ghelderode crée des situations critiques à la faveur desquelles les figures archétypiques mobilisées déconstruisent les représentations socioculturelles et cherchent les possibilités de transformation du réel – social et historique. Les stratégies (mises en abyme, jeux des doubles et contrepoints) exploitées par cette dramaturgie révèlent la vraie nature des mythes, construits sociaux à valeur d’usage, et l’imposture consistant à les ériger en instances de vérité. Les pièces soulignent la nécessité de replacer l’humain au centre de la vie, de lui restituer les rênes de son destin. Ghelderode a produit donc un théâtre de la responsabilité qui vise l’assomption de l’humain, la libération de l’imaginaire du corps et une nouvelle économie du social.</t>
+          <t>The expected electrification of Sub-Sahara Africa's urban paratransit with an electric minibus taxi (eMBT) has received increased attention in energy research and expenditure analyses. In this paper, several long-distance routes between the Western Cape and the Eastern Cape in South Africa are assessed for electrification. To mitigate the long charging time of eMBTs, we propose a battery swapping approach in which a trailer acts as a mobile battery bank to the vehicle (eMBT+T); which is to be charged from a solar charging station to reduce emissions. Compared to the current MBTs, the proposed model results in only a 6% trip time increase. Crucially, emissions are reduced by 75%, where a 20% increase is seen when using an eMBT. The results show that a trailer battery enables viable long-distance electrical paratransit, and with the integration of solar power charging, this transition can also be sustainable.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W143764854</t>
+          <t>https://openalex.org/W3023489930</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1063/5.0001643</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Monastiriotis &amp; Petrakos (2009)</t>
+          <t>Nayak &amp; Thangavel (2020)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Local sustainable development and spatial cohesion in the post-transition Balkans: policy issues and some theory</t>
+          <t>Tuning the electronic and optical properties of monolayer MoSe2 by uniaxial tensile strain for optoelectronics</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Full potential linearized augmented plane wave (FP-LAPW) method is applied to study the electronic and optical properties of MoSe2 monolayer under uniaxial tensile strain. The bandgap of MoSe2 monolayer increases for the application of 1% uniaxial tensile strain and then reduces with increasing the uniaxial tensile strain. The direct bandgap nature of MoSe2 monolayer remain unchanged for 1% and 3% tensile strain. An applied tensile strain of ε=5%, causes a direct to indirect bandgap transition. Analyzing partial density of states (PDOS), the transition of bandgap from direct to indirect is due to the changes of orbital contribution from Mo-dx2-y2 &amp; dz2 to Mo-dz2 states in the conduction band minima (CBM) and Mo-dx2-y2 and Se-pX &amp; pY to Mo-dz2 and Se-pZ states in the valence band maxima (VBM). The enhancement of ε1(ω), ε2(ω) and α(ω) values are observed with uniaxial tensile strain in the visible region. The ε1(0) value increases with increasing tensile strain. The possibility of achieving tunable electronic and optical properties of MoSe2 monolayer with the implementation of uniaxial tensile strain, makes them a potential candidate for optoelectronics.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390233265</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.28925/2311-259x.2023.4.3</t>
+          <t>https://openalex.org/W2530778548</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vaskiv (2023)</t>
+          <t>Yanagi et al. (2016)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Spontaneous materialism, information (memory) and man in the poetry of Pavlo Movchan Part two</t>
+          <t>Test and Evaluation of TRUST: Tools for Recognizing Useful Signals of Trustworthiness</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The relevance of the article is due to the need to determine the philosophical basis of the worldview and poetic world of the Ukrainian literature classic of the XX–XXI centuries Pavlo Movchan (born in 1939) — ancient Greek spontaneous materialism — as the basis of universal and national memory, the continuity of history. The peculiarities of Movchan’s spontaneous materialism are the subject of research. The main problem of the article is the connection of each specific existence with the million-year history of the material world, humanity and a specific — Ukrainian — nation, reproduced in P. Movchan’s poetry, the role of this existence as a connecting link in the transfer of information (memory) from the past to the future. Cultural-historical, biographical, hermeneutic and formal (philological) research methods were used to solve this problem. As a result of the study, the images of the four elements were traced in the poet’s lyrical works. Different forms (water — snow, rain, well, spring, reservoirs, blood, etc.; earth — soil, clay, sand, stone, salt, etc.; fire — sun, light, ray, etc.; air — wind, whirlwind, etc.) of these elements become the most important in the life of the Ukrainian peasant-farmer, and therefore also of the ethnos. The primary elements are in constant motion, creating new things, objects, and phenomena as a synthesis of elements and their inevitable destruction. Only latent small imprints of the existence and transformations of matter in the form of energy (information) remain while reading. The preservation and the transmission of this energy to the next generations is the vocation, the purpose of a man in the world. The poetic world and the poet’s ideological concept syncretically combine knowledge of the global and Ukrainian national origins of existence, which determine the essence of our present and future life. Man as a combination of four elements, as a part of the primordial movement of the elements, is inextricably linked with his destined space, environment. Universal and ethnic memory as another name for energy-information unites a person with time and space, makes it possible to find and realize one’s own purpose on earth.</t>
+          <t>Abstract : This study focuses on the measurement of trustworthiness. The report focuses on testing, research and evaluation of a new research method for measuring and requiring trust between individuals. Not only did this study attempt to understand the holistic neural, psychophysiological, psychological, and behavioral underpinnings of the nature of trust, but more broadly, enhance understanding of the social dynamic of human interaction vital to the success of everyday life, especially in the defense and intelligence community context. The study was adapted from a well-evaluated game theory paradigm (Prisoners Dilemma). The Prisoners Dilemma puts study participants in a situation where they must decide to trust or not trust an assigned partner. Their decisions and the decisions of their partners, to trust or not trust are determined by the amount of monetary compensation participants were given at the end of the experimental session. The study goal was to evaluate the extent to which particular behavioral, psychological, physiological, and neural signals are related to trust between two people. Many areas were studied for this report, including frontal alpha power asymmetry, electroencephalography (EEG), high- and low-frequency and RR interval of heart rate, electrocardiography (ECG), skin conductance levels and Galvanic Skin Response (GSR), oxytocin and cortisol concentrations, and psychological state (questionnaires). These areas were investigated using three different methodological transformations: one examining raw signals, and two adjusting the signals to baseline: minus baseline and divided by baseline. Applied throughout the report are six hypotheses derived from Social Exchange Model. The six hypotheses are provided in the report.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
+          <t>https://openalex.org/W2055372586</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://doi.org/10.1016/s1386-1425(01)00466-8</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>Badawi et al. (2002)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>Substituent effects on structural stability of formyl ketene and analysis of vibrational spectra of formyl haloketenes and formyl methylketene</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>The conformational behavior and the structural stability of formyl fluoroketene, formyl chloroketene and formyl methylketene were investigated by utilizing quantum mechanical DFT calculations at B3LYP/6-31I + + G** and ab initio calculations at MP2/6-311 + + G** levels. The three molecules were predicted to have a planar s-cis&lt;--&gt;s-trans conformational equilibrium. From the calculations, the direction of the conformational equilibrium was found to be dependent on the nature of the substituting group. In formyl haloketenes, the cis conformation, where the C=O group eclipses the ketenic group, was expected to be of lower energy than the trans conformer. In the case of formyl methylketene the conformational stability was reversed and the trans form (the aldehydic hydrogen eclipsing the ketenic group) was calculated to be about 2 kcal mol(-1) lower in energy than the cis form. The calculated cis-trans energy barrier was found to be in the order: fluoride (15.3 kcal mol(-1)) &gt; chloride (13.1 kcal mol(-1)) &gt; methyl (11.7 kcal mol(-1). Full optimization was performed at the ground and the transition states of the molecules. The vibrational frequencies for the stable conformers of the three ketenic systems were computed at the DFT-B3LYP level, and the zero-point corrections were included into the calculated rotational barriers. Complete vibrational assignments were made on the basis of both normal coordinate calculations and comparison with experimental results of similar molecules.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3162495630</t>
+          <t>https://openalex.org/W2903786861</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su13105354</t>
+          <t>https://doi.org/10.7922/g2028pqq</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pichlak (2021)</t>
+          <t>O’Brien &amp; Jaishankar (2019)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>The Drivers of Technological Eco-Innovation—Dynamic Capabilities and Leadership</t>
+          <t>Changing Workforce Development Needs for Regional Transportation Planning Agencies in California</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>In the paper, a theoretical framework that combines the multidimensional conceptualization of dynamic capabilities (sensing, seizing, and reconfiguring) with two leadership styles (transactional and transformational) and two types of eco-innovation (incremental and radical) was developed and empirically tested. The purpose of this study is to answer the key question: how different leadership styles influence the potential of dynamic capabilities to generate ecological changes. The research examining the theoretical framework was quantitative and was based on a deliberately selection of the sample, which included 54 of the most evo-innovative Polish companies. The results indicate that transformational leadership moderates the positive relationship between seizing capability and both incremental and radical technological eco-innovation, whereas transactional leadership moderates the positive relationship between reconfiguring capability and both types of analyzed changes. This paper contributes to the development of the literature by integrating three theoretical concepts, showing the importance of a given leadership style as a factor enhancing the potential of dynamic capabilities for the development of technological eco-innovation. Moreover, the study may be a contribution to a broader discussion on the specifics of eco-innovative activity and its behavioral conditions.</t>
+          <t>In California, Senate Bill 375 (SB 375, 2008) required each Metropolitan Planning Organization (MPO) to develop a Sustainable Communities Strategy (SCS). This mandate required MPOs to set targets and develop strategies to reduce transportation-related greenhouse gas emissions within their region. To deliver effectively on this policy, there has been an amplified need for a workforce with both technical and functional skills.In the context of MPOs, technical (or technological) skills include the use of intelligent transportation systems, new engineering practices, and modeling (using mathematical formulas to represent and predict the impact of multiple actions by many people on transportation or air quality, etc.). Functional skills include public outreach, communications, stakeholder engagement, and leadership.This policy transition was made more difficult by rising retirement rates within the public sector and the growth of intelligent technologies being used in the workplace. By 2020, 16.5% to 20% of the entire workforce in the United States will be 65 or older and, in the transportation sector, this percentage is even higher. Many of the important technical and functional skills for the modern planning workforce require a facility with information technology, modeling software, social media, and outreach that were not typically developed in the past.In this research, MPOs were approached through surveys and in-depth interviews, with questions on changes in their processes and workforce needs due to various factors, including the requirements of SB 375.View the NCST Project Webpage</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2443231201</t>
+          <t>https://openalex.org/W4395610607</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.15468/dl.5j89b7</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Afshar (2015)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Systematic Risk Management: Providing a Patient the Smile She Long Desired.</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>The patient described in this case had medical issues that increased her risk for restoration failure. She also had long been disappointed with her smile and the overall appearance of her teeth. The goal of managing risks and achieving improved quality of life with an esthetic and functional restoration involved preventive strategies, use of a transitional immediate denture, maxillary arch implants, and, finally, a fixed, detachable, implant-supported final restoration. The keys to restoring to the patient a satisfying, beautiful smile were systematically managing the risks and improving the prognoses in each of the four dental categories--periodontal, biomechanical, functional, and dentofacial.</t>
+          <t>A dataset containing 5270679 species occurrences available in GBIF matching the query: { "and" : [ "OccurrenceStatus is Present", "TaxonKey is Columba palumbus Linnaeus, 1758" ] } The dataset includes 5270679 records from 4026 constituent datasets: 242 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 216 records from MICA - Muskrat and coypu camera trap observations in Belgium, the Netherlands and Germany. 1 records from Waldstück Bremerhagen LK Bio Kl. 12. 11195 records from Suivi des oiseaux de passage : programme FLASH - Programme FLASH : Répartition Pigeon ramier 2012 - 2016 Coordonnées GPS Lambert 93. 1 records from Données naturalistes de Chartres Métropole - Données de Chartres Métropole - 2020. 2 records from Plan de gestion de la Réserve Naturelle Régionale de la Massonne - Inventaire de données. 1 records from Parc éolien des Longues Roies - Suivi mortalité ICPE 2021 LORO. 1 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 8 records from Données espèces - Expertise IQE Coteaux Aulnoye 2018. 1 records from Bannwald Burghauser Forst. 3 records from Grand Paris Express - Ligne 17 Nord - L17N_Etat initial sites de compensation (2018). 3 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de EL ATTAR SOFI OUMAYMA. 8 records from Données du Comité Départemental de Protection de la Nature et de l'Environnement de Loir-et-Cher (CDPNE) - Données 2016 Pélobate brun Comité Départemental de Protection de la Nature et de l'Environnement. 9 records from Ferme Éolienne de Saint Maurice - Données Brutes de Biodiversité Projet Eolien de Saint-Maurice-Etusson. 1 records from Gestion Patrimoniale de la Corniche Basque - Suivi Hivernale des Oiseaux Communs. 1 records from Parc photovoltaïque de Bluebbery - Inventaires naturalistes. 40 records from Projet éolien du Blayais - Inventaire oiseaux calidris. 7 records from Canadian Museum of Nature Bird Collection. 1 records from Birdrace-Team_Wangerooge-Friesland. 53 records from Parc éolien de Senev Illois - Suivi de mortalité et d'activité avifaunistique et chiroptérologique (2016-2018). 37 records from Suivi et inventaire de la réserve naturelle de Saucats - La Brède - Suivi Temporel des Oiseaux Communs par Échantillonnage Ponctuel Simple (protocole STOC-EPS). 44 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 5 records from Observations naturalistes indépendantes d'origine privée partagées sur la base de données Kollect Nouvelle-Aquitaine - Observations faunistiques de Florent HERVOUET. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Etude écologique de la Cité Scolaire Paul Valéry Paris 12ème. 3 records from Projet de parc photovoltaïque au sol à Moimay et Marast (70) - 2020 inventaire faune-flore à Moimay et Marast (70). 1 records from Birdrace-Die_Nachtraben-Stuttgart. 1 records from Pouillé les coteaux - Pouillé-les-Côteaux - suivi environnemental parc éolien. 63 records from Parc éolien Mont de la Grévière 2021 - Mont de la Grévière - suivi post implantation de parc éoliens - 2021. 10 records from Dépôt des données brutes de suivis écologiques 2019 du pole multi-filières d'Entraigues sur la Sorgue (SUEZ) - Suivi écologique des parcelles compensatoires. 12 records from RCEA Mise à 2x2 voies de la RN70 entre Palinges et le RD25 - Inventaires écologiques faune - Données ponctuelles. 66 records from Projet de parc éolien sur les communes de Vigoux et Bazaiges (36) - Les Sables - Avifaune. 6 records from Parc éolien des Vallottes (Bovée sur Barboure) - Suivi post-installation Parc éolien des Vallottes. 1 records from Poursuite et extension du site de Nançay - Extension du site de Nançay (Dordives) données Faune/Flore. 4 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Le baron Gaetan provenant de la base de donnée du SINP Île-de-France CETTIA. 1 records from BIRDRACE accipiter hardcore birding. 8 records from Baudelet Synergies +. 142 records from Projet éolien de la Cense - SAF_FAUNE. 1 records from Programme les sentinelles du climat - effets du changement climatique sur la biodiversité en région Nouvelle-Aquitaine - Observations faunistiques fortuites réalisées par le CEN Aquitaine. 2 records from Parc éolien de Saint-Généroux - 2020_Saint-Généroux_Suivi mortalité. 28 records from Ferme éolienne de Quesnoy-sur-Airaines 3 - Suivi chiroptérologique, avifaunistique et de mortalité du parc de Quesnoy III. 1 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 9 records from Projet de centrale photovoltaïque flottante à Bruch. 1 records from Projet éolien du Souffle d'Espoir - Inventaire oiseaux nidification. 2 rec</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2024074390</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/17449626.2011.556659</t>
+          <t>https://openalex.org/W3020172178</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Bellaby et al. (2011)</t>
+          <t>Galleani et al. (2018)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Substituting ‘H&lt;sub&gt;2&lt;/sub&gt;for C’ and reducing global inequalities in health</t>
+          <t>Ultraviolet Upconversion Luminescence in a Highly Transparent Triply-Doped Gd3+–Tm3+–Yb3+ Fluoride–Phosphate Glasses</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Life expectancy and health differ greatly between emerging and developed countries and within countries. Global dependence on fossil fuels contributes to health inequalities through air pollution, the geopolitics of scarce resources and probable climate change arising from global warming. Substituting for fossil fuels (C), hydrogen (H2), as vector and store of energy produced from low-carbon and/or renewable sources could reduce health inequalities by improving the environment. It is unlikely that the global market would initiate such a change. Nation-states would not act alone and would need to cooperate in leading it. Global recession might be the incentive that is needed to restructure a C-economy into an H2-economy. Yet, the transition would carry high costs, which would have to be borne by the developed countries in order to achieve a new treaty that included emerging countries. H2 for C is thus not only a technical fix, but also a global-ethical choice.</t>
+          <t>We report near-infrared to ultraviolet (UV) upconversion emissions in triply-doped Gd³⁺–Tm³⁺–Yb³⁺ fluoride–phosphate glasses. Emission at 310 nm, originated from the Gd³⁺:⁶P₇/₂ → ⁸S₇/₂ transition, was observed for the first time in glasses. The high-purity glasses prepared exhibit extended transparency in the UV down to 200–250 nm. The mixed fluoride–phosphate environment of the rare-earth ions was characterized by means of NMR techniques using scandium as a diamagnetic mimic for the luminescent species, for which the ligand distribution was quantified by ⁴⁵Sc{³¹P} rotational echo double-resonance NMR. Both the intensity of the Gd³⁺ emission as well as those of the UV emissions at 290, 347, and 363 nm increase with increasing ratio of fluoride to phosphate ligands coordinating to the rare-earth ion.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322501042</t>
+          <t>https://openalex.org/W4245971159</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/biom13030432</t>
+          <t>https://doi.org/10.1007/1-59745-466-4_17</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Saxena et al. (2023)</t>
+          <t>Kroth (2007)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
+          <t>Genetic Transformation</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
+          <t>Diatoms are unicellular photoautotrophic eukaryotes that play an important role in ecology by fixing large amounts of CO2 in the oceans. Because they evolved by secondary endocytobiosis—a process of uptake of a eukaryotic alga into another eukaryotic cell—they have a rather unusual cell biology and genetic constitution. Because the preparation of organelles is rather difficult as a result of the cytosolic structures, genetic transformation and expression of preproteins fused to green fluorescent protein (GFP) became one of the major tools to analyze subcellular localization of proteins in diatoms. Meanwhile several groups successfully attempted to develop genetic transformation protocols for diatoms. These methods are based on ‘‘biolistic’’ DNA delivery via a particle gun and allow the introduction and expression of foreign genes in the algae. Here a protocol for the genetic transformation of the diatom Phaeodactylum tricornutum is described as well as the subsequent characterization of the transformants.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133358483</t>
+          <t>https://openalex.org/W1511186843</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5120/17130-7712</t>
+          <t>https://doi.org/10.7551/mitpress/3119.003.0055</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sarkar &amp; Kar (2014)</t>
+          <t>Minato &amp; Asada (1998)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Adaptive E-learning using Deterministic Finite Automata</t>
+          <t>Skill Acquisition and Self-Improvement for Environmental Change Adaptation of Mobile Robot</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
+          <t>Learning and development are essential processes for an animat to adapt itself to environmental changes so as to accomplish a given task. This paper proposes a single mechanism for learning and self-improvement that results in learning curves similar to the “U-shape” phenomena observed in several psychological experiments concerning the human learning process such as in language acquisition. The basic idea is that (1) the animat monitors its success rate in goal achievement so as to perceive environmental changes instead of relying on signals from a teacher, and (2) in order to reuse acquired knowledge and accelerate reinforcement learning, the animat does not memorize the action values but transfers only the learned policy. The resultant policy (a state transition map where transitions indicate the best actions) may not be optimal in any given environment but it may be able to better handle differences between environments. We apply this model to a mobile robot navigation problem for which the task is to reach the target while avoiding obstacles by means of uninterpreted sonar and visual information. Our experimental results demonstrate the validity of the model.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2074300212</t>
+          <t>https://openalex.org/W3089301651</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0017-9310(96)00081-6</t>
+          <t>https://doi.org/10.21608/jesaun.2012.114621</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tambour (1997)</t>
+          <t>El-Shimi &amp; Awad (2012)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Theory of transient multicomponent transport coupling in three-dimensional stagnation flows</t>
+          <t>IMPORTANCE OF THE URBAN SPACES IN THE CONSERVATION OF HERITAGE ZONES</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A general field transformation for transient three-dimensional multicomponent energy and species equations is presented. Employing this transformation, transient multicomponent transport coupling effects in three-dimensional flows with surface injection cooling are studied. A new multicomponent transport coupling parameter is introduced and new results for the surface heat flux for various values (between 0 and 1) of this parameter are given. These values of the transport coupling parameter represent a wide range of transport properties of multicomponent mixtures. The present results demonstrate how a given final surface cooling efficiency can be obtained by choosing a variety of combinations of various values of the transport coupling parameter and injection rates. The present study also reveals an interesting behavior of local overshoot values in the transient relative contribution of the transport coupling effects to the surface heat flux. This behavior is explained here in terms of fluctuations in a multicomponent 'Transport-coupling Activity' number, which is sensitive to the differences in the characteristic rate of change of the local concentration gradients with respect to the local temperature gradient.</t>
+          <t>This paper deals with the impact of the continuous transformation and the changes that is done unconsciously upon the architectural and urban heritage areas associated with the continuous development of these zones. The focus of the research deals with the lack of urban space in many heritage zones accordingly and the omission of their role in the process of their conservation. The paper studies also the role of urban spaces as on effective toll in the conservation of these heritage areas besides the means how to revive the urban w The paper includes a proposed analytical methodology for the conservation of these areas and the application of this method in the field study.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1600043873</t>
+          <t>https://openalex.org/W2990839007</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.4923084</t>
+          <t>https://doi.org/10.12948/issn14531305/23.3.2019.04</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Zimmerman et al. (2015)</t>
+          <t>Stoica et al. (2019)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Orbitals with intermediate localization and low coupling: Spanning the gap between canonical and localized orbitals</t>
+          <t>Restarting the Information Society Based on Blockchain Technology</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Localized orbitals are representations of electronic structure, which are easier to interpret than delocalized, canonical orbitals. While unitary transformations from canonical orbitals into localized orbitals have long been known, existing techniques maximize localization without regard to coupling between orbitals. Especially in conjugated π spaces, orbitals are collapsed by unitary localization procedures into nonintuitive, strongly interacting units. Over-localization decreases interpretability, results in large values of interorbital coupling, and gives unmeaningful diagonal Fock energies. Herein, we introduce orbitals of intermediate localization that span between canonical and fully localized orbitals. To within a specified error, these orbitals preserve the diagonal nature of the Fock matrix while still introducing significant locality. In systems composed of molecular fragments, π spaces can be localized into weakly coupled units. Importantly, as the weakly coupled orbitals separate, highly coupled orbitals maintain their expected structure. The resulting orbitals therefore correspond well to chemical intuition and maintain accurate orbital energies, making this procedure unique among existing orbital localization techniques. This article focuses on the formation and physical analysis of orbitals that smoothly connect the known fully delocalized and fully localized limits.</t>
+          <t>Social sciences literature claims that humanity is traversing a development stage generically called knowledge based informational society.It also anticipates another development horizon characterized by the explosion of artificial intelligence, corroborated with ever more spectacular development of information and communication technology.If we associate it with one of the most recent technologies dedicated mainly to information securityblockchain technology, we can certainly talk about a rebooting of informational society.Being itself a revolution, we will argue in this paper the level of influence blockchain has on business architectures, financial services, anti-plagiarism solutions, real estate transactions, economy, society, electoral processes and democracy as a whole.The ecosystem that supports all these transformations, developed and embedded in the global internet is IOT -Internet of Things.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2130194658</t>
+          <t>https://openalex.org/W2884626935</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/11758532_76</t>
+          <t>https://doi.org/10.1007/s11684-018-0656-6</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Rahmani et al. (2006)</t>
+          <t>Zhang &amp; Weinberg (2018)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>An MDA-Based Modeling and Design of Service Oriented Architecture</t>
+          <t>Epithelial-to-mesenchymal transition in cancer: complexity and opportunities</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Traditional approaches to software systems development such as using tools and modeling frameworks are appropriate for building individual object oriented or component based software. However they are not suitable for designing of flexible distributed enterprise systems and open environments. In recent years, service-oriented architecture (SOA) has been proposed as a suitable architecture for development of such systems. Most current approaches in employing SOA are tailored to specific domains and hence are not general purpose. Therefore, in order to gain the full benefits of such technology, a more effective general approach to modeling and designing these complex distributed systems is required. In this paper, we present a model-driven approach to SOA modeling and designing complex distributed systems. In this approach, first the PIM of the business system is derived and expressed in standard UML modeling constructs and then this PIM is transformed to the SOA-based PIM by some transforming tool. After the SOA-based PIM is obtained, it can be used to generate PSM for a specific platform such as Web Services, Jini or other platforms. To make it clear how this PSM could be generated we will use Web Services as a target platform and the steps of this transformation will be shown.</t>
+          <t>The cell-biological program termed the epithelial-to-mesenchymal transition (EMT) plays an important role in both development and cancer progression. Depending on the contextual signals and intracellular gene circuits of a particular cell, this program can drive fully epithelial cells to enter into a series of phenotypic states arrayed along the epithelial-mesenchymal phenotypic axis. These cell states display distinctive cellular characteristics, including stemness, invasiveness, drug-resistance and the ability to form metastases at distant organs, and thereby contribute to cancer metastasis and relapse. Currently we still lack a coherent overview of the molecular and biochemical mechanisms inducing cells to enter various states along the epithelial-mesenchymal phenotypic spectrum. An improved understanding of the dynamic and plastic nature of the EMT program has the potential to yield novel therapies targeting this cellular program that may aid in the management of high-grade malignancies.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958430348</t>
+          <t>https://openalex.org/W2767463142</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1468-0424.12437</t>
+          <t>https://doi.org/10.3892/mmr.2017.7979</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Fisher &amp; Funke (2019)</t>
+          <t>Shi et al. (2017)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>The Age of Attraction: Age, Gender and the History of Modern Male Homosexuality</t>
+          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">In 1902, founder of the Berlin Institute for Sexual Science, Magnus Hirschfeld, developed a ‘psychobiological questionnaire’ to investigate human sexuality.1 The section labelled ‘sexual instinct’ [Geschlechtstrieb] asked: ‘What approximately are the highest and lowest limits in age of the people to whom you feel drawn, or is age of no importance to you?’2 Hirschfeld's interest in age as a driver of sexual attraction reflects broader sexual scientific attempts to map an erotics of age.3 This article explores how and why the relative age of sexual subjects was theorised by British and German sexual scientists in the late nineteenth and early twentieth centuries. It demonstrates that questions around age preoccupied sexual science and argues, more specifically, that constructions of male homosexuality were driven by anxieties about interactions between children or adolescents and older men.4 In so doing, the article reveals the interrelationship between sexological debates about homosexuality and scientific explorations of childhood sexuality and adolescent development. It shows that age needs to be acknowledged as a crucial category shaping sexual scientific debate and structuring understandings of modern homosexuality.5 As is well known, the erotic charge provided by age difference was central to many culturally prominent eighteenth- and nineteenth-century understandings of same-sex desire.6 European and American elites interpreted classical (predominately Ancient Greek) cultures as providing affirmative models of youthful male beauty and intimate attachment between older and younger men or boys.7 While precise differences in age were rarely specified, partners were separated on the basis of maturity into active (the erastes) and passive roles (the eromenos). Moreover, attraction to younger same-sex partners was not seen to exclude opposite-sex relationships: men who desired male youths could also be married to women. The influence of this material on individual identities can be found, for example, in sexological case studies or letters received by prominent Hellenic writers.8 At the same time, this idealisation of age-differentiated erotics reinforced existing associations between same-sex activity and the sexual misuse of younger people by older men.9 In response, some sexual scientists sought to tease apart age-structured and same-sex relationships. These authors defined the male homosexual through his exclusive inborn attraction to other consenting adults. This article shows that this influential construction of the modern homosexual as a discrete congenital type emerged in direct response to considerations around age.10 It also demonstrates that, notwithstanding the emergence of this model, questions about the impact of sexual encounters with older men on a younger person's sexual development continued to be debated within sexual science, creating dialogue between theorisations of homosexuality and concurrent studies of childhood sexuality.11 As such, investigations of male homosexuality continued to revolve around urgent questions about how and when same-sex desire emerged and what impact sexual experiences in youth had on later desires. These debates remained at the centre of early twentieth-century sexual science in Britain and Germany, complicating the inborn model and securing the centrality of age as a key category in modern articulations of sexuality. Throughout the nineteenth century, male same-sex acts were frequently associated with the sexual coercion of young people in news media and forensic, legal and literary writings. The assumption that same-sex relations were violations of youth fundamentally shaped sexual scientific investigations of same-sex desire and informed intersecting explorations of childhood and adolescent sexual development.12 Later nineteenth-century constructions of homosexuality were inextricably linked to concerns about childhood and adolescent sexuality in ways that scholars have not yet fully explored. There are two main reasons for this oversight: first, research on child sexual abuse has frequently side-lined male-male same-sex behaviour, concentrating on sexual violence involving girls.13 Second, histories of male homosexuality have often downplayed the prominence of young people in representations of male same-sex behaviour.14 From the mid-nineteenth century, sexual science, alongside other scientific, legal and literary discussions of childhood, constructed children as at risk of physical and moral molestation.15 Although there was no clearly defined concept of child sex abuse before the twentieth century, minors were increasingly seen as victims of defilement rather than as sexually precocious agents.16 Age of consent and sexual assault laws as well as child marriage legislation in Europe and European colonies were often focused on the vulnerabilities of girls.17 Yet, boys were also seen as requiring protection from (often male) predators.18 Age of consent and </t>
+          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3165612848</t>
+          <t>https://openalex.org/W4281745644</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.23951/1609-624x-2021-3-102-109</t>
+          <t>https://doi.org/10.1021/acs.joc.2c00913</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Бутенко (2021)</t>
+          <t>Volkov et al. (2022)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PAREMIOLOGICAL TRANSFORMATIONS IN FILM TRANSLATION (BASED ON THE RUSSIAN AND ENGLISH LANGUAGES)</t>
+          <t>Visible-Light-Driven Thioesterification of Aryl Halides with Potassium Thiocarboxylates: Transition-Metal Catalyst-Free Incorporation of Sulfur Functionalities into an Aromatic Ring</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Введение. Проведено лингвостилистическое исследование паремиологических трансформаций в кинотексте и рассмотрены возможности эквивалентной передачи трансформа в языке перевода. Актуальность исследования обусловлена широкой употребительностью пословичных единиц в художественном языке, в частности в кинодискурсе. Встраиваясь в матрицу кинодиалога, они становятся основой для последующих преобразований в высказываниях персонажей, создавая своей окказиональностью значительный экспрессивный потенциал. Цель. Поскольку свидетельством эффективной трансформации является узнаваемость исходной пословицы в трансформе, целью исследования стало выявление лингвостилистических средств, способствующих узнаванию, декодированию и адекватному зрительскому восприятию трансформа в языке принимающей культуры. Материал и методы. Материалом исследования послужили пословичные трансформы в высказываниях персонажей анимационного фильма “The Lion King. Hakuna Matata” («Король Лев. Акуна Матата»). Проводимое исследование имело теоретико-эмпирический характер, при котором анализ материала осуществлялся посредством структурного и описательного методов, позволяющих установить определенные лингвистические закономерности паремиологических трансформаций. Результаты и обсуждение. Анализируемый авторский трансформ является по сути сентенцией, афористическим, то есть лаконичным и поучительным, изречением. Сентенция воспроизводит типические черты народной пословицы: дидактичность, переосмысленность, имплицитность. Оживляя традиционную форму паремиологической единицы, она сохраняет семантико-стилистическое тождество с прецедентным текстом. Наряду со смысловой тождественностью с исходной пословицей, трансформ-сентенция демонстрирует и синтаксическую схожесть, при этом бесшовно включаясь в контекст диалога. Констатируемые проявления трансформационного процесса закономерны, так как трансформ создается по пословичным алгоритмам, что обеспечивает его соотносимость с исходной пословицей. Их имплицитная общность предопределяет и в некоторой степени ограничивает вариативность лексического содержания, а также синтаксической структуры трансформа. Это дедуктивное положение может стать небольшим научным вкладом в лингвостилистические исследования в области паремиологической трансформации. Оно эффективно работает в художественном языке, где обеспечивающая адекватное восприятие логическая структура традиционной пословицы способна производить дериваты, выделяющиеся своеобразием формы. Проводимым лингвостилистическим исследованием изучаются людические (игровые) ресурсы полисемии, применяемые в трансформе, и анализируются изыскиваемые возможности перевода каламбурных речений. Внесение модифицированной пословичной единицы – сентенции – в структуру кинодиалога рассматривается как прием стилистической цитации, функциональная ценность которой подтверждается уместностью употребления в определенной ситуации общения. Статус интертекстуального знака, приобретаемый сентенцией в высказывании персонажа, наделяет ее особой значимостью и способствует возникновению направленных ассоциаций, служит средством усиления аргументации и выражения оценки. Заключение. Трансформация паремиологических единиц – это результат художественно-обработанного прецедентного текста, где структурно-семантическая устойчивость обновляется окказиональным, но идентичным по содержанию выражением. Таким образом, модифицированные паремии не воспринимаются как безжизненные фольклорные штампы, они являются актуальными составляющими речевого узуса. Поскольку краткость входит одним из основных компонентов в понятие «пословица», ее семантико-стилистическому деривату также свойственны смысловая емкость и синтаксическая сжатость. Подобные формы способствуют созданию языковой компрессии, необходимой в субтитровании, наиболее востребованном виде киноперевода. Этот фактор подтверждает как практическую значимость исследования, так и его актуальность для киноиндустрии. Introduction. The linguistic research analyzes paremiological transformations in the film text and stud-ies the possibilities of their equivalent translation in the host culture. The relevance of the study is due to the wide use of proverbial units in the artistic language and namely in film discourse. Embedded in the matrix of the film dialogue, they become a basis for subsequent transformations in characters’ speech, creating a significant expressive potential because of their occasional character. Aim and objectives. Since the recognition of the original proverb in the modified version is the proof of an effective transformation, the aim of the study is to identify the linguistic means that contribute to recognition, decoding and adequate perception of the transform in the language of the host culture. Material and methods. The research is based on the proverbial transforms in the characters’ utterances of the animated film “The Lion King. Hakuna Matata”. Being of a theoretical-empirical nature, the lingua-stylistic study required the use of the struc</t>
+          <t>Reactions of acceptor-substituted aryl iodides and bromides with potassium thiocarboxylates under white light irradiation allow for the preparation of S-aryl thioesters including synthetically versatile S-aryl thioacetates. This transition-metal and external photocatalyst-free method features extremely mild reaction conditions compared with those used in transition-metal-catalyzed protocols. Reactions proceed via the initial formation of an electron donor-acceptor (EDA) complex in the ground state, which was supported by UV-vis spectra. Electron paramagnetic resonance (EPR) spin-trapping experiments using phenyl-N-tert-butylnitrone (PBN) have revealed the radical nature of the reaction.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4221017288</t>
+          <t>https://openalex.org/W2795750933</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11442-022-1965-x</t>
+          <t>https://doi.org/10.1002/2017gc006800</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Wang et al. (2017)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Distribution patterns of SOC/TN content and their relationship with topography, vegetation and climatic factors in China’s north-south transitional zone</t>
+          <t>&lt;i&gt;P&lt;/i&gt;and&lt;i&gt;S&lt;/i&gt;wave attenuation tomography of the Japan subduction zone</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>The spatial distributions and variation mechanism of key soil indices in the Qinling-Daba Mountains are important indicators for the identification of the transitional effect and regional characteristics of the north—south transitional zone in China. This manuscript analyzes the spatial variations in soil organic carbon (SOC) and total nitrogen (TN) and corresponding relationships with major geographical factors based on spatial analysis and geostatistics considering data obtained from the Second National Soil Survey. The results indicate that the spatial distributions of the SOC and TN contents are consistent, and three high-content areas, one secondary high-content area and one low-content area are observed. High content values are located in the high-altitude regions of the Qinling-Daba Mountains and mountainous areas to the west of the Jialing River, the low-content area occurs on the north slope of the Qinling Mountains, and the secondary high-content area mainly encompasses both sides of the Hanjiang River and regions in the Qinling-Daba Mountains at altitudes below 1000 m. The SOC and TN contents vary between the above two ranges, with the gradual increase in content revealing a horn-shaped pattern. Considering the spatial variations and functions of vegetation, topography and climate factors, it is found that the SOC/TN range in the secondary high-content area remains consistent along the 1000 m contour line, the upper limit of the transitional mountain altitudinal belt, the 0°C isotherm line in January and the 24°C isotherm line in July. This region constitutes the main body of the transitional zone between the subtropical and warm temperate zones, and the northern boundary is roughly distributed along the Dujiangyan-Maoxian-Pingwu-Wenxian line to the west of the Jialing River and the 1000 m contour line on the southern slope of the Qinling Mountains, while the southern boundary occurs along the Dujiangyan-Beichuan-Qingchuan line to the west of the Jialing River and the 1000 m contour line on the northern slope of the Daba Mountains. SOC/TN spatial variation provides a reference for the demarcation of the subtropical and warm temperate zones, and further identification of the soil processes and ecological effects in typical regions can help reveal multidimensional transitional characteristics and variation mechanisms.</t>
+          <t>Abstract We determine the first high‐resolution P and S wave attenuation ( Q ) tomography beneath the entire Japan Islands using a large number of high‐quality data collected from P and S wave velocity spectra of 4222 local shallow and intermediate‐depth earthquakes. The suboceanic earthquakes used in this study are relocated precisely using sP depth phases. Significant landward dipping high‐ Q zones are revealed clearly, which reflect the subducting Pacific slab beneath Hokkaido and Tohoku, and the subducting Philippine Sea (PHS) slab beneath SW Japan. Prominent low‐ Q zones are visible in the crust and mantle wedge beneath the active arc volcanoes in Hokkaido, Tohoku, and Kyushu, which reflect source zones of arc magmatism caused by fluids from the slab dehydration and corner flow in the mantle wedge. Our results also show that nonvolcanic low‐frequency earthquakes (LFEs) in SW Japan mainly occur in the transition zone between a narrow low‐ Q belt and its adjacent high‐ Q zones right above the flat segment of the PHS slab. This feature suggests that the nonvolcanic LFEs are caused by not only fluid‐affected slab interface but also specific conditions such as high pore pressure which is influenced by the overriding plate.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2002131502</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0016-7037(75)90031-9</t>
+          <t>https://openalex.org/W3145315808</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Burns (1975)</t>
+          <t>Jia (2013)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Crystal field effects in chromium and its partitioning in the mantle</t>
+          <t>Mechanisms of Enhanced Heavy Metal Tolerance in Plants by Silicon: A Review</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cr3+ ions have a strong preference for octahedral sites in mineral structures and discriminate against tetrahedral sites, whereas Cr2+ ions favor distorted environments, according to crystal field theory. All structure-types proposed for the transition zone and lower mantle contain six-coordinated sites, so that Cr3+ ions may be distributed over several phases in the Earth's interior. In the upper mantle, however, stabilization energies derived from crystal field spectra suggest that the enrichment of Cr3+ follows the sequence: spinel &gt; garnet &gt; pyroxene or olivine. High-spin Cr2+ ions, which may occur at very high pressures and low oxygen fugacities, are predicted to be stabilized in deformed sites of the olivine and Sr2PbO4 structure-types. Low-spin Cr2+ ions may also occur in the CaFe2O4 structure-type in the lower mantle. It is proposed that some chromite inclusions in forsterites from the upper mantle are formed by pressure-released oxidation of Cr2+ ions originally present in olivine or spinel modifications of Mg2SiO4.</t>
+          <t>In recent years,due to excessive emission of industrial waste,wastewater irrigation,and unreasonable utilization of fertilizers,pesticides and plastic sheeting,heavy metal pollution is increasing rapidly,resulting in many environmental problems.Silicon(Si),as the second most abundant element in the soil,can not only stimulate plant growth,but alleviate various biotic and abiotic stresses,including heavy metal stress.Here,we reviewed recent advances in the mechanisms for Si-mediated heavy metal tolerance in plants.These mechanisms included reducing active heavy metal ions in growth media,reducing heavy metal transport to the shoot,stimulating enzymatic and non-enzymatic antioxidants,chelation,compartmentation,regulation of the expression of metal transport genes,and structural changes in plants.Further research orientation is also discussed.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2767463142</t>
+          <t>https://openalex.org/W2058706419</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3892/mmr.2017.7979</t>
+          <t>https://doi.org/10.1117/12.2018530</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Shi et al. (2017)</t>
+          <t>Toth et al. (2013)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
+          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
+          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
+          <t>https://openalex.org/W1878173133</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>De et al. (2008)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008941290</t>
+          <t>https://openalex.org/W2594364600</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0883-2927(97)00093-0</t>
+          <t>https://doi.org/10.1016/j.jhg.2017.02.005</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Åström (1998)</t>
+          <t>Carey (2017)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Partitioning of transition metals in oxidised and reduced zones of sulphide-bearing fine-grained sediments</t>
+          <t>The Jacobean Grand Tour: Early Stuart Travellers in Europe, Edward Chaney and Timothy Wilks. I.B. Tauris, London (2014)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Distribution and forms of transition metals (Ti, Zn, Ni, Co, Mn, Fe, Cu, V and Cr) were investigated in oxidised, partly oxidised and reduced zones of sulphide-bearing fine-grained sediments located in the coastal areas of western Finland. Samples for the analysis and study of vertical distribution of elements were taken from each vertical 10 cm section in pits ranging in depth between 2 and 3 metres, while bulk samples for characterisation of species and forms of metals were taken from 3 zones in each pit: the acid sulphate soil (characterised by acid and oxidising conditions), transition zone (characterised by a steep pH gradient and partly oxidising conditions) and the reduced zone (pH &gt;6). The former samples were digested in aqua regia (3:1:2 HCl:HNO3:H2O), while the latter were digested in aqua regia and hot concentrated acids (HClO4–HNO3–HCl–HF) and were subjected to extractions with acid ammonium acetate, H2O2 and acid ammonium oxalate. Each leachate was analysed for metals with ICP–AES. The vertical variation in the concentrations of Ti were small at all the studied sites indicating that the sediments are homogeneous and that the total losses of other elements from the soil profiles (acid sulphate soil+transition zone) are not extensive. Field observations, extractions with ammonium oxalate, and concentration–variation patterns indicated that Fe-oxide is largely precipitated and retained also in these acid soils. There are, however, indications of redistribution of Fe within the soil profiles. The results also demonstrated that Mn, Ni, Zn, Co and Cu have been lost in considerable amounts from the acid sulphate soils. However, whereas Mn in general has been lost throughout the soil profile, part of the Zn, Ni and Co released in the acid sulphate soils have migrated downward and been reimmobilised in the transition zone immediately above the reduced zone. Also Cu has been lost from the acid sulphate soil, but generally in smaller proportions than Mn, Zn, Ni and Co. Dissolved metal sulphides seem to be major sources of the mobilised metal fractions. A main part of the V and Cr in the sediments are associated with weathering-resistant minerals. These metals are therefore, like Ti, only to a limited extent mobilised by the oxidation of the sulphide-bearing sediments.</t>
+          <t>In the context of ongoing agricultural restructuring, moves away from ‘conventional’ to ‘alternative’ farming are providing opportunities for the continued viability of small-scale agriculture in some rural communities. This article examines the history of local food politics for one such community – the Northern Rivers of New South Wales, Australia. Analysis of three food producing properties over time through oral histories and archival material points to the importance of interactions, overlaps and compromises between the alternative and conventional – importantly, we discuss the role of conventional farmers in the emergence of the Northern Rivers as a thriving local food region. We position these findings in relation to the literature on reflexive localism which problematises the local as an uncomplicated site of resistance to the global food provisioning system. This moves beyond histories of conflict between different approaches to farming which have characterised this and other communities undergoing such transitions.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2058706419</t>
+          <t>https://openalex.org/W4321360742</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2018530</t>
+          <t>https://doi.org/10.17223/22220836/47/13</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Toth et al. (2013)</t>
+          <t>Artemenko &amp; Artemenko (2022)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Coalition Warfare Program (CWP): secure policy controlled information query and dissemination over a Bices network</t>
+          <t>Visualization of the transition to metamodern: a semiotic analysis of the Esma Sultan architectural project (Istanbul)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>In 2006, the US Army Research Laboratory (ARL) and the UK Ministry of Defence (MoD) established a collaborative research alliance with academia and industry, called the International Technology Alliance (ITA) to address fundamental issues concerning Network and Information Sciences. Under the ITA research program, a US-UK transition project on "ITA Policy Controlled Information Query and Dissemination" was funded in 2011 by OSD's Coalition Warfare Program (CWP). The goal of this CWP project is to develop an extensible capability of performing distributed federated query and information dissemination across a coalition network of distributed disparate data/information sources with access­ controlled policies. The CWP project is lead by US Army Research Laboratory (ARL) and UK Defence Science Technology Laboratory (Dstl) with software development by IBM UK and IBM US. The CWP project exploits two key technology components developed within the ITA, namely the Gaian Database and integrated Access Policy Decision and Enforcement mechanisms. The Gaian Database (GaianDB) is a Dynamic Distributed Federated Database (DDFD) that addresses a need to share information among coalition members by providing a means for policy-controlled access to data across a network of heterogeneous data sources. GaianDB implements a SQL-compliant Store-Locally-Query-Anywhere (SLQA) approach providing software applications with global access to data from any node in the database network via standard SQL queries. Security policy is stored locally and enforced at the database node level, reducing potential for unauthorized data access and waste of network bandwidth. A key metric of success for a CWP project is the transition of coalition-related technology from TRL-3 or 4 to TRL-6 or higher. Thus, the end goal of this CWP project was to demonstrate the GaianDB and policy technology within an operational environment at the NATO Intelligence Fusion Centre (NIFC) at Molesworth RAF. An initial demonstration of this technology in a 'stand alone' environment was undertaken at the NIFC in November 2011 using a data set comprised of 140,000 documents. Recently the system has been modified to include a secure authentication mechanism based on a Kerberos ticketing framework and this has now been integrated onto the NIFC Battlefield Information, Collection, and Exploitation System (BICES) network. In summary, the paper discusses the CWP project; the two key technologies (i.e., Gaian Database and integrated Access Policy Decision and Enforcement mechanisms) developed within the US UK ITA research program; how these have been integrated into the NIFC BICES; and future plans for the program.</t>
+          <t>The subject of this article is a visual manifestation of the transition to metamodern architecture in the reconstruction of Esma Sultan's palace in Istanbul. Its architectural and design solution was created in the framework of the new urban paradigm of the XXI century. The project solves a whole range of tasks from the preservation of historical heritage to the creation of an attractive commercial real estate facility. The objective of the article is to conduct a semiotic analysis of the Esma Sultan architectural complex which will demonstrate the transition from the paradigm of the urban culture of postmodernism to metamodernism. Esma Sultan's semantic analysis reveals the meanings that remain not articulated in the special literature about this project. The method of historical retrospection is applied to the analysis of the object. This made it possible to assess the general trends in the production of urban space at the early the twenty-first century. A comparison of Esma Sultan's palace to the projects that are close in style and overall design showed the prospect of creating a modern mental image of the city. The authors concluded that the semiotic system of this architectural object is focused on the presentation of a multi-level semantic space. The loft-style palace not only organizes space, but creates a lifestyle with its egocentric hedonistic notes. The article proves that the reconstruction of Esma Sultan declares a new style of life and a type of urban culture in which spatiality becomes an expression of a multi-layered meaning. Rebuilding is not the same as reconstruction because its goal is not to return the past in the image of the building but to “hang” between experiencing the past and its awareness in the present. Thus, the Esma Sultan project became an example of a generalization of paradigm shifts in human perceptions of the 1990s - 2000s and a demonstration of the transition to the sociocultural situation of metamodern. We see how metamodern eliminates the very principle of dichotomy of choice, evaluation and functionality. The technological leap of the beginning of the 21st century, the changing nature of sociocultural practices, the abandonment of the policy of multiculturalism (the practice of social collage) influenced the formation of a new understanding of the problem of meanings manifested through spatiality, contingency and contextuality of any phenomenon.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2732408955</t>
+          <t>https://openalex.org/W3037457611</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2495/cc170061</t>
+          <t>https://doi.org/10.1108/s2055-364120200000022005</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Loeper &amp; Ott (2017)</t>
+          <t>Fraser et al. (2020)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>WATER CITY ROTTERDAM 2035</t>
+          <t>Moving Culture to the Center of the Curriculum: A Strategy for Regional Relevance and Organization Sustainability</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>New land was constructed in the North Sea to modernize and extend the Port of Rotterdam: Maasvlakte 2. This new artificial island of 1000 hectares shifts the harbor activities of one of the biggest harbors worldwide further to the west, and enables the reconstruction of the former harbor and the development of new urban areas of the city of Rotterdam.The strategic focus of the urban development plan is to use the transformation to develop a "Clean Tech City" on the water: Water City Rotterdam 2035.This case study analyses the historical transformation processes of the city of Rotterdam to give insight into the relation of the harbor with the landscape and the city.A comparative study analyses the newly developed strategic design instruments of the four different areas (Merwe-Vier harbors, Rijn-Maas harbors, Waal-Eem harbors and RDM-Heijplaat) to conclude whether or not these tools are adequate to transform the areas sustainable.The developed design instruments are tested in three different designs to critically reflect on the conclusion.</t>
+          <t>When two regional institutes of technology merged in 2016, it created a singular opportunity for disruption to business-as-usual and for organizational transformation. The new entity’s strategic intent is to be regionally relevant, learner-centric, sustainable, and innovative in delivery. Overarching all these considerations is an emphasis on relationships with our community, and demonstrating leadership in the re-positioning of culture at the heart of everything we do. Aotearoa New Zealand is a nation that prides itself on our dual heritage (Māori and European), and the way in which this is reflected in all public sectors in a commitment to a contemporary, bi-cultural framework. The core principles of partnership, protection and participation (Ministry of Justice, 2016) are the means by which legislation, public policies, and curriculum development should be judged. Yet Māori educational achievement lags behind that of non-Māori by 9.5% in degree completions (Marriott &amp; Sim, 2014). Boosting achievement of Māori is a key government priority (Tertiary Education Commission, 2016) and organizational imperative.This chapter describes our cultural milieu and institutional vision, discusses the ways in which core values from Māori culture have informed curriculum development, and offers a pathway toward organizational sustainability. We outline how these different ways of thinking are being communicated to our students, staff, partners, and stakeholders, and how we expect to add value to the learning experience, and relevance to our own society and the wider global community. We emphasize that leadership and strategies directed toward sustainability, must and should begin with an understanding of organizational cultural identity - who we are, where we stand, and what we stand for.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285412215</t>
+          <t>https://openalex.org/W4396856514</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.rechem.2022.100440</t>
+          <t>https://doi.org/10.1016/j.ijbiomac.2024.132376</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Delhomme et al. (2022)</t>
+          <t>Chen et al. (2024)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Effect of hemp on cement hydration: Experimental characterization of the interfacial transition zone</t>
+          <t>3D printed VEGF-CPO biomaterial scaffold to promote subcutaneous vascularization and survival of transplanted islets for the treatment of diabetes</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Hempcrete is low carbon footprint building material, which consists in a mix of a cement and/or lime binder and vegetal particles (shiv). Its high porosity and low density give it good insulation, hygrothermal and acoustic properties. On the other hand, the mechanical strength of hempcrete is very poor, which limited its used like a filling material in a load bearing structure. Its limits mechanical properties are due, among other things, to an Interfacial Transition Zone (ITZ) around the shiv, which is not hydrated like the rest of the matrix. The identification of the size and the characteristics of this ITZ is a key parameter to improve the mechanical properties of these kind of bio-based material. A new experimental test protocol, based on image analysis, was developed to achieve repetitive and robust visual observations of the formation of the ITZ. The high-water absorption and the leaching of shiv are the main parameters, which drive the shape and strength of the ITZ. A microstructural characterization was also conducted to understand the nature and origin of this less hydrated zone around the hemp. This experimental protocol will allow to determine the mix parameters that impact ITZ development and select the most appropriate binder/vegetal fiber couple to use.</t>
+          <t>Diabetes is a complex metabolic disease and islet transplantation is a promising approach for the treatment of diabetes. Unfortunately, the transplanted islets at the subcutaneous site are also affected by various adverse factors such as poor vascularization and hypoxia. In this study, we utilize biocompatible copolymers l-lactide and D,l-lactide to manufacture a biomaterial scaffold with a mesh-like structure via 3D printing technology, providing a material foundation for encapsulating pancreatic islet cells. The scaffold maintains the sustained release of vascular endothelial growth factor (VEGF) and a slow release of oxygen from calcium peroxide (CPO), thereby regulating the microenvironment for islet survival. This helps to improve insufficient subcutaneous vascularization and reduce islet death due to hypoxia post-transplantation. By pre-implanting VEGF-CPO scaffolds subcutaneously into diabetic rats, a sufficiently vascularized site is formed, thereby ensuring early survival of transplanted islets. In a word, the VEGF-CPO scaffold shows good biocompatibility both in vitro and in vivo, avoids the adverse effects on the implanted islets, and displays promising clinical transformation prospects.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1878173133</t>
+          <t>https://openalex.org/W2531777714</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.0812.3778</t>
+          <t>https://doi.org/10.1596/978-1-4648-0838-8_ch8</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>De et al. (2008)</t>
+          <t>Morris (2016)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Transition from mode-locked periodic orbit to chaos in a 2D piecewise smooth non-invertible map</t>
+          <t>Sediment Management at Run-of-River Headworks</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>In this work we report a new route to chaos from a resonance torus in a piecewise smooth non-invertible map of the plane into itself. The closed invariant curve defining the resonance torus is formed by the union of unstable manifolds of saddle cycle and the points of stable cycle and saddle cycle. We have found that a cusp torus cannot develop before the onset of chaos, though the loop torus appears. The destruction of the two-dimensional torus occurs through homoclinic bifurcation in the presence of an infinite number of loops on the invariant curve. We show that owing to the non-invertible nature of the map, the structure of the basin of attraction changes from simply connected to a nonconnected one. We also describe how the mechanism of transition to chaos differs from the scenario of appearance of chaos in invertible maps as well as in smooth non-invertible maps.</t>
+          <t>No AccessOct 2016Sediment Management at Run-of-River HeadworksAuthors/Editors: Gregory L. MorrisGregory L. MorrisSearch for more papers by this authorhttps://doi.org/10.1596/978-1-4648-0838-8_ch8AboutView ChaptersFull TextPDF (2.5 MB) ToolsAdd to favoritesDownload CitationsTrack Citations ShareFacebookTwitterLinked In Abstract: Outlines basic concepts to consider in the design or rehabilitation of run-of-river (ROR) headworks to improve their function, including (1) basic headworks components, (2) fluvial morphology and site selection, (3) types of intakes, (4) flow control and conveyance, (5) sediment removal from diverted water, and (6) sediment-guided operation and monitoring. As existing storage reservoirs fill with sediment, they may transition from storage to ROR operation, a change which normally requires reconfiguration of the dam, intake, and operating rule to allow power production to continue even after the delta with its load of coarse sediment has reached the dam. These concepts also prove relevant to tall dams designed from the onset to shift from impounding to ROR after a period of decades when the delta reaches the intake, as well as to the redesign of storage reservoirs that will see conversion to sustainable ROR operation when their storage volume proves lost to sedimentation. ReferencesASCE (American Society of Civil Engineers). 1995. Guidelines for Design of Intakes for Hydroelectric Plants. New York: American Society of Civil Engineers. Google ScholarAthar, M, U C Kothyari, and R J Garde. 2002. “Sediment Removal Efficiency of Vortex Chamber Type Sediment Extractor.” Journal of Hydraulic Engineering 128 (12): 1051–59. CrossrefGoogle ScholarBouvard, Maurice. 1992. Mobile Barrages and Intakes on Sediment Transporting Rivers. Rotterdam: A.A. Balkema. Google ScholarLi, Yunjie. 2009. “Development of Design Basis for Hydrodynamic Vortex Separators.” Rutgers, The State University of New Jersey, New Brunswick, NJ. Google ScholarNozaki, Tsuguo. 1990. “Estimation of Repair Cycle of Turbine Due to Abrasion Caused by Suspended Sand and Determination of Desilting Basin Capacity.” Japan International Cooperation Agency, Lima, Peru. Google ScholarPradhan, Pratik Man Singh. 2004. Improving Sediment Handling in the Himalayas. Nepal: OSH Research. Google ScholarRosgen, D L 1994. “A Classification of Natural Rivers.” CATENA 22 169–99. CrossrefGoogle ScholarRosgen, D L 1996. Applied River Morphology. Pagosa Springs, CO: Wildland Hydrology Books. Google Scholar Previous chapterNext chapter FiguresreferencesRecommendeddetails View Published: October 2016ISBN: 978-1-4648-0838-8e-ISBN: 978-1-4648-0837-1 Copyright &amp; Permissions Related TopicsWater Resources KeywordsCLEAN WATERCONSERVATIONDAMSDOWNSTREAM REGIONSHYDROLOGICAL MODELINGHYDROPOWERRESERVOIRSRIVERS AND STREAMSSEDIMENTATION PDF DownloadLoading ...</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200409676</t>
+          <t>https://openalex.org/W2972553640</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20535/2218-930032021247159</t>
+          <t>https://doi.org/10.1371/journal.pone.0222161</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Litynska et al. (2021)</t>
+          <t>Kang et al. (2019)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PROBLEM OF ANTIBIOTICS IN NATURAL WATER: A REVIEW</t>
+          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>The paper is devoted for influence of antibiotics contamination of natural water on environment, aquatic biosystems and public health and possible solutions of this problem. Untreated or ineffectively treated wastewater is a source of different pathogenic microorganisms and toxic chemicals, including organic and inorganic compounds. A lot of organic contaminants are genotoxic, provoke endocrine disruption and have immune toxicity. In modern world people use a lot of diverse antibiotics for the treatment of various bacterial infections, but antibiotic overuse and insufficient removal by wastewater treatment plants are resulted in accumulation and biotransformation of these compounds in aquatic environment. Antibiotics are pollutants which are very harmful for environment. They cause reduction in microbial biodiversity, including bacterial communities with important ecological functions. It provokes changes in water and soil properties, including pH, nutrients content, soil moisture and many others. Low concentrations of antibiotics cause an occurrence of pathogenic microorganisms which are resistant to antibiotics. It has very negative influence on public health due to increasing of health risk and complication of a medication. Antibiotic type, water and sediment compositions, pH, organic matter, specific surface area and temperature and insolation level have very big influence on distribution and behavior of antibiotics in natural water-sediment systems. Many antibiotics are biodegradable; they are transformed in human organism or by aquatic ecosystem (various plants, algae, bacteria, fungi, etc.). But some antibiotics, including ciprofloxacin, are very stable. These persistent organics are dramatically more harmful for ecosystem stability. In case of ciprofloxacin antibiotics in surface water direct photolysis causes formation of organic compounds, which are more toxic and less photolabile than initial antibiotics. So, the toxicity of pollutants increases synergistically and it cannot be ignored. Nowadays antibiotics removal is very important in drinking water and wastewater treatment due to significant environment and health effects of these pollutants. There are a lot of approaches in antibiotic removal from water, including adsorption, nanofiltration, advanced oxidation processes, etc. All these methods have some advantages and disadvantages. Catalytic photodegradation is one of the most popular methods of antibiotic removal. This process is simple, highly effective and makes possible transformation of antibiotics into components with lower toxicity and environmental impact. Also photocatalysis do not produce a lot of wastes unlike coagulation (sludge) or nanofiltration (concentrate).</t>
+          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3196265168</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-030-85616-8_2</t>
+          <t>https://openalex.org/W3007585060</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Singh &amp; Eden (2021)</t>
+          <t>Ok et al. (2020)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hanging Out Online: Social Life During the Pandemic</t>
+          <t>Pulsed-laser epitaxy of metallic delafossite PdCrO$_2$ films</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>In March 2020, the government of India ordered a nationwide lockdown to prevent the spread of Covid-19. This led to the shutdown of educational institutes throughout the country, restricting all activities to online mediums. The shift has affected how students engage with each other, where rather than in-person interaction, they meet through a variety of online tools. In this paper, we discuss how the normal everyday routine of 'hanging out' with friends has been transformed during a prolonged lockdown of over ten months and counting. We investigate the opportunities and challenges students encounter when socializing online through various online modes including video calls, communal movie watching and social media. We discuss how social interaction; in particular, hanging out with friends has been transformed through these technologies and its implications for facilitating spontaneous interaction, negotiating intimacy, mutual understanding, and accessibility to different social groups. Finally, we conclude with a discussion of how these factors impact the transition from in-person to online modes of casual social interaction.</t>
+          <t>Alternate stacking of a highly conducting metallic layer with a magnetic triangular layer found in delafossite PdCrO2 provides an excellent platform for discovering intriguing correlated quantum phenomena. Thin film growth of the material may enable not only tuning the basic physical properties beyond what bulk materials can exhibit, but also developing novel hybrid materials by interfacing with dissimilar materials, yet this has proven to be extremely challenging. Here, we report the epitaxial growth of metallic delafossite PdCrO2 films by pulsed laser epitaxy (PLE). The fundamental role of the PLE growth conditions, epitaxial strain, and chemical and structural characteristics of the substrate is investigated by growing under various growth conditions and on various types of substrates. While strain plays a large role in improving the crystallinities, the direct growth of epitaxial PdCrO2 films without impurity phases was not successful. We attribute this difficulty to both the chemical and structural dissimilarities between the substrates and volatile nature of PdO layer, which make nucleation of the right phase difficult. This difficulty was overcome by growing CuCrO2 buffer layers before PdCrO2 were grown. Unlike PdCrO2, CuCrO2 films were rather readily grown with a relatively wide growth window. Only monolayer thick buffer layer was sufficient to grow the correct PdCrO2 phase. This result indicates that the epitaxy of Pd-based delafossites is extremely sensitive to the chemistry and structure of the interface, necessitating near perfect substrate materials. The resulting films are commensurately strained and show an antiferromagnetic transition at 40 K that persists down to as thin as 3.6 nm in thickness.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969258591</t>
+          <t>https://openalex.org/W4292304407</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1379513</t>
+          <t>https://doi.org/10.2139/ssrn.4191227</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Beatley (1976)</t>
+          <t>Mikayilov et al. (2022)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Environments of Kangaroo Rats (Dipodomys) and Effects of Environmental Change on Populations in Southern Nevada</t>
+          <t>Energy Price Reform to Mitigate Transportation Carbon Emissions in Oil-Rich Economies</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Climates and plant components of environments of the heteromyid rodents Dipodomys merriami, D. microps, and D. deserti are characterized and compared on sites over 2600 square kilometers in central-southern Nevada. Sites compared are those with the 20 highest-density populations each of D. merriami and D. microps, and all sites with D. deserti, from among 58 undisturbed communities where rodent numbers were established by five consecutive years of censusing. The study areas were in eight drainage basins of the Nevada Test Site, at elevations of 915 to 1850 meters (m), and included Mojave, Great Basin, and transition desert systems. Other parameters measured on each site, and compared for the site groups, are rainfall, maximum and minimum air temperatures, and various parameters for all plant components of the systems. Plant data were collected seasonally with the rodent data, whereas the climatic data were for 10 years. Distributions of D. merriami and D. deserti were correlated with the low shrub cover and low mean precipitation/mean temperature (P/T) ratios of the Mojave Desert Larrea communities. Distributions and higher densities of D. microps were closely correlated with the high shrub cover and high P /T ratios of the Coleogyne and Grayia-Lycium communities of the transition, and Artemisia of the Great Basin Desert. On the compared sites either D. merriami or D. microps usually occurred to the near exclusion of the other, and none of the plant parameters other than percentage shrub cover distinguished the two rodent environments. Restriction of D. microps to environments with high mean rainfall supports recent physiological evidence by others that this species may have the highest bodywater turnover rate and lowest urine-concentrating ability in the genus. On nine other sites shrub cover had been destroyed (and surface soils modified) by nuclear detonations, fire, or blading prior to the measurements period. Three of the sites were in declining ionizing-radiation fields. Regardless of nature of origin of the disturbance, there was a rapid and usually nearly complete replacement of D. microps by large D. merriami populations following the disturbance. The only change in plant parameters consistent among the sites was the large reduction in shrub cover. Occupancy of these sites by D. merriami was in accord with its ability to live with low shrub cover. Disappearance of D. microps was evidently related to its corresponding requirement of high shrub cover, suggesting a vulnerability to elimination by predators where there are few or no shrubs in the environment.</t>
+          <t>We investigate the impact of domestic fuel prices, and other drivers, including population and economic activity on transport CO2 emissions using Saudi Arabia as a case study. We find statistically significant long-run relationships between the studied variables. Despite the low responsiveness of transport CO2 emissions to fuel price, with estimated elasticity values ranging from -0.1 to -0.15, the study concluded that the Saudi government’s current strategy to reduce fuel incentives is relevant and timely. Forecast findings for a 2030 scenario with greater economic activity ambitions and a further increase in domestic fuel prices to match real market costs resulted in a 1.8 percent reduction in annual transport CO2 emissions from 2021 to 2030 compared to a constant fuel price scenario. The findings hold significance not only for Saudi Arabia but also for other oil-rich economies attempting to facilitate the transition to a more sustainable transportation future.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2972553640</t>
+          <t>https://openalex.org/W1963998078</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0222161</t>
+          <t>https://doi.org/10.1046/j.1365-2656.1999.00337.x</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Kang et al. (2019)</t>
+          <t>Clark &amp; Johnston (1999)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
+          <t>Scaling of metabolic rate with body mass and temperature in teleost fish</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
+          <t>Summary 1. We examined published studies relating resting oxygen consumption to body mass and temperature in post‐larval teleost fish. The resulting database comprised 138 studies of 69 species (representing 28 families and 12 orders) living over a temperature range of c. 40 °C. 2. Resting metabolic rate ( R b ; mmol oxygen gas h –1 ) was related to body mass ( M; wet mass, g) by R b = a M b , where a is a constant and b the scaling exponent. The model was fitted by least squares linear regression after logarithmic transformation of both variables. The mean value of scaling exponent, b, for the 69 individual species was 0·79 (SE 0·11). The general equation for all teleost fish was 1n R b = 0·80(1nM) – 5·43. 3. The relationship between resting oxygen consumption and environmental temperature for a 50‐g fish was curvilinear. A typical tropical fish at 30°C requires approximately six times as much oxygen for resting metabolism as does a polar fish at 0°C. This relationship could be fitted by several statistical models, of which the Arrhenius model is probably the most appropriate. The Arrhenius model for the resting metabolism of 69 species of teleost fish, corrected to a standard body mass of 50 g, was 1n R b = 15·7 – 5·02. T –1 , where T is absolute temperature (10 3 × K). 4. The Arrhenius model fitted to all 69 species exhibited a lower thermal sensitivity of resting metabolism (mean Q 10 = 1·83 over the range 0–30 °C) than typical within‐species acclimation studies (median Q 10 = 2·40, n = 14). This suggests that evolutionary adaptation has reduced the overall thermal sensitivity of resting metabolism across species. Analysis of covariance indicated that the relationships between resting metabolic rate and temperature for various taxa (orders) showed similar slopes but significantly different mean rates. 5. Analysis of the data for perciform fish provided no support for metabolic cold adaptation (the hypothesis that polar fish show a resting metabolic rate higher than predicted from the overall rate/temperature relationship established for temperate and tropical species). 6. Taxonomic variation in mean resting metabolic rate showed no relationship to phylogeny, although the robustness of this conclusion is constrained by our limited knowledge of fish evolutionary history.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009334730</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/gyr.2013.0009</t>
+          <t>https://openalex.org/W3190246553</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Lande (2013)</t>
+          <t>Pérez (2006)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
+          <t>La evolución del uso del territorio en Galicia</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
+          <t>espanolEn el territorio gallego (NO de Espana) nosencontramos con un paisaje netamente forestal,comparable al de otros paises europeos de amplia tradicionforestal. Este aspecto se corrobora con los datos aportadospor las actuales estadisticas forestales, que indican que lasdos terceras partes del territorio gallego es forestal, siendoel 50% de esta superficie, arbolada y aportando la mitad dela madera cortada anualmente en Espana. Esta situacion esel resultado de profundos cambios acaecidos en el mediorural gallego a lo largo de los ultimos 50 anos, las actualessuperficies forestales albergaban entonces extensoscampos de cereal y pasto para diferentes tipos de cabanasganaderas. Se analizan las transformaciones acaecidas a lolargo de los siglos XIX y XX determinando las claves quehan originado la desaparicion del aprovechamientoagroganadero del monte, relacionado con aspectossocioeconomicos, y el surgimiento de la actividad forestalcomo consecuencia directa de la crisis de los anterioressectores, mas que como una apuesta decidida por esta parala dinamizacion economica del medio rural. Se lleva a caboun trabajo prospectivo en el que se apuntan las lineasestrategicas que la actividad forestal en Galicia debe seguirpara asentarse definitivamente como actividad economicaeficiente. EnglishIn the Galician territory (NW of Spain) we werewith a forest, net comparable landscape to the one of otherEuropean countries of ample forest tradition. This aspect iscorroborated with the data contributed by the present foreststatistics, that they indicate that the two third parts of theGalician territory are forest, being 50% of this surface,hoisted and contributing half of the wood cut annually inSpain. This situation is the result of deep changes happenedin Galician rural means throughout last the 50 years, thepresent forest surfaces lodged then extensive fields ofcereal and grass for different types from cattle cabins. Thetransformations happened throughout centuries XIX and XXare analyzed more determining the keys that haveoriginated the disappearance of the agricultural advantageof the mount, related to socioeconomic aspects, and thesprouting of the forest activity like direct consequence of thecrisis of the previous sectors, than like a bet decided by thisone for the economic to vitalize of rural means. Aprospecting work is carried out in which the strategic linesscore that the forest activity in Galicia must follow to bebased definitively like efficient economic activit</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387567255</t>
+          <t>https://openalex.org/W1015064229</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9781003288343-6</t>
+          <t>https://doi.org/10.1016/b978-0-444-89083-2.50043-0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hampel et al. (2023)</t>
+          <t>Claassen (1991)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sustainable Development of Solar Power for the European Transition to Renewable Energy</t>
+          <t>German Monetary Union</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>“Kommt die DM, bleiben wir. Kommt sie nicht, gehen wir zu ihr.” Slogan in Leipzig and East-Berlin in early 1990. In this note I discuss alternative paths for monetary stabilization in the transition from centrally planned to market economies. The path chosen by East Germany is used to illustrate the alternatives. I distinguish between monetary stabilization and price liberalization associated with restoration of a system of relative prices. These processes are in principle separable although, for reasons discussed, inflationary pressures may arise as a result of price liberalization.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4292304407</t>
+          <t>https://openalex.org/W4392589608</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4191227</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-5280</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Mikayilov et al. (2022)</t>
+          <t>Snoll et al. (2024)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Energy Price Reform to Mitigate Transportation Carbon Emissions in Oil-Rich Economies</t>
+          <t>Sensitivity of millennial-scale climate oscillations to boundary conditions in HadCM3 glacial simulations</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>We investigate the impact of domestic fuel prices, and other drivers, including population and economic activity on transport CO2 emissions using Saudi Arabia as a case study. We find statistically significant long-run relationships between the studied variables. Despite the low responsiveness of transport CO2 emissions to fuel price, with estimated elasticity values ranging from -0.1 to -0.15, the study concluded that the Saudi government’s current strategy to reduce fuel incentives is relevant and timely. Forecast findings for a 2030 scenario with greater economic activity ambitions and a further increase in domestic fuel prices to match real market costs resulted in a 1.8 percent reduction in annual transport CO2 emissions from 2021 to 2030 compared to a constant fuel price scenario. The findings hold significance not only for Saudi Arabia but also for other oil-rich economies attempting to facilitate the transition to a more sustainable transportation future.</t>
+          <t>Rom&amp;amp;#233; et al. (2022) present a new set of long-run Last Glacial Maximum experiments with millennial-scale climate oscillations between cold and warm modes. These oscillations are triggered by different snapshots of ice-sheet meltwater derived from the early stages of the last deglaciation. The overall characteristics of the oscillating events share similarities with &amp;amp;#948;18O records of the last glacial period. We test the robustness of these oscillations under different climate conditions, i.e., changes in atmospheric carbon dioxide concentration and orbital configuration. These experiments were run with intentions to better understand the range of conditions the oscillations can be sustained within the model and provide additional insight into the triggering mechanisms that control abrupt climate changes. The results of our sensitivity analysis show that small changes in carbon dioxide concentrations can impact the periodicity and existence of oscillations. A decrease in carbon dioxide concentration decreases periodicity, and an increase in carbon dioxide concentration increases periodicity, leading to an end of the oscillations. Our results also show that for changes in orbital configuration, an increase in Northern Hemisphere summer insolation decreases periodicity and potentially also amplitude. The results show that small changes in climate conditions can impact the shape and existence of oscillations and how this could relate to the changing periodicity and amplitude of observed Dansgaard-Oeschger events as well as transitions from glacial to interglacial states.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2474609532</t>
+          <t>https://openalex.org/W2777436313</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/acrefore/9780199340378.013.114</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Azizi et al. (2013)</t>
+          <t>North (2017)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Natural course of thyroid disease profile in a population in nutrition transition: Tehran Thyroid Study.</t>
+          <t>The Religious History of the Roman Empire</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>There is a lack of data regarding the incidence rate, etiology, risk factors, and natural course of thyroid disorders and their relationship with cardiovascular disease and mortality in populations undergoing nutrition transition. Therefore, we aimed to assess the natural course of thyroid disease in Tehranians, a population in nutrition transition.Between March 1997 and December 2004, 5769 individuals, aged ≥ 20 years, were selected from district No.13 of Tehran and followed up every three years. Data on risk factors for cardiovascular disease such as diabetes, hyperlipidemia, smoking, obesity, hypertension, low levels of physical activity, and dietary habits were obtained at baseline and again every three years. Cardiovascular and mortality outcomes were assessed in detail.The results of this study will provide a better recognition regarding the incidence and risk factors of thyroid disorders and their relationship with cardiovascular outcomes and mortality in a community in nutrition transition.</t>
+          <t>Historians of antiquity used to argue that, from the 6th century &lt;sc&gt;bce&lt;/sc&gt; onwards, the religious traditions of Greek and Roman pagans became an empty shell maintained by elites who no longer had any belief in them except as a device for keeping the masses subservient. In recent decades this theory, always highly speculative and over-dependent on the views of ancient philosophers, has been largely abandoned. In fact, down to the 2nd, even the 3rd century &lt;sc&gt;ce&lt;/sc&gt;, pagan worship still seems to have been an important element in the way cities and communities of the Roman Empire worked, sustaining the power of ruling elites, but also defining the way individuals expressed their private concerns and problems. For the overwhelming majority, the old deities kept their hold, and there is a strong tradition of dedications, in fulfillment of vows to gods and goddesses, that bears witness to a continued tradition of individual piety. At the same time, although the Empire was successful from the 1st century &lt;sc&gt;bce&lt;/sc&gt; onwards in maintaining widespread order and prosperity, the nature of city life was changing in fundamental respects. With stability came a high degree of mobility, and cities of both East and West came to find themselves with religious groups living in tense proximity, first of Jews, then of Christians, Manichaeans, and others. To those with a taste for broad generalizations, it has been appealing to interpret these developments as a great conflict between polytheism and monotheism, some rating monotheism as so superior that it could be treated as an inevitable step up in the evolutionary progression of the human race. Paganism was therefore doomed in advance. What is certain is that pagan religion and its many deities became the target of a concentrated attack by the Christian Fathers; but that alone can hardly explain why traditional worship lost its appeal to so many of its adherents in quite a short period of the 4th century &lt;sc&gt;ce&lt;/sc&gt;: pagans suddenly began to abandon age-old practices and join new cults that they had once despised. Efforts at resistance to Christianity, in particular, once thought very important, prove to have been evanescent at best in the light of recent research. To find a new understanding of these very profound changes in religious history, analysis is needed: first, what were the fundamental differences between pagan traditionalism and the competing religions, and, second, how did relations between religious groups change over time. Answers cannot lie in studying only Christians, or only Jews, or only pagans, as is still too often the practice, but rather in the nature of their interactions with one another. The kind of religious competition for members that characterized this situation was quite a new phenomenon to the great majority of the inhabitants of the Empire. They were not accustomed to dealing with competing religious groups each with their own ideas and doctrines. Pagan deities had always needed to attract worshippers to their sanctuaries; but they were defined by myths, rituals, and the functions they performed, not by having distinct theologies or creeds. It was the coming of competition and conflict that radically changed the religious landscape and generated new elements in religious life. Meanwhile, once the Emperors had adopted Christianity, paganism, which had always been involved in the exercise of central power, retreated to the margins.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040919102</t>
+          <t>https://openalex.org/W4206910244</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1074/jbc.m403212200</t>
+          <t>https://doi.org/10.1016/s1872-5813(21)00007-4</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pangas et al. (2004)</t>
+          <t>NA (2021)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Growth Differentiation Factor 9 Regulates Expression of the Bone Morphogenetic Protein Antagonist Gremlin</t>
+          <t>Erratum regarding missing conflict of Interest statements in previously published articles</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. Growth differentiation factor 9 (GDF9) is an oocyte-expressed member of the transforming growth factor β (TGF-β) superfamily and is required for normal ovarian follicle development and female fertility. GDF9 acts as a paracrine factor and affects granulosa cell physiology. Only a few genes regulated by GDF9 are known. Our microarray analysis has identified gremlin as one of the genes up-regulated by GDF9 in cultures of granulosa cells. Gremlin is a known member of the DAN family of bone morphogenetic protein (BMP) antagonists, but its expression and function in the ovary are unknown. We have investigated the regulation of gremlin in mouse granulosa cells by GDF9 as well as other members of the TGF-β superfamily. GDF9 and BMP4 induce gremlin, but TGF-β does not. In addition, in cultures of granulosa cells, gremlin negatively regulates BMP4 signaling but not GDF9 activity. The expression of gremlin in the ovary was also examined by in situ hybridization. A distinct change in gremlin mRNA compartmentalization occurs during follicle development and ovulation, indicating a highly regulated expression pattern during folliculogenesis. We propose that gremlin modulates the cross-talk between GDF9 and BMP signaling that is necessary during follicle development because both ligands use components of the same signaling pathway. The bone morphogenetic proteins (BMPs) 1The abbreviations used are: BMP, bone morphogenetic protein; GDF, growth differentiation factor; TFG-β, transforming growth factor β; MOPS, 4-morpholinepropanesulfonic acid-formaldehyde; PGE2, prostaglandin E2; PMSG, pregnant mare serum gonadotropin; FBS, fetal bovine serum; RT, reverse transcription; hCG, human chorionic gonadotropin. and growth differentiation factors (GDFs) constitute the largest subgroup of the TGF-β superfamily of secreted growth factors (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar). Many of the ligands are expressed throughout embryogenesis as well as in adult tissues, reflecting the diversity of their biological activities. BMPs were first characterized as growth factors that cause de novo bone synthesis in non-skeletal sites (2Urist M.R. Science. 1965; 150: 893-899Google Scholar, 3Wozney J.M. Eur. J. Oral Sci. 1998; 106: 160-166Google Scholar). Subsequent work has demonstrated that they are multifunctional proteins involved in mesoderm formation, limb development, branching morphogenesis, germ cell development, cardiac development, and female fertility, among other functions (1Chang H. Brown C.W. Matzuk M.M. Endocr. Rev. 2002; 23: 787-823Google Scholar, 4Hogan B.L. Genes Dev. 1996; 10: 1580-1594Google Scholar). BMPs are secreted dimeric proteins that bind to membrane-bound receptor serine-threonine kinases (5Shi Y. Massague J. Cell. 2003; 113: 685-700Google Scholar). The type I and type II receptors, in turn, phosphorylate cytoplasmic SMAD proteins that act as transcription factors to regulated down-stream target genes (6Attisano L. Wrana J.L. Curr. Opin. Cell Biol. 2000; 12: 235-243Google Scholar). GDF9 is a TGF-β-related protein necessary for female fertility (7Dong J. Albertini D.F. Nishimori K. Kumar T.R. Lu N. Matzuk M.M. Nature. 1996; 383: 531-535Google Scholar, 8Elvin J.A. Yan C. Wang P. Nishimori K. Matzuk M.M. Mol. Endocrinol. 1999; 13: 1018-1034Google Scholar). Although Gdf9 knock-out mice arrest at the primary follicle stage, in vitro studies have shown that GDF9 signaling is also critical during ovulation. During ovulation, GDF9 induces cumulus cell expansion, an inflammation-like process that involves the mucification of the cells surrounding the oocyte. This process bind</t>
+          <t>The Declaration of Competing Interest statements were not included in the published version of articles that appeared in the previous issues of Journal of Fuel Chemistry and Technology.The appropriate Declaration/Competing Interest Statements, provided by the Authors, are included below.1Experimental and theoretical investigation on relationship between structures of coal ash and its fusibility for Al2O3-SiO2-CaO-FeO systemhttps://doi.org/10.1016/S1872-5813(19)30028-3Declaration of Competing Interest: The authors declare no conflict of interest.2Organic nitrogen promotes stability of metallic catalysts in conversion of bamboo pulp to low carbon polyolshttps://doi.org/10.1016/S1872-5813(19)30029-5Declaration of Competing Interest: The authors declare no conflict of interest.3Density functional study of water gas shift reaction catalyzed by Cu-Pt-Au ternary alloyhttps://doi.org/10.1016/S1872-5813(19)30030-1Declaration of Competing Interest: The authors declare no conflict of interest.4Direct synthesis of ethanol via CO2 hydrogenation over the Co/La-Ga-O composite oxide catalysthttps://doi.org/10.1016/S1872-5813(19)30031-3Declaration of Competing Interest: The authors declare no conflict of interest.5Effects of modified SiO2 on H2 and CO adsorption and hydrogenation of iron-based catalystshttps://doi.org/10.1016/S1872-5813(19)30033-7Declaration of Competing Interest: The authors declare no conflict of interest.6Selective oxidation of methanol to methyl formate over bimetallic Au-Pd nanoparticles supported on SiO2https://doi.org/10.1016/S1872-5813(19)30034-9Declaration of Competing Interest: The authors declare no conflict of interest.7Hydrogen production from methanol steam reforming over B-modified CuZnAlOx catalystshttps://doi.org/10.1016/S1872-5813(19)30035-0Declaration of Competing Interest: The authors declare no conflict of interest.8Facile constructing plasmonic Z-scheme Au NPs/g-C3N4/BiOBr for enhanced visible light photocatalytic activityhttps://doi.org/10.1016/S1872-5813(19)30036-2Declaration of Competing Interest: The authors declare no conflict of interest.9MoO3-SnO2 catalyst prepared by hydrothermal synthesis method for dimethyl ether catalytic oxidationhttps://doi.org/10.1016/S1872-5813(19)30038-6Declaration of Competing Interest: The authors declare no conflict of interest.10Highly coke-resistant ordered mesoporous Ni/SiC with large surface areas in CO2 reforming of CH4https://doi.org/10.1016/S1872-5813(19)30039-8Declaration of Competing Interest: The authors declare no conflict of interest.11Preparation of layered K-Fe-Zn-Ti catalyst and its performance in the hydrogenation of carbon dioxide to light olefinshttps://doi.org/10.1016/S1872-5813(19)30040-4Declaration of Competing Interest: The authors declare no conflict of interest.12Effect of ZSM-5 acid modification on aromatization performance of methanolhttps://doi.org/10.1016/S1872-5813(19)30041-6Declaration of Competing Interest: The authors declare no conflict of interest.13Catalytic performance of NiMo/Al2O3-USY in the hydrocracking of low-temperature coal tarhttps://doi.org/10.1016/S1872-5813(19)30043-XDeclaration of Competing Interest: The authors declare no conflict of interest.14Microwave-assisted catalytic oxidative desulfurization of gasoil fuel using synthesized CuO-ZnO nanocompositeshttps://doi.org/10.1016/S1872-5813(19)30044-1Declaration of Competing Interest: The authors declare no conflict of interest.15In-situ electrodeposited flower-like NiFeOxHy/rGO on nickel foam for oxygen evolution reactionhttps://doi.org/10.1016/S1872-5813(19)30045-3Declaration of Competing Interest: The authors declare no conflict of interest.16Effect of Nd-incorporation and K-modification on catalytic performance of Co3O4 for N2O decompositionhttps://doi.org/10.1016/S1872-5813(19)30046-5Declaration of Competing Interest: The authors declare no conflict of interest.17Study on catalytic performance of Ni-Co-P amorphous alloy for HDO of vanillinhttps://doi.org/10.1016/S1872-5813(19)30047-7Declaration of Competing Interest: The authors declare no conflict of interest.18Effect of additive on CuO-ZnO/SBA-15 catalytic performance of CO2 hydrogenation to methanolhttps://doi.org/10.1016/S1872-5813(19)30048-9Declaration of Competing Interest: The authors declare no conflict of interest.19Effect of NaOH content in the synthesis gel on the catalytic performance of H-ZSM-5 zeolites in the gas phase carbonylation of dimethoxymethanehttps://doi.org/10.1016/S1872-5813(19)30049-0Declaration of Competing Interest: The authors declare no conflict of interest.20Pd/Al2O3 catalysts modified with Mg for catalytic combustion of methane: Effect of Mg/Al mole ratios on the supports and active PdOx formationhttps://doi.org/10.1016/S1872-5813(19)30050-7Declaration of Competing Interest: The authors declare no conflict of interest.21Attapulgite supported Cu-Fe-Co based catalyst combination system for CO hydrogenation to lower alcoholshttps://doi.org/10.1016/S1872-5813(19)30053-2Decl</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392589608</t>
+          <t>https://openalex.org/W3167306296</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/egusphere-egu24-5280</t>
+          <t>https://doi.org/10.4135/9788132108542</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Snoll et al. (2024)</t>
+          <t>Nilakant &amp; Ramnarayan (2006)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sensitivity of millennial-scale climate oscillations to boundary conditions in HadCM3 glacial simulations</t>
+          <t>Change Management: Altering Mindsets in a Global Context</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Rom&amp;amp;#233; et al. (2022) present a new set of long-run Last Glacial Maximum experiments with millennial-scale climate oscillations between cold and warm modes. These oscillations are triggered by different snapshots of ice-sheet meltwater derived from the early stages of the last deglaciation. The overall characteristics of the oscillating events share similarities with &amp;amp;#948;18O records of the last glacial period. We test the robustness of these oscillations under different climate conditions, i.e., changes in atmospheric carbon dioxide concentration and orbital configuration. These experiments were run with intentions to better understand the range of conditions the oscillations can be sustained within the model and provide additional insight into the triggering mechanisms that control abrupt climate changes. The results of our sensitivity analysis show that small changes in carbon dioxide concentrations can impact the periodicity and existence of oscillations. A decrease in carbon dioxide concentration decreases periodicity, and an increase in carbon dioxide concentration increases periodicity, leading to an end of the oscillations. Our results also show that for changes in orbital configuration, an increase in Northern Hemisphere summer insolation decreases periodicity and potentially also amplitude. The results show that small changes in climate conditions can impact the shape and existence of oscillations and how this could relate to the changing periodicity and amplitude of observed Dansgaard-Oeschger events as well as transitions from glacial to interglacial states.</t>
+          <t>THIS BOOK was originally conceived as the second edition of our previous book Managing Organisational Change, written in the aftermath of liberalisation initiated by the Indian government in 1991 and published in 1998. Based on primary data from about fifty Indian organisations in a variety of industries, it examined the challenges of growth in an emerging, liberalised competitive environment. We viewed organisational change as comprising three generic processes of growth, transformation and decline. We suggested that these three processes differ from one another in certain crucial respects and, therefore, required different approaches to manage the same. We argued that it was important for managers to know which generic process they are managing in order to be effective. We presented a model of the levers of change that provided an integrated approach to the management of change. Our generic model specifically focused on eight tangible levers of change: values-based leadership, strategy, structure, human resource practices, technology, marketing, quality, and costs. While the model was illustrated with examples from the best of Indian and international practices, the book emphasized both what organisations need to change and how they should go about it. It suggested that the effective management of change involves managing intangibles, particularly positive values such as selflessness, justice, compassion, tolerance, respect and integrity.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1827101252</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/genetics/151.2.667</t>
+          <t>https://openalex.org/W3110488589</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Parsch et al. (1999)</t>
+          <t>Morales &amp; Daniel (2020)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>A Highly Conserved Sequence in the 3′-Untranslated Region of the Drosophila Adh Gene Plays a Functional Role in Adh Expression</t>
+          <t>Superservicios : definiendo la ruta para la transformación</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Abstract Phylogenetic analysis identified a highly conserved eight-base sequence (AAGGCTGA) within the 3′-untranslated region (UTR) of the Drosophila alcohol dehydrogenase gene, Adh. To examine the functional significance of this conserved motif, we performed in vitro deletion mutagenesis on the D. melanogaster Adh gene followed by P-element-mediated germline transformation. Deletion of all or part of the eight-base sequence leads to a twofold increase in in vivo ADH enzymatic activity. The increase in activity is temporally and spatially general and is the result of an underlying increase in Adh transcript. These results indicate that the conserved 3′-UTR motif plays a functional role in the negative regulation of Adh gene expression. The evolutionary significance of our results may be understood in the context of the amino acid change that produces the ADH-F allele and also leads to a twofold increase in ADH activity. While there is compelling evidence that the amino acid replacement has been a target of positive selection, the conservation of the 3′-UTR sequence suggests that it is under strong purifying selection. The selective difference between these two sequence changes, which have similar effects on ADH activity, may be explained by different metabolic costs associated with the increase in activity.</t>
+          <t>The Superservicios mission is to promote and protect the rights and duties of users and providers of home public services and the provision of these essential services in a sustainable and quality manner, in order to contribute to the improvement of the quality of life of the Colombians, to the competitiveness of the sector and to the economic and social development of the country. Regarding the vision, it is intended that the Superintendency contribute to the sustainability and transformation of public services in Colombia, using cutting-edge techniques and supporting their planning, regulation and development, with the expectation of achieving the articulation of the different institutional actors, positioning users as the central axis of services._x000D_
+_x000D_
+This is a decision-based case. Asks the students to play the role of the Superintendent of Public Services, who within her duties must define the strategy to be followed by the entity, and who must additionally propose the guidelines to be followed to comply with all the regulatory requirements demanded by the Government Colombian in addition to analyzing the situation described and making recommendations regarding the way in which it should face the digital transformation of the Superservices to achieve the objectives defined by the Colombian Government.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3210758691</t>
+          <t>https://openalex.org/W2180817908</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5281/zenodo.3770921</t>
+          <t>https://doi.org/10.1007/978-0-387-35692-1_28</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Roarty (2020)</t>
+          <t>Binney &amp; Ishak (2003)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2007-2016 Surface Circulation over the Mid Atlantic Bight Continental Shelf derived from a Decade of High Frequency Radar Observations</t>
+          <t>When E-Business becomes K-Business…‥will it be ‘A Natural Act’?</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A decade (2007-2016) of hourly 6 km resolution maps of the surface currents across the Mid Atlantic Bight (MAB) generated by a regional-scale High Frequency Radar network are used to reveal new insights into the spatial patterns of the long term annual and seasonal mean surface flows. Across the 10 year time series, temporal means, inter- and intra-annual variability are used to quantify the variability of spatial surface current patterns from season to season and year to year. The 10-year annual mean surface flows are weaker and mostly cross shelf near the coast, increasing in speed and rotating to more alongshore directions near the shelf break, and increasing in speed and rotating to flow off-shelf in the southern MAB. The annual mean surface current pattern is relatively stable year to year compared to the hourly variations within a year. The ten-year seasonal means exhibit similar current patterns, with winter and summer more cross-shore while spring and fall transitions are more alongshore. Fall and winter mean current speeds are larger and correspond to a time when the mean winds are stronger and cross-shore. Summer mean currents are weakest and correspond to a time when the mean wind opposes the alongshore flow. Again, intra-annual variability is much greater than interannual, with the fall season exhibiting the most interannual variability in the surface current patterns. The extreme fall seasons of 2009 and 2011 are related to extremes in the wind and river discharge events caused by different persistent synoptic meteorological conditions, resulting in more or less rapid fall transitions from stratified summer to well-mixed winter conditions.</t>
+          <t>This paper proposes that the next wave of electronic business (e-business) will move from current transaction based e-business to the merging of e-business and knowledge management, and that organizations that have already internally adopted knowledge management (KM) will find the transition to this next wave of e-business a natural and sustainable act. The first part of the paper explores recent trends and forecasts pertaining to e-business and KM, concluding that organizations are moving towards a more networked economy where partnerships, collaboration and knowledge sharing will complement current transactional e-business, and that successful KM requires a balance between technology and organizational change interventions. The second part of the paper explores the issues associated with establishing a knowledge-sharing culture in preparation for the next proposed evolution of e-business by presenting interim results of a current study into the adoption of KM practices by staff in a global IT services company. Instantiating various adoption models, the study investigated time of adoption and potential factors that influenced the adoption of 2 KM applications by 283 survey respondents. The findings of this research are interpreted in light of the proposed next wave of e-business, providing additional considerations and actions that organizations may take to successfully participate in the evolution of e-business in a more knowledge sharing based networked economy.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2046124304</t>
+          <t>https://openalex.org/W1999514697</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1306/5d25c35d-16c1-11d7-8645000102c1865d</t>
+          <t>https://doi.org/10.1016/j.funeco.2008.02.001</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Kahle (1968)</t>
+          <t>Baldrián (2008)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Petrology and Structure of a Salina (Silurian) Dolomitized Algal Stromatolite Complex, Northwestern Ohio: ABSTRACT</t>
+          <t>Wood-inhabiting ligninolytic basidiomycetes in soils: Ecology and constraints for applicability in bioremediation</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A unique algal stromatolite complex is located southwest of Maumee, Ohio, on the Niagaran reef-bank system that contributed to the isolation of the Michigan basin during the Cayugan Epoch. Overlying strata have been eroded so that the individual features of the complex may be studied in essentially their original paleogeographic setting. Major features in the study area include tidal channels, natural carbonate levees, algal mounds, scour channels, laminations, ripple marks, desiccation cracks, and gypsum and anhydrite molds. The dolomite rocks in the area may be subdivided into eight microfacies as follows: (1) mound; (2) End_Page 534------------------------------ mound scour channel; (3) mound transition; (4) intermound; (5) blanket; (6) laterally linked hemispheroid; (7) mud flat; and (8) tidal channel. Each of these microfacies is characterized by a particular algal mat frequency, the degree of development and the nature of laminations, and by the amount of mechanically deposited sediment. Major rock types are stromatolite-constructed dolomite mudstone, wackestone, and packstone. Nearly all samples are characterized by the partial or pervasive development of a filamentous (and presumably algal) microstructure. Burrows and pellets are uncommon in all of the microfacies. Ostracods are common. Laminations are well developed in all of the microfacies except the mound microfacies. Breccias are common especially in algal mounds and are due to mineralization by sulfate minerals, and dedolomitization, desiccation, and solution collapse. The general sequence of mineralization was: (1) formation of microcrystalline xenotopic dolomite, probably by replacement of an initial CaCO3 mud, accompanied by the formation of gypsum and anhydrite; (2) dedolomitization, primarily in the mound microfacies; (3) partial replacement of calcite and dolomite by celestite; (4) replacement of some calcite, dolomite, and celestite by fluorite; and (5) limited formation of medium crystalline, idiotopic, and hypidiotopic dolomite by a process of local source dolomite crystallization and recrystallization. Comparison with several Recent carbonate analogs in the Persian Gulf and Bahamas suggests that most of the eight microfacies were formed in a supratidal environment. End_of_Article - Last_Page 535------------</t>
+          <t>Ligninolytic basidiomycetes associated with wood decay are a physiologically distinct group of saprotrophic fungi capable of decomposition of all major components of wood. Although wood is their natural substrate, several species can survive in soil if suitable substrates are available, the soil-colonizing ability of species in the genera Phanerochaete, Pleurotus and Trametes being comparable to that of the soil-inhabiting basidiomycetes utilizing plant litter. Wood-inhabiting ligninolytic basidiomycetes (WLB) in soil interact with soil microflora, and some species are very efficient competitors affecting both the soil microbial biomass and the composition of the indigenous microbial community. The extracellular enzymes utilized by saprotrophic basidiomycetes for nutrient acquisition participate in the interspecific interactions with other soil biota but are also involved in the transformation of soil organic matter – lignocellulose and humic compounds. Bioremediation research has significantly enriched our knowledge of the ecology of basidiomycetes, but it has also identified several limitations for practical applicability of WLB at a field scale, and has led to the conclusion that natural attenuation or bioaugmentation are todays methods of choice for on site treatment.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W12687961</t>
+          <t>https://openalex.org/W2016254158</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-642-16985-4_17</t>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Braatz &amp; Brandt (2010)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>How to Modify on the Semantic Web?</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>In this paper, we show how formal methods of algebraic graph transformation can be made available in the technological environment of the Semantic Web. This new and promising approach allows to model and formulate transformation operations on a high level of abstraction. To demonstrate its feasibility, we develop a small book shop case study. We show how some of the necessary modification operations in this settings can be realised by the proposed SPARQL/Update language and by our rule-based graph transformation approach. In a comparison, we highlight the main differences between these two approaches. The most important benefit of our rule-based transformation approach is that it facilitates to move from application engineering to rule engineering and thereby support generic solutions, which lower the maintenance efforts by supporting the declarative specification of modification operations.</t>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994009899</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/03067319.2014.983494</t>
+          <t>https://openalex.org/W3172847412</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Camilleri et al. (2014)</t>
+          <t>Olazabal (2020)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
+          <t>El reto climático en las ciudades</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
+          <t>espanolEl reto climatico es especialmente importante en las ciudades y asi lo trasladan la Nueva Agenda Urbana y los objetivos de desarrollo sostenible. En este capitulo se discuten las claves locales del reto climatico con una doble perspectiva: las ciudades como parte del problema y como sistemas altamente vulnerables al cambio climatico. Se describen estos retos a traves de un repaso de las tendencias urbanas y sus consecuencias en terminos de emisiones y riesgos climaticos. Con el objetivo de establecer las pautas para una transformacion urbana justa, sostenible y resiliente, se discuten los principales tipos de medidas climaticas, los condicionantes intrinsecos urbanos que explican la necesidad de pensar desde lo local, y los principios clave de la accion climatica: flexibilidad, integracion y transdisciplinariedad. El capitulo termina con un repaso al progreso de la accion climatica local y concluye aludiendo a la co-responsabilidad de los gobiernos locales, de las empresas, ciudadanos y usuarios de las urbes, en el transito hacia modelos urbanos bajos en carbono y resilientes al cambio climatico. EnglishThe climate challenge is especially important in cities as reflected in the New Urban Agenda and the Sustainable Development Goals. This chapter discusses the key aspects of the urban climate challenge with a double perspective: cities as the source of the problem and as systems highly vulnerable to climate change. These challenges are described through a review of urban trends and their consequences in terms of emissions and climate risks. In order to establish guidelines for a just, sustainable and resilient urban transformation, the chapter discusses the main types of climate action, the inherent urban conditioning factors that explain the need to think locally, and, eventually, the key principles of climate action: flexibility, integration and transdisciplinarity. The chapter ends with a review of the progress of local climate action globally and concludes by calling to the co-responsibility of local governments, companies, citizens and users of cities, in the transition towards low-carbon urban models which are re